--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilm\Documents\projects\fisheriesXplorer\data-raw\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C93336-57DA-413C-922D-C365FB663A2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{3BBE2805-3CC2-4F2B-83F6-2141C0C2D9A5}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="overview" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="overview"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -30,19 +19,16 @@
     <t>section</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>executive_summary</t>
   </si>
   <si>
+    <t>Around 6600 fishing vessels are active in the Greater North Sea. Total landings peaked in the 1970s at 4 million tonnes and have since declined to about 2 million tonnes. Total fishing effort has declined substantially since 2003. Pelagic fish landings are greater than demersal fish landings. Herring and mackerel, caught using pelagic trawls and seines, account for the largest portion of the pelagic landings, while sandeel and haddock, caught using otter trawls/seines, account for the largest fraction of the demersal landings. Catches are taken from more than 100 stocks. Discards are highest in the demersal and benthic fisheries. The spatial distribution of fishing gear varies across the Greater North Sea. Static gear is used most frequently in the English Channel, the eastern part of the Southern Bight, the Danish banks, and in the waters east of Shetland. Bottom trawls are used throughout the North Sea, with lower use in the shallower southern North Sea, where beam trawls are most commonly used. Pelagic gears are used throughout the North Sea. &lt;br&gt;&lt;br&gt;In terms of weight of catch, fish stocks harvested from the North Sea are being fished at levels consistent with achieving good environmental status (GES) under the EU’s Marine Strategy Framework Directive; however, the reproductive capacity of the stocks has not generally reached this level. Almost all the fisheries in the North Sea catch more than one species; controlling fishing on one species therefore affects other species as well. ICES has developed a number of scenarios for fishing opportunities that take account of these technical interactions. Each of these scenarios results in different outcomes for the fish stocks. Managers may need to take these scenarios into account when deciding upon fishing opportunities. Furthermore, biological interactions occur between species (e.g. predation), and fishing on one stock may affect the population dynamics of another. Scenarios that take account of these various interactions can be used to evaluate the possible consequences of policy decisions. The greatest physical disturbances of the seabed caused by fishing activity in the North Sea is caused by mobile bottom-contacting gear in the eastern English Channel, in nearshore areas in the southeastern North Sea and in the central Skagerrak. Incidental bycatches of protected, endangered, and threatened species occur in several North Sea fisheries, and the bycatch of common dolphin in the western English Channel may be unsustainable in terms of population. &lt;br&gt;&lt;br&gt;Supporting data used in the Greater North Sea fisheries overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.21641360"&gt;ICES Library&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>introduction</t>
-  </si>
-  <si>
-    <t>who_is_fishing</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Around 6600 fishing vessels are active in the Greater North Sea. Total landings peaked in the 1970s at 4 million tonnes and have since declined to about 2 million tonnes. Total fishing effort has declined substantially since 2003. Pelagic fish landings are greater than demersal fish landings. Herring and mackerel, caught using pelagic trawls and seines, account for the largest portion of the pelagic landings, while sandeel and haddock, caught using otter trawls/seines, account for the largest fraction of the demersal landings. Catches are taken from more than 100 stocks. Discards are highest in the demersal and benthic fisheries. The spatial distribution of fishing gear varies across the Greater North Sea. Static gear is used most frequently in the English Channel, the eastern part of the Southern Bight, the Danish banks, and in the waters east of Shetland. Bottom trawls are used throughout the North Sea, with lower use in the shallower southern North Sea, where beam trawls are most commonly used. Pelagic gears are used throughout the North Sea. In terms of weight of catch, fish stocks harvested from the North Sea are being fished at levels consistent with achieving good environmental status (GES) under the EU’s Marine Strategy Framework Directive; however, the reproductive capacity of the stocks has not generally reached this level. Almost all the fisheries in the North Sea catch more than one species; controlling fishing on one species therefore affects other species as well. ICES has developed a number of scenarios for fishing opportunities that take account of these technical interactions. Each of these scenarios results in different outcomes for the fish stocks. Managers may need to take these scenarios into account when deciding upon fishing opportunities. Furthermore, biological interactions occur between species (e.g. predation), and fishing on one stock may affect the population dynamics of another. Scenarios that take account of these various interactions can be used to evaluate the possible consequences of policy decisions. The greatest physical disturbances of the seabed caused by fishing activity in the North Sea is caused by mobile bottom-contacting gear in the eastern English Channel, in nearshore areas in the southeastern North Sea and in the central Skagerrak. Incidental bycatches of protected, endangered, and threatened species occur in several North Sea fisheries, and the bycatch of common dolphin in the western English Channel may be unsustainable in terms of population. Supporting data used in the Greater North Sea fisheries overview is accessible at https://doi.org/10.17895/ices.advice.21641360</t>
   </si>
   <si>
     <t xml:space="preserve">The Greater North Sea ecoregion includes the North Sea, English Channel, Skagerrak, and Kattegat. The Greater North Sea
@@ -56,34 +42,37 @@
 Channel (Division 7.e) and in the Sound (Division 3.b.23).
 Note that updates to the figures using data from the stock assessment graphs (SAG) include only advice published before
 10 October 2022. Therefore anf.27.3a46, meg.27.7b-k8abd, rjn.27.678abd, and the Norway lobster stocks refer to the
-advice current at this time (the advice applicable for 2022).
-This overview provides:
- a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears,
+advice current at this time (the advice applicable for 2022).&lt;br&gt;&lt;br&gt; 
+This overview provides:&lt;br&gt; 
+&lt;ol&gt;&lt;li&gt; a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears,
 and spatial and temporal patterns of activity;
- a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
+&lt;li&gt; a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
 reference points;
- mixed-fisheries considerations of relevance to the management of the fisheries; and
- an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
-protected, endangered, and threatened species.
+&lt;li&gt; mixed-fisheries considerations of relevance to the management of the fisheries; and
+&lt;li&gt; an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
+protected, endangered, and threatened species.&lt;/ol&gt;&lt;br&gt;&lt;br&gt; 
 The scientific names of all species described in this overview are listed in Table A2 in the Annex. </t>
+  </si>
+  <si>
+    <t>who_is_fishing</t>
   </si>
   <si>
     <t>Around 6600 vessels from nine nations operate in the Greater North Sea, with the largest numbers coming from UK,
 Norway, Denmark, the Netherlands, and France. Total landings peaked in the early 1970s and have since declined. The
 proportion caught by each country of the total annual landings has varied over time (Figure 2). The following country
-paragraphs highlight features of the fleets and fisheries of each country but are not exhaustive descriptions.
+paragraphs highlight features of the fleets and fisheries of each country but are not exhaustive descriptions.&lt;br&gt;&lt;br&gt;
 In the European Commission’s Scientific Technical and Economic Committee for Fisheries (STECF) Fisheries Dependence
 Information (FDI) data call, “confidentiality” in the landings and effort tables by country was introduced. The data call
 suggests that data related to fewer than three vessels could be considered confidential. Given the disaggregation of this
 data call (e.g. vessel length, gear, mesh size, quarter) many entries were submitted as confidential. It is therefore not
 possible to assess the extent to which the effort data are impacted by confidentiality and whether this is consistent over
-time. As a consequence, and in a change from previous years, no effort by country was presented in this fisheries overview.
-Belgium
+time. As a consequence, and in a change from previous years, no effort by country was presented in this fisheries overview.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Belgium&lt;/b&gt;&lt;br&gt;
 The Belgian fishing fleet is composed of 65 active vessels, primarily beam trawlers both above and below 24 m in length.
 Few vessels are smaller than 12 m. Most of the catch is demersal species; sole is the dominant species in value, and plaice
 the dominant species in volume. Other important species include Norway lobster, anglerfish, turbot, shrimp, lemon sole,
 common cuttlefish, squid, rays, and cod.
-Denmark
+&lt;b&gt;Denmark&lt;/b&gt;&lt;br&gt;
 The Danish fleet in 2019 had 717 vessels operating in the Greater North Sea, representing around half of the entire Danish
 fleet (1560 vessels). The size of the fleet has been generally decreasing over the last decade and in 2010 there were 968
 vessels operating (out of a total of 2220 vessels). In the following description a fishing operation is defined as a combination
@@ -104,7 +93,7 @@
 consistent over the last ten years. The most important pelagic fisheries target herring and mackerel for human
 consumption, and sandeel, sprat, and Norway pout for reduction purposes (i.e. fish meal and oils), which is also consistent
 for the period.
-France
+&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
 The French fleet in the North Sea is composed of more than 600 vessels. The demersal fisheries operate mainly in the
 eastern English Channel and southern North Sea and catch a variety of finfish and shellfish species. Up until 2016, the
 largest fleet segments were gill- and trammelnetters (10–18 m) targeting sole, followed by demersal trawlers (12–24 m)
@@ -114,7 +103,7 @@
 different species assemblages. There is also a fleet of six large demersal trawlers ( &gt;40 m) that target saithe in the northern
 North Sea and to the west of Scotland. The pelagic fishery is prosecuted by three active vessels catching herring, mackerel,
 and horse-mackerel.
-Germany
+&lt;B&gt;Germany&lt;/b&gt;&lt;br&gt;
 The German North Sea fishing fleet comprises more than 200 vessels. Small beam trawlers of 12–24 m length constitute
 the largest fleet component (around 175 vessels in 2019) and almost exclusively target brown shrimp in the southern North
 Sea. In addition, some medium- and large-sized beam trawlers (eight vessels, 24–40 m length; three vessels &gt; 40 m length)
@@ -128,14 +117,14 @@
 Especially the number of smaller beam trawlers (12–18 m length, 35 fewer vessels or −25%) and demersal otter trawlers
 (18–24 m length, 14 fewer vessels or −50%) decreased. The number of large pelagic trawlers stayed stable with five vessels
 for the last ten years.
-Netherlands
+&lt;b&gt;Netherlands&lt;/b&gt;&lt;br&gt;
 The Dutch fleet in the Greater North Sea consists of about 500 vessels. The main demersal fleet is the beam trawl fleet
 (275 vessels, of which 85 are &gt; 24 m and 190 are &lt; 24 m) that operates in the southern and central North Sea, targeting
 sole (dominant in value) and plaice (dominant in volume) as well as other flatfish species. Until the recent EU-wide ban on
 pulse trawling most of the &gt; 24 m beam trawlers have used pulse trawls. Most of the smaller beam trawlers (“Eurocutters”)
 seasonally target shrimp or flatfish. Pelagic freezer trawlers (seven vessels, &gt; 60 m) target pelagic species, mainly herring,
 mackerel, and horse mackerel.
-Norway
+&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
 The Norwegian North Sea fleet is composed of about 1500 vessels. Approximately 94% of these catch demersal species,
 including fish, crustaceans, and elasmobranchs, while 33% catch pelagic species, including herring, blue whiting, mackerel,
 and sprat (i.e. 27% catch both pelagic and demersal species). This contrasts with the respective 78% and 54% fractions
@@ -152,7 +141,7 @@
 increase of the number of small vessels and a slight decrease in the number of vessels &gt; 24 m (−13%). The largest vessels
 among them ( &gt;40 m) are mostly pelagic trawlers and purse-seiners that operate offshore and account for more than 80%
 of the total landings (up from 75% in ten years; +40% in absolute landing tonnage).
-Sweden
+&lt;b&gt;Sweden&lt;/b&gt;&lt;br&gt;
 The Swedish fleet in the Greater North Sea comprises more than 400 vessels. Most vessels operate in the Skagerrak and
 Kattegat, but around 25 of them also fish in the North Sea. In total around 130 vessels are involved in demersal trawl
 fisheries, catching several species in the Kattegat and Skagerrak; mainly Norway lobster, northern shrimp, cod, witch,
@@ -167,7 +156,7 @@
 transferable fishing rights in the demersal fleets in 2017. The fleet reduction is most pronounced in the Skagerrak and
 Kattegat, whereas the pelagic fleet and the demersal vessels fishing in the North Sea have been rather stable in terms of
 number of vessels over the last decade.
-UK (England)
+&lt;b&gt;UK (England)&lt;/b&gt;&lt;br&gt;
 The English fleet operating in the Greater North Sea ecoregion during 2019 was comprised of 1133 vessels, with a decrease
 of 33 vessels from 2018. The decrease is part of a longer running trend across many sectors, but most noticeably in the
 under 10 m fleet, which has reduced by around 200 vessels since 2009.
@@ -182,7 +171,7 @@
 demersal finfish.
  There were 12 English vessels over 40 m operating in the North Sea in 2019 and this number has been virtually
 unchanged since 2009. This largest category of vessel targets finfish, mostly demersal but some pelagic.
-UK (Scotland)
+&lt;b&gt;UK (Scotland)&lt;/b&gt;&lt;br&gt;
 The Scottish North Sea fleet comprises around 1000 vessels. More than 120 demersal trawlers (almost all &gt; 10 m) fish for
 mixed gadoids (cod, haddock, whiting, saithe, and hake,) and for groundfish such as anglerfish and megrim. A fleet of 139
 trawlers fish mainly for Norway lobster in the North Sea: 48 of these vessels (&lt; 10 m) operate on the inshore grounds, while
@@ -196,14 +185,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,7 +210,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -226,23 +229,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -253,10 +268,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -283,116 +298,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,188 +385,211 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA19D3C-523E-4E03-AED7-6ACFA42DB5D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="255.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="162">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="549" customFormat="1" s="3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="1574.25" customFormat="1" s="3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -71,7 +71,7 @@
 The Belgian fishing fleet is composed of 65 active vessels, primarily beam trawlers both above and below 24 m in length.
 Few vessels are smaller than 12 m. Most of the catch is demersal species; sole is the dominant species in value, and plaice
 the dominant species in volume. Other important species include Norway lobster, anglerfish, turbot, shrimp, lemon sole,
-common cuttlefish, squid, rays, and cod.
+common cuttlefish, squid, rays, and cod.&lt;br&gt;&lt;br&gt;
 &lt;b&gt;Denmark&lt;/b&gt;&lt;br&gt;
 The Danish fleet in 2019 had 717 vessels operating in the Greater North Sea, representing around half of the entire Danish
 fleet (1560 vessels). The size of the fleet has been generally decreasing over the last decade and in 2010 there were 968
@@ -92,7 +92,7 @@
 northern shrimp, and Nephrops using predominantly bottom trawls with some seine activity. This pattern has been
 consistent over the last ten years. The most important pelagic fisheries target herring and mackerel for human
 consumption, and sandeel, sprat, and Norway pout for reduction purposes (i.e. fish meal and oils), which is also consistent
-for the period.
+for the period.&lt;br&gt;&lt;br&gt;
 &lt;b&gt;France&lt;/b&gt;&lt;br&gt;
 The French fleet in the North Sea is composed of more than 600 vessels. The demersal fisheries operate mainly in the
 eastern English Channel and southern North Sea and catch a variety of finfish and shellfish species. Up until 2016, the
@@ -102,7 +102,7 @@
 Division 7.d and the southern part of Division 4.c. Smaller boats operate different gears throughout the year and target 
 different species assemblages. There is also a fleet of six large demersal trawlers ( &gt;40 m) that target saithe in the northern
 North Sea and to the west of Scotland. The pelagic fishery is prosecuted by three active vessels catching herring, mackerel,
-and horse-mackerel.
+and horse-mackerel.&lt;br&gt;&lt;br&gt;
 &lt;B&gt;Germany&lt;/b&gt;&lt;br&gt;
 The German North Sea fishing fleet comprises more than 200 vessels. Small beam trawlers of 12–24 m length constitute
 the largest fleet component (around 175 vessels in 2019) and almost exclusively target brown shrimp in the southern North
@@ -116,14 +116,14 @@
 Overall, a reduction in the number of vessels was recorded for the German North Sea fishing fleet during the last ten years.
 Especially the number of smaller beam trawlers (12–18 m length, 35 fewer vessels or −25%) and demersal otter trawlers
 (18–24 m length, 14 fewer vessels or −50%) decreased. The number of large pelagic trawlers stayed stable with five vessels
-for the last ten years.
+for the last ten years.&lt;br&gt;&lt;br&gt;
 &lt;b&gt;Netherlands&lt;/b&gt;&lt;br&gt;
 The Dutch fleet in the Greater North Sea consists of about 500 vessels. The main demersal fleet is the beam trawl fleet
 (275 vessels, of which 85 are &gt; 24 m and 190 are &lt; 24 m) that operates in the southern and central North Sea, targeting
 sole (dominant in value) and plaice (dominant in volume) as well as other flatfish species. Until the recent EU-wide ban on
 pulse trawling most of the &gt; 24 m beam trawlers have used pulse trawls. Most of the smaller beam trawlers (“Eurocutters”)
 seasonally target shrimp or flatfish. Pelagic freezer trawlers (seven vessels, &gt; 60 m) target pelagic species, mainly herring,
-mackerel, and horse mackerel.
+mackerel, and horse mackerel.&lt;br&gt;&lt;br&gt;
 &lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
 The Norwegian North Sea fleet is composed of about 1500 vessels. Approximately 94% of these catch demersal species,
 including fish, crustaceans, and elasmobranchs, while 33% catch pelagic species, including herring, blue whiting, mackerel,
@@ -140,7 +140,7 @@
 Ten years ago, larger vessels accounted for over 20% of the fleet (9% 24–40 m; 13% &gt; 40m), which factors in both the
 increase of the number of small vessels and a slight decrease in the number of vessels &gt; 24 m (−13%). The largest vessels
 among them ( &gt;40 m) are mostly pelagic trawlers and purse-seiners that operate offshore and account for more than 80%
-of the total landings (up from 75% in ten years; +40% in absolute landing tonnage).
+of the total landings (up from 75% in ten years; +40% in absolute landing tonnage).&lt;br&gt;&lt;br&gt;
 &lt;b&gt;Sweden&lt;/b&gt;&lt;br&gt;
 The Swedish fleet in the Greater North Sea comprises more than 400 vessels. Most vessels operate in the Skagerrak and
 Kattegat, but around 25 of them also fish in the North Sea. In total around 130 vessels are involved in demersal trawl
@@ -155,7 +155,7 @@
 fleet are reduced fishing opportunities, poor profitability, scrapping campaigns, and the introduction of annually
 transferable fishing rights in the demersal fleets in 2017. The fleet reduction is most pronounced in the Skagerrak and
 Kattegat, whereas the pelagic fleet and the demersal vessels fishing in the North Sea have been rather stable in terms of
-number of vessels over the last decade.
+number of vessels over the last decade.&lt;br&gt;&lt;br&gt;
 &lt;b&gt;UK (England)&lt;/b&gt;&lt;br&gt;
 The English fleet operating in the Greater North Sea ecoregion during 2019 was comprised of 1133 vessels, with a decrease
 of 33 vessels from 2018. The decrease is part of a longer running trend across many sectors, but most noticeably in the
@@ -170,7 +170,7 @@
 in recent years. This sector predominantly targets cockle and edible crab, with only around 12 vessels targeting
 demersal finfish.
  There were 12 English vessels over 40 m operating in the North Sea in 2019 and this number has been virtually
-unchanged since 2009. This largest category of vessel targets finfish, mostly demersal but some pelagic.
+unchanged since 2009. This largest category of vessel targets finfish, mostly demersal but some pelagic.&lt;br&gt;&lt;br&gt;
 &lt;b&gt;UK (Scotland)&lt;/b&gt;&lt;br&gt;
 The Scottish North Sea fleet comprises around 1000 vessels. More than 120 demersal trawlers (almost all &gt; 10 m) fish for
 mixed gadoids (cod, haddock, whiting, saithe, and hake,) and for groundfish such as anglerfish and megrim. A fleet of 139
@@ -178,7 +178,7 @@
 91 ( &gt; 10 m) operate over various offshore grounds. Pot or creel fishing is prosecuted by over 650 vessels (mostly &lt; 10 m)
 targeting lobsters and various crab species on harder inshore grounds. Scallop fishing is carried out by around 80 dredgers
 (mostly &gt; 10 m). Limited amounts of longlining and gillnetting are also conducted by Scottish vessels. Significant catches of
-pelagic species are harvested by 18 large vessels, primarily using pelagic trawls.
+pelagic species are harvested by 18 large vessels, primarily using pelagic trawls.&lt;br&gt;&lt;br&gt;
 The Faroe Islands also fish in the Greater North Sea, but ICES does not have information on this fleet.</t>
   </si>
 </sst>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilm\Projects\fisheriesXplorer\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22816777-6EF0-4493-BC0A-1441772498D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="28800" windowHeight="15030" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="overview"/>
+    <sheet name="overview" sheetId="1" r:id="rId1"/>
+    <sheet name="landings_discards" sheetId="2" r:id="rId2"/>
+    <sheet name="bycatch" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>section</t>
   </si>
@@ -25,36 +33,13 @@
     <t>executive_summary</t>
   </si>
   <si>
-    <t>Around 6600 fishing vessels are active in the Greater North Sea. Total landings peaked in the 1970s at 4 million tonnes and have since declined to about 2 million tonnes. Total fishing effort has declined substantially since 2003. Pelagic fish landings are greater than demersal fish landings. Herring and mackerel, caught using pelagic trawls and seines, account for the largest portion of the pelagic landings, while sandeel and haddock, caught using otter trawls/seines, account for the largest fraction of the demersal landings. Catches are taken from more than 100 stocks. Discards are highest in the demersal and benthic fisheries. The spatial distribution of fishing gear varies across the Greater North Sea. Static gear is used most frequently in the English Channel, the eastern part of the Southern Bight, the Danish banks, and in the waters east of Shetland. Bottom trawls are used throughout the North Sea, with lower use in the shallower southern North Sea, where beam trawls are most commonly used. Pelagic gears are used throughout the North Sea. &lt;br&gt;&lt;br&gt;In terms of weight of catch, fish stocks harvested from the North Sea are being fished at levels consistent with achieving good environmental status (GES) under the EU’s Marine Strategy Framework Directive; however, the reproductive capacity of the stocks has not generally reached this level. Almost all the fisheries in the North Sea catch more than one species; controlling fishing on one species therefore affects other species as well. ICES has developed a number of scenarios for fishing opportunities that take account of these technical interactions. Each of these scenarios results in different outcomes for the fish stocks. Managers may need to take these scenarios into account when deciding upon fishing opportunities. Furthermore, biological interactions occur between species (e.g. predation), and fishing on one stock may affect the population dynamics of another. Scenarios that take account of these various interactions can be used to evaluate the possible consequences of policy decisions. The greatest physical disturbances of the seabed caused by fishing activity in the North Sea is caused by mobile bottom-contacting gear in the eastern English Channel, in nearshore areas in the southeastern North Sea and in the central Skagerrak. Incidental bycatches of protected, endangered, and threatened species occur in several North Sea fisheries, and the bycatch of common dolphin in the western English Channel may be unsustainable in terms of population. &lt;br&gt;&lt;br&gt;Supporting data used in the Greater North Sea fisheries overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.21641360"&gt;ICES Library&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>introduction</t>
   </si>
   <si>
-    <t xml:space="preserve">The Greater North Sea ecoregion includes the North Sea, English Channel, Skagerrak, and Kattegat. The Greater North Sea
-is a relatively shallow sea area on the European continental shelf, with the exception of the Norwegian Trench that extends
-parallel to the Norwegian shoreline. Pelag+B3ic species (primarily herring and mackerel) account for a significant portion of
-the total commercial fish landings in the region. Landings of benthic and demersal finfish species (primarily haddock,
-sandeel, flatfish, and cod) are also significant. &lt;br&gt;&lt;br&gt; 
-All of the Greater North Sea ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area
-codes is therefore omitted in the following. This overview covers ICES Division 3.a, most of divisions 4.a, 4.b, 4.c, 7.d, and
-part of Division 7.e, as well as Subdivision 3.b.23. This overview does not include the fisheries in the western English
-Channel (Division 7.e) and in the Sound (Division 3.b.23).
-Note that updates to the figures using data from the stock assessment graphs (SAG) include only advice published before
-10 October 2022. Therefore anf.27.3a46, meg.27.7b-k8abd, rjn.27.678abd, and the Norway lobster stocks refer to the
-advice current at this time (the advice applicable for 2022).&lt;br&gt;&lt;br&gt; 
-This overview provides:&lt;br&gt; 
-&lt;ol&gt;&lt;li&gt; a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears,
-and spatial and temporal patterns of activity;
-&lt;li&gt; a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
-reference points;
-&lt;li&gt; mixed-fisheries considerations of relevance to the management of the fisheries; and
-&lt;li&gt; an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
-protected, endangered, and threatened species.&lt;/ol&gt;&lt;br&gt;&lt;br&gt; 
-The scientific names of all species described in this overview are listed in Table A2 in the Annex. </t>
-  </si>
-  <si>
     <t>who_is_fishing</t>
+  </si>
+  <si>
+    <t>Around 6600 fishing vessels are active in the Greater North Sea. Total landings peaked in the 1970s at 4 million tonnes and have since declined to about 2 million tonnes. Total fishing effort has declined substantially since 2003. Pelagic fish landings are greater than demersal fish landings. Herring and mackerel, caught using pelagic trawls and seines, account for the largest portion of the pelagic landings, while sandeel and haddock, caught using otter trawls/seines, account for the largest fraction of the demersal landings. Catches are taken from more than 100 stocks. Discards are highest in the demersal and benthic fisheries. The spatial distribution of fishing gear varies across the Greater North Sea. Static gear is used most frequently in the English Channel, the eastern part of the Southern Bight, the Danish banks, and in the waters east of Shetland. Bottom trawls are used throughout the North Sea, with lower use in the shallower southern North Sea, where beam trawls are most commonly used. Pelagic gears are used throughout the North Sea. &lt;br&gt;&lt;br&gt;In terms of weight of catch, fish stocks harvested from the North Sea are being fished at levels consistent with achieving good environmental status (GES) under the EU’s Marine Strategy Framework Directive; however, the reproductive capacity of the stocks has not generally reached this level. Almost all the fisheries in the North Sea catch more than one species; controlling fishing on one species therefore affects other species as well. ICES has developed a number of scenarios for fishing opportunities that take account of these technical interactions. Each of these scenarios results in different outcomes for the fish stocks. Managers may need to take these scenarios into account when deciding upon fishing opportunities. Furthermore, biological interactions occur between species (e.g. predation), and fishing on one stock may affect the population dynamics of another. Scenarios that take account of these various interactions can be used to evaluate the possible consequences of policy decisions. The greatest physical disturbances of the seabed caused by fishing activity in the North Sea is caused by mobile bottom-contacting gear in the eastern English Channel, in nearshore areas in the southeastern North Sea and in the central Skagerrak. Incidental bycatches of protected, endangered, and threatened species occur in several North Sea fisheries, and the bycatch of common dolphin in the western English Channel may be unsustainable in terms of population. &lt;br&gt;&lt;br&gt;Supporting data used in the Greater North Sea fisheries overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.21641360"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t>Around 6600 vessels from nine nations operate in the Greater North Sea, with the largest numbers coming from UK,
@@ -179,14 +164,58 @@
 targeting lobsters and various crab species on harder inshore grounds. Scallop fishing is carried out by around 80 dredgers
 (mostly &gt; 10 m). Limited amounts of longlining and gillnetting are also conducted by Scottish vessels. Significant catches of
 pelagic species are harvested by 18 large vessels, primarily using pelagic trawls.&lt;br&gt;&lt;br&gt;
-The Faroe Islands also fish in the Greater North Sea, but ICES does not have information on this fleet.</t>
+The Faroe Islands also fish in the Greater North Sea, but ICES does not have information on this fleet.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The Greater North Sea ecoregion includes the North Sea, English Channel, Skagerrak, and Kattegat. The Greater North Sea
+is a relatively shallow sea area on the European continental shelf, with the exception of the Norwegian Trench that extends
+parallel to the Norwegian shoreline. Pelagic species (primarily herring and mackerel) account for a significant portion of
+the total commercial fish landings in the region. Landings of benthic and demersal finfish species (primarily haddock,
+sandeel, flatfish, and cod) are also significant. &lt;br&gt;&lt;br&gt; 
+All of the Greater North Sea ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area
+codes is therefore omitted in the following. This overview covers ICES Division 3.a, most of divisions 4.a, 4.b, 4.c, 7.d, and
+part of Division 7.e, as well as Subdivision 3.b.23. This overview does not include the fisheries in the western English
+Channel (Division 7.e) and in the Sound (Division 3.b.23).
+Note that updates to the figures using data from the stock assessment graphs (SAG) include only advice published before
+10 October 2022. Therefore anf.27.3a46, meg.27.7b-k8abd, rjn.27.678abd, and the Norway lobster stocks refer to the
+advice current at this time (the advice applicable for 2022).&lt;br&gt;&lt;br&gt; 
+This overview provides:&lt;br&gt;&lt;br&gt;
+&lt;ol style="font-size: 14px"&gt;
+&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears,
+and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
+reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;mixed-fisheries considerations of relevance to the management of the fisheries; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
+protected, endangered, and threatened species.&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>landings</t>
+  </si>
+  <si>
+    <t>discards</t>
+  </si>
+  <si>
+    <t>sidebar</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Landings&lt;/b&gt;&lt;br&gt;&lt;br&gt;Fisheries in the Greater North Sea catch a large diversity of species. These have been categorized into species that are pelagic, demersal, benthic (e.g. flatfish), crustaceans, and elasmobranchs. &lt;br&gt;&lt;br&gt;Total landings from the Greater North Sea varied between 2 and 3 million tonnes during the 1950s, then rose to between 3 and 4 million tonnes from the late 1960s to the mid-1990s (Figure 2). High catches of both pelagic species (mackerel and herring) and demersal species (cod and haddock) accounted for the increase in total landings in the late 1960s (figures 3 and 4). 
+The landings shown in Figure 4 only include those species for which ICES gives advice. There are a number of stocks for which ICES does not give advice where landings may be substantial (e.g. Scallop, edible crab, brown shrimp, European lobster, blue mussel). Total landings declined after 1995 to a low of 1.4 million tonnes in 2012. This decline is attributed to overfishing and decreased productivity of important stocks such as cod and herring, but also to the successful reduction of fishing mortality to more sustainable levels after 2000. &lt;br&gt;&lt;br&gt;
+Since 2003, the pelagic fisheries using pelagic trawl and purse seines have accounted for the largest proportion of the total landings, followed by the demersal and benthic fisheries (Figure 3). Overall landings increased slightly from 2011 after a rise in herring landings and again, most recently (in 2015), from increased catches of anchovy, sardine, and hake.&lt;br&gt;&lt;br&gt;
+Recreational fisheries in the North Sea target a wide range of species, but few of these fisheries are monitored or evaluated. Recreational catches of seabass and salmon (including freshwater for the latter) are significant and are included in ICES assessment of these species. In contrast, the recreational fisheries of elasmobranchs is not widely monitored; however, the recreational harvest of these species (mainly dogfish and several species of skates and rays) appears to be negligible.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Discards&lt;/b&gt;&lt;br&gt;&lt;br&gt;Discard data have been collected for some North Sea fisheries since the mid-1970s. Since 2000, discard data from North Sea commercial fisheries have been collected from various observer programmes implemented under the EU Data Collection Framework (DCF), and UK continued that commitment in retained law from 2020 after leaving the EU. However, complete discard data are only available from 2012 onwards. In 2015–2019, discard rates remained relatively stable. Discard rates of pelagic species were close to zero (Figure 6). Discard estimates for several species of elasmobranch are highly uncertain due to low encounter probabilities and so are not shown.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Bycatch of protected, endangered, and threatened species&lt;/b&gt;&lt;br&gt;&lt;br&gt; All fisheries have the potential to catch protected, endangered, or threatened species, such as seabirds and marine mammals, as non-targeted bycatch. Data submitted to ICES through annual data calls indicated that between 2017–2021 ten ICES Member Countries had fisheries operating in the Greater North Sea ecoregion (ICES, 2022a). During the same period approximately 13 000 monitoring days were undertaken, primarily by at-sea observers, in a variety of static and mobile gears and on vessels ranging from under 8 m to over 40 m. Most bycatch data collection in the ecoregion is carried out within multipurpose programmes under the DCF and through dedicated bycatch monitoring programmes.&lt;br&gt;&lt;br&gt;&lt;b&gt; Bycatch records in 2021&lt;/b&gt;&lt;br&gt;&lt;br&gt; In 2021, 47 marine mammals from at least four species were recorded as bycatch, mostly in net métiers. Forty-two seabirds from at least five species were recorded as bycatch in bottom trawl, longline, purse-seine and net fisheries (Table 1). Over 13 000 specimens of fish of potential conservation interest were recorded from a wide mix of static and mobile gears. Most of the fish records were tub gurnard (Chelidonichthys lucerna) in bottom trawls. No turtles were reported as bycatch.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,35 +258,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -268,10 +288,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -309,71 +329,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,7 +421,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -424,11 +444,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -437,13 +457,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -453,7 +473,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -462,7 +482,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -471,7 +491,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -479,10 +499,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -547,50 +567,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="255.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="162">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="549" customFormat="1" s="3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="1574.25" customFormat="1" s="3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4E976-B447-4DEF-A85E-11D6D9966CA4}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="255.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE2A7A1-C07D-40E0-A9E9-3CF06E261156}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="159.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilm\Projects\fisheriesXplorer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22816777-6EF0-4493-BC0A-1441772498D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F934F0D4-6429-41F7-900E-CB6E10AD2E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="28800" windowHeight="15030" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="3645" windowWidth="28800" windowHeight="15030" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
     <sheet name="landings_discards" sheetId="2" r:id="rId2"/>
     <sheet name="bycatch" sheetId="3" r:id="rId3"/>
+    <sheet name="status" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>section</t>
   </si>
@@ -39,10 +41,55 @@
     <t>who_is_fishing</t>
   </si>
   <si>
-    <t>Around 6600 fishing vessels are active in the Greater North Sea. Total landings peaked in the 1970s at 4 million tonnes and have since declined to about 2 million tonnes. Total fishing effort has declined substantially since 2003. Pelagic fish landings are greater than demersal fish landings. Herring and mackerel, caught using pelagic trawls and seines, account for the largest portion of the pelagic landings, while sandeel and haddock, caught using otter trawls/seines, account for the largest fraction of the demersal landings. Catches are taken from more than 100 stocks. Discards are highest in the demersal and benthic fisheries. The spatial distribution of fishing gear varies across the Greater North Sea. Static gear is used most frequently in the English Channel, the eastern part of the Southern Bight, the Danish banks, and in the waters east of Shetland. Bottom trawls are used throughout the North Sea, with lower use in the shallower southern North Sea, where beam trawls are most commonly used. Pelagic gears are used throughout the North Sea. &lt;br&gt;&lt;br&gt;In terms of weight of catch, fish stocks harvested from the North Sea are being fished at levels consistent with achieving good environmental status (GES) under the EU’s Marine Strategy Framework Directive; however, the reproductive capacity of the stocks has not generally reached this level. Almost all the fisheries in the North Sea catch more than one species; controlling fishing on one species therefore affects other species as well. ICES has developed a number of scenarios for fishing opportunities that take account of these technical interactions. Each of these scenarios results in different outcomes for the fish stocks. Managers may need to take these scenarios into account when deciding upon fishing opportunities. Furthermore, biological interactions occur between species (e.g. predation), and fishing on one stock may affect the population dynamics of another. Scenarios that take account of these various interactions can be used to evaluate the possible consequences of policy decisions. The greatest physical disturbances of the seabed caused by fishing activity in the North Sea is caused by mobile bottom-contacting gear in the eastern English Channel, in nearshore areas in the southeastern North Sea and in the central Skagerrak. Incidental bycatches of protected, endangered, and threatened species occur in several North Sea fisheries, and the bycatch of common dolphin in the western English Channel may be unsustainable in terms of population. &lt;br&gt;&lt;br&gt;Supporting data used in the Greater North Sea fisheries overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.21641360"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Around 6600 vessels from nine nations operate in the Greater North Sea, with the largest numbers coming from UK,
+    <t>landings</t>
+  </si>
+  <si>
+    <t>discards</t>
+  </si>
+  <si>
+    <t>sidebar</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Landings&lt;/b&gt;&lt;br&gt;&lt;br&gt;Fisheries in the Greater North Sea catch a large diversity of species. These have been categorized into species that are pelagic, demersal, benthic (e.g. flatfish), crustaceans, and elasmobranchs. &lt;br&gt;&lt;br&gt;Total landings from the Greater North Sea varied between 2 and 3 million tonnes during the 1950s, then rose to between 3 and 4 million tonnes from the late 1960s to the mid-1990s (Figure 2). High catches of both pelagic species (mackerel and herring) and demersal species (cod and haddock) accounted for the increase in total landings in the late 1960s (figures 3 and 4). 
+The landings shown in Figure 4 only include those species for which ICES gives advice. There are a number of stocks for which ICES does not give advice where landings may be substantial (e.g. Scallop, edible crab, brown shrimp, European lobster, blue mussel). Total landings declined after 1995 to a low of 1.4 million tonnes in 2012. This decline is attributed to overfishing and decreased productivity of important stocks such as cod and herring, but also to the successful reduction of fishing mortality to more sustainable levels after 2000. &lt;br&gt;&lt;br&gt;
+Since 2003, the pelagic fisheries using pelagic trawl and purse seines have accounted for the largest proportion of the total landings, followed by the demersal and benthic fisheries (Figure 3). Overall landings increased slightly from 2011 after a rise in herring landings and again, most recently (in 2015), from increased catches of anchovy, sardine, and hake.&lt;br&gt;&lt;br&gt;
+Recreational fisheries in the North Sea target a wide range of species, but few of these fisheries are monitored or evaluated. Recreational catches of seabass and salmon (including freshwater for the latter) are significant and are included in ICES assessment of these species. In contrast, the recreational fisheries of elasmobranchs is not widely monitored; however, the recreational harvest of these species (mainly dogfish and several species of skates and rays) appears to be negligible.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Discards&lt;/b&gt;&lt;br&gt;&lt;br&gt;Discard data have been collected for some North Sea fisheries since the mid-1970s. Since 2000, discard data from North Sea commercial fisheries have been collected from various observer programmes implemented under the EU Data Collection Framework (DCF), and UK continued that commitment in retained law from 2020 after leaving the EU. However, complete discard data are only available from 2012 onwards. In 2015–2019, discard rates remained relatively stable. Discard rates of pelagic species were close to zero (Figure 6). Discard estimates for several species of elasmobranch are highly uncertain due to low encounter probabilities and so are not shown.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Bycatch of protected, endangered, and threatened species&lt;/b&gt;&lt;br&gt;&lt;br&gt; All fisheries have the potential to catch protected, endangered, or threatened species, such as seabirds and marine mammals, as non-targeted bycatch. Data submitted to ICES through annual data calls indicated that between 2017–2021 ten ICES Member Countries had fisheries operating in the Greater North Sea ecoregion (ICES, 2022a). During the same period approximately 13 000 monitoring days were undertaken, primarily by at-sea observers, in a variety of static and mobile gears and on vessels ranging from under 8 m to over 40 m. Most bycatch data collection in the ecoregion is carried out within multipurpose programmes under the DCF and through dedicated bycatch monitoring programmes.&lt;br&gt;&lt;br&gt;&lt;b&gt; Bycatch records in 2021&lt;/b&gt;&lt;br&gt;&lt;br&gt; In 2021, 47 marine mammals from at least four species were recorded as bycatch, mostly in net métiers. Forty-two seabirds from at least five species were recorded as bycatch in bottom trawl, longline, purse-seine and net fisheries (Table 1). Over 13 000 specimens of fish of potential conservation interest were recorded from a wide mix of static and mobile gears. Most of the fish records were tub gurnard (Chelidonichthys lucerna) in bottom trawls. No turtles were reported as bycatch.</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;Around 6600 fishing vessels are active in the Greater North Sea. Total landings peaked in the 1970s at 4 million tonnes and have since declined to about 2 million tonnes. Total fishing effort has declined substantially since 2003. Pelagic fish landings are greater than demersal fish landings. Herring and mackerel, caught using pelagic trawls and seines, account for the largest portion of the pelagic landings, while sandeel and haddock, caught using otter trawls/seines, account for the largest fraction of the demersal landings. Catches are taken from more than 100 stocks. Discards are highest in the demersal and benthic fisheries. The spatial distribution of fishing gear varies across the Greater North Sea. Static gear is used most frequently in the English Channel, the eastern part of the Southern Bight, the Danish banks, and in the waters east of Shetland. Bottom trawls are used throughout the North Sea, with lower use in the shallower southern North Sea, where beam trawls are most commonly used. Pelagic gears are used throughout the North Sea. &lt;br&gt;&lt;br&gt;In terms of weight of catch, fish stocks harvested from the North Sea are being fished at levels consistent with achieving good environmental status (GES) under the EU’s Marine Strategy Framework Directive; however, the reproductive capacity of the stocks has not generally reached this level. Almost all the fisheries in the North Sea catch more than one species; controlling fishing on one species therefore affects other species as well. ICES has developed a number of scenarios for fishing opportunities that take account of these technical interactions. Each of these scenarios results in different outcomes for the fish stocks. Managers may need to take these scenarios into account when deciding upon fishing opportunities. Furthermore, biological interactions occur between species (e.g. predation), and fishing on one stock may affect the population dynamics of another. Scenarios that take account of these various interactions can be used to evaluate the possible consequences of policy decisions. The greatest physical disturbances of the seabed caused by fishing activity in the North Sea is caused by mobile bottom-contacting gear in the eastern English Channel, in nearshore areas in the southeastern North Sea and in the central Skagerrak. Incidental bycatches of protected, endangered, and threatened species occur in several North Sea fisheries, and the bycatch of common dolphin in the western English Channel may be unsustainable in terms of population. &lt;br&gt;&lt;br&gt;Supporting data used in the Greater North Sea fisheries overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.21641360"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;The Greater North Sea ecoregion includes the North Sea, English Channel, Skagerrak, and Kattegat. The Greater North Sea
+is a relatively shallow sea area on the European continental shelf, with the exception of the Norwegian Trench that extends
+parallel to the Norwegian shoreline. Pelagic species (primarily herring and mackerel) account for a significant portion of
+the total commercial fish landings in the region. Landings of benthic and demersal finfish species (primarily haddock,
+sandeel, flatfish, and cod) are also significant. &lt;br&gt;&lt;br&gt; 
+All of the Greater North Sea ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area
+codes is therefore omitted in the following. This overview covers ICES Division 3.a, most of divisions 4.a, 4.b, 4.c, 7.d, and
+part of Division 7.e, as well as Subdivision 3.b.23. This overview does not include the fisheries in the western English
+Channel (Division 7.e) and in the Sound (Division 3.b.23).
+Note that updates to the figures using data from the stock assessment graphs (SAG) include only advice published before
+10 October 2022. Therefore anf.27.3a46, meg.27.7b-k8abd, rjn.27.678abd, and the Norway lobster stocks refer to the
+advice current at this time (the advice applicable for 2022).&lt;br&gt;&lt;br&gt; 
+This overview provides:&lt;br&gt;&lt;br&gt;
+&lt;ol style="font-size: 14px"&gt;
+&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears,
+and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
+reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;mixed-fisheries considerations of relevance to the management of the fisheries; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
+protected, endangered, and threatened species.&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;Around 6600 vessels from nine nations operate in the Greater North Sea, with the largest numbers coming from UK,
 Norway, Denmark, the Netherlands, and France. Total landings peaked in the early 1970s and have since declined. The
 proportion caught by each country of the total annual landings has varied over time (Figure 2). The following country
 paragraphs highlight features of the fleets and fisheries of each country but are not exhaustive descriptions.&lt;br&gt;&lt;br&gt;
@@ -167,49 +214,7 @@
 The Faroe Islands also fish in the Greater North Sea, but ICES does not have information on this fleet.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t>The Greater North Sea ecoregion includes the North Sea, English Channel, Skagerrak, and Kattegat. The Greater North Sea
-is a relatively shallow sea area on the European continental shelf, with the exception of the Norwegian Trench that extends
-parallel to the Norwegian shoreline. Pelagic species (primarily herring and mackerel) account for a significant portion of
-the total commercial fish landings in the region. Landings of benthic and demersal finfish species (primarily haddock,
-sandeel, flatfish, and cod) are also significant. &lt;br&gt;&lt;br&gt; 
-All of the Greater North Sea ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area
-codes is therefore omitted in the following. This overview covers ICES Division 3.a, most of divisions 4.a, 4.b, 4.c, 7.d, and
-part of Division 7.e, as well as Subdivision 3.b.23. This overview does not include the fisheries in the western English
-Channel (Division 7.e) and in the Sound (Division 3.b.23).
-Note that updates to the figures using data from the stock assessment graphs (SAG) include only advice published before
-10 October 2022. Therefore anf.27.3a46, meg.27.7b-k8abd, rjn.27.678abd, and the Norway lobster stocks refer to the
-advice current at this time (the advice applicable for 2022).&lt;br&gt;&lt;br&gt; 
-This overview provides:&lt;br&gt;&lt;br&gt;
-&lt;ol style="font-size: 14px"&gt;
-&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears,
-and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
-reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;mixed-fisheries considerations of relevance to the management of the fisheries; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
-protected, endangered, and threatened species.&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
-The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>landings</t>
-  </si>
-  <si>
-    <t>discards</t>
-  </si>
-  <si>
-    <t>sidebar</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Landings&lt;/b&gt;&lt;br&gt;&lt;br&gt;Fisheries in the Greater North Sea catch a large diversity of species. These have been categorized into species that are pelagic, demersal, benthic (e.g. flatfish), crustaceans, and elasmobranchs. &lt;br&gt;&lt;br&gt;Total landings from the Greater North Sea varied between 2 and 3 million tonnes during the 1950s, then rose to between 3 and 4 million tonnes from the late 1960s to the mid-1990s (Figure 2). High catches of both pelagic species (mackerel and herring) and demersal species (cod and haddock) accounted for the increase in total landings in the late 1960s (figures 3 and 4). 
-The landings shown in Figure 4 only include those species for which ICES gives advice. There are a number of stocks for which ICES does not give advice where landings may be substantial (e.g. Scallop, edible crab, brown shrimp, European lobster, blue mussel). Total landings declined after 1995 to a low of 1.4 million tonnes in 2012. This decline is attributed to overfishing and decreased productivity of important stocks such as cod and herring, but also to the successful reduction of fishing mortality to more sustainable levels after 2000. &lt;br&gt;&lt;br&gt;
-Since 2003, the pelagic fisheries using pelagic trawl and purse seines have accounted for the largest proportion of the total landings, followed by the demersal and benthic fisheries (Figure 3). Overall landings increased slightly from 2011 after a rise in herring landings and again, most recently (in 2015), from increased catches of anchovy, sardine, and hake.&lt;br&gt;&lt;br&gt;
-Recreational fisheries in the North Sea target a wide range of species, but few of these fisheries are monitored or evaluated. Recreational catches of seabass and salmon (including freshwater for the latter) are significant and are included in ICES assessment of these species. In contrast, the recreational fisheries of elasmobranchs is not widely monitored; however, the recreational harvest of these species (mainly dogfish and several species of skates and rays) appears to be negligible.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Discards&lt;/b&gt;&lt;br&gt;&lt;br&gt;Discard data have been collected for some North Sea fisheries since the mid-1970s. Since 2000, discard data from North Sea commercial fisheries have been collected from various observer programmes implemented under the EU Data Collection Framework (DCF), and UK continued that commitment in retained law from 2020 after leaving the EU. However, complete discard data are only available from 2012 onwards. In 2015–2019, discard rates remained relatively stable. Discard rates of pelagic species were close to zero (Figure 6). Discard estimates for several species of elasmobranch are highly uncertain due to low encounter probabilities and so are not shown.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Bycatch of protected, endangered, and threatened species&lt;/b&gt;&lt;br&gt;&lt;br&gt; All fisheries have the potential to catch protected, endangered, or threatened species, such as seabirds and marine mammals, as non-targeted bycatch. Data submitted to ICES through annual data calls indicated that between 2017–2021 ten ICES Member Countries had fisheries operating in the Greater North Sea ecoregion (ICES, 2022a). During the same period approximately 13 000 monitoring days were undertaken, primarily by at-sea observers, in a variety of static and mobile gears and on vessels ranging from under 8 m to over 40 m. Most bycatch data collection in the ecoregion is carried out within multipurpose programmes under the DCF and through dedicated bycatch monitoring programmes.&lt;br&gt;&lt;br&gt;&lt;b&gt; Bycatch records in 2021&lt;/b&gt;&lt;br&gt;&lt;br&gt; In 2021, 47 marine mammals from at least four species were recorded as bycatch, mostly in net métiers. Forty-two seabirds from at least five species were recorded as bycatch in bottom trawl, longline, purse-seine and net fisheries (Table 1). Over 13 000 specimens of fish of potential conservation interest were recorded from a wide mix of static and mobile gears. Most of the fish records were tub gurnard (Chelidonichthys lucerna) in bottom trawls. No turtles were reported as bycatch.</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -573,7 +578,9 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -594,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -602,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -610,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -641,18 +648,18 @@
     </row>
     <row r="2" spans="1:2" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -664,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE2A7A1-C07D-40E0-A9E9-3CF06E261156}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,13 +690,56 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D916A7BB-8321-4345-8DD6-BD18062EF575}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8086C30E-32C2-4F68-82C0-7284FD30F32C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilm\Projects\fisheriesXplorer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F934F0D4-6429-41F7-900E-CB6E10AD2E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AE5013-575E-4A22-8763-DC954D95EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2745" yWindow="3645" windowWidth="28800" windowHeight="15030" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
     <sheet name="landings_discards" sheetId="2" r:id="rId2"/>
-    <sheet name="bycatch" sheetId="3" r:id="rId3"/>
-    <sheet name="status" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="status" sheetId="4" r:id="rId3"/>
+    <sheet name="mixfish" sheetId="5" r:id="rId4"/>
+    <sheet name="vms" sheetId="6" r:id="rId5"/>
+    <sheet name="bycatch" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>section</t>
   </si>
@@ -668,6 +669,99 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D916A7BB-8321-4345-8DD6-BD18062EF575}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8086C30E-32C2-4F68-82C0-7284FD30F32C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54640D34-6F2C-4FD7-AC14-D9115ECC0B2F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE2A7A1-C07D-40E0-A9E9-3CF06E261156}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -699,47 +793,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D916A7BB-8321-4345-8DD6-BD18062EF575}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8086C30E-32C2-4F68-82C0-7284FD30F32C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilm\Projects\fisheriesXplorer\data-raw\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AE5013-575E-4A22-8763-DC954D95EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="3645" windowWidth="28800" windowHeight="15030" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="overview" sheetId="1" r:id="rId1"/>
-    <sheet name="landings_discards" sheetId="2" r:id="rId2"/>
-    <sheet name="status" sheetId="4" r:id="rId3"/>
-    <sheet name="mixfish" sheetId="5" r:id="rId4"/>
-    <sheet name="vms" sheetId="6" r:id="rId5"/>
-    <sheet name="bycatch" sheetId="3" r:id="rId6"/>
+    <sheet r:id="rId1" sheetId="1" name="overview_NrS"/>
+    <sheet r:id="rId2" sheetId="2" name="overview_NwS"/>
+    <sheet r:id="rId3" sheetId="3" name="landings_discards"/>
+    <sheet r:id="rId4" sheetId="4" name="status"/>
+    <sheet r:id="rId5" sheetId="5" name="mixfish"/>
+    <sheet r:id="rId6" sheetId="6" name="vms"/>
+    <sheet r:id="rId7" sheetId="7" name="bycatch"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>section</t>
   </si>
@@ -33,22 +28,16 @@
     <t>text</t>
   </si>
   <si>
-    <t>executive_summary</t>
-  </si>
-  <si>
-    <t>introduction</t>
-  </si>
-  <si>
-    <t>who_is_fishing</t>
+    <t>sidebar</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Bycatch of protected, endangered, and threatened species&lt;/b&gt;&lt;br&gt;&lt;br&gt; All fisheries have the potential to catch protected, endangered, or threatened species, such as seabirds and marine mammals, as non-targeted bycatch. Data submitted to ICES through annual data calls indicated that between 2017–2021 ten ICES Member Countries had fisheries operating in the Greater North Sea ecoregion (ICES, 2022a). During the same period approximately 13 000 monitoring days were undertaken, primarily by at-sea observers, in a variety of static and mobile gears and on vessels ranging from under 8 m to over 40 m. Most bycatch data collection in the ecoregion is carried out within multipurpose programmes under the DCF and through dedicated bycatch monitoring programmes.&lt;br&gt;&lt;br&gt;&lt;b&gt; Bycatch records in 2021&lt;/b&gt;&lt;br&gt;&lt;br&gt; In 2021, 47 marine mammals from at least four species were recorded as bycatch, mostly in net métiers. Forty-two seabirds from at least five species were recorded as bycatch in bottom trawl, longline, purse-seine and net fisheries (Table 1). Over 13 000 specimens of fish of potential conservation interest were recorded from a wide mix of static and mobile gears. Most of the fish records were tub gurnard (Chelidonichthys lucerna) in bottom trawls. No turtles were reported as bycatch.</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>landings</t>
-  </si>
-  <si>
-    <t>discards</t>
-  </si>
-  <si>
-    <t>sidebar</t>
   </si>
   <si>
     <t>&lt;b&gt;Landings&lt;/b&gt;&lt;br&gt;&lt;br&gt;Fisheries in the Greater North Sea catch a large diversity of species. These have been categorized into species that are pelagic, demersal, benthic (e.g. flatfish), crustaceans, and elasmobranchs. &lt;br&gt;&lt;br&gt;Total landings from the Greater North Sea varied between 2 and 3 million tonnes during the 1950s, then rose to between 3 and 4 million tonnes from the late 1960s to the mid-1990s (Figure 2). High catches of both pelagic species (mackerel and herring) and demersal species (cod and haddock) accounted for the increase in total landings in the late 1960s (figures 3 and 4). 
@@ -57,10 +46,74 @@
 Recreational fisheries in the North Sea target a wide range of species, but few of these fisheries are monitored or evaluated. Recreational catches of seabass and salmon (including freshwater for the latter) are significant and are included in ICES assessment of these species. In contrast, the recreational fisheries of elasmobranchs is not widely monitored; however, the recreational harvest of these species (mainly dogfish and several species of skates and rays) appears to be negligible.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
+    <t>discards</t>
+  </si>
+  <si>
     <t>&lt;b&gt;Discards&lt;/b&gt;&lt;br&gt;&lt;br&gt;Discard data have been collected for some North Sea fisheries since the mid-1970s. Since 2000, discard data from North Sea commercial fisheries have been collected from various observer programmes implemented under the EU Data Collection Framework (DCF), and UK continued that commitment in retained law from 2020 after leaving the EU. However, complete discard data are only available from 2012 onwards. In 2015–2019, discard rates remained relatively stable. Discard rates of pelagic species were close to zero (Figure 6). Discard estimates for several species of elasmobranch are highly uncertain due to low encounter probabilities and so are not shown.</t>
   </si>
   <si>
-    <t>&lt;b&gt;Bycatch of protected, endangered, and threatened species&lt;/b&gt;&lt;br&gt;&lt;br&gt; All fisheries have the potential to catch protected, endangered, or threatened species, such as seabirds and marine mammals, as non-targeted bycatch. Data submitted to ICES through annual data calls indicated that between 2017–2021 ten ICES Member Countries had fisheries operating in the Greater North Sea ecoregion (ICES, 2022a). During the same period approximately 13 000 monitoring days were undertaken, primarily by at-sea observers, in a variety of static and mobile gears and on vessels ranging from under 8 m to over 40 m. Most bycatch data collection in the ecoregion is carried out within multipurpose programmes under the DCF and through dedicated bycatch monitoring programmes.&lt;br&gt;&lt;br&gt;&lt;b&gt; Bycatch records in 2021&lt;/b&gt;&lt;br&gt;&lt;br&gt; In 2021, 47 marine mammals from at least four species were recorded as bycatch, mostly in net métiers. Forty-two seabirds from at least five species were recorded as bycatch in bottom trawl, longline, purse-seine and net fisheries (Table 1). Over 13 000 specimens of fish of potential conservation interest were recorded from a wide mix of static and mobile gears. Most of the fish records were tub gurnard (Chelidonichthys lucerna) in bottom trawls. No turtles were reported as bycatch.</t>
+    <t>executive_summary</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;The largest landings in this ecoregion are by Norway, the Russian Federation (Russia henceforth), Faroe Islands, and Iceland, mainly by pelagic fisheries. Other nations also have fisheries in the area. The number of fishing vessels is declining while the size of the remaining vessels is increasing. The annual catch in the ecoregion has varied between 700 000 tonnes
+to over 2 million tonnes.&lt;br&gt;&lt;br&gt;
+The pelagic fisheries, using purse-seine and pelagic trawls, account for the largest catches by weight and target Norwegian spring-spawning (NSS) herring (her.27.1-24a514a), blue whiting (whb.27.1-91214), mackerel (mac.27.nea), and other pelagic species. The largest demersal fishery targets cod (cod.27.1-2), haddock (had.27.1-2), and saithe (pok.27.1-2) using bottom trawls, purse-seine, Danish seine and gillnets, and to a lesser extent hook and line gear. Smaller fisheries target other gadoid species, Greenland halibut (ghl.27.1-2), and beaked redfish (reb.27.1-2). Landings of pelagic species within the ecoregion in the last decades have been variable. The demersal fisheries, dominated by cod, display less pronounced fluctuations than the pelagic fisheries. Information about discards is sparse, but the total weight of discards is considered low in both the pelagic and the demersal fisheries. Harp seals and minke whales are hunted in the region.&lt;br&gt;&lt;br&gt;
+Status summaries of Norwegian Sea stocks relative to ICES maximum sustainable yield (MSY) approach and precautionary approach (PA) are known for about 42% of the 19 stocks assessed by ICES in this ecoregion. Only 21% of the stocks are fished below F MSY, accounting for less than 1% of the total catch. 21% of the stocks have a biomass above MSY Btrigger, accounting for 86% of the total catch. Demersal stocks have shown a trend of declining fishing mortality since the mid-1990s, followed by a sharp increase in 2019, largely driven by the exploitation pattern of redfish. In 2021 the average F/F MSY ratio was close to 1. The mean SSB/MSY Btrigger ratio of demersal stocks has been decreasing over the last decade, but mean SSB remains above MSY Btrigger and increased in 2021. The average F/F MSY ratio for pelagic stocks has fluctuated slightly above 1 since 2005. The mean SSB/MSY Btrigger ratio for pelagic species has been well above 1 the last two decades though followed by a recent sharp decline, but remains above 1.&lt;br&gt;&lt;br&gt;
+In addition to biomass removal, ecosystem effects of fisheries include abrasion, ghost fishing, and bycatch of protected, endangered, and threatened species.&lt;br&gt;&lt;br&gt;
+Supporting data used in the Norwegian Sea fisheries overview can be accessed at &lt;a href="https://doi.org/10.17895/ices.advice.27879897"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;The Norwegian Sea connects with the Faroes ecoregion to the southwest, the Icelandic Waters ecoregion and Greenland Sea to the west along the edge to the shallower Iceland Sea between the Faroe Islands, and northwards to Jan Mayen. To the south it borders to the shallower North Sea along the 62 ̊N parallel between Norway and the Faroe Islands, and to the northeast the shallower Barents Sea (Figure 1). The Norwegian Sea covers more than 1.1 million km2 , consisting of two deep basins (between 3000 m and 4000 m deep) – the Norwegian Basin and the Lofoten Basin – separated by the Vøring Plateau (between 1000 m and 3000 m deep). The Norwegian Sea is separated from the Greenland Sea to the north by the Mohn Ridge. To the west, the basin slope forms the transition to the somewhat shallower Iceland Sea. The warm North Atlantic Current ensures relatively stable and high water temperatures, so that unlike the Arctic seas, the Norwegian Sea is ice-free throughout the year.&lt;br&gt;&lt;br&gt; 
+Due to the temporary suspension of Russian Federation in ICES activities, ICES did not conduct assessments for the following stocks in 2022: cod.27.1-2, had.27.1-2, and reb.27.1-2. The results of the bilateral Norwegian−Russian
+assessments for these stocks are not included in this overview.&lt;br&gt;&lt;br&gt; 
+This overview provides:&lt;br&gt;&lt;br&gt;
+&lt;ol style="font-size: 14px"&gt;
+&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a description of mixed fisheries interactions in the ecosystem, and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>who_is_fishing</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;Many nations currently have fisheries targeting the marine stocks within this ecoregion. The largest landings are by Norway, Russia, Faroe Islands, and Iceland. Lesser amounts are landed by United Kingdom and others (Figure 2). Pelagic fishing by multinational fleets is the major activity in the ecoregion. The number of fishing vessels is declining while the size of the vessels is increasing.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
+The Norwegian commercial fleet has the majority of its fishing activity in the shelf area, particularly along the coast of
+Norway and along the continental shelf edge. The Norwegian fleet fishing in the ecoregion consists of about 2300 active
+vessels fishing pelagic fish (mackerel and herring), demersal fish (cod, saithe, haddock, ling (lin.27.1-2), tusk (usk.27.1-2),
+Greenland halibut, and redfish), and shellfish (brown crab, king crab, and northern prawn). Small coastal vessels (the
+majority &lt; 15 m length) fishing with beach-seine, gillnets, and pots make up around 87% of the fleet, while the remaining
+are mainly ocean-going trawlers and purse-seiners &gt; 28 m in length. The highest catch volume (82% of the total catch) is
+taken by the bigger vessels, with pelagic fish constituting the largest part of the landings.&lt;br&gt;&lt;br&gt;
+Harp and hooded seals are hunted with between two and five large ice-going vessels. The minke whale hunt has been
+ongoing in all years since 1993, and approximately 10–15 vessels.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
+The Russian commercial fleet in the Norwegian Sea ecoregion and adjacent waters is composed of about 30 large vessels
+(62–120 m in length) targeting pelagic species including NSS herring, blue whiting, and mackerel using pelagic trawls. The
+pelagic fleet conducts most of its fishing activities in international waters and fewer in the Norwegian EEZ. About 50 smaller
+vessels (&lt; 60 m) target demersal fish, including cod, haddock, saithe, redfish, Greenland halibut, and Atlantic wolffish, using
+mostly bottom trawls. Pelagic fish contribute most to the Russian fishery (about 90 % of the catches) in this ecoregion.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
+he Icelandic fleet operating in the Norwegian Sea ecoregion is composed of about 19 large vessels (&gt; 60 m length). They
+all target pelagic fish (NSS herring, mackerel, and blue whiting) with pelagic trawls. Two of the vessels freeze the catches
+on board while the others bring the catches ashore in refrigerated seawater (RSW) tanks&lt;br&gt;&lt;br&gt;
+&lt;b&gt;United Kingdom&lt;/b&gt;&lt;br&gt;
+The UK fishery operating in the Norwegian Sea ecoregion fishes mainly in ICES Division 2.a using bottom and midwater
+trawls with the occasional gillnetting and purse-seining. A small number of vessels operate in this area and catch a variety
+of demersal and pelagic species. In 2020, three bottom otter trawlers (40–90 m length) targeted cod, together with small
+amounts of saithe, haddock, redfish, and other species. The four midwater trawlers (75–120 m) fishing in 2020 targeted
+NSS herring, mackerel, and blue whiting.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;The Faroese fleet in the ecoregion consists of 12 large (&gt; 55 m length) vessels targeting pelagic species (NSS herring,
+mackerel, and blue whiting) with pelagic trawl (mainly) or purse-seine. One of the vessels freeze the catch on board while
+the rest use RSW tanks to bring the catch ashore. In addition, a handful of smaller trawlers (35–50 m length without RSW
+tanks) deliver the catch (mackerel) to the larger vessels at sea; the number of vessels in this last category has decreased
+much over the last five-to-eight years. In the description of fisheries, some Faroese fisheries are mentioned in Subarea 2,
+but these all take place outside the Norwegian Sea ecoregion.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t>&lt;br&gt;Around 6600 fishing vessels are active in the Greater North Sea. Total landings peaked in the 1970s at 4 million tonnes and have since declined to about 2 million tonnes. Total fishing effort has declined substantially since 2003. Pelagic fish landings are greater than demersal fish landings. Herring and mackerel, caught using pelagic trawls and seines, account for the largest portion of the pelagic landings, while sandeel and haddock, caught using otter trawls/seines, account for the largest fraction of the demersal landings. Catches are taken from more than 100 stocks. Discards are highest in the demersal and benthic fisheries. The spatial distribution of fishing gear varies across the Greater North Sea. Static gear is used most frequently in the English Channel, the eastern part of the Southern Bight, the Danish banks, and in the waters east of Shetland. Bottom trawls are used throughout the North Sea, with lower use in the shallower southern North Sea, where beam trawls are most commonly used. Pelagic gears are used throughout the North Sea. &lt;br&gt;&lt;br&gt;In terms of weight of catch, fish stocks harvested from the North Sea are being fished at levels consistent with achieving good environmental status (GES) under the EU’s Marine Strategy Framework Directive; however, the reproductive capacity of the stocks has not generally reached this level. Almost all the fisheries in the North Sea catch more than one species; controlling fishing on one species therefore affects other species as well. ICES has developed a number of scenarios for fishing opportunities that take account of these technical interactions. Each of these scenarios results in different outcomes for the fish stocks. Managers may need to take these scenarios into account when deciding upon fishing opportunities. Furthermore, biological interactions occur between species (e.g. predation), and fishing on one stock may affect the population dynamics of another. Scenarios that take account of these various interactions can be used to evaluate the possible consequences of policy decisions. The greatest physical disturbances of the seabed caused by fishing activity in the North Sea is caused by mobile bottom-contacting gear in the eastern English Channel, in nearshore areas in the southeastern North Sea and in the central Skagerrak. Incidental bycatches of protected, endangered, and threatened species occur in several North Sea fisheries, and the bycatch of common dolphin in the western English Channel may be unsustainable in terms of population. &lt;br&gt;&lt;br&gt;Supporting data used in the Greater North Sea fisheries overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.21641360"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;</t>
@@ -214,15 +267,13 @@
 pelagic species are harvested by 18 large vessels, primarily using pelagic trawls.&lt;br&gt;&lt;br&gt;
 The Faroe Islands also fish in the Greater North Sea, but ICES does not have information on this fleet.&lt;br&gt;&lt;br&gt;</t>
   </si>
-  <si>
-    <t>test</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +284,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -264,26 +321,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -294,10 +366,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -335,71 +407,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,7 +499,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -450,11 +522,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -463,13 +535,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -479,7 +551,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -488,7 +560,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -497,7 +569,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -505,10 +577,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -573,52 +645,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="255.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="162" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="120.75" customFormat="1" s="3">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="303" customFormat="1" s="3">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="1666.5" customFormat="1" s="3">
+      <c r="A4" s="6" t="s">
         <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -627,40 +697,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4E976-B447-4DEF-A85E-11D6D9966CA4}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="255.5703125" customWidth="1"/>
+    <col min="1" max="1" style="8" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="198.29071428571427" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="343.5" customFormat="1" s="3">
+      <c r="A2" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="462" customFormat="1" s="3">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="409.6000000000001" customFormat="1" s="3">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -669,29 +749,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D916A7BB-8321-4345-8DD6-BD18062EF575}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="255.57642857142858" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="210.75" customFormat="1" s="3">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="3">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -700,29 +793,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8086C30E-32C2-4F68-82C0-7284FD30F32C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -731,29 +829,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54640D34-6F2C-4FD7-AC14-D9115ECC0B2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -762,32 +865,70 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE2A7A1-C07D-40E0-A9E9-3CF06E261156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="159.42578125" customWidth="1"/>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="159.4335714285714" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -1,31 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilm\Projects\fisheriesXplorer\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icesit-my.sharepoint.com/personal/luca_lamoni_ices_dk/Documents/Profile/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AE5013-575E-4A22-8763-DC954D95EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="11_3B97B444F62EC743AD03632361AC6BA5D546EF5D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{931718E8-809C-4422-B643-B9648C4752C2}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="3645" windowWidth="28800" windowHeight="15030" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="overview" sheetId="1" r:id="rId1"/>
-    <sheet name="landings_discards" sheetId="2" r:id="rId2"/>
-    <sheet name="status" sheetId="4" r:id="rId3"/>
-    <sheet name="mixfish" sheetId="5" r:id="rId4"/>
-    <sheet name="vms" sheetId="6" r:id="rId5"/>
-    <sheet name="bycatch" sheetId="3" r:id="rId6"/>
+    <sheet name="overview_NrS" sheetId="1" r:id="rId1"/>
+    <sheet name="overview_NwS" sheetId="2" r:id="rId2"/>
+    <sheet name="overview_AZ" sheetId="8" r:id="rId3"/>
+    <sheet name="overview_BI" sheetId="9" r:id="rId4"/>
+    <sheet name="overview_BrS" sheetId="10" r:id="rId5"/>
+    <sheet name="overview_BtS" sheetId="11" r:id="rId6"/>
+    <sheet name="overview_CS" sheetId="12" r:id="rId7"/>
+    <sheet name="overview_FO" sheetId="13" r:id="rId8"/>
+    <sheet name="overview_GS" sheetId="14" r:id="rId9"/>
+    <sheet name="overview_IS" sheetId="15" r:id="rId10"/>
+    <sheet name="overview_ONA" sheetId="16" r:id="rId11"/>
+    <sheet name="landings_discards" sheetId="3" r:id="rId12"/>
+    <sheet name="status" sheetId="4" r:id="rId13"/>
+    <sheet name="mixfish" sheetId="5" r:id="rId14"/>
+    <sheet name="vms" sheetId="6" r:id="rId15"/>
+    <sheet name="bycatch" sheetId="7" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
   <si>
     <t>section</t>
   </si>
@@ -36,34 +62,10 @@
     <t>executive_summary</t>
   </si>
   <si>
+    <t>&lt;br&gt;Around 6600 fishing vessels are active in the Greater North Sea. Total landings peaked in the 1970s at 4 million tonnes and have since declined to about 2 million tonnes. Total fishing effort has declined substantially since 2003. Pelagic fish landings are greater than demersal fish landings. Herring and mackerel, caught using pelagic trawls and seines, account for the largest portion of the pelagic landings, while sandeel and haddock, caught using otter trawls/seines, account for the largest fraction of the demersal landings. Catches are taken from more than 100 stocks. Discards are highest in the demersal and benthic fisheries. The spatial distribution of fishing gear varies across the Greater North Sea. Static gear is used most frequently in the English Channel, the eastern part of the Southern Bight, the Danish banks, and in the waters east of Shetland. Bottom trawls are used throughout the North Sea, with lower use in the shallower southern North Sea, where beam trawls are most commonly used. Pelagic gears are used throughout the North Sea. &lt;br&gt;&lt;br&gt;In terms of weight of catch, fish stocks harvested from the North Sea are being fished at levels consistent with achieving good environmental status (GES) under the EU’s Marine Strategy Framework Directive; however, the reproductive capacity of the stocks has not generally reached this level. Almost all the fisheries in the North Sea catch more than one species; controlling fishing on one species therefore affects other species as well. ICES has developed a number of scenarios for fishing opportunities that take account of these technical interactions. Each of these scenarios results in different outcomes for the fish stocks. Managers may need to take these scenarios into account when deciding upon fishing opportunities. Furthermore, biological interactions occur between species (e.g. predation), and fishing on one stock may affect the population dynamics of another. Scenarios that take account of these various interactions can be used to evaluate the possible consequences of policy decisions. The greatest physical disturbances of the seabed caused by fishing activity in the North Sea is caused by mobile bottom-contacting gear in the eastern English Channel, in nearshore areas in the southeastern North Sea and in the central Skagerrak. Incidental bycatches of protected, endangered, and threatened species occur in several North Sea fisheries, and the bycatch of common dolphin in the western English Channel may be unsustainable in terms of population. &lt;br&gt;&lt;br&gt;Supporting data used in the Greater North Sea fisheries overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.21641360"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
     <t>introduction</t>
-  </si>
-  <si>
-    <t>who_is_fishing</t>
-  </si>
-  <si>
-    <t>landings</t>
-  </si>
-  <si>
-    <t>discards</t>
-  </si>
-  <si>
-    <t>sidebar</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Landings&lt;/b&gt;&lt;br&gt;&lt;br&gt;Fisheries in the Greater North Sea catch a large diversity of species. These have been categorized into species that are pelagic, demersal, benthic (e.g. flatfish), crustaceans, and elasmobranchs. &lt;br&gt;&lt;br&gt;Total landings from the Greater North Sea varied between 2 and 3 million tonnes during the 1950s, then rose to between 3 and 4 million tonnes from the late 1960s to the mid-1990s (Figure 2). High catches of both pelagic species (mackerel and herring) and demersal species (cod and haddock) accounted for the increase in total landings in the late 1960s (figures 3 and 4). 
-The landings shown in Figure 4 only include those species for which ICES gives advice. There are a number of stocks for which ICES does not give advice where landings may be substantial (e.g. Scallop, edible crab, brown shrimp, European lobster, blue mussel). Total landings declined after 1995 to a low of 1.4 million tonnes in 2012. This decline is attributed to overfishing and decreased productivity of important stocks such as cod and herring, but also to the successful reduction of fishing mortality to more sustainable levels after 2000. &lt;br&gt;&lt;br&gt;
-Since 2003, the pelagic fisheries using pelagic trawl and purse seines have accounted for the largest proportion of the total landings, followed by the demersal and benthic fisheries (Figure 3). Overall landings increased slightly from 2011 after a rise in herring landings and again, most recently (in 2015), from increased catches of anchovy, sardine, and hake.&lt;br&gt;&lt;br&gt;
-Recreational fisheries in the North Sea target a wide range of species, but few of these fisheries are monitored or evaluated. Recreational catches of seabass and salmon (including freshwater for the latter) are significant and are included in ICES assessment of these species. In contrast, the recreational fisheries of elasmobranchs is not widely monitored; however, the recreational harvest of these species (mainly dogfish and several species of skates and rays) appears to be negligible.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Discards&lt;/b&gt;&lt;br&gt;&lt;br&gt;Discard data have been collected for some North Sea fisheries since the mid-1970s. Since 2000, discard data from North Sea commercial fisheries have been collected from various observer programmes implemented under the EU Data Collection Framework (DCF), and UK continued that commitment in retained law from 2020 after leaving the EU. However, complete discard data are only available from 2012 onwards. In 2015–2019, discard rates remained relatively stable. Discard rates of pelagic species were close to zero (Figure 6). Discard estimates for several species of elasmobranch are highly uncertain due to low encounter probabilities and so are not shown.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Bycatch of protected, endangered, and threatened species&lt;/b&gt;&lt;br&gt;&lt;br&gt; All fisheries have the potential to catch protected, endangered, or threatened species, such as seabirds and marine mammals, as non-targeted bycatch. Data submitted to ICES through annual data calls indicated that between 2017–2021 ten ICES Member Countries had fisheries operating in the Greater North Sea ecoregion (ICES, 2022a). During the same period approximately 13 000 monitoring days were undertaken, primarily by at-sea observers, in a variety of static and mobile gears and on vessels ranging from under 8 m to over 40 m. Most bycatch data collection in the ecoregion is carried out within multipurpose programmes under the DCF and through dedicated bycatch monitoring programmes.&lt;br&gt;&lt;br&gt;&lt;b&gt; Bycatch records in 2021&lt;/b&gt;&lt;br&gt;&lt;br&gt; In 2021, 47 marine mammals from at least four species were recorded as bycatch, mostly in net métiers. Forty-two seabirds from at least five species were recorded as bycatch in bottom trawl, longline, purse-seine and net fisheries (Table 1). Over 13 000 specimens of fish of potential conservation interest were recorded from a wide mix of static and mobile gears. Most of the fish records were tub gurnard (Chelidonichthys lucerna) in bottom trawls. No turtles were reported as bycatch.</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;Around 6600 fishing vessels are active in the Greater North Sea. Total landings peaked in the 1970s at 4 million tonnes and have since declined to about 2 million tonnes. Total fishing effort has declined substantially since 2003. Pelagic fish landings are greater than demersal fish landings. Herring and mackerel, caught using pelagic trawls and seines, account for the largest portion of the pelagic landings, while sandeel and haddock, caught using otter trawls/seines, account for the largest fraction of the demersal landings. Catches are taken from more than 100 stocks. Discards are highest in the demersal and benthic fisheries. The spatial distribution of fishing gear varies across the Greater North Sea. Static gear is used most frequently in the English Channel, the eastern part of the Southern Bight, the Danish banks, and in the waters east of Shetland. Bottom trawls are used throughout the North Sea, with lower use in the shallower southern North Sea, where beam trawls are most commonly used. Pelagic gears are used throughout the North Sea. &lt;br&gt;&lt;br&gt;In terms of weight of catch, fish stocks harvested from the North Sea are being fished at levels consistent with achieving good environmental status (GES) under the EU’s Marine Strategy Framework Directive; however, the reproductive capacity of the stocks has not generally reached this level. Almost all the fisheries in the North Sea catch more than one species; controlling fishing on one species therefore affects other species as well. ICES has developed a number of scenarios for fishing opportunities that take account of these technical interactions. Each of these scenarios results in different outcomes for the fish stocks. Managers may need to take these scenarios into account when deciding upon fishing opportunities. Furthermore, biological interactions occur between species (e.g. predation), and fishing on one stock may affect the population dynamics of another. Scenarios that take account of these various interactions can be used to evaluate the possible consequences of policy decisions. The greatest physical disturbances of the seabed caused by fishing activity in the North Sea is caused by mobile bottom-contacting gear in the eastern English Channel, in nearshore areas in the southeastern North Sea and in the central Skagerrak. Incidental bycatches of protected, endangered, and threatened species occur in several North Sea fisheries, and the bycatch of common dolphin in the western English Channel may be unsustainable in terms of population. &lt;br&gt;&lt;br&gt;Supporting data used in the Greater North Sea fisheries overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.21641360"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t>&lt;br&gt;The Greater North Sea ecoregion includes the North Sea, English Channel, Skagerrak, and Kattegat. The Greater North Sea
@@ -88,6 +90,9 @@
 &lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
 protected, endangered, and threatened species.&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
 The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>who_is_fishing</t>
   </si>
   <si>
     <t>&lt;br&gt;Around 6600 vessels from nine nations operate in the Greater North Sea, with the largest numbers coming from UK,
@@ -215,14 +220,445 @@
 The Faroe Islands also fish in the Greater North Sea, but ICES does not have information on this fleet.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
+    <t>&lt;br&gt;The largest landings in this ecoregion are by Norway, the Russian Federation (Russia henceforth), Faroe Islands, and Iceland, mainly by pelagic fisheries. Other nations also have fisheries in the area. The number of fishing vessels is declining while the size of the remaining vessels is increasing. The annual catch in the ecoregion has varied between 700 000 tonnes
+to over 2 million tonnes.&lt;br&gt;&lt;br&gt;
+The pelagic fisheries, using purse-seine and pelagic trawls, account for the largest catches by weight and target Norwegian spring-spawning (NSS) herring (her.27.1-24a514a), blue whiting (whb.27.1-91214), mackerel (mac.27.nea), and other pelagic species. The largest demersal fishery targets cod (cod.27.1-2), haddock (had.27.1-2), and saithe (pok.27.1-2) using bottom trawls, purse-seine, Danish seine and gillnets, and to a lesser extent hook and line gear. Smaller fisheries target other gadoid species, Greenland halibut (ghl.27.1-2), and beaked redfish (reb.27.1-2). Landings of pelagic species within the ecoregion in the last decades have been variable. The demersal fisheries, dominated by cod, display less pronounced fluctuations than the pelagic fisheries. Information about discards is sparse, but the total weight of discards is considered low in both the pelagic and the demersal fisheries. Harp seals and minke whales are hunted in the region.&lt;br&gt;&lt;br&gt;
+Status summaries of Norwegian Sea stocks relative to ICES maximum sustainable yield (MSY) approach and precautionary approach (PA) are known for about 42% of the 19 stocks assessed by ICES in this ecoregion. Only 21% of the stocks are fished below F MSY, accounting for less than 1% of the total catch. 21% of the stocks have a biomass above MSY Btrigger, accounting for 86% of the total catch. Demersal stocks have shown a trend of declining fishing mortality since the mid-1990s, followed by a sharp increase in 2019, largely driven by the exploitation pattern of redfish. In 2021 the average F/F MSY ratio was close to 1. The mean SSB/MSY Btrigger ratio of demersal stocks has been decreasing over the last decade, but mean SSB remains above MSY Btrigger and increased in 2021. The average F/F MSY ratio for pelagic stocks has fluctuated slightly above 1 since 2005. The mean SSB/MSY Btrigger ratio for pelagic species has been well above 1 the last two decades though followed by a recent sharp decline, but remains above 1.&lt;br&gt;&lt;br&gt;
+In addition to biomass removal, ecosystem effects of fisheries include abrasion, ghost fishing, and bycatch of protected, endangered, and threatened species.&lt;br&gt;&lt;br&gt;
+Supporting data used in the Norwegian Sea fisheries overview can be accessed at &lt;a href="https://doi.org/10.17895/ices.advice.27879897"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;The Norwegian Sea connects with the Faroes ecoregion to the southwest, the Icelandic Waters ecoregion and Greenland Sea to the west along the edge to the shallower Iceland Sea between the Faroe Islands, and northwards to Jan Mayen. To the south it borders to the shallower North Sea along the 62 ̊N parallel between Norway and the Faroe Islands, and to the northeast the shallower Barents Sea (Figure 1). The Norwegian Sea covers more than 1.1 million km2 , consisting of two deep basins (between 3000 m and 4000 m deep) – the Norwegian Basin and the Lofoten Basin – separated by the Vøring Plateau (between 1000 m and 3000 m deep). The Norwegian Sea is separated from the Greenland Sea to the north by the Mohn Ridge. To the west, the basin slope forms the transition to the somewhat shallower Iceland Sea. The warm North Atlantic Current ensures relatively stable and high water temperatures, so that unlike the Arctic seas, the Norwegian Sea is ice-free throughout the year.&lt;br&gt;&lt;br&gt; 
+Due to the temporary suspension of Russian Federation in ICES activities, ICES did not conduct assessments for the following stocks in 2022: cod.27.1-2, had.27.1-2, and reb.27.1-2. The results of the bilateral Norwegian−Russian
+assessments for these stocks are not included in this overview.&lt;br&gt;&lt;br&gt; 
+This overview provides:&lt;br&gt;&lt;br&gt;
+&lt;ol style="font-size: 14px"&gt;
+&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a description of mixed fisheries interactions in the ecosystem, and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;Many nations currently have fisheries targeting the marine stocks within this ecoregion. The largest landings are by Norway, Russia, Faroe Islands, and Iceland. Lesser amounts are landed by United Kingdom and others (Figure 2). Pelagic fishing by multinational fleets is the major activity in the ecoregion. The number of fishing vessels is declining while the size of the vessels is increasing.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
+The Norwegian commercial fleet has the majority of its fishing activity in the shelf area, particularly along the coast of
+Norway and along the continental shelf edge. The Norwegian fleet fishing in the ecoregion consists of about 2300 active
+vessels fishing pelagic fish (mackerel and herring), demersal fish (cod, saithe, haddock, ling (lin.27.1-2), tusk (usk.27.1-2),
+Greenland halibut, and redfish), and shellfish (brown crab, king crab, and northern prawn). Small coastal vessels (the
+majority &lt; 15 m length) fishing with beach-seine, gillnets, and pots make up around 87% of the fleet, while the remaining
+are mainly ocean-going trawlers and purse-seiners &gt; 28 m in length. The highest catch volume (82% of the total catch) is
+taken by the bigger vessels, with pelagic fish constituting the largest part of the landings.&lt;br&gt;&lt;br&gt;
+Harp and hooded seals are hunted with between two and five large ice-going vessels. The minke whale hunt has been
+ongoing in all years since 1993, and approximately 10–15 vessels.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
+The Russian commercial fleet in the Norwegian Sea ecoregion and adjacent waters is composed of about 30 large vessels
+(62–120 m in length) targeting pelagic species including NSS herring, blue whiting, and mackerel using pelagic trawls. The
+pelagic fleet conducts most of its fishing activities in international waters and fewer in the Norwegian EEZ. About 50 smaller
+vessels (&lt; 60 m) target demersal fish, including cod, haddock, saithe, redfish, Greenland halibut, and Atlantic wolffish, using
+mostly bottom trawls. Pelagic fish contribute most to the Russian fishery (about 90 % of the catches) in this ecoregion.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
+he Icelandic fleet operating in the Norwegian Sea ecoregion is composed of about 19 large vessels (&gt; 60 m length). They
+all target pelagic fish (NSS herring, mackerel, and blue whiting) with pelagic trawls. Two of the vessels freeze the catches
+on board while the others bring the catches ashore in refrigerated seawater (RSW) tanks&lt;br&gt;&lt;br&gt;
+&lt;b&gt;United Kingdom&lt;/b&gt;&lt;br&gt;
+The UK fishery operating in the Norwegian Sea ecoregion fishes mainly in ICES Division 2.a using bottom and midwater
+trawls with the occasional gillnetting and purse-seining. A small number of vessels operate in this area and catch a variety
+of demersal and pelagic species. In 2020, three bottom otter trawlers (40–90 m length) targeted cod, together with small
+amounts of saithe, haddock, redfish, and other species. The four midwater trawlers (75–120 m) fishing in 2020 targeted
+NSS herring, mackerel, and blue whiting.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;The Faroese fleet in the ecoregion consists of 12 large (&gt; 55 m length) vessels targeting pelagic species (NSS herring,
+mackerel, and blue whiting) with pelagic trawl (mainly) or purse-seine. One of the vessels freeze the catch on board while
+the rest use RSW tanks to bring the catch ashore. In addition, a handful of smaller trawlers (35–50 m length without RSW
+tanks) deliver the catch (mackerel) to the larger vessels at sea; the number of vessels in this last category has decreased
+much over the last five-to-eight years. In the description of fisheries, some Faroese fisheries are mentioned in Subarea 2,
+but these all take place outside the Norwegian Sea ecoregion.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The majority of the fisheries in the Azores ecoregion are targeted by Azorean vessels. Only a small proportion of catch is taken by surface longliners from mainland Portugal and Spain targeting swordfish and blue shark. The fisheries are classified as small scale because around 60% of the vessels are under nine metres in length and target many different species. The most important targets are tuna and tuna-like species (in weight), deep-water demersal species (in value), and small pelagic species. The most important fishing methods are handline and bottom longline, followed by pole and line (bait boats). Surface longline is also used but mainly by non-regional vessels that operate outside a 100 nautical mile area. The Azores Exclusive Economic Zone (EEZ) is recognized as a no take area for nets (including a trawl ban) excluding a few small coastal gillnets and purse seiners for small pelagics. &lt;br&gt;&lt;br&gt;
+Fisheries in the ecoregion are managed under the EU Common Fisheries Policy (CFP), with some fisheries managed by the North East Atlantic Fisheries Commission (NEAFC), the International Commission for the Conservation of Atlantic Tunas (ICCAT), and national Portugal and regional Azores governments.&lt;br&gt;&lt;br&gt;
+The status of the 12 stocks in this ecoregion assessed by ICES remain unknown. These stocks are considered as 
+data limited and are managed following the precautionary approach (category 3–5 stocks). &lt;br&gt;&lt;br&gt;
+Supporting data used in the Azores ecoregion fisheries overview is accessible at: &lt;a href="https://doi.org/10.17895/ices.advice.27880014"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>For this overview, the Azores ecoregion corresponds to the Azores EEZ inside ICES Subarea 10 (Figure 1). The ecoregion lies within a much larger open ocean ecosystem, and straddles the Mid-Atlantic Ridge. The Azores is a Portuguese archipelago composed of nine islands with almost no geological continental shelf, and the Azores EEZ includes 461 identified seamounts.&lt;br&gt;&lt;br&gt;
+This overview covers ICES Subdivision 10.a.2 (Figure 1). Vessel monitoring system (VMS) data are available for vessels above 12 meters in length, which means that only longliners and tuna vessels (pole and line) are covered.&lt;br&gt;&lt;br&gt; 
+The overview provides:&lt;br&gt;&lt;br&gt;
+&lt;ol style="font-size: 14px"&gt;
+&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a description of mixed fisheries interactions in the ecosystem; and&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Portugal and Spain are currently the main countries fishing in the Azores ecoregion. France, United Kingdom, and the Faroe Islands also fish but take lesser amounts. The Russian fleet was fishing in the ecoregion until the early 1980s.&lt;br&gt;&lt;br&gt; 
+&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
+The Portuguese fleet operating in the ecoregion is currently composed of around 600 vessels. Most of these have a length of less than 12 m and are typically licensed to use several different gear types around the archipelago and seamounts to target pelagic (small pelagics and tuna) and demersal deep-water species (such as blackspot sea bream [sbr.27.10], alfonsinos [alf.27.nea], and Atlantic wreckfish). There is also a longline surface fishery targeting swordfish and blue shark.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
+Spain has historically been fishing in the ecoregion and currently has around ten vessels that use surface longline to target swordfish and blue shark inside the Azores EEZ.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;The commercial fisheries in the ecoregion target a wide variety of stocks, resulting in a diverse and spatially varied fishing industry. The countries with the largest landings and effort in the ecoregion are Spain, Portugal, and France, with minor landings from Ireland, Belgium, and UK. The most common gear used in the area is bottom trawls, which target demersal species. The highest landings, however, are taken by midwater trawls mainly targeting species such as blue whiting, mackerel, and to a lesser extent species such as sardine.&lt;br&gt; &lt;br&gt;
+Of the wide variety of stocks both targeted and caught as bycatch, 73 are evaluated by ICES for spawning stock biomass (SSB) size and fishing pressure. Twenty-two stocks have been evaluated against maximum sustainable yield (MSY) reference points for fishing mortality, and 86% of these are fished below FMSY. &lt;br&gt; &lt;br&gt;
+In addition to biomass removal, ecosystem effects of fisheries include abrasion, ghost fishing, damage to benthic fauna by demersal trawling, and bycatch of marine mammals, elasmobranchs, and seabirds. Several regulatory and research efforts are in place or are being developed that are aimed at reducing the impact of fishing on the ecosystem. &lt;br&gt; &lt;br&gt;
+Supporting data used in the Bay of Biscay and Iberian Coast fisheries overview is accessible at: &lt;a href="https://doi.org/10.17895/ices.advice.27879951 "&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt; 
+</t>
+  </si>
+  <si>
+    <t>it says "description of the ecoregion" on the advice sheet</t>
+  </si>
+  <si>
+    <t>Seven nations currently have fisheries targeting the many marine stocks within this diverse and extensive ecoregion. The highest landings are by Spain, Portugal, and France. Lesser amounts are landed by other countries including the Netherlands, Belgium, Ireland, and UK (Figure 2). &lt;br&gt; &lt;br&gt;
+&lt;b&gt;Belgium&lt;/b&gt;&lt;br&gt;
+The Belgian fisheries in the Bay of Biscay mainly take place in Division 8.b. There are fifteen vessels operating, all with beam trawl, and the fishery takes place from 1 June to 30 September. The main target species is sole with monkfish as a bycatch species, though monkfish is increasing in importance in the landings. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
+There are around 1500 vessels operating primarily in ICES Subarea 8, representing more than 4000 fishers. Seventy one percent of all vessels operate predominantly within the 12 nautical mile limit. Around 1000 vessels operate in Division 8.a and 500 in Division 8.b. Around 20 vessels operate occasionally in Division 8.c. &lt;br&gt;&lt;br&gt;
+The mean size of the vessels is 12 m, while more than 1100 vessels are under 12 m. The main gears used by coastal vessels are nets, lines (longlines and handlines), pots, scoop nets, dredges and bottom trawls. The offshore fishery is mostly carried out by bottom trawlers, netters, and a few longliners. The main species caught by French vessels in the area are hake, anglerfish, sole, sea bass, Norway lobster, sardines, cuttlefish, albacore, squids, pollack, and anchovy. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Ireland&lt;/b&gt;&lt;br&gt;
+Ireland has four fisheries in this ecoregion. The highest catches are made by around eight large vessels (&gt; 40 m in length) that target small pelagic fish, mainly boarfish, horse mackerel, and mackerel. Approximately 40 vessels target albacore tuna, with paired midwater pelagic trawls in summer as the fish migrate northward. The gillnet fishery for hake involves around 15 vessels, and there is minor demersal otter trawl activity involving up to eight vessels in Subarea 8. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Netherlands&lt;/b&gt;&lt;br&gt;
+The Netherlands has fishing rights for sole in the Bay of Biscay. In the last two decades, however, the Dutch fleet has not been active in the area. Since the mid 2000s, the Netherlands has been using its fishing rights in the Bay of Biscay for quota swaps with Belgium (i.e. the Dutch quota in the Bay of Biscay has been exchanged for Belgian quota in the North Sea). &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
+A total of 2802 vessels operated in 2023, comprising otter trawlers, purse-seiners, and multi-gear vessels; the fleet operates primarily in Division 9.a. &lt;br&gt;&lt;br&gt;
+A total of 80 bottom otter trawlers are active; 25 target crustaceans (deep-water rose shrimp and Norway lobster) and blue whiting in deep waters from 200 m to 800 m, while the remaining catch finfish in waters shallower than 500 m. The majority of the vessels are between 18 m and 40 m in overall length, and only nine are smaller than 12 m in length. &lt;br&gt;&lt;br&gt;
+The purse-seine fleet predominantly operates at depths between 20 m and 100 m, and traditionally targets sardine. This fleet comprised 144 vessels, between 8 and 27 m in overall length. It contributes to more than 50% of the total catch, and mainly harvests sardine, chub mackerel, anchovy, horse mackerel, and blue jack mackerel. &lt;br&gt;&lt;br&gt;
+The remaining vessels (2570) hold multiple licences for several gear types, including gillnets (80 mm mesh size), trammelnets (100 mm mesh size), hand- and longlines, pots and dredges, and small purse-seines. This multi-gear fleet operates generally within 30 miles of the Portuguese coast, catching, among others, hake, anglerfish, octopus, pout, horse mackerel and clams. These are mostly small vessels under 12 metres in overall length. More than 200 vessels (232) in this fleet exceed 12 metres. This includes bottom and drifting longliners operating in continental waters and offshore, in waters of the NE Atlantic. A deep-water longline fleet, composed of 15 vessels with an average of 20 m length, operates at depths ranging from 800 to 1450 m, targeting black scabbard fish. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
+There are around 4750 vessels in this fleet, operating mainly in northern Spanish waters. The fleet comprises artisanal vessels, trawlers, purse-seiners, demersal longliners, and gillnetters. Around 3600 vessels are operating in the artisanal fishery (of 7 m average length) using artisanal gears including dredges, trammelnets, gillnets, pots, bottom longline, handline, purse-seine and beam trawl; they target mackerel, clams and octopus. The trawlers (71 vessels of 28 m average length) use bottom- and pair trawl to target horse mackerel, mackerel, blue whiting, and hake. The purse-seiners (236 vessels of 22 m average length) target mackerel, anchovy, horse mackerel, and sardine. The demersal longliners (57 vessels of 16 m average length) target hake as main species, as well as European conger. The gillnetters (59 vessels of 18 m average length) catch mainly hake and anglerfish. &lt;br&gt;&lt;br&gt;
+Around 660 vessels operate mainly in the Gulf of Cadiz Spanish waters. The fleet comprises artisanal vessels, trawlers, and purse-seiners. Around 480 vessels are operating in the artisanal fishery (of 9 m average length) using artisanal gears including dredges, trammelnets, gillnets, bottom longline, and handline; they target blackspot sea bream, stripped venus, octopus and cuttlefish. The trawlers (120 vessels of 19 m average length) target shellfish and cephalopods. The purse seiners are composed of 70 vessels of 17 m average length. &lt;br&gt;&lt;br&gt;
+Other fleets operating in Iberian waters mainly on the north coast and Galician waters comprise around 400 vessels – 300–350 trolling and 60 with live bait (of 17 m average length). These fleets target albacore. &lt;br&gt;&lt;br&gt;
+Around 66 vessels operate mainly in the Bay of Biscay. The fleet comprises trawlers and passive gears (bottom longline and gillnet). Thirteen vessels are operating in the trawler fleet targeting hake, anglerfish, and megrim. Fifty-three vessels use passive gears (mainly bottom longlines and some gillnets) which target hake. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;UK&lt;/b&gt;&lt;br&gt;
+The UK fleet operating in the ecoregion mainly operates in divisions 8.a and b, and further offshore in Division 8.d. The fleet is comprised of pelagic trawlers, gillnetters, and longliners; the fleet size varies, from seven to 13 vessels over the last four years. The pelagic trawlers are the larger of the vessels, with an overall total length of between 50 m and 114 m. Pelagic trawlers mainly target mackerel and horse mackerel in divisions 8.a and b. Longliners and gillnetters target a mix of species and have an overall length of between 20 m and 35 m; they operate in both divisions 8.a and 8.b and further offshore in Division 8.d. The main target species of the longliners is hake, whereas gillnetters target hake, anglerfish, and pollack. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;The commercial fisheries in the Barents Sea Ecoregion target few stocks. The largest pelagic fishery targets capelin (cap.27.1-2) using midwater trawl. The largest demersal fisheries target cod (cod.27.1-2), haddock (had.27.1-2), and other gadoids, predominantly using trawls, gillnets, longlines, and handlines. The crustacean fisheries target deep-sea prawn, red king crab, and snow crab. Harp seals and minke whales are also hunted in the region. &lt;br&gt;&lt;br&gt;
+Twelve nations currently have fisheries targeting the stocks in this ecoregion. Norway and Russian Federation have the largest fleets and dominate the landings in the region. Total landings peaked in the mid-1970s and have been at a lower level for the last two decades. Catches of capelin have varied, from being the largest catches in the region (by weight) at some points in time to zero catches at others. Pelagic trawling in the ecoregion tends to catch only one species at a time, whereas demersal trawling normally catches several species simultaneously. &lt;br&gt;&lt;br&gt;
+In addition to biomass removal, the ecosystem effects of fisheries include abrasion, ghost fishing, damage to benthic fauna by demersal trawling, bycatch of elasmobranchs in demersal fisheries, bycatch of seabirds in gillnet and longline fisheries, and bycatch of harbour porpoise in gillnet fisheries. Several regulatory and research efforts to reduce the impact of fishing on the ecosystem are in place or being developed. &lt;br&gt;&lt;br&gt;
+Supporting data used in the Barents Sea fisheries overview can be accessed at &lt;a href="https://doi.org/10.17895/ices.advice.21640814"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Barents Sea ecoregion covers the shelf sea to the north of Norway and the Russian Federation (“Russia” henceforth) (Figure 1). Its western boundary approximately follows the shelf break towards the deep Norwegian Sea to the west, and its northern boundary follows the shelf break towards the deep Arctic Ocean to the north. To the east, the ecoregion borders Novaya Zemlya and the Kara Sea. The two Arctic archipelagos of Svalbard and Franz Josef Land are situated within the ecoregion. There are relatively deep areas to the west, while the eastern parts of the ecoregion are dominated by bank areas. &lt;br&gt;&lt;br&gt;
+This overview covers the entirety of ICES Division 27.1.a and parts of divisions 27.1.b, 27.2.a, and 27.2.b (hereafter, the “27” area prefixes are omitted). All catches within Division 1.b are, however, taken in the Barents Sea ecoregion, as there are no catches in the northernmost part, which belongs to the Arctic Ocean ecoregion. The plots of total catches include all catches in ICES subareas 1 and 2 except for catches of the large pelagic stocks (Norwegian spring-spawning herring, Northeast Arctic mackerel, and blue whiting), for which there are minimal catches in the Barents Sea. &lt;br&gt;&lt;br&gt;
+Because of the suspension of Russia from ICES activities, ICES has not conducted assessments for the following stocks since 2022: cod.27.1-2, had.27.1-2, ghl.27.1-2, reb.27.1-2, cap.27.1-2, and pra.27.1-2. The results of the bilateral Norwegian– Russian assessments for these stocks are not included in this overview. &lt;br&gt;&lt;br&gt;
+This overview provides the following: &lt;br&gt;&lt;br&gt;
+&lt;ol style="font-size: 14px"&gt;
+&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a description of mixed-fisheries interactions in the ecoregion; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species. &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are currently 12 nations with fisheries targeting the stocks in this ecoregion. The country with the highest landings is Norway, followed by Russia. Lower quantities are landed by Denmark, Estonia, Faroe Islands, France, Germany, Greenland, Iceland, Poland, Portugal, Spain, Belarus, and UK (Figure 2). &lt;br&gt;&lt;br&gt;		
+Prior to the establishment of exclusive economic zones (EEZ) in the ecoregion in the late 1970s, several nations were fishing in the area. The major fishing fleets were from Norway and Russia. Historically, landings by all nations were dominated by demersal species such as cod and haddock; however, redfish (beaked and golden) and Greenland halibut (ghl.27.1-2) were also important up to about 1990. &lt;br&gt;&lt;br&gt;
+Landings of capelin, the only major pelagic fish species in the area, peaked at three million tonnes in 1977. The capelin stock “collapsed” to very low levels in the mid-1980s. Before the establishment of a minimum landing size for Norwegian spring-spawning herring, for which the Barents Sea serves as a nursery area, large catches of immature herring were also taken in the ecoregion, mainly by Norwegian and Russian fishers. In recent years, Norway has fished some legal sized herring in a restricted coastal purse-seine fishery inside four nautical miles off the Finnmark coast. In the southwestern part of the ecoregion, an international herring fishery has operated in some seasons. &lt;br&gt;&lt;br&gt;
+Catches from the northern shrimp (pra.27.1-2) fishery increased considerably from 2018, with much of the increase coming from fleets fishing in the international waters between the Norwegian EEZ, the Fisheries Protection Zone around Svalbard, and the Russian EEZ. Red king crab are fished by Russia in near-coastal Russian waters and fished by Norway in the coastal waters of Finnmark and Tromsø, the northernmost counties of Norway. A fishery has developed for the snow crab in recent years; this is a species first encountered in the ecoregion in 1996. &lt;br&gt;&lt;br&gt;
+Commercial hunting of Barents Sea harp seal started with vessels from northern Norway in 1867. In general, there has been a lack of capacity to take recommended TACs since 2000. Norwegian whaling, targeting minke whales, started in the late 1920s. A total quota was introduced in 1976. The effect of this was to move the catch effort from coastal areas with relatively low catch rates to the Barents Sea and off the west coast of Spitsbergen. Following the moratorium on all whaling as declared by the International Whaling Commission (IWC), Norway stopped all commercial minke whale hunt temporarily after the 1987 season. The hunt was started again in 1993 and has continued in all subsequent years. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
+The Norwegian fleet fishing in the ecoregion consists of about 3 000 active vessels. These vessels fish gadoids (cod, haddock, and saithe), other demersal fish, pelagic fish, and shellfish. Small coastal vessels (the majority &lt; 11 m in length) fishing with gillnets, handline, and pots make up around 95% of the fleet, while the remaining 5% are predominantly ocean-going trawlers &gt; 28 m in length. About 1000 Norwegian coastal vessels (6–22 m in length) participate in the quota-regulated red king crab fishery east of 26°E. West of this line, fishing for red king crab is unregulated and the number of vessels unknown. The snow crab fishery in the Norwegian EEZ part of the ecoregion is still developing because of the relatively recent westward spread of snow crab. There are currently 20-30 Norwegian vessels in this fishery. The harp seal hunt in the ecoregion has traditionally been conducted with large ice-going sealers, of which only two to five vessels remain today. Approximately 10–15 vessels participate in the minke whale hunt. &lt;br&gt;&lt;br&gt;	
+&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
+The Russian fleet operating in the Barents Sea and Norwegian Sea ecoregions is composed of about 200 vessels. Ninety percent of the vessels catch demersal species, including fish and crustaceans, and 15% catch pelagic species. Approximately 25% of the fleet targeting demersal species consists of boats below 34 m in length and operates near the Russian coast using trawls and traps, catching several fish species and crabs. Vessels of size 34–65 m average around 60% of the fleet and mainly target cod, haddock, saithe (pok.27.1-2), redfish, Greenland halibut, wolffish, long rough dab, and plaice using trawls and longlines, traps (for crab), and trawls (for shrimp). The industrial factory ships (ten vessels of 65–100 m; 20 vessels &gt; 100 m) are predominantly trawlers that use bottom and midwater trawls. They account for most of the landings of capelin but also catch cod, haddock, and saithe. The Russian harp seal hunt is performed using two to three helicopters, where the seals (generally pups) are hunted on the ice. &lt;br&gt;&lt;br&gt;	
+&lt;b&gt;Denmark&lt;/b&gt;&lt;br&gt;
+The Danish fleet targets small amounts of demersal fish in ICES Subdivision 2.a.2. The vessels are all pelagic trawlers or combined trawl/purse-seiners, ranging in length between 60 m and 90 m. &lt;br&gt;&lt;br&gt;	
+&lt;b&gt;Estonia&lt;/b&gt;&lt;br&gt;
+The Estonian fleet fishing in the area consists of less than ten vessels with an average length of 64 m, operating in the Northwest Atlantic, Northeast Atlantic, and Svalbard. The fleet targets mainly northern shrimp and Greenland halibut with bottom trawls, with cod and long rough dab as bycatch. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;
+The Faroese fleet in the ecoregion currently consists of less than five vessels targeting cod, haddock, Greenland halibut, shrimp, redfish, and flatfish. These vessels are between 50 m and 80 m in length. &lt;br&gt;&lt;br&gt;	
+&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
+French vessels target cod, haddock, saithe, redfish, and Greenland halibut in the area. The fleet usually consists of one freezer trawler of 80 m in length, targeting cod and associated species (haddock and saithe) with otter bottom trawls. &lt;br&gt;&lt;br&gt;	
+&lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
+The German fleet operating in the ecoregion consists of about four vessels (&gt; 40 m in length). The pelagic freezer trawlers target mainly herring, blue whiting, and redfish, while the demersal trawlers target mainly cod, saithe, and haddock. &lt;br&gt;&lt;br&gt;	
+&lt;b&gt;Greenland&lt;/b&gt;&lt;br&gt;
+The Greenlandic fishing fleet consists of eight vessels. Two of these are stern trawlers 82–88 m in length that mainly target cod, saithe, and haddock, with minor bycatches of plaice and wolffish. The remaining six vessels are pelagic trawlers and purse seiners, 66–88 m in length, that mainly fish for mackerel. One vessel targets northern shrimp. &lt;br&gt;&lt;br&gt;	
+&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
+The Icelandic fleet consists of less than ten vessels, all demersal trawlers larger than 60 m in length. These vessels target cod in accordance with bilateral agreements between Iceland and Norway and between Iceland and Russia. &lt;br&gt;&lt;br&gt;	
+&lt;b&gt;Lithuania&lt;/b&gt;&lt;br&gt;
+The Lithuanian fleet in the North Atlantic consists of two demersal trawlers &gt; 40 m in length, targeting shrimp in the ecoregion. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Poland&lt;/b&gt;&lt;br&gt;
+One Polish vessel (&gt; 40 m in length) is active in the region, targeting cod, haddock, saithe, redfish, and Greenland halibut. &lt;br&gt;&lt;br&gt;	
+&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
+Less than five Portuguese stern trawlers (&gt; 60 m in length) operate in the area; they mainly target cod, since quotas for redfish, haddock, and pollock are small. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
+The Spanish fleet consists of seven vessels. Four of these are 48–87 m in length, targeting cod with otter bottom trawls. &lt;br&gt;&lt;br&gt;	
+&lt;b&gt;UK&lt;/b&gt;&lt;br&gt;
+Less than five demersal vessels operate throughout the year in the ecoregion, mainly targeting species such as cod, haddock, saithe, and Greenland halibut. The average size of these vessels is around 4 830 kW horsepower and &gt; 80 m in total length. Between one and three vessels fish for herring in Division 2.a. &lt;br&gt;&lt;br&gt;	
+&lt;b&gt;Others&lt;/b&gt;&lt;br&gt;
+Smaller amounts of saithe, redfish, and Greenland halibut have been landed by Ireland, the Netherlands, and Latvia in some years. Belarussian vessels also catch a small amount of cod annually. &lt;br&gt;&lt;br&gt;	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exec
+&lt;br&gt;The commercial fisheries in the Baltic Sea target few stocks. The pelagic fisheries, which account for the largest catches (by weight) in the region, are the pelagic trawl fisheries for sprat and herring. The most important demersal fisheries were the bottom-trawl fisheries for cod and flatfish. Since 2020 there is no targeted EU fishery on cod in subdivision 24 and 25–32 and since 2022 no targeted fishery on cod throughout the Baltic (except for Russia). The demersal fisheries are concentrated in the south and west of the Baltic Sea, while the pelagic fisheries dominate from east of Bornholm to Finland. Flatfish are the main remaining benthic resource, mainly flounder and plaice. Recreational fisheries in the Baltic catch a diversity of species. Cod was a major target species but is regulated by bag limits since 2017 and now forbidden in all subdivisions. Most of the Baltic Sea fish stocks with reference points are fished at or below FMSY, only for sprat fishing mortality is above FMSY. The spawning-stock biomass is below the reference limit for both cod stocks and several herring stocks. In the last years fishing effort decreased to historic low levels for some pelagic and demersal trawl fisheries, especially in the western Baltic area. Despite historically low demersal fishing effort and additional management measures, the cod stocks show no signs of recovery. Besides the two cod stocks, stocks of herring, plaice, founder and dab show trends of decreasing body condition. Environmental stressors such as warming, eutrophication, hypoxic areas, habitat loss and cyanobacteria blooms are assumed to be factors for the current poor state of Baltic fisheries resources. However, piscine predators like grey seals and cormorants are abundant. Patterns of seabed habitat disturbance reflected the distribution of bottom-trawl fishing effort; however, trawl fisheries have decreased massively in recent years. Bycatches of seabirds (greater scaup, common guillemot, and long-tailed duck) occur at times in the gillnet fisheries; these fisheries also catch individuals of the critically endangered harbour porpoise in the Baltic Proper but the amount and the population effects of the bycatches are unclear. &lt;br&gt;&lt;br&gt;	
+Supporting data used in the Baltic Sea fisheries overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.27880068"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;  
+</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;The Baltic Sea is a semi-enclosed, brackish sea, characterized by a sequence of basins connected by shallower sills with vertical stratification of the water column (Figure 1). Salty, well-oxygenated water from the North Sea occasionally enters the Baltic Sea through the Belt Seas and propagates into the deeper areas, while freshwater flows exit at the surface. Stratification limits the oxygen from reaching the deeper waters, so the oxygen content of the bottom water depends on local oxygen consumption and the inflows of North Sea water. The ecoregion has a limited diversity of fish species, dominated by marine species in the southwestern areas and a combination of marine and freshwater species in the northeastern areas (subdivisions 28.1, 29–32). Fisheries in the Baltic Sea are focused on a few major species. &lt;br&gt;&lt;br&gt;
+&lt;br&gt;Commonly referred to areas in Baltic Sea are defined as follows: Western Baltic (subdivisions 22–24), Baltic Proper (subdivisions 25–29, excluding 28.1 [Gulf of Riga]), Central Baltic (subdivisions 2529), Bothnian Sea (subdivisions 30–31), and Gulf of Finland (subdivision 32). &lt;br&gt;&lt;br&gt;
+The overview covers ICES Subarea 27.3, excluding Division 27.3.a (hereafter, the area prefixes are omitted), and provides: &lt;br&gt;&lt;br&gt;
+&lt;ol style="font-size: 14px"&gt;
+&lt;li style="font-size: 14px"&gt;a short description of each of the national fishing fleets in the ecoregion, including their commercial and recreational fisheries and fishing gears and patterns; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a description of mixed-fisheries interactions in the ecoregion; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species. &lt;/li&gt;&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;Currently, fishing vessels from nine nations operate in the Baltic Sea, with the largest number of larger vessels (&gt; 12 m) coming from Sweden, Denmark, and Poland. Total finfish landings from the Baltic Sea peaked in the mid-1970s and again in the mid 1990s, corresponding to peaks in the abundance of cod and sprat stocks, respectively. The proportion of the total annual landings caught by each country has varied little over time, except for the redistribution of catches by former USSR countries (Figure 2). The following paragraphs highlight features of the fleets and fisheries of each country, but are not exhaustive descriptions. &lt;br&gt;&lt;br&gt; 
+&lt;b&gt;Denmark&lt;/b&gt;&lt;br&gt;
+The Danish fleet comprises close to 350 vessels, divided into offshore fisheries (approximately 100 vessels 8–12 m and 80 vessels &gt; 12 m) and coastal fisheries (approximately 150 vessels). The large vessel offshore fisheries target (a) sprat and herring in the northern Baltic Sea using small‐meshed pelagic trawls and (b) flatfish, mainly plaice but also flounder, dab, turbot and brill, in the southwestern Baltic fisheries using demersal trawls. The coastal fisheries occur along all coasts of the Belt Sea area and target several flatfish species using mainly gillnets, trapnets, or rarely poundnets. Recreational fisheries target different species depending on the season with plaice, salmon and sea trout being among the most important species. The main recreational fishing area for salmon is off Bornholm in subdivisions 24 and 25.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Estonia&lt;/b&gt;&lt;br&gt;
+The active offshore fleet comprises around 25–30 fishing vessels of 18–42 m, while the coastal fishery consists of several hundred small boats of &lt; 12 m. The pelagic fleet consists mostly of stern trawlers, targeting herring and sprat in subdivisions 28.1, 28.2, 29, and 32. About 25–30% of the herring catch is taken by coastal fisheries. Main areas of coastal herring fishery are the Gulf of Riga (Subdivision 28.1) and the Gulf of Finland (Subdivision 32), where trapnets and poundnets are used. Flounder is also taken using Danish seines and gillnets in the coastal fisheries in the Gulf of Riga and subdivisions 29 and 32. Recreational fisheries primarily target perch, pikeperch, flounder, and European whitefish, mainly in the Gulf of Riga. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Finland&lt;/b&gt;&lt;br&gt;
+The fleet comprises 3352 vessels, of which about 1300 vessels are actively used in the fishery. The vast majority of the vessels are &lt; 10 m and operate in coastal fisheries. The offshore fleet is composed of 47 vessels &gt; 10 m in the Baltic main basin, the Archipelago Sea, the Gulf of Bothnia, and the Gulf of Finland; it mainly targets Baltic herring stocks (with sprat taken mainly as bycatch) with pelagic trawls. The coastal fisheries occur on all parts of the coast using trapnets, fykenets, and gillnets; they catch salmon, European whitefish, pikeperch, perch, pike, vendace, burbot, smelt, and occasionally flounder. Recreational fisheries target mainly perch, pike, pikeperch, European whitefish, bream, and herring using gillnets, rods, fish traps, and fykenets along the coast of Gulf of Finland as well as in in the Archipelago Sea and Gulf of Bothnia. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
+The German commercial fleet in the Baltic Sea consists of about 58 trawlers and larger (&gt; 10 m total length) polyvalent vessels (those which use multiple gears), and about 596 vessels using exclusively passive gear (&lt; 12 m total length). The German herring fleet in the Baltic Sea, where all catches are taken in a directed fishery, consists of a coastal fleet with mostly undecked boats (rowing/motor boats ≤ 12 m) and a cutter fleet with decked vessels (total length 12–40 m). The German herring fishery in the Baltic Sea is conducted with gillnets, trapnets, and trawls. Historically passive and active gear shared the landings about 70:30, however, in recent years all landings were from passive gears. Herring are fished mostly in the spring spawning season and in Subdivision 24. In the central Baltic Sea almost all landings are taken by the trawl fishery. All catches of sprat are taken in a directed trawl fishery by cutters &gt;18 m in length. Most sprat is caught in subdivisions 25–29 in the first quarter. Demersal and benthic species are caught with bottom trawls and passive gears, particularly with gillnets but also trammelnets. The number of vessels in the active gear fishery has substantially decreased  and now mainly targets flatfish in subdivisions 22 and 24. The passive gear fisheries operate all year-round targeting different species, including coastal lagoons and river mouths, in different seasons. Recreational fisheries were carried out by an estimated 165 000 fishers, from all German shores and from boats (charter and private boats) mostly within 5 nautical miles (NM) off the coast; the main target species being herring, sea trout, salmon, flatfish species, and whiting. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Latvia&lt;/b&gt;&lt;br&gt;
+The fleet comprises around 55 registered offshore vessels (12–40 m) and 610 coastal vessels (&lt; 12 m). The offshore vessels target sprat in the Baltic main basin and herring in the Gulf of Riga using pelagic trawls. Flounder is targeted in subdivisions 25, 26, and 28 using demersal trawls. Since 2000, sprat and herring have accounted for 92% of the total annual landings. Most vessels in the coastal fleet are &lt;5 m and target herring, round goby, flounder, smelt, salmon, sea trout, vimba bream, turbot, and eelpout using fykenets, trapnets, and gillnets. Recreational fisheries occur on all coasts and target flounder, perch, and round goby.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Lithuania&lt;/b&gt;&lt;br&gt;
+The Lithuanian fishing fleet in 2020 comprised 21 offshore vessels (&gt; 18 m) and 58 coastal vessels (&lt; 12 m). The offshore fishing fleet uses pelagic and bottom trawls, with vessels switching between gears depending on target species, fishing conditions, and quota availability. The main target species are sprat, herring, and flounder caught mainly in subdivisions 25, 26, and 28 as well as to a lesser extent in subdivisions 27 and 29. The coastal fisheries target herring, smelt, round goby, flounder, and turbot using gillnets and trapnets within the Lithuanian coastal area of Subdivision 26. Recreational fisheries also occur in these waters and focus on herring, salmon, and sea trout using rod and lines. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Poland&lt;/b&gt;&lt;br&gt;
+The fishing fleet consists of around 150 active offshore vessels (12–35 m) and approximately 650 coastal vessels (&lt;12 m). The larger offshore vessels (&gt;18.5 m) target sprat and herring using pelagic trawls for fishing sprat and herring, while smaller offshore vessels (12–18.5 m) target flounder, and sandeel using bottom trawls. Fishing occurs mainly in subdivisions 24, 25, and 26 and these species form about 98% of the total annual landings. The coastal fisheries harvest mainly sea trout, flounder, turbot, plaice, roach, perch, bream, pikeperch. Recreational fisheries mostly target salmon and sea trout, primarily along the central Polish coast and off the Hel Peninsula. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Russian Federation&lt;/b&gt;&lt;br&gt;
+Note that this text has not been updated since 2022. &lt;br&gt;&lt;br&gt;
+The fishing fleet is composed of about 45 vessels divided into offshore fisheries (41 vessels by 25–31 m size class) and coastal fisheries (four vessels by 15–25 m size class). In Subdivision 26, the vessels fleet MRTK targets sprat and herring while the demersal trawl fleet (about 27 m), targets cod and flounder. The gillnet fleet targets cod with flounder as bycatch. A poundnet fishery targeting herring occurs in the Vistula Lagoon. In the eastern part of the Gulf of Finland (Subdivision 32), the MRTK fleet operates mainly in the first, second, and fourth quarters and is orientated to herring. Recreational fisheries targeting cod, flounder, turbot, and salmon, goby, and other non‐commercial species occur on all Russian coasts. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Sweden&lt;/b&gt;&lt;br&gt;
+The fleet is comprised of around 400 active vessels, whereof the majority (about 370 vessels) are &lt;12m. Around 10 vessels &gt;40m operate in the Baltic Sea, as well as 30 vessels of 12–39 m. Around 65 vessels fish with active gears, of which about two thirds target pelagic species with trawls, and the rest mostly target vendace in Bothnian Bay. The demersal trawl fishery for cod and flatfish has completely stopped since 2019, when the targeted cod fishery was prohibited. Coastal fisheries use a mixture of gillnets, longlines, and fish traps to catch flatfish as well as a variety of freshwater species (in the archipelagic areas) and herring, European whitefish, and salmon in Bothnian Bay. A coastal fishery using fykenets targets European eel and other species along the southeast coast. Recreational fisheries take place along the entire Baltic Sea coast and target marine and freshwater species including salmon, pike, perch, and sea trout. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Others&lt;/b&gt;&lt;br&gt;
+Historically countries others than those bordering the Baltic Sea have made some landings. However, in recent decades are exclusively from the nine bordering countries. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt; The commercial fisheries in the Celtic Seas ecoregion target a large number of stocks. The pelagic fisheries, which account for the largest catches (by weight) in the region, are the midwater trawl fisheries for blue whiting, mackerel, horse mackerel, herring, boarfish, and sprat. The largest demersal fishery targets hake along the shelf edge using gillnets and longlines. There are also large mixed bottom-trawl fisheries targeting benthic species, Norway lobster, and gadoids. The species composition of these mixed fisheries tends to vary depending on the area and the countries involved in the fishery. &lt;br&gt;&lt;br&gt;
+The relationship of biomass status or the fishing mortality to reference points is not known for 70% of the 110 stocks that are assessed in the ecoregion. Though only 39% of the stocks are fished below FMSY, these stocks account for nearly 44% of the total landings. There has been a trend of declining fishing mortality since the mid-1990s for the benthic and demersal stocks with known status. The average F/FMSY ratio is below 1 for assessed benthic stocks and just above for the assessed demersal stocks. The trend for stock size in assessed benthic and demersal stocks has been increasing over the same period. The average F/FMSY ratio is below 1 for the crustacean stocks, and the average biomass has been above 1 in the past decade. The average F/FMSY ratio for pelagic assessed stocks has been above 1 in recent years, and the average stock size indicator is declining in recent years but remains above MSY Btrigger. &lt;br&gt;&lt;br&gt;
+Technical interactions in demersal mixed fisheries are described for three areas within the ecoregion. Norway lobster account for the highest landings in the Irish Sea; they are mainly taken in trawl fisheries, where they account for more than 90% of the total landings. In the Celtic Sea and west of Ireland, hake account for the majority of the landings; they are mainly taken in longline and gillnet fisheries. In the west of Scotland, Norway lobster again account for the highest landings; they are mainly taken using otter trawls but are also taken in pots. &lt;br&gt;&lt;br&gt;
+Supporting data used in the Celtic Seas fisheries overview is accessible at &lt;ahref="https://doi.org/10.17895/ices.advice.27879936. "&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;br&gt;  The Celtic Seas ecoregion covers the northwestern shelf seas of Europe (Figure 1). It includes areas of the deeper eastern Atlantic Ocean and coastal seas that are heavily influenced by oceanic inputs. The ecoregion ranges from north of Shetland to Brittany in the south. Three key areas constitute this ecoregion: &lt;br&gt;&lt;br&gt;
+&lt;ol style="font-size: 14px"&gt;
+&lt;li style="font-size: 14px"&gt;northern parts: the Malin shelf, west of Scotland, eastern Rockall Bank, and north of Scotland (parts of Subdivision 2.a.2, divisions 4.a and 6.a, and Subdivision 6.b.2); &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;the Celtic Sea, Bristol Channel, Western English Channel, southwest and west of Ireland (Division 7.b and Subdivision 7.c.2; parts of divisions 7.e, 7.f, 7.g, 7.h, and subdivisions 7.j.2 and 7.k.2); &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;the Irish Sea (Division 7.a). &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+In the north, there are strong links with the North Sea; in the southeast, a strong link with the channel area; and in the south a strong link with the Bay of Biscay. The eastern part of the Rockall Bank is within the geographic scope of the ecoregion, although it is separated from the western European shelf by the Rockall Trough. &lt;br&gt;&lt;br&gt;
+This fisheries overview provides: &lt;br&gt;&lt;br&gt;
+&lt;ol style="font-size: 14px"&gt;
+&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears and spatial and temporal patterns of activity; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;mixed fisheries considerations of relevance to the management of the fisheries; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species. &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;
+The overview covers ICES subareas 27.7 (excluding Division 27.7.d) and 27.6, (hereafter, the “27” area prefixes are omitted). Some fisheries statistics do not allow the full differentiation of sections of subareas 4 and 2 or (in earlier years) western sections of subareas 6 and 7, as well as the southeastern section of Division 7.e. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; Fourteen nations currently have fisheries targeting the many marine stocks within this diverse and extensive ecoregion. Landings by country have varied over the past ten years, with most taken by Norway, UK, Ireland, the Netherlands, Denmark, and France. Lesser amounts are landed by the Faroe Islands, Germany, Spain, Belgium, Lithuania, Poland, and Estonia (Figure 2; note that this figure includes some landings from waters to the west of the ecoregion). &lt;br&gt;&lt;br&gt;
+Landings from several of these nations, including Norway, the Netherlands, Germany, Denmark, Lithuania, and Poland, are dominated by pelagic species. Nations within UK and EU target a combination of pelagic, demersal (including Norway lobster), deep-water, and shellfish species. Of these, UK has the greatest landings, with an almost equal split between pelagic and non-pelagic landings. &lt;br&gt;&lt;br&gt;
+In the European Commission’s Scientific Technical and Economic Committee for Fisheries’ (STECF) Fisheries Dependence Information (FDI) data call, “confidentiality” in the landings and effort tables by country was introduced. The data call suggests that data related to fewer than three vessels could be considered confidential. Given the disaggregation of this data call (e.g. vessel length, gear, mesh size, quarter), many entries were submitted as confidential. It is therefore not possible to assess the extent to which the effort data are impacted by confidentiality and whether this is consistent over time. As a consequence, no effort by country was presented. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Belgium&lt;/b&gt;&lt;br&gt;
+The Belgian fleet consists of about 33 active vessels, of which about 21 fish in the Irish Sea. The majority (89%) of the vessels are &gt; 24 m, while the remainder of the vessels are between 18 m and 24 m. The Belgian fleet uses beam trawls and otter trawls for rays, plaice, sole, and anglerfish. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Denmark&lt;/b&gt;&lt;br&gt;
+Eight Danish vessels fish in this ecoregion, targeting blue whiting with pelagic trawls. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;
+Up to ten vessels from the Faroe Islands operate in this ecoregion, targeting blue whiting with pelagic trawls. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
+The French offshore fishery in the Celtic Sea (divisions 7.g and 7.h) is mostly composed of bottom trawlers (18–35 m, around 350 vessels) targeting gadoids, Norway lobster or anglerfish, megrim, and rays, with fewer than 10 vessels using Danish seine. In the west of Scotland (Division 6.a), around 10 bottom trawlers target both saithe and deep-sea fish (at depths of less than 800 m), and fewer smaller vessels target hake using longlines or nets. Finally, two large pelagic trawlers target herring and mackerel, and one is also involved in the blue whiting fishery. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
+About 10 German vessels fish in the ecoregion. This includes vessels that mainly target anglerfish and hake with gillnets and longline, as well as about three large freezer trawlers that target mackerel. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Ireland&lt;/b&gt;&lt;br&gt;
+The Irish fishing fleet is very diverse, with around 1 500 &lt; 10 m and 500 ≥ 10 m active vessels. Small vessels (&lt; 10 m) operate inshore, typically targeting shellfish with pots or demersal fish with nets. On the shoreline, there is widespread hand gathering of periwinkles. The vessels ≥ 10 m target a wide variety of species using several types of gear. Vessels in the 1225 m length range target Norway lobster using trawls on several grounds around Ireland and on the Porcupine Bank. Both inshore and offshore mixed demersal fisheries use trawls and seine nets to target gadoids and benthic species. Vessels using gillnets target hake offshore monkfish, and cod in inshore areas. Ten beam trawlers target benthic species such as megrim, anglerfish, flatfish, and rays. There are dredge fisheries for razor clams and scallops in inshore and offshore areas. About 100 vessels are engaged in aquaculture-related activities, including mussel and oyster dredging and dredging for seed mussels. Twenty large (≥ 30 m) pelagic fishing vessels operate across the whole of the area. Vessels using pelagic trawls target mackerel, horse mackerel, blue whiting, boarfish, and sprat. Pelagic trawling for albacore tuna occurs in the ecoregion. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Lithuania&lt;/b&gt;&lt;br&gt;
+Two large Lithuanian freezer trawlers target pelagic species in this ecoregion. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Netherlands&lt;/b&gt;&lt;br&gt;
+Around 10–15 large Dutch pelagic freezer trawlers operate in this ecoregion, mainly targeting horse mackerel and mackerel. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
+About 60 Norwegian vessels operate in this ecoregion. Pelagic trawlers mainly target blue whiting but also target other pelagic species. There is also a demersal longline fishery that mainly targets ling and blue ling. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
+The Spanish fleet comprises 67 vessels &gt; 24 m that operate mainly in Subarea 7 (the Porcupine and Great Sole banks) and, to a lesser degree, in Subarea 6 (west of Scotland). All of these vessels target demersal species: set longlines target hake (44 vessels); bottom otter trawl target megrim, anglerfish, and hake (21 vessels); and set gillnet target hake (two vessels). &lt;br&gt;&lt;br&gt;
+&lt;b&gt;United Kingdom&lt;/b&gt;&lt;br&gt;
+Scotland&lt;br&gt;&lt;br&gt;
+Most fishing activity by Scottish vessels (754 boats in 2015) occurs in Subarea 6. Around 62 demersal trawlers (mostly &gt; 10 m) fish for mixed gadoids and benthic species such as anglerfish and megrim. A small number of boats target haddock at Rockall. In inshore areas, a fleet of 164 trawlers fish mainly for Norway lobster; of these boats, 34 are under 10 m. Pot or creel fishing is carried out by almost 400 vessels. Over 300 of these boats are under 10 m and target Norway lobster, lobsters, and various crab species. Around 60 larger vessels ( &gt; 10 m) fish for crustaceans (mainly brown crab) in more offshore areas to the far north and west of Scotland. Scallop fishing is carried out by around 50 dredgers (mostly &gt; 10 m) and by hand gathering (diving). Limited amounts of inshore longlining and gillnetting are also carried out. About 20 large pelagic trawlers fish in the northern parts of the Celtic Seas ecoregion. &lt;br&gt;&lt;br&gt;
+In the Irish Sea, the main Scottish activity is dredging for scallops around the Isle of Man, performed by around 50 boats (mainly &gt; 10 m). Pot fishing occurs along the Solway Firth coast (22 vessels), and about 12 trawlers take part in the Irish Sea Norway lobster fishery. Trawling for Norway lobster also occurs at the Porcupine Bank and in the Celtic Sea (divisions 7.c and 7.k). Mixed-fish trawling, longlining, and gillnetting occurs in the Celtic Sea and western English Channel (Division 7.e). Some boats also dredge for scallops in the western English Channel. &lt;br&gt;&lt;br&gt;
+Northern Ireland&lt;br&gt;&lt;br&gt;
+The Northern Irish fleet consists of around 130 ≥ 10 m and 180 &lt; 10 m vessels. The fleet predominantly operates within divisions 7.a and 6.a. A small number of vessels target Norway lobster or pelagic species in other parts of the ecoregion. Within the Irish Sea, demersal trawling for Norway lobster dominates the fishing effort. &lt;br&gt;&lt;br&gt;
+Vessels operating inshore typically target shellfish with pots or by dredging (for king scallops) in divisions 6.a and 7.a. Both trawl nets and dredge gear are used to catch queen scallops in the Irish Sea and north of Rathlin Island in Division 6.a. &lt;br&gt;&lt;br&gt;
+A small number of vessels trawl for haddock, hake, and (historically) cod. At present there is no permitted commercial targeted fishery for cod. A pelagic and gillnet herring fishery operates in late summer–early autumn in the pre- and post-spawning periods. The gillnet fishery occurs on the western Irish Sea coastline, whilst two large pelagic trawlers target herring aggregations in the northern English Channel and around the Isle of Man. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt; The majority of fishing in the Faroes ecoregion is performed by Faroese vessels. The vast majority of the vessels participate in a mixed fishery for demersal fish, such as cod, haddock, saithe, ling, greater silver smelt, and Greenland halibut. Two main fleet categories operate under an effort management system with separated allocated fishing days: one group consists of single and pairtrawlers (&gt; 1000 hp) targeting saithe, while another group, mainly longliners of all sizes, targets cod and haddock. A small number of large vessels target widely distributed pelagic fish, i.e. herring, mackerel, and blue whiting using pelagic trawl. &lt;br&gt;&lt;br&gt;
+Demersal fish constituted the majority of the landings until the 1990s when pelagic landings increased considerably. Total landings peaked after 2000, and a noticeable drop around 2010 was caused by a decrease in the landings of blue whiting. Landings of demersal fish, especially cod and haddock, have been low since 2005. &lt;br&gt;&lt;br&gt;
+Discarding is prohibited in the pelagic fishery. Discarding in the demersal fisheries is considered negligible; however, there are no reliable estimates of potential discards. &lt;br&gt;&lt;br&gt;
+Stocks within the ecoregion are assessed for stock status and fishing pressure. Half of the stocks have a wider spatial distribution outside the ecoregion. The fishing pressure (in relation to FMSY) of demersal stocks has decreased since 2000 but is currently above sustainable limits. The biomass (in relation to MSY Btrigger) has increased in recent years. For the pelagic fisheries the fishing pressure has been around FMSY since 2010, but the stock size has decreased since 2017. &lt;br&gt;&lt;br&gt;
+Data on incidental bycatch of marine mammals and seabird species are scarce. Gillnets are banned in waters of less than 380 m depth around the Faroes, which might reduce both seabird and marine mammal bycatch in the region. &lt;br&gt;&lt;br&gt;
+Supporting data used in the Faroes ecoregion Fisheries Overview is accessible at &lt;ahref="https://doi.org/10.17895/ices.advice.27879915"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;br&gt;The Faroes ecoregion covers the shelf and surrounding waters inside the Faroe Islands Exclusive Economic Zone (EEZ); Figure 1). The waters around the Faroe Islands are in the upper 500 m dominated by the North Atlantic Current, which to the north of the islands meets the East Icelandic Current. Clockwise current systems create retention areas on the Faroe Plateau (Faroe Shelf around the Faroe Islands) and on the Faroe Bank (Figure 1 in ICES 5.b.2). In deeper waters to the north and east and in the Faroe Bank channel there is deep Norwegian Sea water, and to the south and west is Atlantic water. &lt;br&gt;&lt;br&gt;
+The fisheries within the ecoregion catch more than 30 stocks of fish and invertebrates. The main demersal species include cod (cod.27.5b1), haddock (had.27.5b), saithe (pok.27.5b), tusk (usk.27.3a45b6a7-912b), ling (lin.27.5b), golden redfish (reg.27.561214), Greenland halibut (ghl.27.561214), and anglerfish. The main pelagic species are the widely distributed Norwegian spring-spawning (NSS) herring (her.27.1-24a514a), blue whiting (whb.27.1-91214), mackerel (mac.27.nea), and greater silver smelt (aru.27.5b6a). &lt;br&gt;&lt;br&gt;
+The majority of fishing in the Faroes ecoregion is performed by Faroese vessels. The fisheries for most stocks in this ecoregion are managed by the Faroe Islands government, while management of some shared stocks is conducted either through the North East Atlantic Fisheries Commission (NEAFC) or by coastal state agreements (between EU, Iceland, Greenland, the Faroe Islands, Norway, Russian Federation, and UK). &lt;br&gt;&lt;br&gt;
+This overview covers ICES Division 5.b and part of Division 2.a.2 (Figure 1), and provides: &lt;br&gt;&lt;br&gt;
+&lt;ol style="font-size: 14px"&gt;
+&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion as well as fishing gears and patterns; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a summary of the status of the resources and the level of exploitation relative to agreed objectives and reference points; and &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species. &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+The landings presented in this overview are based on official landings statistics for subareas 5.b.1.b and 5.b.2. This area includes most landings of the demersal stocks for this ecoregion. The majority of NSS herring and mackerel landings from the ecoregion originate in Division 2.a and substantial blue whiting landings in Division 6.a. The presented landings of these three widely distributed pelagic stocks are likely to be underestimated for this ecoregion. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;The majority of fishing in the Faroes ecoregion is performed by Faroese vessels (Figure 2). Vessels from Norway, Iceland, EU, UK, Greenland, and the Russian Federation are also allowed to fish within the Faroese EEZ through NEAFC as well as coastal state and bilateral agreements. Since 1977, when the 200 nautical mile EEZ was established, foreign vessels not subject to those agreements have been excluded. The following paragraphs highlight features of the fleets and fisheries of the countries that operate within the Faroese EEZ in the period 2015–2020. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Faroes&lt;/b&gt;&lt;br&gt;
+In the demersal fishery, there are up to 500 small longliners and jiggers (&lt; 15 grt) fishing for cod and haddock in a mixed fishery. The medium or large vessels consist of around 13 large single/pairtrawlers (&gt; 1000 hp), around six smaller ones (&lt; 799 hp), around 13 large longliners (&gt; 110 GRT), and around ten smaller longliners (40–110 GRT). &lt;br&gt;&lt;br&gt;
+In the pelagic fishery, there are around ten large vessels operating with trawl or purse seine mainly fishing for blue whiting but to some extent also mackerel and NSS herring. In addition, there are landings of a local herring stock. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
+Between 16 and 20 Icelandic pelagic vessels fished for blue whiting 2017–2020. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
+There are between three and five Norwegian longliners fishing for ling and tusk on the Faroe Plateau and the Faroe Bank. Norwegian vessels annually fish some blue whiting in the ecoregion, which might in some years be quite substantial (e.g. in 2015). &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
+Russian pelagic trawlers fish for blue whiting, NSS herring, and mackerel. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;UK&lt;/b&gt;&lt;br&gt;
+A few UK demersal trawlers fish for cod, haddock, and saithe. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Greenland&lt;/b&gt;&lt;br&gt;
+Greenlandic pelagic trawlers fish for blue whiting and NSS herring. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
+German pelagic vessels fish for blue whiting and NSS herring and mackerel. &lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t>it says "key signals" in the advice sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;The Greenland Sea ecoregion covers the shelf and surrounding waters within the Greenlandic EEZ (Figure 1). The region is located along the entire east coast of Greenland, reaching from the Central Arctic Ocean ecoregion in the north to the Oceanic Northeast Atlantic ecoregion in the south and along the western boundaries of the Norwegian Sea and the Icelandic Waters ecoregion. The ocean and coastal shelves are strongly influenced by cold low-saline water from the north and warm high-saline water from the south; further details can be found in the Greenland Sea ecosystem overview. &lt;br&gt;&lt;br&gt;
+Fishing activity is mainly concentrated in the southern part of the region, south of 68°N. The most important demersal fisheries are the bottom-trawl fisheries for Atlantic cod (cod.2127.1f14), Greenland halibut, golden redfish, and demersal beaked redfish (reb.27.14b). Northern shrimp is the main exploited invertebrate species in this ecoregion. The primary pelagic species are herring and mackerel. &lt;br&gt;&lt;br&gt;
+Supporting data prior to 2000 used in this fisheries overview is accessible at: &lt;ahref="https://doi.org/10.17895/ices.advice.27879759"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;  
+The Greenland Sea ecoregion lies within FAO Major Fishing Area 27 (the prefix “27” in the ICES statistical area codes is therefore omitted herein). The area of the Greenland Sea ecoregion covers all of ICES divisions and subdivisions 12.a.3, 14.a and 14.b.2, and part of Division 5.a.2 (Figure 1). &lt;br&gt;&lt;br&gt;
+The overview provides: &lt;br&gt;&lt;br&gt;
+&lt;ol style="font-size: 14px"&gt;
+&lt;li style="font-size: 14px"&gt;a short description of each of the fishing gears used, the national commercial fishing fleets in the ecoregion, their catch statistics, and spatial and temporal patterns of activity. Information on the hunting of marine mammals is not included; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and defined reference points; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a description of mixed-fisheries interactions in the ecosystem; and, &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed. &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in Table A2. &lt;br&gt;&lt;br&gt; 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyond the Greenlandic fleet, marine resources in the ecoregion have been subject to exploitation by multiple countries, including the EU Member States, Iceland, the Faroe Islands, Norway, and Russia. &lt;br&gt;&lt;br&gt;
+Apart from an insignificant inshore fishery with small boats, the fishing is mostly conducted by large industrial factory vessels of 50–100 m length that employ various types of fishing gears and target multiple species. About 40–60 vessels fished in the ecoregion in recent years (Figure 3). The number of vessels has fluctuated depending on resource availability, with notable increases in fisheries for pelagic stocks after 2011 (Figure 5). &lt;br&gt;&lt;br&gt;
+Greenland accounts for most of the active vessels in both the demersal and the pelagic fisheries (Figure 6). From 2012 to 2015, the number of Greenlandic vessels increased notably and has since remained high. Since 2020, the number of Greenlandic vessels has declined markedly, as most of the pelagic fleet moved to fishing areas outside this ecoregion, following the target species mackerel. The largest number of foreign vessels are from EU, the Faroe Islands, and Norway. &lt;br&gt;&lt;br&gt;
+Greenlandic, EU, and Norwegian vessels have accounted for most of the bottom-trawl fishery over time, measured as the number of vessels registered with that gear. Longline fishing is mostly conducted by Greenland, Norway, and the Faroe Islands. Pelagic fisheries have been operated by Greenland, Russia, Iceland, the Faroe Islands, and EU. &lt;br&gt;&lt;br&gt;
+Total landings by the different countries have varied through time. Nowadays, Greenland takes most of the landings (Figure 5). Mackerel catches in the ecoregion, which began with significant amounts in 2012, were initially made by both Greenlandic vessels and chartered foreign vessels. However, currently only Greenlandic vessels are involved in the fishery. &lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;The Icelandic Waters ecoregion covers the shelf and the waters surrounding Iceland and is equivalent to the Icelandic Exclusive Economic Zone (EEZ; Figure 1). The region is located at the junction of the Mid-Atlantic Ridge and the Greenland-Scotland Ridge, just south of the Arctic Circle. The ocean and coastal shelves are heavily influenced by oceanic inputs where water masses of different origins mix. Further details can be found in the ecosystem overview for Icelandic Waters. &lt;br&gt;&lt;br&gt;
+The fisheries within the ecoregion catch more than 40 stocks of fish and marine invertebrates. The main demersal species include cod (cod.27.5a), haddock (had.27.5a), saithe (pok.27.5a), golden redfish (reg.27.561214), Greenland halibut (ghl.27.561214), Atlantic wolffish (caa.27.5a), plaice (ple.27.5a), tusk (usk.27.5a14), and ling (lin.27.5a). The main pelagic species are capelin (cap.27.2a514)and summer-spawning herring (her.27.5a), as well as widely distributed species such as Norwegian spring-spawning (NSS) herring (her.27.1-24a514a), blue whiting (whb.27.1-91214), and mackerel (mac.27.nea). Norway lobster, northern shrimp, and sea cucumber are the main invertebrate stocks that are exploited in Icelandic Waters. &lt;br&gt;&lt;br&gt;
+The fisheries for most stocks in this ecoregion are managed by the Icelandic Government, while fisheries of some shared stocks are subject to international negotiation through the North East Atlantic Fisheries Commission (NEAFC) or by coastal state agreements (between Iceland, Greenland, the Faroe Islands, and Norway). &lt;br&gt;&lt;br&gt;
+All of the Icelandic Waters ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area codes is therefore omitted in the following text. This overview covers ICES Division 5.a and parts of divisions 2.a, 5.b, 12.a, 14.a, and 14.b, and provides: &lt;br&gt;&lt;br&gt;
+&lt;ol style="font-size: 14px"&gt;
+&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a description of mixed fisheries interactions in the ecosystem; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species. &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+The scientific names of all species are included in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;The majority of fishing in the Icelandic Waters ecoregion is performed by vessels from Iceland. Vessels from Norway, Greenland and the Faroe Islands are also allowed to fish within the 200 nautical mile Icelandic EEZ through coastal state and bilateral agreements. Since its establishment in 1978, the EEZ has excluded foreign vessels not subject to those agreements (Figure 7). Around 1750 vessels operate in Icelandic Waters. The following paragraphs highlight features of the fleets and fisheries of the different countries that operate within the Icelandic EEZ. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
+Currently, the Icelandic fleet consists of around 1535 vessels of various sizes and types and has decreased by approximately 480 vessels since the turn of the century (Figure 16). The official statistics separate the fleet into three main categories: Bottom trawlers, decked vessels, and undecked vessels. &lt;br&gt;&lt;br&gt;
+About 40 bottom trawlers (30–90 m in overall length [LOA] and with a volume of between 200 and 2000 gross tonnes [GT]) operate in Icelandic Waters. These vessels are almost exclusively engaged in demersal fisheries, mainly fishing for cod, haddock, saithe, redfish and Greenland halibut. The number of bottom trawlers has decreased by more than half since 1999 (Figure 16). &lt;br&gt;&lt;br&gt;
+Decked vessels include several different types and size ranges, from those with 10 GT to over 4500 GT. This is by far the most diverse category, as it ranges from small boats to large vessels and includes specialized demersal seiners, small bottom trawlers, dredgers, longliners, and purse-seiners. About 20 pelagic vessels (60–90 m LOA) fish for capelin, herring, mackerel, and blue whiting using pelagic trawls and purse-seines. Roughly 40 demersal seiners (10–45 m LOA) operate in Icelandic Waters, fishing for cod, haddock, Atlantic wolffish, plaice, and other flatfish species. The number of intermediate-sized vessels (mostly 10–50 m LOA) using static gear – i.e. longline and gillnet, or small otter trawls – fishing for Norway lobster, northern shrimp, cod, and haddock is around 650.  &lt;br&gt;&lt;br&gt;
+Approximately 820 undecked vessels, fishing mainly for cod and lumpfish, participated in the fishery 2018–2023; this number has decreased by more than 300 since 1999. Undecked vessels cover numerous vessels &lt;10 m in LOA and up to 10 GT in volume, although most in this category are less than 6 GT (Figure 3). Many of these small vessels are technologically advanced and driven by powerful engines. These vessels mainly operate in inshore areas or close to shore. &lt;br&gt;&lt;br&gt;
+Two large vessels (50 m LOA) participate in the fin whale hunt, whereas three-five small vessels (undecked, &lt; 10 m LOA) participate in the minke whale hunt. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;
+Through a coastal state agreement, the Faroe Islands have a quota of the Iceland–Greenland–Jan Mayen capelin stock, which they are allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between four and six pelagic vessels using pelagic trawls were directed to capelin. No capelin fishery was conducted in Icelandic Waters in 2019 or 2020. There is a bilateral agreement (revised annually) between Iceland and the Faroe Islands that allows Faroese longliners to fish for demersal species in the Icelandic EEZ and pelagic vessels to fish for NSS herring (since 2018). Since 2014, between 7 and 11 Faroese longliners have operated annually in Icelandic Waters, fishing mainly cod, haddock, ling, and tusk. From 2019 to 2023, between 11 and 19 Faroese pelagic vessels using pelagic trawls fished for NSS herring in the Icelandic Waters ecoregion. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Greenland&lt;/b&gt;&lt;br&gt;
+Through a coastal state agreement, Greenland has a quota of the Iceland–Greenland–Jan Mayen capelin stock, which it is allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between one and three pelagic vessels, using pelagic trawls and purse-seines, operated in Icelandic Waters. No capelin fishery was conducted in Icelandic Waters in 2019 or 2020. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
+Through a coastal state agreement, Norway has a quota of the Iceland–Greenland–Jan Mayen capelin stock, which it is allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between 46 and 67 pelagic vessels, using pelagic trawls and purse-seines, operated in Icelandic Waters. No capelin fishery was conducted in Icelandic Waters in 2019 or 2020. There is a bilateral agreement between Iceland and Norway for two Norwegian longliners to catch demersal fish, mainly ling and tusk. &lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;The commercial fisheries in the Oceanic Northeast Atlantic ecoregion target few stocks. The main fisheries in the area are a multinational fishery on two pelagic beaked redfish stocks in the northwestern part of the ecoregion and a fishery on blue whiting on the Hatton-Rockall plateau and west of the Porcupine Bank using midwater trawl. The demersal fisheries for haddock at Rockall account for only a small proportion of the total catches of haddock taken in this ecoregion. Fishing for tuna (bluefin, skipjack, bigeye, and albacore) and other large pelagic species (swordfish) by long distance longliners occurs across much of this ecoregion. Very few deep-sea fisheries are conducted in the region. &lt;br&gt;&lt;br&gt;
+There are currently around 20 nations with fisheries targeting the stocks in the ecoregion. Norway, Iceland, and Russia Federation have the largest fleets and dominate the landings in the region. Total landings have varied since the mid 1970s, with a rise in the recent decade which is mainly due to increased blue whiting catches. Two beaked redfish stocks dominated the catches (by weight) until 2000. Catches of these beaked redfish stocks have decreased considerably since the peak of the fishery in the mid-1990s. &lt;br&gt;&lt;br&gt;
+The Oceanic Northeast Atlantic ecoregion has 52 stocks for which ICES provided advice in 2021. Around 13% of the assessed stocks are fished at or below FMSY target levels; around 19% of the stocks were assessed to be above MSY Btrigger. The majority of the stocks have unknown stock and fishing mortality statuses. &lt;br&gt;&lt;br&gt;
+Supporting data used in the Oceanic Northeast Atlantic fisheries overview is accessible at &lt;ahref="https://doi.org/10.17895/ices.advice.27880092"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;The Oceanic Northeast Atlantic ecoregion consists of the portion of the ICES statistical area (Figure 1) that is beyond national jurisdiction (ABNJ), i.e. outside the 200 nautical mile limit of the Exclusive Economic Zones (EEZs) of the EU Member States, the Faroe Islands, Iceland, Greenland, and United Kingdom. The ecoregion is mostly deeper than 1000 m, with only a small fraction of the seabed (ca. 0.03%) shallower than 500 m. &lt;br&gt;&lt;br&gt;
+The entire ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area codes is therefore omitted in the following list of divisions and subdivisions that this overview covers: 5.b.1.a, 6.b.1, 7.c.1, 7.k.1, 8.e.1, 8.d.1, 9.b.1, 10.a.1, 10.b, 12.a.1, 12.b, 12.c, and 14.b.1 (Figure 1). &lt;br&gt;&lt;br&gt;
+This fisheries overview provides: &lt;br&gt;&lt;br&gt;
+&lt;ol style="font-size: 14px"&gt;
+&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears and spatial and temporal patterns of activity; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;a description of mixed fisheries interactions in the ecosystem, and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species. &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;The main fishery operating in the area has been a multinational pelagic which fishes on two beaked redfish stocks (shallow pelagic [reb.2127.sp] and deep pelagic [reb.2127.dp]) in the northwestern part of the ecoregion and blue whiting (whb.27.1-91214) in the Rockall-Hatton and west of the Porcupine area. &lt;br&gt;&lt;br&gt;
+This redfish fishery commenced in the early 1980s. The number of vessels participating in the fishery decreased substantially as the stocks were depleted. The combined catch of both stocks peaked in 1996 when 180 000 tonnes were caught; this has since declined to an annual catch of about 30 000 tonnes. Catches of blue whiting have been high since the early 2000s, peaking at very high levels (over 200 000 thousand tonnes) recently. &lt;br&gt;&lt;br&gt;
+Fisheries for deep-sea species developed in the early 1970s and peaked at 30 000 tonnes in 1975. Since then, effort has declined, and landings now amount to less than 4 000 tonnes per year. The current relatively small fisheries are mainly conducted by a few trawlers and longliners that are primarily from the EU and Faroe Islands. &lt;br&gt;&lt;br&gt;
+There are demersal fisheries for haddock (had.27.6b) at Rockall, but these account for only a small proportion of the total catches of this stock taken in this ecoregion. &lt;br&gt;&lt;br&gt;
+The fishery within this extensive ecoregion is a multinational one that targets many marine stocks. Currently, about 20 countries have fisheries within the ecoregion. The greatest amounts of landings are taken by Norway, Russian Federation, and Iceland, who mainly target pelagic beaked redfish and blue whiting. Lesser amounts are landed by Spain, Germany, Portugal, Netherlands, Ireland, the Faroe Islands, Latvia, and Lithuania. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
+The Norwegian fleet fishing this ecoregion consists of about 50–60 pelagic trawlers and five to six demersal longline vessels. The highest fishing activity is in the northeastern area, close to the continental shelf edge bordering the Celtic Seas ecoregion and the shallower banks in the same area. The pelagic fleet mainly targets blue whiting – but also other pelagic species. Catches of beaked redfish are taken in the northwestern corner of this ecoregion. The demersal longliners mainly target ling (lin.27.3a4a6-91214) and tusk (usk.27.3a45b6a7-912b, usk.27.12ac, and usk.27.6b). &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
+Industrial factory vessels target pelagic beaked redfish in the northwestern part of the ecoregion. The number of vessels participating in this fishery has decreased substantially over time, from around 25 at the peak of the fishery in 
+1996–2002 to only four in 2019. Iceland has not participated in the fishery since 2020. &lt;br&gt;&lt;br&gt;
+In some years the Icelandic pelagic fleet (10–16 vessels &gt; 65 m) catches part of its blue whiting quota (16–23% in 
+2017–2023) in the ecoregion, using pelagic trawls. The fishery occurs mainly in the northeastern part of the ecoregion, close to the continental shelf edge bordering the Celtic Seas ecoregion and the shallower banks in the same area. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Ireland&lt;/b&gt;&lt;br&gt;
+The very minor pelagic trawl fishing activity by Ireland in this ecoregion is an extension of the fisheries occurring in the Celtic Seas ecoregion. The albacore tuna fishery, in some years, extends beyond the Irish EEZ southwest of the country. Similarly, the blue whiting fishery occasionally extends west of the Porcupine Bank. There is some Irish demersal trawling activity on the western side of the Rockall bank mainly targeting anglerfish and megrim. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
+The Spanish bottom-trawling fleet operated mainly on the western slope of the Hatton Bank and until 2018 consisted of three to six vessels larger than 50 m length, although in recent years the effort was drastically reduced until it reached zero vessels in 2021. The Spanish fishing fleet has been virtually absent  ever since, although this could change in future. &lt;br&gt;&lt;br&gt;
+The most important species targeted have traditionally been Baird's slickhead, blue ling (bli.27.nea), roundnose grenadier (rng.27.1245a8914ab, rng.27.5a10b12ac14b, and rng.27.5b6712b), black scabbardfish (bsf.27.nea), and Greenland halibut. There has also been a pelagic beaked redfish fishery in the northwestern part of the ecoregion (Subdivision 14.b.1), although the size of the Spanish fleet operating in the ecoregion has decreased during recent years, and the fishery has remained closed since 2021, as a result of the low stock biomass and recruitment levels. &lt;br&gt;&lt;br&gt;
+The Spanish pelagic longline fleet (about 33 vessels) operates in the area part of the year in the southern area of the ecoregion (Subarea 10), fishing mainly for swordfish and blue shark. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Faroes&lt;/b&gt;&lt;br&gt;
+At the peak of the pelagic beaked redfish fishery in the mid-1990s (Subdivision 14.b.1), up to seven Faroese vessels participated in the fishery. Since 2020, Faroese vessels have not fished on this stock. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
+Only one French vessel (targeting blue whiting) operates in the eastern part of the ecoregion. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
+Information on the Russian fishing activities have not been available since 2022. The Russian fleet is the largest one participating in the pelagic beaked redfish fishery in the northwestern part of the ecoregion (Subdivision 14.b.1 and Subarea 12). The fleet consists of industrial factory ships. In recent years about 15 vessels have participated in the fishery; during the peak of the fishery (second half of the 1990s and early 2000s), 35–40 vessels participated. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
+Portugal took part in the pelagic beaked redfish fishery during 1994–2012 (subareas 5, 12, and 14). In 2011 and 2012 only four vessels participated in this fishery. The Portuguese pelagic longlining fleet operates in the southern part of the ecoregion (Subarea 10), targeting swordfish and blue shark. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Netherlands&lt;/b&gt;&lt;br&gt;
+The Dutch fleet has minimal activity in the ecoregion. The pelagic fleet, consisting of seven vessels that target blue whiting, mackerel (mac.27.nea), horse mackerel (hom.27.2a4a5b6a7a-ce-k8), and herring, operates on the eastern border of the ecoregion and in adjacent waters, with occasional landings originating from the Oceanic Northeast Atlantic ecoregion. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Others&lt;/b&gt;&lt;br&gt;
+Until 2020, Germany (one industrial factory vessel), Lithuania (one industrial factory vessel), and Latvia (one industrial factory vessel) participated in the pelagic beaked redfish fishery in the western part of the ecoregion (Subdivision 14.b.1 and Subarea 12). Other countries, such as Japan, China and the Republic of Korea, fish for bluefin tuna in this ecoregion. &lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t>landings</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Landings&lt;/b&gt;&lt;br&gt;&lt;br&gt;Fisheries in the Greater North Sea catch a large diversity of species. These have been categorized into species that are pelagic, demersal, benthic (e.g. flatfish), crustaceans, and elasmobranchs. &lt;br&gt;&lt;br&gt;Total landings from the Greater North Sea varied between 2 and 3 million tonnes during the 1950s, then rose to between 3 and 4 million tonnes from the late 1960s to the mid-1990s (Figure 2). High catches of both pelagic species (mackerel and herring) and demersal species (cod and haddock) accounted for the increase in total landings in the late 1960s (figures 3 and 4). 
+The landings shown in Figure 4 only include those species for which ICES gives advice. There are a number of stocks for which ICES does not give advice where landings may be substantial (e.g. Scallop, edible crab, brown shrimp, European lobster, blue mussel). Total landings declined after 1995 to a low of 1.4 million tonnes in 2012. This decline is attributed to overfishing and decreased productivity of important stocks such as cod and herring, but also to the successful reduction of fishing mortality to more sustainable levels after 2000. &lt;br&gt;&lt;br&gt;
+Since 2003, the pelagic fisheries using pelagic trawl and purse seines have accounted for the largest proportion of the total landings, followed by the demersal and benthic fisheries (Figure 3). Overall landings increased slightly from 2011 after a rise in herring landings and again, most recently (in 2015), from increased catches of anchovy, sardine, and hake.&lt;br&gt;&lt;br&gt;
+Recreational fisheries in the North Sea target a wide range of species, but few of these fisheries are monitored or evaluated. Recreational catches of seabass and salmon (including freshwater for the latter) are significant and are included in ICES assessment of these species. In contrast, the recreational fisheries of elasmobranchs is not widely monitored; however, the recreational harvest of these species (mainly dogfish and several species of skates and rays) appears to be negligible.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>discards</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Discards&lt;/b&gt;&lt;br&gt;&lt;br&gt;Discard data have been collected for some North Sea fisheries since the mid-1970s. Since 2000, discard data from North Sea commercial fisheries have been collected from various observer programmes implemented under the EU Data Collection Framework (DCF), and UK continued that commitment in retained law from 2020 after leaving the EU. However, complete discard data are only available from 2012 onwards. In 2015–2019, discard rates remained relatively stable. Discard rates of pelagic species were close to zero (Figure 6). Discard estimates for several species of elasmobranch are highly uncertain due to low encounter probabilities and so are not shown.</t>
+  </si>
+  <si>
+    <t>sidebar</t>
+  </si>
+  <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Bycatch of protected, endangered, and threatened species&lt;/b&gt;&lt;br&gt;&lt;br&gt; All fisheries have the potential to catch protected, endangered, or threatened species, such as seabirds and marine mammals, as non-targeted bycatch. Data submitted to ICES through annual data calls indicated that between 2017–2021 ten ICES Member Countries had fisheries operating in the Greater North Sea ecoregion (ICES, 2022a). During the same period approximately 13 000 monitoring days were undertaken, primarily by at-sea observers, in a variety of static and mobile gears and on vessels ranging from under 8 m to over 40 m. Most bycatch data collection in the ecoregion is carried out within multipurpose programmes under the DCF and through dedicated bycatch monitoring programmes.&lt;br&gt;&lt;br&gt;&lt;b&gt; Bycatch records in 2021&lt;/b&gt;&lt;br&gt;&lt;br&gt; In 2021, 47 marine mammals from at least four species were recorded as bycatch, mostly in net métiers. Forty-two seabirds from at least five species were recorded as bycatch in bottom trawl, longline, purse-seine and net fisheries (Table 1). Over 13 000 specimens of fish of potential conservation interest were recorded from a wide mix of static and mobile gears. Most of the fish records were tub gurnard (Chelidonichthys lucerna) in bottom trawls. No turtles were reported as bycatch.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,13 +672,47 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -261,10 +731,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -272,8 +743,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,46 +1064,46 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="162" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -626,41 +1111,441 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A026B00C-E4B3-4E36-BEA1-AD93DF3D486F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="135.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744F2D0C-79DF-4FE3-924E-E680015F9291}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="229.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="159.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4E976-B447-4DEF-A85E-11D6D9966CA4}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="198.33203125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C69BDA-CBD4-4A20-96F1-D4184C7A4A9F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="152.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BB4192-B3A0-40C4-9076-17E7860549D0}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="255.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="253.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -668,30 +1553,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D916A7BB-8321-4345-8DD6-BD18062EF575}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D16401-415E-4611-9BEF-C11909718B5A}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="223.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -699,30 +1604,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8086C30E-32C2-4F68-82C0-7284FD30F32C}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59C6F2-69D0-4598-BA12-1B489ABE98B2}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="181.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -730,30 +1654,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54640D34-6F2C-4FD7-AC14-D9115ECC0B2F}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB1D8E1-BE83-467E-ABE2-EB20A46DABB5}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="149.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -761,33 +1705,110 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE2A7A1-C07D-40E0-A9E9-3CF06E261156}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385D6F23-1F00-43DA-8201-777B854F56F6}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="137.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="280.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="390" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="390" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27175C00-9C85-488E-AAAE-6AE4E23126BD}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="159.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="114.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icesit-my.sharepoint.com/personal/luca_lamoni_ices_dk/Documents/Profile/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_2023\fisheriesXplorer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="11_3B97B444F62EC743AD03632361AC6BA5D546EF5D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{931718E8-809C-4422-B643-B9648C4752C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5342848-33A2-4B57-8F54-1C3B1C7DF1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_NrS" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="overview_CS" sheetId="12" r:id="rId7"/>
     <sheet name="overview_FO" sheetId="13" r:id="rId8"/>
     <sheet name="overview_GS" sheetId="14" r:id="rId9"/>
-    <sheet name="overview_IS" sheetId="15" r:id="rId10"/>
-    <sheet name="overview_ONA" sheetId="16" r:id="rId11"/>
-    <sheet name="landings_discards" sheetId="3" r:id="rId12"/>
-    <sheet name="status" sheetId="4" r:id="rId13"/>
-    <sheet name="mixfish" sheetId="5" r:id="rId14"/>
-    <sheet name="vms" sheetId="6" r:id="rId15"/>
-    <sheet name="bycatch" sheetId="7" r:id="rId16"/>
+    <sheet name="glossary" sheetId="17" r:id="rId10"/>
+    <sheet name="overview_IS" sheetId="15" r:id="rId11"/>
+    <sheet name="overview_ONA" sheetId="16" r:id="rId12"/>
+    <sheet name="landings_discards" sheetId="3" r:id="rId13"/>
+    <sheet name="status" sheetId="4" r:id="rId14"/>
+    <sheet name="mixfish" sheetId="5" r:id="rId15"/>
+    <sheet name="vms" sheetId="6" r:id="rId16"/>
+    <sheet name="bycatch" sheetId="7" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
   <si>
     <t>section</t>
   </si>
@@ -653,12 +654,180 @@
   <si>
     <t>&lt;b&gt;Bycatch of protected, endangered, and threatened species&lt;/b&gt;&lt;br&gt;&lt;br&gt; All fisheries have the potential to catch protected, endangered, or threatened species, such as seabirds and marine mammals, as non-targeted bycatch. Data submitted to ICES through annual data calls indicated that between 2017–2021 ten ICES Member Countries had fisheries operating in the Greater North Sea ecoregion (ICES, 2022a). During the same period approximately 13 000 monitoring days were undertaken, primarily by at-sea observers, in a variety of static and mobile gears and on vessels ranging from under 8 m to over 40 m. Most bycatch data collection in the ecoregion is carried out within multipurpose programmes under the DCF and through dedicated bycatch monitoring programmes.&lt;br&gt;&lt;br&gt;&lt;b&gt; Bycatch records in 2021&lt;/b&gt;&lt;br&gt;&lt;br&gt; In 2021, 47 marine mammals from at least four species were recorded as bycatch, mostly in net métiers. Forty-two seabirds from at least five species were recorded as bycatch in bottom trawl, longline, purse-seine and net fisheries (Table 1). Over 13 000 specimens of fish of potential conservation interest were recorded from a wide mix of static and mobile gears. Most of the fish records were tub gurnard (Chelidonichthys lucerna) in bottom trawls. No turtles were reported as bycatch.</t>
   </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>ICES ecoregion</t>
+  </si>
+  <si>
+    <t>Large marine area used by ICES to organise advice, assessments, and reporting across ecosystem products.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/advice/ESD/Pages/Ecosystem-overviews.aspx</t>
+  </si>
+  <si>
+    <t>Fisheries overview</t>
+  </si>
+  <si>
+    <t>ICES advice product summarising fishing activities, fleets, catches, and pressures for each ecoregion.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/advice/Fisheries-overviews/Pages/Introduction.aspx</t>
+  </si>
+  <si>
+    <t>Catch</t>
+  </si>
+  <si>
+    <t>Total fish removals used in advice (landings plus discards), as framed in ICES guidance on catches and landings.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.advice.8341</t>
+  </si>
+  <si>
+    <t>Landings</t>
+  </si>
+  <si>
+    <t>Portion of the catch retained and brought ashore; distinguished from discards in ICES guidance.</t>
+  </si>
+  <si>
+    <t>Discards</t>
+  </si>
+  <si>
+    <t>Components of a fish stock thrown back after capture (e.g., below minimum size or due to exhausted quota); most are unlikely to survive.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/community/documents/advice/acronyms_and_terminology.pdf</t>
+  </si>
+  <si>
+    <t>Fisheries guilds</t>
+  </si>
+  <si>
+    <t>Broad groupings (e.g., pelagic, demersal, benthic, elasmobranch) used in ecosystem and fisheries overviews to summarise stock groups and trends.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/advice/ESD/Pages/Bay-of-Biscay-and-the-Iberian-Coast_Landing.aspx</t>
+  </si>
+  <si>
+    <t>Maximum Sustainable Yield (MSY)</t>
+  </si>
+  <si>
+    <t>Largest average catch that can be continuously taken from a stock under existing environmental conditions.</t>
+  </si>
+  <si>
+    <t>FMSY</t>
+  </si>
+  <si>
+    <t>Fishing mortality consistent with achieving MSY.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/Lists/Glossary/ICES%20Glossary.aspx?PageFirstRow=361&amp;Paged=TRUE&amp;View=%7BE4199C10-9657-46B2-BF8B-E7DE42FF06A6%7D&amp;p_Acronyms0=FEAP&amp;p_ID=421</t>
+  </si>
+  <si>
+    <t>MSY Btrigger</t>
+  </si>
+  <si>
+    <t>Spawning-stock biomass reference point that triggers a more cautious response within the ICES MSY approach.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/Lists/Glossary/ICES%20Glossary.aspx?PageFirstRow=691&amp;Paged=TRUE&amp;View=%7BE4199C10-9657-46B2-BF8B-E7DE42FF06A6%7D&amp;p_Acronyms0=MSY&amp;p_ID=386</t>
+  </si>
+  <si>
+    <t>Blim / Bpa</t>
+  </si>
+  <si>
+    <t>Blim: limit SSB below which recruitment is impaired; Bpa: precautionary SSB set to keep SSB above Blim with high probability.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/Lists/Glossary/ICES%20Glossary.aspx?PageFirstRow=151&amp;Paged=TRUE&amp;PagedPrev=TRUE&amp;View=%7BE4199C10-9657-46B2-BF8B-E7DE42FF06A6%7D&amp;p_Acronyms0=CEFAS&amp;p_ID=451</t>
+  </si>
+  <si>
+    <t>Mixed fisheries</t>
+  </si>
+  <si>
+    <t>Fisheries where several stocks are caught together; advice and scenarios consider trade-offs across fleets and species.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/advice/Pages/technical_guidelines.aspx</t>
+  </si>
+  <si>
+    <t>Technical interactions</t>
+  </si>
+  <si>
+    <t>Consequences of species being caught together due to the non-selective nature of many gears; catches in one stock constrain catches in others.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/community/Documents/Advice/General_context_of_ICES_advice_2012.pdf</t>
+  </si>
+  <si>
+    <t>Métier / fleet grouping</t>
+  </si>
+  <si>
+    <t>Métier: homogeneous subdivision of a fishery by gear/area/mesh/target; used with fishery and fleet to describe activity categories.</t>
+  </si>
+  <si>
+    <t>Vessel Monitoring System (VMS)</t>
+  </si>
+  <si>
+    <t>Satellite-based system providing fishing vessel positions (speed and course) to support monitoring, control, surveillance and scientific analyses.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/about-ICES/projects/EU-RFP/EU%20Repository/PROTECT/FP6%20PROTECT%20Final%20Report%20Project%20Synthesis.pdf</t>
+  </si>
+  <si>
+    <t>Swept Area Ratio (SAR)</t>
+  </si>
+  <si>
+    <t>Ratio of seabed area swept by bottom-contacting gear to the area of a grid cell (a measure of fishing intensity from VMS-based analyses).</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/sites/pub/Publication%20Reports/Expert%20Group%20Report/SSGSUE/2014/01%20WGSFD%20-%20Report%20of%20the%20Working%20Group%20on%20Spatial%20Fisheries%20Data.pdf</t>
+  </si>
+  <si>
+    <t>Logbook</t>
+  </si>
+  <si>
+    <t>Official record of a vessel’s fishing operations (trip, gear, effort, catches); in ICES workflows commonly exchanged in EFLALO format.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/sites/pub/CM%20Doccuments/CM-2010/SSGSUE/sgvms10.pdf</t>
+  </si>
+  <si>
+    <t>Bycatch</t>
+  </si>
+  <si>
+    <t>Incidental capture of non-target species or sizes during fishing; addressed through ICES bycatch guidelines and advice.</t>
+  </si>
+  <si>
+    <t>ETP species</t>
+  </si>
+  <si>
+    <t>Endangered, Threatened, and Protected species considered in ICES bycatch work and advice.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/advice/pages/latest-advice.aspx</t>
+  </si>
+  <si>
+    <t>WGBYC</t>
+  </si>
+  <si>
+    <t>ICES Working Group on Bycatch of Protected Species; collates and assesses bycatch data and supports ICES advice.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/community/groups/Pages/WGbyc.aspx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,6 +869,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -731,11 +914,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -756,10 +944,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{D9F166C1-85FC-4494-BE8A-7B590342AC69}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5EAEE845-076B-4CD4-90B1-733697066B05}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1068,13 +1260,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1090,7 +1282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1098,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1112,6 +1304,267 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5EC4FE-E411-4E36-B8C3-47DB4028DB0F}">
+  <dimension ref="O1:Q20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="15" max="15" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.81640625" customWidth="1"/>
+    <col min="17" max="17" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Q8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Q10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Q12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Q14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Q16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="Q18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="Q20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A026B00C-E4B3-4E36-BEA1-AD93DF3D486F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1119,12 +1572,12 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="135.5546875" customWidth="1"/>
+    <col min="2" max="2" width="135.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1148,7 +1601,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744F2D0C-79DF-4FE3-924E-E680015F9291}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1169,13 +1622,13 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="229.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="229.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1191,7 +1644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1199,7 +1652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1212,7 +1665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1221,13 +1674,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1243,7 +1696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -1256,7 +1709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1265,12 +1718,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1291,7 +1744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1300,12 +1753,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1326,7 +1779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1335,12 +1788,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1361,7 +1814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1370,13 +1823,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="159.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="159.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1408,13 +1861,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="198.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="198.36328125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1459,13 +1912,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="152.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="152.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1481,7 +1934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1489,7 +1942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1510,13 +1963,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="253.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.90625" customWidth="1"/>
+    <col min="2" max="2" width="253.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1532,7 +1985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1540,7 +1993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1557,17 +2010,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D16401-415E-4611-9BEF-C11909718B5A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="223.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="223.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1583,7 +2036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +2044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1612,12 +2065,12 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="181.44140625" customWidth="1"/>
+    <col min="2" max="2" width="181.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1625,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1633,7 +2086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1641,7 +2094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1662,13 +2115,13 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="149.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="149.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1684,7 +2137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1692,7 +2145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1713,13 +2166,13 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" customWidth="1"/>
-    <col min="2" max="2" width="137.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="137.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="280.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="288" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1735,7 +2188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="390" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="400" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1743,7 +2196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="390" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="400" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1751,13 +2204,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.4">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
     </row>
   </sheetData>
@@ -1773,13 +2226,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="114.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="114.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1787,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1795,7 +2248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1803,7 +2256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_2023\fisheriesXplorer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5342848-33A2-4B57-8F54-1C3B1C7DF1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA926C9D-1088-41FB-A0FD-EFBBBCAE6AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_NrS" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
   <si>
     <t>section</t>
   </si>
@@ -727,27 +727,15 @@
     <t>Fishing mortality consistent with achieving MSY.</t>
   </si>
   <si>
-    <t>https://www.ices.dk/Lists/Glossary/ICES%20Glossary.aspx?PageFirstRow=361&amp;Paged=TRUE&amp;View=%7BE4199C10-9657-46B2-BF8B-E7DE42FF06A6%7D&amp;p_Acronyms0=FEAP&amp;p_ID=421</t>
-  </si>
-  <si>
     <t>MSY Btrigger</t>
   </si>
   <si>
     <t>Spawning-stock biomass reference point that triggers a more cautious response within the ICES MSY approach.</t>
   </si>
   <si>
-    <t>https://www.ices.dk/Lists/Glossary/ICES%20Glossary.aspx?PageFirstRow=691&amp;Paged=TRUE&amp;View=%7BE4199C10-9657-46B2-BF8B-E7DE42FF06A6%7D&amp;p_Acronyms0=MSY&amp;p_ID=386</t>
-  </si>
-  <si>
     <t>Blim / Bpa</t>
   </si>
   <si>
-    <t>Blim: limit SSB below which recruitment is impaired; Bpa: precautionary SSB set to keep SSB above Blim with high probability.</t>
-  </si>
-  <si>
-    <t>https://www.ices.dk/Lists/Glossary/ICES%20Glossary.aspx?PageFirstRow=151&amp;Paged=TRUE&amp;PagedPrev=TRUE&amp;View=%7BE4199C10-9657-46B2-BF8B-E7DE42FF06A6%7D&amp;p_Acronyms0=CEFAS&amp;p_ID=451</t>
-  </si>
-  <si>
     <t>Mixed fisheries</t>
   </si>
   <si>
@@ -821,6 +809,18 @@
   </si>
   <si>
     <t>https://www.ices.dk/community/groups/Pages/WGbyc.aspx</t>
+  </si>
+  <si>
+    <t>Blim: limit reference point for spawning stock biomass (SSB); Bpa: precautionary reference point for spawning stock biomass (SSB).</t>
+  </si>
+  <si>
+    <t>Sustainable</t>
+  </si>
+  <si>
+    <t>Can be sustained; in the light of the ICES interpretation of precautionary approach: fisheries management that keeps stock(s) above Bpa and fishing mortality below Fpa</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/lists/glossary/ices%20glossary.aspx</t>
   </si>
 </sst>
 </file>
@@ -1260,13 +1260,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1305,20 +1305,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5EC4FE-E411-4E36-B8C3-47DB4028DB0F}">
-  <dimension ref="O1:Q20"/>
+  <dimension ref="O1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.81640625" customWidth="1"/>
-    <col min="17" max="17" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="140" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O1" t="s">
         <v>44</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O2" s="10" t="s">
         <v>47</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O3" s="10" t="s">
         <v>50</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O4" s="10" t="s">
         <v>53</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O5" s="10" t="s">
         <v>56</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O6" s="10" t="s">
         <v>58</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O7" s="10" t="s">
         <v>61</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O8" s="10" t="s">
         <v>64</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O9" s="10" t="s">
         <v>66</v>
       </c>
@@ -1414,127 +1414,138 @@
         <v>67</v>
       </c>
       <c r="Q9" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O10" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O10" s="10" t="s">
+      <c r="P10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="Q10" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="P11" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O12" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O11" s="10" t="s">
+      <c r="P12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="Q12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="Q11" s="11" t="s">
+    </row>
+    <row r="13" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O13" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O12" s="10" t="s">
+      <c r="P13" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="Q13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="11" t="s">
+    </row>
+    <row r="14" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O14" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O13" s="10" t="s">
+      <c r="P14" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="Q14" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="Q16" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="Q15" s="11" t="s">
+    </row>
+    <row r="17" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O17" s="10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O16" s="10" t="s">
+      <c r="P17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="Q17" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="Q16" s="11" t="s">
+    </row>
+    <row r="18" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O18" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O17" s="10" t="s">
+      <c r="P18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="Q18" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O19" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="P19" s="10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O18" s="10" t="s">
+      <c r="Q19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="P18" s="10" t="s">
+    </row>
+    <row r="20" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O20" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="Q18" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O19" s="10" t="s">
+      <c r="P20" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="Q20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="Q19" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O20" s="10" t="s">
+    </row>
+    <row r="21" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
         <v>97</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P21" t="s">
         <v>98</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q21" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1547,18 +1558,15 @@
     <hyperlink ref="Q6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="Q7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="Q8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="Q10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="Q12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="Q14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="Q16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="Q18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="Q20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Q14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Q16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="Q18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="Q20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1572,12 +1580,12 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="135.54296875" customWidth="1"/>
+    <col min="2" max="2" width="135.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1593,7 +1601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="348" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1601,7 +1609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1622,13 +1630,13 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="229.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="229.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1636,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1644,7 +1652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1652,7 +1660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1674,13 +1682,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1696,7 +1704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -1718,12 +1726,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1753,12 +1761,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1788,12 +1796,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1823,13 +1831,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="159.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="159.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1837,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1861,13 +1869,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="198.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="198.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1883,7 +1891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1912,13 +1920,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="152.36328125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="152.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1934,7 +1942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1942,7 +1950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1963,13 +1971,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.90625" customWidth="1"/>
-    <col min="2" max="2" width="253.90625" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="253.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1977,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1985,7 +1993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1993,7 +2001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2014,13 +2022,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="2" max="2" width="223.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="223.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2028,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2036,7 +2044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2044,7 +2052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2065,12 +2073,12 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="181.453125" customWidth="1"/>
+    <col min="2" max="2" width="181.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2078,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2086,7 +2094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2094,7 +2102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2115,13 +2123,13 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="149.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="149.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2137,7 +2145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2166,13 +2174,13 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.453125" customWidth="1"/>
-    <col min="2" max="2" width="137.36328125" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="137.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2180,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="288" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="280.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2188,7 +2196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="400" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="390" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +2204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="400" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="390" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2204,13 +2212,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
     </row>
   </sheetData>
@@ -2226,13 +2234,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="2" width="114.90625" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="114.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2248,7 +2256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2256,7 +2264,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_2023\fisheriesXplorer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA926C9D-1088-41FB-A0FD-EFBBBCAE6AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5342848-33A2-4B57-8F54-1C3B1C7DF1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_NrS" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
   <si>
     <t>section</t>
   </si>
@@ -727,15 +727,27 @@
     <t>Fishing mortality consistent with achieving MSY.</t>
   </si>
   <si>
+    <t>https://www.ices.dk/Lists/Glossary/ICES%20Glossary.aspx?PageFirstRow=361&amp;Paged=TRUE&amp;View=%7BE4199C10-9657-46B2-BF8B-E7DE42FF06A6%7D&amp;p_Acronyms0=FEAP&amp;p_ID=421</t>
+  </si>
+  <si>
     <t>MSY Btrigger</t>
   </si>
   <si>
     <t>Spawning-stock biomass reference point that triggers a more cautious response within the ICES MSY approach.</t>
   </si>
   <si>
+    <t>https://www.ices.dk/Lists/Glossary/ICES%20Glossary.aspx?PageFirstRow=691&amp;Paged=TRUE&amp;View=%7BE4199C10-9657-46B2-BF8B-E7DE42FF06A6%7D&amp;p_Acronyms0=MSY&amp;p_ID=386</t>
+  </si>
+  <si>
     <t>Blim / Bpa</t>
   </si>
   <si>
+    <t>Blim: limit SSB below which recruitment is impaired; Bpa: precautionary SSB set to keep SSB above Blim with high probability.</t>
+  </si>
+  <si>
+    <t>https://www.ices.dk/Lists/Glossary/ICES%20Glossary.aspx?PageFirstRow=151&amp;Paged=TRUE&amp;PagedPrev=TRUE&amp;View=%7BE4199C10-9657-46B2-BF8B-E7DE42FF06A6%7D&amp;p_Acronyms0=CEFAS&amp;p_ID=451</t>
+  </si>
+  <si>
     <t>Mixed fisheries</t>
   </si>
   <si>
@@ -809,18 +821,6 @@
   </si>
   <si>
     <t>https://www.ices.dk/community/groups/Pages/WGbyc.aspx</t>
-  </si>
-  <si>
-    <t>Blim: limit reference point for spawning stock biomass (SSB); Bpa: precautionary reference point for spawning stock biomass (SSB).</t>
-  </si>
-  <si>
-    <t>Sustainable</t>
-  </si>
-  <si>
-    <t>Can be sustained; in the light of the ICES interpretation of precautionary approach: fisheries management that keeps stock(s) above Bpa and fishing mortality below Fpa</t>
-  </si>
-  <si>
-    <t>https://www.ices.dk/lists/glossary/ices%20glossary.aspx</t>
   </si>
 </sst>
 </file>
@@ -1260,13 +1260,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1305,20 +1305,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5EC4FE-E411-4E36-B8C3-47DB4028DB0F}">
-  <dimension ref="O1:Q21"/>
+  <dimension ref="O1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="15" max="15" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="140" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.81640625" customWidth="1"/>
+    <col min="17" max="17" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O1" t="s">
         <v>44</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O2" s="10" t="s">
         <v>47</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O3" s="10" t="s">
         <v>50</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O4" s="10" t="s">
         <v>53</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O5" s="10" t="s">
         <v>56</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O6" s="10" t="s">
         <v>58</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O7" s="10" t="s">
         <v>61</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O8" s="10" t="s">
         <v>64</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O9" s="10" t="s">
         <v>66</v>
       </c>
@@ -1414,138 +1414,127 @@
         <v>67</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="15:17" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O10" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="15:17" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O11" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="15:17" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O12" s="10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="15:17" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O13" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="15:17" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O14" s="10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="15:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O15" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="15:17" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O16" s="10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="15:17" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O17" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="15:17" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O18" s="10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="15:17" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O19" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="15:17" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="15:17" x14ac:dyDescent="0.35">
       <c r="O20" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="15:17" x14ac:dyDescent="0.3">
-      <c r="O21" t="s">
-        <v>97</v>
-      </c>
-      <c r="P21" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q21" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1558,15 +1547,18 @@
     <hyperlink ref="Q6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="Q7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="Q8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="Q14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="Q16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="Q18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="Q20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Q10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Q12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Q14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Q16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="Q18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="Q20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1580,12 +1572,12 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="135.5546875" customWidth="1"/>
+    <col min="2" max="2" width="135.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1601,7 +1593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1601,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1630,13 +1622,13 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="229.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="229.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1660,7 +1652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1682,13 +1674,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1704,7 +1696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -1726,12 +1718,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1739,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1761,12 +1753,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1796,12 +1788,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1831,13 +1823,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="159.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="159.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1845,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1869,13 +1861,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="198.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="198.36328125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1891,7 +1883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +1891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1920,13 +1912,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="152.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="152.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1942,7 +1934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1950,7 +1942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1971,13 +1963,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="253.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.90625" customWidth="1"/>
+    <col min="2" max="2" width="253.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1985,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1993,7 +1985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2001,7 +1993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2022,13 +2014,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="223.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="223.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2036,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2044,7 +2036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2052,7 +2044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2073,12 +2065,12 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="181.44140625" customWidth="1"/>
+    <col min="2" max="2" width="181.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2086,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2094,7 +2086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2102,7 +2094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2123,13 +2115,13 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="149.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="149.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2137,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2145,7 +2137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2153,7 +2145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2174,13 +2166,13 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" customWidth="1"/>
-    <col min="2" max="2" width="137.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="137.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2188,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="280.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="288" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2196,7 +2188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="390" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="400" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2204,7 +2196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="390" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="400" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2212,13 +2204,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.4">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
     </row>
   </sheetData>
@@ -2234,13 +2226,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="114.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="114.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2256,7 +2248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2264,7 +2256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_2023\fisheriesXplorer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5342848-33A2-4B57-8F54-1C3B1C7DF1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3B536C-51C3-4EAD-A704-1379031F30C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_NrS" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,12 @@
     <sheet name="glossary" sheetId="17" r:id="rId10"/>
     <sheet name="overview_IS" sheetId="15" r:id="rId11"/>
     <sheet name="overview_ONA" sheetId="16" r:id="rId12"/>
-    <sheet name="landings_discards" sheetId="3" r:id="rId13"/>
-    <sheet name="status" sheetId="4" r:id="rId14"/>
-    <sheet name="mixfish" sheetId="5" r:id="rId15"/>
-    <sheet name="vms" sheetId="6" r:id="rId16"/>
-    <sheet name="bycatch" sheetId="7" r:id="rId17"/>
+    <sheet name="landings_discards_NrS" sheetId="3" r:id="rId13"/>
+    <sheet name="landings_discards_CS" sheetId="18" r:id="rId14"/>
+    <sheet name="status_CS" sheetId="4" r:id="rId15"/>
+    <sheet name="mixfish" sheetId="5" r:id="rId16"/>
+    <sheet name="vms" sheetId="6" r:id="rId17"/>
+    <sheet name="bycatch" sheetId="7" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -52,15 +53,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="922">
   <si>
     <t>section</t>
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>executive_summary</t>
   </si>
   <si>
     <t>&lt;br&gt;Around 6600 fishing vessels are active in the Greater North Sea. Total landings peaked in the 1970s at 4 million tonnes and have since declined to about 2 million tonnes. Total fishing effort has declined substantially since 2003. Pelagic fish landings are greater than demersal fish landings. Herring and mackerel, caught using pelagic trawls and seines, account for the largest portion of the pelagic landings, while sandeel and haddock, caught using otter trawls/seines, account for the largest fraction of the demersal landings. Catches are taken from more than 100 stocks. Discards are highest in the demersal and benthic fisheries. The spatial distribution of fishing gear varies across the Greater North Sea. Static gear is used most frequently in the English Channel, the eastern part of the Southern Bight, the Danish banks, and in the waters east of Shetland. Bottom trawls are used throughout the North Sea, with lower use in the shallower southern North Sea, where beam trawls are most commonly used. Pelagic gears are used throughout the North Sea. &lt;br&gt;&lt;br&gt;In terms of weight of catch, fish stocks harvested from the North Sea are being fished at levels consistent with achieving good environmental status (GES) under the EU’s Marine Strategy Framework Directive; however, the reproductive capacity of the stocks has not generally reached this level. Almost all the fisheries in the North Sea catch more than one species; controlling fishing on one species therefore affects other species as well. ICES has developed a number of scenarios for fishing opportunities that take account of these technical interactions. Each of these scenarios results in different outcomes for the fish stocks. Managers may need to take these scenarios into account when deciding upon fishing opportunities. Furthermore, biological interactions occur between species (e.g. predation), and fishing on one stock may affect the population dynamics of another. Scenarios that take account of these various interactions can be used to evaluate the possible consequences of policy decisions. The greatest physical disturbances of the seabed caused by fishing activity in the North Sea is caused by mobile bottom-contacting gear in the eastern English Channel, in nearshore areas in the southeastern North Sea and in the central Skagerrak. Incidental bycatches of protected, endangered, and threatened species occur in several North Sea fisheries, and the bycatch of common dolphin in the western English Channel may be unsustainable in terms of population. &lt;br&gt;&lt;br&gt;Supporting data used in the Greater North Sea fisheries overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.21641360"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;</t>
@@ -432,61 +430,6 @@
 Historically countries others than those bordering the Baltic Sea have made some landings. However, in recent decades are exclusively from the nine bordering countries. &lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;br&gt; The commercial fisheries in the Celtic Seas ecoregion target a large number of stocks. The pelagic fisheries, which account for the largest catches (by weight) in the region, are the midwater trawl fisheries for blue whiting, mackerel, horse mackerel, herring, boarfish, and sprat. The largest demersal fishery targets hake along the shelf edge using gillnets and longlines. There are also large mixed bottom-trawl fisheries targeting benthic species, Norway lobster, and gadoids. The species composition of these mixed fisheries tends to vary depending on the area and the countries involved in the fishery. &lt;br&gt;&lt;br&gt;
-The relationship of biomass status or the fishing mortality to reference points is not known for 70% of the 110 stocks that are assessed in the ecoregion. Though only 39% of the stocks are fished below FMSY, these stocks account for nearly 44% of the total landings. There has been a trend of declining fishing mortality since the mid-1990s for the benthic and demersal stocks with known status. The average F/FMSY ratio is below 1 for assessed benthic stocks and just above for the assessed demersal stocks. The trend for stock size in assessed benthic and demersal stocks has been increasing over the same period. The average F/FMSY ratio is below 1 for the crustacean stocks, and the average biomass has been above 1 in the past decade. The average F/FMSY ratio for pelagic assessed stocks has been above 1 in recent years, and the average stock size indicator is declining in recent years but remains above MSY Btrigger. &lt;br&gt;&lt;br&gt;
-Technical interactions in demersal mixed fisheries are described for three areas within the ecoregion. Norway lobster account for the highest landings in the Irish Sea; they are mainly taken in trawl fisheries, where they account for more than 90% of the total landings. In the Celtic Sea and west of Ireland, hake account for the majority of the landings; they are mainly taken in longline and gillnet fisheries. In the west of Scotland, Norway lobster again account for the highest landings; they are mainly taken using otter trawls but are also taken in pots. &lt;br&gt;&lt;br&gt;
-Supporting data used in the Celtic Seas fisheries overview is accessible at &lt;ahref="https://doi.org/10.17895/ices.advice.27879936. "&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;  </t>
-  </si>
-  <si>
-    <t>&lt;br&gt;  The Celtic Seas ecoregion covers the northwestern shelf seas of Europe (Figure 1). It includes areas of the deeper eastern Atlantic Ocean and coastal seas that are heavily influenced by oceanic inputs. The ecoregion ranges from north of Shetland to Brittany in the south. Three key areas constitute this ecoregion: &lt;br&gt;&lt;br&gt;
-&lt;ol style="font-size: 14px"&gt;
-&lt;li style="font-size: 14px"&gt;northern parts: the Malin shelf, west of Scotland, eastern Rockall Bank, and north of Scotland (parts of Subdivision 2.a.2, divisions 4.a and 6.a, and Subdivision 6.b.2); &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;the Celtic Sea, Bristol Channel, Western English Channel, southwest and west of Ireland (Division 7.b and Subdivision 7.c.2; parts of divisions 7.e, 7.f, 7.g, 7.h, and subdivisions 7.j.2 and 7.k.2); &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;the Irish Sea (Division 7.a). &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-In the north, there are strong links with the North Sea; in the southeast, a strong link with the channel area; and in the south a strong link with the Bay of Biscay. The eastern part of the Rockall Bank is within the geographic scope of the ecoregion, although it is separated from the western European shelf by the Rockall Trough. &lt;br&gt;&lt;br&gt;
-This fisheries overview provides: &lt;br&gt;&lt;br&gt;
-&lt;ol style="font-size: 14px"&gt;
-&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears and spatial and temporal patterns of activity; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;mixed fisheries considerations of relevance to the management of the fisheries; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species. &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;
-The overview covers ICES subareas 27.7 (excluding Division 27.7.d) and 27.6, (hereafter, the “27” area prefixes are omitted). Some fisheries statistics do not allow the full differentiation of sections of subareas 4 and 2 or (in earlier years) western sections of subareas 6 and 7, as well as the southeastern section of Division 7.e. &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt; Fourteen nations currently have fisheries targeting the many marine stocks within this diverse and extensive ecoregion. Landings by country have varied over the past ten years, with most taken by Norway, UK, Ireland, the Netherlands, Denmark, and France. Lesser amounts are landed by the Faroe Islands, Germany, Spain, Belgium, Lithuania, Poland, and Estonia (Figure 2; note that this figure includes some landings from waters to the west of the ecoregion). &lt;br&gt;&lt;br&gt;
-Landings from several of these nations, including Norway, the Netherlands, Germany, Denmark, Lithuania, and Poland, are dominated by pelagic species. Nations within UK and EU target a combination of pelagic, demersal (including Norway lobster), deep-water, and shellfish species. Of these, UK has the greatest landings, with an almost equal split between pelagic and non-pelagic landings. &lt;br&gt;&lt;br&gt;
-In the European Commission’s Scientific Technical and Economic Committee for Fisheries’ (STECF) Fisheries Dependence Information (FDI) data call, “confidentiality” in the landings and effort tables by country was introduced. The data call suggests that data related to fewer than three vessels could be considered confidential. Given the disaggregation of this data call (e.g. vessel length, gear, mesh size, quarter), many entries were submitted as confidential. It is therefore not possible to assess the extent to which the effort data are impacted by confidentiality and whether this is consistent over time. As a consequence, no effort by country was presented. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Belgium&lt;/b&gt;&lt;br&gt;
-The Belgian fleet consists of about 33 active vessels, of which about 21 fish in the Irish Sea. The majority (89%) of the vessels are &gt; 24 m, while the remainder of the vessels are between 18 m and 24 m. The Belgian fleet uses beam trawls and otter trawls for rays, plaice, sole, and anglerfish. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Denmark&lt;/b&gt;&lt;br&gt;
-Eight Danish vessels fish in this ecoregion, targeting blue whiting with pelagic trawls. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;
-Up to ten vessels from the Faroe Islands operate in this ecoregion, targeting blue whiting with pelagic trawls. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
-The French offshore fishery in the Celtic Sea (divisions 7.g and 7.h) is mostly composed of bottom trawlers (18–35 m, around 350 vessels) targeting gadoids, Norway lobster or anglerfish, megrim, and rays, with fewer than 10 vessels using Danish seine. In the west of Scotland (Division 6.a), around 10 bottom trawlers target both saithe and deep-sea fish (at depths of less than 800 m), and fewer smaller vessels target hake using longlines or nets. Finally, two large pelagic trawlers target herring and mackerel, and one is also involved in the blue whiting fishery. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
-About 10 German vessels fish in the ecoregion. This includes vessels that mainly target anglerfish and hake with gillnets and longline, as well as about three large freezer trawlers that target mackerel. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Ireland&lt;/b&gt;&lt;br&gt;
-The Irish fishing fleet is very diverse, with around 1 500 &lt; 10 m and 500 ≥ 10 m active vessels. Small vessels (&lt; 10 m) operate inshore, typically targeting shellfish with pots or demersal fish with nets. On the shoreline, there is widespread hand gathering of periwinkles. The vessels ≥ 10 m target a wide variety of species using several types of gear. Vessels in the 1225 m length range target Norway lobster using trawls on several grounds around Ireland and on the Porcupine Bank. Both inshore and offshore mixed demersal fisheries use trawls and seine nets to target gadoids and benthic species. Vessels using gillnets target hake offshore monkfish, and cod in inshore areas. Ten beam trawlers target benthic species such as megrim, anglerfish, flatfish, and rays. There are dredge fisheries for razor clams and scallops in inshore and offshore areas. About 100 vessels are engaged in aquaculture-related activities, including mussel and oyster dredging and dredging for seed mussels. Twenty large (≥ 30 m) pelagic fishing vessels operate across the whole of the area. Vessels using pelagic trawls target mackerel, horse mackerel, blue whiting, boarfish, and sprat. Pelagic trawling for albacore tuna occurs in the ecoregion. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Lithuania&lt;/b&gt;&lt;br&gt;
-Two large Lithuanian freezer trawlers target pelagic species in this ecoregion. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Netherlands&lt;/b&gt;&lt;br&gt;
-Around 10–15 large Dutch pelagic freezer trawlers operate in this ecoregion, mainly targeting horse mackerel and mackerel. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
-About 60 Norwegian vessels operate in this ecoregion. Pelagic trawlers mainly target blue whiting but also target other pelagic species. There is also a demersal longline fishery that mainly targets ling and blue ling. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
-The Spanish fleet comprises 67 vessels &gt; 24 m that operate mainly in Subarea 7 (the Porcupine and Great Sole banks) and, to a lesser degree, in Subarea 6 (west of Scotland). All of these vessels target demersal species: set longlines target hake (44 vessels); bottom otter trawl target megrim, anglerfish, and hake (21 vessels); and set gillnet target hake (two vessels). &lt;br&gt;&lt;br&gt;
-&lt;b&gt;United Kingdom&lt;/b&gt;&lt;br&gt;
-Scotland&lt;br&gt;&lt;br&gt;
-Most fishing activity by Scottish vessels (754 boats in 2015) occurs in Subarea 6. Around 62 demersal trawlers (mostly &gt; 10 m) fish for mixed gadoids and benthic species such as anglerfish and megrim. A small number of boats target haddock at Rockall. In inshore areas, a fleet of 164 trawlers fish mainly for Norway lobster; of these boats, 34 are under 10 m. Pot or creel fishing is carried out by almost 400 vessels. Over 300 of these boats are under 10 m and target Norway lobster, lobsters, and various crab species. Around 60 larger vessels ( &gt; 10 m) fish for crustaceans (mainly brown crab) in more offshore areas to the far north and west of Scotland. Scallop fishing is carried out by around 50 dredgers (mostly &gt; 10 m) and by hand gathering (diving). Limited amounts of inshore longlining and gillnetting are also carried out. About 20 large pelagic trawlers fish in the northern parts of the Celtic Seas ecoregion. &lt;br&gt;&lt;br&gt;
-In the Irish Sea, the main Scottish activity is dredging for scallops around the Isle of Man, performed by around 50 boats (mainly &gt; 10 m). Pot fishing occurs along the Solway Firth coast (22 vessels), and about 12 trawlers take part in the Irish Sea Norway lobster fishery. Trawling for Norway lobster also occurs at the Porcupine Bank and in the Celtic Sea (divisions 7.c and 7.k). Mixed-fish trawling, longlining, and gillnetting occurs in the Celtic Sea and western English Channel (Division 7.e). Some boats also dredge for scallops in the western English Channel. &lt;br&gt;&lt;br&gt;
-Northern Ireland&lt;br&gt;&lt;br&gt;
-The Northern Irish fleet consists of around 130 ≥ 10 m and 180 &lt; 10 m vessels. The fleet predominantly operates within divisions 7.a and 6.a. A small number of vessels target Norway lobster or pelagic species in other parts of the ecoregion. Within the Irish Sea, demersal trawling for Norway lobster dominates the fishing effort. &lt;br&gt;&lt;br&gt;
-Vessels operating inshore typically target shellfish with pots or by dredging (for king scallops) in divisions 6.a and 7.a. Both trawl nets and dredge gear are used to catch queen scallops in the Irish Sea and north of Rathlin Island in Division 6.a. &lt;br&gt;&lt;br&gt;
-A small number of vessels trawl for haddock, hake, and (historically) cod. At present there is no permitted commercial targeted fishery for cod. A pelagic and gillnet herring fishery operates in late summer–early autumn in the pre- and post-spawning periods. The gillnet fishery occurs on the western Irish Sea coastline, whilst two large pelagic trawlers target herring aggregations in the northern English Channel and around the Isle of Man. &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;br&gt; The majority of fishing in the Faroes ecoregion is performed by Faroese vessels. The vast majority of the vessels participate in a mixed fishery for demersal fish, such as cod, haddock, saithe, ling, greater silver smelt, and Greenland halibut. Two main fleet categories operate under an effort management system with separated allocated fishing days: one group consists of single and pairtrawlers (&gt; 1000 hp) targeting saithe, while another group, mainly longliners of all sizes, targets cod and haddock. A small number of large vessels target widely distributed pelagic fish, i.e. herring, mackerel, and blue whiting using pelagic trawl. &lt;br&gt;&lt;br&gt;
 Demersal fish constituted the majority of the landings until the 1990s when pelagic landings increased considerably. Total landings peaked after 2000, and a noticeable drop around 2010 was caused by a decrease in the landings of blue whiting. Landings of demersal fish, especially cod and haddock, have been low since 2005. &lt;br&gt;&lt;br&gt;
 Discarding is prohibited in the pelagic fishery. Discarding in the demersal fisheries is considered negligible; however, there are no reliable estimates of potential discards. &lt;br&gt;&lt;br&gt;
@@ -523,9 +466,6 @@
 &lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
 German pelagic vessels fish for blue whiting and NSS herring and mackerel. &lt;br&gt;&lt;br&gt;
 </t>
-  </si>
-  <si>
-    <t>it says "key signals" in the advice sheet</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;br&gt;The Greenland Sea ecoregion covers the shelf and surrounding waters within the Greenlandic EEZ (Figure 1). The region is located along the entire east coast of Greenland, reaching from the Central Arctic Ocean ecoregion in the north to the Oceanic Northeast Atlantic ecoregion in the south and along the western boundaries of the Norwegian Sea and the Icelandic Waters ecoregion. The ocean and coastal shelves are strongly influenced by cold low-saline water from the north and warm high-saline water from the south; further details can be found in the Greenland Sea ecosystem overview. &lt;br&gt;&lt;br&gt;
@@ -664,24 +604,15 @@
     <t>source</t>
   </si>
   <si>
-    <t>ICES ecoregion</t>
-  </si>
-  <si>
     <t>Large marine area used by ICES to organise advice, assessments, and reporting across ecosystem products.</t>
   </si>
   <si>
-    <t>https://www.ices.dk/advice/ESD/Pages/Ecosystem-overviews.aspx</t>
-  </si>
-  <si>
     <t>Fisheries overview</t>
   </si>
   <si>
     <t>ICES advice product summarising fishing activities, fleets, catches, and pressures for each ecoregion.</t>
   </si>
   <si>
-    <t>https://www.ices.dk/advice/Fisheries-overviews/Pages/Introduction.aspx</t>
-  </si>
-  <si>
     <t>Catch</t>
   </si>
   <si>
@@ -700,21 +631,12 @@
     <t>Discards</t>
   </si>
   <si>
-    <t>Components of a fish stock thrown back after capture (e.g., below minimum size or due to exhausted quota); most are unlikely to survive.</t>
-  </si>
-  <si>
-    <t>https://www.ices.dk/community/documents/advice/acronyms_and_terminology.pdf</t>
-  </si>
-  <si>
     <t>Fisheries guilds</t>
   </si>
   <si>
     <t>Broad groupings (e.g., pelagic, demersal, benthic, elasmobranch) used in ecosystem and fisheries overviews to summarise stock groups and trends.</t>
   </si>
   <si>
-    <t>https://www.ices.dk/advice/ESD/Pages/Bay-of-Biscay-and-the-Iberian-Coast_Landing.aspx</t>
-  </si>
-  <si>
     <t>Maximum Sustainable Yield (MSY)</t>
   </si>
   <si>
@@ -727,45 +649,30 @@
     <t>Fishing mortality consistent with achieving MSY.</t>
   </si>
   <si>
-    <t>https://www.ices.dk/Lists/Glossary/ICES%20Glossary.aspx?PageFirstRow=361&amp;Paged=TRUE&amp;View=%7BE4199C10-9657-46B2-BF8B-E7DE42FF06A6%7D&amp;p_Acronyms0=FEAP&amp;p_ID=421</t>
-  </si>
-  <si>
     <t>MSY Btrigger</t>
   </si>
   <si>
     <t>Spawning-stock biomass reference point that triggers a more cautious response within the ICES MSY approach.</t>
   </si>
   <si>
-    <t>https://www.ices.dk/Lists/Glossary/ICES%20Glossary.aspx?PageFirstRow=691&amp;Paged=TRUE&amp;View=%7BE4199C10-9657-46B2-BF8B-E7DE42FF06A6%7D&amp;p_Acronyms0=MSY&amp;p_ID=386</t>
-  </si>
-  <si>
     <t>Blim / Bpa</t>
   </si>
   <si>
     <t>Blim: limit SSB below which recruitment is impaired; Bpa: precautionary SSB set to keep SSB above Blim with high probability.</t>
   </si>
   <si>
-    <t>https://www.ices.dk/Lists/Glossary/ICES%20Glossary.aspx?PageFirstRow=151&amp;Paged=TRUE&amp;PagedPrev=TRUE&amp;View=%7BE4199C10-9657-46B2-BF8B-E7DE42FF06A6%7D&amp;p_Acronyms0=CEFAS&amp;p_ID=451</t>
-  </si>
-  <si>
     <t>Mixed fisheries</t>
   </si>
   <si>
     <t>Fisheries where several stocks are caught together; advice and scenarios consider trade-offs across fleets and species.</t>
   </si>
   <si>
-    <t>https://www.ices.dk/advice/Pages/technical_guidelines.aspx</t>
-  </si>
-  <si>
     <t>Technical interactions</t>
   </si>
   <si>
     <t>Consequences of species being caught together due to the non-selective nature of many gears; catches in one stock constrain catches in others.</t>
   </si>
   <si>
-    <t>https://www.ices.dk/community/Documents/Advice/General_context_of_ICES_advice_2012.pdf</t>
-  </si>
-  <si>
     <t>Métier / fleet grouping</t>
   </si>
   <si>
@@ -778,27 +685,18 @@
     <t>Satellite-based system providing fishing vessel positions (speed and course) to support monitoring, control, surveillance and scientific analyses.</t>
   </si>
   <si>
-    <t>https://www.ices.dk/about-ICES/projects/EU-RFP/EU%20Repository/PROTECT/FP6%20PROTECT%20Final%20Report%20Project%20Synthesis.pdf</t>
-  </si>
-  <si>
     <t>Swept Area Ratio (SAR)</t>
   </si>
   <si>
     <t>Ratio of seabed area swept by bottom-contacting gear to the area of a grid cell (a measure of fishing intensity from VMS-based analyses).</t>
   </si>
   <si>
-    <t>https://www.ices.dk/sites/pub/Publication%20Reports/Expert%20Group%20Report/SSGSUE/2014/01%20WGSFD%20-%20Report%20of%20the%20Working%20Group%20on%20Spatial%20Fisheries%20Data.pdf</t>
-  </si>
-  <si>
     <t>Logbook</t>
   </si>
   <si>
     <t>Official record of a vessel’s fishing operations (trip, gear, effort, catches); in ICES workflows commonly exchanged in EFLALO format.</t>
   </si>
   <si>
-    <t>https://www.ices.dk/sites/pub/CM%20Doccuments/CM-2010/SSGSUE/sgvms10.pdf</t>
-  </si>
-  <si>
     <t>Bycatch</t>
   </si>
   <si>
@@ -811,23 +709,2646 @@
     <t>Endangered, Threatened, and Protected species considered in ICES bycatch work and advice.</t>
   </si>
   <si>
-    <t>https://www.ices.dk/advice/pages/latest-advice.aspx</t>
-  </si>
-  <si>
     <t>WGBYC</t>
   </si>
   <si>
     <t>ICES Working Group on Bycatch of Protected Species; collates and assesses bycatch data and supports ICES advice.</t>
   </si>
   <si>
-    <t>https://www.ices.dk/community/groups/Pages/WGbyc.aspx</t>
+    <t>ICES Ecoregion</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.advice.23634480</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.22134020</t>
+  </si>
+  <si>
+    <t>The part of the catch that is not retained on board and is returned at sea, dead or alive. It may include target species or any other species (both commercial and non-commercial) discarded at sea.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.25350664</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.advice.27899889</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4060/cd0683en</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.27905664</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.7975</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.25682472</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.19280723</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.25071479</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.17895/ices.pub.10042</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.25350697</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.19282769</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17895/ices.pub.26075947</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.17895/ices.pub.7471</t>
+  </si>
+  <si>
+    <t>agn.27.nea</t>
+  </si>
+  <si>
+    <t>Angel shark (Squatina squatina) in subareas 1-10, 12, and 14 (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=7b66079a-c615-4455-b7fe-833951571aef</t>
+  </si>
+  <si>
+    <t>alf.27.nea</t>
+  </si>
+  <si>
+    <t>Alfonsinos (Beryx spp.) in subareas 1-10, 12 and 14 (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=1bb4536e-f9c9-4e72-b03d-b76955ba4e5a</t>
+  </si>
+  <si>
+    <t>ane.27.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchovy (Engraulis encrasicolus) in Subarea 8 (Bay of Biscay) </t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=99a24cfa-509b-45f6-8619-acfa36a1fc97</t>
+  </si>
+  <si>
+    <t>ane.27.9aS</t>
+  </si>
+  <si>
+    <t>Anchovy (Engraulis encrasicolus) in the southern part of Division 9.a (Gulf of Cadiz and southern coast of Portugal)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=7b04b0a4-1023-48a1-bd10-491f5daac9ab</t>
+  </si>
+  <si>
+    <t>ane.27.9aW</t>
+  </si>
+  <si>
+    <t>Anchovy (Engraulis encrasicolus) in the western part of Division 9.a (western Iberian waters).</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=583d30c4-dfd6-473c-b1f1-83d7dd6c1cce</t>
+  </si>
+  <si>
+    <t>anf.27.1-2</t>
+  </si>
+  <si>
+    <t>Anglerfish (Lophius budegassa, Lophius piscatorius) in subareas 1 and 2 (Northeast Arctic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=1474d5bc-4dfd-420f-8dc0-51f5e6154ba8</t>
+  </si>
+  <si>
+    <t>anf.27.3a46</t>
+  </si>
+  <si>
+    <t>Anglerfish (Lophius budegassa, Lophius piscatorius) in subareas 4 and 6 and in Division 3.a (North Sea, Rockall and West of Scotland, Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=dd3a92c7-7825-4ae0-a86c-6eda52f2efbe</t>
+  </si>
+  <si>
+    <t>ank.27.78abd</t>
+  </si>
+  <si>
+    <t>Black-bellied anglerfish (Lophius budegassa) in Subarea 7 and in divisions 8.a, 8.b, and 8.d (Celtic Seas, Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=22aa20e5-b9d8-4a58-a821-db6f81d79ccd</t>
+  </si>
+  <si>
+    <t>ank.27.8c9a</t>
+  </si>
+  <si>
+    <t>Black-bellied anglerfish (Lophius budegassa) in divisions 8.c and 9.a (Cantabrian Sea, Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=01b21560-8330-4467-afa0-55ce732f4629</t>
+  </si>
+  <si>
+    <t>aru.27.123a4</t>
+  </si>
+  <si>
+    <t>Greater silver smelt (Argentina silus) in subareas 1, 2, and 4 and in Division 3.a (Northeast Arctic, North Sea, Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=fab86753-9ca3-4603-8f0c-5015d08bddee</t>
+  </si>
+  <si>
+    <t>aru.27.5a14</t>
+  </si>
+  <si>
+    <t>Greater silver smelt (Argentina silus) in Subarea 14 and in Division 5.a (East Greenland and Iceland grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=e29c171a-d554-44d6-a5dc-0a425402fd7c</t>
+  </si>
+  <si>
+    <t>aru.27.5b6a</t>
+  </si>
+  <si>
+    <t>Greater silver smelt (Argentina silus) in divisions 5.b and 6.a (Faroes grounds and west of Scotland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=56c7731f-1d00-4980-b7f3-4f038c69892e</t>
+  </si>
+  <si>
+    <t>aru.27.6b7-1012</t>
+  </si>
+  <si>
+    <t>Greater silver smelt (Argentina silus) in subareas 7-10 and 12 and inDivision 6.b (other areas)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=2d2b310c-93c5-4685-8113-66229db9a9b2</t>
+  </si>
+  <si>
+    <t>bli.27.123a4</t>
+  </si>
+  <si>
+    <t>Blue ling (Molva dypterygia) in subareas 1, 2, and 4 and in Division 3.a (Northeast Arctic, North Sea, Skagerrak, and Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=5566db55-2746-49f5-b8ff-44f6a62e2818</t>
+  </si>
+  <si>
+    <t>bli.27.5a14</t>
+  </si>
+  <si>
+    <t>Blue ling (Molva dypterygia) in Subarea 14 and in Division 5.a (East Greenland and Iceland grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=f4ab75cf-5296-4b16-a161-5b5211d73d26</t>
+  </si>
+  <si>
+    <t>bli.27.5b6712</t>
+  </si>
+  <si>
+    <t>Blue ling (Molva dypterigia) in subareas 6, 7, and 12 and in Division 5.b (Celtic Seas, western Hatton Bank, and Faroes grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=468a04cf-b1d7-4557-9fd5-7d4a83412ce1</t>
+  </si>
+  <si>
+    <t>bll.27.22-32</t>
+  </si>
+  <si>
+    <t>Brill (Scophthalmus rhombus) in subdivisions 22-32 (Baltic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=470e40e4-f80d-4a84-9dd6-eb4b00e97945</t>
+  </si>
+  <si>
+    <t>bll.27.3a47de</t>
+  </si>
+  <si>
+    <t>Brill (Scophthalmus rhombus) in Subarea 4 and in divisions 3.a, 7.d, and 7.e (North Sea, Skagerrak, Kattegat, English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=fae20194-2930-4792-a454-0eb5c870ac32</t>
+  </si>
+  <si>
+    <t>boc.27.6-8</t>
+  </si>
+  <si>
+    <t>Boarfish (Capros aper) in subareas 6-8 (Celtic Seas, English Channel, Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=eaf9c837-ee2f-4c4d-843c-62209754ca3e</t>
+  </si>
+  <si>
+    <t>bsf.27.nea</t>
+  </si>
+  <si>
+    <t>Black scabbardfish (Aphanopus carbo) in subareas 1, 2, 4-8, 10, and 14 and in divisions 3.a, 9.a, and 12.b (Northeast Atlantic and Arctic Ocean)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=4f1a7829-9d04-4be2-8d55-82222c75c9a2</t>
+  </si>
+  <si>
+    <t>bsk.27.nea</t>
+  </si>
+  <si>
+    <t>Basking shark (Cetorhinus maximus) in subareas 1-10, 12, and 14 (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=5b4ef5fb-3ec7-41b1-9fa1-679bf52f9e0c</t>
+  </si>
+  <si>
+    <t>bss.27.4bc7ad-h</t>
+  </si>
+  <si>
+    <t>Seabass (Dicentrarchus labrax) in divisions 4.b, 4.c, 7.a, and 7.d-h (central and southern North Sea, Irish Sea, English Channel, Bristol Channel, Celtic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=e2929583-ad0d-4227-83a3-5cabb42eeccd</t>
+  </si>
+  <si>
+    <t>bss.27.6a7bj</t>
+  </si>
+  <si>
+    <t>Seabass (Dicentrarchus labrax) in divisions 6.a, 7.b, and 7.j (West of Scotland, West of Ireland, eastern part of southwest of Ireland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=501d0217-b6f6-4217-965c-1554740b45ac</t>
+  </si>
+  <si>
+    <t>bss.27.8ab</t>
+  </si>
+  <si>
+    <t>Seabass (Dicentrarchus labrax) in divisions 8.a and 8.b (northern and central Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=3188c48c-3fa3-44ff-b887-954cb71943fd</t>
+  </si>
+  <si>
+    <t>bss.27.8c9a</t>
+  </si>
+  <si>
+    <t>Seabass (Dicentrarchus labrax) in divisions 8.c and 9.a (southern Bay of Biscay and Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=02243cd7-583b-48ab-9e04-083008e411b9</t>
+  </si>
+  <si>
+    <t>bwp.27.2729-32</t>
+  </si>
+  <si>
+    <t>Baltic flounder (Platichthys solemdali) in subdivisions 27 and 29-32 (northern central and northern Baltic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=de13ee4b-90a9-4604-b66a-e6f60083349e</t>
+  </si>
+  <si>
+    <t>bzq.27.2425</t>
+  </si>
+  <si>
+    <t>Flounder (Platichthys spp) in subdivisions 24 and 25 (west of Bornholm and southwestern central Baltic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=1c6453a8-3f4c-49ba-be7a-32e9e355e56a</t>
+  </si>
+  <si>
+    <t>bzq.27.2628</t>
+  </si>
+  <si>
+    <t>Flounder (Platichthys spp) in subdivisions 26 and 28 (east of Gotland and Gulf of Gdansk)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=495cd316-8c37-4d89-aed5-b38357d77020</t>
+  </si>
+  <si>
+    <t>caa.27.5a</t>
+  </si>
+  <si>
+    <t>Atlantic wolffish (Anarhichas lupus)  in Division 5.a (Iceland grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=e632d32a-a345-4148-8925-7f63f614b221</t>
+  </si>
+  <si>
+    <t>cap.27.1-2</t>
+  </si>
+  <si>
+    <t>Capelin (Mallotus villosus) in subareas 1 and 2 (Northeast Arctic), excluding Division 2.a west of 5Â°W (Barents Sea capelin)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=d4780d14-0db8-4600-a900-8115926d1fe8</t>
+  </si>
+  <si>
+    <t>cap.27.2a514</t>
+  </si>
+  <si>
+    <t>Capelin (Mallotus villosus) in subareas 5 and 14 and in Division 2.a west of 05Â°00â€™W (Iceland and Faroes grounds, East Greenland, Jan Mayen area)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=7a090527-a720-48ac-b9a1-2fb5b509906c</t>
+  </si>
+  <si>
+    <t>cod.21.1.isc</t>
+  </si>
+  <si>
+    <t>Cod (Gadus morhua) in NAFO Subarea 1 (West Greenland inshore spawning cod)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=9dd2b72c-3c8b-438f-a270-166875c7b5dc</t>
+  </si>
+  <si>
+    <t>cod.21.1.osc</t>
+  </si>
+  <si>
+    <t>Cod (Gadus morhua) in NAFO Subarea 1 (West Greenland offshore spawning cod)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=c0feba64-52bc-4197-9ec2-53577c7dcd47</t>
+  </si>
+  <si>
+    <t>cod.21.27.1.14</t>
+  </si>
+  <si>
+    <t>Cod (Gadus morhua) in NAFO Subarea 1 and ICES Subarea 14 (East Greenland-Iceland offshore spawning cod)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=c43464b6-648d-49ba-a105-37e94f1930ca</t>
+  </si>
+  <si>
+    <t>cod.27.1-2</t>
+  </si>
+  <si>
+    <t>Cod (Gadus morhua) in subareas 1 and 2 (Northeast Arctic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=a34085cb-9134-4504-82fc-1ce7c624fcb6</t>
+  </si>
+  <si>
+    <t>cod.27.1-2.coastN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cod (Gadus morhua) in subareas 1 and 2, north of 67Â°N (Norwegian Sea and Barents Sea), northern Norwegian coastal cod </t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=a81bbf27-f9d0-440c-97f9-899fb3278aa0</t>
+  </si>
+  <si>
+    <t>cod.27.2.coastS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cod (Gadus morhua) in Subarea 2 between 62Â°N and 67Â°N (Norwegian Sea), southern Norwegian coastal cod </t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=c6b6c5b9-8231-4f8b-9dbd-732566fd7872</t>
+  </si>
+  <si>
+    <t>cod.27.21</t>
+  </si>
+  <si>
+    <t>Cod (Gadus morhua) in Subdivision 21 (Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=e31a2539-4db8-4ac9-a2a8-eda20fed567b</t>
+  </si>
+  <si>
+    <t>cod.27.22-24</t>
+  </si>
+  <si>
+    <t>Cod (Gadus morhua) in subdivisions 22-24, western Baltic stock (western Baltic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=985043b2-ab43-4932-8e03-d6bac6917695</t>
+  </si>
+  <si>
+    <t>cod.27.24-32</t>
+  </si>
+  <si>
+    <t>Cod (Gadus morhua) in subdivisions 24-32, eastern Baltic stock (eastern Baltic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=9ea91650-c3c0-47db-9403-9174d43bd4d3</t>
+  </si>
+  <si>
+    <t>cod.27.46a7d20</t>
+  </si>
+  <si>
+    <t>Cod (Gadus morhua) in Subarea 4, in divisions 6.a and 7.d, and in Subdivision 20 (North Sea, West of Scotland, eastern English Channel, Skagerrak)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=f527e17c-1d97-48f2-9ca4-bed13e0f0475</t>
+  </si>
+  <si>
+    <t>cod.27.5a</t>
+  </si>
+  <si>
+    <t>Cod (Gadus morhua) in Division 5.a (Iceland grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=eeea9979-b786-4150-b6d4-ebbf399c7d26</t>
+  </si>
+  <si>
+    <t>cod.27.5b1</t>
+  </si>
+  <si>
+    <t>Cod (Gadus morhua) in Subdivision 5.b.1 (Faroe Plateau)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=3ed372f5-a294-4527-be15-b0ea67ebff66</t>
+  </si>
+  <si>
+    <t>cod.27.5b2</t>
+  </si>
+  <si>
+    <t>Cod (Gadus morhua) in Subdivision 5.b.2 (Faroe Bank)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=4aedc4f5-0759-46b1-9fd4-f43dce83e416</t>
+  </si>
+  <si>
+    <t>cod.27.6b</t>
+  </si>
+  <si>
+    <t>Cod (Gadus morhua) in Division 6.b (Rockall)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=cf1d88b1-f30c-4157-b5fe-69dc6aa82346</t>
+  </si>
+  <si>
+    <t>cod.27.7a</t>
+  </si>
+  <si>
+    <t>Cod (Gadus morhua) in Division 7.a (Irish Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=574bcb03-f091-4d79-baae-6ac8c33738d7</t>
+  </si>
+  <si>
+    <t>cod.27.7e-k</t>
+  </si>
+  <si>
+    <t>Cod (Gadus morhua) in divisions 7.e-k (western English Channel and southern Celtic Seas)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=8f9d510b-f99a-4c81-865f-0450abe8574e</t>
+  </si>
+  <si>
+    <t>cyo.27.nea</t>
+  </si>
+  <si>
+    <t>Portuguese dogfish (Centroscymnus coelolepis, Centrophorus squamosus) in subareas 1-10, 12, and 14 (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=ad0c6967-3f78-4e0c-b6d2-d4b13acdad22</t>
+  </si>
+  <si>
+    <t>dab.27.22-32</t>
+  </si>
+  <si>
+    <t>Dab (Limanda limanda) in subdivisions 22-32 (Baltic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=693556cd-9b9d-448a-b2d5-fbba958b51ef</t>
+  </si>
+  <si>
+    <t>dab.27.3a4</t>
+  </si>
+  <si>
+    <t>Dab (Limanda limanda) in Subarea 4 and Division 3.a (North Sea, Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=01f03f97-cd8d-4a96-85cd-9fc3dd62ab7a</t>
+  </si>
+  <si>
+    <t>dgs.27.nea</t>
+  </si>
+  <si>
+    <t>Spurdog (Squalus acanthias) in subareas 1-10, 12, and 14 (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=9c17d410-e562-44ed-a458-65402355070e</t>
+  </si>
+  <si>
+    <t>ele.2737.nea</t>
+  </si>
+  <si>
+    <t>European eel (Anguilla anguilla) throughout its natural range</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=863ebd8e-d5b8-4463-9902-bc43a5d1d635</t>
+  </si>
+  <si>
+    <t>fle.27.2223</t>
+  </si>
+  <si>
+    <t>Flounder (Platichthys flesus) in subdivisions 22 and 23 (Belt Seas and the Sound)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=2d80f989-ec53-42cb-9e6f-06556318c8ac</t>
+  </si>
+  <si>
+    <t>fle.27.3a4</t>
+  </si>
+  <si>
+    <t>Flounder (Platichthys flesus) in Subarea 4 and in Division 3.a (North Sea, Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=7c51773e-122b-4fe6-9f96-d200f0901c78</t>
+  </si>
+  <si>
+    <t>gag.27.nea</t>
+  </si>
+  <si>
+    <t>Tope (Galeorhinus galeus) in subareas 1-10, 12, and 14 (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=9d5e95a5-5742-42a1-854c-7b98fd612250</t>
+  </si>
+  <si>
+    <t>gfb.27.nea</t>
+  </si>
+  <si>
+    <t>Greater forkbeard (Phycis blennoides) in subareas 1-10, 12, and 14 (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=844b353c-1a9c-4b0f-bbf7-050c26317a8c</t>
+  </si>
+  <si>
+    <t>ghl.27.1-2</t>
+  </si>
+  <si>
+    <t>Greenland halibut (Reinhardtius hippoglossoides) in subareas 1 and 2 (Northeast Arctic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=45e2e3b3-4b6c-4307-8254-2e2131ea8027</t>
+  </si>
+  <si>
+    <t>ghl.27.561214</t>
+  </si>
+  <si>
+    <t>Greenland halibut (Reinhardtius hippoglossoides) in subareas 5, 6, 12, and 14 (Iceland and Faroes grounds, West of Scotland, North of Azores, East of Greenland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=ab53e97c-f62b-4f79-95c1-a6c393e10f50</t>
+  </si>
+  <si>
+    <t>gug.27.3a47d</t>
+  </si>
+  <si>
+    <t>Grey gurnard (Eutrigla gurnardus) in Subarea 4 and in divisions 7.d and 3.a (North Sea, eastern English Channel, Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=529e4eb3-e444-482b-9407-2b8c70cfeceb</t>
+  </si>
+  <si>
+    <t>guq.27.nea</t>
+  </si>
+  <si>
+    <t>Leafscale gulper shark (Centrophorus squamosus) in subareas 1-10, 12, and 14 (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=2ca8dcd3-ee1d-489f-a54f-07adb10b1bac</t>
+  </si>
+  <si>
+    <t>gur.27.3-8</t>
+  </si>
+  <si>
+    <t>Red gurnard (Chelidonichthys cuculus) in subareas 3-8 (Northeast Atlantic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=a90032d7-2abe-473d-960f-b0c24a27a4d9</t>
+  </si>
+  <si>
+    <t>had.27.1-2</t>
+  </si>
+  <si>
+    <t>Haddock (Melanogrammus aeglefinus) in subareas 1 and 2 (Northeast Arctic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=966a8638-2714-4b43-bf0d-5210e3fc7647</t>
+  </si>
+  <si>
+    <t>had.27.46a20</t>
+  </si>
+  <si>
+    <t>Haddock (Melanogrammus aeglefinus) in Subarea 4, in Division 6.a, and in Subdivision 20  (North Sea, West of Scotland, Skagerrak)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=9006cd9c-1be0-4a9f-8fc7-75842a365ea2</t>
+  </si>
+  <si>
+    <t>had.27.5a</t>
+  </si>
+  <si>
+    <t>Haddock (Melanogrammus aeglefinus) in Division 5.a (Iceland grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=50dcfcf2-b7d5-47d1-8e28-465633c49bca</t>
+  </si>
+  <si>
+    <t>had.27.5b</t>
+  </si>
+  <si>
+    <t>Haddock (Melanogrammus aeglefinus) in Division 5.b (Faroes grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=be89f492-5910-43d3-8094-aec33ab701c0</t>
+  </si>
+  <si>
+    <t>had.27.6b</t>
+  </si>
+  <si>
+    <t>Haddock (Melanogrammus aeglefinus) in Division 6.b (Rockall)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=5dda4973-46f1-4314-aeb8-21170945d587</t>
+  </si>
+  <si>
+    <t>had.27.7a</t>
+  </si>
+  <si>
+    <t>Haddock (Melanogrammus aeglefinus) in Division 7.a (Irish Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=cdc66bb0-8721-4ace-a57d-78f2c78ae1cf</t>
+  </si>
+  <si>
+    <t>had.27.7b-k</t>
+  </si>
+  <si>
+    <t>Haddock (Melanogrammus aeglefinus) in divisions 7.b-k (southern Celtic Seas and English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=06799027-e04f-410c-9e3d-4e8d62975ef5</t>
+  </si>
+  <si>
+    <t>her.27.1-24a514a</t>
+  </si>
+  <si>
+    <t>Herring (Clupea harengus) in subareas 1, 2, and 5 and in divisions 4.a and 14.a; Norwegian spring spawners (the Northeast Atlantic and Arctic Ocean)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=30ba434a-ceef-4c65-9eeb-1ac37c198b7c</t>
+  </si>
+  <si>
+    <t>her.27.20-24</t>
+  </si>
+  <si>
+    <t>Herring (Clupea harengus) in subdivisions 20-24; spring spawners (Skagerrak, Kattegat, western Baltic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=53c3d167-f480-4aeb-bff9-b395b8a741cf</t>
+  </si>
+  <si>
+    <t>her.27.25-2932</t>
+  </si>
+  <si>
+    <t>Herring (Clupea harengus) in subdivisions 25-29 and 32, excluding the Gulf of Riga (central Baltic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=9c12d002-5f71-4c58-b4d8-15443de3a34b</t>
+  </si>
+  <si>
+    <t>her.27.28</t>
+  </si>
+  <si>
+    <t>Herring (Clupea harengus) in Subdivision 28.1 (Gulf of Riga)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=0bee96f7-a609-4b73-9474-9724ddd4baa8</t>
+  </si>
+  <si>
+    <t>her.27.3031</t>
+  </si>
+  <si>
+    <t>Herring (Clupea harengus) in subdivisions 30 and 31 (Gulf of Bothnia)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=cebde4e2-0003-4b89-8f57-485da945e03c</t>
+  </si>
+  <si>
+    <t>her.27.3a47d</t>
+  </si>
+  <si>
+    <t>Herring (Clupea harengus) in Subarea 4 and in divisions 3.a and 7.d; autumn spawners (North Sea, Skagerrak, Kattegat, eastern English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=ef1c346d-8172-4988-87b9-067ee08b52e4</t>
+  </si>
+  <si>
+    <t>her.27.5a</t>
+  </si>
+  <si>
+    <t>Herring (Clupea harengus) in Division 5.a; summer spawners (Iceland grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=9114f054-040c-49a3-9fd1-1bcafed5439d</t>
+  </si>
+  <si>
+    <t>her.27.6aN</t>
+  </si>
+  <si>
+    <t>Herring (Clupea harengus) in Division 6.a North (North of 56Â°00â€™N and East of 07Â°00â€™W); autumn spawners (West of Scotland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=5a201754-4659-4bd6-a070-7a0685f24d3c</t>
+  </si>
+  <si>
+    <t>her.27.6aS7bc</t>
+  </si>
+  <si>
+    <t>Herring (Clupea harengus) in divisions 6.a South (south of 56Â°00â€™N and west of 07Â°00â€™W), 7.b, and 7.c (northwest and west of Ireland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=f6d95d30-b3a2-4cb9-a445-2e86ba4421ee</t>
+  </si>
+  <si>
+    <t>her.27.7ef</t>
+  </si>
+  <si>
+    <t>Herring (Clupea harengus) in divisions 7.e and 7.f (western English Channel and Bristol Channel).</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=3aae39fb-618e-4adf-996e-e8959942b922</t>
+  </si>
+  <si>
+    <t>her.27.irls</t>
+  </si>
+  <si>
+    <t>Herring (Clupea harengus) in divisions 7.a (south of 52Â°30â€™N), 7.g, 7.h, 7.j, and 7.k (Irish Sea, Celtic Sea, and southwest of Ireland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=efb9360a-9982-48e7-9a0d-289b413973db</t>
+  </si>
+  <si>
+    <t>her.27.nirs</t>
+  </si>
+  <si>
+    <t>Herring (Clupea harengus) in Division 7.a North of 52Â°30â€™N (Irish Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=c50bb981-f0e4-4450-8876-6d02adbf0382</t>
+  </si>
+  <si>
+    <t>hke.27.3a46-8abd</t>
+  </si>
+  <si>
+    <t>Hake (Merluccius merluccius) in subareas 4, 6, and 7 and in divisions 3.a, 8.a, 8.b, and 8.d; Northern stock (Greater North Sea, Celtic Seas, northern Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=26d7b0d8-71d1-4e55-ad48-999ba08e279e</t>
+  </si>
+  <si>
+    <t>hke.27.8c9a</t>
+  </si>
+  <si>
+    <t>Hake (Merluccius merluccius) in divisions 8.c and 9.a; Southern stock (Cantabrian Sea and  Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=c38b6fcf-8868-40b0-b207-1fbaada767fe</t>
+  </si>
+  <si>
+    <t>hom.27.2a3a4a5b6a7a-ce-k8</t>
+  </si>
+  <si>
+    <t>Horse mackerel (Trachurus trachurus) in Subarea 8 and divisions 2.a, 3.a, 4.a, 5.b, 6.a, 7.a-c, and 7.e-k (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=95bec61e-321d-4ef6-9fa1-09d9e2f56850</t>
+  </si>
+  <si>
+    <t>hom.27.4bc7d</t>
+  </si>
+  <si>
+    <t>Horse mackerel (Trachurus trachurus) in divisions 4.b, 4.c, and 7.d (southern and central North Sea, eastern English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=0c648a4b-0fbe-4965-b466-33132a2dc27e</t>
+  </si>
+  <si>
+    <t>hom.27.9a</t>
+  </si>
+  <si>
+    <t>Horse mackerel (Trachurus trachurus) in Division 9.a (Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=87119b47-ed6d-4b2f-ac3b-3858545afca5</t>
+  </si>
+  <si>
+    <t>jaa.27.10a2</t>
+  </si>
+  <si>
+    <t>Blue jack mackerel (Trachurus picturatus) in Subdivision 10.a.2 (Azores grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=e008c620-7d5e-4e25-a7ff-78ff999ed559</t>
+  </si>
+  <si>
+    <t>ldb.27.7b-k8abd</t>
+  </si>
+  <si>
+    <t>Four-spot megrim (Lepidorhombus boscii) in divisions 7.b-k, 8.a, 8.b, and 8.d (west and southwest of Ireland, Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=da3397c0-41f4-46da-8b01-85d8f350dba2</t>
+  </si>
+  <si>
+    <t>ldb.27.8c9a</t>
+  </si>
+  <si>
+    <t>Four-spot megrim (Lepidorhombus boscii) in divisions 8.c and 9.a (southern Bay of Biscay and Atlantic Iberian waters East)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=e8e83be1-3a1a-45ee-9dc0-948ee6b3ab98</t>
+  </si>
+  <si>
+    <t>lem.27.3a47d</t>
+  </si>
+  <si>
+    <t>Lemon sole (Microstomus kitt) in Subarea 4 and in divisions 3.a and 7.d (North Sea, Skagerrak, Kattegat, eastern English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=48aef37a-3121-4994-9609-01ce5de2d04c</t>
+  </si>
+  <si>
+    <t>lez.27.4a6a</t>
+  </si>
+  <si>
+    <t>Megrim (Lepidorhombus spp.) in divisions 4.a and 6.a (northern North Sea, West of Scotland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=030c54fe-6f26-430d-ae4a-52fcf8becb3b</t>
+  </si>
+  <si>
+    <t>lez.27.6b</t>
+  </si>
+  <si>
+    <t>Megrim (Lepidorhombus spp.) in Division 6.b (Rockall)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=48a4e2dc-5978-4494-9b08-2f1ffb9fdd0e</t>
+  </si>
+  <si>
+    <t>lin.27.1-2</t>
+  </si>
+  <si>
+    <t>Ling (Molva molva) in subareas 1 and 2 (Northeast Arctic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=37788359-47d7-4306-82f4-e689ba07db2a</t>
+  </si>
+  <si>
+    <t>lin.27.346-91214</t>
+  </si>
+  <si>
+    <t>Ling (Molva molva) in subareas 3,4, 6-9, 12, and 14 (Northeast Atlantic and Arctic Ocean)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=b46c8eed-2336-464f-9c85-0234a4806ec6</t>
+  </si>
+  <si>
+    <t>lin.27.5a</t>
+  </si>
+  <si>
+    <t>Ling (Molva molva) in Division 5.a (Iceland grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=db6461c0-537a-47fe-8f5b-301bbbc6f6eb</t>
+  </si>
+  <si>
+    <t>lin.27.5b</t>
+  </si>
+  <si>
+    <t>Ling (Molva molva) in Division 5.b (Faroes grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=2f1d850d-23c6-4d1a-ad2c-e10d6eebb3ca</t>
+  </si>
+  <si>
+    <t>mac.27.nea</t>
+  </si>
+  <si>
+    <t>Mackerel (Scomber scombrus) in subareas 1-8 and 14 and in divisions 9.a, 12.a, and 12.b (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=d2df3870-d929-406f-82ea-b5e6b2d23be8</t>
+  </si>
+  <si>
+    <t>meg.27.7b-k8abd</t>
+  </si>
+  <si>
+    <t>Megrim (Lepidorhombus whiffiagonis) in divisions 7.b-k, 8.a, 8.b, and 8.d (west and southwest of Ireland, Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=c52e2a73-c161-40aa-8d34-e5e890f94153</t>
+  </si>
+  <si>
+    <t>meg.27.8c9a</t>
+  </si>
+  <si>
+    <t>Megrim (Lepidorhombus whiffiagonis) in divisions 8.c and 9.a (Cantabrian Sea and Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=057fff72-4917-4a83-a517-79bd18afa7a7</t>
+  </si>
+  <si>
+    <t>mon.27.78abd</t>
+  </si>
+  <si>
+    <t>White anglerfish (Lophius piscatorius) in Subarea 7 and in divisions 8.a, 8.b, and 8.d (Celtic Seas, Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=53114d00-33b6-4099-bdb9-324170957973</t>
+  </si>
+  <si>
+    <t>mon.27.8c9a</t>
+  </si>
+  <si>
+    <t>White anglerfish (Lophius piscatorius) in divisions 8.c and 9.a (Cantabrian Sea and Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=80a5c5aa-e19e-47a6-8ba5-26c1560f76b8</t>
+  </si>
+  <si>
+    <t>mur.27.3a47d</t>
+  </si>
+  <si>
+    <t>Striped red mullet (Mullus surmuletus) in Subarea 4 and in divisions 7.d and 3.a (North Sea, eastern English Channel, Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=e9d15cde-273b-4da3-a8f0-4993f38d5732</t>
+  </si>
+  <si>
+    <t>mur.27.67a-ce-k89a</t>
+  </si>
+  <si>
+    <t>Striped red mullet (Mullus surmuletus) in subareas 6 and 8 and in divisions 7.a-c, 7.e-k, and 9.a (North Sea, Bay of Biscay, southern Celtic Seas, Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=c2783ad5-2451-4517-9c65-7d612118d0ff</t>
+  </si>
+  <si>
+    <t>nep.27.4outFU</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Subarea 4, outside the Functional Units (North Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=1a403fd3-c3cb-470b-963b-be6f1fd967bc</t>
+  </si>
+  <si>
+    <t>nep.27.6aoutFU</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 6.a, outside the Functional Units (West of Scotland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=73d4c6c4-30fc-4f62-aa16-92470a79feb6</t>
+  </si>
+  <si>
+    <t>nep.27.7outFU</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Subarea 7, outside the Functional Units (southern Celtic Seas, southwest of Ireland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=2f4d8d97-ccc0-400d-9bd1-e867f1575593</t>
+  </si>
+  <si>
+    <t>nep.fu.10</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 4.a, Functional Unit 10 (northern North Sea, Noup)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=fa2bb6a3-a08c-4c87-917c-851ee65e7070</t>
+  </si>
+  <si>
+    <t>nep.fu.11</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 6.a, Functional Unit 11 (West of Scotland, North Minch)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=f2422f66-2847-400f-8482-62a611ea7ade</t>
+  </si>
+  <si>
+    <t>nep.fu.12</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 6.a, Functional Unit 12 (West of Scotland, South Minch)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=a5e33131-c068-42f4-8adf-90ebcdd38676</t>
+  </si>
+  <si>
+    <t>nep.fu.13</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 6.a, Functional Unit 13 (West of Scotland, Firth of Clyde, Sound of Jura)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=f76b4dee-2979-4e28-934e-b175c8060df3</t>
+  </si>
+  <si>
+    <t>nep.fu.14</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 7.a, Functional Unit 14 (Irish Sea, East)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=7f6a9d23-4808-430a-9327-47cad402658f</t>
+  </si>
+  <si>
+    <t>nep.fu.15</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 7.a, Functional Unit 15 (Irish Sea, West)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=2d83d2b1-8aad-4da5-b4dc-9e50a56371d3</t>
+  </si>
+  <si>
+    <t>nep.fu.16</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in divisions 7.b, 7.c, 7.j, and 7.k, Functional Unit 16 (west and southwest of Ireland, Porcupine Bank)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=2763ac0d-fc8a-420a-b703-cad69a41bbf7</t>
+  </si>
+  <si>
+    <t>nep.fu.17</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 7.b, Functional Unit 17 (west of Ireland, Aran grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=cac76cf4-fb48-4804-a218-6af9e48100e7</t>
+  </si>
+  <si>
+    <t>nep.fu.19</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in divisions 7.a, 7.g, and 7.j, Functional Unit 19 (Irish Sea, Celtic Sea, eastern part of southwest of Ireland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=bc6a3fb0-fc53-40d1-b4a7-7590f5fea548</t>
+  </si>
+  <si>
+    <t>nep.fu.2021</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in divisions 7.g and 7.h, Functional Units 20 and 21 (Celtic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=b7ae7a29-eed2-40ab-b232-e77d160c9817</t>
+  </si>
+  <si>
+    <t>nep.fu.22</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in divisions 7.f and 7.g, Functional Unit 22 (Celtic Sea, Bristol Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=b5303e3a-3766-4926-84d6-3c3c1a8a1b32</t>
+  </si>
+  <si>
+    <t>nep.fu.2324</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in divisions 8.a and 8.b, functional units 23 and 24 (northern and central Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=6d1d22dc-7cbf-4790-8ec7-6519efb42c2a</t>
+  </si>
+  <si>
+    <t>nep.fu.25</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 8.c, Functional Unit 25 (southern Bay of Biscay, northern Galicia)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=a9827105-a06c-4335-91ce-49b084c776dc</t>
+  </si>
+  <si>
+    <t>nep.fu.2627</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 9.a, functional units 26 and 27 (Atlantic Iberian waters East, western Galicia, northern Portugal)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=0740c0ee-9742-4ff7-b81c-48c6d41cb3e5</t>
+  </si>
+  <si>
+    <t>nep.fu.2829</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 9.a, functional units 28 and 29 (Atlantic Iberian waters East, southwestern and southern Portugal)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=377c9f50-6139-4427-af3e-734893f5f703</t>
+  </si>
+  <si>
+    <t>nep.fu.3-4</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 3.a, functional units 3 and 4 (Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=48944e75-9c7b-4acc-b78a-c7427b9417c0</t>
+  </si>
+  <si>
+    <t>nep.fu.30</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 9.a, Functional Unit 30 (Atlantic Iberian waters East, Gulf of Cadiz)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=c834c6fd-c3d7-4bd8-bcce-7e09523aed0b</t>
+  </si>
+  <si>
+    <t>nep.fu.31</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 8.c, Functional Unit 31 (southern Bay of Biscay, Cantabrian Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=4e49488d-4029-4339-a0a4-893c33e0b3fc</t>
+  </si>
+  <si>
+    <t>nep.fu.32</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 4.a, Functional Unit 32 (northern North Sea, Norway Deep)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=0af96209-6d73-45f1-8515-8e3ec69d4455</t>
+  </si>
+  <si>
+    <t>nep.fu.33</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 4.b, Functional Unit 33 (central North Sea, Hornâ€™s Reef)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=f0e6eebf-e3bf-49fc-8590-181bafba275b</t>
+  </si>
+  <si>
+    <t>nep.fu.34</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 4.b, Functional Unit 34 (central North Sea, Devilâ€™s Hole)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=cea29472-dacb-4fd6-a00e-fa4a95191cbd</t>
+  </si>
+  <si>
+    <t>nep.fu.5</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in divisions 4.b and 4.c, Functional Unit 5 (central and southern North Sea, Botney Cut-Silver Pit)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=43abf485-2e56-4c50-8a93-a66133f93b4a</t>
+  </si>
+  <si>
+    <t>nep.fu.6</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 4.b, Functional Unit 6 (central North Sea, Farn Deeps)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=ddefa24c-a83e-40d4-a7c0-a59f910c054e</t>
+  </si>
+  <si>
+    <t>nep.fu.7</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 4.a, Functional Unit 7 (northern North Sea, Fladen Ground)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=12c886bf-5910-4cf5-97f3-ed06e120e1cc</t>
+  </si>
+  <si>
+    <t>nep.fu.8</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 4.b, Functional Unit 8 (central North Sea, Firth of Forth)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=219bf8de-d24f-42e9-8b28-51b27f194087</t>
+  </si>
+  <si>
+    <t>nep.fu.9</t>
+  </si>
+  <si>
+    <t>Norway lobster (Nephrops norvegicus) in Division 4.a, Functional Unit 9 (central North Sea, Moray Firth)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=5d6e577d-92bb-4b33-b711-319bcfa0a7d5</t>
+  </si>
+  <si>
+    <t>nop.27.3a4</t>
+  </si>
+  <si>
+    <t>Norway pout (Trisopterus esmarkii) in Subarea 4 and in Division 3.a (North Sea, Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=59850073-17b1-4d2a-98e9-c449b4725e84</t>
+  </si>
+  <si>
+    <t>nop.27.6a</t>
+  </si>
+  <si>
+    <t>Norway pout (Trisopterus esmarkii) in Division 6.a</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=0cc34335-b3c3-4f22-80cf-43add3f5736d</t>
+  </si>
+  <si>
+    <t>ory.27.nea</t>
+  </si>
+  <si>
+    <t>Orange roughy (Hoplostethus atlanticus) in subareas 1-10, 12, and 14 (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=12e58b45-58b1-4e31-8586-c33357f41584</t>
+  </si>
+  <si>
+    <t>pil.27.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sardine (Sardina pilchardus) in Subarea 7 (Southern Celtic Seas, English Channel) </t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=8cc7ff7c-ad0f-4e6d-80d1-7d6229af0df4</t>
+  </si>
+  <si>
+    <t>pil.27.8abd</t>
+  </si>
+  <si>
+    <t>Sardine (Sardina pilchardus) in divisions 8.a, 8.b, and 8.d (Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=8549ce6b-53b1-4f60-91dc-d0131172045a</t>
+  </si>
+  <si>
+    <t>pil.27.8c9a</t>
+  </si>
+  <si>
+    <t>Sardine (Sardina pilchardus) in divisions 8.c and 9.a (Cantabrian Sea, Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=68e265b0-4d0f-4718-af87-8a6069e9a22c</t>
+  </si>
+  <si>
+    <t>ple.27.21-32</t>
+  </si>
+  <si>
+    <t>Plaice (Pleuronectes platessa) in subdivisions 21-32 (Baltic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=d82e9e78-b378-4278-a3a0-c3a759a76e24</t>
+  </si>
+  <si>
+    <t>ple.27.420</t>
+  </si>
+  <si>
+    <t>Plaice (Pleuronectes platessa) in Subarea 4 (North Sea) and in Subdivision 20 (Skagerrak)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=c9915f34-e761-4ef8-b4b3-8ade2613eeac</t>
+  </si>
+  <si>
+    <t>ple.27.5a</t>
+  </si>
+  <si>
+    <t>Plaice (Pleuronectes platessa) in Division 5.a (Iceland grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=53a69f8e-0e6a-4d11-b807-ea429c877f76</t>
+  </si>
+  <si>
+    <t>ple.27.7a</t>
+  </si>
+  <si>
+    <t>Plaice (Pleuronectes platessa) in Division 7.a (Irish Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=69062f70-42fd-4fda-b8e2-1e3ff895ff60</t>
+  </si>
+  <si>
+    <t>ple.27.7bc</t>
+  </si>
+  <si>
+    <t>Plaice (Pleuronectes platessa) in divisions 7.b and 7.c (West of Ireland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=8782cb6f-f0f9-445a-b112-107fa2db70d9</t>
+  </si>
+  <si>
+    <t>ple.27.7d</t>
+  </si>
+  <si>
+    <t>Plaice (Pleuronectes platessa) in Division 7.d (eastern English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=7d19d4df-cad1-4c54-a435-4f9ab0e92213</t>
+  </si>
+  <si>
+    <t>ple.27.7e</t>
+  </si>
+  <si>
+    <t>Plaice (Pleuronectes platessa) in Division 7.e (western English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=ec2f8003-ac46-4017-ba7c-d5bb3b89cca1</t>
+  </si>
+  <si>
+    <t>ple.27.7fg</t>
+  </si>
+  <si>
+    <t>Plaice (Pleuronectes platessa) in divisions 7.f and 7.g (Bristol Channel, Celtic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=04da837a-e4e3-4f17-91e0-b4eafc19813a</t>
+  </si>
+  <si>
+    <t>ple.27.7h-k</t>
+  </si>
+  <si>
+    <t>Plaice (Pleuronectes platessa) in divisions 7.h-k (Celtic Sea South, southwest of Ireland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=17feb62b-7c7e-462b-b609-0911651cc1e3</t>
+  </si>
+  <si>
+    <t>ple.27.89a</t>
+  </si>
+  <si>
+    <t>Plaice (Pleuronectes platessa) in Subarea 8 and in Division 9.a (Bay of Biscay, Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=1fd9ecd8-4d75-4fd0-a05d-3874a8b80b52</t>
+  </si>
+  <si>
+    <t>pok.27.1-2</t>
+  </si>
+  <si>
+    <t>Saithe (Pollachius virens) in subareas 1 and 2 (Northeast Arctic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=09286b07-8bd0-44d9-92db-52ee493b399b</t>
+  </si>
+  <si>
+    <t>pok.27.3a46</t>
+  </si>
+  <si>
+    <t>Saithe (Pollachius virens) in subareas 4 and 6 and in Division 3.a (North Sea, Rockall and West of Scotland, Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=254f1112-e511-4980-8aae-10e1bbf2f9e1</t>
+  </si>
+  <si>
+    <t>pok.27.5a</t>
+  </si>
+  <si>
+    <t>Saithe (Pollachius virens) in Division 5.a (Iceland grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=40d9021c-27c1-4121-b7e5-219759df565c</t>
+  </si>
+  <si>
+    <t>pok.27.5b</t>
+  </si>
+  <si>
+    <t>Saithe (Pollachius virens) in Division 5.b (Faroes grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=69310d65-0c8a-4620-a9ce-0cb8f6c8913f</t>
+  </si>
+  <si>
+    <t>pok.27.7-10</t>
+  </si>
+  <si>
+    <t>Saithe (Pollachius virens) in subareas 7-10 (Southern Celtic Sea and the English Channel, Bay of Biscay, Atlantic Iberian waters, Azores grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=25549a40-21ea-4fb4-b5c0-69634ae41267</t>
+  </si>
+  <si>
+    <t>pol.27.3a4</t>
+  </si>
+  <si>
+    <t>Pollack (Pollachius pollachius) in Subarea 4 and in Division 3.a (North Sea, Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=a18c0cde-785a-48ab-bc28-983016001257</t>
+  </si>
+  <si>
+    <t>pol.27.67</t>
+  </si>
+  <si>
+    <t>Pollack (Pollachius pollachius) in subareas 6 and 7 (Celtic Seas, English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=8e88a355-b52f-471e-bdae-f9de604096bf</t>
+  </si>
+  <si>
+    <t>pol.27.89a</t>
+  </si>
+  <si>
+    <t>Pollack (Pollachius pollachius) in Subarea 8 and in Division 9.a (Bay of Biscay, Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=7be249e1-7ca8-4e2d-876a-b5e34dc5332d</t>
+  </si>
+  <si>
+    <t>por.27.nea</t>
+  </si>
+  <si>
+    <t>Porbeagle (Lamna nasus) in subareas 1-10, 12, and 14 (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=dd3ec9eb-59a3-4f21-8704-e02b2ccc2801</t>
+  </si>
+  <si>
+    <t>pra.27.1-2</t>
+  </si>
+  <si>
+    <t>Northern shrimp (Pandalus borealis) in subareas 1 and 2 (Northeast Arctic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=e4ce80cf-fdeb-44f1-a435-0f7c1d12a545</t>
+  </si>
+  <si>
+    <t>pra.27.3a4a</t>
+  </si>
+  <si>
+    <t>Northern shrimp (Pandalus borealis) in divisions 3.a and 4.a East (Skagerrak, Kattegat, northern North Sea in the Norwegian Deep)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=332406ca-a26c-4263-a7b5-b2de24c5006b</t>
+  </si>
+  <si>
+    <t>pra.27.4a</t>
+  </si>
+  <si>
+    <t>Northern shrimp (Pandalus borealis) in Division 4.a West (northern North Sea, Fladen Ground)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=60ecbf9a-b36f-4ba9-b748-662e8b753504</t>
+  </si>
+  <si>
+    <t>raj.27.1012</t>
+  </si>
+  <si>
+    <t>Rays and skates (Rajidae) (mainly thornback ray [Raja clavata]) in subareas 10 and 12 (Azores grounds, north of Azores)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=fc9c55db-3737-4b66-ba87-0d38260bb030</t>
+  </si>
+  <si>
+    <t>raj.27.3a47d</t>
+  </si>
+  <si>
+    <t>Other rays and skates (Rajidae) in Subarea 4 and in divisions 3.a and 7.d (North Sea, Skagerrak, Kattegat, eastern English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=4cea4728-045b-4d51-9e58-f59d6629981d</t>
+  </si>
+  <si>
+    <t>raj.27.67a-ce-k</t>
+  </si>
+  <si>
+    <t>Other rays and skates (Rajiformes) in Subarea 6 and in divisions 7.a-c and 7.e-k (Rockall, West of Scotland, Celtic Sea, western English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=b13d0d3e-24be-4e3c-87ad-76d08d03bc9c</t>
+  </si>
+  <si>
+    <t>raj.27.89a</t>
+  </si>
+  <si>
+    <t>Other rays and skates (Rajidae) in Subarea 8 and in Division 9.a (Bay of Biscay, Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=4d1b0a56-a62c-4ade-b72a-5a5dacfd6cc2</t>
+  </si>
+  <si>
+    <t>reb.2127.dp</t>
+  </si>
+  <si>
+    <t>Beaked redfish (Sebastes mentella) in ICES subareas 5, 12, and 14 (Iceland and Faroe grounds, North of Azores, East of Greenland) and in NAFO subareas 1 and 2 (deep pelagic stock &gt; 500 m)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=1c20d208-5b67-4673-8415-cb5d993d65df</t>
+  </si>
+  <si>
+    <t>reb.2127.sp</t>
+  </si>
+  <si>
+    <t>Beaked redfish (Sebastes mentella) in ICES subareas 5, 12, and 14 (Iceland and Faroe grounds, North of Azores, East of Greenland) and in NAFO subareas 1 and 2 (shallow pelagic stock &lt; 500 m)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=ba579c07-f805-4696-998f-ee6ba4833039</t>
+  </si>
+  <si>
+    <t>reb.27.1-2</t>
+  </si>
+  <si>
+    <t>Beaked redfish (Sebastes mentella) in subareas 1 and 2 (Northeast Arctic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=3317b7bc-89de-49d9-8f76-aee603ce9a67</t>
+  </si>
+  <si>
+    <t>reb.27.14b</t>
+  </si>
+  <si>
+    <t>Beaked redfish  (Sebastes mentella) in Division 14.b; demersal (Southeast Greenland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=d857ade2-f7ed-4345-b7db-fd44f17e976e</t>
+  </si>
+  <si>
+    <t>reb.27.5a14</t>
+  </si>
+  <si>
+    <t>Beaked redfish  (Sebastes mentella) in Subarea 14 and in Division 5.a; Icelandic slope stock (East of Greenland, Iceland grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=27b4d4fa-9073-4736-b122-7fdf9fc370c6</t>
+  </si>
+  <si>
+    <t>reg.27.1-2</t>
+  </si>
+  <si>
+    <t>Golden redfish (Sebastes norvegicus) in subareas 1 and 2 (Northeast Arctic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=83ccab8c-bbf3-433d-834d-2ff408823b9f</t>
+  </si>
+  <si>
+    <t>reg.27.561214</t>
+  </si>
+  <si>
+    <t>Golden redfish (Sebastes norvegicus) in subareas 5, 6, 12, and 14 (Iceland and Faroes grounds, West of Scotland, North of Azores, East of Greenland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=f25d1a62-f99c-4686-a4a6-0776c2ad964a</t>
+  </si>
+  <si>
+    <t>rhg.27.nea</t>
+  </si>
+  <si>
+    <t>Roughhead grenadier (Macrourus berglax) in subareas 5-8, 10, 12, and 14 (Northeast Atlantic, Arctic Ocean)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=af1434ba-803f-4d4e-8bb7-92f08dbc05e3</t>
+  </si>
+  <si>
+    <t>rja.27.nea</t>
+  </si>
+  <si>
+    <t>White skate (Rostroraja alba) in subareas 1-10, 12, and 14 (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=3fa7c7af-6ca7-4390-9074-2fa15d3532ad</t>
+  </si>
+  <si>
+    <t>rjb.27.3a4</t>
+  </si>
+  <si>
+    <t>Common skate complex (Blue skate [Dipturus batis] and flapper skate [Dipturus intermedius]) in Subarea 4 and in Division 3.a (North Sea, Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=8d15cdc0-84d6-49ee-9b1a-62c37b5c8206</t>
+  </si>
+  <si>
+    <t>rjb.27.67a-ce-k</t>
+  </si>
+  <si>
+    <t>Common skate complex (Blue skate [Dipturus batis] and flapper skate [Dipturus intermedius]) in Subarea 6 and in divisions 7.a-c and 7.e-k (Celtic Seas and western English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=72595996-83d1-4fca-b4ff-2d29db1e2ba7</t>
+  </si>
+  <si>
+    <t>rjb.27.89a</t>
+  </si>
+  <si>
+    <t>Common skate complex (Blue skate (Dipturus batis) and flapper skate (Dipturus intermedius) in Subarea 8 and in Division 9.a (Bay of Biscay and Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=c30ca050-0070-4226-a275-2e8fb8de10df</t>
+  </si>
+  <si>
+    <t>rjc.27.3a47d</t>
+  </si>
+  <si>
+    <t>Thornback ray (Raja clavata) in Subarea 4 and in divisions 3.a and 7.d (North Sea, Skagerrak, Kattegat, and eastern English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=ce9273b8-8b84-47bc-908d-72b95e8cea81</t>
+  </si>
+  <si>
+    <t>rjc.27.6</t>
+  </si>
+  <si>
+    <t>Thornback ray (Raja clavata) in Subarea 6 (West of Scotland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=202bead9-5851-4031-89fc-53764d2c09c6</t>
+  </si>
+  <si>
+    <t>rjc.27.7afg</t>
+  </si>
+  <si>
+    <t>Thornback ray (Raja clavata) in divisions 7.a, 7.f, and 7.g (Irish Sea, Bristol Channel, Celtic Sea North)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=4803c938-2922-4f2e-a45e-f5486b407c9c</t>
+  </si>
+  <si>
+    <t>rjc.27.7e</t>
+  </si>
+  <si>
+    <t>Thornback ray (Raja clavata) in Division 7.e (western English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=1929b12f-593b-41f0-a7e7-c2616826ff30</t>
+  </si>
+  <si>
+    <t>rjc.27.8abd</t>
+  </si>
+  <si>
+    <t>Thornback ray (Raja clavata) in divisions 8.a, 8.b, and 8.d (Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=ef71cf54-6c99-4d88-8386-c96cd0bf209a</t>
+  </si>
+  <si>
+    <t>rjc.27.8c</t>
+  </si>
+  <si>
+    <t>Thornback ray (Raja clavata) in Division 8.c (Cantabrian Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=64e31421-8d9d-4f28-bbf3-9824a84d3582</t>
+  </si>
+  <si>
+    <t>rjc.27.9a</t>
+  </si>
+  <si>
+    <t>Thornback ray (Raja clavata) in Division 9.a (Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=7174f8b3-d4c6-498e-ad87-23f6d5313f4c</t>
+  </si>
+  <si>
+    <t>rje.27.7de</t>
+  </si>
+  <si>
+    <t>Small-eyed ray (Raja microocellata) in divisions 7.d and 7.e (English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=9fa54530-8783-491b-bcd7-b6c2bfaa0833</t>
+  </si>
+  <si>
+    <t>rje.27.7fg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small-eyed ray (Raja microocellata) in divisions 7.f and 7.g (Bristol Channel, Celtic Sea North) </t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=15e2a952-2c27-4938-a2c4-1096eb22aa87</t>
+  </si>
+  <si>
+    <t>rjf.27.67</t>
+  </si>
+  <si>
+    <t>Shagreen ray (Leucoraja fullonica) in subareas 6 and 7 (West of Scotland, southern Celtic Seas, English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=6c761444-6408-4277-80ed-cf40f7e76780</t>
+  </si>
+  <si>
+    <t>rjh.27.4a6</t>
+  </si>
+  <si>
+    <t>Blonde ray (Raja brachyura) in Subarea 6 and in Division 4.a (North Sea, West of Scotland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=829af961-d762-460b-92b1-165895c40c6f</t>
+  </si>
+  <si>
+    <t>rjh.27.4bc7d</t>
+  </si>
+  <si>
+    <t>Blonde ray (Raja brachyura) in divisions 4.b, 4.c and 7.d (central and southern North Sea and eastern English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=6cf1848d-0c6f-4ceb-acd8-a4af19601063</t>
+  </si>
+  <si>
+    <t>rjh.27.7afg</t>
+  </si>
+  <si>
+    <t>Blonde ray (Raja brachyura) in divisions 7.a, 7.f, and 7.g (Irish Sea, Bristol Channel, Celtic Sea North)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=10d357cf-faaf-4b65-8c43-d880ea748c0b</t>
+  </si>
+  <si>
+    <t>rjh.27.7e</t>
+  </si>
+  <si>
+    <t>Blonde ray (Raja brachyura) in Division 7.e (western English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=0f7f5b3c-e898-4fee-935b-7b6f08426830</t>
+  </si>
+  <si>
+    <t>rjh.27.9a</t>
+  </si>
+  <si>
+    <t>Blonde ray (Raja brachyura) in Division 9.a (Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=04282965-33a0-4e2b-80b5-f4e38246238a</t>
+  </si>
+  <si>
+    <t>rji.27.67</t>
+  </si>
+  <si>
+    <t>Sandy ray (Leucoraja circularis) in subareas 6 and 7 (West of Scotland, southern Celtic Seas, English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=90868d98-73ee-43eb-b754-9bce354e0d44</t>
+  </si>
+  <si>
+    <t>rjm.27.3a47d</t>
+  </si>
+  <si>
+    <t>Spotted ray (Raja montagui) in Subarea 4 and in divisions 3.a and 7.d (North Sea, Skagerrak, Kattegat, eastern English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=ef8e84bd-1688-4fa1-bf28-a24660bc7576</t>
+  </si>
+  <si>
+    <t>rjm.27.67bj</t>
+  </si>
+  <si>
+    <t>Spotted ray (Raja montagui) in Subarea 6 and in divisions 7.b and 7.j (West of Scotland, west and southwest of Ireland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=4261d27a-8bfd-4fdc-a95c-e6a79f5adca4</t>
+  </si>
+  <si>
+    <t>rjm.27.7ae-h</t>
+  </si>
+  <si>
+    <t>Spotted ray (Raja montagui) in divisions 7.a and 7.e-h (southern Celtic Seas, western English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=5f2a6035-580a-4131-a021-015a58b47598</t>
+  </si>
+  <si>
+    <t>rjm.27.8</t>
+  </si>
+  <si>
+    <t>Spotted ray (Raja montagui) in  Subarea 8 (Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=71656d35-08a1-440c-b53a-93fb9d8aae40</t>
+  </si>
+  <si>
+    <t>rjm.27.9a</t>
+  </si>
+  <si>
+    <t>Spotted ray (Raja montagui) in Division 9.a (Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=966548dc-4990-4db7-8e3c-5a9b77b0021a</t>
+  </si>
+  <si>
+    <t>rjn.27.3a4</t>
+  </si>
+  <si>
+    <t>Cuckoo ray (Leucoraja naevus) in Subarea 4 and in Division 3.a (North Sea, Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=23205f40-f4f7-4f6d-b0f5-5dcecd2bcf1d</t>
+  </si>
+  <si>
+    <t>rjn.27.678abd</t>
+  </si>
+  <si>
+    <t>Cuckoo ray (Leucoraja naevus) in subareas 6 and 7 and in divisions 8.a, 8.b, and 8.d (West of Scotland, southern Celtic Seas, western English Channel, Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=fac25171-8917-40db-942a-3bd0002de172</t>
+  </si>
+  <si>
+    <t>rjn.27.8c</t>
+  </si>
+  <si>
+    <t>Cuckoo ray (Leucoraja naevus) in Division 8.c (Cantabrian Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=9c519710-0589-425f-8d76-4aa8d390ca5d</t>
+  </si>
+  <si>
+    <t>rjn.27.9a</t>
+  </si>
+  <si>
+    <t>Cuckoo ray (Leucoraja naevus) in Division 9.a (Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=49c58d8e-b97c-4c01-a1bd-866a9b80d12b</t>
+  </si>
+  <si>
+    <t>rjr.27.23a4</t>
+  </si>
+  <si>
+    <t>Starry ray (Amblyraja radiata) in subareas 2 and 4 and in Division 3.a (Norwegian Sea, North Sea, Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=8edaefa9-76be-4830-a8cb-215e3a0acc06</t>
+  </si>
+  <si>
+    <t>rju.27.7bj</t>
+  </si>
+  <si>
+    <t>Undulate ray (Raja undulata) in divisions 7.b and 7.j (west and southwest of Ireland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=aaf221bd-1bbe-4370-9118-a65e974f8419</t>
+  </si>
+  <si>
+    <t>rju.27.7de</t>
+  </si>
+  <si>
+    <t>Undulate ray (Raja undulata) in divisions 7.d and 7.e (English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=f537ae15-f486-4bb8-b198-a470c900d862</t>
+  </si>
+  <si>
+    <t>rju.27.8ab</t>
+  </si>
+  <si>
+    <t>Undulate ray (Raja undulata) in divisions 8.a and 8.b (northern and central Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=e6bd73c4-8755-4f9b-b6fa-4721015a81fb</t>
+  </si>
+  <si>
+    <t>rju.27.8c</t>
+  </si>
+  <si>
+    <t>Undulate ray (Raja undulata) in Division 8.c (Cantabrian Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=1563a3eb-52f1-439a-851f-10e705236f4a</t>
+  </si>
+  <si>
+    <t>rju.27.9a</t>
+  </si>
+  <si>
+    <t>Undulate ray (Raja undulata) in Division 9.a (Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=47c153f9-1802-4363-882f-5e0d285bfaea</t>
+  </si>
+  <si>
+    <t>rng.27.1245a8914ab</t>
+  </si>
+  <si>
+    <t>Roundnose grenadier (Coryphaenoides rupestris) in subareas 1, 2, 4, 8, and 9; in Division 14.a; and in subdivisions 14.b.2 and 5.a.2 (Northeast Atlantic, Arctic Ocean)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=8b31b2f5-0ff1-4ea5-b495-ae5921316dce</t>
+  </si>
+  <si>
+    <t>rng.27.3a</t>
+  </si>
+  <si>
+    <t>Roundnose grenadier (Coryphaenoides rupestris) in Division 3.a (Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=b451f0de-37c7-4a20-8bf9-67a6a5df6a7a</t>
+  </si>
+  <si>
+    <t>rng.27.5a10b12ac14b</t>
+  </si>
+  <si>
+    <t>Roundnose grenadier (Coryphaenoides rupestris) in divisions 10.b and 12.c and in subdivisions 12.a.1, 14.b.1, and 5.a.1 (Oceanic Northeast Atlantic, northern Reykjanes Ridge)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=e0d18777-0e66-4e9c-843d-89e206cb5b71</t>
+  </si>
+  <si>
+    <t>rng.27.5b6712b</t>
+  </si>
+  <si>
+    <t>Roundnose grenadier (Coryphaenoides rupestris) in subareas 6 and 7 and in divisions 5.b and 12.b (Celtic Seas and the English Channel, Faroes grounds, western Hatton Bank)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=d91c1794-bf79-460c-b84e-d6850c07fb6d</t>
+  </si>
+  <si>
+    <t>sal.27.22-31</t>
+  </si>
+  <si>
+    <t>Salmon (Salmo salar) in subdivisions 22-31 (Baltic Sea, excluding the Gulf of Finland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=f3ec0a9b-3c4c-4ba5-9446-cf9a63264030</t>
+  </si>
+  <si>
+    <t>sal.27.32</t>
+  </si>
+  <si>
+    <t>Salmon (Salmo salar) in Subdivision 32 (Gulf of Finland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=f3e55fc2-6408-400a-b138-07a07b7df952</t>
+  </si>
+  <si>
+    <t>sal.nac.all</t>
+  </si>
+  <si>
+    <t>Salmon (Salmo salar) from North America</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=918099a3-7689-4ca7-b115-e3e68401fcda</t>
+  </si>
+  <si>
+    <t>sal.neac.all</t>
+  </si>
+  <si>
+    <t>Salmon (Salmo salar) in Northeast Atlantic and Arctic Ocean</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=a463c4dc-16e8-4c83-b952-1fb6f0e12354</t>
+  </si>
+  <si>
+    <t>sal.wgc.all</t>
+  </si>
+  <si>
+    <t>Salmon (Salmo salar) in Subarea 14 and NAFO division 1 (east and west of Greenland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=c3cf0518-bd79-42e1-8afe-1dd3e293e3dc</t>
+  </si>
+  <si>
+    <t>san.27.6a</t>
+  </si>
+  <si>
+    <t>Sandeel (Ammodytes spp.) in Division 6.a (West of Scotland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=d102f6a4-6bb5-4f48-8bc5-494b9c83d642</t>
+  </si>
+  <si>
+    <t>san.sa.1r</t>
+  </si>
+  <si>
+    <t>Sandeel (Ammodytes spp.) in divisions 4.b and 4.c, Sandeel Area 1r (central and southern North Sea, Dogger Bank)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=d5ef0d27-b4b6-4f92-8ff9-69699c458127</t>
+  </si>
+  <si>
+    <t>san.sa.2r</t>
+  </si>
+  <si>
+    <t>Sandeel (Ammodytes spp.) in divisions 4.b and 4.c and in Subdivision 20, Sandeel Area 2r (Skagerrak, central and southern North Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=f60ea23f-4f79-4bcd-a198-58b6024823e9</t>
+  </si>
+  <si>
+    <t>san.sa.3r</t>
+  </si>
+  <si>
+    <t>Sandeel (Ammodytes spp.) in divisions 4.a and 4.b and in Subdivision 20, Sandeel Area 3r (Skagerrak, northern and central North Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=617c21fc-cffa-4e09-a96c-019245c2682f</t>
+  </si>
+  <si>
+    <t>san.sa.4</t>
+  </si>
+  <si>
+    <t>Sandeel (Ammodytes spp.) in divisions 4.a and 4.b, Sandeel Area 4 (northern and central North Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=b5ce96db-c6ba-404a-9e06-0883e7d3f281</t>
+  </si>
+  <si>
+    <t>san.sa.5r</t>
+  </si>
+  <si>
+    <t>Sandeel (Ammodytes spp.) in Division 4.a, Sandeel Area 5r (northern North Sea, Viking and Bergen banks)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=1dd3c11f-554c-4678-ad30-f99009be3fab</t>
+  </si>
+  <si>
+    <t>san.sa.6</t>
+  </si>
+  <si>
+    <t>Sandeel (Ammodytes spp.) in subdivisions 20-22, Sandeel Area 6 (Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=3d42c838-4bd2-4d33-99f7-e028b9b8d6e7</t>
+  </si>
+  <si>
+    <t>san.sa.7r</t>
+  </si>
+  <si>
+    <t>Sandeel (Ammodytes spp.) in Division 4.a, Sandeel Area 7r (northern North Sea, Shetland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=251c402d-c2a3-426b-8f1b-f3cd7793d37f</t>
+  </si>
+  <si>
+    <t>sbr.27.10</t>
+  </si>
+  <si>
+    <t>Blackspot seabream (Pagellus bogaraveo) in Subarea 10 (Azores grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=a5e50011-c09b-43bd-bd6c-3191816060f8</t>
+  </si>
+  <si>
+    <t>sbr.27.6-8</t>
+  </si>
+  <si>
+    <t>Blackspot seabream (Pagellus bogaraveo) in subareas 6-8 (Celtic Seas, English Channel, Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=6c0032e3-92da-4838-8fb6-bc167fb8e825</t>
+  </si>
+  <si>
+    <t>sbr.27.9</t>
+  </si>
+  <si>
+    <t>Blackspot seabream (Pagellus bogaraveo) in Subarea 9 (Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=e469b10a-a4b8-4bbb-94b4-a933bb21893d</t>
+  </si>
+  <si>
+    <t>sck.27.nea</t>
+  </si>
+  <si>
+    <t>Kitefin shark (Dalatias licha) in subareas 1-10, 12, and 14 (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=5cf74230-b042-4c93-ba90-d28814b8230a</t>
+  </si>
+  <si>
+    <t>sdv.27.nea</t>
+  </si>
+  <si>
+    <t>Smooth-hound (Mustelus spp.) in subareas 1-10, 12, and 14 (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=39762ef5-a4e8-49d6-8d5b-47be7061d347</t>
+  </si>
+  <si>
+    <t>seh.27.1</t>
+  </si>
+  <si>
+    <t>Harp seals (Pagophilus groenlandicus) in Subarea 1 (Barents and White sea stock)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=76b636fb-73bf-4307-a79e-ab730da1ff92</t>
+  </si>
+  <si>
+    <t>seh.27.125a14</t>
+  </si>
+  <si>
+    <t>Harp seals (Pagophilus groenlandicus) in subareas 1, 2, and 14 and in Division 5.a (Greenland Sea stock)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=4b2e814d-2801-48ed-80ca-44639391a745</t>
+  </si>
+  <si>
+    <t>sez.27.2514</t>
+  </si>
+  <si>
+    <t>Hooded seals (Cystophora cristata) in subareas 2, 5, and 14 (Greenland Sea stock)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=465dbad7-b0aa-46de-a22f-fd33ebc53122</t>
+  </si>
+  <si>
+    <t>sho.27.67</t>
+  </si>
+  <si>
+    <t>Black-mouth dogfish (Galeus melastomus) in subareas 6 and 7 (West of Scotland, southern Celtic Seas, English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=d0593400-5a19-45d0-947d-79ccdd50214a</t>
+  </si>
+  <si>
+    <t>sho.27.89a</t>
+  </si>
+  <si>
+    <t>Black-mouth dogfish (Galeus melastomus) in Subarea 8 and in Division 9.a (Bay of Biscay, Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=53c749d9-daca-4a22-bae3-f95f0addfc7c</t>
+  </si>
+  <si>
+    <t>sol.27.20-24</t>
+  </si>
+  <si>
+    <t>Sole (Solea solea) in subdivisions 20-24 (Skagerrak, Kattegat, western Baltic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=7690517d-80de-444c-a6e1-aa74118536da</t>
+  </si>
+  <si>
+    <t>sol.27.4</t>
+  </si>
+  <si>
+    <t>Sole (Solea solea) in Subarea 4 (North Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=e88e9228-40cc-4cf3-9aa0-cdac2a95b43e</t>
+  </si>
+  <si>
+    <t>sol.27.7a</t>
+  </si>
+  <si>
+    <t>Sole (Solea solea) in Division 7.a (Irish Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=b650ba7a-99a8-44b3-b587-1ae13dd8b508</t>
+  </si>
+  <si>
+    <t>sol.27.7bc</t>
+  </si>
+  <si>
+    <t>Sole (Solea solea) in divisions 7.b and 7.c (West of Ireland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=7d02c7f4-2649-4687-a381-b6ecf68f86db</t>
+  </si>
+  <si>
+    <t>sol.27.7d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sole (Solea solea) in Division 7.d (eastern English Channel) </t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=1bbee808-2931-4529-999a-4de2bd123a1c</t>
+  </si>
+  <si>
+    <t>sol.27.7e</t>
+  </si>
+  <si>
+    <t>Sole (Solea solea) in Division 7.e (western English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=2f1d7623-10d1-4feb-8e7c-2532d6ed311a</t>
+  </si>
+  <si>
+    <t>sol.27.7fg</t>
+  </si>
+  <si>
+    <t>Sole (Solea solea) in divisions 7.f and 7.g (Bristol Channel, Celtic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=fada1022-453e-4804-bd22-fe4379c253ae</t>
+  </si>
+  <si>
+    <t>sol.27.7h-k</t>
+  </si>
+  <si>
+    <t>Sole (Solea solea) in divisions 7.h-k (Celtic Sea South, southwest of Ireland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=08258d8e-eda4-4446-9f0b-1fcb408916c7</t>
+  </si>
+  <si>
+    <t>sol.27.8ab</t>
+  </si>
+  <si>
+    <t>Sole (Solea solea) in divisions 8.a and 8.b (northern and central Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=547a2a19-6d8a-4b87-9a3b-277e483e657d</t>
+  </si>
+  <si>
+    <t>sol.27.8c9a</t>
+  </si>
+  <si>
+    <t>Sole (Solea solea) in divisions 8.c and 9.a (Cantabrian Sea, Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=85ceae2e-124b-4bff-ba1b-c1227ede3e2e</t>
+  </si>
+  <si>
+    <t>spr.27.22-32</t>
+  </si>
+  <si>
+    <t>Sprat (Sprattus sprattus) in subdivisions 22-32 (Baltic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=7c71a1bc-92e3-4bd1-9554-bcbfb3542318</t>
+  </si>
+  <si>
+    <t>spr.27.3a4</t>
+  </si>
+  <si>
+    <t>Sprat (Sprattus sprattus) in Division 3.a and Subarea 4 (Skagerrak, Kattegat, North Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=413cb5b4-34df-4a2c-98ac-be2008c6a99b</t>
+  </si>
+  <si>
+    <t>spr.27.67a-cf-k</t>
+  </si>
+  <si>
+    <t>Sprat (Sprattus sprattus) in Subarea 6 and in divisions 7.a-c and 7.f-k (West of Scotland, southern Celtic Seas)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=817fcccc-ef09-491c-b533-1a2043282239</t>
+  </si>
+  <si>
+    <t>spr.27.7de</t>
+  </si>
+  <si>
+    <t>Sprat (Sprattus sprattus) in divisions 7.d and 7.e (English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=bde40c6f-d8ef-4bd1-b5cc-8b2e56920a4e</t>
+  </si>
+  <si>
+    <t>syc.27.3a47d</t>
+  </si>
+  <si>
+    <t>Lesser spotted dogfish (Scyliorhinus canicula) in Subarea 4 and in divisions 3.a and 7.d (North Sea, Skagerrak, Kattegat, eastern English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=9075ef7d-f21f-46c7-ae72-c379caf9098d</t>
+  </si>
+  <si>
+    <t>syc.27.67a-ce-j</t>
+  </si>
+  <si>
+    <t>Lesser spotted dogfish (Scyliorhinus canicula) in Subarea 6 and in divisions 7.a-c and 7.e-j  (West of Scotland, Irish Sea, southern Celtic Seas)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=03c0fee0-fa0d-4339-a85a-7a29b52db1c2</t>
+  </si>
+  <si>
+    <t>syc.27.8abd</t>
+  </si>
+  <si>
+    <t>Lesser spotted dogfish (Scyliorhinus canicula) in divisions 8.a, 8.b, and 8.d (Bay of Biscay)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=717a9d04-4707-43ad-8a12-be01421e668a</t>
+  </si>
+  <si>
+    <t>syc.27.8c9a</t>
+  </si>
+  <si>
+    <t>Lesser spotted dogfish (Scyliorhinus canicula) in divisions 8.c and 9.a (Cantabrian Sea, Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=bf0144ce-ca6e-4c35-a580-6e8a70736746</t>
+  </si>
+  <si>
+    <t>syt.27.67</t>
+  </si>
+  <si>
+    <t>Greater-spotted dogfish (Scyliorhinus stellaris) in subareas 6 and 7 (West of Scotland, southern Celtic Sea, English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=1311dd4d-06b3-40f9-bb33-de7e2b4e3e23</t>
+  </si>
+  <si>
+    <t>thr.27.nea</t>
+  </si>
+  <si>
+    <t>Thresher sharks (Alopias spp.) in subareas 10 and 12; in divisions 7.c-k, 8.d, and 8.e; and in subdivisions 5.b.1, 9.b.1, and 14.b.1 (Northeast Atlantic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=2a22bae9-e9e1-4a41-8ea4-7d33f26616e4</t>
+  </si>
+  <si>
+    <t>trs.27.22-32</t>
+  </si>
+  <si>
+    <t>Sea trout (Salmo trutta) in subdivisions 22-32 (Baltic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=6d6b5f77-37e1-49af-b125-6e1ecf282c7a</t>
+  </si>
+  <si>
+    <t>tsu.27.nea</t>
+  </si>
+  <si>
+    <t>Roughsnout grenadier (Trachyrincus scabrus) in subareas 1, 2, 4-8, 10, 12, and 14 and in Division 3a (Northeast Atlantic, Arctic Ocean)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=0127b885-504c-4d80-a38c-74990a6897e7</t>
+  </si>
+  <si>
+    <t>tur.27.22-32</t>
+  </si>
+  <si>
+    <t>Turbot (Scophthalmus maximus) in subdivisions 22-32 (Baltic Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=b221158f-979b-4fd9-a808-326cfc5571a6</t>
+  </si>
+  <si>
+    <t>tur.27.3a</t>
+  </si>
+  <si>
+    <t>Turbot (Scophthalmus maximus) in Division 3.a (Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=e70eccf3-9840-4dcf-a1bd-074ebc4c9c77</t>
+  </si>
+  <si>
+    <t>tur.27.4</t>
+  </si>
+  <si>
+    <t>Turbot (Scophthalmus maximus) in Subarea 4 (North Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=c79e0976-9291-4642-a200-1869d14705cb</t>
+  </si>
+  <si>
+    <t>usk.27.1-2</t>
+  </si>
+  <si>
+    <t>Tusk (Brosme brosme) in subareas 1 and 2 (Northeast Arctic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=74469f87-b4f0-45d8-8453-095618d41aad</t>
+  </si>
+  <si>
+    <t>usk.27.12ac</t>
+  </si>
+  <si>
+    <t>Tusk (Brosme brosme) in Subarea 12, excluding Division 12.b (southern Mid-Atlantic Ridge)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=6c657200-6927-4065-8500-5eb0f7923acc</t>
+  </si>
+  <si>
+    <t>usk.27.3a45b6a7-912b</t>
+  </si>
+  <si>
+    <t>Tusk (Brosme brosme) in subareas 4 and 7-9 and in divisions 3.a, 5.b, 6.a, and 12.b (Northeast Atlantic)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=d384b29b-1112-4cac-92b9-fec68bf838ad</t>
+  </si>
+  <si>
+    <t>usk.27.5a14</t>
+  </si>
+  <si>
+    <t>Tusk (Brosme brosme) in Subarea 14 and in Division 5.a (East Greenland, Iceland grounds)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=1d2113ae-2e9c-4e88-8e88-c9cd57e74783</t>
+  </si>
+  <si>
+    <t>usk.27.6b</t>
+  </si>
+  <si>
+    <t>Tusk (Brosme brosme) in Division 6.b (Rockall)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=6d910d97-6c69-421b-aa2b-72c2b54c1257</t>
+  </si>
+  <si>
+    <t>whb.27.1-91214</t>
+  </si>
+  <si>
+    <t>Blue whiting (Micromesistius poutassou) in subareas 1-9, 12, and 14 (Northeast Atlantic and adjacent waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=9dc7c88e-67f0-45ef-9c1c-c923d72438ca</t>
+  </si>
+  <si>
+    <t>whg.27.3a</t>
+  </si>
+  <si>
+    <t>Whiting (Merlangius merlangus) in Division 3.a (Skagerrak, Kattegat)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=604cbf4b-b5ce-48f4-9784-ceb51fa143fc</t>
+  </si>
+  <si>
+    <t>whg.27.47d</t>
+  </si>
+  <si>
+    <t>Whiting (Merlangius merlangus) in Subarea 4 and in Division 7.d (North Sea, eastern English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=d5620913-3cb1-4caf-b7aa-77ad6eeba671</t>
+  </si>
+  <si>
+    <t>whg.27.6a</t>
+  </si>
+  <si>
+    <t>Whiting (Merlangius merlangus) in Division 6.a (West of Scotland)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=a56bff75-158e-4d9c-b829-054c8a3fa06c</t>
+  </si>
+  <si>
+    <t>whg.27.6b</t>
+  </si>
+  <si>
+    <t>Whiting (Merlangius merlangus) in Division 6.b (Rockall)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=b722b65d-04a4-4c27-9b56-0bd557f7a42b</t>
+  </si>
+  <si>
+    <t>whg.27.7a</t>
+  </si>
+  <si>
+    <t>Whiting (Merlangius merlangus) in Division 7.a (Irish Sea)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=a2707545-b75f-4d87-9fd8-662287a587a3</t>
+  </si>
+  <si>
+    <t>whg.27.7b-ce-k</t>
+  </si>
+  <si>
+    <t>Whiting (Merlangius merlangus) in divisions 7.b, 7.c, and 7.e-k (southern Celtic Seas, eastern English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=f32e60e7-58f5-463b-a465-21efe58bd128</t>
+  </si>
+  <si>
+    <t>whg.27.89a</t>
+  </si>
+  <si>
+    <t>Whiting (Merlangius merlangus) in Subarea 8 and in Division 9.a (Bay of Biscay, Atlantic Iberian waters)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=026abfa6-1692-4f44-9b2d-f96754c43d3d</t>
+  </si>
+  <si>
+    <t>wit.27.3a47d</t>
+  </si>
+  <si>
+    <t>Witch (Glyptocephalus cynoglossus) in Subarea 4 and in divisions 3.a and 7.d (North Sea, Skagerrak, Kattegat, eastern English Channel)</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?codeguid=ff2b9422-6683-43be-af1c-3c99ed5e5179</t>
+  </si>
+  <si>
+    <t>key_signals</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; Fourteen nations currently have fisheries targeting the many marine stocks in the ecoregion. These include (by decreasing order of contribution to total landings in the ecoregion): Scotland, Ireland, Denmark, the Netherlands, France, England, Germany, Poland, Northern Ireland, Lithuania, Spain, Belgium Wales and Sweden.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
+There were 309 French vessels with landings in the ecoregion. The number of vessels has decreased from 362 in 2021 to 309 in 2024. The number of French vessels with 80% of their landings in the Celtic Seas ecoregion in 2024 was 94. Of these, 11 were &lt;12m, 28 were 12-24m, 49 were 24-40m and 6 were &gt; 40m. The main species landed by volume are hake, anglerfish, blue whiting, saithe and mackerel. In terms of landings value, the main species   are anglerfish, hake, saithe, john dory and albacore. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Ireland&lt;/b&gt;&lt;br&gt;
+There were 1 287 Irish vessels with landings in the ecoregion. The number of vessels has decreased from 1 313 in 2021 to 1 287 in 2024. The number of Irish vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 1 274. Of these, 1 078 were &lt;12m, 118 were 12-24m, 58 were 24-40m and 20 were &gt; 40m. The main species landed by volume are mackerel, blue whiting, horse mackerel, sprat and nephrops. In terms of landings value, the main species are nephrops , mackerel, blue whiting, brown crab and horse mackerel. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;United Kingdom&lt;/b&gt;&lt;br&gt;
+&lt;b&gt;Scotland&lt;/b&gt;&lt;br&gt;
+There were 1 026 Scottish vessels with landings in the ecoregion. The number of vessels has decreased from 1 173 in 2021 to 1 026 in 2024. The number of Scottish vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 589. Of these, 472 were &lt;12m, 90 were 12-24m, 23 were 24-40m and 4 were &gt; 40m. The main species landed by volume are mackerel, blue whiting, herring, haddock and Nephrops. In terms of value, the main species are mackerel, Nephrops, anglerfish, herring and haddock. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Northern Ireland&lt;/b&gt;&lt;br&gt;
+There were 180 Northern Ireland vessels with landings in the ecoregion. The number of vessels has decreased from 236 in 2021 to 180 in 2024. The number of Northern Ireland vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 120. Of these, 63 were &lt;12m, 52 were 12 - 24m, 4 were 24-40m and 1 was &gt; 40m. The main species landed by volume are mackerel, herring, Nephrops, brown crab and horse mackerel. In terms of value, the main species are Nephrops, mackerel, herring, brown crab and scallops. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;England and Wales&lt;/b&gt;&lt;br&gt;
+There were 860 English vessels with landings in the ecoregion. The number of vessels has decreased from 924 in 2021 to 860 in 2024. The number of English vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 506. Of these, 384 were &lt;12m, 88 were 12 – 24m, 33 were 24 – 40m and 1 was &gt;40m. The main species landed by volume are mackerel, blue whiting, pilchard, anglerfish and brown crab. In terms of value, the main species are anglerfish, sole, brown crab, lobster and hake. &lt;br&gt;&lt;br&gt;
+There were 227 Welsh vessels with landings in the ecoregion. The number of vessels has decreased from 250 in 2021 to 227 in 2024. The number of Welsh vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 165. Of these, 155 were &lt;12m, 8 were 12 - 24m, 2 were 24 – 40m and 0 were &gt; 40m. The main species landed by volume are whelk, anglerfish, scallop, megrim and brown crab. In terms of value, the main species are whelk, lobster, anglerfish, seabass and brown crab. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
+There were 146 Spanish vessels with landings in the ecoregion. The number of vessels has increased from 79 in 2021 to 146 in 2024. The number of Spanish vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 32. Of these, 0 were &lt;12m, 0 were 12 - 24m, 32 were 24 – 40m and 0 were &gt; 40m. The main species landed by volume are hake, megrim, ling, blue shark and witch. In terms of value, the main species are hake, megrim, Nephrops, ling and greater forkbeard. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Other&lt;/b&gt;&lt;br&gt;
+About 60 Norwegian vessels operate in this ecoregion. Pelagic trawlers mainly target blue whiting but also target other pelagic species. There is also a demersal longline fishery that mainly targets ling and blue ling. &lt;br&gt;&lt;br&gt;
+The Belgian fleet consists of about 65 active vessels, of which about 21 operate in the Irish Sea. The majority (89%) of the vessels operating in the Irish Sea are between 24 and 40 m, while the remainder of the vessels are between 18 and 24 m. The Belgian fleet uses beam trawls and otter trawls for rays, plaice, sole, and anglerfish. &lt;br&gt;&lt;br&gt;
+Seven German vessels operate in the Celtic Seas, one of which takes 80% of their catch in the ecoregion. This includes vessels that mainly target anglerfish and hake with gillnets and longline, as well as freezer trawlers that target blue whiting, horse mackerel and mackerel. &lt;br&gt;&lt;br&gt;
+One large (&gt; 40 m) Lithuanian freezer trawler targets pelagic species in the ecoregion. &lt;br&gt;&lt;br&gt;
+There are 16 large Dutch pelagic freezer trawlers operating in the ecoregion, mainly targeting blue whiting, horse mackerel and mackerel. &lt;br&gt;&lt;br&gt;
+The Danish fleet consist of sixteen vessels, one of which has more than 80% of their landings in the Celtic seas. Blue whiting is the main species for the fleet by weight and mackerel is the main species by value. &lt;br&gt;&lt;br&gt;
+Vessels from the Faroe Islands also operate in this ecoregion, targeting blue whiting with pelagic trawls. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Recreational fisheries&lt;/b&gt;&lt;br&gt;
+Recreational fishing is an important activity in the Celtic Sea that harvests a diverse range of species from a variety of platforms (e.g. shore, boat, charters) using many gears (e.g. rod and line, speargun, nets, pots, traps). The main countries with recreational fisheries are UK and Ireland, where no licence is required. Angling from shore and boat is the most popular method, with a number of charter boats offering trips. Catches can be significant, representing around 46% and 67% of total removals sea bass, and Pollack, respectively, according to the latest ICES advice. The main target species include mackerel, pollack, sea bass, saithe, cod, spurdog (Squalus acanthias), flatfish (plaice, dab, flounder, sole), sea bream, wrasse, and whiting. Recreational fisheries data is included in the pollack and seabass stock assessments in the ecoregion. Sharks, skates, rays, shellfish, crustaceans, and cephalopods are also caught by recreational fishers</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;Vessel numbers have declined across the majority of the countries fishing in the ecoregion in the past decade.&lt;/li&gt;
+  &lt;li&gt;Total landings fluctuated around 1 million tonnes between 2014 and 2020, and have been lower, at 0.77–0.92 million tonnes, in 2021–2023. Pelagic fisheries continue to dominate landings by volume in the ecoregion.&lt;/li&gt;
+  &lt;li&gt;Discard rates of elasmobranch stocks are high (&amp;gt; 30%) in the ecoregion. Discard rates of other stocks remain stable.&lt;/li&gt;
+  &lt;li&gt;Average fishing mortalities have generally declined since the mid-1990s for stocks within the benthic, demersal and elasmobranch guilds. However, some stocks continue to be fished above FMSY, including mackerel and blue whiting in the pelagic guild.&lt;/li&gt;
+  &lt;li&gt;On average, the spawning stock size in all guilds is currently above the target (SSB/MSY Btrigger &amp;gt; 1), although some of the stocks including mackerel and gadoids in the Celtic Sea (cod, haddock and whiting) remain below target.&lt;/li&gt;
+  &lt;li&gt;Changes in species interactions, diets and fish distributions are affecting stock abundances and fisheries in the Celtic Sea.&lt;/li&gt;
+  &lt;li&gt;&lt;strong&gt;In relation to mixed fisheries:&lt;/strong&gt;&lt;/li&gt;
+  &lt;li&gt;Landings shares for individual stocks are dominated by demersal trawl métiers (demersal fish or Nephrops) and beam trawl métiers (benthic flatfish and skates and rays), though longlines and gillnets have a significant landing share for some stocks in the Celtic Sea (e.g. hake and ling), as do pots in the West of Scotland (Nephrops).&lt;/li&gt;
+  &lt;li&gt;Fleet landings compositions in the Celtic Sea have remained relatively stable since 2015, with some trends over time in some fleets towards dominant stocks. There can be significant differences in landings composition between gear type and country within the same gear type, reflecting different targeting and gear efficiencies.&lt;/li&gt;
+  &lt;li&gt;Annual mixed fisheries forecasts indicate that most fleets are limited by the zero catch advice for cod, haddock and whiting in the Celtic Sea. No forecasts are available for the Irish Sea or the West of Scotland.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Supporting data used in the Celtic Seas fisheries overview is accessible at  &lt;a href="https://doi.org/10.17895/ices.advice.27879936" target="_blank"&gt;ICES Library&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;  The Celtic Seas ecoregion covers the northwestern shelf seas of Europe (Figure 1). It includes areas of the deeper eastern Atlantic Ocean and coastal seas that are heavily influenced by oceanic inputs. The ecoregion ranges from north of Shetland to Brittany in the south. Three key areas constitute this ecoregion: &lt;br&gt;&lt;br&gt;
+&lt;ol style="font-size: 14px"&gt;
+&lt;li style="font-size: 14px"&gt;northern parts: the Malin shelf, west of Scotland, eastern Rockall Bank, and north of Scotland (parts of Subdivision 2.a.2, divisions 4.a and 6.a, and Subdivision 6.b.2); &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;the Celtic Sea(*), Bristol Channel, Western English Channel, southwest and west of Ireland (Division 7.b and Subdivision 7.c.2; parts of divisions 7.e, 7.f, 7.g, 7.h, and subdivisions 7.j.2 and 7.k.2); &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li style="font-size: 14px"&gt;the Irish Sea (Division 7.a). &lt;/li&gt;&lt;br&gt;&lt;br&gt;
+In the north, there are strong links with the North Sea; in the southeast, a strong link with the channel area; and in the south a strong link with the Bay of Biscay. The eastern part of the Rockall Bank is within the geographic scope of the ecoregion, although it is separated from the western European shelf by the Rockall Trough. &lt;br&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in the Stock Status Lookup. &lt;br&gt;&lt;br&gt;
+The overview covers ICES subareas 27.7 (excluding Division 27.7.d) and 27.6, (hereafter, the “27” area prefixes are omitted). Some fisheries statistics do not allow the full differentiation of sections of subareas 4 and 2 or (in earlier years) western sections of subareas 6 and 7, as well as the southeastern section of Division 7.e. &lt;br&gt;&lt;br&gt; 
+&lt;br&gt;    (*) Throughout this document ‘Celtic Seas’ refers to the ecoregion and ‘Celtic Sea’ refers to this southern area</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;Greenland has the largest number of active vessels in both demersal and pelagic fisheries in the ecoregion, but the number has decreased since 2020 because of the pelagic fleet moving to other areas.&lt;/li&gt;
+  &lt;li&gt;Landings of pelagic species (mackerel and herring) have in the recent period been close to zero because of low abundance in the ecoregion.&lt;/li&gt;
+  &lt;li&gt;Landings of cod have increased markedly in the last decade.&lt;/li&gt;
+  &lt;li&gt;For Greenland halibut, the average fishing mortality has greatly exceeded FMSY in the past years, and biomass is below MSY Btrigger for all but one stock.&lt;/li&gt;
+  &lt;li&gt;For golden redfish, fishing mortality has decreased over two decades and is now far below FMSY.&lt;/li&gt;
+  &lt;li&gt;Tusk fishing mortality has dropped over the last decade and is now below FMSY.&lt;/li&gt;
+  &lt;li&gt;There are potential impacts of demersal fishing on benthic habitats as fishing activity and sensitive habitats show spatial overlap.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;Fisheries management measures for major stocks (e.g. cod, haddock, saithe, and herring) have resulted in decreased fishing pressure – close to or at F&lt;sub&gt;MSY&lt;/sub&gt; or HR&lt;sub&gt;MSY&lt;/sub&gt; – and increased SSBs for the past two decades.&lt;/li&gt;
+  &lt;li&gt;There has been an overall reduction in fishing effort since 1991 for all fisheries – except those using handlines, where it has increased. The decrease in trawl effort is likely to have reduced pressure on benthic habitats.&lt;/li&gt;
+  &lt;li&gt;Three pelagic fisheries have seen increased effort and landings due to changes in migration patterns linked to prey availability, oceanographic conditions, and stock abundance: a blue whiting fishery (starting in the late 1990s), the Atlantic mackerel fishery (commencing mid-2000s), and the Norwegian spring-spawning herring fishery (recommencing at the turn of the century).&lt;/li&gt;
+  &lt;li&gt;Fishing grounds of several species (e.g. haddock, anglerfish, ling, lemon sole, and witch) have expanded to the northern part of the ecoregion due to species redistribution associated with increased water temperature.&lt;/li&gt;
+  &lt;li&gt;Several species—including Atlantic halibut, spotted wolfish, Norway lobster, and northern shrimp—have shown substantial decreases in stock sizes due to factors such as high fishing pressure and reduced productivity. Directed fisheries for Atlantic halibut and Norway lobster are currently prohibited.&lt;/li&gt;
+  &lt;li&gt;Legislation to recommence hunting of fin and minke whales was passed in 2009. However, catches are not made every year.&lt;/li&gt;
+  &lt;li&gt;The highest cumulative multiannual bycatch rate of protected, endangered, and threatened species was recorded in set gillnets. At species level, the highest seabird bycatch rates were for guillemot and common eider, and the highest marine mammal bycatch rates for harbour porpoise and harbour seal. The estimated annual seabird bycatch in the gillnet lumpfish fishery has decreased in recent years, though the driver is unclear.&lt;/li&gt;
+  &lt;li&gt;The summer feeding grounds of capelin have shifted from the Icelandic Waters ecoregion to the Greenland Sea ecoregion. While this does not directly affect the Icelandic winter capelin fishery, it may indirectly influence the distribution and growth of predator stocks on which other fisheries depend.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+  Supporting data used in the Icelandic Waters overview is accessible at:  
+  &lt;a href="https://doi.org/10.17895/ices.advice.27879909" target="_blank"&gt;ICES Library&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Main patterns and Trends: &lt;br&gt;&lt;br&gt;
+Pelagic fisheries dominate landings (by volume) in the ecoregion. Blue whiting constitutes the highest proportion of pelagic landings, followed by mackerel. &lt;br&gt;&lt;br&gt;
+Pelagic landings peaked in 1998 and in 2018 and ranged from [534] to [835] thousand tonnes in 2019-2023. &lt;br&gt;&lt;br&gt; 
+Annual mackerel landings have been below 200 thousand tonnes since 2018. Landings of herring and horse mackerel have been declining since the mid/late 1990s. &lt;br&gt;&lt;br&gt;
+Demersal fisheries landings peaked in 1989 and have been generally decreasing since. &lt;br&gt;&lt;br&gt;
+Hake accounts for most demersal landings since 2011, followed by haddock and whiting. The relative importance of cod, saithe and ling to demersal landings has been declining since the late 1980s. &lt;br&gt;&lt;br&gt;
+Shellfish landings are dominated by Nephrops and have remained relatively stable in the last few decades, although generally lower since 2018. &lt;br&gt;&lt;br&gt;
+Benthic landings have been generally stable since the late 1980s and higher since 2016. Anglerfish and megrim account for most benthic landings in the ecoregion &lt;br&gt;&lt;br&gt;
+Landings of elasmobranchs have been variable over time although relatively stable at lower values since 2009. Since 2010, the cuckoo ray, small-spotted catshark, thornback ray and blonde ray account for most landings of elasmobranchs in the ecoregion.&lt;br&gt;&lt;br&gt;
+The UK generally accounts for most fisheries landings in the ecoregion, followed by Ireland. Norwegian landings were highest in 2018-2020. &lt;br&gt;&lt;br&gt;
+&lt;br&gt;
+Otter trawling and seining is the dominant fishing effort, though has decline significantly over the time-series. Fishing effort by most other gears have also declined over the period, though more recently there has been a small increase in beam trawling (Figure 4). There are fluctuations in pelagic landings (Figure 5). Landings by demersal otter trawls, beam trawlers, pots, and static gears (mostly gillnet) have been relatively stable.</t>
+  </si>
+  <si>
+    <t>The average discard rate among pelagic stocks is estimated to be very low. &lt;br&gt;&lt;br&gt;
+The estimated average discard rate for elasmobranchs stocks is high and ranges 30% to 75%. &lt;br&gt;&lt;br&gt;
+The average discard rate among demersal stocks ranges from 9% to 22% and is generally around 15%. &lt;br&gt;&lt;br&gt;
+Crustacean and benthic stocks have an estimated average discard rate of around 10%. &lt;br&gt;&lt;br&gt;
+&lt;br&gt;
+Discard rates for some species are very high in the ecoregion, for example plaice (around 60% of tonnage) and whiting (50–99% of tonnage).</t>
+  </si>
+  <si>
+    <t>ICES currently provides advice for [112] stocks in the Celtic Seas ecoregion. Of these, 9 (8 %) benthic, 7 (6.2 %) pelagic, 10 (8.9 %) shellfish (Nephrops), 1 (0.8 %) elasmobranch, and 17 (15.2 %) demersal stocks have an ICES category 1 quantitative stock assessments. Demersal stocks include the 3 sub-stocks of cod.27.46a7d20 (Northwestern, Viking and Southern). Stock status is evaluated in terms of fishing mortality (F) and spawning stock biomass (SSB) levels relative to the maximum sustainable yield (MSY) target (F &lt; Fmsy and SSB &gt; MSY Btrigger) and precautionary approach (PA) reference points (F &lt; Fpa and SSB &gt; Bpa). &lt;br&gt;&lt;br&gt;
+&lt;br&gt;
+In 2024, 39 (34.8%) of the assessed stocks are fished at or below FMSY target levels, and 41 (36.6%) have a stock size equal to or above MSY Btrigger. These stocks account for 66.5% of total landings over the assessment area, which extends beyond the ecoregion. 24 (21.4%) of the assessed stocks are currently fished above FMSY and account for 90% of total landings over the assessment area. &lt;br&gt;&lt;br&gt;
+&lt;br&gt;
+Assessed stocks with unknown status relative to MSY and Bpa represent 43% and 68%, respectively, of the stocks in the ecoregion. Stocks with unknown status relative to MSY account for 1.5% of total landings (although the assessment area for some stocks extends beyond the ecoregion). &lt;br&gt;&lt;br&gt;
+On average, the spawning stock size in all guilds is currently above the target (SSB/MSY Btrigger &gt; 1), although it ranges from 3.2 to 1.3 among stocks. Fishing pressure for the elasmobranch, benthic, shellfish and pelagic guilds on average is currently below target (F/Fmsy &lt; 1) (range from 0.5 to 0.89 among stocks), while demersal species are fished above target (F/Fmsy &gt; 1) (1.3). &lt;br&gt;&lt;br&gt;
+&lt;br&gt;
+For the elasmobranch guild, the mean F/Fmsy ratio has declined since the 1990s and is currently below one. The mean SSB/MSY Btrigger ratio has increased since the 1980s and is currently above one. &lt;br&gt;&lt;br&gt;
+&lt;br&gt;
+For the benthic guild, the mean F/Fmsy ratio has declined since the mid-1990s and is currently below one. The mean SSB/MSY Btrigger ratio has gradually increased since 2000 and is currently above one. &lt;br&gt;&lt;br&gt;
+&lt;br&gt;
+For the shellfish guild, the mean F/Fmsy ratio shows strong fluctuations about a gradual decline from the mid-2000s and is currently below one. The mean SSB/MSY Btrigger ratio has remained above one and fairly stable throughout the time series, and is currently above one. &lt;br&gt;&lt;br&gt;
+&lt;br&gt;
+For the demersal guild, the mean F/Fmsy ratio has declined since the 1990s and is currently above one. The mean SSB/MSY Btrigger ratio shows a small, gradual increase since 2000 and is currently above one. &lt;br&gt;&lt;br&gt;
+&lt;br&gt;
+For the pelagic guild, the mean F/Fmsy ratio has fluctuated (mostly above one) since the 1990s and is currently below one. The mean SSB/MSY Btrigger ratio has remained fairly stable above one since the mid-1990s and is currently above one. &lt;br&gt;&lt;br&gt;
+&lt;br&gt;
+Of the ten stocks that currently contribute most of the catch and landings in the ecoregion, haddock (had.27.46a20), boarfish (boc.27.6-8), hake (hke.27.3a46-abd), and anglerfish (mon.27.78abd) have a stock status above MSY Btrigger level and fishing pressure below the FMSY target, while mackerel (mac.27.nea), herring (her.27.nirs), cod (cod.27.7e-k), cod (cod.27.46a7d20 (all 3 sub-stocks)) and whiting (whg.27.7a) and (whg.27.7b-ce-k) are below the biomass target and are currently fished above FMSY. &lt;br&gt;&lt;br&gt;
+&lt;br&gt;
+Not all species with catch advice are assessed against any PA or MSY reference points because these points are undefined, this includes European eel, salmon and category 3 and 4 stocks.</t>
+  </si>
+  <si>
+    <t>summary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -883,6 +3404,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -923,7 +3450,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -943,9 +3470,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1257,12 +3788,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="2" width="255.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1276,26 +3807,26 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1305,260 +3836,3236 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5EC4FE-E411-4E36-B8C3-47DB4028DB0F}">
-  <dimension ref="O1:Q20"/>
+  <dimension ref="A1:C292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="168.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="37.81640625" customWidth="1"/>
     <col min="17" max="17" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="C3" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="B4" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O2" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="10" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O3" s="10" t="s">
+      <c r="C5" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="B6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O4" s="10" t="s">
+      <c r="C7" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="C8" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O5" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="C9" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O6" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="C10" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O7" s="10" t="s">
+      <c r="C11" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="C12" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O8" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="C13" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="Q8" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O9" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="C14" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O10" s="10" t="s">
+      <c r="C15" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="C16" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O11" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="C17" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O12" s="10" t="s">
+      <c r="C18" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="C19" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O13" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="P13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O15" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O16" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O17" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O18" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Q19" s="11" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O20" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="Q20" s="11" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
         <v>99</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="C245" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="C248" s="11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="C269" s="11" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="C271" s="11" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="C283" s="11" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="C284" s="11" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285" s="11" t="s">
+        <v>888</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="C286" s="11" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" s="11" t="s">
+        <v>894</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="C287" s="11" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="C288" s="11" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="C289" s="11" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="C290" s="11" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="C291" s="11" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="C292" s="11" t="s">
+        <v>911</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Q4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="Q6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="Q8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="Q10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="Q12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="Q14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="Q16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Q17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="Q18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Q19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="Q20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C37" r:id="rId1" xr:uid="{22C4024E-F5EE-4C14-B35D-9A99EB6AF0F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1568,12 +7075,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A026B00C-E4B3-4E36-BEA1-AD93DF3D486F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="2" width="135.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1585,28 +7093,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>912</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1619,12 +7127,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="2" width="229.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1636,28 +7144,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1690,18 +7198,18 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1710,17 +7218,62 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D76C43-B7D3-42D3-B057-81CA4865142E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="125.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="199.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1731,12 +7284,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
+        <v>921</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>920</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +7297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1768,10 +7321,10 @@
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1779,7 +7332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1803,10 +7356,10 @@
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1814,7 +7367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1839,10 +7392,10 @@
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1857,13 +7410,13 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="2" width="198.36328125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1877,26 +7430,26 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1909,12 +7462,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="2" width="152.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1928,26 +7481,26 @@
     </row>
     <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1960,12 +7513,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.90625" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="2" width="253.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1979,26 +7532,26 @@
     </row>
     <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2010,13 +7563,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D16401-415E-4611-9BEF-C11909718B5A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="2" width="223.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2028,28 +7581,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2061,12 +7614,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59C6F2-69D0-4598-BA12-1B489ABE98B2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="2" width="181.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2078,28 +7632,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2111,14 +7665,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB1D8E1-BE83-467E-ABE2-EB20A46DABB5}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="149.08984375" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="222.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -2129,28 +7683,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>915</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -2162,13 +7716,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385D6F23-1F00-43DA-8201-777B854F56F6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="2" width="137.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2182,26 +7736,26 @@
     </row>
     <row r="2" spans="1:2" ht="288" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="400" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="400" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -2223,12 +7777,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="2" width="114.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2240,28 +7794,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
+        <v>912</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_2023\fisheriesXplorer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3B536C-51C3-4EAD-A704-1379031F30C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E1236-BB0B-465C-BE1E-C43353D135CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_NrS" sheetId="1" r:id="rId1"/>
@@ -3450,7 +3450,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3474,9 +3474,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3838,8 +3835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5EC4FE-E411-4E36-B8C3-47DB4028DB0F}">
   <dimension ref="A1:C292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3864,24 +3861,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3897,24 +3894,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3930,13 +3927,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3952,46 +3949,46 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4007,57 +4004,57 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -7064,6 +7061,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
+    <sortCondition ref="A2:A20"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="C37" r:id="rId1" xr:uid="{22C4024E-F5EE-4C14-B35D-9A99EB6AF0F4}"/>
   </hyperlinks>
@@ -7097,7 +7097,7 @@
       <c r="A2" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="1" t="s">
         <v>917</v>
       </c>
     </row>
@@ -7266,7 +7266,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7632,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>912</v>
       </c>
@@ -7798,11 +7798,11 @@
       <c r="A2" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="1" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="348" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_2023\fisheriesXplorer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E1236-BB0B-465C-BE1E-C43353D135CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26846EE0-DE56-4E67-8799-6BB056B5F1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_NrS" sheetId="1" r:id="rId1"/>
@@ -67,508 +67,7 @@
     <t>introduction</t>
   </si>
   <si>
-    <t>&lt;br&gt;The Greater North Sea ecoregion includes the North Sea, English Channel, Skagerrak, and Kattegat. The Greater North Sea
-is a relatively shallow sea area on the European continental shelf, with the exception of the Norwegian Trench that extends
-parallel to the Norwegian shoreline. Pelagic species (primarily herring and mackerel) account for a significant portion of
-the total commercial fish landings in the region. Landings of benthic and demersal finfish species (primarily haddock,
-sandeel, flatfish, and cod) are also significant. &lt;br&gt;&lt;br&gt; 
-All of the Greater North Sea ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area
-codes is therefore omitted in the following. This overview covers ICES Division 3.a, most of divisions 4.a, 4.b, 4.c, 7.d, and
-part of Division 7.e, as well as Subdivision 3.b.23. This overview does not include the fisheries in the western English
-Channel (Division 7.e) and in the Sound (Division 3.b.23).
-Note that updates to the figures using data from the stock assessment graphs (SAG) include only advice published before
-10 October 2022. Therefore anf.27.3a46, meg.27.7b-k8abd, rjn.27.678abd, and the Norway lobster stocks refer to the
-advice current at this time (the advice applicable for 2022).&lt;br&gt;&lt;br&gt; 
-This overview provides:&lt;br&gt;&lt;br&gt;
-&lt;ol style="font-size: 14px"&gt;
-&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears,
-and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
-reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;mixed-fisheries considerations of relevance to the management of the fisheries; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
-protected, endangered, and threatened species.&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
-The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
     <t>who_is_fishing</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;Around 6600 vessels from nine nations operate in the Greater North Sea, with the largest numbers coming from UK,
-Norway, Denmark, the Netherlands, and France. Total landings peaked in the early 1970s and have since declined. The
-proportion caught by each country of the total annual landings has varied over time (Figure 2). The following country
-paragraphs highlight features of the fleets and fisheries of each country but are not exhaustive descriptions.&lt;br&gt;&lt;br&gt;
-In the European Commission’s Scientific Technical and Economic Committee for Fisheries (STECF) Fisheries Dependence
-Information (FDI) data call, “confidentiality” in the landings and effort tables by country was introduced. The data call
-suggests that data related to fewer than three vessels could be considered confidential. Given the disaggregation of this
-data call (e.g. vessel length, gear, mesh size, quarter) many entries were submitted as confidential. It is therefore not
-possible to assess the extent to which the effort data are impacted by confidentiality and whether this is consistent over
-time. As a consequence, and in a change from previous years, no effort by country was presented in this fisheries overview.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Belgium&lt;/b&gt;&lt;br&gt;
-The Belgian fishing fleet is composed of 65 active vessels, primarily beam trawlers both above and below 24 m in length.
-Few vessels are smaller than 12 m. Most of the catch is demersal species; sole is the dominant species in value, and plaice
-the dominant species in volume. Other important species include Norway lobster, anglerfish, turbot, shrimp, lemon sole,
-common cuttlefish, squid, rays, and cod.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Denmark&lt;/b&gt;&lt;br&gt;
-The Danish fleet in 2019 had 717 vessels operating in the Greater North Sea, representing around half of the entire Danish
-fleet (1560 vessels). The size of the fleet has been generally decreasing over the last decade and in 2010 there were 968
-vessels operating (out of a total of 2220 vessels). In the following description a fishing operation is defined as a combination
-of vessel and gear, therefore any vessel operating more than one gear type will contribute to multiple operations.
- There were around 600 operations by smaller vessels (&lt; 12 m) in 2019 compared to around 800 in 2010. This mainly
-consists of gillnetting operations supplemented by pot and trap operations for the smaller vessels and demersal
-operations for the larger vessels within this group.
- For the medium-sized vessels of 12–40 m in length, there were around 281 operations in 2019 mainly represented by
-demersal trawling. This represents a large reduction in operations compared to the 439 recorded in 2010.
- For the largest vessels above 40 m in length the 54 fishing operations in 2019 were split approximately in half between
-demersal trawlers and pelagic trawlers. This is also a substantial reduction from the level in 2010 where 75 operations
-were recorded.
-The total value of the Danish fishery from the Greater North Sea has been relatively constant over the period 2010 to 2019.
-The most dominant fleets in value are the demersal trawlers, having around six times the value of gillnetters throughout
-the period. The value of demersal trawling is currently around 1.5 times the value of pelagic trawling, although this has
-decreased from the three times higher level in 2010. The most important demersal fisheries target cod, plaice, saithe,
-northern shrimp, and Nephrops using predominantly bottom trawls with some seine activity. This pattern has been
-consistent over the last ten years. The most important pelagic fisheries target herring and mackerel for human
-consumption, and sandeel, sprat, and Norway pout for reduction purposes (i.e. fish meal and oils), which is also consistent
-for the period.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
-The French fleet in the North Sea is composed of more than 600 vessels. The demersal fisheries operate mainly in the
-eastern English Channel and southern North Sea and catch a variety of finfish and shellfish species. Up until 2016, the
-largest fleet segments were gill- and trammelnetters (10–18 m) targeting sole, followed by demersal trawlers (12–24 m)
-catching a great diversity of fish and cephalopod species, and dredgers catching scallops. Since 2016, the activity of gilland trammelnetters has decreased substantially, with part of the fleet converting to pot fishery targeting whelks and
-crustaceans, or stopping their activity altogether because of difficulty in catching sole in the northeastern part of
-Division 7.d and the southern part of Division 4.c. Smaller boats operate different gears throughout the year and target 
-different species assemblages. There is also a fleet of six large demersal trawlers ( &gt;40 m) that target saithe in the northern
-North Sea and to the west of Scotland. The pelagic fishery is prosecuted by three active vessels catching herring, mackerel,
-and horse-mackerel.&lt;br&gt;&lt;br&gt;
-&lt;B&gt;Germany&lt;/b&gt;&lt;br&gt;
-The German North Sea fishing fleet comprises more than 200 vessels. Small beam trawlers of 12–24 m length constitute
-the largest fleet component (around 175 vessels in 2019) and almost exclusively target brown shrimp in the southern North
-Sea. In addition, some medium- and large-sized beam trawlers (eight vessels, 24–40 m length; three vessels &gt; 40 m length)
-target sole and plaice, and farm and harvest mussel Several otter trawlers (ca. nine vessels, 18–24 m length) target Norway
-lobster and plaice in the North Sea. Medium-sized demersal trawlers (14 vessels, 24–40 m length) mainly target saithe in
-the northern North Sea, but also catch plaice, cod, hake, and haddock. A restructuring took place in this latter fleet segment
-with the building of two new trawlers and decommissioning of some older vessels. Large pelagic trawlers (five vessels
-&gt; 40 m length in 2019) operate in the North Sea pelagic and industrial fisheries that primarily target herring but also catch
-horse mackerel, mackerel, sprat, and sandeel.
-Overall, a reduction in the number of vessels was recorded for the German North Sea fishing fleet during the last ten years.
-Especially the number of smaller beam trawlers (12–18 m length, 35 fewer vessels or −25%) and demersal otter trawlers
-(18–24 m length, 14 fewer vessels or −50%) decreased. The number of large pelagic trawlers stayed stable with five vessels
-for the last ten years.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Netherlands&lt;/b&gt;&lt;br&gt;
-The Dutch fleet in the Greater North Sea consists of about 500 vessels. The main demersal fleet is the beam trawl fleet
-(275 vessels, of which 85 are &gt; 24 m and 190 are &lt; 24 m) that operates in the southern and central North Sea, targeting
-sole (dominant in value) and plaice (dominant in volume) as well as other flatfish species. Until the recent EU-wide ban on
-pulse trawling most of the &gt; 24 m beam trawlers have used pulse trawls. Most of the smaller beam trawlers (“Eurocutters”)
-seasonally target shrimp or flatfish. Pelagic freezer trawlers (seven vessels, &gt; 60 m) target pelagic species, mainly herring,
-mackerel, and horse mackerel.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
-The Norwegian North Sea fleet is composed of about 1500 vessels. Approximately 94% of these catch demersal species,
-including fish, crustaceans, and elasmobranchs, while 33% catch pelagic species, including herring, blue whiting, mackerel,
-and sprat (i.e. 27% catch both pelagic and demersal species). This contrasts with the respective 78% and 54% fractions
-observed ten years ago (2009), and is mostly driven by a sharp increase in small vessels (&lt; 11 m) catching demersal species
-only. Sandeel (by weight) makes up a significant part of the Norwegian fishery in the ecoregion. Over 75% of the fleet are
-small vessels (&lt; 11 m; up from about 60% over ten years, corresponding to an increase of +445 vessels in this segment)
-that operate near the Norwegian coast and mostly use traps, pots, shrimp trawls and gillnets, catching mackerel, shrimp,
-crabs, Norway lobster, cleaner wrasses, and several other fish species. Medium-sized vessels (11–24 m) mainly target
-Norway lobster and crabs using pots and traps; shrimp using trawls; mackerel, horse mackerel, and sprat with purse-seines;
-and cod, saithe, and other demersal fish using gillnets or trawls. The number of vessels in this segment has dropped by
-over 35% over the last ten years. Larger vessels represent about 15% of the fleet (6% 24–40 m; 9% &gt; 40 m) and target
-mostly pelagic fish, such as mackerel, Norway pout, and herring, as well as saithe for reduction purposes and consumption.
-Ten years ago, larger vessels accounted for over 20% of the fleet (9% 24–40 m; 13% &gt; 40m), which factors in both the
-increase of the number of small vessels and a slight decrease in the number of vessels &gt; 24 m (−13%). The largest vessels
-among them ( &gt;40 m) are mostly pelagic trawlers and purse-seiners that operate offshore and account for more than 80%
-of the total landings (up from 75% in ten years; +40% in absolute landing tonnage).&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Sweden&lt;/b&gt;&lt;br&gt;
-The Swedish fleet in the Greater North Sea comprises more than 400 vessels. Most vessels operate in the Skagerrak and
-Kattegat, but around 25 of them also fish in the North Sea. In total around 130 vessels are involved in demersal trawl
-fisheries, catching several species in the Kattegat and Skagerrak; mainly Norway lobster, northern shrimp, cod, witch,
-flounder, and saithe. Around 15 of the demersal vessels also fish in the North Sea, where they mainly target cod, saithe, haddock, and northern shrimp. The fleets using mainly passive gears consists of around 270 vessels, of which most are
-using pots to target Norway lobster, lobster, and edible crab, but also gillnets and lines targeting both demersal and pelagic
-species. The Swedish passive gear fisheries are almost exclusively located in the Skagerrak and Kattegat. The pelagic fleet
-fishing with active gears consists of just over ten vessels that mainly target herring and sprat in the Skagerrak and Kattegat.
-Most of these vessels also fish for mackerel, herring, and sandeel in the North Sea.
-The Swedish fleet has decreased by around 20% since 2009. The reduction was similar for vessels using both active gears
-and passive gears and for vessels larger than 10 m and those smaller than 10 m. The main reasons for the decline in the
-fleet are reduced fishing opportunities, poor profitability, scrapping campaigns, and the introduction of annually
-transferable fishing rights in the demersal fleets in 2017. The fleet reduction is most pronounced in the Skagerrak and
-Kattegat, whereas the pelagic fleet and the demersal vessels fishing in the North Sea have been rather stable in terms of
-number of vessels over the last decade.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;UK (England)&lt;/b&gt;&lt;br&gt;
-The English fleet operating in the Greater North Sea ecoregion during 2019 was comprised of 1133 vessels, with a decrease
-of 33 vessels from 2018. The decrease is part of a longer running trend across many sectors, but most noticeably in the
-under 10 m fleet, which has reduced by around 200 vessels since 2009.
- The small vessel (&lt; 10 m) sector (around 882 active vessels) operates in the eastern English Channel and coastal North
-Sea and catches a diversity of fish and shellfish species, with more vessels targeting non-quota shellfish than demersal
-fish and a small number of vessels (around 25) targeting pelagics.
- The 10–15 m sector has remained relatively stable with a current vessel count of 190 compared to 198 in 2009,
-although this is a decrease from a maximum of 213 in 2014. Landings from this sector are over 95% non-quota shellfish,
-with only around 16 vessels targeting finfish.
- The 15–40 m sector is comprised of 70 vessels, falling from 113 in 2009, although this number has been more steady
-in recent years. This sector predominantly targets cockle and edible crab, with only around 12 vessels targeting
-demersal finfish.
- There were 12 English vessels over 40 m operating in the North Sea in 2019 and this number has been virtually
-unchanged since 2009. This largest category of vessel targets finfish, mostly demersal but some pelagic.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;UK (Scotland)&lt;/b&gt;&lt;br&gt;
-The Scottish North Sea fleet comprises around 1000 vessels. More than 120 demersal trawlers (almost all &gt; 10 m) fish for
-mixed gadoids (cod, haddock, whiting, saithe, and hake,) and for groundfish such as anglerfish and megrim. A fleet of 139
-trawlers fish mainly for Norway lobster in the North Sea: 48 of these vessels (&lt; 10 m) operate on the inshore grounds, while
-91 ( &gt; 10 m) operate over various offshore grounds. Pot or creel fishing is prosecuted by over 650 vessels (mostly &lt; 10 m)
-targeting lobsters and various crab species on harder inshore grounds. Scallop fishing is carried out by around 80 dredgers
-(mostly &gt; 10 m). Limited amounts of longlining and gillnetting are also conducted by Scottish vessels. Significant catches of
-pelagic species are harvested by 18 large vessels, primarily using pelagic trawls.&lt;br&gt;&lt;br&gt;
-The Faroe Islands also fish in the Greater North Sea, but ICES does not have information on this fleet.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;The largest landings in this ecoregion are by Norway, the Russian Federation (Russia henceforth), Faroe Islands, and Iceland, mainly by pelagic fisheries. Other nations also have fisheries in the area. The number of fishing vessels is declining while the size of the remaining vessels is increasing. The annual catch in the ecoregion has varied between 700 000 tonnes
-to over 2 million tonnes.&lt;br&gt;&lt;br&gt;
-The pelagic fisheries, using purse-seine and pelagic trawls, account for the largest catches by weight and target Norwegian spring-spawning (NSS) herring (her.27.1-24a514a), blue whiting (whb.27.1-91214), mackerel (mac.27.nea), and other pelagic species. The largest demersal fishery targets cod (cod.27.1-2), haddock (had.27.1-2), and saithe (pok.27.1-2) using bottom trawls, purse-seine, Danish seine and gillnets, and to a lesser extent hook and line gear. Smaller fisheries target other gadoid species, Greenland halibut (ghl.27.1-2), and beaked redfish (reb.27.1-2). Landings of pelagic species within the ecoregion in the last decades have been variable. The demersal fisheries, dominated by cod, display less pronounced fluctuations than the pelagic fisheries. Information about discards is sparse, but the total weight of discards is considered low in both the pelagic and the demersal fisheries. Harp seals and minke whales are hunted in the region.&lt;br&gt;&lt;br&gt;
-Status summaries of Norwegian Sea stocks relative to ICES maximum sustainable yield (MSY) approach and precautionary approach (PA) are known for about 42% of the 19 stocks assessed by ICES in this ecoregion. Only 21% of the stocks are fished below F MSY, accounting for less than 1% of the total catch. 21% of the stocks have a biomass above MSY Btrigger, accounting for 86% of the total catch. Demersal stocks have shown a trend of declining fishing mortality since the mid-1990s, followed by a sharp increase in 2019, largely driven by the exploitation pattern of redfish. In 2021 the average F/F MSY ratio was close to 1. The mean SSB/MSY Btrigger ratio of demersal stocks has been decreasing over the last decade, but mean SSB remains above MSY Btrigger and increased in 2021. The average F/F MSY ratio for pelagic stocks has fluctuated slightly above 1 since 2005. The mean SSB/MSY Btrigger ratio for pelagic species has been well above 1 the last two decades though followed by a recent sharp decline, but remains above 1.&lt;br&gt;&lt;br&gt;
-In addition to biomass removal, ecosystem effects of fisheries include abrasion, ghost fishing, and bycatch of protected, endangered, and threatened species.&lt;br&gt;&lt;br&gt;
-Supporting data used in the Norwegian Sea fisheries overview can be accessed at &lt;a href="https://doi.org/10.17895/ices.advice.27879897"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;The Norwegian Sea connects with the Faroes ecoregion to the southwest, the Icelandic Waters ecoregion and Greenland Sea to the west along the edge to the shallower Iceland Sea between the Faroe Islands, and northwards to Jan Mayen. To the south it borders to the shallower North Sea along the 62 ̊N parallel between Norway and the Faroe Islands, and to the northeast the shallower Barents Sea (Figure 1). The Norwegian Sea covers more than 1.1 million km2 , consisting of two deep basins (between 3000 m and 4000 m deep) – the Norwegian Basin and the Lofoten Basin – separated by the Vøring Plateau (between 1000 m and 3000 m deep). The Norwegian Sea is separated from the Greenland Sea to the north by the Mohn Ridge. To the west, the basin slope forms the transition to the somewhat shallower Iceland Sea. The warm North Atlantic Current ensures relatively stable and high water temperatures, so that unlike the Arctic seas, the Norwegian Sea is ice-free throughout the year.&lt;br&gt;&lt;br&gt; 
-Due to the temporary suspension of Russian Federation in ICES activities, ICES did not conduct assessments for the following stocks in 2022: cod.27.1-2, had.27.1-2, and reb.27.1-2. The results of the bilateral Norwegian−Russian
-assessments for these stocks are not included in this overview.&lt;br&gt;&lt;br&gt; 
-This overview provides:&lt;br&gt;&lt;br&gt;
-&lt;ol style="font-size: 14px"&gt;
-&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a description of mixed fisheries interactions in the ecosystem, and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
-The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;Many nations currently have fisheries targeting the marine stocks within this ecoregion. The largest landings are by Norway, Russia, Faroe Islands, and Iceland. Lesser amounts are landed by United Kingdom and others (Figure 2). Pelagic fishing by multinational fleets is the major activity in the ecoregion. The number of fishing vessels is declining while the size of the vessels is increasing.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
-The Norwegian commercial fleet has the majority of its fishing activity in the shelf area, particularly along the coast of
-Norway and along the continental shelf edge. The Norwegian fleet fishing in the ecoregion consists of about 2300 active
-vessels fishing pelagic fish (mackerel and herring), demersal fish (cod, saithe, haddock, ling (lin.27.1-2), tusk (usk.27.1-2),
-Greenland halibut, and redfish), and shellfish (brown crab, king crab, and northern prawn). Small coastal vessels (the
-majority &lt; 15 m length) fishing with beach-seine, gillnets, and pots make up around 87% of the fleet, while the remaining
-are mainly ocean-going trawlers and purse-seiners &gt; 28 m in length. The highest catch volume (82% of the total catch) is
-taken by the bigger vessels, with pelagic fish constituting the largest part of the landings.&lt;br&gt;&lt;br&gt;
-Harp and hooded seals are hunted with between two and five large ice-going vessels. The minke whale hunt has been
-ongoing in all years since 1993, and approximately 10–15 vessels.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
-The Russian commercial fleet in the Norwegian Sea ecoregion and adjacent waters is composed of about 30 large vessels
-(62–120 m in length) targeting pelagic species including NSS herring, blue whiting, and mackerel using pelagic trawls. The
-pelagic fleet conducts most of its fishing activities in international waters and fewer in the Norwegian EEZ. About 50 smaller
-vessels (&lt; 60 m) target demersal fish, including cod, haddock, saithe, redfish, Greenland halibut, and Atlantic wolffish, using
-mostly bottom trawls. Pelagic fish contribute most to the Russian fishery (about 90 % of the catches) in this ecoregion.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
-he Icelandic fleet operating in the Norwegian Sea ecoregion is composed of about 19 large vessels (&gt; 60 m length). They
-all target pelagic fish (NSS herring, mackerel, and blue whiting) with pelagic trawls. Two of the vessels freeze the catches
-on board while the others bring the catches ashore in refrigerated seawater (RSW) tanks&lt;br&gt;&lt;br&gt;
-&lt;b&gt;United Kingdom&lt;/b&gt;&lt;br&gt;
-The UK fishery operating in the Norwegian Sea ecoregion fishes mainly in ICES Division 2.a using bottom and midwater
-trawls with the occasional gillnetting and purse-seining. A small number of vessels operate in this area and catch a variety
-of demersal and pelagic species. In 2020, three bottom otter trawlers (40–90 m length) targeted cod, together with small
-amounts of saithe, haddock, redfish, and other species. The four midwater trawlers (75–120 m) fishing in 2020 targeted
-NSS herring, mackerel, and blue whiting.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;The Faroese fleet in the ecoregion consists of 12 large (&gt; 55 m length) vessels targeting pelagic species (NSS herring,
-mackerel, and blue whiting) with pelagic trawl (mainly) or purse-seine. One of the vessels freeze the catch on board while
-the rest use RSW tanks to bring the catch ashore. In addition, a handful of smaller trawlers (35–50 m length without RSW
-tanks) deliver the catch (mackerel) to the larger vessels at sea; the number of vessels in this last category has decreased
-much over the last five-to-eight years. In the description of fisheries, some Faroese fisheries are mentioned in Subarea 2,
-but these all take place outside the Norwegian Sea ecoregion.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>The majority of the fisheries in the Azores ecoregion are targeted by Azorean vessels. Only a small proportion of catch is taken by surface longliners from mainland Portugal and Spain targeting swordfish and blue shark. The fisheries are classified as small scale because around 60% of the vessels are under nine metres in length and target many different species. The most important targets are tuna and tuna-like species (in weight), deep-water demersal species (in value), and small pelagic species. The most important fishing methods are handline and bottom longline, followed by pole and line (bait boats). Surface longline is also used but mainly by non-regional vessels that operate outside a 100 nautical mile area. The Azores Exclusive Economic Zone (EEZ) is recognized as a no take area for nets (including a trawl ban) excluding a few small coastal gillnets and purse seiners for small pelagics. &lt;br&gt;&lt;br&gt;
-Fisheries in the ecoregion are managed under the EU Common Fisheries Policy (CFP), with some fisheries managed by the North East Atlantic Fisheries Commission (NEAFC), the International Commission for the Conservation of Atlantic Tunas (ICCAT), and national Portugal and regional Azores governments.&lt;br&gt;&lt;br&gt;
-The status of the 12 stocks in this ecoregion assessed by ICES remain unknown. These stocks are considered as 
-data limited and are managed following the precautionary approach (category 3–5 stocks). &lt;br&gt;&lt;br&gt;
-Supporting data used in the Azores ecoregion fisheries overview is accessible at: &lt;a href="https://doi.org/10.17895/ices.advice.27880014"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>For this overview, the Azores ecoregion corresponds to the Azores EEZ inside ICES Subarea 10 (Figure 1). The ecoregion lies within a much larger open ocean ecosystem, and straddles the Mid-Atlantic Ridge. The Azores is a Portuguese archipelago composed of nine islands with almost no geological continental shelf, and the Azores EEZ includes 461 identified seamounts.&lt;br&gt;&lt;br&gt;
-This overview covers ICES Subdivision 10.a.2 (Figure 1). Vessel monitoring system (VMS) data are available for vessels above 12 meters in length, which means that only longliners and tuna vessels (pole and line) are covered.&lt;br&gt;&lt;br&gt; 
-The overview provides:&lt;br&gt;&lt;br&gt;
-&lt;ol style="font-size: 14px"&gt;
-&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a description of mixed fisheries interactions in the ecosystem; and&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;
-The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Portugal and Spain are currently the main countries fishing in the Azores ecoregion. France, United Kingdom, and the Faroe Islands also fish but take lesser amounts. The Russian fleet was fishing in the ecoregion until the early 1980s.&lt;br&gt;&lt;br&gt; 
-&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
-The Portuguese fleet operating in the ecoregion is currently composed of around 600 vessels. Most of these have a length of less than 12 m and are typically licensed to use several different gear types around the archipelago and seamounts to target pelagic (small pelagics and tuna) and demersal deep-water species (such as blackspot sea bream [sbr.27.10], alfonsinos [alf.27.nea], and Atlantic wreckfish). There is also a longline surface fishery targeting swordfish and blue shark.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
-Spain has historically been fishing in the ecoregion and currently has around ten vessels that use surface longline to target swordfish and blue shark inside the Azores EEZ.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt;The commercial fisheries in the ecoregion target a wide variety of stocks, resulting in a diverse and spatially varied fishing industry. The countries with the largest landings and effort in the ecoregion are Spain, Portugal, and France, with minor landings from Ireland, Belgium, and UK. The most common gear used in the area is bottom trawls, which target demersal species. The highest landings, however, are taken by midwater trawls mainly targeting species such as blue whiting, mackerel, and to a lesser extent species such as sardine.&lt;br&gt; &lt;br&gt;
-Of the wide variety of stocks both targeted and caught as bycatch, 73 are evaluated by ICES for spawning stock biomass (SSB) size and fishing pressure. Twenty-two stocks have been evaluated against maximum sustainable yield (MSY) reference points for fishing mortality, and 86% of these are fished below FMSY. &lt;br&gt; &lt;br&gt;
-In addition to biomass removal, ecosystem effects of fisheries include abrasion, ghost fishing, damage to benthic fauna by demersal trawling, and bycatch of marine mammals, elasmobranchs, and seabirds. Several regulatory and research efforts are in place or are being developed that are aimed at reducing the impact of fishing on the ecosystem. &lt;br&gt; &lt;br&gt;
-Supporting data used in the Bay of Biscay and Iberian Coast fisheries overview is accessible at: &lt;a href="https://doi.org/10.17895/ices.advice.27879951 "&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt; 
-</t>
-  </si>
-  <si>
-    <t>it says "description of the ecoregion" on the advice sheet</t>
-  </si>
-  <si>
-    <t>Seven nations currently have fisheries targeting the many marine stocks within this diverse and extensive ecoregion. The highest landings are by Spain, Portugal, and France. Lesser amounts are landed by other countries including the Netherlands, Belgium, Ireland, and UK (Figure 2). &lt;br&gt; &lt;br&gt;
-&lt;b&gt;Belgium&lt;/b&gt;&lt;br&gt;
-The Belgian fisheries in the Bay of Biscay mainly take place in Division 8.b. There are fifteen vessels operating, all with beam trawl, and the fishery takes place from 1 June to 30 September. The main target species is sole with monkfish as a bycatch species, though monkfish is increasing in importance in the landings. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
-There are around 1500 vessels operating primarily in ICES Subarea 8, representing more than 4000 fishers. Seventy one percent of all vessels operate predominantly within the 12 nautical mile limit. Around 1000 vessels operate in Division 8.a and 500 in Division 8.b. Around 20 vessels operate occasionally in Division 8.c. &lt;br&gt;&lt;br&gt;
-The mean size of the vessels is 12 m, while more than 1100 vessels are under 12 m. The main gears used by coastal vessels are nets, lines (longlines and handlines), pots, scoop nets, dredges and bottom trawls. The offshore fishery is mostly carried out by bottom trawlers, netters, and a few longliners. The main species caught by French vessels in the area are hake, anglerfish, sole, sea bass, Norway lobster, sardines, cuttlefish, albacore, squids, pollack, and anchovy. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Ireland&lt;/b&gt;&lt;br&gt;
-Ireland has four fisheries in this ecoregion. The highest catches are made by around eight large vessels (&gt; 40 m in length) that target small pelagic fish, mainly boarfish, horse mackerel, and mackerel. Approximately 40 vessels target albacore tuna, with paired midwater pelagic trawls in summer as the fish migrate northward. The gillnet fishery for hake involves around 15 vessels, and there is minor demersal otter trawl activity involving up to eight vessels in Subarea 8. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Netherlands&lt;/b&gt;&lt;br&gt;
-The Netherlands has fishing rights for sole in the Bay of Biscay. In the last two decades, however, the Dutch fleet has not been active in the area. Since the mid 2000s, the Netherlands has been using its fishing rights in the Bay of Biscay for quota swaps with Belgium (i.e. the Dutch quota in the Bay of Biscay has been exchanged for Belgian quota in the North Sea). &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
-A total of 2802 vessels operated in 2023, comprising otter trawlers, purse-seiners, and multi-gear vessels; the fleet operates primarily in Division 9.a. &lt;br&gt;&lt;br&gt;
-A total of 80 bottom otter trawlers are active; 25 target crustaceans (deep-water rose shrimp and Norway lobster) and blue whiting in deep waters from 200 m to 800 m, while the remaining catch finfish in waters shallower than 500 m. The majority of the vessels are between 18 m and 40 m in overall length, and only nine are smaller than 12 m in length. &lt;br&gt;&lt;br&gt;
-The purse-seine fleet predominantly operates at depths between 20 m and 100 m, and traditionally targets sardine. This fleet comprised 144 vessels, between 8 and 27 m in overall length. It contributes to more than 50% of the total catch, and mainly harvests sardine, chub mackerel, anchovy, horse mackerel, and blue jack mackerel. &lt;br&gt;&lt;br&gt;
-The remaining vessels (2570) hold multiple licences for several gear types, including gillnets (80 mm mesh size), trammelnets (100 mm mesh size), hand- and longlines, pots and dredges, and small purse-seines. This multi-gear fleet operates generally within 30 miles of the Portuguese coast, catching, among others, hake, anglerfish, octopus, pout, horse mackerel and clams. These are mostly small vessels under 12 metres in overall length. More than 200 vessels (232) in this fleet exceed 12 metres. This includes bottom and drifting longliners operating in continental waters and offshore, in waters of the NE Atlantic. A deep-water longline fleet, composed of 15 vessels with an average of 20 m length, operates at depths ranging from 800 to 1450 m, targeting black scabbard fish. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
-There are around 4750 vessels in this fleet, operating mainly in northern Spanish waters. The fleet comprises artisanal vessels, trawlers, purse-seiners, demersal longliners, and gillnetters. Around 3600 vessels are operating in the artisanal fishery (of 7 m average length) using artisanal gears including dredges, trammelnets, gillnets, pots, bottom longline, handline, purse-seine and beam trawl; they target mackerel, clams and octopus. The trawlers (71 vessels of 28 m average length) use bottom- and pair trawl to target horse mackerel, mackerel, blue whiting, and hake. The purse-seiners (236 vessels of 22 m average length) target mackerel, anchovy, horse mackerel, and sardine. The demersal longliners (57 vessels of 16 m average length) target hake as main species, as well as European conger. The gillnetters (59 vessels of 18 m average length) catch mainly hake and anglerfish. &lt;br&gt;&lt;br&gt;
-Around 660 vessels operate mainly in the Gulf of Cadiz Spanish waters. The fleet comprises artisanal vessels, trawlers, and purse-seiners. Around 480 vessels are operating in the artisanal fishery (of 9 m average length) using artisanal gears including dredges, trammelnets, gillnets, bottom longline, and handline; they target blackspot sea bream, stripped venus, octopus and cuttlefish. The trawlers (120 vessels of 19 m average length) target shellfish and cephalopods. The purse seiners are composed of 70 vessels of 17 m average length. &lt;br&gt;&lt;br&gt;
-Other fleets operating in Iberian waters mainly on the north coast and Galician waters comprise around 400 vessels – 300–350 trolling and 60 with live bait (of 17 m average length). These fleets target albacore. &lt;br&gt;&lt;br&gt;
-Around 66 vessels operate mainly in the Bay of Biscay. The fleet comprises trawlers and passive gears (bottom longline and gillnet). Thirteen vessels are operating in the trawler fleet targeting hake, anglerfish, and megrim. Fifty-three vessels use passive gears (mainly bottom longlines and some gillnets) which target hake. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;UK&lt;/b&gt;&lt;br&gt;
-The UK fleet operating in the ecoregion mainly operates in divisions 8.a and b, and further offshore in Division 8.d. The fleet is comprised of pelagic trawlers, gillnetters, and longliners; the fleet size varies, from seven to 13 vessels over the last four years. The pelagic trawlers are the larger of the vessels, with an overall total length of between 50 m and 114 m. Pelagic trawlers mainly target mackerel and horse mackerel in divisions 8.a and b. Longliners and gillnetters target a mix of species and have an overall length of between 20 m and 35 m; they operate in both divisions 8.a and 8.b and further offshore in Division 8.d. The main target species of the longliners is hake, whereas gillnetters target hake, anglerfish, and pollack. &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt;The commercial fisheries in the Barents Sea Ecoregion target few stocks. The largest pelagic fishery targets capelin (cap.27.1-2) using midwater trawl. The largest demersal fisheries target cod (cod.27.1-2), haddock (had.27.1-2), and other gadoids, predominantly using trawls, gillnets, longlines, and handlines. The crustacean fisheries target deep-sea prawn, red king crab, and snow crab. Harp seals and minke whales are also hunted in the region. &lt;br&gt;&lt;br&gt;
-Twelve nations currently have fisheries targeting the stocks in this ecoregion. Norway and Russian Federation have the largest fleets and dominate the landings in the region. Total landings peaked in the mid-1970s and have been at a lower level for the last two decades. Catches of capelin have varied, from being the largest catches in the region (by weight) at some points in time to zero catches at others. Pelagic trawling in the ecoregion tends to catch only one species at a time, whereas demersal trawling normally catches several species simultaneously. &lt;br&gt;&lt;br&gt;
-In addition to biomass removal, the ecosystem effects of fisheries include abrasion, ghost fishing, damage to benthic fauna by demersal trawling, bycatch of elasmobranchs in demersal fisheries, bycatch of seabirds in gillnet and longline fisheries, and bycatch of harbour porpoise in gillnet fisheries. Several regulatory and research efforts to reduce the impact of fishing on the ecosystem are in place or being developed. &lt;br&gt;&lt;br&gt;
-Supporting data used in the Barents Sea fisheries overview can be accessed at &lt;a href="https://doi.org/10.17895/ices.advice.21640814"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Barents Sea ecoregion covers the shelf sea to the north of Norway and the Russian Federation (“Russia” henceforth) (Figure 1). Its western boundary approximately follows the shelf break towards the deep Norwegian Sea to the west, and its northern boundary follows the shelf break towards the deep Arctic Ocean to the north. To the east, the ecoregion borders Novaya Zemlya and the Kara Sea. The two Arctic archipelagos of Svalbard and Franz Josef Land are situated within the ecoregion. There are relatively deep areas to the west, while the eastern parts of the ecoregion are dominated by bank areas. &lt;br&gt;&lt;br&gt;
-This overview covers the entirety of ICES Division 27.1.a and parts of divisions 27.1.b, 27.2.a, and 27.2.b (hereafter, the “27” area prefixes are omitted). All catches within Division 1.b are, however, taken in the Barents Sea ecoregion, as there are no catches in the northernmost part, which belongs to the Arctic Ocean ecoregion. The plots of total catches include all catches in ICES subareas 1 and 2 except for catches of the large pelagic stocks (Norwegian spring-spawning herring, Northeast Arctic mackerel, and blue whiting), for which there are minimal catches in the Barents Sea. &lt;br&gt;&lt;br&gt;
-Because of the suspension of Russia from ICES activities, ICES has not conducted assessments for the following stocks since 2022: cod.27.1-2, had.27.1-2, ghl.27.1-2, reb.27.1-2, cap.27.1-2, and pra.27.1-2. The results of the bilateral Norwegian– Russian assessments for these stocks are not included in this overview. &lt;br&gt;&lt;br&gt;
-This overview provides the following: &lt;br&gt;&lt;br&gt;
-&lt;ol style="font-size: 14px"&gt;
-&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a description of mixed-fisheries interactions in the ecoregion; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species. &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are currently 12 nations with fisheries targeting the stocks in this ecoregion. The country with the highest landings is Norway, followed by Russia. Lower quantities are landed by Denmark, Estonia, Faroe Islands, France, Germany, Greenland, Iceland, Poland, Portugal, Spain, Belarus, and UK (Figure 2). &lt;br&gt;&lt;br&gt;		
-Prior to the establishment of exclusive economic zones (EEZ) in the ecoregion in the late 1970s, several nations were fishing in the area. The major fishing fleets were from Norway and Russia. Historically, landings by all nations were dominated by demersal species such as cod and haddock; however, redfish (beaked and golden) and Greenland halibut (ghl.27.1-2) were also important up to about 1990. &lt;br&gt;&lt;br&gt;
-Landings of capelin, the only major pelagic fish species in the area, peaked at three million tonnes in 1977. The capelin stock “collapsed” to very low levels in the mid-1980s. Before the establishment of a minimum landing size for Norwegian spring-spawning herring, for which the Barents Sea serves as a nursery area, large catches of immature herring were also taken in the ecoregion, mainly by Norwegian and Russian fishers. In recent years, Norway has fished some legal sized herring in a restricted coastal purse-seine fishery inside four nautical miles off the Finnmark coast. In the southwestern part of the ecoregion, an international herring fishery has operated in some seasons. &lt;br&gt;&lt;br&gt;
-Catches from the northern shrimp (pra.27.1-2) fishery increased considerably from 2018, with much of the increase coming from fleets fishing in the international waters between the Norwegian EEZ, the Fisheries Protection Zone around Svalbard, and the Russian EEZ. Red king crab are fished by Russia in near-coastal Russian waters and fished by Norway in the coastal waters of Finnmark and Tromsø, the northernmost counties of Norway. A fishery has developed for the snow crab in recent years; this is a species first encountered in the ecoregion in 1996. &lt;br&gt;&lt;br&gt;
-Commercial hunting of Barents Sea harp seal started with vessels from northern Norway in 1867. In general, there has been a lack of capacity to take recommended TACs since 2000. Norwegian whaling, targeting minke whales, started in the late 1920s. A total quota was introduced in 1976. The effect of this was to move the catch effort from coastal areas with relatively low catch rates to the Barents Sea and off the west coast of Spitsbergen. Following the moratorium on all whaling as declared by the International Whaling Commission (IWC), Norway stopped all commercial minke whale hunt temporarily after the 1987 season. The hunt was started again in 1993 and has continued in all subsequent years. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
-The Norwegian fleet fishing in the ecoregion consists of about 3 000 active vessels. These vessels fish gadoids (cod, haddock, and saithe), other demersal fish, pelagic fish, and shellfish. Small coastal vessels (the majority &lt; 11 m in length) fishing with gillnets, handline, and pots make up around 95% of the fleet, while the remaining 5% are predominantly ocean-going trawlers &gt; 28 m in length. About 1000 Norwegian coastal vessels (6–22 m in length) participate in the quota-regulated red king crab fishery east of 26°E. West of this line, fishing for red king crab is unregulated and the number of vessels unknown. The snow crab fishery in the Norwegian EEZ part of the ecoregion is still developing because of the relatively recent westward spread of snow crab. There are currently 20-30 Norwegian vessels in this fishery. The harp seal hunt in the ecoregion has traditionally been conducted with large ice-going sealers, of which only two to five vessels remain today. Approximately 10–15 vessels participate in the minke whale hunt. &lt;br&gt;&lt;br&gt;	
-&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
-The Russian fleet operating in the Barents Sea and Norwegian Sea ecoregions is composed of about 200 vessels. Ninety percent of the vessels catch demersal species, including fish and crustaceans, and 15% catch pelagic species. Approximately 25% of the fleet targeting demersal species consists of boats below 34 m in length and operates near the Russian coast using trawls and traps, catching several fish species and crabs. Vessels of size 34–65 m average around 60% of the fleet and mainly target cod, haddock, saithe (pok.27.1-2), redfish, Greenland halibut, wolffish, long rough dab, and plaice using trawls and longlines, traps (for crab), and trawls (for shrimp). The industrial factory ships (ten vessels of 65–100 m; 20 vessels &gt; 100 m) are predominantly trawlers that use bottom and midwater trawls. They account for most of the landings of capelin but also catch cod, haddock, and saithe. The Russian harp seal hunt is performed using two to three helicopters, where the seals (generally pups) are hunted on the ice. &lt;br&gt;&lt;br&gt;	
-&lt;b&gt;Denmark&lt;/b&gt;&lt;br&gt;
-The Danish fleet targets small amounts of demersal fish in ICES Subdivision 2.a.2. The vessels are all pelagic trawlers or combined trawl/purse-seiners, ranging in length between 60 m and 90 m. &lt;br&gt;&lt;br&gt;	
-&lt;b&gt;Estonia&lt;/b&gt;&lt;br&gt;
-The Estonian fleet fishing in the area consists of less than ten vessels with an average length of 64 m, operating in the Northwest Atlantic, Northeast Atlantic, and Svalbard. The fleet targets mainly northern shrimp and Greenland halibut with bottom trawls, with cod and long rough dab as bycatch. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;
-The Faroese fleet in the ecoregion currently consists of less than five vessels targeting cod, haddock, Greenland halibut, shrimp, redfish, and flatfish. These vessels are between 50 m and 80 m in length. &lt;br&gt;&lt;br&gt;	
-&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
-French vessels target cod, haddock, saithe, redfish, and Greenland halibut in the area. The fleet usually consists of one freezer trawler of 80 m in length, targeting cod and associated species (haddock and saithe) with otter bottom trawls. &lt;br&gt;&lt;br&gt;	
-&lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
-The German fleet operating in the ecoregion consists of about four vessels (&gt; 40 m in length). The pelagic freezer trawlers target mainly herring, blue whiting, and redfish, while the demersal trawlers target mainly cod, saithe, and haddock. &lt;br&gt;&lt;br&gt;	
-&lt;b&gt;Greenland&lt;/b&gt;&lt;br&gt;
-The Greenlandic fishing fleet consists of eight vessels. Two of these are stern trawlers 82–88 m in length that mainly target cod, saithe, and haddock, with minor bycatches of plaice and wolffish. The remaining six vessels are pelagic trawlers and purse seiners, 66–88 m in length, that mainly fish for mackerel. One vessel targets northern shrimp. &lt;br&gt;&lt;br&gt;	
-&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
-The Icelandic fleet consists of less than ten vessels, all demersal trawlers larger than 60 m in length. These vessels target cod in accordance with bilateral agreements between Iceland and Norway and between Iceland and Russia. &lt;br&gt;&lt;br&gt;	
-&lt;b&gt;Lithuania&lt;/b&gt;&lt;br&gt;
-The Lithuanian fleet in the North Atlantic consists of two demersal trawlers &gt; 40 m in length, targeting shrimp in the ecoregion. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Poland&lt;/b&gt;&lt;br&gt;
-One Polish vessel (&gt; 40 m in length) is active in the region, targeting cod, haddock, saithe, redfish, and Greenland halibut. &lt;br&gt;&lt;br&gt;	
-&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
-Less than five Portuguese stern trawlers (&gt; 60 m in length) operate in the area; they mainly target cod, since quotas for redfish, haddock, and pollock are small. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
-The Spanish fleet consists of seven vessels. Four of these are 48–87 m in length, targeting cod with otter bottom trawls. &lt;br&gt;&lt;br&gt;	
-&lt;b&gt;UK&lt;/b&gt;&lt;br&gt;
-Less than five demersal vessels operate throughout the year in the ecoregion, mainly targeting species such as cod, haddock, saithe, and Greenland halibut. The average size of these vessels is around 4 830 kW horsepower and &gt; 80 m in total length. Between one and three vessels fish for herring in Division 2.a. &lt;br&gt;&lt;br&gt;	
-&lt;b&gt;Others&lt;/b&gt;&lt;br&gt;
-Smaller amounts of saithe, redfish, and Greenland halibut have been landed by Ireland, the Netherlands, and Latvia in some years. Belarussian vessels also catch a small amount of cod annually. &lt;br&gt;&lt;br&gt;	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exec
-&lt;br&gt;The commercial fisheries in the Baltic Sea target few stocks. The pelagic fisheries, which account for the largest catches (by weight) in the region, are the pelagic trawl fisheries for sprat and herring. The most important demersal fisheries were the bottom-trawl fisheries for cod and flatfish. Since 2020 there is no targeted EU fishery on cod in subdivision 24 and 25–32 and since 2022 no targeted fishery on cod throughout the Baltic (except for Russia). The demersal fisheries are concentrated in the south and west of the Baltic Sea, while the pelagic fisheries dominate from east of Bornholm to Finland. Flatfish are the main remaining benthic resource, mainly flounder and plaice. Recreational fisheries in the Baltic catch a diversity of species. Cod was a major target species but is regulated by bag limits since 2017 and now forbidden in all subdivisions. Most of the Baltic Sea fish stocks with reference points are fished at or below FMSY, only for sprat fishing mortality is above FMSY. The spawning-stock biomass is below the reference limit for both cod stocks and several herring stocks. In the last years fishing effort decreased to historic low levels for some pelagic and demersal trawl fisheries, especially in the western Baltic area. Despite historically low demersal fishing effort and additional management measures, the cod stocks show no signs of recovery. Besides the two cod stocks, stocks of herring, plaice, founder and dab show trends of decreasing body condition. Environmental stressors such as warming, eutrophication, hypoxic areas, habitat loss and cyanobacteria blooms are assumed to be factors for the current poor state of Baltic fisheries resources. However, piscine predators like grey seals and cormorants are abundant. Patterns of seabed habitat disturbance reflected the distribution of bottom-trawl fishing effort; however, trawl fisheries have decreased massively in recent years. Bycatches of seabirds (greater scaup, common guillemot, and long-tailed duck) occur at times in the gillnet fisheries; these fisheries also catch individuals of the critically endangered harbour porpoise in the Baltic Proper but the amount and the population effects of the bycatches are unclear. &lt;br&gt;&lt;br&gt;	
-Supporting data used in the Baltic Sea fisheries overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.27880068"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;  
-</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;The Baltic Sea is a semi-enclosed, brackish sea, characterized by a sequence of basins connected by shallower sills with vertical stratification of the water column (Figure 1). Salty, well-oxygenated water from the North Sea occasionally enters the Baltic Sea through the Belt Seas and propagates into the deeper areas, while freshwater flows exit at the surface. Stratification limits the oxygen from reaching the deeper waters, so the oxygen content of the bottom water depends on local oxygen consumption and the inflows of North Sea water. The ecoregion has a limited diversity of fish species, dominated by marine species in the southwestern areas and a combination of marine and freshwater species in the northeastern areas (subdivisions 28.1, 29–32). Fisheries in the Baltic Sea are focused on a few major species. &lt;br&gt;&lt;br&gt;
-&lt;br&gt;Commonly referred to areas in Baltic Sea are defined as follows: Western Baltic (subdivisions 22–24), Baltic Proper (subdivisions 25–29, excluding 28.1 [Gulf of Riga]), Central Baltic (subdivisions 2529), Bothnian Sea (subdivisions 30–31), and Gulf of Finland (subdivision 32). &lt;br&gt;&lt;br&gt;
-The overview covers ICES Subarea 27.3, excluding Division 27.3.a (hereafter, the area prefixes are omitted), and provides: &lt;br&gt;&lt;br&gt;
-&lt;ol style="font-size: 14px"&gt;
-&lt;li style="font-size: 14px"&gt;a short description of each of the national fishing fleets in the ecoregion, including their commercial and recreational fisheries and fishing gears and patterns; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a description of mixed-fisheries interactions in the ecoregion; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species. &lt;/li&gt;&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;Currently, fishing vessels from nine nations operate in the Baltic Sea, with the largest number of larger vessels (&gt; 12 m) coming from Sweden, Denmark, and Poland. Total finfish landings from the Baltic Sea peaked in the mid-1970s and again in the mid 1990s, corresponding to peaks in the abundance of cod and sprat stocks, respectively. The proportion of the total annual landings caught by each country has varied little over time, except for the redistribution of catches by former USSR countries (Figure 2). The following paragraphs highlight features of the fleets and fisheries of each country, but are not exhaustive descriptions. &lt;br&gt;&lt;br&gt; 
-&lt;b&gt;Denmark&lt;/b&gt;&lt;br&gt;
-The Danish fleet comprises close to 350 vessels, divided into offshore fisheries (approximately 100 vessels 8–12 m and 80 vessels &gt; 12 m) and coastal fisheries (approximately 150 vessels). The large vessel offshore fisheries target (a) sprat and herring in the northern Baltic Sea using small‐meshed pelagic trawls and (b) flatfish, mainly plaice but also flounder, dab, turbot and brill, in the southwestern Baltic fisheries using demersal trawls. The coastal fisheries occur along all coasts of the Belt Sea area and target several flatfish species using mainly gillnets, trapnets, or rarely poundnets. Recreational fisheries target different species depending on the season with plaice, salmon and sea trout being among the most important species. The main recreational fishing area for salmon is off Bornholm in subdivisions 24 and 25.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Estonia&lt;/b&gt;&lt;br&gt;
-The active offshore fleet comprises around 25–30 fishing vessels of 18–42 m, while the coastal fishery consists of several hundred small boats of &lt; 12 m. The pelagic fleet consists mostly of stern trawlers, targeting herring and sprat in subdivisions 28.1, 28.2, 29, and 32. About 25–30% of the herring catch is taken by coastal fisheries. Main areas of coastal herring fishery are the Gulf of Riga (Subdivision 28.1) and the Gulf of Finland (Subdivision 32), where trapnets and poundnets are used. Flounder is also taken using Danish seines and gillnets in the coastal fisheries in the Gulf of Riga and subdivisions 29 and 32. Recreational fisheries primarily target perch, pikeperch, flounder, and European whitefish, mainly in the Gulf of Riga. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Finland&lt;/b&gt;&lt;br&gt;
-The fleet comprises 3352 vessels, of which about 1300 vessels are actively used in the fishery. The vast majority of the vessels are &lt; 10 m and operate in coastal fisheries. The offshore fleet is composed of 47 vessels &gt; 10 m in the Baltic main basin, the Archipelago Sea, the Gulf of Bothnia, and the Gulf of Finland; it mainly targets Baltic herring stocks (with sprat taken mainly as bycatch) with pelagic trawls. The coastal fisheries occur on all parts of the coast using trapnets, fykenets, and gillnets; they catch salmon, European whitefish, pikeperch, perch, pike, vendace, burbot, smelt, and occasionally flounder. Recreational fisheries target mainly perch, pike, pikeperch, European whitefish, bream, and herring using gillnets, rods, fish traps, and fykenets along the coast of Gulf of Finland as well as in in the Archipelago Sea and Gulf of Bothnia. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
-The German commercial fleet in the Baltic Sea consists of about 58 trawlers and larger (&gt; 10 m total length) polyvalent vessels (those which use multiple gears), and about 596 vessels using exclusively passive gear (&lt; 12 m total length). The German herring fleet in the Baltic Sea, where all catches are taken in a directed fishery, consists of a coastal fleet with mostly undecked boats (rowing/motor boats ≤ 12 m) and a cutter fleet with decked vessels (total length 12–40 m). The German herring fishery in the Baltic Sea is conducted with gillnets, trapnets, and trawls. Historically passive and active gear shared the landings about 70:30, however, in recent years all landings were from passive gears. Herring are fished mostly in the spring spawning season and in Subdivision 24. In the central Baltic Sea almost all landings are taken by the trawl fishery. All catches of sprat are taken in a directed trawl fishery by cutters &gt;18 m in length. Most sprat is caught in subdivisions 25–29 in the first quarter. Demersal and benthic species are caught with bottom trawls and passive gears, particularly with gillnets but also trammelnets. The number of vessels in the active gear fishery has substantially decreased  and now mainly targets flatfish in subdivisions 22 and 24. The passive gear fisheries operate all year-round targeting different species, including coastal lagoons and river mouths, in different seasons. Recreational fisheries were carried out by an estimated 165 000 fishers, from all German shores and from boats (charter and private boats) mostly within 5 nautical miles (NM) off the coast; the main target species being herring, sea trout, salmon, flatfish species, and whiting. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Latvia&lt;/b&gt;&lt;br&gt;
-The fleet comprises around 55 registered offshore vessels (12–40 m) and 610 coastal vessels (&lt; 12 m). The offshore vessels target sprat in the Baltic main basin and herring in the Gulf of Riga using pelagic trawls. Flounder is targeted in subdivisions 25, 26, and 28 using demersal trawls. Since 2000, sprat and herring have accounted for 92% of the total annual landings. Most vessels in the coastal fleet are &lt;5 m and target herring, round goby, flounder, smelt, salmon, sea trout, vimba bream, turbot, and eelpout using fykenets, trapnets, and gillnets. Recreational fisheries occur on all coasts and target flounder, perch, and round goby.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Lithuania&lt;/b&gt;&lt;br&gt;
-The Lithuanian fishing fleet in 2020 comprised 21 offshore vessels (&gt; 18 m) and 58 coastal vessels (&lt; 12 m). The offshore fishing fleet uses pelagic and bottom trawls, with vessels switching between gears depending on target species, fishing conditions, and quota availability. The main target species are sprat, herring, and flounder caught mainly in subdivisions 25, 26, and 28 as well as to a lesser extent in subdivisions 27 and 29. The coastal fisheries target herring, smelt, round goby, flounder, and turbot using gillnets and trapnets within the Lithuanian coastal area of Subdivision 26. Recreational fisheries also occur in these waters and focus on herring, salmon, and sea trout using rod and lines. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Poland&lt;/b&gt;&lt;br&gt;
-The fishing fleet consists of around 150 active offshore vessels (12–35 m) and approximately 650 coastal vessels (&lt;12 m). The larger offshore vessels (&gt;18.5 m) target sprat and herring using pelagic trawls for fishing sprat and herring, while smaller offshore vessels (12–18.5 m) target flounder, and sandeel using bottom trawls. Fishing occurs mainly in subdivisions 24, 25, and 26 and these species form about 98% of the total annual landings. The coastal fisheries harvest mainly sea trout, flounder, turbot, plaice, roach, perch, bream, pikeperch. Recreational fisheries mostly target salmon and sea trout, primarily along the central Polish coast and off the Hel Peninsula. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Russian Federation&lt;/b&gt;&lt;br&gt;
-Note that this text has not been updated since 2022. &lt;br&gt;&lt;br&gt;
-The fishing fleet is composed of about 45 vessels divided into offshore fisheries (41 vessels by 25–31 m size class) and coastal fisheries (four vessels by 15–25 m size class). In Subdivision 26, the vessels fleet MRTK targets sprat and herring while the demersal trawl fleet (about 27 m), targets cod and flounder. The gillnet fleet targets cod with flounder as bycatch. A poundnet fishery targeting herring occurs in the Vistula Lagoon. In the eastern part of the Gulf of Finland (Subdivision 32), the MRTK fleet operates mainly in the first, second, and fourth quarters and is orientated to herring. Recreational fisheries targeting cod, flounder, turbot, and salmon, goby, and other non‐commercial species occur on all Russian coasts. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Sweden&lt;/b&gt;&lt;br&gt;
-The fleet is comprised of around 400 active vessels, whereof the majority (about 370 vessels) are &lt;12m. Around 10 vessels &gt;40m operate in the Baltic Sea, as well as 30 vessels of 12–39 m. Around 65 vessels fish with active gears, of which about two thirds target pelagic species with trawls, and the rest mostly target vendace in Bothnian Bay. The demersal trawl fishery for cod and flatfish has completely stopped since 2019, when the targeted cod fishery was prohibited. Coastal fisheries use a mixture of gillnets, longlines, and fish traps to catch flatfish as well as a variety of freshwater species (in the archipelagic areas) and herring, European whitefish, and salmon in Bothnian Bay. A coastal fishery using fykenets targets European eel and other species along the southeast coast. Recreational fisheries take place along the entire Baltic Sea coast and target marine and freshwater species including salmon, pike, perch, and sea trout. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Others&lt;/b&gt;&lt;br&gt;
-Historically countries others than those bordering the Baltic Sea have made some landings. However, in recent decades are exclusively from the nine bordering countries. &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt; The majority of fishing in the Faroes ecoregion is performed by Faroese vessels. The vast majority of the vessels participate in a mixed fishery for demersal fish, such as cod, haddock, saithe, ling, greater silver smelt, and Greenland halibut. Two main fleet categories operate under an effort management system with separated allocated fishing days: one group consists of single and pairtrawlers (&gt; 1000 hp) targeting saithe, while another group, mainly longliners of all sizes, targets cod and haddock. A small number of large vessels target widely distributed pelagic fish, i.e. herring, mackerel, and blue whiting using pelagic trawl. &lt;br&gt;&lt;br&gt;
-Demersal fish constituted the majority of the landings until the 1990s when pelagic landings increased considerably. Total landings peaked after 2000, and a noticeable drop around 2010 was caused by a decrease in the landings of blue whiting. Landings of demersal fish, especially cod and haddock, have been low since 2005. &lt;br&gt;&lt;br&gt;
-Discarding is prohibited in the pelagic fishery. Discarding in the demersal fisheries is considered negligible; however, there are no reliable estimates of potential discards. &lt;br&gt;&lt;br&gt;
-Stocks within the ecoregion are assessed for stock status and fishing pressure. Half of the stocks have a wider spatial distribution outside the ecoregion. The fishing pressure (in relation to FMSY) of demersal stocks has decreased since 2000 but is currently above sustainable limits. The biomass (in relation to MSY Btrigger) has increased in recent years. For the pelagic fisheries the fishing pressure has been around FMSY since 2010, but the stock size has decreased since 2017. &lt;br&gt;&lt;br&gt;
-Data on incidental bycatch of marine mammals and seabird species are scarce. Gillnets are banned in waters of less than 380 m depth around the Faroes, which might reduce both seabird and marine mammal bycatch in the region. &lt;br&gt;&lt;br&gt;
-Supporting data used in the Faroes ecoregion Fisheries Overview is accessible at &lt;ahref="https://doi.org/10.17895/ices.advice.27879915"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;  </t>
-  </si>
-  <si>
-    <t>&lt;br&gt;The Faroes ecoregion covers the shelf and surrounding waters inside the Faroe Islands Exclusive Economic Zone (EEZ); Figure 1). The waters around the Faroe Islands are in the upper 500 m dominated by the North Atlantic Current, which to the north of the islands meets the East Icelandic Current. Clockwise current systems create retention areas on the Faroe Plateau (Faroe Shelf around the Faroe Islands) and on the Faroe Bank (Figure 1 in ICES 5.b.2). In deeper waters to the north and east and in the Faroe Bank channel there is deep Norwegian Sea water, and to the south and west is Atlantic water. &lt;br&gt;&lt;br&gt;
-The fisheries within the ecoregion catch more than 30 stocks of fish and invertebrates. The main demersal species include cod (cod.27.5b1), haddock (had.27.5b), saithe (pok.27.5b), tusk (usk.27.3a45b6a7-912b), ling (lin.27.5b), golden redfish (reg.27.561214), Greenland halibut (ghl.27.561214), and anglerfish. The main pelagic species are the widely distributed Norwegian spring-spawning (NSS) herring (her.27.1-24a514a), blue whiting (whb.27.1-91214), mackerel (mac.27.nea), and greater silver smelt (aru.27.5b6a). &lt;br&gt;&lt;br&gt;
-The majority of fishing in the Faroes ecoregion is performed by Faroese vessels. The fisheries for most stocks in this ecoregion are managed by the Faroe Islands government, while management of some shared stocks is conducted either through the North East Atlantic Fisheries Commission (NEAFC) or by coastal state agreements (between EU, Iceland, Greenland, the Faroe Islands, Norway, Russian Federation, and UK). &lt;br&gt;&lt;br&gt;
-This overview covers ICES Division 5.b and part of Division 2.a.2 (Figure 1), and provides: &lt;br&gt;&lt;br&gt;
-&lt;ol style="font-size: 14px"&gt;
-&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion as well as fishing gears and patterns; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a summary of the status of the resources and the level of exploitation relative to agreed objectives and reference points; and &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species. &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-The landings presented in this overview are based on official landings statistics for subareas 5.b.1.b and 5.b.2. This area includes most landings of the demersal stocks for this ecoregion. The majority of NSS herring and mackerel landings from the ecoregion originate in Division 2.a and substantial blue whiting landings in Division 6.a. The presented landings of these three widely distributed pelagic stocks are likely to be underestimated for this ecoregion. &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt;The majority of fishing in the Faroes ecoregion is performed by Faroese vessels (Figure 2). Vessels from Norway, Iceland, EU, UK, Greenland, and the Russian Federation are also allowed to fish within the Faroese EEZ through NEAFC as well as coastal state and bilateral agreements. Since 1977, when the 200 nautical mile EEZ was established, foreign vessels not subject to those agreements have been excluded. The following paragraphs highlight features of the fleets and fisheries of the countries that operate within the Faroese EEZ in the period 2015–2020. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Faroes&lt;/b&gt;&lt;br&gt;
-In the demersal fishery, there are up to 500 small longliners and jiggers (&lt; 15 grt) fishing for cod and haddock in a mixed fishery. The medium or large vessels consist of around 13 large single/pairtrawlers (&gt; 1000 hp), around six smaller ones (&lt; 799 hp), around 13 large longliners (&gt; 110 GRT), and around ten smaller longliners (40–110 GRT). &lt;br&gt;&lt;br&gt;
-In the pelagic fishery, there are around ten large vessels operating with trawl or purse seine mainly fishing for blue whiting but to some extent also mackerel and NSS herring. In addition, there are landings of a local herring stock. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
-Between 16 and 20 Icelandic pelagic vessels fished for blue whiting 2017–2020. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
-There are between three and five Norwegian longliners fishing for ling and tusk on the Faroe Plateau and the Faroe Bank. Norwegian vessels annually fish some blue whiting in the ecoregion, which might in some years be quite substantial (e.g. in 2015). &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
-Russian pelagic trawlers fish for blue whiting, NSS herring, and mackerel. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;UK&lt;/b&gt;&lt;br&gt;
-A few UK demersal trawlers fish for cod, haddock, and saithe. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Greenland&lt;/b&gt;&lt;br&gt;
-Greenlandic pelagic trawlers fish for blue whiting and NSS herring. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
-German pelagic vessels fish for blue whiting and NSS herring and mackerel. &lt;br&gt;&lt;br&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt;The Greenland Sea ecoregion covers the shelf and surrounding waters within the Greenlandic EEZ (Figure 1). The region is located along the entire east coast of Greenland, reaching from the Central Arctic Ocean ecoregion in the north to the Oceanic Northeast Atlantic ecoregion in the south and along the western boundaries of the Norwegian Sea and the Icelandic Waters ecoregion. The ocean and coastal shelves are strongly influenced by cold low-saline water from the north and warm high-saline water from the south; further details can be found in the Greenland Sea ecosystem overview. &lt;br&gt;&lt;br&gt;
-Fishing activity is mainly concentrated in the southern part of the region, south of 68°N. The most important demersal fisheries are the bottom-trawl fisheries for Atlantic cod (cod.2127.1f14), Greenland halibut, golden redfish, and demersal beaked redfish (reb.27.14b). Northern shrimp is the main exploited invertebrate species in this ecoregion. The primary pelagic species are herring and mackerel. &lt;br&gt;&lt;br&gt;
-Supporting data prior to 2000 used in this fisheries overview is accessible at: &lt;ahref="https://doi.org/10.17895/ices.advice.27879759"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;  
-The Greenland Sea ecoregion lies within FAO Major Fishing Area 27 (the prefix “27” in the ICES statistical area codes is therefore omitted herein). The area of the Greenland Sea ecoregion covers all of ICES divisions and subdivisions 12.a.3, 14.a and 14.b.2, and part of Division 5.a.2 (Figure 1). &lt;br&gt;&lt;br&gt;
-The overview provides: &lt;br&gt;&lt;br&gt;
-&lt;ol style="font-size: 14px"&gt;
-&lt;li style="font-size: 14px"&gt;a short description of each of the fishing gears used, the national commercial fishing fleets in the ecoregion, their catch statistics, and spatial and temporal patterns of activity. Information on the hunting of marine mammals is not included; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and defined reference points; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a description of mixed-fisheries interactions in the ecosystem; and, &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed. &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-The scientific names of all species described in this overview are listed in Table A2. &lt;br&gt;&lt;br&gt; 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beyond the Greenlandic fleet, marine resources in the ecoregion have been subject to exploitation by multiple countries, including the EU Member States, Iceland, the Faroe Islands, Norway, and Russia. &lt;br&gt;&lt;br&gt;
-Apart from an insignificant inshore fishery with small boats, the fishing is mostly conducted by large industrial factory vessels of 50–100 m length that employ various types of fishing gears and target multiple species. About 40–60 vessels fished in the ecoregion in recent years (Figure 3). The number of vessels has fluctuated depending on resource availability, with notable increases in fisheries for pelagic stocks after 2011 (Figure 5). &lt;br&gt;&lt;br&gt;
-Greenland accounts for most of the active vessels in both the demersal and the pelagic fisheries (Figure 6). From 2012 to 2015, the number of Greenlandic vessels increased notably and has since remained high. Since 2020, the number of Greenlandic vessels has declined markedly, as most of the pelagic fleet moved to fishing areas outside this ecoregion, following the target species mackerel. The largest number of foreign vessels are from EU, the Faroe Islands, and Norway. &lt;br&gt;&lt;br&gt;
-Greenlandic, EU, and Norwegian vessels have accounted for most of the bottom-trawl fishery over time, measured as the number of vessels registered with that gear. Longline fishing is mostly conducted by Greenland, Norway, and the Faroe Islands. Pelagic fisheries have been operated by Greenland, Russia, Iceland, the Faroe Islands, and EU. &lt;br&gt;&lt;br&gt;
-Total landings by the different countries have varied through time. Nowadays, Greenland takes most of the landings (Figure 5). Mackerel catches in the ecoregion, which began with significant amounts in 2012, were initially made by both Greenlandic vessels and chartered foreign vessels. However, currently only Greenlandic vessels are involved in the fishery. &lt;br&gt;&lt;br&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt;The Icelandic Waters ecoregion covers the shelf and the waters surrounding Iceland and is equivalent to the Icelandic Exclusive Economic Zone (EEZ; Figure 1). The region is located at the junction of the Mid-Atlantic Ridge and the Greenland-Scotland Ridge, just south of the Arctic Circle. The ocean and coastal shelves are heavily influenced by oceanic inputs where water masses of different origins mix. Further details can be found in the ecosystem overview for Icelandic Waters. &lt;br&gt;&lt;br&gt;
-The fisheries within the ecoregion catch more than 40 stocks of fish and marine invertebrates. The main demersal species include cod (cod.27.5a), haddock (had.27.5a), saithe (pok.27.5a), golden redfish (reg.27.561214), Greenland halibut (ghl.27.561214), Atlantic wolffish (caa.27.5a), plaice (ple.27.5a), tusk (usk.27.5a14), and ling (lin.27.5a). The main pelagic species are capelin (cap.27.2a514)and summer-spawning herring (her.27.5a), as well as widely distributed species such as Norwegian spring-spawning (NSS) herring (her.27.1-24a514a), blue whiting (whb.27.1-91214), and mackerel (mac.27.nea). Norway lobster, northern shrimp, and sea cucumber are the main invertebrate stocks that are exploited in Icelandic Waters. &lt;br&gt;&lt;br&gt;
-The fisheries for most stocks in this ecoregion are managed by the Icelandic Government, while fisheries of some shared stocks are subject to international negotiation through the North East Atlantic Fisheries Commission (NEAFC) or by coastal state agreements (between Iceland, Greenland, the Faroe Islands, and Norway). &lt;br&gt;&lt;br&gt;
-All of the Icelandic Waters ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area codes is therefore omitted in the following text. This overview covers ICES Division 5.a and parts of divisions 2.a, 5.b, 12.a, 14.a, and 14.b, and provides: &lt;br&gt;&lt;br&gt;
-&lt;ol style="font-size: 14px"&gt;
-&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a description of mixed fisheries interactions in the ecosystem; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species. &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-The scientific names of all species are included in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt;The majority of fishing in the Icelandic Waters ecoregion is performed by vessels from Iceland. Vessels from Norway, Greenland and the Faroe Islands are also allowed to fish within the 200 nautical mile Icelandic EEZ through coastal state and bilateral agreements. Since its establishment in 1978, the EEZ has excluded foreign vessels not subject to those agreements (Figure 7). Around 1750 vessels operate in Icelandic Waters. The following paragraphs highlight features of the fleets and fisheries of the different countries that operate within the Icelandic EEZ. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
-Currently, the Icelandic fleet consists of around 1535 vessels of various sizes and types and has decreased by approximately 480 vessels since the turn of the century (Figure 16). The official statistics separate the fleet into three main categories: Bottom trawlers, decked vessels, and undecked vessels. &lt;br&gt;&lt;br&gt;
-About 40 bottom trawlers (30–90 m in overall length [LOA] and with a volume of between 200 and 2000 gross tonnes [GT]) operate in Icelandic Waters. These vessels are almost exclusively engaged in demersal fisheries, mainly fishing for cod, haddock, saithe, redfish and Greenland halibut. The number of bottom trawlers has decreased by more than half since 1999 (Figure 16). &lt;br&gt;&lt;br&gt;
-Decked vessels include several different types and size ranges, from those with 10 GT to over 4500 GT. This is by far the most diverse category, as it ranges from small boats to large vessels and includes specialized demersal seiners, small bottom trawlers, dredgers, longliners, and purse-seiners. About 20 pelagic vessels (60–90 m LOA) fish for capelin, herring, mackerel, and blue whiting using pelagic trawls and purse-seines. Roughly 40 demersal seiners (10–45 m LOA) operate in Icelandic Waters, fishing for cod, haddock, Atlantic wolffish, plaice, and other flatfish species. The number of intermediate-sized vessels (mostly 10–50 m LOA) using static gear – i.e. longline and gillnet, or small otter trawls – fishing for Norway lobster, northern shrimp, cod, and haddock is around 650.  &lt;br&gt;&lt;br&gt;
-Approximately 820 undecked vessels, fishing mainly for cod and lumpfish, participated in the fishery 2018–2023; this number has decreased by more than 300 since 1999. Undecked vessels cover numerous vessels &lt;10 m in LOA and up to 10 GT in volume, although most in this category are less than 6 GT (Figure 3). Many of these small vessels are technologically advanced and driven by powerful engines. These vessels mainly operate in inshore areas or close to shore. &lt;br&gt;&lt;br&gt;
-Two large vessels (50 m LOA) participate in the fin whale hunt, whereas three-five small vessels (undecked, &lt; 10 m LOA) participate in the minke whale hunt. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;
-Through a coastal state agreement, the Faroe Islands have a quota of the Iceland–Greenland–Jan Mayen capelin stock, which they are allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between four and six pelagic vessels using pelagic trawls were directed to capelin. No capelin fishery was conducted in Icelandic Waters in 2019 or 2020. There is a bilateral agreement (revised annually) between Iceland and the Faroe Islands that allows Faroese longliners to fish for demersal species in the Icelandic EEZ and pelagic vessels to fish for NSS herring (since 2018). Since 2014, between 7 and 11 Faroese longliners have operated annually in Icelandic Waters, fishing mainly cod, haddock, ling, and tusk. From 2019 to 2023, between 11 and 19 Faroese pelagic vessels using pelagic trawls fished for NSS herring in the Icelandic Waters ecoregion. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Greenland&lt;/b&gt;&lt;br&gt;
-Through a coastal state agreement, Greenland has a quota of the Iceland–Greenland–Jan Mayen capelin stock, which it is allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between one and three pelagic vessels, using pelagic trawls and purse-seines, operated in Icelandic Waters. No capelin fishery was conducted in Icelandic Waters in 2019 or 2020. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
-Through a coastal state agreement, Norway has a quota of the Iceland–Greenland–Jan Mayen capelin stock, which it is allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between 46 and 67 pelagic vessels, using pelagic trawls and purse-seines, operated in Icelandic Waters. No capelin fishery was conducted in Icelandic Waters in 2019 or 2020. There is a bilateral agreement between Iceland and Norway for two Norwegian longliners to catch demersal fish, mainly ling and tusk. &lt;br&gt;&lt;br&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt;The commercial fisheries in the Oceanic Northeast Atlantic ecoregion target few stocks. The main fisheries in the area are a multinational fishery on two pelagic beaked redfish stocks in the northwestern part of the ecoregion and a fishery on blue whiting on the Hatton-Rockall plateau and west of the Porcupine Bank using midwater trawl. The demersal fisheries for haddock at Rockall account for only a small proportion of the total catches of haddock taken in this ecoregion. Fishing for tuna (bluefin, skipjack, bigeye, and albacore) and other large pelagic species (swordfish) by long distance longliners occurs across much of this ecoregion. Very few deep-sea fisheries are conducted in the region. &lt;br&gt;&lt;br&gt;
-There are currently around 20 nations with fisheries targeting the stocks in the ecoregion. Norway, Iceland, and Russia Federation have the largest fleets and dominate the landings in the region. Total landings have varied since the mid 1970s, with a rise in the recent decade which is mainly due to increased blue whiting catches. Two beaked redfish stocks dominated the catches (by weight) until 2000. Catches of these beaked redfish stocks have decreased considerably since the peak of the fishery in the mid-1990s. &lt;br&gt;&lt;br&gt;
-The Oceanic Northeast Atlantic ecoregion has 52 stocks for which ICES provided advice in 2021. Around 13% of the assessed stocks are fished at or below FMSY target levels; around 19% of the stocks were assessed to be above MSY Btrigger. The majority of the stocks have unknown stock and fishing mortality statuses. &lt;br&gt;&lt;br&gt;
-Supporting data used in the Oceanic Northeast Atlantic fisheries overview is accessible at &lt;ahref="https://doi.org/10.17895/ices.advice.27880092"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt;The Oceanic Northeast Atlantic ecoregion consists of the portion of the ICES statistical area (Figure 1) that is beyond national jurisdiction (ABNJ), i.e. outside the 200 nautical mile limit of the Exclusive Economic Zones (EEZs) of the EU Member States, the Faroe Islands, Iceland, Greenland, and United Kingdom. The ecoregion is mostly deeper than 1000 m, with only a small fraction of the seabed (ca. 0.03%) shallower than 500 m. &lt;br&gt;&lt;br&gt;
-The entire ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area codes is therefore omitted in the following list of divisions and subdivisions that this overview covers: 5.b.1.a, 6.b.1, 7.c.1, 7.k.1, 8.e.1, 8.d.1, 9.b.1, 10.a.1, 10.b, 12.a.1, 12.b, 12.c, and 14.b.1 (Figure 1). &lt;br&gt;&lt;br&gt;
-This fisheries overview provides: &lt;br&gt;&lt;br&gt;
-&lt;ol style="font-size: 14px"&gt;
-&lt;li style="font-size: 14px"&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears and spatial and temporal patterns of activity; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points; &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;a description of mixed fisheries interactions in the ecosystem, and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species. &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt;The main fishery operating in the area has been a multinational pelagic which fishes on two beaked redfish stocks (shallow pelagic [reb.2127.sp] and deep pelagic [reb.2127.dp]) in the northwestern part of the ecoregion and blue whiting (whb.27.1-91214) in the Rockall-Hatton and west of the Porcupine area. &lt;br&gt;&lt;br&gt;
-This redfish fishery commenced in the early 1980s. The number of vessels participating in the fishery decreased substantially as the stocks were depleted. The combined catch of both stocks peaked in 1996 when 180 000 tonnes were caught; this has since declined to an annual catch of about 30 000 tonnes. Catches of blue whiting have been high since the early 2000s, peaking at very high levels (over 200 000 thousand tonnes) recently. &lt;br&gt;&lt;br&gt;
-Fisheries for deep-sea species developed in the early 1970s and peaked at 30 000 tonnes in 1975. Since then, effort has declined, and landings now amount to less than 4 000 tonnes per year. The current relatively small fisheries are mainly conducted by a few trawlers and longliners that are primarily from the EU and Faroe Islands. &lt;br&gt;&lt;br&gt;
-There are demersal fisheries for haddock (had.27.6b) at Rockall, but these account for only a small proportion of the total catches of this stock taken in this ecoregion. &lt;br&gt;&lt;br&gt;
-The fishery within this extensive ecoregion is a multinational one that targets many marine stocks. Currently, about 20 countries have fisheries within the ecoregion. The greatest amounts of landings are taken by Norway, Russian Federation, and Iceland, who mainly target pelagic beaked redfish and blue whiting. Lesser amounts are landed by Spain, Germany, Portugal, Netherlands, Ireland, the Faroe Islands, Latvia, and Lithuania. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
-The Norwegian fleet fishing this ecoregion consists of about 50–60 pelagic trawlers and five to six demersal longline vessels. The highest fishing activity is in the northeastern area, close to the continental shelf edge bordering the Celtic Seas ecoregion and the shallower banks in the same area. The pelagic fleet mainly targets blue whiting – but also other pelagic species. Catches of beaked redfish are taken in the northwestern corner of this ecoregion. The demersal longliners mainly target ling (lin.27.3a4a6-91214) and tusk (usk.27.3a45b6a7-912b, usk.27.12ac, and usk.27.6b). &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
-Industrial factory vessels target pelagic beaked redfish in the northwestern part of the ecoregion. The number of vessels participating in this fishery has decreased substantially over time, from around 25 at the peak of the fishery in 
-1996–2002 to only four in 2019. Iceland has not participated in the fishery since 2020. &lt;br&gt;&lt;br&gt;
-In some years the Icelandic pelagic fleet (10–16 vessels &gt; 65 m) catches part of its blue whiting quota (16–23% in 
-2017–2023) in the ecoregion, using pelagic trawls. The fishery occurs mainly in the northeastern part of the ecoregion, close to the continental shelf edge bordering the Celtic Seas ecoregion and the shallower banks in the same area. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Ireland&lt;/b&gt;&lt;br&gt;
-The very minor pelagic trawl fishing activity by Ireland in this ecoregion is an extension of the fisheries occurring in the Celtic Seas ecoregion. The albacore tuna fishery, in some years, extends beyond the Irish EEZ southwest of the country. Similarly, the blue whiting fishery occasionally extends west of the Porcupine Bank. There is some Irish demersal trawling activity on the western side of the Rockall bank mainly targeting anglerfish and megrim. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
-The Spanish bottom-trawling fleet operated mainly on the western slope of the Hatton Bank and until 2018 consisted of three to six vessels larger than 50 m length, although in recent years the effort was drastically reduced until it reached zero vessels in 2021. The Spanish fishing fleet has been virtually absent  ever since, although this could change in future. &lt;br&gt;&lt;br&gt;
-The most important species targeted have traditionally been Baird's slickhead, blue ling (bli.27.nea), roundnose grenadier (rng.27.1245a8914ab, rng.27.5a10b12ac14b, and rng.27.5b6712b), black scabbardfish (bsf.27.nea), and Greenland halibut. There has also been a pelagic beaked redfish fishery in the northwestern part of the ecoregion (Subdivision 14.b.1), although the size of the Spanish fleet operating in the ecoregion has decreased during recent years, and the fishery has remained closed since 2021, as a result of the low stock biomass and recruitment levels. &lt;br&gt;&lt;br&gt;
-The Spanish pelagic longline fleet (about 33 vessels) operates in the area part of the year in the southern area of the ecoregion (Subarea 10), fishing mainly for swordfish and blue shark. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Faroes&lt;/b&gt;&lt;br&gt;
-At the peak of the pelagic beaked redfish fishery in the mid-1990s (Subdivision 14.b.1), up to seven Faroese vessels participated in the fishery. Since 2020, Faroese vessels have not fished on this stock. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
-Only one French vessel (targeting blue whiting) operates in the eastern part of the ecoregion. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
-Information on the Russian fishing activities have not been available since 2022. The Russian fleet is the largest one participating in the pelagic beaked redfish fishery in the northwestern part of the ecoregion (Subdivision 14.b.1 and Subarea 12). The fleet consists of industrial factory ships. In recent years about 15 vessels have participated in the fishery; during the peak of the fishery (second half of the 1990s and early 2000s), 35–40 vessels participated. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
-Portugal took part in the pelagic beaked redfish fishery during 1994–2012 (subareas 5, 12, and 14). In 2011 and 2012 only four vessels participated in this fishery. The Portuguese pelagic longlining fleet operates in the southern part of the ecoregion (Subarea 10), targeting swordfish and blue shark. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Netherlands&lt;/b&gt;&lt;br&gt;
-The Dutch fleet has minimal activity in the ecoregion. The pelagic fleet, consisting of seven vessels that target blue whiting, mackerel (mac.27.nea), horse mackerel (hom.27.2a4a5b6a7a-ce-k8), and herring, operates on the eastern border of the ecoregion and in adjacent waters, with occasional landings originating from the Oceanic Northeast Atlantic ecoregion. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Others&lt;/b&gt;&lt;br&gt;
-Until 2020, Germany (one industrial factory vessel), Lithuania (one industrial factory vessel), and Latvia (one industrial factory vessel) participated in the pelagic beaked redfish fishery in the western part of the ecoregion (Subdivision 14.b.1 and Subarea 12). Other countries, such as Japan, China and the Republic of Korea, fish for bluefin tuna in this ecoregion. &lt;br&gt;&lt;br&gt;
-</t>
   </si>
   <si>
     <t>landings</t>
@@ -3342,6 +2841,607 @@
   </si>
   <si>
     <t>summary</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;The Greater North Sea ecoregion includes the North Sea, English Channel, Skagerrak, and Kattegat. The Greater North Sea
+is a relatively shallow sea area on the European continental shelf, with the exception of the Norwegian Trench that extends
+parallel to the Norwegian shoreline. Pelagic species (primarily herring and mackerel) account for a significant portion of
+the total commercial fish landings in the region. Landings of benthic and demersal finfish species (primarily haddock,
+sandeel, flatfish, and cod) are also significant. &lt;br&gt;&lt;br&gt; 
+All of the Greater North Sea ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area
+codes is therefore omitted in the following. This overview covers ICES Division 3.a, most of divisions 4.a, 4.b, 4.c, 7.d, and
+part of Division 7.e, as well as Subdivision 3.b.23. This overview does not include the fisheries in the western English
+Channel (Division 7.e) and in the Sound (Division 3.b.23).
+Note that updates to the figures using data from the stock assessment graphs (SAG) include only advice published before
+10 October 2022. Therefore anf.27.3a46, meg.27.7b-k8abd, rjn.27.678abd, and the Norway lobster stocks refer to the
+advice current at this time (the advice applicable for 2022).&lt;br&gt;&lt;br&gt; 
+This overview provides:&lt;br&gt;&lt;br&gt;
+&lt;ol&gt;
+&lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears,
+and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
+reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li&gt;mixed-fisheries considerations of relevance to the management of the fisheries; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+&lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
+protected, endangered, and threatened species.&lt;/li&gt;
+&lt;/ol&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in Stock Status Table tab. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Around 6600 vessels from nine nations operate in the Greater North Sea, with the largest numbers coming from UK,
+Norway, Denmark, the Netherlands, and France. Total landings peaked in the early 1970s and have since declined. The
+proportion caught by each country of the total annual landings has varied over time (Figure 2). The following country
+paragraphs highlight features of the fleets and fisheries of each country but are not exhaustive descriptions.
+&lt;/p&gt;
+&lt;p&gt;
+In the European Commission’s Scientific Technical and Economic Committee for Fisheries (STECF) Fisheries Dependence
+Information (FDI) data call, “confidentiality” in the landings and effort tables by country was introduced. The data call
+suggests that data related to fewer than three vessels could be considered confidential. Given the disaggregation of this
+data call (e.g. vessel length, gear, mesh size, quarter) many entries were submitted as confidential. It is therefore not
+possible to assess the extent to which the effort data are impacted by confidentiality and whether this is consistent over
+time. As a consequence, and in a change from previous years, no effort by country was presented in this fisheries overview.
+&lt;/p&gt;
+&lt;h4&gt;Belgium&lt;/h4&gt;
+&lt;p&gt;
+The Belgian fishing fleet is composed of 65 active vessels, primarily beam trawlers both above and below 24 m in length.
+Few vessels are smaller than 12 m. Most of the catch is demersal species; sole is the dominant species in value, and plaice
+the dominant species in volume. Other important species include Norway lobster, anglerfish, turbot, shrimp, lemon sole,
+common cuttlefish, squid, rays, and cod.
+&lt;/p&gt;
+&lt;h4&gt;Denmark&lt;/h4&gt;
+&lt;p&gt;
+The Danish fleet in 2019 had 717 vessels operating in the Greater North Sea, representing around half of the entire Danish
+fleet (1560 vessels). The size of the fleet has been generally decreasing over the last decade and in 2010 there were 968
+vessels operating. A fishing operation is defined as a combination of vessel and gear, so vessels using multiple gear types
+count multiple times.
+&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;There were around 600 operations by smaller vessels (&amp;lt; 12 m) in 2019 compared to around 800 in 2010, mainly gillnetting supplemented by pot and trap operations for small vessels and demersal operations for larger ones.&lt;/li&gt;
+  &lt;li&gt;Medium-sized vessels (12–40 m) accounted for around 281 operations in 2019, mainly demersal trawling, down from 439 in 2010.&lt;/li&gt;
+  &lt;li&gt;Large vessels (&amp;gt; 40 m) had 54 operations in 2019, split between demersal and pelagic trawlers, down from 75 in 2010.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+The total value of the Danish fishery from the Greater North Sea has been relatively constant from 2010 to 2019. Demersal
+trawlers dominate value (around six times gillnetters). The main demersal targets are cod, plaice, saithe, northern shrimp,
+and Nephrops. Pelagic fisheries target herring, mackerel, sandeel, sprat, and Norway pout.
+&lt;/p&gt;
+&lt;h4&gt;France&lt;/h4&gt;
+&lt;p&gt;
+The French fleet in the North Sea is composed of more than 600 vessels. Demersal fisheries operate mainly in the eastern
+English Channel and southern North Sea. Until 2016, the largest segments were gill- and trammelnetters (10–18 m),
+followed by demersal trawlers (12–24 m) and dredgers catching scallops.
+&lt;/p&gt;
+&lt;p&gt;
+Since 2016, activity of gill- and trammelnetters has decreased substantially, with many vessels converting to pot fisheries
+(targeting whelks and crustaceans) or ceasing operations due to difficulties catching sole in Division 7.d and Division 4.c.
+Smaller boats switch gears seasonally. A fleet of six large demersal trawlers (&amp;gt; 40 m) target saithe. Three pelagic vessels
+catch herring, mackerel, and horse-mackerel.
+&lt;/p&gt;
+&lt;h4&gt;Germany&lt;/h4&gt;
+&lt;p&gt;
+The German North Sea fleet comprises more than 200 vessels. Small beam trawlers (12–24 m) dominate (around 175 in
+2019), targeting brown shrimp. Medium- and large-sized beam trawlers target sole and plaice; otter trawlers (about nine)
+target Norway lobster and plaice; medium demersal trawlers target saithe, plaice, cod, hake, and haddock. Large pelagic
+trawlers (&amp;gt; 40 m; five vessels) target herring and other pelagic species.
+&lt;/p&gt;
+&lt;p&gt;
+Overall, vessel numbers declined over the last decade, especially small beam trawlers (−25%) and otter trawlers (−50%).
+Pelagic trawlers remained stable.
+&lt;/p&gt;
+&lt;h4&gt;Netherlands&lt;/h4&gt;
+&lt;p&gt;
+The Dutch fleet includes about 500 vessels. The beam trawl fleet (275 vessels) dominates, targeting sole and plaice. Until
+the EU-wide ban, large beam trawlers used pulse trawls. Smaller beam trawlers (“Eurocutters”) seasonally target shrimp or
+flatfish. Pelagic freezer trawlers (seven vessels, &amp;gt; 60 m) target herring, mackerel, and horse mackerel.
+&lt;/p&gt;
+&lt;h4&gt;Norway&lt;/h4&gt;
+&lt;p&gt;
+The Norwegian North Sea fleet includes about 1500 vessels. Approximately 94% catch demersal species; 33% catch pelagic
+species; 27% catch both. This change from 2009 is driven by a sharp increase in small vessels (&amp;lt; 11 m) targeting demersal
+species only.
+&lt;/p&gt;
+&lt;p&gt;
+Sandeel makes up a significant share of total landings. Over 75% of the fleet are small vessels located near the coast using
+traps, pots, shrimp trawls, and gillnets. Medium vessels (11–24 m) mainly target Norway lobster, crabs, shrimp, and pelagic
+species. Larger vessels (15% of the fleet) target pelagic fish, saithe, and others. The largest vessels (&amp;gt; 40 m) account for more
+than 80% of total landings.
+&lt;/p&gt;
+&lt;h4&gt;Sweden&lt;/h4&gt;
+&lt;p&gt;
+The Swedish fleet includes more than 400 vessels, mostly operating in the Skagerrak and Kattegat, and about 25 also fish in
+the North Sea. Around 130 vessels operate demersal trawls, targeting Norway lobster, northern shrimp, cod, witch,
+flounder, and saithe. Around 270 vessels use passive gears (pots, gillnets, lines). The pelagic fleet consists of just over ten
+vessels targeting herring and sprat.
+&lt;/p&gt;
+&lt;p&gt;
+The fleet has decreased by around 20% since 2009 due to reduced fishing opportunities, poor profitability, scrapping
+campaigns, and transferable fishing rights introduced in 2017.
+&lt;/p&gt;
+&lt;h4&gt;UK (England)&lt;/h4&gt;
+&lt;p&gt;
+The English fleet operating in the Greater North Sea in 2019 comprised 1133 vessels, continuing a long-term decline
+(especially in the under 10 m fleet).
+&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;The &amp;lt; 10 m sector (~882 vessels) targets diverse fish and shellfish, mostly non-quota shellfish.&lt;/li&gt;
+  &lt;li&gt;The 10–15 m sector is stable at ~190 vessels and mainly targets non-quota shellfish; few target finfish.&lt;/li&gt;
+  &lt;li&gt;The 15–40 m sector has declined from 113 vessels in 2009 to 70, targeting cockle and edible crab.&lt;/li&gt;
+  &lt;li&gt;There were 12 vessels &amp;gt; 40 m in 2019, targeting demersal and some pelagic finfish.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;h4&gt;UK (Scotland)&lt;/h4&gt;
+&lt;p&gt;
+The Scottish North Sea fleet comprises around 1000 vessels. Over 120 demersal trawlers (&amp;gt; 10 m) target mixed gadoids and
+groundfish. A fleet of 139 trawlers target Norway lobster (48 &amp;lt; 10 m, 91 &amp;gt; 10 m). Pot/creel fisheries are prosecuted by over
+650 vessels (&amp;lt; 10 m). Around 80 dredgers target scallops. Pelagic species are harvested by 18 large vessels using pelagic
+trawls.
+&lt;/p&gt;
+&lt;p&gt;
+The Faroe Islands also fish in the Greater North Sea, but ICES does not have information on this fleet.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;
+    The largest landings in this ecoregion are by Norway, the Russian Federation (Russia henceforth), Faroe Islands, and Iceland, mainly by pelagic fisheries. Other nations also have fisheries in the area. The number of fishing vessels is declining while the size of the remaining vessels is increasing. The annual catch in the ecoregion has varied between 700 000 tonnes to over 2 million tonnes.
+  &lt;/li&gt;
+  &lt;li&gt;
+    The pelagic fisheries, using purse-seine and pelagic trawls, account for the largest catches by weight and target Norwegian spring-spawning (NSS) herring (her.27.1-24a514a), blue whiting (whb.27.1-91214), mackerel (mac.27.nea), and other pelagic species. The largest demersal fishery targets cod (cod.27.1-2), haddock (had.27.1-2), and saithe (pok.27.1-2) using bottom trawls, purse-seine, Danish seine and gillnets, and to a lesser extent hook and line gear. Smaller fisheries target other gadoid species, Greenland halibut (ghl.27.1-2), and beaked redfish (reb.27.1-2). Landings of pelagic species within the ecoregion in the last decades have been variable. The demersal fisheries, dominated by cod, display less pronounced fluctuations than the pelagic fisheries. Information about discards is sparse, but the total weight of discards is considered low in both the pelagic and the demersal fisheries. Harp seals and minke whales are hunted in the region.
+  &lt;/li&gt;
+  &lt;li&gt;
+    Status summaries of Norwegian Sea stocks relative to ICES maximum sustainable yield (MSY) approach and precautionary approach (PA) are known for about 42% of the 19 stocks assessed by ICES in this ecoregion. Only 21% of the stocks are fished below F MSY, accounting for less than 1% of the total catch. 21% of the stocks have a biomass above MSY Btrigger, accounting for 86% of the total catch. Demersal stocks have shown a trend of declining fishing mortality since the mid-1990s, followed by a sharp increase in 2019, largely driven by the exploitation pattern of redfish. In 2021 the average F/F MSY ratio was close to 1. The mean SSB/MSY Btrigger ratio of demersal stocks has been decreasing over the last decade, but mean SSB remains above MSY Btrigger and increased in 2021. The average F/F MSY ratio for pelagic stocks has fluctuated slightly above 1 since 2005. The mean SSB/MSY Btrigger ratio for pelagic species has been well above 1 the last two decades though followed by a recent sharp decline, but remains above 1.
+  &lt;/li&gt;
+  &lt;li&gt;
+    In addition to biomass removal, ecosystem effects of fisheries include abrasion, ghost fishing, and bycatch of protected, endangered, and threatened species.
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+  Supporting data used in the Norwegian Sea fisheries overview can be accessed at
+  &lt;a href="https://doi.org/10.17895/ices.advice.27879897"&gt;ICES Library&lt;/a&gt;.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;The Norwegian Sea connects with the Faroes ecoregion to the southwest, the Icelandic Waters ecoregion and Greenland Sea to the west along the edge to the shallower Iceland Sea between the Faroe Islands, and northwards to Jan Mayen. To the south it borders to the shallower North Sea along the 62 ̊N parallel between Norway and the Faroe Islands, and to the northeast the shallower Barents Sea (Figure 1). The Norwegian Sea covers more than 1.1 million km2, consisting of two deep basins (between 3000 m and 4000 m deep) – the Norwegian Basin and the Lofoten Basin – separated by the Vøring Plateau (between 1000 m and 3000 m deep). The Norwegian Sea is separated from the Greenland Sea to the north by the Mohn Ridge. To the west, the basin slope forms the transition to the somewhat shallower Iceland Sea. The warm North Atlantic Current ensures relatively stable and high water temperatures, so that unlike the Arctic seas, the Norwegian Sea is ice-free throughout the year.&lt;br&gt;&lt;br&gt;
+Due to the temporary suspension of Russian Federation in ICES activities, ICES did not conduct assessments for the following stocks in 2022: cod.27.1-2, had.27.1-2, and reb.27.1-2. The results of the bilateral Norwegian−Russian assessments for these stocks are not included in this overview.&lt;br&gt;&lt;br&gt;
+This overview provides:&lt;br&gt;&lt;br&gt;
+&lt;ol&gt;
+  &lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+  &lt;li&gt;a description of mixed fisheries interactions in the ecosystem, and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
+&lt;/ol&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;Many nations currently have fisheries targeting the marine stocks within this ecoregion. The largest landings are by Norway, Russia, Faroe Islands, and Iceland. Lesser amounts are landed by United Kingdom and others (Figure 2). Pelagic fishing by multinational fleets is the major activity in the ecoregion. The number of fishing vessels is declining while the size of the vessels is increasing.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
+The Norwegian commercial fleet has the majority of its fishing activity in the shelf area, particularly along the coast of
+Norway and along the continental shelf edge. The Norwegian fleet fishing in the ecoregion consists of about 2300 active
+vessels fishing pelagic fish (mackerel and herring), demersal fish (cod, saithe, haddock, ling (lin.27.1-2), tusk (usk.27.1-2),
+Greenland halibut, and redfish), and shellfish (brown crab, king crab, and northern prawn). Small coastal vessels (the
+majority &lt; 15 m length) fishing with beach-seine, gillnets, and pots make up around 87% of the fleet, while the remaining
+are mainly ocean-going trawlers and purse-seiners &gt; 28 m in length. The highest catch volume (82% of the total catch) is
+taken by the bigger vessels, with pelagic fish constituting the largest part of the landings.&lt;br&gt;&lt;br&gt;
+Harp and hooded seals are hunted with between two and five large ice-going vessels. The minke whale hunt has been
+ongoing in all years since 1993, and approximately 10–15 vessels.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
+The Russian commercial fleet in the Norwegian Sea ecoregion and adjacent waters is composed of about 30 large vessels
+(62–120 m in length) targeting pelagic species including NSS herring, blue whiting, and mackerel using pelagic trawls. The
+pelagic fleet conducts most of its fishing activities in international waters and fewer in the Norwegian EEZ. About 50 smaller
+vessels (&lt; 60 m) target demersal fish, including cod, haddock, saithe, redfish, Greenland halibut, and Atlantic wolffish, using
+mostly bottom trawls. Pelagic fish contribute most to the Russian fishery (about 90% of the catches) in this ecoregion.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
+The Icelandic fleet operating in the Norwegian Sea ecoregion is composed of about 19 large vessels (&gt; 60 m length). They
+all target pelagic fish (NSS herring, mackerel, and blue whiting) with pelagic trawls. Two of the vessels freeze the catches
+on board while the others bring the catches ashore in refrigerated seawater (RSW) tanks.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;United Kingdom&lt;/b&gt;&lt;br&gt;
+The UK fishery operating in the Norwegian Sea ecoregion fishes mainly in ICES Division 2.a using bottom and midwater
+trawls with the occasional gillnetting and purse-seining. A small number of vessels operate in this area and catch a variety
+of demersal and pelagic species. In 2020, three bottom otter trawlers (40–90 m length) targeted cod, together with small
+amounts of saithe, haddock, redfish, and other species. The four midwater trawlers (75–120 m) fishing in 2020 targeted
+NSS herring, mackerel, and blue whiting.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;
+The Faroese fleet in the ecoregion consists of 12 large (&gt; 55 m length) vessels targeting pelagic species (NSS herring,
+mackerel, and blue whiting) with pelagic trawl (mainly) or purse-seine. One of the vessels freezes the catch on board while
+the rest use RSW tanks to bring the catch ashore. In addition, a handful of smaller trawlers (35–50 m length without RSW
+tanks) deliver the catch (mackerel) to the larger vessels at sea; the number of vessels in this last category has decreased
+much over the last five-to-eight years. In the description of fisheries, some Faroese fisheries are mentioned in Subarea 2,
+but these all take place outside the Norwegian Sea ecoregion.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;
+    The majority of the fisheries in the Azores ecoregion are targeted by Azorean vessels. Only a small proportion of catch is taken by surface longliners from mainland Portugal and Spain targeting swordfish and blue shark. The fisheries are classified as small scale because around 60% of the vessels are under nine metres in length and target many different species. The most important targets are tuna and tuna-like species (in weight), deep-water demersal species (in value), and small pelagic species. The most important fishing methods are handline and bottom longline, followed by pole and line (bait boats). Surface longline is also used but mainly by non-regional vessels that operate outside a 100 nautical mile area. The Azores Exclusive Economic Zone (EEZ) is recognized as a no take area for nets (including a trawl ban) excluding a few small coastal gillnets and purse seiners for small pelagics.
+  &lt;/li&gt;
+  &lt;li&gt;
+    Fisheries in the ecoregion are managed under the EU Common Fisheries Policy (CFP), with some fisheries managed by the North East Atlantic Fisheries Commission (NEAFC), the International Commission for the Conservation of Atlantic Tunas (ICCAT), and national Portugal and regional Azores governments.
+  &lt;/li&gt;
+  &lt;li&gt;
+    The status of the 12 stocks in this ecoregion assessed by ICES remain unknown. These stocks are considered as data limited and are managed following the precautionary approach (category 3–5 stocks).
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+  Supporting data used in the Azores ecoregion fisheries overview is accessible at:
+  &lt;a href="https://doi.org/10.17895/ices.advice.27880014"&gt;ICES Library&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;For this overview, the Azores ecoregion corresponds to the Azores EEZ inside ICES Subarea 10 (Figure 1). The ecoregion lies within a much larger open ocean ecosystem, and straddles the Mid-Atlantic Ridge. The Azores is a Portuguese archipelago composed of nine islands with almost no geological continental shelf, and the Azores EEZ includes 461 identified seamounts.&lt;br&gt;&lt;br&gt;
+This overview covers ICES Subdivision 10.a.2 (Figure 1). Vessel monitoring system (VMS) data are available for vessels above 12 meters in length, which means that only longliners and tuna vessels (pole and line) are covered.&lt;br&gt;&lt;br&gt;
+The overview provides:&lt;br&gt;&lt;br&gt;
+&lt;ol&gt;
+  &lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;
+  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;
+  &lt;li&gt;a description of mixed fisheries interactions in the ecosystem; and&lt;/li&gt;
+  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
+&lt;/ol&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Portugal and Spain are currently the main countries fishing in the Azores ecoregion. France, United Kingdom, and the Faroe Islands also fish but take lesser amounts. The Russian fleet was fishing in the ecoregion until the early 1980s.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
+The Portuguese fleet operating in the ecoregion is currently composed of around 600 vessels. Most of these have a length of less than 12 m and are typically licensed to use several different gear types around the archipelago and seamounts to target pelagic (small pelagics and tuna) and demersal deep-water species (such as blackspot sea bream [sbr.27.10], alfonsinos [alf.27.nea], and Atlantic wreckfish). There is also a longline surface fishery targeting swordfish and blue shark.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
+Spain has historically been fishing in the ecoregion and currently has around ten vessels that use surface longline to target swordfish and blue shark inside the Azores EEZ.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;
+    The commercial fisheries in the ecoregion target a wide variety of stocks, resulting in a diverse and spatially varied fishing industry. The countries with the largest landings and effort in the ecoregion are Spain, Portugal, and France, with minor landings from Ireland, Belgium, and UK. The most common gear used in the area is bottom trawls, which target demersal species. The highest landings, however, are taken by midwater trawls mainly targeting species such as blue whiting, mackerel, and to a lesser extent species such as sardine.
+  &lt;/li&gt;
+  &lt;li&gt;
+    Of the wide variety of stocks both targeted and caught as bycatch, 73 are evaluated by ICES for spawning stock biomass (SSB) size and fishing pressure. Twenty-two stocks have been evaluated against maximum sustainable yield (MSY) reference points for fishing mortality, and 86% of these are fished below FMSY.
+  &lt;/li&gt;
+  &lt;li&gt;
+    In addition to biomass removal, ecosystem effects of fisheries include abrasion, ghost fishing, damage to benthic fauna by demersal trawling, and bycatch of marine mammals, elasmobranchs, and seabirds. Several regulatory and research efforts are in place or are being developed that are aimed at reducing the impact of fishing on the ecosystem.
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+  Supporting data used in the Bay of Biscay and Iberian Coast fisheries overview is accessible at:
+  &lt;a href="https://doi.org/10.17895/ices.advice.27879951"&gt;ICES Library&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The Bay of Biscay and Iberian Coast ecoregion covers the southwestern areas of the EU. It includes areas of the deeper
+eastern Atlantic Ocean, as well as coastal areas from Brittany in the north to the Iberian Peninsula and Gulf of Cadiz in the
+south. The following areas constitute this ecoregion:
+&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;The Bay of Biscay (divisions 8.a and 8.b, and part of subdivisions 8.d.2 and 8.e.2);&lt;/li&gt;
+  &lt;li&gt;The Cantabrian Sea (Division 8.c);&lt;/li&gt;
+  &lt;li&gt;The west coast of Spain, the Portuguese coast, and the Gulf of Cadiz (Division 9.a and part of Subdivision 9.b.2).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+At its southeastern limit, this ecoregion is connected to the Mediterranean Basin by the Strait of Gibraltar. Deep-water
+currents composed of Mediterranean water have a strong influence on the southwest Iberian and Gulf of Cadiz circulation
+patterns.
+&lt;/p&gt;
+&lt;p&gt;This overview provides:&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their catch statistics, fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;
+  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;
+  &lt;li&gt;mixed-fisheries considerations of relevance to the management of the fisheries; and&lt;/li&gt;
+  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Seven nations currently have fisheries targeting the many marine stocks within this diverse and extensive ecoregion. The highest landings are by Spain, Portugal, and France. Lesser amounts are landed by other countries including the Netherlands, Belgium, Ireland, and UK (Figure 2). &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Belgium&lt;/b&gt;&lt;br&gt;
+The Belgian fisheries in the Bay of Biscay mainly take place in Division 8.b. There are fifteen vessels operating, all with beam trawl, and the fishery takes place from 1 June to 30 September. The main target species is sole with monkfish as a bycatch species, though monkfish is increasing in importance in the landings. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
+There are around 1500 vessels operating primarily in ICES Subarea 8, representing more than 4000 fishers. Seventy one percent of all vessels operate predominantly within the 12 nautical mile limit. Around 1000 vessels operate in Division 8.a and 500 in Division 8.b. Around 20 vessels operate occasionally in Division 8.c. &lt;br&gt;&lt;br&gt;
+The mean size of the vessels is 12 m, while more than 1100 vessels are under 12 m. The main gears used by coastal vessels are nets, lines (longlines and handlines), pots, scoop nets, dredges and bottom trawls. The offshore fishery is mostly carried out by bottom trawlers, netters, and a few longliners. The main species caught by French vessels in the area are hake, anglerfish, sole, sea bass, Norway lobster, sardines, cuttlefish, albacore, squids, pollack, and anchovy. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Ireland&lt;/b&gt;&lt;br&gt;
+Ireland has four fisheries in this ecoregion. The highest catches are made by around eight large vessels (&gt; 40 m in length) that target small pelagic fish, mainly boarfish, horse mackerel, and mackerel. Approximately 40 vessels target albacore tuna, with paired midwater pelagic trawls in summer as the fish migrate northward. The gillnet fishery for hake involves around 15 vessels, and there is minor demersal otter trawl activity involving up to eight vessels in Subarea 8. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Netherlands&lt;/b&gt;&lt;br&gt;
+The Netherlands has fishing rights for sole in the Bay of Biscay. In the last two decades, however, the Dutch fleet has not been active in the area. Since the mid-2000s, the Netherlands has been using its fishing rights in the Bay of Biscay for quota swaps with Belgium (i.e. the Dutch quota in the Bay of Biscay has been exchanged for Belgian quota in the North Sea). &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
+A total of 2802 vessels operated in 2023, comprising otter trawlers, purse-seiners, and multi-gear vessels; the fleet operates primarily in Division 9.a. &lt;br&gt;&lt;br&gt;
+A total of 80 bottom otter trawlers are active; 25 target crustaceans (deep-water rose shrimp and Norway lobster) and blue whiting in deep waters from 200 m to 800 m, while the remaining catch finfish in waters shallower than 500 m. The majority of the vessels are between 18 m and 40 m in overall length, and only nine are smaller than 12 m in length. &lt;br&gt;&lt;br&gt;
+The purse-seine fleet predominantly operates at depths between 20 m and 100 m, and traditionally targets sardine. This fleet comprised 144 vessels, between 8 and 27 m in overall length. It contributes to more than 50% of the total catch, and mainly harvests sardine, chub mackerel, anchovy, horse mackerel, and blue jack mackerel. &lt;br&gt;&lt;br&gt;
+The remaining vessels (2570) hold multiple licences for several gear types, including gillnets (80 mm mesh size), trammelnets (100 mm mesh size), hand- and longlines, pots and dredges, and small purse-seines. This multi-gear fleet operates generally within 30 miles of the Portuguese coast, catching, among others, hake, anglerfish, octopus, pout, horse mackerel and clams. These are mostly small vessels under 12 metres in overall length. More than 200 vessels (232) in this fleet exceed 12 metres. This includes bottom and drifting longliners operating in continental waters and offshore, in waters of the NE Atlantic. A deep-water longline fleet, composed of 15 vessels with an average of 20 m length, operates at depths ranging from 800 to 1450 m, targeting black scabbard fish. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
+There are around 4750 vessels in this fleet, operating mainly in northern Spanish waters. The fleet comprises artisanal vessels, trawlers, purse-seiners, demersal longliners, and gillnetters. Around 3600 vessels are operating in the artisanal fishery (of 7 m average length) using artisanal gears including dredges, trammelnets, gillnets, pots, bottom longline, handline, purse-seine and beam trawl; they target mackerel, clams and octopus. The trawlers (71 vessels of 28 m average length) use bottom- and pair trawl to target horse mackerel, mackerel, blue whiting, and hake. The purse-seiners (236 vessels of 22 m average length) target mackerel, anchovy, horse mackerel, and sardine. The demersal longliners (57 vessels of 16 m average length) target hake as main species, as well as European conger. The gillnetters (59 vessels of 18 m average length) catch mainly hake and anglerfish. &lt;br&gt;&lt;br&gt;
+Around 660 vessels operate mainly in the Gulf of Cadiz Spanish waters. The fleet comprises artisanal vessels, trawlers, and purse-seiners. Around 480 vessels are operating in the artisanal fishery (of 9 m average length) using dredges, trammelnets, gillnets, bottom longline, and handline; they target blackspot sea bream, stripped venus, octopus and cuttlefish. The trawlers (120 vessels of 19 m average length) target shellfish and cephalopods. The purse-seiners are composed of 70 vessels of 17 m average length. &lt;br&gt;&lt;br&gt;
+Other fleets operating in Iberian waters mainly on the north coast and Galician waters comprise around 400 vessels – 300–350 trolling and 60 with live bait (of 17 m average length). These fleets target albacore. &lt;br&gt;&lt;br&gt;
+Around 66 vessels operate mainly in the Bay of Biscay. The fleet comprises trawlers and passive gears (bottom longline and gillnet). Thirteen vessels are operating in the trawler fleet targeting hake, anglerfish, and megrim. Fifty-three vessels use passive gears (mainly bottom longlines and some gillnets) which target hake. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;UK&lt;/b&gt;&lt;br&gt;
+The UK fleet operating in the ecoregion mainly operates in divisions 8.a and 8.b, and further offshore in Division 8.d. The fleet is comprised of pelagic trawlers, gillnetters, and longliners; the fleet size varies, from seven to 13 vessels over the last four years. The pelagic trawlers are the larger vessels (50–114 m), mainly targeting mackerel and horse mackerel. Longliners (20–35 m) target hake. Gillnetters target hake, anglerfish, and pollack, and operate in divisions 8.a, 8.b and further offshore in Division 8.d. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;
+    The commercial fisheries in the Barents Sea Ecoregion target few stocks. The largest pelagic fishery targets capelin (cap.27.1-2) using midwater trawl. The largest demersal fisheries target cod (cod.27.1-2), haddock (had.27.1-2), and other gadoids, predominantly using trawls, gillnets, longlines, and handlines. The crustacean fisheries target deep-sea prawn, red king crab, and snow crab. Harp seals and minke whales are also hunted in the region.
+  &lt;/li&gt;
+  &lt;li&gt;
+    Twelve nations currently have fisheries targeting the stocks in this ecoregion. Norway and Russian Federation have the largest fleets and dominate the landings in the region. Total landings peaked in the mid-1970s and have been at a lower level for the last two decades. Catches of capelin have varied, from being the largest catches in the region (by weight) at some points in time to zero catches at others. Pelagic trawling in the ecoregion tends to catch only one species at a time, whereas demersal trawling normally catches several species simultaneously.
+  &lt;/li&gt;
+  &lt;li&gt;
+    In addition to biomass removal, the ecosystem effects of fisheries include abrasion, ghost fishing, damage to benthic fauna by demersal trawling, bycatch of elasmobranchs in demersal fisheries, bycatch of seabirds in gillnet and longline fisheries, and bycatch of harbour porpoise in gillnet fisheries. Several regulatory and research efforts to reduce the impact of fishing on the ecosystem are in place or being developed.
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+  Supporting data used in the Barents Sea fisheries overview can be accessed at
+  &lt;a href="https://doi.org/10.17895/ices.advice.21640814"&gt;ICES Library&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;The Barents Sea ecoregion covers the shelf sea to the north of Norway and the Russian Federation (“Russia” henceforth) (Figure 1). Its western boundary approximately follows the shelf break towards the deep Norwegian Sea to the west, and its northern boundary follows the shelf break towards the deep Arctic Ocean to the north. To the east, the ecoregion borders Novaya Zemlya and the Kara Sea. The two Arctic archipelagos of Svalbard and Franz Josef Land are situated within the ecoregion. There are relatively deep areas to the west, while the eastern parts of the ecoregion are dominated by bank areas. &lt;br&gt;&lt;br&gt;
+This overview covers the entirety of ICES Division 27.1.a and parts of divisions 27.1.b, 27.2.a, and 27.2.b (hereafter, the “27” area prefixes are omitted). All catches within Division 1.b are, however, taken in the Barents Sea ecoregion, as there are no catches in the northernmost part, which belongs to the Arctic Ocean ecoregion. The plots of total catches include all catches in ICES subareas 1 and 2 except for catches of the large pelagic stocks (Norwegian spring-spawning herring, Northeast Arctic mackerel, and blue whiting), for which there are minimal catches in the Barents Sea. &lt;br&gt;&lt;br&gt;
+Because of the suspension of Russia from ICES activities, ICES has not conducted assessments for the following stocks since 2022: cod.27.1-2, had.27.1-2, ghl.27.1-2, reb.27.1-2, cap.27.1-2, and pra.27.1-2. The results of the bilateral Norwegian–Russian assessments for these stocks are not included in this overview. &lt;br&gt;&lt;br&gt;
+This overview provides the following: &lt;br&gt;&lt;br&gt;
+&lt;ol&gt;
+  &lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+  &lt;li&gt;a description of mixed-fisheries interactions in the ecoregion; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
+&lt;/ol&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t>There are currently 12 nations with fisheries targeting the stocks in this ecoregion. The country with the highest landings is Norway, followed by Russia. Lower quantities are landed by Denmark, Estonia, Faroe Islands, France, Germany, Greenland, Iceland, Poland, Portugal, Spain, Belarus, and UK (Figure 2). &lt;br&gt;&lt;br&gt;
+Prior to the establishment of exclusive economic zones (EEZ) in the ecoregion in the late 1970s, several nations were fishing in the area. The major fishing fleets were from Norway and Russia. Historically, landings by all nations were dominated by demersal species such as cod and haddock; however, redfish (beaked and golden) and Greenland halibut (ghl.27.1-2) were also important up to about 1990. &lt;br&gt;&lt;br&gt;
+Landings of capelin, the only major pelagic fish species in the area, peaked at three million tonnes in 1977. The capelin stock “collapsed” to very low levels in the mid-1980s. Before the establishment of a minimum landing size for Norwegian spring-spawning herring, for which the Barents Sea serves as a nursery area, large catches of immature herring were also taken in the ecoregion, mainly by Norwegian and Russian fishers. In recent years, Norway has fished some legal sized herring in a restricted coastal purse-seine fishery inside four nautical miles off the Finnmark coast. In the southwestern part of the ecoregion, an international herring fishery has operated in some seasons. &lt;br&gt;&lt;br&gt;
+Catches from the northern shrimp (pra.27.1-2) fishery increased considerably from 2018, with much of the increase coming from fleets fishing in the international waters between the Norwegian EEZ, the Fisheries Protection Zone around Svalbard, and the Russian EEZ. Red king crab are fished by Russia in near-coastal Russian waters and fished by Norway in the coastal waters of Finnmark and Tromsø, the northernmost counties of Norway. A fishery has developed for the snow crab in recent years; this is a species first encountered in the ecoregion in 1996. &lt;br&gt;&lt;br&gt;
+Commercial hunting of Barents Sea harp seal started with vessels from northern Norway in 1867. In general, there has been a lack of capacity to take recommended TACs since 2000. Norwegian whaling, targeting minke whales, started in the late 1920s. A total quota was introduced in 1976. The effect of this was to move the catch effort from coastal areas with relatively low catch rates to the Barents Sea and off the west coast of Spitsbergen. Following the moratorium on all whaling declared by the International Whaling Commission (IWC), Norway stopped all commercial minke whale hunt temporarily after the 1987 season. The hunt was started again in 1993 and has continued in all subsequent years. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
+The Norwegian fleet fishing in the ecoregion consists of about 3 000 active vessels. These vessels fish gadoids (cod, haddock, and saithe), other demersal fish, pelagic fish, and shellfish. Small coastal vessels (the majority &lt; 11 m in length) fishing with gillnets, handline, and pots make up around 95% of the fleet, while the remaining 5% are predominantly ocean-going trawlers &gt; 28 m in length. About 1000 Norwegian coastal vessels (6–22 m in length) participate in the quota-regulated red king crab fishery east of 26°E. West of this line, fishing for red king crab is unregulated and the number of vessels unknown. The snow crab fishery in the Norwegian EEZ part of the ecoregion is still developing because of the relatively recent westward spread of snow crab. There are currently 20–30 Norwegian vessels in this fishery. The harp seal hunt in the ecoregion has traditionally been conducted with large ice-going sealers, of which only two to five vessels remain today. Approximately 10–15 vessels participate in the minke whale hunt. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
+The Russian fleet operating in the Barents Sea and Norwegian Sea ecoregions is composed of about 200 vessels. Ninety percent of the vessels catch demersal species, including fish and crustaceans, and 15% catch pelagic species. Approximately 25% of the fleet targeting demersal species consists of boats below 34 m in length and operates near the Russian coast using trawls and traps, catching several fish species and crabs. Vessels of size 34–65 m average around 60% of the fleet and mainly target cod, haddock, saithe (pok.27.1-2), redfish, Greenland halibut, wolffish, long rough dab, and plaice using trawls and longlines, traps (for crab), and trawls (for shrimp). The industrial factory ships (ten vessels of 65–100 m; 20 vessels &gt; 100 m) are predominantly trawlers that use bottom and midwater trawls. They account for most of the landings of capelin but also catch cod, haddock, and saithe. The Russian harp seal hunt is performed using two to three helicopters, where the seals (generally pups) are hunted on the ice. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Denmark&lt;/b&gt;&lt;br&gt;
+The Danish fleet targets small amounts of demersal fish in ICES Subdivision 2.a.2. The vessels are all pelagic trawlers or combined trawl/purse-seiners, ranging in length between 60 m and 90 m. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Estonia&lt;/b&gt;&lt;br&gt;
+The Estonian fleet fishing in the area consists of less than ten vessels with an average length of 64 m, operating in the Northwest Atlantic, Northeast Atlantic, and Svalbard. The fleet targets mainly northern shrimp and Greenland halibut with bottom trawls, with cod and long rough dab as bycatch. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;
+The Faroese fleet in the ecoregion currently consists of less than five vessels targeting cod, haddock, Greenland halibut, shrimp, redfish, and flatfish. These vessels are between 50 m and 80 m in length. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
+French vessels target cod, haddock, saithe, redfish, and Greenland halibut in the area. The fleet usually consists of one freezer trawler of 80 m in length, targeting cod and associated species (haddock and saithe) with otter bottom trawls. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
+The German fleet operating in the ecoregion consists of about four vessels (&gt; 40 m in length). The pelagic freezer trawlers target mainly herring, blue whiting, and redfish, while the demersal trawlers target mainly cod, saithe, and haddock. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Greenland&lt;/b&gt;&lt;br&gt;
+The Greenlandic fishing fleet consists of eight vessels. Two of these are stern trawlers 82–88 m in length that mainly target cod, saithe, and haddock, with minor bycatches of plaice and wolffish. The remaining six vessels are pelagic trawlers and purse seiners, 66–88 m in length, that mainly fish for mackerel. One vessel targets northern shrimp. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
+The Icelandic fleet consists of less than ten vessels, all demersal trawlers larger than 60 m in length. These vessels target cod in accordance with bilateral agreements between Iceland and Norway and between Iceland and Russia. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Lithuania&lt;/b&gt;&lt;br&gt;
+The Lithuanian fleet in the North Atlantic consists of two demersal trawlers &gt; 40 m in length, targeting shrimp in the ecoregion. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Poland&lt;/b&gt;&lt;br&gt;
+One Polish vessel (&gt; 40 m in length) is active in the region, targeting cod, haddock, saithe, redfish, and Greenland halibut. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
+Less than five Portuguese stern trawlers (&gt; 60 m in length) operate in the area; they mainly target cod, since quotas for redfish, haddock, and pollock are small. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
+The Spanish fleet consists of seven vessels. Four of these are 48–87 m in length, targeting cod with otter bottom trawls. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;UK&lt;/b&gt;&lt;br&gt;
+Less than five demersal vessels operate throughout the year in the ecoregion, mainly targeting species such as cod, haddock, saithe, and Greenland halibut. The average size of these vessels is around 4 830 kW horsepower and &gt; 80 m in total length. Between one and three vessels fish for herring in Division 2.a. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Others&lt;/b&gt;&lt;br&gt;
+Smaller amounts of saithe, redfish, and Greenland halibut have been landed by Ireland, the Netherlands, and Latvia in some years. Belarussian vessels also catch a small amount of cod annually. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;
+    The commercial fisheries in the Baltic Sea target few stocks. The pelagic fisheries, which account for the largest catches (by weight) in the region, are the pelagic trawl fisheries for sprat and herring.
+  &lt;/li&gt;
+  &lt;li&gt;
+    The most important demersal fisheries were the bottom-trawl fisheries for cod and flatfish. Since 2020 there is no targeted EU fishery on cod in subdivision 24 and 25–32 and since 2022 no targeted fishery on cod throughout the Baltic (except for Russia).
+  &lt;/li&gt;
+  &lt;li&gt;
+    The demersal fisheries are concentrated in the south and west of the Baltic Sea, while the pelagic fisheries dominate from east of Bornholm to Finland.
+  &lt;/li&gt;
+  &lt;li&gt;
+    Flatfish are the main remaining benthic resource, mainly flounder and plaice.
+  &lt;/li&gt;
+  &lt;li&gt;
+    Recreational fisheries in the Baltic catch a diversity of species. Cod was a major target species but is regulated by bag limits since 2017 and now forbidden in all subdivisions.
+  &lt;/li&gt;
+  &lt;li&gt;
+    Most of the Baltic Sea fish stocks with reference points are fished at or below FMSY; only for sprat is fishing mortality above FMSY. The spawning-stock biomass is below the reference limit for both cod stocks and several herring stocks.
+  &lt;/li&gt;
+  &lt;li&gt;
+    In the last years fishing effort decreased to historic low levels for some pelagic and demersal trawl fisheries, especially in the western Baltic area. Despite historically low demersal fishing effort and additional management measures, the cod stocks show no signs of recovery.
+  &lt;/li&gt;
+  &lt;li&gt;
+    Besides the two cod stocks, stocks of herring, plaice, flounder, and dab show trends of decreasing body condition.
+  &lt;/li&gt;
+  &lt;li&gt;
+    Environmental stressors such as warming, eutrophication, hypoxic areas, habitat loss, and cyanobacteria blooms are assumed to be factors for the current poor state of Baltic fisheries resources. However, piscine predators like grey seals and cormorants are abundant.
+  &lt;/li&gt;
+  &lt;li&gt;
+    Patterns of seabed habitat disturbance reflect the distribution of bottom-trawl fishing effort; however, trawl fisheries have decreased massively in recent years.
+  &lt;/li&gt;
+  &lt;li&gt;
+    Bycatches of seabirds (greater scaup, common guillemot, and long-tailed duck) occur at times in the gillnet fisheries; these fisheries also catch individuals of the critically endangered harbour porpoise in the Baltic Proper, but the amount and the population effects of the bycatches are unclear.
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+  Supporting data used in the Baltic Sea fisheries overview is accessible at
+  &lt;a href="https://doi.org/10.17895/ices.advice.27880068"&gt;ICES Library&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;The Baltic Sea is a semi-enclosed, brackish sea, characterized by a sequence of basins connected by shallower sills with vertical stratification of the water column (Figure 1). Salty, well-oxygenated water from the North Sea occasionally enters the Baltic Sea through the Belt Seas and propagates into the deeper areas, while freshwater flows exit at the surface. Stratification limits the oxygen from reaching the deeper waters, so the oxygen content of the bottom water depends on local oxygen consumption and the inflows of North Sea water. The ecoregion has a limited diversity of fish species, dominated by marine species in the southwestern areas and a combination of marine and freshwater species in the northeastern areas (subdivisions 28.1, 29–32). Fisheries in the Baltic Sea are focused on a few major species. &lt;br&gt;&lt;br&gt;
+&lt;br&gt;Commonly referred to areas in Baltic Sea are defined as follows: Western Baltic (subdivisions 22–24), Baltic Proper (subdivisions 25–29, excluding 28.1 [Gulf of Riga]), Central Baltic (subdivisions 25–29), Bothnian Sea (subdivisions 30–31), and Gulf of Finland (subdivision 32). &lt;br&gt;&lt;br&gt;
+The overview covers ICES Subarea 27.3, excluding Division 27.3.a (hereafter, the area prefixes are omitted), and provides: &lt;br&gt;&lt;br&gt;
+&lt;ol&gt;
+  &lt;li&gt;a short description of each of the national fishing fleets in the ecoregion, including their commercial and recreational fisheries and fishing gears and patterns;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+  &lt;li&gt;a description of mixed-fisheries interactions in the ecoregion; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
+&lt;/ol&gt;&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;Currently, fishing vessels from nine nations operate in the Baltic Sea, with the largest number of larger vessels (&gt; 12 m) coming from Sweden, Denmark, and Poland. Total finfish landings from the Baltic Sea peaked in the mid-1970s and again in the mid-1990s, corresponding to peaks in the abundance of cod and sprat stocks, respectively. The proportion of the total annual landings caught by each country has varied little over time, except for the redistribution of catches by former USSR countries (Figure 2). The following paragraphs highlight features of the fleets and fisheries of each country, but are not exhaustive descriptions. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Denmark&lt;/b&gt;&lt;br&gt;
+The Danish fleet comprises close to 350 vessels, divided into offshore fisheries (approximately 100 vessels 8–12 m and 80 vessels &gt; 12 m) and coastal fisheries (approximately 150 vessels). The large vessel offshore fisheries target (a) sprat and herring in the northern Baltic Sea using small‐meshed pelagic trawls and (b) flatfish, mainly plaice but also flounder, dab, turbot, and brill, in the southwestern Baltic fisheries using demersal trawls. The coastal fisheries occur along all coasts of the Belt Sea area and target several flatfish species using mainly gillnets, trapnets, or rarely poundnets. Recreational fisheries target different species depending on the season, with plaice, salmon, and sea trout being among the most important species. The main recreational fishing area for salmon is off Bornholm in subdivisions 24 and 25.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Estonia&lt;/b&gt;&lt;br&gt;
+The active offshore fleet comprises around 25–30 fishing vessels of 18–42 m, while the coastal fishery consists of several hundred small boats of &lt; 12 m. The pelagic fleet consists mostly of stern trawlers, targeting herring and sprat in subdivisions 28.1, 28.2, 29, and 32. About 25–30% of the herring catch is taken by coastal fisheries. Main areas of coastal herring fishery are the Gulf of Riga (Subdivision 28.1) and the Gulf of Finland (Subdivision 32), where trapnets and poundnets are used. Flounder is also taken using Danish seines and gillnets in the coastal fisheries in the Gulf of Riga and subdivisions 29 and 32. Recreational fisheries primarily target perch, pikeperch, flounder, and European whitefish, mainly in the Gulf of Riga. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Finland&lt;/b&gt;&lt;br&gt;
+The fleet comprises 3352 vessels, of which about 1300 vessels are actively used in the fishery. The vast majority of the vessels are &lt; 10 m and operate in coastal fisheries. The offshore fleet is composed of 47 vessels &gt; 10 m in the Baltic main basin, the Archipelago Sea, the Gulf of Bothnia, and the Gulf of Finland; it mainly targets Baltic herring stocks (with sprat taken mainly as bycatch) with pelagic trawls. The coastal fisheries occur on all parts of the coast using trapnets, fykenets, and gillnets; they catch salmon, European whitefish, pikeperch, perch, pike, vendace, burbot, smelt, and occasionally flounder. Recreational fisheries target mainly perch, pike, pikeperch, European whitefish, bream, and herring using gillnets, rods, fish traps, and fykenets along the coast of the Gulf of Finland as well as in the Archipelago Sea and Gulf of Bothnia. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
+The German commercial fleet in the Baltic Sea consists of about 58 trawlers and larger (&gt; 10 m total length) polyvalent vessels (those which use multiple gears), and about 596 vessels using exclusively passive gear (&lt; 12 m total length). The German herring fleet in the Baltic Sea, where all catches are taken in a directed fishery, consists of a coastal fleet with mostly undecked boats (rowing/motor boats ≤ 12 m) and a cutter fleet with decked vessels (total length 12–40 m). The German herring fishery in the Baltic Sea is conducted with gillnets, trapnets, and trawls. Historically passive and active gear shared the landings about 70:30; however, in recent years all landings were from passive gears. Herring are fished mostly in the spring spawning season and in Subdivision 24. In the central Baltic Sea almost all landings are taken by the trawl fishery. All catches of sprat are taken in a directed trawl fishery by cutters &gt; 18 m in length. Most sprat is caught in subdivisions 25–29 in the first quarter. Demersal and benthic species are caught with bottom trawls and passive gears, particularly with gillnets but also trammelnets. The number of vessels in the active gear fishery has substantially decreased and now mainly targets flatfish in subdivisions 22 and 24. The passive gear fisheries operate all year-round targeting different species, including in coastal lagoons and river mouths, in different seasons. Recreational fisheries were carried out by an estimated 165 000 fishers from all German shores and from boats (charter and private boats) mostly within 5 nautical miles off the coast; the main target species being herring, sea trout, salmon, flatfish species, and whiting. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Latvia&lt;/b&gt;&lt;br&gt;
+The fleet comprises around 55 registered offshore vessels (12–40 m) and 610 coastal vessels (&lt; 12 m). The offshore vessels target sprat in the Baltic main basin and herring in the Gulf of Riga using pelagic trawls. Flounder is targeted in subdivisions 25, 26, and 28 using demersal trawls. Since 2000, sprat and herring have accounted for 92% of the total annual landings. Most vessels in the coastal fleet are &lt; 5 m and target herring, round goby, flounder, smelt, salmon, sea trout, vimba bream, turbot, and eelpout using fykenets, trapnets, and gillnets. Recreational fisheries occur on all coasts and target flounder, perch, and round goby.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Lithuania&lt;/b&gt;&lt;br&gt;
+The Lithuanian fishing fleet in 2020 comprised 21 offshore vessels (&gt; 18 m) and 58 coastal vessels (&lt; 12 m). The offshore fishing fleet uses pelagic and bottom trawls, with vessels switching between gears depending on target species, fishing conditions, and quota availability. The main target species are sprat, herring, and flounder caught mainly in subdivisions 25, 26, and 28 as well as to a lesser extent in subdivisions 27 and 29. The coastal fisheries target herring, smelt, round goby, flounder, and turbot using gillnets and trapnets within the Lithuanian coastal area of Subdivision 26. Recreational fisheries also occur in these waters and focus on herring, salmon, and sea trout using rod and lines. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Poland&lt;/b&gt;&lt;br&gt;
+The fishing fleet consists of around 150 active offshore vessels (12–35 m) and approximately 650 coastal vessels (&lt; 12 m). The larger offshore vessels (&gt; 18.5 m) target sprat and herring using pelagic trawls, while smaller offshore vessels (12–18.5 m) target flounder and sandeel using bottom trawls. Fishing occurs mainly in subdivisions 24, 25, and 26, and these species form about 98% of the total annual landings. The coastal fisheries harvest mainly sea trout, flounder, turbot, plaice, roach, perch, bream, and pikeperch. Recreational fisheries mostly target salmon and sea trout, primarily along the central Polish coast and off the Hel Peninsula. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Russian Federation&lt;/b&gt;&lt;br&gt;
+Note that this text has not been updated since 2022. &lt;br&gt;&lt;br&gt;
+The fishing fleet is composed of about 45 vessels divided into offshore fisheries (41 vessels by 25–31 m size class) and coastal fisheries (four vessels by 15–25 m size class). In Subdivision 26, the vessels of the fleet MRTK target sprat and herring while the demersal trawl fleet (about 27 m) targets cod and flounder. The gillnet fleet targets cod with flounder as bycatch. A poundnet fishery targeting herring occurs in the Vistula Lagoon. In the eastern part of the Gulf of Finland (Subdivision 32), the MRTK fleet operates mainly in the first, second, and fourth quarters and is oriented to herring. Recreational fisheries targeting cod, flounder, turbot, salmon, goby, and other non‐commercial species occur on all Russian coasts. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Sweden&lt;/b&gt;&lt;br&gt;
+The fleet is comprised of around 400 active vessels, whereof the majority (about 370 vessels) are &lt; 12 m. Around 10 vessels &gt; 40 m operate in the Baltic Sea, as well as 30 vessels of 12–39 m. Around 65 vessels fish with active gears, of which about two thirds target pelagic species with trawls, and the rest mostly target vendace in Bothnian Bay. The demersal trawl fishery for cod and flatfish has completely stopped since 2019, when the targeted cod fishery was prohibited. Coastal fisheries use a mixture of gillnets, longlines, and fish traps to catch flatfish as well as a variety of freshwater species (in the archipelagic areas) and herring, European whitefish, and salmon in Bothnian Bay. A coastal fishery using fykenets targets European eel and other species along the southeast coast. Recreational fisheries take place along the entire Baltic Sea coast and target marine and freshwater species including salmon, pike, perch, and sea trout. &lt;br&gt;&lt;br&gt;
+&lt;b&gt;Others&lt;/b&gt;&lt;br&gt;
+Historically, countries other than those bordering the Baltic Sea have made some landings. However, in recent decades landings are exclusively from the nine bordering countries. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;The majority of fishing in the Faroes ecoregion is performed by Faroese vessels. The vast majority of the vessels participate in a mixed fishery for demersal fish, such as cod, haddock, saithe, ling, greater silver smelt, and Greenland halibut. Two main fleet categories operate under an effort management system with separated allocated fishing days: one group consists of single and pair trawlers (&gt; 1000 hp) targeting saithe, while another group, mainly longliners of all sizes, targets cod and haddack. A small number of large vessels target widely distributed pelagic fish, i.e. herring, mackerel, and blue whiting using pelagic trawl.&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;Demersal fish constituted the majority of the landings until the 1990s when pelagic landings increased considerably. Total landings peaked after 2000, and a noticeable drop around 2010 was caused by a decrease in the landings of blue whiting. Landings of demersal fish, especially cod and haddock, have been low since 2005.&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;Discarding is prohibited in the pelagic fishery. Discarding in the demersal fisheries is considered negligible; however, there are no reliable estimates of potential discards.&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;Stocks within the ecoregion are assessed for stock status and fishing pressure. Half of the stocks have a wider spatial distribution outside the ecoregion. The fishing pressure (in relation to FMSY) of demersal stocks has decreased since 2000 but is currently above sustainable limits. The biomass (in relation to MSY Btrigger) has increased in recent years. For the pelagic fisheries the fishing pressure has been around FMSY since 2010, but the stock size has decreased since 2017.&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;Data on incidental bycatch of marine mammals and seabird species are scarce. Gillnets are banned in waters of less than 380 m depth around the Faroes, which might reduce both seabird and marine mammal bycatch in the region.&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;Supporting data used in the Faroes ecoregion Fisheries Overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.27879915"&gt;ICES Library&lt;/a&gt;&lt;/li&gt;&lt;br&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;The Faroes ecoregion covers the shelf and surrounding waters inside the Faroe Islands Exclusive Economic Zone (EEZ); Figure 1). The waters around the Faroe Islands are in the upper 500 m dominated by the North Atlantic Current, which to the north of the islands meets the East Icelandic Current. Clockwise current systems create retention areas on the Faroe Plateau (Faroe Shelf around the Faroe Islands) and on the Faroe Bank (Figure 1 in ICES 5.b.2). In deeper waters to the north and east and in the Faroe Bank channel there is deep Norwegian Sea water, and to the south and west is Atlantic water. &lt;br&gt;&lt;br&gt;
+The fisheries within the ecoregion catch more than 30 stocks of fish and invertebrates. The main demersal species include cod (cod.27.5b1), haddock (had.27.5b), saithe (pok.27.5b), tusk (usk.27.3a45b6a7-912b), ling (lin.27.5b), golden redfish (reg.27.561214), Greenland halibut (ghl.27.561214), and anglerfish. The main pelagic species are the widely distributed Norwegian spring-spawning (NSS) herring (her.27.1-24a514a), blue whiting (whb.27.1-91214), mackerel (mac.27.nea), and greater silver smelt (aru.27.5b6a). &lt;br&gt;&lt;br&gt;
+The majority of fishing in the Faroes ecoregion is performed by Faroese vessels. The fisheries for most stocks in this ecoregion are managed by the Faroe Islands government, while management of some shared stocks is conducted either through the North East Atlantic Fisheries Commission (NEAFC) or by coastal state agreements (between EU, Iceland, Greenland, the Faroe Islands, Norway, Russian Federation, and UK). &lt;br&gt;&lt;br&gt;
+This overview covers ICES Division 5.b and part of Division 2.a.2 (Figure 1), and provides: &lt;br&gt;&lt;br&gt;
+&lt;ol&gt;
+  &lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion as well as fishing gears and patterns;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+  &lt;li&gt;a summary of the status of the resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
+  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
+&lt;/ol&gt;
+&lt;br&gt;
+The landings presented in this overview are based on official landings statistics for subareas 5.b.1.b and 5.b.2. This area includes most landings of the demersal stocks for this ecoregion. The majority of NSS herring and mackerel landings from the ecoregion originate in Division 2.a and substantial blue whiting landings in Division 6.a. The presented landings of these three widely distributed pelagic stocks are likely to be underestimated for this ecoregion. &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt;
+  &lt;li&gt;The majority of fishing in the Faroes ecoregion is performed by Faroese vessels (Figure 2). Vessels from Norway, Iceland, EU, UK, Greenland, and the Russian Federation are also allowed to fish within the Faroese EEZ through NEAFC as well as coastal state and bilateral agreements. Since 1977, when the 200 nautical mile EEZ was established, foreign vessels not subject to those agreements have been excluded. The following paragraphs highlight features of the fleets and fisheries of the countries that operate within the Faroese EEZ in the period 2015–2020.&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;&lt;b&gt;Faroes&lt;/b&gt;&lt;br&gt;
+  In the demersal fishery, there are up to 500 small longliners and jiggers (&amp;lt; 15 grt) fishing for cod and haddock in a mixed fishery. The medium or large vessels consist of around 13 large single/pairtrawlers (&amp;gt; 1000 hp), around six smaller ones (&amp;lt; 799 hp), around 13 large longliners (&amp;gt; 110 GRT), and around ten smaller longliners (40–110 GRT).&lt;br&gt;&lt;br&gt;
+  In the pelagic fishery, there are around ten large vessels operating with trawl or purse seine mainly fishing for blue whiting but to some extent also mackerel and NSS herring. In addition, there are landings of a local herring stock.&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
+  Between 16 and 20 Icelandic pelagic vessels fished for blue whiting 2017–2020.&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
+  There are between three and five Norwegian longliners fishing for ling and tusk on the Faroe Plateau and the Faroe Bank. Norwegian vessels annually fish some blue whiting in the ecoregion, which might in some years be quite substantial (e.g. in 2015).&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
+  Russian pelagic trawlers fish for blue whiting, NSS herring, and mackerel.&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;&lt;b&gt;UK&lt;/b&gt;&lt;br&gt;
+  A few UK demersal trawlers fish for cod, haddock, and saithe.&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;&lt;b&gt;Greenland&lt;/b&gt;&lt;br&gt;
+  Greenlandic pelagic trawlers fish for blue whiting and NSS herring.&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;&lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
+  German pelagic vessels fish for blue whiting and NSS herring and mackerel.&lt;/li&gt;&lt;br&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;
+The Greenland Sea ecoregion covers the shelf and surrounding waters within the Greenlandic EEZ (Figure 1). The region is located along the entire east coast of Greenland, reaching from the Central Arctic Ocean ecoregion in the north to the Oceanic Northeast Atlantic ecoregion in the south and along the western boundaries of the Norwegian Sea and the Icelandic Waters ecoregion. The ocean and coastal shelves are strongly influenced by cold low-saline water from the north and warm high-saline water from the south; further details can be found in the Greenland Sea ecosystem overview. &lt;br&gt;&lt;br&gt;
+Fishing activity is mainly concentrated in the southern part of the region, south of 68°N. The most important demersal fisheries are the bottom-trawl fisheries for Atlantic cod (cod.2127.1f14), Greenland halibut, golden redfish, and demersal beaked redfish (reb.27.14b). Northern shrimp is the main exploited invertebrate species in this ecoregion. The primary pelagic species are herring and mackerel. &lt;br&gt;&lt;br&gt;
+Supporting data prior to 2000 used in this fisheries overview is accessible at:  
+&lt;a href="https://doi.org/10.17895/ices.advice.27879759"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;
+The Greenland Sea ecoregion lies within FAO Major Fishing Area 27 (the prefix “27” in the ICES statistical area codes is therefore omitted herein). The area of the Greenland Sea ecoregion covers all of ICES divisions and subdivisions 12.a.3, 14.a and 14.b.2, and part of Division 5.a.2 (Figure 1). &lt;br&gt;&lt;br&gt;
+The overview provides: &lt;br&gt;&lt;br&gt;
+&lt;ul&gt;
+  &lt;li&gt;a short description of each of the fishing gears used, the national commercial fishing fleets in the ecoregion, their catch statistics, and spatial and temporal patterns of activity. Information on the hunting of marine mammals is not included;&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and defined reference points;&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;a description of mixed-fisheries interactions in the ecosystem; and&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed.&lt;/li&gt;&lt;br&gt;
+&lt;/ul&gt;
+The scientific names of all species described in this overview are listed in Table A2. &lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t>Beyond the Greenlandic fleet, marine resources in the ecoregion have been subject to exploitation by multiple countries, including the EU Member States, Iceland, the Faroe Islands, Norway, and Russia.&lt;br&gt;&lt;br&gt;
+Apart from an insignificant inshore fishery with small boats, the fishing is mostly conducted by large industrial factory vessels of 50–100 m length that employ various types of fishing gears and target multiple species. About 40–60 vessels fished in the ecoregion in recent years. The number of vessels has fluctuated depending on resource availability, with notable increases in fisheries for pelagic stocks after 2011.&lt;br&gt;&lt;br&gt;
+Greenland accounts for most of the active vessels in both the demersal and the pelagic fisheries. From 2012 to 2015, the number of Greenlandic vessels increased notably and has since remained high. Since 2020, the number of Greenlandic vessels has declined markedly, as most of the pelagic fleet moved to fishing areas outside this ecoregion, following the target species mackerel. The largest number of foreign vessels are from the EU, the Faroe Islands, and Norway.&lt;br&gt;&lt;br&gt;
+Greenlandic, EU, and Norwegian vessels have accounted for most of the bottom-trawl fishery over time, measured as the number of vessels registered with that gear. Longline fishing is mostly conducted by Greenland, Norway, and the Faroe Islands. Pelagic fisheries have been operated by Greenland, Russia, Iceland, the Faroe Islands, and the EU.&lt;br&gt;&lt;br&gt;
+Total landings by the different countries have varied through time. Nowadays, Greenland takes most of the landings. Mackerel catches in the ecoregion, which began with significant amounts in 2012, were initially made by both Greenlandic vessels and chartered foreign vessels. However, currently only Greenlandic vessels are involved in the fishery.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;The Icelandic Waters ecoregion covers the shelf and the waters surrounding Iceland and is equivalent to the Icelandic Exclusive Economic Zone (EEZ; Figure 1). The region is located at the junction of the Mid-Atlantic Ridge and the Greenland-Scotland Ridge, just south of the Arctic Circle. The ocean and coastal shelves are heavily influenced by oceanic inputs where water masses of different origins mix. Further details can be found in the ecosystem overview for Icelandic Waters.&lt;br&gt;&lt;br&gt;
+The fisheries within the ecoregion catch more than 40 stocks of fish and marine invertebrates. The main demersal species include cod (cod.27.5a), haddock (had.27.5a), saithe (pok.27.5a), golden redfish (reg.27.561214), Greenland halibut (ghl.27.561214), Atlantic wolffish (caa.27.5a), plaice (ple.27.5a), tusk (usk.27.5a14), and ling (lin.27.5a). The main pelagic species are capelin (cap.27.2a514) and summer-spawning herring (her.27.5a), as well as widely distributed species such as Norwegian spring-spawning (NSS) herring (her.27.1-24a514a), blue whiting (whb.27.1-91214), and mackerel (mac.27.nea). Norway lobster, northern shrimp, and sea cucumber are the main invertebrate stocks that are exploited in Icelandic Waters.&lt;br&gt;&lt;br&gt;
+The fisheries for most stocks in this ecoregion are managed by the Icelandic Government, while fisheries of some shared stocks are subject to international negotiation through the North East Atlantic Fisheries Commission (NEAFC) or by coastal state agreements (between Iceland, Greenland, the Faroe Islands, and Norway).&lt;br&gt;&lt;br&gt;
+All of the Icelandic Waters ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area codes is therefore omitted in the following text. This overview covers ICES Division 5.a and parts of divisions 2.a, 5.b, 12.a, 14.a, and 14.b, and provides:&lt;br&gt;&lt;br&gt;
+&lt;ol&gt;
+  &lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;a description of mixed fisheries interactions in the ecosystem; and&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
+&lt;/ol&gt;&lt;br&gt;
+The scientific names of all species are included in Table A2 in the Annex.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;The majority of fishing in the Icelandic Waters ecoregion is performed by vessels from Iceland. Vessels from Norway, Greenland and the Faroe Islands are also allowed to fish within the 200 nautical mile Icelandic EEZ through coastal state and bilateral agreements. Since its establishment in 1978, the EEZ has excluded foreign vessels not subject to those agreements (Figure 7). Around 1750 vessels operate in Icelandic Waters. The following paragraphs highlight features of the fleets and fisheries of the different countries that operate within the Icelandic EEZ.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
+Currently, the Icelandic fleet consists of around 1535 vessels of various sizes and types and has decreased by approximately 480 vessels since the turn of the century (Figure 16). The official statistics separate the fleet into three main categories: Bottom trawlers, decked vessels, and undecked vessels.&lt;br&gt;&lt;br&gt;
+About 40 bottom trawlers (30–90 m in overall length [LOA] and with a volume of between 200 and 2000 gross tonnes [GT]) operate in Icelandic Waters. These vessels are almost exclusively engaged in demersal fisheries, mainly fishing for cod, haddock, saithe, redfish and Greenland halibut. The number of bottom trawlers has decreased by more than half since 1999 (Figure 16).&lt;br&gt;&lt;br&gt;
+Decked vessels include several different types and size ranges, from those with 10 GT to over 4500 GT. This is by far the most diverse category, as it ranges from small boats to large vessels and includes specialized demersal seiners, small bottom trawlers, dredgers, longliners, and purse-seiners. About 20 pelagic vessels (60–90 m LOA) fish for capelin, herring, mackerel, and blue whiting using pelagic trawls and purse-seines. Roughly 40 demersal seiners (10–45 m LOA) operate in Icelandic Waters, fishing for cod, haddock, Atlantic wolffish, plaice, and other flatfish species. The number of intermediate-sized vessels (mostly 10–50 m LOA) using static gear – i.e. longline and gillnet, or small otter trawls – fishing for Norway lobster, northern shrimp, cod, and haddock is around 650.&lt;br&gt;&lt;br&gt;
+Approximately 820 undecked vessels, fishing mainly for cod and lumpfish, participated in the fishery 2018–2023; this number has decreased by more than 300 since 1999. Undecked vessels cover numerous vessels &lt;10 m in LOA and up to 10 GT in volume, although most in this category are less than 6 GT (Figure 3). Many of these small vessels are technologically advanced and driven by powerful engines. These vessels mainly operate in inshore areas or close to shore.&lt;br&gt;&lt;br&gt;
+Two large vessels (50 m LOA) participate in the fin whale hunt, whereas three–five small vessels (undecked, &lt;10 m LOA) participate in the minke whale hunt.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;
+Through a coastal state agreement, the Faroe Islands have a quota of the Iceland–Greenland–Jan Mayen capelin stock, which they are allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between four and six pelagic vessels using pelagic trawls were directed to capelin. No capelin fishery was conducted in Icelandic Waters in 2019 or 2020. There is a bilateral agreement (revised annually) between Iceland and the Faroe Islands that allows Faroese longliners to fish for demersal species in the Icelandic EEZ and pelagic vessels to fish for NSS herring (since 2018). Since 2014, between 7 and 11 Faroese longliners have operated annually in Icelandic Waters, fishing mainly cod, haddock, ling, and tusk. From 2019 to 2023, between 11 and 19 Faroese pelagic vessels using pelagic trawls fished for NSS herring in the Icelandic Waters ecoregion.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Greenland&lt;/b&gt;&lt;br&gt;
+Through a coastal state agreement, Greenland has a quota of the Iceland–Greenland–Jan Mayen capelin stock, which it is allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between one and three pelagic vessels, using pelagic trawls and purse-seines, operated in Icelandic Waters. No capelin fishery was conducted in Icelandic Waters in 2019 or 2020.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
+Through a coastal state agreement, Norway has a quota of the Iceland–Greenland–Jan Mayen capelin stock, which it is allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between 46 and 67 pelagic vessels, using pelagic trawls and purse-seines, operated in Icelandic Waters. No capelin fishery was conducted in Icelandic Waters in 2019 or 2020. There is a bilateral agreement between Iceland and Norway for two Norwegian longliners to catch demersal fish, mainly ling and tusk.&lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;The commercial fisheries in the Oceanic Northeast Atlantic ecoregion target few stocks. The main fisheries in the area are a multinational fishery on two pelagic beaked redfish stocks in the northwestern part of the ecoregion and a fishery on blue whiting on the Hatton-Rockall plateau and west of the Porcupine Bank using midwater trawl. The demersal fisheries for haddock at Rockall account for only a small proportion of the total catches of haddock taken in this ecoregion. Fishing for tuna (bluefin, skipjack, bigeye, and albacore) and other large pelagic species (swordfish) by long-distance longliners occurs across much of this ecoregion. Very few deep-sea fisheries are conducted in the region.&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;There are currently around 20 nations with fisheries targeting the stocks in the ecoregion. Norway, Iceland, and the Russian Federation have the largest fleets and dominate the landings in the region. Total landings have varied since the mid-1970s, with a rise in the recent decade mainly due to increased blue whiting catches. Two beaked redfish stocks dominated the catches (by weight) until 2000, but catches of these stocks have decreased considerably since the peak of the fishery in the mid-1990s.&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;The Oceanic Northeast Atlantic ecoregion has 52 stocks for which ICES provided advice in 2021. Around 13% of the assessed stocks are fished at or below F&lt;sub&gt;MSY&lt;/sub&gt; target levels; around 19% of the stocks were assessed to be above MSY B&lt;sub&gt;trigger&lt;/sub&gt;. The majority of the stocks have unknown stock and fishing mortality statuses.&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;Supporting data used in the Oceanic Northeast Atlantic fisheries overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.27880092"&gt;ICES Library&lt;/a&gt;.&lt;/li&gt;&lt;br&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;The Oceanic Northeast Atlantic ecoregion consists of the portion of the ICES statistical area (Figure 1) that is beyond national jurisdiction (ABNJ), i.e. outside the 200 nautical mile limit of the Exclusive Economic Zones (EEZs) of the EU Member States, the Faroe Islands, Iceland, Greenland, and United Kingdom. The ecoregion is mostly deeper than 1000 m, with only a small fraction of the seabed (ca. 0.03%) shallower than 500 m.&lt;br&gt;&lt;br&gt;
+The entire ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area codes is therefore omitted in the following list of divisions and subdivisions that this overview covers: 5.b.1.a, 6.b.1, 7.c.1, 7.k.1, 8.e.1, 8.d.1, 9.b.1, 10.a.1, 10.b, 12.a.1, 12.b, 12.c, and 14.b.1 (Figure 1).&lt;br&gt;&lt;br&gt;
+This fisheries overview provides:&lt;br&gt;&lt;br&gt;
+&lt;ol&gt;
+  &lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;a description of mixed fisheries interactions in the ecosystem; and&lt;/li&gt;&lt;br&gt;
+  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
+&lt;/ol&gt;&lt;br&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;The main fishery operating in the area has been a multinational pelagic fishery targeting two beaked redfish stocks (shallow pelagic [reb.2127.sp] and deep pelagic [reb.2127.dp]) in the northwestern part of the ecoregion and blue whiting (whb.27.1-91214) in the Rockall–Hatton and west of the Porcupine area.&lt;br&gt;&lt;br&gt;
+This redfish fishery commenced in the early 1980s. The number of vessels participating in the fishery decreased substantially as the stocks were depleted. The combined catch of both stocks peaked in 1996 when 180 000 tonnes were caught; this has since declined to an annual catch of about 30 000 tonnes. Catches of blue whiting have been high since the early 2000s, peaking at very high levels (over 200 000 tonnes) recently.&lt;br&gt;&lt;br&gt;
+Fisheries for deep-sea species developed in the early 1970s and peaked at 30 000 tonnes in 1975. Since then, effort has declined, and landings now amount to less than 4 000 tonnes per year. The current relatively small fisheries are mainly conducted by a few trawlers and longliners that are primarily from the EU and Faroe Islands.&lt;br&gt;&lt;br&gt;
+There are demersal fisheries for haddock (had.27.6b) at Rockall, but these account for only a small proportion of the total catches of this stock taken in this ecoregion.&lt;br&gt;&lt;br&gt;
+The fishery within this extensive ecoregion is a multinational one that targets many marine stocks. Currently, about 20 countries have fisheries within the ecoregion. The greatest amounts of landings are taken by Norway, Russian Federation, and Iceland, who mainly target pelagic beaked redfish and blue whiting. Lesser amounts are landed by Spain, Germany, Portugal, Netherlands, Ireland, the Faroe Islands, Latvia, and Lithuania.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
+The Norwegian fleet fishing this ecoregion consists of about 50–60 pelagic trawlers and five to six demersal longline vessels. The highest fishing activity is in the northeastern area, close to the continental shelf edge bordering the Celtic Seas ecoregion and the shallower banks in the same area. The pelagic fleet mainly targets blue whiting but also other pelagic species. Catches of beaked redfish are taken in the northwestern corner of this ecoregion. The demersal longliners mainly target ling (lin.27.3a4a6-91214) and tusk (usk.27.3a45b6a7-912b, usk.27.12ac, and usk.27.6b).&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
+Industrial factory vessels target pelagic beaked redfish in the northwestern part of the ecoregion. The number of vessels participating in this fishery has decreased substantially over time, from around 25 at the peak of the fishery in 1996–2002 to only four in 2019. Iceland has not participated in the fishery since 2020.&lt;br&gt;&lt;br&gt;
+In some years the Icelandic pelagic fleet (10–16 vessels &gt; 65 m) catches part of its blue whiting quota (16–23% in 2017–2023) in the ecoregion, using pelagic trawls. The fishery occurs mainly in the northeastern part of the ecoregion, close to the continental shelf edge bordering the Celtic Seas ecoregion and the shallower banks in the same area.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Ireland&lt;/b&gt;&lt;br&gt;
+The very minor pelagic trawl fishing activity by Ireland in this ecoregion is an extension of the fisheries occurring in the Celtic Seas ecoregion. The albacore tuna fishery, in some years, extends beyond the Irish EEZ southwest of the country. Similarly, the blue whiting fishery occasionally extends west of the Porcupine Bank. There is some Irish demersal trawling activity on the western side of the Rockall bank mainly targeting anglerfish and megrim.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
+The Spanish bottom-trawling fleet operated mainly on the western slope of the Hatton Bank and until 2018 consisted of three to six vessels larger than 50 m length, although in recent years the effort was drastically reduced until it reached zero vessels in 2021. The Spanish fishing fleet has been virtually absent ever since, although this could change in future.&lt;br&gt;&lt;br&gt;
+The most important species targeted have traditionally been Baird's slickhead, blue ling (bli.27.nea), roundnose grenadier (rng.27.1245a8914ab, rng.27.5a10b12ac14b, and rng.27.5b6712b), black scabbardfish (bsf.27.nea), and Greenland halibut. There has also been a pelagic beaked redfish fishery in the northwestern part of the ecoregion (Subdivision 14.b.1), although the size of the Spanish fleet operating in the ecoregion has decreased during recent years, and the fishery has remained closed since 2021, as a result of the low stock biomass and recruitment levels.&lt;br&gt;&lt;br&gt;
+The Spanish pelagic longline fleet (about 33 vessels) operates in the area part of the year in the southern area of the ecoregion (Subarea 10), fishing mainly for swordfish and blue shark.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Faroes&lt;/b&gt;&lt;br&gt;
+At the peak of the pelagic beaked redfish fishery in the mid-1990s (Subdivision 14.b.1), up to seven Faroese vessels participated in the fishery. Since 2020, Faroese vessels have not fished on this stock.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
+Only one French vessel (targeting blue whiting) operates in the eastern part of the ecoregion.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
+Information on the Russian fishing activities has not been available since 2022. The Russian fleet is the largest one participating in the pelagic beaked redfish fishery in the northwestern part of the ecoregion (Subdivision 14.b.1 and Subarea 12). The fleet consists of industrial factory ships. In recent years about 15 vessels have participated in the fishery; during the peak of the fishery (second half of the 1990s and early 2000s), 35–40 vessels participated.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
+Portugal took part in the pelagic beaked redfish fishery during 1994–2012 (subareas 5, 12, and 14). In 2011 and 2012 only four vessels participated in this fishery. The Portuguese pelagic longlining fleet operates in the southern part of the ecoregion (Subarea 10), targeting swordfish and blue shark.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Netherlands&lt;/b&gt;&lt;br&gt;
+The Dutch fleet has minimal activity in the ecoregion. The pelagic fleet, consisting of seven vessels that target blue whiting, mackerel (mac.27.nea), horse mackerel (hom.27.2a4a5b6a7a-ce-k8), and herring, operates on the eastern border of the ecoregion and in adjacent waters, with occasional landings originating from the Oceanic Northeast Atlantic ecoregion.&lt;br&gt;&lt;br&gt;
+&lt;b&gt;Others&lt;/b&gt;&lt;br&gt;
+Until 2020, Germany (one industrial factory vessel), Lithuania (one industrial factory vessel), and Latvia (one industrial factory vessel) participated in the pelagic beaked redfish fishery in the western part of the ecoregion (Subdivision 14.b.1 and Subarea 12). Other countries, such as Japan, China, and the Republic of Korea, fish for bluefin tuna in this ecoregion.&lt;br&gt;&lt;br&gt;</t>
   </si>
 </sst>
 </file>
@@ -3411,18 +3511,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3464,7 +3558,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3474,6 +3567,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3784,8 +3880,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3804,7 +3900,7 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -3815,15 +3911,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>895</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -3835,7 +3931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5EC4FE-E411-4E36-B8C3-47DB4028DB0F}">
   <dimension ref="A1:C292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD20"/>
     </sheetView>
   </sheetViews>
@@ -3850,3214 +3946,3214 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C14" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B19" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="C19" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C46" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="11" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="11" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="11" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="11" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="11" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="11" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="11" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="11" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="11" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="11" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="11" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="11" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="11" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="11" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B70" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="11" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="11" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B72" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="11" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="11" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="11" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="11" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B76" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="11" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B77" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="11" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B78" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="11" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B79" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="11" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B80" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="11" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B81" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="11" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B82" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="11" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="11" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B84" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="11" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="11" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="11" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="11" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="11" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="11" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B90" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="11" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="11" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B92" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="11" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B93" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C93" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="11" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B94" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C94" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="11" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B95" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C95" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="11" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B96" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C96" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="11" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B97" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C97" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="11" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B98" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C98" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="11" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B99" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C99" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="11" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B100" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C100" s="10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="11" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C101" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="11" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B102" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C102" s="10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="11" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C103" s="10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="11" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C104" s="10" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="11" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C105" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="11" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C106" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="11" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C107" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="11" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C108" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="11" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B109" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C109" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="11" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B110" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C110" s="10" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="11" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B111" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C111" s="10" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="11" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B112" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C112" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="11" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B113" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C113" s="10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="11" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B114" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C114" s="10" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="11" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B115" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C115" s="10" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="11" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B116" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C116" s="10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="11" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B117" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C117" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="11" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B118" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C118" s="10" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="11" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B119" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C119" s="10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="11" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B120" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C120" s="10" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="11" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B121" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C121" s="10" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="11" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B122" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C122" s="10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="11" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B123" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C123" s="10" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="11" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B124" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C124" s="10" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="11" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C125" s="10" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="11" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B126" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C126" s="10" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="11" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B127" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C127" s="10" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="11" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B128" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C128" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="11" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B129" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C129" s="10" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="11" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B130" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C130" s="10" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="11" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B131" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C131" s="10" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="11" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B132" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C132" s="10" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="11" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B133" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C133" s="10" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="11" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B134" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C134" s="10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="11" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B135" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C135" s="10" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="11" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B136" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C136" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="11" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B137" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C137" s="10" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="11" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B138" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C138" s="10" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="11" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B139" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C139" s="10" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="11" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B140" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C140" s="10" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="11" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B141" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C141" s="10" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" s="11" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B142" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C142" s="10" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="11" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B143" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C143" s="10" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="11" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C144" s="10" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="11" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B145" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C145" s="10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="11" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B146" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C146" s="10" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="11" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B147" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C147" s="10" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="11" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B148" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C148" s="10" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="11" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B149" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C149" s="10" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="11" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B150" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C150" s="10" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="11" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B151" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C151" s="10" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="11" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B152" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="C152" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="11" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B153" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C153" s="10" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" s="11" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B154" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C154" s="10" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" s="11" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B155" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C155" s="10" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="11" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B156" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C156" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" s="11" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B157" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C157" s="10" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" s="11" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B158" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C158" s="10" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" s="11" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B159" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C159" s="10" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" s="11" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B160" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C160" s="10" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="11" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B161" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C161" s="10" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" s="11" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B162" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C162" s="10" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" s="11" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B163" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C163" s="10" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" s="11" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B164" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C164" s="10" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" s="11" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B165" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="C165" s="10" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" s="11" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B166" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="C166" s="10" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" s="11" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B167" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C167" s="10" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="11" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B168" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C168" s="10" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="11" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B169" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C169" s="10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="11" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B170" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C170" s="10" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="11" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B171" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C171" s="10" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="11" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B172" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C172" s="10" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="11" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B173" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C173" s="10" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" s="11" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B174" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C174" s="10" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="11" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B175" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C175" s="10" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="11" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B176" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C176" s="10" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="11" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B177" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C177" s="10" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" s="11" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B178" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C178" s="10" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="11" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B179" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C179" s="10" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="11" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B180" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C180" s="10" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="11" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B181" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C181" s="10" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="11" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B182" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C182" s="10" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="11" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B183" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C183" s="10" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="11" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B184" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C184" s="10" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="11" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B185" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C185" s="10" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="11" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B186" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C186" s="10" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="11" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B187" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C187" s="10" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="11" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B188" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C188" s="10" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="11" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B189" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C189" s="10" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="11" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B190" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C190" s="10" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="11" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B191" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C191" s="10" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="11" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B192" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C192" s="10" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="11" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B193" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C193" s="10" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" s="11" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B194" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C194" s="10" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" s="11" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B195" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C195" s="10" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="11" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="B187" s="11" t="s">
+      <c r="B196" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C196" s="10" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" s="11" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B197" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C197" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" s="11" t="s">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="B198" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C198" s="10" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" s="11" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B199" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C199" s="10" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="11" t="s">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="B200" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C200" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="11" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B201" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C201" s="10" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="11" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B202" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C202" s="10" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="11" t="s">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B203" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C203" s="10" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="11" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B204" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C204" s="10" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="11" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B205" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C205" s="10" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="11" t="s">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B206" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C206" s="10" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="11" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B207" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C207" s="10" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="11" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B208" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C208" s="10" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" s="11" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B209" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C209" s="10" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" s="11" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B210" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="C201" s="11" t="s">
+      <c r="C210" s="10" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" s="11" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B211" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C211" s="10" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" s="11" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B212" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C212" s="10" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204" s="11" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="B204" s="11" t="s">
+      <c r="B213" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C204" s="11" t="s">
+      <c r="C213" s="10" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" s="11" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B214" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="C205" s="11" t="s">
+      <c r="C214" s="10" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" s="11" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B215" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="C206" s="11" t="s">
+      <c r="C215" s="10" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" s="11" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="B207" s="11" t="s">
+      <c r="B216" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="C207" s="11" t="s">
+      <c r="C216" s="10" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" s="11" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="B208" s="11" t="s">
+      <c r="B217" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="C208" s="11" t="s">
+      <c r="C217" s="10" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" s="11" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="B218" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C218" s="10" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" s="11" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B219" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="C219" s="10" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="11" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B220" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="C211" s="11" t="s">
+      <c r="C220" s="10" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" s="11" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B212" s="11" t="s">
+      <c r="B221" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="C221" s="10" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" s="11" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="B213" s="11" t="s">
+      <c r="B222" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="C222" s="10" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" s="11" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B214" s="11" t="s">
+      <c r="B223" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="C214" s="11" t="s">
+      <c r="C223" s="10" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" s="11" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="B215" s="11" t="s">
+      <c r="B224" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="C215" s="11" t="s">
+      <c r="C224" s="10" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" s="11" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B225" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="C216" s="11" t="s">
+      <c r="C225" s="10" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" s="11" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="B217" s="11" t="s">
+      <c r="B226" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="C217" s="11" t="s">
+      <c r="C226" s="10" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="11" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="B218" s="11" t="s">
+      <c r="B227" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="C218" s="11" t="s">
+      <c r="C227" s="10" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" s="11" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="B219" s="11" t="s">
+      <c r="B228" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="C219" s="11" t="s">
+      <c r="C228" s="10" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" s="11" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B229" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="C220" s="11" t="s">
+      <c r="C229" s="10" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" s="11" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="B221" s="11" t="s">
+      <c r="B230" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="C221" s="11" t="s">
+      <c r="C230" s="10" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" s="11" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="B222" s="11" t="s">
+      <c r="B231" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="C222" s="11" t="s">
+      <c r="C231" s="10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" s="11" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="B223" s="11" t="s">
+      <c r="B232" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="C223" s="11" t="s">
+      <c r="C232" s="10" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" s="11" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="B224" s="11" t="s">
+      <c r="B233" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="C224" s="11" t="s">
+      <c r="C233" s="10" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A225" s="11" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B234" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C225" s="11" t="s">
+      <c r="C234" s="10" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A226" s="11" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="B226" s="11" t="s">
+      <c r="B235" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="C226" s="11" t="s">
+      <c r="C235" s="10" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A227" s="11" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="B227" s="11" t="s">
+      <c r="B236" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="C227" s="11" t="s">
+      <c r="C236" s="10" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" s="11" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="B228" s="11" t="s">
+      <c r="B237" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="C228" s="11" t="s">
+      <c r="C237" s="10" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A229" s="11" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="B229" s="11" t="s">
+      <c r="B238" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="C229" s="11" t="s">
+      <c r="C238" s="10" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A230" s="11" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="B230" s="11" t="s">
+      <c r="B239" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="C230" s="11" t="s">
+      <c r="C239" s="10" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A231" s="11" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B231" s="11" t="s">
+      <c r="B240" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="C231" s="11" t="s">
+      <c r="C240" s="10" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A232" s="11" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="B232" s="11" t="s">
+      <c r="B241" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="C232" s="11" t="s">
+      <c r="C241" s="10" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A233" s="11" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="B242" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="C233" s="11" t="s">
+      <c r="C242" s="10" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A234" s="11" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B243" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="C234" s="11" t="s">
+      <c r="C243" s="10" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A235" s="11" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="B235" s="11" t="s">
+      <c r="B244" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="C235" s="11" t="s">
+      <c r="C244" s="10" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A236" s="11" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="B236" s="11" t="s">
+      <c r="B245" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="C236" s="11" t="s">
+      <c r="C245" s="10" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A237" s="11" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" s="10" t="s">
         <v>744</v>
       </c>
-      <c r="B237" s="11" t="s">
+      <c r="B246" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="C237" s="11" t="s">
+      <c r="C246" s="10" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A238" s="11" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B247" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="C238" s="11" t="s">
+      <c r="C247" s="10" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" s="11" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="B239" s="11" t="s">
+      <c r="B248" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="C239" s="11" t="s">
+      <c r="C248" s="10" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A240" s="11" t="s">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="B249" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="C240" s="11" t="s">
+      <c r="C249" s="10" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A241" s="11" t="s">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" s="10" t="s">
         <v>756</v>
       </c>
-      <c r="B241" s="11" t="s">
+      <c r="B250" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="C241" s="11" t="s">
+      <c r="C250" s="10" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A242" s="11" t="s">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B251" s="10" t="s">
         <v>760</v>
       </c>
-      <c r="C242" s="11" t="s">
+      <c r="C251" s="10" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A243" s="11" t="s">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="B243" s="11" t="s">
+      <c r="B252" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="C243" s="11" t="s">
+      <c r="C252" s="10" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A244" s="11" t="s">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="B244" s="11" t="s">
+      <c r="B253" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="C244" s="11" t="s">
+      <c r="C253" s="10" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A245" s="11" t="s">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="B245" s="11" t="s">
+      <c r="B254" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="C245" s="11" t="s">
+      <c r="C254" s="10" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A246" s="11" t="s">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="B246" s="11" t="s">
+      <c r="B255" s="10" t="s">
         <v>772</v>
       </c>
-      <c r="C246" s="11" t="s">
+      <c r="C255" s="10" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A247" s="11" t="s">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="B247" s="11" t="s">
+      <c r="B256" s="10" t="s">
         <v>775</v>
       </c>
-      <c r="C247" s="11" t="s">
+      <c r="C256" s="10" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A248" s="11" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="B248" s="11" t="s">
+      <c r="B257" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="C248" s="11" t="s">
+      <c r="C257" s="10" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A249" s="11" t="s">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="B249" s="11" t="s">
+      <c r="B258" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="C249" s="11" t="s">
+      <c r="C258" s="10" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A250" s="11" t="s">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="B250" s="11" t="s">
+      <c r="B259" s="10" t="s">
         <v>784</v>
       </c>
-      <c r="C250" s="11" t="s">
+      <c r="C259" s="10" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A251" s="11" t="s">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="B251" s="11" t="s">
+      <c r="B260" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="C251" s="11" t="s">
+      <c r="C260" s="10" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A252" s="11" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="B252" s="11" t="s">
+      <c r="B261" s="10" t="s">
         <v>790</v>
       </c>
-      <c r="C252" s="11" t="s">
+      <c r="C261" s="10" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A253" s="11" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="B253" s="11" t="s">
+      <c r="B262" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="C253" s="11" t="s">
+      <c r="C262" s="10" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A254" s="11" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="B254" s="11" t="s">
+      <c r="B263" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="C254" s="11" t="s">
+      <c r="C263" s="10" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A255" s="11" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="B255" s="11" t="s">
+      <c r="B264" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="C255" s="11" t="s">
+      <c r="C264" s="10" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A256" s="11" t="s">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="B256" s="11" t="s">
+      <c r="B265" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="C256" s="11" t="s">
+      <c r="C265" s="10" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A257" s="11" t="s">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="B257" s="11" t="s">
+      <c r="B266" s="10" t="s">
         <v>805</v>
       </c>
-      <c r="C257" s="11" t="s">
+      <c r="C266" s="10" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A258" s="11" t="s">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="B258" s="11" t="s">
+      <c r="B267" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="C258" s="11" t="s">
+      <c r="C267" s="10" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A259" s="11" t="s">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="B259" s="11" t="s">
+      <c r="B268" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="C259" s="11" t="s">
+      <c r="C268" s="10" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A260" s="11" t="s">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="B260" s="11" t="s">
+      <c r="B269" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="C260" s="11" t="s">
+      <c r="C269" s="10" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A261" s="11" t="s">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="B261" s="11" t="s">
+      <c r="B270" s="10" t="s">
         <v>817</v>
       </c>
-      <c r="C261" s="11" t="s">
+      <c r="C270" s="10" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A262" s="11" t="s">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="B262" s="11" t="s">
+      <c r="B271" s="10" t="s">
         <v>820</v>
       </c>
-      <c r="C262" s="11" t="s">
+      <c r="C271" s="10" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A263" s="11" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="B263" s="11" t="s">
+      <c r="B272" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="C263" s="11" t="s">
+      <c r="C272" s="10" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A264" s="11" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="B264" s="11" t="s">
+      <c r="B273" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="C264" s="11" t="s">
+      <c r="C273" s="10" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A265" s="11" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="B265" s="11" t="s">
+      <c r="B274" s="10" t="s">
         <v>829</v>
       </c>
-      <c r="C265" s="11" t="s">
+      <c r="C274" s="10" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A266" s="11" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="B266" s="11" t="s">
+      <c r="B275" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="C266" s="11" t="s">
+      <c r="C275" s="10" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A267" s="11" t="s">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="B267" s="11" t="s">
+      <c r="B276" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="C267" s="11" t="s">
+      <c r="C276" s="10" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A268" s="11" t="s">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="B268" s="11" t="s">
+      <c r="B277" s="10" t="s">
         <v>838</v>
       </c>
-      <c r="C268" s="11" t="s">
+      <c r="C277" s="10" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A269" s="11" t="s">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="B269" s="11" t="s">
+      <c r="B278" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="C269" s="11" t="s">
+      <c r="C278" s="10" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A270" s="11" t="s">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="B270" s="11" t="s">
+      <c r="B279" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="C270" s="11" t="s">
+      <c r="C279" s="10" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A271" s="11" t="s">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="B271" s="11" t="s">
+      <c r="B280" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="C271" s="11" t="s">
+      <c r="C280" s="10" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A272" s="11" t="s">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" s="10" t="s">
         <v>849</v>
       </c>
-      <c r="B272" s="11" t="s">
+      <c r="B281" s="10" t="s">
         <v>850</v>
       </c>
-      <c r="C272" s="11" t="s">
+      <c r="C281" s="10" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A273" s="11" t="s">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="B273" s="11" t="s">
+      <c r="B282" s="10" t="s">
         <v>853</v>
       </c>
-      <c r="C273" s="11" t="s">
+      <c r="C282" s="10" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A274" s="11" t="s">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" s="10" t="s">
         <v>855</v>
       </c>
-      <c r="B274" s="11" t="s">
+      <c r="B283" s="10" t="s">
         <v>856</v>
       </c>
-      <c r="C274" s="11" t="s">
+      <c r="C283" s="10" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A275" s="11" t="s">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="B275" s="11" t="s">
+      <c r="B284" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="C275" s="11" t="s">
+      <c r="C284" s="10" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A276" s="11" t="s">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285" s="10" t="s">
         <v>861</v>
       </c>
-      <c r="B276" s="11" t="s">
+      <c r="B285" s="10" t="s">
         <v>862</v>
       </c>
-      <c r="C276" s="11" t="s">
+      <c r="C285" s="10" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A277" s="11" t="s">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="B277" s="11" t="s">
+      <c r="B286" s="10" t="s">
         <v>865</v>
       </c>
-      <c r="C277" s="11" t="s">
+      <c r="C286" s="10" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A278" s="11" t="s">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="B278" s="11" t="s">
+      <c r="B287" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="C278" s="11" t="s">
+      <c r="C287" s="10" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A279" s="11" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="B279" s="11" t="s">
+      <c r="B288" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="C279" s="11" t="s">
+      <c r="C288" s="10" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A280" s="11" t="s">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="B280" s="11" t="s">
+      <c r="B289" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="C280" s="11" t="s">
+      <c r="C289" s="10" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A281" s="11" t="s">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="B281" s="11" t="s">
+      <c r="B290" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="C281" s="11" t="s">
+      <c r="C290" s="10" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A282" s="11" t="s">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="B282" s="11" t="s">
+      <c r="B291" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="C282" s="11" t="s">
+      <c r="C291" s="10" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A283" s="11" t="s">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="B283" s="11" t="s">
+      <c r="B292" s="10" t="s">
         <v>883</v>
       </c>
-      <c r="C283" s="11" t="s">
+      <c r="C292" s="10" t="s">
         <v>884</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A284" s="11" t="s">
-        <v>885</v>
-      </c>
-      <c r="B284" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="C284" s="11" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A285" s="11" t="s">
-        <v>888</v>
-      </c>
-      <c r="B285" s="11" t="s">
-        <v>889</v>
-      </c>
-      <c r="C285" s="11" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A286" s="11" t="s">
-        <v>891</v>
-      </c>
-      <c r="B286" s="11" t="s">
-        <v>892</v>
-      </c>
-      <c r="C286" s="11" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A287" s="11" t="s">
-        <v>894</v>
-      </c>
-      <c r="B287" s="11" t="s">
-        <v>895</v>
-      </c>
-      <c r="C287" s="11" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A288" s="11" t="s">
-        <v>897</v>
-      </c>
-      <c r="B288" s="11" t="s">
-        <v>898</v>
-      </c>
-      <c r="C288" s="11" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A289" s="11" t="s">
-        <v>900</v>
-      </c>
-      <c r="B289" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="C289" s="11" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A290" s="11" t="s">
-        <v>903</v>
-      </c>
-      <c r="B290" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="C290" s="11" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A291" s="11" t="s">
-        <v>906</v>
-      </c>
-      <c r="B291" s="11" t="s">
-        <v>907</v>
-      </c>
-      <c r="C291" s="11" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A292" s="11" t="s">
-        <v>909</v>
-      </c>
-      <c r="B292" s="11" t="s">
-        <v>910</v>
-      </c>
-      <c r="C292" s="11" t="s">
-        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -7075,8 +7171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A026B00C-E4B3-4E36-BEA1-AD93DF3D486F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7095,26 +7191,26 @@
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="348" x14ac:dyDescent="0.35">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="406" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>917</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -7126,8 +7222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744F2D0C-79DF-4FE3-924E-E680015F9291}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7144,28 +7240,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="232" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>920</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -7198,18 +7294,18 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7240,18 +7336,18 @@
     </row>
     <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>918</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>919</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -7286,10 +7382,10 @@
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>920</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>
@@ -7321,10 +7417,10 @@
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -7356,10 +7452,10 @@
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -7392,10 +7488,10 @@
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -7410,8 +7506,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7430,10 +7526,10 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>897</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
@@ -7441,15 +7537,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
@@ -7461,8 +7557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C69BDA-CBD4-4A20-96F1-D4184C7A4A9F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7481,26 +7577,26 @@
     </row>
     <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -7512,8 +7608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BB4192-B3A0-40C4-9076-17E7860549D0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7532,26 +7628,26 @@
     </row>
     <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
+      <c r="B3" s="12" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -7563,8 +7659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D16401-415E-4611-9BEF-C11909718B5A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7581,28 +7677,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>908</v>
       </c>
     </row>
   </sheetData>
@@ -7614,8 +7710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59C6F2-69D0-4598-BA12-1B489ABE98B2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7632,28 +7728,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="232" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>910</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -7685,10 +7781,10 @@
     </row>
     <row r="2" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>914</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
@@ -7696,15 +7792,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>915</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>913</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -7716,8 +7812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385D6F23-1F00-43DA-8201-777B854F56F6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7734,38 +7830,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="288" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="400" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="400" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="400" x14ac:dyDescent="0.4">
+      <c r="B3" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="B5" s="6"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="B6" s="6"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7776,8 +7872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27175C00-9C85-488E-AAAE-6AE4E23126BD}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7796,26 +7892,26 @@
     </row>
     <row r="2" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="290" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_2023\fisheriesXplorer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26846EE0-DE56-4E67-8799-6BB056B5F1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CB06F5-35E3-44C8-82B0-6B96838D534E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_NrS" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>&lt;br&gt;Around 6600 fishing vessels are active in the Greater North Sea. Total landings peaked in the 1970s at 4 million tonnes and have since declined to about 2 million tonnes. Total fishing effort has declined substantially since 2003. Pelagic fish landings are greater than demersal fish landings. Herring and mackerel, caught using pelagic trawls and seines, account for the largest portion of the pelagic landings, while sandeel and haddock, caught using otter trawls/seines, account for the largest fraction of the demersal landings. Catches are taken from more than 100 stocks. Discards are highest in the demersal and benthic fisheries. The spatial distribution of fishing gear varies across the Greater North Sea. Static gear is used most frequently in the English Channel, the eastern part of the Southern Bight, the Danish banks, and in the waters east of Shetland. Bottom trawls are used throughout the North Sea, with lower use in the shallower southern North Sea, where beam trawls are most commonly used. Pelagic gears are used throughout the North Sea. &lt;br&gt;&lt;br&gt;In terms of weight of catch, fish stocks harvested from the North Sea are being fished at levels consistent with achieving good environmental status (GES) under the EU’s Marine Strategy Framework Directive; however, the reproductive capacity of the stocks has not generally reached this level. Almost all the fisheries in the North Sea catch more than one species; controlling fishing on one species therefore affects other species as well. ICES has developed a number of scenarios for fishing opportunities that take account of these technical interactions. Each of these scenarios results in different outcomes for the fish stocks. Managers may need to take these scenarios into account when deciding upon fishing opportunities. Furthermore, biological interactions occur between species (e.g. predation), and fishing on one stock may affect the population dynamics of another. Scenarios that take account of these various interactions can be used to evaluate the possible consequences of policy decisions. The greatest physical disturbances of the seabed caused by fishing activity in the North Sea is caused by mobile bottom-contacting gear in the eastern English Channel, in nearshore areas in the southeastern North Sea and in the central Skagerrak. Incidental bycatches of protected, endangered, and threatened species occur in several North Sea fisheries, and the bycatch of common dolphin in the western English Channel may be unsustainable in terms of population. &lt;br&gt;&lt;br&gt;Supporting data used in the Greater North Sea fisheries overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.21641360"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
     <t>introduction</t>
   </si>
   <si>
@@ -2714,33 +2711,6 @@
   </si>
   <si>
     <t>key_signals</t>
-  </si>
-  <si>
-    <t>&lt;br&gt; Fourteen nations currently have fisheries targeting the many marine stocks in the ecoregion. These include (by decreasing order of contribution to total landings in the ecoregion): Scotland, Ireland, Denmark, the Netherlands, France, England, Germany, Poland, Northern Ireland, Lithuania, Spain, Belgium Wales and Sweden.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
-There were 309 French vessels with landings in the ecoregion. The number of vessels has decreased from 362 in 2021 to 309 in 2024. The number of French vessels with 80% of their landings in the Celtic Seas ecoregion in 2024 was 94. Of these, 11 were &lt;12m, 28 were 12-24m, 49 were 24-40m and 6 were &gt; 40m. The main species landed by volume are hake, anglerfish, blue whiting, saithe and mackerel. In terms of landings value, the main species   are anglerfish, hake, saithe, john dory and albacore. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Ireland&lt;/b&gt;&lt;br&gt;
-There were 1 287 Irish vessels with landings in the ecoregion. The number of vessels has decreased from 1 313 in 2021 to 1 287 in 2024. The number of Irish vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 1 274. Of these, 1 078 were &lt;12m, 118 were 12-24m, 58 were 24-40m and 20 were &gt; 40m. The main species landed by volume are mackerel, blue whiting, horse mackerel, sprat and nephrops. In terms of landings value, the main species are nephrops , mackerel, blue whiting, brown crab and horse mackerel. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;United Kingdom&lt;/b&gt;&lt;br&gt;
-&lt;b&gt;Scotland&lt;/b&gt;&lt;br&gt;
-There were 1 026 Scottish vessels with landings in the ecoregion. The number of vessels has decreased from 1 173 in 2021 to 1 026 in 2024. The number of Scottish vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 589. Of these, 472 were &lt;12m, 90 were 12-24m, 23 were 24-40m and 4 were &gt; 40m. The main species landed by volume are mackerel, blue whiting, herring, haddock and Nephrops. In terms of value, the main species are mackerel, Nephrops, anglerfish, herring and haddock. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Northern Ireland&lt;/b&gt;&lt;br&gt;
-There were 180 Northern Ireland vessels with landings in the ecoregion. The number of vessels has decreased from 236 in 2021 to 180 in 2024. The number of Northern Ireland vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 120. Of these, 63 were &lt;12m, 52 were 12 - 24m, 4 were 24-40m and 1 was &gt; 40m. The main species landed by volume are mackerel, herring, Nephrops, brown crab and horse mackerel. In terms of value, the main species are Nephrops, mackerel, herring, brown crab and scallops. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;England and Wales&lt;/b&gt;&lt;br&gt;
-There were 860 English vessels with landings in the ecoregion. The number of vessels has decreased from 924 in 2021 to 860 in 2024. The number of English vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 506. Of these, 384 were &lt;12m, 88 were 12 – 24m, 33 were 24 – 40m and 1 was &gt;40m. The main species landed by volume are mackerel, blue whiting, pilchard, anglerfish and brown crab. In terms of value, the main species are anglerfish, sole, brown crab, lobster and hake. &lt;br&gt;&lt;br&gt;
-There were 227 Welsh vessels with landings in the ecoregion. The number of vessels has decreased from 250 in 2021 to 227 in 2024. The number of Welsh vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 165. Of these, 155 were &lt;12m, 8 were 12 - 24m, 2 were 24 – 40m and 0 were &gt; 40m. The main species landed by volume are whelk, anglerfish, scallop, megrim and brown crab. In terms of value, the main species are whelk, lobster, anglerfish, seabass and brown crab. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
-There were 146 Spanish vessels with landings in the ecoregion. The number of vessels has increased from 79 in 2021 to 146 in 2024. The number of Spanish vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 32. Of these, 0 were &lt;12m, 0 were 12 - 24m, 32 were 24 – 40m and 0 were &gt; 40m. The main species landed by volume are hake, megrim, ling, blue shark and witch. In terms of value, the main species are hake, megrim, Nephrops, ling and greater forkbeard. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Other&lt;/b&gt;&lt;br&gt;
-About 60 Norwegian vessels operate in this ecoregion. Pelagic trawlers mainly target blue whiting but also target other pelagic species. There is also a demersal longline fishery that mainly targets ling and blue ling. &lt;br&gt;&lt;br&gt;
-The Belgian fleet consists of about 65 active vessels, of which about 21 operate in the Irish Sea. The majority (89%) of the vessels operating in the Irish Sea are between 24 and 40 m, while the remainder of the vessels are between 18 and 24 m. The Belgian fleet uses beam trawls and otter trawls for rays, plaice, sole, and anglerfish. &lt;br&gt;&lt;br&gt;
-Seven German vessels operate in the Celtic Seas, one of which takes 80% of their catch in the ecoregion. This includes vessels that mainly target anglerfish and hake with gillnets and longline, as well as freezer trawlers that target blue whiting, horse mackerel and mackerel. &lt;br&gt;&lt;br&gt;
-One large (&gt; 40 m) Lithuanian freezer trawler targets pelagic species in the ecoregion. &lt;br&gt;&lt;br&gt;
-There are 16 large Dutch pelagic freezer trawlers operating in the ecoregion, mainly targeting blue whiting, horse mackerel and mackerel. &lt;br&gt;&lt;br&gt;
-The Danish fleet consist of sixteen vessels, one of which has more than 80% of their landings in the Celtic seas. Blue whiting is the main species for the fleet by weight and mackerel is the main species by value. &lt;br&gt;&lt;br&gt;
-Vessels from the Faroe Islands also operate in this ecoregion, targeting blue whiting with pelagic trawls. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Recreational fisheries&lt;/b&gt;&lt;br&gt;
-Recreational fishing is an important activity in the Celtic Sea that harvests a diverse range of species from a variety of platforms (e.g. shore, boat, charters) using many gears (e.g. rod and line, speargun, nets, pots, traps). The main countries with recreational fisheries are UK and Ireland, where no licence is required. Angling from shore and boat is the most popular method, with a number of charter boats offering trips. Catches can be significant, representing around 46% and 67% of total removals sea bass, and Pollack, respectively, according to the latest ICES advice. The main target species include mackerel, pollack, sea bass, saithe, cod, spurdog (Squalus acanthias), flatfish (plaice, dab, flounder, sole), sea bream, wrasse, and whiting. Recreational fisheries data is included in the pollack and seabass stock assessments in the ecoregion. Sharks, skates, rays, shellfish, crustaceans, and cephalopods are also caught by recreational fishers</t>
   </si>
   <si>
     <t>&lt;ul&gt;
@@ -2756,17 +2726,6 @@
   &lt;li&gt;Annual mixed fisheries forecasts indicate that most fleets are limited by the zero catch advice for cod, haddock and whiting in the Celtic Sea. No forecasts are available for the Irish Sea or the West of Scotland.&lt;/li&gt;
 &lt;/ul&gt;
 &lt;p&gt;Supporting data used in the Celtic Seas fisheries overview is accessible at  &lt;a href="https://doi.org/10.17895/ices.advice.27879936" target="_blank"&gt;ICES Library&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;  The Celtic Seas ecoregion covers the northwestern shelf seas of Europe (Figure 1). It includes areas of the deeper eastern Atlantic Ocean and coastal seas that are heavily influenced by oceanic inputs. The ecoregion ranges from north of Shetland to Brittany in the south. Three key areas constitute this ecoregion: &lt;br&gt;&lt;br&gt;
-&lt;ol style="font-size: 14px"&gt;
-&lt;li style="font-size: 14px"&gt;northern parts: the Malin shelf, west of Scotland, eastern Rockall Bank, and north of Scotland (parts of Subdivision 2.a.2, divisions 4.a and 6.a, and Subdivision 6.b.2); &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;the Celtic Sea(*), Bristol Channel, Western English Channel, southwest and west of Ireland (Division 7.b and Subdivision 7.c.2; parts of divisions 7.e, 7.f, 7.g, 7.h, and subdivisions 7.j.2 and 7.k.2); &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li style="font-size: 14px"&gt;the Irish Sea (Division 7.a). &lt;/li&gt;&lt;br&gt;&lt;br&gt;
-In the north, there are strong links with the North Sea; in the southeast, a strong link with the channel area; and in the south a strong link with the Bay of Biscay. The eastern part of the Rockall Bank is within the geographic scope of the ecoregion, although it is separated from the western European shelf by the Rockall Trough. &lt;br&gt;&lt;br&gt;
-The scientific names of all species described in this overview are listed in the Stock Status Lookup. &lt;br&gt;&lt;br&gt;
-The overview covers ICES subareas 27.7 (excluding Division 27.7.d) and 27.6, (hereafter, the “27” area prefixes are omitted). Some fisheries statistics do not allow the full differentiation of sections of subareas 4 and 2 or (in earlier years) western sections of subareas 6 and 7, as well as the southeastern section of Division 7.e. &lt;br&gt;&lt;br&gt; 
-&lt;br&gt;    (*) Throughout this document ‘Celtic Seas’ refers to the ecoregion and ‘Celtic Sea’ refers to this southern area</t>
   </si>
   <si>
     <t>&lt;ul&gt;
@@ -2843,31 +2802,6 @@
     <t>summary</t>
   </si>
   <si>
-    <t>&lt;br&gt;The Greater North Sea ecoregion includes the North Sea, English Channel, Skagerrak, and Kattegat. The Greater North Sea
-is a relatively shallow sea area on the European continental shelf, with the exception of the Norwegian Trench that extends
-parallel to the Norwegian shoreline. Pelagic species (primarily herring and mackerel) account for a significant portion of
-the total commercial fish landings in the region. Landings of benthic and demersal finfish species (primarily haddock,
-sandeel, flatfish, and cod) are also significant. &lt;br&gt;&lt;br&gt; 
-All of the Greater North Sea ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area
-codes is therefore omitted in the following. This overview covers ICES Division 3.a, most of divisions 4.a, 4.b, 4.c, 7.d, and
-part of Division 7.e, as well as Subdivision 3.b.23. This overview does not include the fisheries in the western English
-Channel (Division 7.e) and in the Sound (Division 3.b.23).
-Note that updates to the figures using data from the stock assessment graphs (SAG) include only advice published before
-10 October 2022. Therefore anf.27.3a46, meg.27.7b-k8abd, rjn.27.678abd, and the Norway lobster stocks refer to the
-advice current at this time (the advice applicable for 2022).&lt;br&gt;&lt;br&gt; 
-This overview provides:&lt;br&gt;&lt;br&gt;
-&lt;ol&gt;
-&lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears,
-and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
-reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li&gt;mixed-fisheries considerations of relevance to the management of the fisheries; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-&lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
-protected, endangered, and threatened species.&lt;/li&gt;
-&lt;/ol&gt;&lt;br&gt;
-The scientific names of all species described in this overview are listed in Stock Status Table tab. &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;
 Around 6600 vessels from nine nations operate in the Greater North Sea, with the largest numbers coming from UK,
 Norway, Denmark, the Netherlands, and France. Total landings peaked in the early 1970s and have since declined. The
@@ -3001,54 +2935,6 @@
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;br&gt;The Norwegian Sea connects with the Faroes ecoregion to the southwest, the Icelandic Waters ecoregion and Greenland Sea to the west along the edge to the shallower Iceland Sea between the Faroe Islands, and northwards to Jan Mayen. To the south it borders to the shallower North Sea along the 62 ̊N parallel between Norway and the Faroe Islands, and to the northeast the shallower Barents Sea (Figure 1). The Norwegian Sea covers more than 1.1 million km2, consisting of two deep basins (between 3000 m and 4000 m deep) – the Norwegian Basin and the Lofoten Basin – separated by the Vøring Plateau (between 1000 m and 3000 m deep). The Norwegian Sea is separated from the Greenland Sea to the north by the Mohn Ridge. To the west, the basin slope forms the transition to the somewhat shallower Iceland Sea. The warm North Atlantic Current ensures relatively stable and high water temperatures, so that unlike the Arctic seas, the Norwegian Sea is ice-free throughout the year.&lt;br&gt;&lt;br&gt;
-Due to the temporary suspension of Russian Federation in ICES activities, ICES did not conduct assessments for the following stocks in 2022: cod.27.1-2, had.27.1-2, and reb.27.1-2. The results of the bilateral Norwegian−Russian assessments for these stocks are not included in this overview.&lt;br&gt;&lt;br&gt;
-This overview provides:&lt;br&gt;&lt;br&gt;
-&lt;ol&gt;
-  &lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-  &lt;li&gt;a description of mixed fisheries interactions in the ecosystem, and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
-&lt;/ol&gt;&lt;br&gt;
-The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;Many nations currently have fisheries targeting the marine stocks within this ecoregion. The largest landings are by Norway, Russia, Faroe Islands, and Iceland. Lesser amounts are landed by United Kingdom and others (Figure 2). Pelagic fishing by multinational fleets is the major activity in the ecoregion. The number of fishing vessels is declining while the size of the vessels is increasing.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
-The Norwegian commercial fleet has the majority of its fishing activity in the shelf area, particularly along the coast of
-Norway and along the continental shelf edge. The Norwegian fleet fishing in the ecoregion consists of about 2300 active
-vessels fishing pelagic fish (mackerel and herring), demersal fish (cod, saithe, haddock, ling (lin.27.1-2), tusk (usk.27.1-2),
-Greenland halibut, and redfish), and shellfish (brown crab, king crab, and northern prawn). Small coastal vessels (the
-majority &lt; 15 m length) fishing with beach-seine, gillnets, and pots make up around 87% of the fleet, while the remaining
-are mainly ocean-going trawlers and purse-seiners &gt; 28 m in length. The highest catch volume (82% of the total catch) is
-taken by the bigger vessels, with pelagic fish constituting the largest part of the landings.&lt;br&gt;&lt;br&gt;
-Harp and hooded seals are hunted with between two and five large ice-going vessels. The minke whale hunt has been
-ongoing in all years since 1993, and approximately 10–15 vessels.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
-The Russian commercial fleet in the Norwegian Sea ecoregion and adjacent waters is composed of about 30 large vessels
-(62–120 m in length) targeting pelagic species including NSS herring, blue whiting, and mackerel using pelagic trawls. The
-pelagic fleet conducts most of its fishing activities in international waters and fewer in the Norwegian EEZ. About 50 smaller
-vessels (&lt; 60 m) target demersal fish, including cod, haddock, saithe, redfish, Greenland halibut, and Atlantic wolffish, using
-mostly bottom trawls. Pelagic fish contribute most to the Russian fishery (about 90% of the catches) in this ecoregion.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
-The Icelandic fleet operating in the Norwegian Sea ecoregion is composed of about 19 large vessels (&gt; 60 m length). They
-all target pelagic fish (NSS herring, mackerel, and blue whiting) with pelagic trawls. Two of the vessels freeze the catches
-on board while the others bring the catches ashore in refrigerated seawater (RSW) tanks.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;United Kingdom&lt;/b&gt;&lt;br&gt;
-The UK fishery operating in the Norwegian Sea ecoregion fishes mainly in ICES Division 2.a using bottom and midwater
-trawls with the occasional gillnetting and purse-seining. A small number of vessels operate in this area and catch a variety
-of demersal and pelagic species. In 2020, three bottom otter trawlers (40–90 m length) targeted cod, together with small
-amounts of saithe, haddock, redfish, and other species. The four midwater trawlers (75–120 m) fishing in 2020 targeted
-NSS herring, mackerel, and blue whiting.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;
-The Faroese fleet in the ecoregion consists of 12 large (&gt; 55 m length) vessels targeting pelagic species (NSS herring,
-mackerel, and blue whiting) with pelagic trawl (mainly) or purse-seine. One of the vessels freezes the catch on board while
-the rest use RSW tanks to bring the catch ashore. In addition, a handful of smaller trawlers (35–50 m length without RSW
-tanks) deliver the catch (mackerel) to the larger vessels at sea; the number of vessels in this last category has decreased
-much over the last five-to-eight years. In the description of fisheries, some Faroese fisheries are mentioned in Subarea 2,
-but these all take place outside the Norwegian Sea ecoregion.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
     <t>&lt;ul&gt;
   &lt;li&gt;
     The majority of the fisheries in the Azores ecoregion are targeted by Azorean vessels. Only a small proportion of catch is taken by surface longliners from mainland Portugal and Spain targeting swordfish and blue shark. The fisheries are classified as small scale because around 60% of the vessels are under nine metres in length and target many different species. The most important targets are tuna and tuna-like species (in weight), deep-water demersal species (in value), and small pelagic species. The most important fishing methods are handline and bottom longline, followed by pole and line (bait boats). Surface longline is also used but mainly by non-regional vessels that operate outside a 100 nautical mile area. The Azores Exclusive Economic Zone (EEZ) is recognized as a no take area for nets (including a trawl ban) excluding a few small coastal gillnets and purse seiners for small pelagics.
@@ -3066,18 +2952,6 @@
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;br&gt;For this overview, the Azores ecoregion corresponds to the Azores EEZ inside ICES Subarea 10 (Figure 1). The ecoregion lies within a much larger open ocean ecosystem, and straddles the Mid-Atlantic Ridge. The Azores is a Portuguese archipelago composed of nine islands with almost no geological continental shelf, and the Azores EEZ includes 461 identified seamounts.&lt;br&gt;&lt;br&gt;
-This overview covers ICES Subdivision 10.a.2 (Figure 1). Vessel monitoring system (VMS) data are available for vessels above 12 meters in length, which means that only longliners and tuna vessels (pole and line) are covered.&lt;br&gt;&lt;br&gt;
-The overview provides:&lt;br&gt;&lt;br&gt;
-&lt;ol&gt;
-  &lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;
-  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;
-  &lt;li&gt;a description of mixed fisheries interactions in the ecosystem; and&lt;/li&gt;
-  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
-&lt;/ol&gt;&lt;br&gt;
-The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
     <t>Portugal and Spain are currently the main countries fishing in the Azores ecoregion. France, United Kingdom, and the Faroe Islands also fish but take lesser amounts. The Russian fleet was fishing in the ecoregion until the early 1980s.&lt;br&gt;&lt;br&gt;
 &lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
 The Portuguese fleet operating in the ecoregion is currently composed of around 600 vessels. Most of these have a length of less than 12 m and are typically licensed to use several different gear types around the archipelago and seamounts to target pelagic (small pelagics and tuna) and demersal deep-water species (such as blackspot sea bream [sbr.27.10], alfonsinos [alf.27.nea], and Atlantic wreckfish). There is also a longline surface fishery targeting swordfish and blue shark.&lt;br&gt;&lt;br&gt;
@@ -3102,57 +2976,6 @@
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;
-The Bay of Biscay and Iberian Coast ecoregion covers the southwestern areas of the EU. It includes areas of the deeper
-eastern Atlantic Ocean, as well as coastal areas from Brittany in the north to the Iberian Peninsula and Gulf of Cadiz in the
-south. The following areas constitute this ecoregion:
-&lt;/p&gt;
-&lt;ul&gt;
-  &lt;li&gt;The Bay of Biscay (divisions 8.a and 8.b, and part of subdivisions 8.d.2 and 8.e.2);&lt;/li&gt;
-  &lt;li&gt;The Cantabrian Sea (Division 8.c);&lt;/li&gt;
-  &lt;li&gt;The west coast of Spain, the Portuguese coast, and the Gulf of Cadiz (Division 9.a and part of Subdivision 9.b.2).&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;
-At its southeastern limit, this ecoregion is connected to the Mediterranean Basin by the Strait of Gibraltar. Deep-water
-currents composed of Mediterranean water have a strong influence on the southwest Iberian and Gulf of Cadiz circulation
-patterns.
-&lt;/p&gt;
-&lt;p&gt;This overview provides:&lt;/p&gt;
-&lt;ul&gt;
-  &lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their catch statistics, fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;
-  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;
-  &lt;li&gt;mixed-fisheries considerations of relevance to the management of the fisheries; and&lt;/li&gt;
-  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;
-The scientific names of all species described in this overview are listed in Table A2 in the Annex.
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Seven nations currently have fisheries targeting the many marine stocks within this diverse and extensive ecoregion. The highest landings are by Spain, Portugal, and France. Lesser amounts are landed by other countries including the Netherlands, Belgium, Ireland, and UK (Figure 2). &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Belgium&lt;/b&gt;&lt;br&gt;
-The Belgian fisheries in the Bay of Biscay mainly take place in Division 8.b. There are fifteen vessels operating, all with beam trawl, and the fishery takes place from 1 June to 30 September. The main target species is sole with monkfish as a bycatch species, though monkfish is increasing in importance in the landings. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
-There are around 1500 vessels operating primarily in ICES Subarea 8, representing more than 4000 fishers. Seventy one percent of all vessels operate predominantly within the 12 nautical mile limit. Around 1000 vessels operate in Division 8.a and 500 in Division 8.b. Around 20 vessels operate occasionally in Division 8.c. &lt;br&gt;&lt;br&gt;
-The mean size of the vessels is 12 m, while more than 1100 vessels are under 12 m. The main gears used by coastal vessels are nets, lines (longlines and handlines), pots, scoop nets, dredges and bottom trawls. The offshore fishery is mostly carried out by bottom trawlers, netters, and a few longliners. The main species caught by French vessels in the area are hake, anglerfish, sole, sea bass, Norway lobster, sardines, cuttlefish, albacore, squids, pollack, and anchovy. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Ireland&lt;/b&gt;&lt;br&gt;
-Ireland has four fisheries in this ecoregion. The highest catches are made by around eight large vessels (&gt; 40 m in length) that target small pelagic fish, mainly boarfish, horse mackerel, and mackerel. Approximately 40 vessels target albacore tuna, with paired midwater pelagic trawls in summer as the fish migrate northward. The gillnet fishery for hake involves around 15 vessels, and there is minor demersal otter trawl activity involving up to eight vessels in Subarea 8. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Netherlands&lt;/b&gt;&lt;br&gt;
-The Netherlands has fishing rights for sole in the Bay of Biscay. In the last two decades, however, the Dutch fleet has not been active in the area. Since the mid-2000s, the Netherlands has been using its fishing rights in the Bay of Biscay for quota swaps with Belgium (i.e. the Dutch quota in the Bay of Biscay has been exchanged for Belgian quota in the North Sea). &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
-A total of 2802 vessels operated in 2023, comprising otter trawlers, purse-seiners, and multi-gear vessels; the fleet operates primarily in Division 9.a. &lt;br&gt;&lt;br&gt;
-A total of 80 bottom otter trawlers are active; 25 target crustaceans (deep-water rose shrimp and Norway lobster) and blue whiting in deep waters from 200 m to 800 m, while the remaining catch finfish in waters shallower than 500 m. The majority of the vessels are between 18 m and 40 m in overall length, and only nine are smaller than 12 m in length. &lt;br&gt;&lt;br&gt;
-The purse-seine fleet predominantly operates at depths between 20 m and 100 m, and traditionally targets sardine. This fleet comprised 144 vessels, between 8 and 27 m in overall length. It contributes to more than 50% of the total catch, and mainly harvests sardine, chub mackerel, anchovy, horse mackerel, and blue jack mackerel. &lt;br&gt;&lt;br&gt;
-The remaining vessels (2570) hold multiple licences for several gear types, including gillnets (80 mm mesh size), trammelnets (100 mm mesh size), hand- and longlines, pots and dredges, and small purse-seines. This multi-gear fleet operates generally within 30 miles of the Portuguese coast, catching, among others, hake, anglerfish, octopus, pout, horse mackerel and clams. These are mostly small vessels under 12 metres in overall length. More than 200 vessels (232) in this fleet exceed 12 metres. This includes bottom and drifting longliners operating in continental waters and offshore, in waters of the NE Atlantic. A deep-water longline fleet, composed of 15 vessels with an average of 20 m length, operates at depths ranging from 800 to 1450 m, targeting black scabbard fish. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
-There are around 4750 vessels in this fleet, operating mainly in northern Spanish waters. The fleet comprises artisanal vessels, trawlers, purse-seiners, demersal longliners, and gillnetters. Around 3600 vessels are operating in the artisanal fishery (of 7 m average length) using artisanal gears including dredges, trammelnets, gillnets, pots, bottom longline, handline, purse-seine and beam trawl; they target mackerel, clams and octopus. The trawlers (71 vessels of 28 m average length) use bottom- and pair trawl to target horse mackerel, mackerel, blue whiting, and hake. The purse-seiners (236 vessels of 22 m average length) target mackerel, anchovy, horse mackerel, and sardine. The demersal longliners (57 vessels of 16 m average length) target hake as main species, as well as European conger. The gillnetters (59 vessels of 18 m average length) catch mainly hake and anglerfish. &lt;br&gt;&lt;br&gt;
-Around 660 vessels operate mainly in the Gulf of Cadiz Spanish waters. The fleet comprises artisanal vessels, trawlers, and purse-seiners. Around 480 vessels are operating in the artisanal fishery (of 9 m average length) using dredges, trammelnets, gillnets, bottom longline, and handline; they target blackspot sea bream, stripped venus, octopus and cuttlefish. The trawlers (120 vessels of 19 m average length) target shellfish and cephalopods. The purse-seiners are composed of 70 vessels of 17 m average length. &lt;br&gt;&lt;br&gt;
-Other fleets operating in Iberian waters mainly on the north coast and Galician waters comprise around 400 vessels – 300–350 trolling and 60 with live bait (of 17 m average length). These fleets target albacore. &lt;br&gt;&lt;br&gt;
-Around 66 vessels operate mainly in the Bay of Biscay. The fleet comprises trawlers and passive gears (bottom longline and gillnet). Thirteen vessels are operating in the trawler fleet targeting hake, anglerfish, and megrim. Fifty-three vessels use passive gears (mainly bottom longlines and some gillnets) which target hake. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;UK&lt;/b&gt;&lt;br&gt;
-The UK fleet operating in the ecoregion mainly operates in divisions 8.a and 8.b, and further offshore in Division 8.d. The fleet is comprised of pelagic trawlers, gillnetters, and longliners; the fleet size varies, from seven to 13 vessels over the last four years. The pelagic trawlers are the larger vessels (50–114 m), mainly targeting mackerel and horse mackerel. Longliners (20–35 m) target hake. Gillnetters target hake, anglerfish, and pollack, and operate in divisions 8.a, 8.b and further offshore in Division 8.d. &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
     <t>&lt;ul&gt;
   &lt;li&gt;
     The commercial fisheries in the Barents Sea Ecoregion target few stocks. The largest pelagic fishery targets capelin (cap.27.1-2) using midwater trawl. The largest demersal fisheries target cod (cod.27.1-2), haddock (had.27.1-2), and other gadoids, predominantly using trawls, gillnets, longlines, and handlines. The crustacean fisheries target deep-sea prawn, red king crab, and snow crab. Harp seals and minke whales are also hunted in the region.
@@ -3168,57 +2991,6 @@
   Supporting data used in the Barents Sea fisheries overview can be accessed at
   &lt;a href="https://doi.org/10.17895/ices.advice.21640814"&gt;ICES Library&lt;/a&gt;
 &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt;The Barents Sea ecoregion covers the shelf sea to the north of Norway and the Russian Federation (“Russia” henceforth) (Figure 1). Its western boundary approximately follows the shelf break towards the deep Norwegian Sea to the west, and its northern boundary follows the shelf break towards the deep Arctic Ocean to the north. To the east, the ecoregion borders Novaya Zemlya and the Kara Sea. The two Arctic archipelagos of Svalbard and Franz Josef Land are situated within the ecoregion. There are relatively deep areas to the west, while the eastern parts of the ecoregion are dominated by bank areas. &lt;br&gt;&lt;br&gt;
-This overview covers the entirety of ICES Division 27.1.a and parts of divisions 27.1.b, 27.2.a, and 27.2.b (hereafter, the “27” area prefixes are omitted). All catches within Division 1.b are, however, taken in the Barents Sea ecoregion, as there are no catches in the northernmost part, which belongs to the Arctic Ocean ecoregion. The plots of total catches include all catches in ICES subareas 1 and 2 except for catches of the large pelagic stocks (Norwegian spring-spawning herring, Northeast Arctic mackerel, and blue whiting), for which there are minimal catches in the Barents Sea. &lt;br&gt;&lt;br&gt;
-Because of the suspension of Russia from ICES activities, ICES has not conducted assessments for the following stocks since 2022: cod.27.1-2, had.27.1-2, ghl.27.1-2, reb.27.1-2, cap.27.1-2, and pra.27.1-2. The results of the bilateral Norwegian–Russian assessments for these stocks are not included in this overview. &lt;br&gt;&lt;br&gt;
-This overview provides the following: &lt;br&gt;&lt;br&gt;
-&lt;ol&gt;
-  &lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-  &lt;li&gt;a description of mixed-fisheries interactions in the ecoregion; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
-&lt;/ol&gt;&lt;br&gt;
-The scientific names of all species described in this overview are listed in Table A2 in the Annex. &lt;br&gt;&lt;br&gt;
-</t>
-  </si>
-  <si>
-    <t>There are currently 12 nations with fisheries targeting the stocks in this ecoregion. The country with the highest landings is Norway, followed by Russia. Lower quantities are landed by Denmark, Estonia, Faroe Islands, France, Germany, Greenland, Iceland, Poland, Portugal, Spain, Belarus, and UK (Figure 2). &lt;br&gt;&lt;br&gt;
-Prior to the establishment of exclusive economic zones (EEZ) in the ecoregion in the late 1970s, several nations were fishing in the area. The major fishing fleets were from Norway and Russia. Historically, landings by all nations were dominated by demersal species such as cod and haddock; however, redfish (beaked and golden) and Greenland halibut (ghl.27.1-2) were also important up to about 1990. &lt;br&gt;&lt;br&gt;
-Landings of capelin, the only major pelagic fish species in the area, peaked at three million tonnes in 1977. The capelin stock “collapsed” to very low levels in the mid-1980s. Before the establishment of a minimum landing size for Norwegian spring-spawning herring, for which the Barents Sea serves as a nursery area, large catches of immature herring were also taken in the ecoregion, mainly by Norwegian and Russian fishers. In recent years, Norway has fished some legal sized herring in a restricted coastal purse-seine fishery inside four nautical miles off the Finnmark coast. In the southwestern part of the ecoregion, an international herring fishery has operated in some seasons. &lt;br&gt;&lt;br&gt;
-Catches from the northern shrimp (pra.27.1-2) fishery increased considerably from 2018, with much of the increase coming from fleets fishing in the international waters between the Norwegian EEZ, the Fisheries Protection Zone around Svalbard, and the Russian EEZ. Red king crab are fished by Russia in near-coastal Russian waters and fished by Norway in the coastal waters of Finnmark and Tromsø, the northernmost counties of Norway. A fishery has developed for the snow crab in recent years; this is a species first encountered in the ecoregion in 1996. &lt;br&gt;&lt;br&gt;
-Commercial hunting of Barents Sea harp seal started with vessels from northern Norway in 1867. In general, there has been a lack of capacity to take recommended TACs since 2000. Norwegian whaling, targeting minke whales, started in the late 1920s. A total quota was introduced in 1976. The effect of this was to move the catch effort from coastal areas with relatively low catch rates to the Barents Sea and off the west coast of Spitsbergen. Following the moratorium on all whaling declared by the International Whaling Commission (IWC), Norway stopped all commercial minke whale hunt temporarily after the 1987 season. The hunt was started again in 1993 and has continued in all subsequent years. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
-The Norwegian fleet fishing in the ecoregion consists of about 3 000 active vessels. These vessels fish gadoids (cod, haddock, and saithe), other demersal fish, pelagic fish, and shellfish. Small coastal vessels (the majority &lt; 11 m in length) fishing with gillnets, handline, and pots make up around 95% of the fleet, while the remaining 5% are predominantly ocean-going trawlers &gt; 28 m in length. About 1000 Norwegian coastal vessels (6–22 m in length) participate in the quota-regulated red king crab fishery east of 26°E. West of this line, fishing for red king crab is unregulated and the number of vessels unknown. The snow crab fishery in the Norwegian EEZ part of the ecoregion is still developing because of the relatively recent westward spread of snow crab. There are currently 20–30 Norwegian vessels in this fishery. The harp seal hunt in the ecoregion has traditionally been conducted with large ice-going sealers, of which only two to five vessels remain today. Approximately 10–15 vessels participate in the minke whale hunt. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
-The Russian fleet operating in the Barents Sea and Norwegian Sea ecoregions is composed of about 200 vessels. Ninety percent of the vessels catch demersal species, including fish and crustaceans, and 15% catch pelagic species. Approximately 25% of the fleet targeting demersal species consists of boats below 34 m in length and operates near the Russian coast using trawls and traps, catching several fish species and crabs. Vessels of size 34–65 m average around 60% of the fleet and mainly target cod, haddock, saithe (pok.27.1-2), redfish, Greenland halibut, wolffish, long rough dab, and plaice using trawls and longlines, traps (for crab), and trawls (for shrimp). The industrial factory ships (ten vessels of 65–100 m; 20 vessels &gt; 100 m) are predominantly trawlers that use bottom and midwater trawls. They account for most of the landings of capelin but also catch cod, haddock, and saithe. The Russian harp seal hunt is performed using two to three helicopters, where the seals (generally pups) are hunted on the ice. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Denmark&lt;/b&gt;&lt;br&gt;
-The Danish fleet targets small amounts of demersal fish in ICES Subdivision 2.a.2. The vessels are all pelagic trawlers or combined trawl/purse-seiners, ranging in length between 60 m and 90 m. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Estonia&lt;/b&gt;&lt;br&gt;
-The Estonian fleet fishing in the area consists of less than ten vessels with an average length of 64 m, operating in the Northwest Atlantic, Northeast Atlantic, and Svalbard. The fleet targets mainly northern shrimp and Greenland halibut with bottom trawls, with cod and long rough dab as bycatch. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;
-The Faroese fleet in the ecoregion currently consists of less than five vessels targeting cod, haddock, Greenland halibut, shrimp, redfish, and flatfish. These vessels are between 50 m and 80 m in length. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
-French vessels target cod, haddock, saithe, redfish, and Greenland halibut in the area. The fleet usually consists of one freezer trawler of 80 m in length, targeting cod and associated species (haddock and saithe) with otter bottom trawls. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
-The German fleet operating in the ecoregion consists of about four vessels (&gt; 40 m in length). The pelagic freezer trawlers target mainly herring, blue whiting, and redfish, while the demersal trawlers target mainly cod, saithe, and haddock. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Greenland&lt;/b&gt;&lt;br&gt;
-The Greenlandic fishing fleet consists of eight vessels. Two of these are stern trawlers 82–88 m in length that mainly target cod, saithe, and haddock, with minor bycatches of plaice and wolffish. The remaining six vessels are pelagic trawlers and purse seiners, 66–88 m in length, that mainly fish for mackerel. One vessel targets northern shrimp. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
-The Icelandic fleet consists of less than ten vessels, all demersal trawlers larger than 60 m in length. These vessels target cod in accordance with bilateral agreements between Iceland and Norway and between Iceland and Russia. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Lithuania&lt;/b&gt;&lt;br&gt;
-The Lithuanian fleet in the North Atlantic consists of two demersal trawlers &gt; 40 m in length, targeting shrimp in the ecoregion. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Poland&lt;/b&gt;&lt;br&gt;
-One Polish vessel (&gt; 40 m in length) is active in the region, targeting cod, haddock, saithe, redfish, and Greenland halibut. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
-Less than five Portuguese stern trawlers (&gt; 60 m in length) operate in the area; they mainly target cod, since quotas for redfish, haddock, and pollock are small. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
-The Spanish fleet consists of seven vessels. Four of these are 48–87 m in length, targeting cod with otter bottom trawls. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;UK&lt;/b&gt;&lt;br&gt;
-Less than five demersal vessels operate throughout the year in the ecoregion, mainly targeting species such as cod, haddock, saithe, and Greenland halibut. The average size of these vessels is around 4 830 kW horsepower and &gt; 80 m in total length. Between one and three vessels fish for herring in Division 2.a. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Others&lt;/b&gt;&lt;br&gt;
-Smaller amounts of saithe, redfish, and Greenland halibut have been landed by Ireland, the Netherlands, and Latvia in some years. Belarussian vessels also catch a small amount of cod annually. &lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;
@@ -3262,41 +3034,6 @@
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;br&gt;The Baltic Sea is a semi-enclosed, brackish sea, characterized by a sequence of basins connected by shallower sills with vertical stratification of the water column (Figure 1). Salty, well-oxygenated water from the North Sea occasionally enters the Baltic Sea through the Belt Seas and propagates into the deeper areas, while freshwater flows exit at the surface. Stratification limits the oxygen from reaching the deeper waters, so the oxygen content of the bottom water depends on local oxygen consumption and the inflows of North Sea water. The ecoregion has a limited diversity of fish species, dominated by marine species in the southwestern areas and a combination of marine and freshwater species in the northeastern areas (subdivisions 28.1, 29–32). Fisheries in the Baltic Sea are focused on a few major species. &lt;br&gt;&lt;br&gt;
-&lt;br&gt;Commonly referred to areas in Baltic Sea are defined as follows: Western Baltic (subdivisions 22–24), Baltic Proper (subdivisions 25–29, excluding 28.1 [Gulf of Riga]), Central Baltic (subdivisions 25–29), Bothnian Sea (subdivisions 30–31), and Gulf of Finland (subdivision 32). &lt;br&gt;&lt;br&gt;
-The overview covers ICES Subarea 27.3, excluding Division 27.3.a (hereafter, the area prefixes are omitted), and provides: &lt;br&gt;&lt;br&gt;
-&lt;ol&gt;
-  &lt;li&gt;a short description of each of the national fishing fleets in the ecoregion, including their commercial and recreational fisheries and fishing gears and patterns;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-  &lt;li&gt;a description of mixed-fisheries interactions in the ecoregion; and&lt;/li&gt;&lt;br&gt;&lt;br&gt;
-  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
-&lt;/ol&gt;&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;Currently, fishing vessels from nine nations operate in the Baltic Sea, with the largest number of larger vessels (&gt; 12 m) coming from Sweden, Denmark, and Poland. Total finfish landings from the Baltic Sea peaked in the mid-1970s and again in the mid-1990s, corresponding to peaks in the abundance of cod and sprat stocks, respectively. The proportion of the total annual landings caught by each country has varied little over time, except for the redistribution of catches by former USSR countries (Figure 2). The following paragraphs highlight features of the fleets and fisheries of each country, but are not exhaustive descriptions. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Denmark&lt;/b&gt;&lt;br&gt;
-The Danish fleet comprises close to 350 vessels, divided into offshore fisheries (approximately 100 vessels 8–12 m and 80 vessels &gt; 12 m) and coastal fisheries (approximately 150 vessels). The large vessel offshore fisheries target (a) sprat and herring in the northern Baltic Sea using small‐meshed pelagic trawls and (b) flatfish, mainly plaice but also flounder, dab, turbot, and brill, in the southwestern Baltic fisheries using demersal trawls. The coastal fisheries occur along all coasts of the Belt Sea area and target several flatfish species using mainly gillnets, trapnets, or rarely poundnets. Recreational fisheries target different species depending on the season, with plaice, salmon, and sea trout being among the most important species. The main recreational fishing area for salmon is off Bornholm in subdivisions 24 and 25.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Estonia&lt;/b&gt;&lt;br&gt;
-The active offshore fleet comprises around 25–30 fishing vessels of 18–42 m, while the coastal fishery consists of several hundred small boats of &lt; 12 m. The pelagic fleet consists mostly of stern trawlers, targeting herring and sprat in subdivisions 28.1, 28.2, 29, and 32. About 25–30% of the herring catch is taken by coastal fisheries. Main areas of coastal herring fishery are the Gulf of Riga (Subdivision 28.1) and the Gulf of Finland (Subdivision 32), where trapnets and poundnets are used. Flounder is also taken using Danish seines and gillnets in the coastal fisheries in the Gulf of Riga and subdivisions 29 and 32. Recreational fisheries primarily target perch, pikeperch, flounder, and European whitefish, mainly in the Gulf of Riga. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Finland&lt;/b&gt;&lt;br&gt;
-The fleet comprises 3352 vessels, of which about 1300 vessels are actively used in the fishery. The vast majority of the vessels are &lt; 10 m and operate in coastal fisheries. The offshore fleet is composed of 47 vessels &gt; 10 m in the Baltic main basin, the Archipelago Sea, the Gulf of Bothnia, and the Gulf of Finland; it mainly targets Baltic herring stocks (with sprat taken mainly as bycatch) with pelagic trawls. The coastal fisheries occur on all parts of the coast using trapnets, fykenets, and gillnets; they catch salmon, European whitefish, pikeperch, perch, pike, vendace, burbot, smelt, and occasionally flounder. Recreational fisheries target mainly perch, pike, pikeperch, European whitefish, bream, and herring using gillnets, rods, fish traps, and fykenets along the coast of the Gulf of Finland as well as in the Archipelago Sea and Gulf of Bothnia. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
-The German commercial fleet in the Baltic Sea consists of about 58 trawlers and larger (&gt; 10 m total length) polyvalent vessels (those which use multiple gears), and about 596 vessels using exclusively passive gear (&lt; 12 m total length). The German herring fleet in the Baltic Sea, where all catches are taken in a directed fishery, consists of a coastal fleet with mostly undecked boats (rowing/motor boats ≤ 12 m) and a cutter fleet with decked vessels (total length 12–40 m). The German herring fishery in the Baltic Sea is conducted with gillnets, trapnets, and trawls. Historically passive and active gear shared the landings about 70:30; however, in recent years all landings were from passive gears. Herring are fished mostly in the spring spawning season and in Subdivision 24. In the central Baltic Sea almost all landings are taken by the trawl fishery. All catches of sprat are taken in a directed trawl fishery by cutters &gt; 18 m in length. Most sprat is caught in subdivisions 25–29 in the first quarter. Demersal and benthic species are caught with bottom trawls and passive gears, particularly with gillnets but also trammelnets. The number of vessels in the active gear fishery has substantially decreased and now mainly targets flatfish in subdivisions 22 and 24. The passive gear fisheries operate all year-round targeting different species, including in coastal lagoons and river mouths, in different seasons. Recreational fisheries were carried out by an estimated 165 000 fishers from all German shores and from boats (charter and private boats) mostly within 5 nautical miles off the coast; the main target species being herring, sea trout, salmon, flatfish species, and whiting. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Latvia&lt;/b&gt;&lt;br&gt;
-The fleet comprises around 55 registered offshore vessels (12–40 m) and 610 coastal vessels (&lt; 12 m). The offshore vessels target sprat in the Baltic main basin and herring in the Gulf of Riga using pelagic trawls. Flounder is targeted in subdivisions 25, 26, and 28 using demersal trawls. Since 2000, sprat and herring have accounted for 92% of the total annual landings. Most vessels in the coastal fleet are &lt; 5 m and target herring, round goby, flounder, smelt, salmon, sea trout, vimba bream, turbot, and eelpout using fykenets, trapnets, and gillnets. Recreational fisheries occur on all coasts and target flounder, perch, and round goby.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Lithuania&lt;/b&gt;&lt;br&gt;
-The Lithuanian fishing fleet in 2020 comprised 21 offshore vessels (&gt; 18 m) and 58 coastal vessels (&lt; 12 m). The offshore fishing fleet uses pelagic and bottom trawls, with vessels switching between gears depending on target species, fishing conditions, and quota availability. The main target species are sprat, herring, and flounder caught mainly in subdivisions 25, 26, and 28 as well as to a lesser extent in subdivisions 27 and 29. The coastal fisheries target herring, smelt, round goby, flounder, and turbot using gillnets and trapnets within the Lithuanian coastal area of Subdivision 26. Recreational fisheries also occur in these waters and focus on herring, salmon, and sea trout using rod and lines. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Poland&lt;/b&gt;&lt;br&gt;
-The fishing fleet consists of around 150 active offshore vessels (12–35 m) and approximately 650 coastal vessels (&lt; 12 m). The larger offshore vessels (&gt; 18.5 m) target sprat and herring using pelagic trawls, while smaller offshore vessels (12–18.5 m) target flounder and sandeel using bottom trawls. Fishing occurs mainly in subdivisions 24, 25, and 26, and these species form about 98% of the total annual landings. The coastal fisheries harvest mainly sea trout, flounder, turbot, plaice, roach, perch, bream, and pikeperch. Recreational fisheries mostly target salmon and sea trout, primarily along the central Polish coast and off the Hel Peninsula. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Russian Federation&lt;/b&gt;&lt;br&gt;
-Note that this text has not been updated since 2022. &lt;br&gt;&lt;br&gt;
-The fishing fleet is composed of about 45 vessels divided into offshore fisheries (41 vessels by 25–31 m size class) and coastal fisheries (four vessels by 15–25 m size class). In Subdivision 26, the vessels of the fleet MRTK target sprat and herring while the demersal trawl fleet (about 27 m) targets cod and flounder. The gillnet fleet targets cod with flounder as bycatch. A poundnet fishery targeting herring occurs in the Vistula Lagoon. In the eastern part of the Gulf of Finland (Subdivision 32), the MRTK fleet operates mainly in the first, second, and fourth quarters and is oriented to herring. Recreational fisheries targeting cod, flounder, turbot, salmon, goby, and other non‐commercial species occur on all Russian coasts. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Sweden&lt;/b&gt;&lt;br&gt;
-The fleet is comprised of around 400 active vessels, whereof the majority (about 370 vessels) are &lt; 12 m. Around 10 vessels &gt; 40 m operate in the Baltic Sea, as well as 30 vessels of 12–39 m. Around 65 vessels fish with active gears, of which about two thirds target pelagic species with trawls, and the rest mostly target vendace in Bothnian Bay. The demersal trawl fishery for cod and flatfish has completely stopped since 2019, when the targeted cod fishery was prohibited. Coastal fisheries use a mixture of gillnets, longlines, and fish traps to catch flatfish as well as a variety of freshwater species (in the archipelagic areas) and herring, European whitefish, and salmon in Bothnian Bay. A coastal fishery using fykenets targets European eel and other species along the southeast coast. Recreational fisheries take place along the entire Baltic Sea coast and target marine and freshwater species including salmon, pike, perch, and sea trout. &lt;br&gt;&lt;br&gt;
-&lt;b&gt;Others&lt;/b&gt;&lt;br&gt;
-Historically, countries other than those bordering the Baltic Sea have made some landings. However, in recent decades landings are exclusively from the nine bordering countries. &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
     <t>&lt;ul&gt;
   &lt;li&gt;The majority of fishing in the Faroes ecoregion is performed by Faroese vessels. The vast majority of the vessels participate in a mixed fishery for demersal fish, such as cod, haddock, saithe, ling, greater silver smelt, and Greenland halibut. Two main fleet categories operate under an effort management system with separated allocated fishing days: one group consists of single and pair trawlers (&gt; 1000 hp) targeting saithe, while another group, mainly longliners of all sizes, targets cod and haddack. A small number of large vessels target widely distributed pelagic fish, i.e. herring, mackerel, and blue whiting using pelagic trawl.&lt;/li&gt;&lt;br&gt;
   &lt;li&gt;Demersal fish constituted the majority of the landings until the 1990s when pelagic landings increased considerably. Total landings peaked after 2000, and a noticeable drop around 2010 was caused by a decrease in the landings of blue whiting. Landings of demersal fish, especially cod and haddock, have been low since 2005.&lt;/li&gt;&lt;br&gt;
@@ -3307,10 +3044,380 @@
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;br&gt;The Faroes ecoregion covers the shelf and surrounding waters inside the Faroe Islands Exclusive Economic Zone (EEZ); Figure 1). The waters around the Faroe Islands are in the upper 500 m dominated by the North Atlantic Current, which to the north of the islands meets the East Icelandic Current. Clockwise current systems create retention areas on the Faroe Plateau (Faroe Shelf around the Faroe Islands) and on the Faroe Bank (Figure 1 in ICES 5.b.2). In deeper waters to the north and east and in the Faroe Bank channel there is deep Norwegian Sea water, and to the south and west is Atlantic water. &lt;br&gt;&lt;br&gt;
-The fisheries within the ecoregion catch more than 30 stocks of fish and invertebrates. The main demersal species include cod (cod.27.5b1), haddock (had.27.5b), saithe (pok.27.5b), tusk (usk.27.3a45b6a7-912b), ling (lin.27.5b), golden redfish (reg.27.561214), Greenland halibut (ghl.27.561214), and anglerfish. The main pelagic species are the widely distributed Norwegian spring-spawning (NSS) herring (her.27.1-24a514a), blue whiting (whb.27.1-91214), mackerel (mac.27.nea), and greater silver smelt (aru.27.5b6a). &lt;br&gt;&lt;br&gt;
-The majority of fishing in the Faroes ecoregion is performed by Faroese vessels. The fisheries for most stocks in this ecoregion are managed by the Faroe Islands government, while management of some shared stocks is conducted either through the North East Atlantic Fisheries Commission (NEAFC) or by coastal state agreements (between EU, Iceland, Greenland, the Faroe Islands, Norway, Russian Federation, and UK). &lt;br&gt;&lt;br&gt;
-This overview covers ICES Division 5.b and part of Division 2.a.2 (Figure 1), and provides: &lt;br&gt;&lt;br&gt;
+    <t>&lt;ul&gt;
+  &lt;li&gt;
+    Around 6600 fishing vessels are active in the Greater North Sea. Total landings
+    peaked in the 1970s at 4 million tonnes and have since declined to about 2 million
+    tonnes. Total fishing effort has declined substantially since 2003. Pelagic fish
+    landings are greater than demersal fish landings. Herring and mackerel, caught
+    using pelagic trawls and seines, account for the largest portion of the pelagic
+    landings, while sandeel and haddock, caught using otter trawls/seines, account for
+    the largest fraction of the demersal landings. Catches are taken from more than
+    100 stocks. Discards are highest in the demersal and benthic fisheries. The spatial
+    distribution of fishing gear varies across the Greater North Sea. Static gear is used
+    most frequently in the English Channel, the eastern part of the Southern Bight,
+    the Danish banks, and in the waters east of Shetland. Bottom trawls are used
+    throughout the North Sea, with lower use in the shallower southern North Sea,
+    where beam trawls are most commonly used. Pelagic gears are used throughout the
+    North Sea.
+  &lt;/li&gt;
+  &lt;li&gt;
+    In terms of weight of catch, fish stocks harvested from the North Sea are being
+    fished at levels consistent with achieving good environmental status (GES) under
+    the EU’s Marine Strategy Framework Directive; however, the reproductive capacity
+    of the stocks has not generally reached this level. Almost all the fisheries in the
+    North Sea catch more than one species; controlling fishing on one species therefore
+    affects other species as well. ICES has developed a number of scenarios for fishing
+    opportunities that take account of these technical interactions. Each of these scenarios
+    results in different outcomes for the fish stocks. Managers may need to take these
+    scenarios into account when deciding upon fishing opportunities. Furthermore,
+    biological interactions occur between species (e.g. predation), and fishing on one
+    stock may affect the population dynamics of another. Scenarios that take account of
+    these various interactions can be used to evaluate the possible consequences of
+    policy decisions. The greatest physical disturbances of the seabed caused by fishing
+    activity in the North Sea is caused by mobile bottom-contacting gear in the eastern
+    English Channel, in nearshore areas in the southeastern North Sea and in the central
+    Skagerrak. Incidental bycatches of protected, endangered, and threatened species
+    occur in several North Sea fisheries, and the bycatch of common dolphin in the
+    western English Channel may be unsustainable in terms of population.
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+  Supporting data used in the Greater North Sea fisheries overview is accessible at
+  &lt;a href="https://doi.org/10.17895/ices.advice.21641360"&gt;ICES Library&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;
+    The commercial fisheries in the Oceanic Northeast Atlantic ecoregion target few
+    stocks. The main fisheries in the area are a multinational fishery on two pelagic
+    beaked redfish stocks in the northwestern part of the ecoregion and a fishery on
+    blue whiting on the Hatton-Rockall plateau and west of the Porcupine Bank using
+    midwater trawl. The demersal fisheries for haddock at Rockall account for only a
+    small proportion of the total catches of haddock taken in this ecoregion. Fishing
+    for tuna (bluefin, skipjack, bigeye, and albacore) and other large pelagic species
+    (swordfish) by long-distance longliners occurs across much of this ecoregion. Very
+    few deep-sea fisheries are conducted in the region.
+  &lt;/li&gt;
+  &lt;li&gt;
+    There are currently around 20 nations with fisheries targeting the stocks in the
+    ecoregion. Norway, Iceland, and the Russian Federation have the largest fleets and
+    dominate the landings in the region. Total landings have varied since the mid-1970s,
+    with a rise in the recent decade mainly due to increased blue whiting catches. Two
+    beaked redfish stocks dominated the catches (by weight) until 2000, but catches of
+    these stocks have decreased considerably since the peak of the fishery in the
+    mid-1990s.
+  &lt;/li&gt;
+  &lt;li&gt;
+    The Oceanic Northeast Atlantic ecoregion has 52 stocks for which ICES provided
+    advice in 2021. Around 13% of the assessed stocks are fished at or below F&lt;sub&gt;MSY&lt;/sub&gt;
+    target levels; around 19% of the stocks were assessed to be above MSY
+    B&lt;sub&gt;trigger&lt;/sub&gt;. The majority of the stocks have unknown stock and fishing
+    mortality statuses.
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+  Supporting data used in the Oceanic Northeast Atlantic fisheries overview is accessible
+  at &lt;a href="https://doi.org/10.17895/ices.advice.27880092"&gt;ICES Library&lt;/a&gt;.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The Greater North Sea ecoregion includes the North Sea, English Channel, Skagerrak, and Kattegat. The Greater North Sea
+is a relatively shallow sea area on the European continental shelf, with the exception of the Norwegian Trench that extends
+parallel to the Norwegian shoreline. Pelagic species (primarily herring and mackerel) account for a significant portion of
+the total commercial fish landings in the region. Landings of benthic and demersal finfish species (primarily haddock,
+sandeel, flatfish, and cod) are also significant.
+&lt;/p&gt;
+&lt;p&gt;
+All of the Greater North Sea ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area
+codes is therefore omitted in the following. This overview covers ICES Division 3.a, most of divisions 4.a, 4.b, 4.c, 7.d, and
+part of Division 7.e, as well as Subdivision 3.b.23. This overview does not include the fisheries in the western English
+Channel (Division 7.e) and in the Sound (Division 3.b.23).
+&lt;/p&gt;
+&lt;p&gt;
+Note that updates to the figures using data from the stock assessment graphs (SAG) include only advice published before
+10 October 2022. Therefore anf.27.3a46, meg.27.7b-k8abd, rjn.27.678abd, and the Norway lobster stocks refer to the
+advice current at this time (the advice applicable for 2022).
+&lt;/p&gt;
+&lt;p&gt;
+This overview provides:
+&lt;/p&gt;
+&lt;ol&gt;
+  &lt;li&gt;
+    a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears,
+    and spatial and temporal patterns of activity;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
+    reference points;
+  &lt;/li&gt;
+  &lt;li&gt;
+    mixed-fisheries considerations of relevance to the management of the fisheries; and
+  &lt;/li&gt;
+  &lt;li&gt;
+    an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
+    protected, endangered, and threatened species.
+  &lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;
+The scientific names of all species described in this overview are listed in Stock Status Table tab.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The Norwegian Sea connects with the Faroes ecoregion to the southwest, the Icelandic Waters ecoregion and Greenland Sea to the west along the edge to the shallower Iceland Sea between the Faroe Islands, and northwards to Jan Mayen. To the south it borders to the shallower North Sea along the 62°N parallel between Norway and the Faroe Islands, and to the northeast the shallower Barents Sea (Figure 1). The Norwegian Sea covers more than 1.1 million km², consisting of two deep basins (between 3000 m and 4000 m deep) – the Norwegian Basin and the Lofoten Basin – separated by the Vøring Plateau (between 1000 m and 3000 m deep). The Norwegian Sea is separated from the Greenland Sea to the north by the Mohn Ridge. To the west, the basin slope forms the transition to the somewhat shallower Iceland Sea. The warm North Atlantic Current ensures relatively stable and high water temperatures, so that unlike the Arctic seas, the Norwegian Sea is ice-free throughout the year.
+&lt;/p&gt;
+&lt;p&gt;
+Due to the temporary suspension of Russian Federation in ICES activities, ICES did not conduct assessments for the following stocks in 2022: cod.27.1-2, had.27.1-2, and reb.27.1-2. The results of the bilateral Norwegian–Russian assessments for these stocks are not included in this overview.
+&lt;/p&gt;
+&lt;p&gt;
+This overview provides:
+&lt;/p&gt;
+&lt;ol&gt;
+  &lt;li&gt;
+    a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears,
+    and spatial and temporal patterns of activity;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
+    reference points;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a description of mixed fisheries interactions in the ecosystem; and
+  &lt;/li&gt;
+  &lt;li&gt;
+    an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
+    protected, endangered, and threatened species.
+  &lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+For this overview, the Azores ecoregion corresponds to the Azores EEZ inside ICES Subarea 10 (Figure 1). The ecoregion lies within a much larger open ocean ecosystem, and straddles the Mid-Atlantic Ridge. The Azores is a Portuguese archipelago composed of nine islands with almost no geological continental shelf, and the Azores EEZ includes 461 identified seamounts.
+&lt;/p&gt;
+&lt;p&gt;
+This overview covers ICES Subdivision 10.a.2 (Figure 1). Vessel monitoring system (VMS) data are available for vessels above 12 meters in length, which means that only longliners and tuna vessels (pole and line) are covered.
+&lt;/p&gt;
+&lt;p&gt;
+The overview provides:
+&lt;/p&gt;
+&lt;ol&gt;
+  &lt;li&gt;
+    a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears,
+    and spatial and temporal patterns of activity;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
+    reference points;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a description of mixed fisheries interactions in the ecosystem; and
+  &lt;/li&gt;
+  &lt;li&gt;
+    an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
+    protected, endangered, and threatened species.
+  &lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The Bay of Biscay and Iberian Coast ecoregion covers the southwestern areas of the EU. It includes areas of the deeper
+eastern Atlantic Ocean, as well as coastal areas from Brittany in the north to the Iberian Peninsula and Gulf of Cadiz in the
+south. The following areas constitute this ecoregion:
+&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;The Bay of Biscay (divisions 8.a and 8.b, and part of subdivisions 8.d.2 and 8.e.2);&lt;/li&gt;
+  &lt;li&gt;The Cantabrian Sea (Division 8.c);&lt;/li&gt;
+  &lt;li&gt;The west coast of Spain, the Portuguese coast, and the Gulf of Cadiz (Division 9.a and part of Subdivision 9.b.2).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+At its southeastern limit, this ecoregion is connected to the Mediterranean Basin by the Strait of Gibraltar. Deep-water
+currents composed of Mediterranean water have a strong influence on the southwest Iberian and Gulf of Cadiz circulation
+patterns.
+&lt;/p&gt;
+&lt;p&gt;
+This overview provides:
+&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;
+    a short description of each of the national commercial fishing fleets in the ecoregion, including their catch
+    statistics, fishing gears, and spatial and temporal patterns of activity;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
+    reference points;
+  &lt;/li&gt;
+  &lt;li&gt;
+    mixed-fisheries considerations of relevance to the management of the fisheries; and
+  &lt;/li&gt;
+  &lt;li&gt;
+    an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
+    protected, endangered, and threatened species.
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+The Barents Sea ecoregion covers the shelf sea to the north of Norway and the Russian Federation (“Russia” henceforth) (Figure 1). Its western boundary approximately follows the shelf break towards the deep Norwegian Sea to the west, and its northern boundary follows the shelf break towards the deep Arctic Ocean to the north. To the east, the ecoregion borders Novaya Zemlya and the Kara Sea. The two Arctic archipelagos of Svalbard and Franz Josef Land are situated within the ecoregion. There are relatively deep areas to the west, while the eastern parts of the ecoregion are dominated by bank areas.
+&lt;/p&gt;
+&lt;p&gt;
+This overview covers the entirety of ICES Division 27.1.a and parts of divisions 27.1.b, 27.2.a, and 27.2.b (hereafter, the “27” area prefixes are omitted). All catches within Division 1.b are, however, taken in the Barents Sea ecoregion, as there are no catches in the northernmost part, which belongs to the Arctic Ocean ecoregion. The plots of total catches include all catches in ICES subareas 1 and 2 except for catches of the large pelagic stocks (Norwegian spring-spawning herring, Northeast Arctic mackerel, and blue whiting), for which there are minimal catches in the Barents Sea.
+&lt;/p&gt;
+&lt;p&gt;
+Because of the suspension of Russia from ICES activities, ICES has not conducted assessments for the following stocks since 2022: cod.27.1-2, had.27.1-2, ghl.27.1-2, reb.27.1-2, cap.27.1-2, and pra.27.1-2. The results of the bilateral Norwegian–Russian assessments for these stocks are not included in this overview.
+&lt;/p&gt;
+&lt;p&gt;
+This overview provides the following:
+&lt;/p&gt;
+&lt;ol&gt;
+  &lt;li&gt;
+    a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears,
+    and spatial and temporal patterns of activity;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
+    reference points;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a description of mixed-fisheries interactions in the ecoregion; and
+  &lt;/li&gt;
+  &lt;li&gt;
+    an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected,
+    endangered, and threatened species.
+  &lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex.
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The Baltic Sea is a semi-enclosed, brackish sea, characterized by a sequence of basins connected by shallower sills with
+vertical stratification of the water column (Figure 1). Salty, well-oxygenated water from the North Sea occasionally enters
+the Baltic Sea through the Belt Seas and propagates into the deeper areas, while freshwater flows exit at the surface.
+Stratification limits the oxygen from reaching the deeper waters, so the oxygen content of the bottom water depends on local
+oxygen consumption and the inflows of North Sea water. The ecoregion has a limited diversity of fish species, dominated by
+marine species in the southwestern areas and a combination of marine and freshwater species in the northeastern areas
+(subdivisions 28.1, 29–32). Fisheries in the Baltic Sea are focused on a few major species.
+&lt;/p&gt;
+&lt;p&gt;
+Commonly referred to areas in the Baltic Sea are defined as follows: Western Baltic (subdivisions 22–24), Baltic Proper
+(subdivisions 25–29, excluding 28.1 [Gulf of Riga]), Central Baltic (subdivisions 25–29), Bothnian Sea (subdivisions 30–31),
+and Gulf of Finland (subdivision 32).
+&lt;/p&gt;
+&lt;p&gt;
+The overview covers ICES Subarea 27.3, excluding Division 27.3.a (hereafter, the area prefixes are omitted), and provides:
+&lt;/p&gt;
+&lt;ol&gt;
+  &lt;li&gt;
+    a short description of each of the national fishing fleets in the ecoregion, including their commercial and recreational
+    fisheries and fishing gears and patterns;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
+    reference points;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a description of mixed-fisheries interactions in the ecoregion; and
+  &lt;/li&gt;
+  &lt;li&gt;
+    an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected,
+    endangered, and threatened species.
+  &lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The Celtic Seas ecoregion covers the northwestern shelf seas of Europe (Figure 1). It includes areas of the deeper eastern
+Atlantic Ocean and coastal seas that are heavily influenced by oceanic inputs. The ecoregion ranges from north of Shetland
+to Brittany in the south. Three key areas constitute this ecoregion:
+&lt;/p&gt;
+&lt;ol&gt;
+  &lt;li&gt;
+    northern parts: the Malin shelf, west of Scotland, eastern Rockall Bank, and north of Scotland (parts of Subdivision
+    2.a.2, divisions 4.a and 6.a, and Subdivision 6.b.2);
+  &lt;/li&gt;
+  &lt;li&gt;
+    the Celtic Sea(*), Bristol Channel, Western English Channel, southwest and west of Ireland (Division 7.b and Subdivision
+    7.c.2; parts of divisions 7.e, 7.f, 7.g, 7.h, and subdivisions 7.j.2 and 7.k.2);
+  &lt;/li&gt;
+  &lt;li&gt;
+    the Irish Sea (Division 7.a).
+  &lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;
+In the north, there are strong links with the North Sea; in the southeast, a strong link with the channel area; and in the
+south a strong link with the Bay of Biscay. The eastern part of the Rockall Bank is within the geographic scope of the
+ecoregion, although it is separated from the western European shelf by the Rockall Trough.
+&lt;/p&gt;
+&lt;p&gt;
+The scientific names of all species described in this overview are listed in the Stock Status Lookup.
+&lt;/p&gt;
+&lt;p&gt;
+The overview covers ICES subareas 27.7 (excluding Division 27.7.d) and 27.6 (hereafter, the “27” area prefixes are omitted).
+Some fisheries statistics do not allow the full differentiation of sections of subareas 4 and 2 or (in earlier years) western
+sections of subareas 6 and 7, as well as the southeastern section of Division 7.e.
+&lt;/p&gt;
+&lt;p&gt;
+(*) Throughout this document ‘Celtic Seas’ refers to the ecoregion and ‘Celtic Sea’ refers to this southern area.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The Faroes ecoregion covers the shelf and surrounding waters inside the Faroe Islands Exclusive Economic Zone (EEZ) (Figure 1). 
+The waters around the Faroe Islands are in the upper 500 m dominated by the North Atlantic Current, which to the north of the 
+islands meets the East Icelandic Current. Clockwise current systems create retention areas on the Faroe Plateau (Faroe Shelf 
+around the Faroe Islands) and on the Faroe Bank (Figure 1 in ICES 5.b.2). In deeper waters to the north and east and in the Faroe 
+Bank channel there is deep Norwegian Sea water, and to the south and west is Atlantic water.
+&lt;/p&gt;
+&lt;p&gt;
+The fisheries within the ecoregion catch more than 30 stocks of fish and invertebrates. The main demersal species include cod 
+(cod.27.5b1), haddock (had.27.5b), saithe (pok.27.5b), tusk (usk.27.3a45b6a7-912b), ling (lin.27.5b), golden redfish 
+(reg.27.561214), Greenland halibut (ghl.27.561214), and anglerfish. The main pelagic species are the widely distributed Norwegian 
+spring-spawning (NSS) herring (her.27.1-24a514a), blue whiting (whb.27.1-91214), mackerel (mac.27.nea), and greater silver smelt 
+(aru.27.5b6a).
+&lt;/p&gt;
+&lt;p&gt;
+The majority of fishing in the Faroes ecoregion is performed by Faroese vessels. The fisheries for most stocks in this ecoregion 
+are managed by the Faroe Islands government, while management of some shared stocks is conducted either through the North East 
+Atlantic Fisheries Commission (NEAFC) or by coastal state agreements (between EU, Iceland, Greenland, the Faroe Islands, Norway, 
+Russian Federation, and UK).
+&lt;/p&gt;
+&lt;p&gt;
+This overview covers ICES Division 5.b and part of Division 2.a.2 (Figure 1), and provides:
+&lt;/p&gt;
+&lt;ol&gt;
+  &lt;li&gt;
+    a short description of each of the national commercial fishing fleets in the ecoregion as well as fishing gears 
+    and patterns;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a summary of the status of the resources and the level of exploitation relative to agreed objectives and 
+    reference points;
+  &lt;/li&gt;
+  &lt;li&gt;
+    an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of 
+    protected, endangered, and threatened species.
+  &lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;
+The landings presented in this overview are based on official landings statistics for subareas 5.b.1.b and 5.b.2. This area 
+includes most landings of the demersal stocks for this ecoregion. The majority of NSS herring and mackerel landings from the 
+ecoregion originate in Division 2.a and substantial blue whiting landings in Division 6.a. The presented landings of these three 
+widely distributed pelagic stocks are likely to be underestimated for this ecoregion.
+&lt;/p&gt;
 &lt;ol&gt;
   &lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion as well as fishing gears and patterns;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
   &lt;li&gt;a summary of the status of the resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;&lt;br&gt;
@@ -3320,128 +3427,870 @@
 The landings presented in this overview are based on official landings statistics for subareas 5.b.1.b and 5.b.2. This area includes most landings of the demersal stocks for this ecoregion. The majority of NSS herring and mackerel landings from the ecoregion originate in Division 2.a and substantial blue whiting landings in Division 6.a. The presented landings of these three widely distributed pelagic stocks are likely to be underestimated for this ecoregion. &lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;ul&gt;
-  &lt;li&gt;The majority of fishing in the Faroes ecoregion is performed by Faroese vessels (Figure 2). Vessels from Norway, Iceland, EU, UK, Greenland, and the Russian Federation are also allowed to fish within the Faroese EEZ through NEAFC as well as coastal state and bilateral agreements. Since 1977, when the 200 nautical mile EEZ was established, foreign vessels not subject to those agreements have been excluded. The following paragraphs highlight features of the fleets and fisheries of the countries that operate within the Faroese EEZ in the period 2015–2020.&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;&lt;b&gt;Faroes&lt;/b&gt;&lt;br&gt;
-  In the demersal fishery, there are up to 500 small longliners and jiggers (&amp;lt; 15 grt) fishing for cod and haddock in a mixed fishery. The medium or large vessels consist of around 13 large single/pairtrawlers (&amp;gt; 1000 hp), around six smaller ones (&amp;lt; 799 hp), around 13 large longliners (&amp;gt; 110 GRT), and around ten smaller longliners (40–110 GRT).&lt;br&gt;&lt;br&gt;
-  In the pelagic fishery, there are around ten large vessels operating with trawl or purse seine mainly fishing for blue whiting but to some extent also mackerel and NSS herring. In addition, there are landings of a local herring stock.&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
-  Between 16 and 20 Icelandic pelagic vessels fished for blue whiting 2017–2020.&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
-  There are between three and five Norwegian longliners fishing for ling and tusk on the Faroe Plateau and the Faroe Bank. Norwegian vessels annually fish some blue whiting in the ecoregion, which might in some years be quite substantial (e.g. in 2015).&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
-  Russian pelagic trawlers fish for blue whiting, NSS herring, and mackerel.&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;&lt;b&gt;UK&lt;/b&gt;&lt;br&gt;
-  A few UK demersal trawlers fish for cod, haddock, and saithe.&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;&lt;b&gt;Greenland&lt;/b&gt;&lt;br&gt;
-  Greenlandic pelagic trawlers fish for blue whiting and NSS herring.&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;&lt;b&gt;Germany&lt;/b&gt;&lt;br&gt;
-  German pelagic vessels fish for blue whiting and NSS herring and mackerel.&lt;/li&gt;&lt;br&gt;
+    <t>&lt;p&gt;
+The Greenland Sea ecoregion covers the shelf and surrounding waters within the Greenlandic EEZ (Figure 1). The region is 
+located along the entire east coast of Greenland, reaching from the Central Arctic Ocean ecoregion in the north to the 
+Oceanic Northeast Atlantic ecoregion in the south and along the western boundaries of the Norwegian Sea and the Icelandic 
+Waters ecoregion. The ocean and coastal shelves are strongly influenced by cold low-saline water from the north and warm 
+high-saline water from the south; further details can be found in the Greenland Sea ecosystem overview.
+&lt;/p&gt;
+&lt;p&gt;
+Fishing activity is mainly concentrated in the southern part of the region, south of 68°N. The most important demersal 
+fisheries are the bottom-trawl fisheries for Atlantic cod (cod.2127.1f14), Greenland halibut, golden redfish, and demersal 
+beaked redfish (reb.27.14b). Northern shrimp is the main exploited invertebrate species in this ecoregion. The primary 
+pelagic species are herring and mackerel.
+&lt;/p&gt;
+&lt;p&gt;
+Supporting data prior to 2000 used in this fisheries overview is accessible at:
+&lt;a href="https://doi.org/10.17895/ices.advice.27879759"&gt;ICES Library&lt;/a&gt;
+&lt;/p&gt;
+&lt;p&gt;
+The Greenland Sea ecoregion lies within FAO Major Fishing Area 27 (the prefix “27” in the ICES statistical area codes is 
+therefore omitted herein). The area of the Greenland Sea ecoregion covers all of ICES divisions and subdivisions 12.a.3, 
+14.a and 14.b.2, and part of Division 5.a.2 (Figure 1).
+&lt;/p&gt;
+&lt;p&gt;
+The overview provides:
+&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;
+    a short description of each of the fishing gears used, the national commercial fishing fleets in the ecoregion, 
+    their catch statistics, and spatial and temporal patterns of activity. Information on the hunting of marine 
+    mammals is not included;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives 
+    and defined reference points;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a description of mixed-fisheries interactions in the ecosystem; and
+  &lt;/li&gt;
+  &lt;li&gt;
+    an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed.
+  &lt;/li&gt;
 &lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt;
-The Greenland Sea ecoregion covers the shelf and surrounding waters within the Greenlandic EEZ (Figure 1). The region is located along the entire east coast of Greenland, reaching from the Central Arctic Ocean ecoregion in the north to the Oceanic Northeast Atlantic ecoregion in the south and along the western boundaries of the Norwegian Sea and the Icelandic Waters ecoregion. The ocean and coastal shelves are strongly influenced by cold low-saline water from the north and warm high-saline water from the south; further details can be found in the Greenland Sea ecosystem overview. &lt;br&gt;&lt;br&gt;
-Fishing activity is mainly concentrated in the southern part of the region, south of 68°N. The most important demersal fisheries are the bottom-trawl fisheries for Atlantic cod (cod.2127.1f14), Greenland halibut, golden redfish, and demersal beaked redfish (reb.27.14b). Northern shrimp is the main exploited invertebrate species in this ecoregion. The primary pelagic species are herring and mackerel. &lt;br&gt;&lt;br&gt;
-Supporting data prior to 2000 used in this fisheries overview is accessible at:  
-&lt;a href="https://doi.org/10.17895/ices.advice.27879759"&gt;ICES Library&lt;/a&gt;&lt;br&gt;&lt;br&gt;
-The Greenland Sea ecoregion lies within FAO Major Fishing Area 27 (the prefix “27” in the ICES statistical area codes is therefore omitted herein). The area of the Greenland Sea ecoregion covers all of ICES divisions and subdivisions 12.a.3, 14.a and 14.b.2, and part of Division 5.a.2 (Figure 1). &lt;br&gt;&lt;br&gt;
-The overview provides: &lt;br&gt;&lt;br&gt;
-&lt;ul&gt;
-  &lt;li&gt;a short description of each of the fishing gears used, the national commercial fishing fleets in the ecoregion, their catch statistics, and spatial and temporal patterns of activity. Information on the hunting of marine mammals is not included;&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and defined reference points;&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;a description of mixed-fisheries interactions in the ecosystem; and&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed.&lt;/li&gt;&lt;br&gt;
-&lt;/ul&gt;
-The scientific names of all species described in this overview are listed in Table A2. &lt;br&gt;&lt;br&gt;
-</t>
-  </si>
-  <si>
-    <t>Beyond the Greenlandic fleet, marine resources in the ecoregion have been subject to exploitation by multiple countries, including the EU Member States, Iceland, the Faroe Islands, Norway, and Russia.&lt;br&gt;&lt;br&gt;
-Apart from an insignificant inshore fishery with small boats, the fishing is mostly conducted by large industrial factory vessels of 50–100 m length that employ various types of fishing gears and target multiple species. About 40–60 vessels fished in the ecoregion in recent years. The number of vessels has fluctuated depending on resource availability, with notable increases in fisheries for pelagic stocks after 2011.&lt;br&gt;&lt;br&gt;
-Greenland accounts for most of the active vessels in both the demersal and the pelagic fisheries. From 2012 to 2015, the number of Greenlandic vessels increased notably and has since remained high. Since 2020, the number of Greenlandic vessels has declined markedly, as most of the pelagic fleet moved to fishing areas outside this ecoregion, following the target species mackerel. The largest number of foreign vessels are from the EU, the Faroe Islands, and Norway.&lt;br&gt;&lt;br&gt;
-Greenlandic, EU, and Norwegian vessels have accounted for most of the bottom-trawl fishery over time, measured as the number of vessels registered with that gear. Longline fishing is mostly conducted by Greenland, Norway, and the Faroe Islands. Pelagic fisheries have been operated by Greenland, Russia, Iceland, the Faroe Islands, and the EU.&lt;br&gt;&lt;br&gt;
-Total landings by the different countries have varied through time. Nowadays, Greenland takes most of the landings. Mackerel catches in the ecoregion, which began with significant amounts in 2012, were initially made by both Greenlandic vessels and chartered foreign vessels. However, currently only Greenlandic vessels are involved in the fishery.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;The Icelandic Waters ecoregion covers the shelf and the waters surrounding Iceland and is equivalent to the Icelandic Exclusive Economic Zone (EEZ; Figure 1). The region is located at the junction of the Mid-Atlantic Ridge and the Greenland-Scotland Ridge, just south of the Arctic Circle. The ocean and coastal shelves are heavily influenced by oceanic inputs where water masses of different origins mix. Further details can be found in the ecosystem overview for Icelandic Waters.&lt;br&gt;&lt;br&gt;
-The fisheries within the ecoregion catch more than 40 stocks of fish and marine invertebrates. The main demersal species include cod (cod.27.5a), haddock (had.27.5a), saithe (pok.27.5a), golden redfish (reg.27.561214), Greenland halibut (ghl.27.561214), Atlantic wolffish (caa.27.5a), plaice (ple.27.5a), tusk (usk.27.5a14), and ling (lin.27.5a). The main pelagic species are capelin (cap.27.2a514) and summer-spawning herring (her.27.5a), as well as widely distributed species such as Norwegian spring-spawning (NSS) herring (her.27.1-24a514a), blue whiting (whb.27.1-91214), and mackerel (mac.27.nea). Norway lobster, northern shrimp, and sea cucumber are the main invertebrate stocks that are exploited in Icelandic Waters.&lt;br&gt;&lt;br&gt;
-The fisheries for most stocks in this ecoregion are managed by the Icelandic Government, while fisheries of some shared stocks are subject to international negotiation through the North East Atlantic Fisheries Commission (NEAFC) or by coastal state agreements (between Iceland, Greenland, the Faroe Islands, and Norway).&lt;br&gt;&lt;br&gt;
-All of the Icelandic Waters ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area codes is therefore omitted in the following text. This overview covers ICES Division 5.a and parts of divisions 2.a, 5.b, 12.a, 14.a, and 14.b, and provides:&lt;br&gt;&lt;br&gt;
+&lt;p&gt;
+The scientific names of all species described in this overview are listed in Table A2.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The Icelandic Waters ecoregion covers the shelf and the waters surrounding Iceland and is equivalent to the Icelandic 
+Exclusive Economic Zone (EEZ; Figure 1). The region is located at the junction of the Mid-Atlantic Ridge and the 
+Greenland-Scotland Ridge, just south of the Arctic Circle. The ocean and coastal shelves are heavily influenced by oceanic 
+inputs where water masses of different origins mix. Further details can be found in the ecosystem overview for Icelandic 
+Waters.
+&lt;/p&gt;
+&lt;p&gt;
+The fisheries within the ecoregion catch more than 40 stocks of fish and marine invertebrates. The main demersal species 
+include cod (cod.27.5a), haddock (had.27.5a), saithe (pok.27.5a), golden redfish (reg.27.561214), Greenland halibut 
+(ghl.27.561214), Atlantic wolffish (caa.27.5a), plaice (ple.27.5a), tusk (usk.27.5a14), and ling (lin.27.5a). The main 
+pelagic species are capelin (cap.27.2a514) and summer-spawning herring (her.27.5a), as well as widely distributed species 
+such as Norwegian spring-spawning (NSS) herring (her.27.1-24a514a), blue whiting (whb.27.1-91214), and mackerel 
+(mac.27.nea). Norway lobster, northern shrimp, and sea cucumber are the main invertebrate stocks that are exploited in 
+Icelandic Waters.
+&lt;/p&gt;
+&lt;p&gt;
+The fisheries for most stocks in this ecoregion are managed by the Icelandic Government, while fisheries of some shared 
+stocks are subject to international negotiation through the North East Atlantic Fisheries Commission (NEAFC) or by coastal 
+state agreements (between Iceland, Greenland, the Faroe Islands, and Norway).
+&lt;/p&gt;
+&lt;p&gt;
+All of the Icelandic Waters ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area 
+codes is therefore omitted in the following text. This overview covers ICES Division 5.a and parts of divisions 2.a, 5.b, 
+12.a, 14.a, and 14.b, and provides:
+&lt;/p&gt;
 &lt;ol&gt;
-  &lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;a description of mixed fisheries interactions in the ecosystem; and&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
-&lt;/ol&gt;&lt;br&gt;
-The scientific names of all species are included in Table A2 in the Annex.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt;The majority of fishing in the Icelandic Waters ecoregion is performed by vessels from Iceland. Vessels from Norway, Greenland and the Faroe Islands are also allowed to fish within the 200 nautical mile Icelandic EEZ through coastal state and bilateral agreements. Since its establishment in 1978, the EEZ has excluded foreign vessels not subject to those agreements (Figure 7). Around 1750 vessels operate in Icelandic Waters. The following paragraphs highlight features of the fleets and fisheries of the different countries that operate within the Icelandic EEZ.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
-Currently, the Icelandic fleet consists of around 1535 vessels of various sizes and types and has decreased by approximately 480 vessels since the turn of the century (Figure 16). The official statistics separate the fleet into three main categories: Bottom trawlers, decked vessels, and undecked vessels.&lt;br&gt;&lt;br&gt;
-About 40 bottom trawlers (30–90 m in overall length [LOA] and with a volume of between 200 and 2000 gross tonnes [GT]) operate in Icelandic Waters. These vessels are almost exclusively engaged in demersal fisheries, mainly fishing for cod, haddock, saithe, redfish and Greenland halibut. The number of bottom trawlers has decreased by more than half since 1999 (Figure 16).&lt;br&gt;&lt;br&gt;
-Decked vessels include several different types and size ranges, from those with 10 GT to over 4500 GT. This is by far the most diverse category, as it ranges from small boats to large vessels and includes specialized demersal seiners, small bottom trawlers, dredgers, longliners, and purse-seiners. About 20 pelagic vessels (60–90 m LOA) fish for capelin, herring, mackerel, and blue whiting using pelagic trawls and purse-seines. Roughly 40 demersal seiners (10–45 m LOA) operate in Icelandic Waters, fishing for cod, haddock, Atlantic wolffish, plaice, and other flatfish species. The number of intermediate-sized vessels (mostly 10–50 m LOA) using static gear – i.e. longline and gillnet, or small otter trawls – fishing for Norway lobster, northern shrimp, cod, and haddock is around 650.&lt;br&gt;&lt;br&gt;
-Approximately 820 undecked vessels, fishing mainly for cod and lumpfish, participated in the fishery 2018–2023; this number has decreased by more than 300 since 1999. Undecked vessels cover numerous vessels &lt;10 m in LOA and up to 10 GT in volume, although most in this category are less than 6 GT (Figure 3). Many of these small vessels are technologically advanced and driven by powerful engines. These vessels mainly operate in inshore areas or close to shore.&lt;br&gt;&lt;br&gt;
-Two large vessels (50 m LOA) participate in the fin whale hunt, whereas three–five small vessels (undecked, &lt;10 m LOA) participate in the minke whale hunt.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Faroe Islands&lt;/b&gt;&lt;br&gt;
-Through a coastal state agreement, the Faroe Islands have a quota of the Iceland–Greenland–Jan Mayen capelin stock, which they are allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between four and six pelagic vessels using pelagic trawls were directed to capelin. No capelin fishery was conducted in Icelandic Waters in 2019 or 2020. There is a bilateral agreement (revised annually) between Iceland and the Faroe Islands that allows Faroese longliners to fish for demersal species in the Icelandic EEZ and pelagic vessels to fish for NSS herring (since 2018). Since 2014, between 7 and 11 Faroese longliners have operated annually in Icelandic Waters, fishing mainly cod, haddock, ling, and tusk. From 2019 to 2023, between 11 and 19 Faroese pelagic vessels using pelagic trawls fished for NSS herring in the Icelandic Waters ecoregion.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Greenland&lt;/b&gt;&lt;br&gt;
-Through a coastal state agreement, Greenland has a quota of the Iceland–Greenland–Jan Mayen capelin stock, which it is allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between one and three pelagic vessels, using pelagic trawls and purse-seines, operated in Icelandic Waters. No capelin fishery was conducted in Icelandic Waters in 2019 or 2020.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
-Through a coastal state agreement, Norway has a quota of the Iceland–Greenland–Jan Mayen capelin stock, which it is allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between 46 and 67 pelagic vessels, using pelagic trawls and purse-seines, operated in Icelandic Waters. No capelin fishery was conducted in Icelandic Waters in 2019 or 2020. There is a bilateral agreement between Iceland and Norway for two Norwegian longliners to catch demersal fish, mainly ling and tusk.&lt;br&gt;&lt;br&gt;
-</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;
-  &lt;li&gt;The commercial fisheries in the Oceanic Northeast Atlantic ecoregion target few stocks. The main fisheries in the area are a multinational fishery on two pelagic beaked redfish stocks in the northwestern part of the ecoregion and a fishery on blue whiting on the Hatton-Rockall plateau and west of the Porcupine Bank using midwater trawl. The demersal fisheries for haddock at Rockall account for only a small proportion of the total catches of haddock taken in this ecoregion. Fishing for tuna (bluefin, skipjack, bigeye, and albacore) and other large pelagic species (swordfish) by long-distance longliners occurs across much of this ecoregion. Very few deep-sea fisheries are conducted in the region.&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;There are currently around 20 nations with fisheries targeting the stocks in the ecoregion. Norway, Iceland, and the Russian Federation have the largest fleets and dominate the landings in the region. Total landings have varied since the mid-1970s, with a rise in the recent decade mainly due to increased blue whiting catches. Two beaked redfish stocks dominated the catches (by weight) until 2000, but catches of these stocks have decreased considerably since the peak of the fishery in the mid-1990s.&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;The Oceanic Northeast Atlantic ecoregion has 52 stocks for which ICES provided advice in 2021. Around 13% of the assessed stocks are fished at or below F&lt;sub&gt;MSY&lt;/sub&gt; target levels; around 19% of the stocks were assessed to be above MSY B&lt;sub&gt;trigger&lt;/sub&gt;. The majority of the stocks have unknown stock and fishing mortality statuses.&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;Supporting data used in the Oceanic Northeast Atlantic fisheries overview is accessible at &lt;a href="https://doi.org/10.17895/ices.advice.27880092"&gt;ICES Library&lt;/a&gt;.&lt;/li&gt;&lt;br&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;The Oceanic Northeast Atlantic ecoregion consists of the portion of the ICES statistical area (Figure 1) that is beyond national jurisdiction (ABNJ), i.e. outside the 200 nautical mile limit of the Exclusive Economic Zones (EEZs) of the EU Member States, the Faroe Islands, Iceland, Greenland, and United Kingdom. The ecoregion is mostly deeper than 1000 m, with only a small fraction of the seabed (ca. 0.03%) shallower than 500 m.&lt;br&gt;&lt;br&gt;
-The entire ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area codes is therefore omitted in the following list of divisions and subdivisions that this overview covers: 5.b.1.a, 6.b.1, 7.c.1, 7.k.1, 8.e.1, 8.d.1, 9.b.1, 10.a.1, 10.b, 12.a.1, 12.b, 12.c, and 14.b.1 (Figure 1).&lt;br&gt;&lt;br&gt;
-This fisheries overview provides:&lt;br&gt;&lt;br&gt;
+  &lt;li&gt;
+    a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears, 
+    and spatial and temporal patterns of activity;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and 
+    reference points;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a description of mixed fisheries interactions in the ecosystem; and
+  &lt;/li&gt;
+  &lt;li&gt;
+    an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, 
+    endangered, and threatened species.
+  &lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;
+The scientific names of all species are included in Table A2 in the Annex.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The Oceanic Northeast Atlantic ecoregion consists of the portion of the ICES statistical area (Figure 1) that is beyond national 
+jurisdiction (ABNJ), i.e. outside the 200 nautical mile limit of the Exclusive Economic Zones (EEZs) of the EU Member States, the 
+Faroe Islands, Iceland, Greenland, and United Kingdom. The ecoregion is mostly deeper than 1000 m, with only a small fraction of 
+the seabed (ca. 0.03%) shallower than 500 m.
+&lt;/p&gt;
+&lt;p&gt;
+The entire ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area codes is therefore 
+omitted in the following list of divisions and subdivisions that this overview covers: 5.b.1.a, 6.b.1, 7.c.1, 7.k.1, 8.e.1, 
+8.d.1, 9.b.1, 10.a.1, 10.b, 12.a.1, 12.b, 12.c, and 14.b.1 (Figure 1).
+&lt;/p&gt;
+&lt;p&gt;
+This fisheries overview provides:
+&lt;/p&gt;
 &lt;ol&gt;
-  &lt;li&gt;a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears and spatial and temporal patterns of activity;&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and reference points;&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;a description of mixed fisheries interactions in the ecosystem; and&lt;/li&gt;&lt;br&gt;
-  &lt;li&gt;an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, endangered, and threatened species.&lt;/li&gt;
-&lt;/ol&gt;&lt;br&gt;
-The scientific names of all species described in this overview are listed in Table A2 in the Annex.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;The main fishery operating in the area has been a multinational pelagic fishery targeting two beaked redfish stocks (shallow pelagic [reb.2127.sp] and deep pelagic [reb.2127.dp]) in the northwestern part of the ecoregion and blue whiting (whb.27.1-91214) in the Rockall–Hatton and west of the Porcupine area.&lt;br&gt;&lt;br&gt;
-This redfish fishery commenced in the early 1980s. The number of vessels participating in the fishery decreased substantially as the stocks were depleted. The combined catch of both stocks peaked in 1996 when 180 000 tonnes were caught; this has since declined to an annual catch of about 30 000 tonnes. Catches of blue whiting have been high since the early 2000s, peaking at very high levels (over 200 000 tonnes) recently.&lt;br&gt;&lt;br&gt;
-Fisheries for deep-sea species developed in the early 1970s and peaked at 30 000 tonnes in 1975. Since then, effort has declined, and landings now amount to less than 4 000 tonnes per year. The current relatively small fisheries are mainly conducted by a few trawlers and longliners that are primarily from the EU and Faroe Islands.&lt;br&gt;&lt;br&gt;
-There are demersal fisheries for haddock (had.27.6b) at Rockall, but these account for only a small proportion of the total catches of this stock taken in this ecoregion.&lt;br&gt;&lt;br&gt;
-The fishery within this extensive ecoregion is a multinational one that targets many marine stocks. Currently, about 20 countries have fisheries within the ecoregion. The greatest amounts of landings are taken by Norway, Russian Federation, and Iceland, who mainly target pelagic beaked redfish and blue whiting. Lesser amounts are landed by Spain, Germany, Portugal, Netherlands, Ireland, the Faroe Islands, Latvia, and Lithuania.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Norway&lt;/b&gt;&lt;br&gt;
-The Norwegian fleet fishing this ecoregion consists of about 50–60 pelagic trawlers and five to six demersal longline vessels. The highest fishing activity is in the northeastern area, close to the continental shelf edge bordering the Celtic Seas ecoregion and the shallower banks in the same area. The pelagic fleet mainly targets blue whiting but also other pelagic species. Catches of beaked redfish are taken in the northwestern corner of this ecoregion. The demersal longliners mainly target ling (lin.27.3a4a6-91214) and tusk (usk.27.3a45b6a7-912b, usk.27.12ac, and usk.27.6b).&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Iceland&lt;/b&gt;&lt;br&gt;
-Industrial factory vessels target pelagic beaked redfish in the northwestern part of the ecoregion. The number of vessels participating in this fishery has decreased substantially over time, from around 25 at the peak of the fishery in 1996–2002 to only four in 2019. Iceland has not participated in the fishery since 2020.&lt;br&gt;&lt;br&gt;
-In some years the Icelandic pelagic fleet (10–16 vessels &gt; 65 m) catches part of its blue whiting quota (16–23% in 2017–2023) in the ecoregion, using pelagic trawls. The fishery occurs mainly in the northeastern part of the ecoregion, close to the continental shelf edge bordering the Celtic Seas ecoregion and the shallower banks in the same area.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Ireland&lt;/b&gt;&lt;br&gt;
-The very minor pelagic trawl fishing activity by Ireland in this ecoregion is an extension of the fisheries occurring in the Celtic Seas ecoregion. The albacore tuna fishery, in some years, extends beyond the Irish EEZ southwest of the country. Similarly, the blue whiting fishery occasionally extends west of the Porcupine Bank. There is some Irish demersal trawling activity on the western side of the Rockall bank mainly targeting anglerfish and megrim.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Spain&lt;/b&gt;&lt;br&gt;
-The Spanish bottom-trawling fleet operated mainly on the western slope of the Hatton Bank and until 2018 consisted of three to six vessels larger than 50 m length, although in recent years the effort was drastically reduced until it reached zero vessels in 2021. The Spanish fishing fleet has been virtually absent ever since, although this could change in future.&lt;br&gt;&lt;br&gt;
-The most important species targeted have traditionally been Baird's slickhead, blue ling (bli.27.nea), roundnose grenadier (rng.27.1245a8914ab, rng.27.5a10b12ac14b, and rng.27.5b6712b), black scabbardfish (bsf.27.nea), and Greenland halibut. There has also been a pelagic beaked redfish fishery in the northwestern part of the ecoregion (Subdivision 14.b.1), although the size of the Spanish fleet operating in the ecoregion has decreased during recent years, and the fishery has remained closed since 2021, as a result of the low stock biomass and recruitment levels.&lt;br&gt;&lt;br&gt;
-The Spanish pelagic longline fleet (about 33 vessels) operates in the area part of the year in the southern area of the ecoregion (Subarea 10), fishing mainly for swordfish and blue shark.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Faroes&lt;/b&gt;&lt;br&gt;
-At the peak of the pelagic beaked redfish fishery in the mid-1990s (Subdivision 14.b.1), up to seven Faroese vessels participated in the fishery. Since 2020, Faroese vessels have not fished on this stock.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;France&lt;/b&gt;&lt;br&gt;
-Only one French vessel (targeting blue whiting) operates in the eastern part of the ecoregion.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Russia&lt;/b&gt;&lt;br&gt;
-Information on the Russian fishing activities has not been available since 2022. The Russian fleet is the largest one participating in the pelagic beaked redfish fishery in the northwestern part of the ecoregion (Subdivision 14.b.1 and Subarea 12). The fleet consists of industrial factory ships. In recent years about 15 vessels have participated in the fishery; during the peak of the fishery (second half of the 1990s and early 2000s), 35–40 vessels participated.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Portugal&lt;/b&gt;&lt;br&gt;
-Portugal took part in the pelagic beaked redfish fishery during 1994–2012 (subareas 5, 12, and 14). In 2011 and 2012 only four vessels participated in this fishery. The Portuguese pelagic longlining fleet operates in the southern part of the ecoregion (Subarea 10), targeting swordfish and blue shark.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Netherlands&lt;/b&gt;&lt;br&gt;
-The Dutch fleet has minimal activity in the ecoregion. The pelagic fleet, consisting of seven vessels that target blue whiting, mackerel (mac.27.nea), horse mackerel (hom.27.2a4a5b6a7a-ce-k8), and herring, operates on the eastern border of the ecoregion and in adjacent waters, with occasional landings originating from the Oceanic Northeast Atlantic ecoregion.&lt;br&gt;&lt;br&gt;
-&lt;b&gt;Others&lt;/b&gt;&lt;br&gt;
-Until 2020, Germany (one industrial factory vessel), Lithuania (one industrial factory vessel), and Latvia (one industrial factory vessel) participated in the pelagic beaked redfish fishery in the western part of the ecoregion (Subdivision 14.b.1 and Subarea 12). Other countries, such as Japan, China, and the Republic of Korea, fish for bluefin tuna in this ecoregion.&lt;br&gt;&lt;br&gt;</t>
+  &lt;li&gt;
+    a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears 
+    and spatial and temporal patterns of activity;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and 
+    reference points;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a description of mixed fisheries interactions in the ecosystem; and
+  &lt;/li&gt;
+  &lt;li&gt;
+    an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of protected, 
+    endangered, and threatened species.
+  &lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;
+The scientific names of all species described in this overview are listed in Table A2 in the Annex.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Many nations currently have fisheries targeting the marine stocks within this ecoregion. The largest landings are by Norway,
+Russia, Faroe Islands, and Iceland. Lesser amounts are landed by United Kingdom and others (Figure 2). Pelagic fishing by
+multinational fleets is the major activity in the ecoregion. The number of fishing vessels is declining while the size of the
+vessels is increasing.
+&lt;/p&gt;
+&lt;h4&gt;Norway&lt;/h4&gt;
+&lt;p&gt;
+The Norwegian commercial fleet has the majority of its fishing activity in the shelf area, particularly along the coast of
+Norway and along the continental shelf edge. The Norwegian fleet fishing in the ecoregion consists of about 2300 active
+vessels fishing pelagic fish (mackerel and herring), demersal fish (cod, saithe, haddock, ling (lin.27.1-2), tusk (usk.27.1-2),
+Greenland halibut, and redfish), and shellfish (brown crab, king crab, and northern prawn). Small coastal vessels (the
+majority &amp;lt; 15 m length) fishing with beach-seine, gillnets, and pots make up around 87% of the fleet, while the remaining
+are mainly ocean-going trawlers and purse-seiners &amp;gt; 28 m in length. The highest catch volume (82% of the total catch) is
+taken by the bigger vessels, with pelagic fish constituting the largest part of the landings.
+&lt;/p&gt;
+&lt;p&gt;
+Harp and hooded seals are hunted with between two and five large ice-going vessels. The minke whale hunt has been
+ongoing in all years since 1993, and approximately 10–15 vessels.
+&lt;/p&gt;
+&lt;h4&gt;Russia&lt;/h4&gt;
+&lt;p&gt;
+The Russian commercial fleet in the Norwegian Sea ecoregion and adjacent waters is composed of about 30 large vessels
+(62–120 m in length) targeting pelagic species including NSS herring, blue whiting, and mackerel using pelagic trawls. The
+pelagic fleet conducts most of its fishing activities in international waters and fewer in the Norwegian EEZ. About 50 smaller
+vessels (&amp;lt; 60 m) target demersal fish, including cod, haddock, saithe, redfish, Greenland halibut, and Atlantic wolffish, using
+mostly bottom trawls. Pelagic fish contribute most to the Russian fishery (about 90% of the catches) in this ecoregion.
+&lt;/p&gt;
+&lt;h4&gt;Iceland&lt;/h4&gt;
+&lt;p&gt;
+The Icelandic fleet operating in the Norwegian Sea ecoregion is composed of about 19 large vessels (&amp;gt; 60 m length). They
+all target pelagic fish (NSS herring, mackerel, and blue whiting) with pelagic trawls. Two of the vessels freeze the catches
+on board while the others bring the catches ashore in refrigerated seawater (RSW) tanks.
+&lt;/p&gt;
+&lt;h4&gt;United Kingdom&lt;/h4&gt;
+&lt;p&gt;
+The UK fishery operating in the Norwegian Sea ecoregion fishes mainly in ICES Division 2.a using bottom and midwater
+trawls with the occasional gillnetting and purse-seining. A small number of vessels operate in this area and catch a variety
+of demersal and pelagic species. In 2020, three bottom otter trawlers (40–90 m length) targeted cod, together with small
+amounts of saithe, haddock, redfish, and other species. The four midwater trawlers (75–120 m) fishing in 2020 targeted
+NSS herring, mackerel, and blue whiting.
+&lt;/p&gt;
+&lt;h4&gt;Faroe Islands&lt;/h4&gt;
+&lt;p&gt;
+The Faroese fleet in the ecoregion consists of 12 large (&amp;gt; 55 m length) vessels targeting pelagic species (NSS herring,
+mackerel, and blue whiting) with pelagic trawl (mainly) or purse-seine. One of the vessels freezes the catch on board while
+the rest use RSW tanks to bring the catch ashore. In addition, a handful of smaller trawlers (35–50 m length without RSW
+tanks) deliver the catch (mackerel) to the larger vessels at sea; the number of vessels in this last category has decreased
+much over the last five-to-eight years. In the description of fisheries, some Faroese fisheries are mentioned in Subarea 2,
+but these all take place outside the Norwegian Sea ecoregion.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Seven nations currently have fisheries targeting the many marine stocks within this diverse and extensive ecoregion. The highest
+landings are by Spain, Portugal, and France. Lesser amounts are landed by other countries including the Netherlands, Belgium,
+Ireland, and UK (Figure 2).
+&lt;/p&gt;
+&lt;h4&gt;Belgium&lt;/h4&gt;
+&lt;p&gt;
+The Belgian fisheries in the Bay of Biscay mainly take place in Division 8.b. There are fifteen vessels operating, all with beam
+trawl, and the fishery takes place from 1 June to 30 September. The main target species is sole with monkfish as a bycatch
+species, though monkfish is increasing in importance in the landings.
+&lt;/p&gt;
+&lt;h4&gt;France&lt;/h4&gt;
+&lt;p&gt;
+There are around 1500 vessels operating primarily in ICES Subarea 8, representing more than 4000 fishers. Seventy one percent
+of all vessels operate predominantly within the 12 nautical mile limit. Around 1000 vessels operate in Division 8.a and 500 in
+Division 8.b. Around 20 vessels operate occasionally in Division 8.c.
+&lt;/p&gt;
+&lt;p&gt;
+The mean size of the vessels is 12 m, while more than 1100 vessels are under 12 m. The main gears used by coastal vessels are
+nets, lines (longlines and handlines), pots, scoop nets, dredges and bottom trawls. The offshore fishery is mostly carried out by
+bottom trawlers, netters, and a few longliners. The main species caught by French vessels in the area are hake, anglerfish, sole,
+sea bass, Norway lobster, sardines, cuttlefish, albacore, squids, pollack, and anchovy.
+&lt;/p&gt;
+&lt;h4&gt;Ireland&lt;/h4&gt;
+&lt;p&gt;
+Ireland has four fisheries in this ecoregion. The highest catches are made by around eight large vessels (&amp;gt; 40 m in length) that
+target small pelagic fish, mainly boarfish, horse mackerel, and mackerel. Approximately 40 vessels target albacore tuna, with
+paired midwater pelagic trawls in summer as the fish migrate northward. The gillnet fishery for hake involves around 15 vessels,
+and there is minor demersal otter trawl activity involving up to eight vessels in Subarea 8.
+&lt;/p&gt;
+&lt;h4&gt;Netherlands&lt;/h4&gt;
+&lt;p&gt;
+The Netherlands has fishing rights for sole in the Bay of Biscay. In the last two decades, however, the Dutch fleet has not been
+active in the area. Since the mid-2000s, the Netherlands has been using its fishing rights in the Bay of Biscay for quota swaps
+with Belgium (i.e. the Dutch quota in the Bay of Biscay has been exchanged for Belgian quota in the North Sea).
+&lt;/p&gt;
+&lt;h4&gt;Portugal&lt;/h4&gt;
+&lt;p&gt;
+A total of 2802 vessels operated in 2023, comprising otter trawlers, purse-seiners, and multi-gear vessels; the fleet operates
+primarily in Division 9.a.
+&lt;/p&gt;
+&lt;p&gt;
+A total of 80 bottom otter trawlers are active; 25 target crustaceans (deep-water rose shrimp and Norway lobster) and blue
+whiting in deep waters from 200 m to 800 m, while the remaining catch finfish in waters shallower than 500 m. The majority of
+the vessels are between 18 m and 40 m in overall length, and only nine are smaller than 12 m in length.
+&lt;/p&gt;
+&lt;p&gt;
+The purse-seine fleet predominantly operates at depths between 20 m and 100 m, and traditionally targets sardine. This fleet
+comprised 144 vessels, between 8 and 27 m in overall length. It contributes to more than 50% of the total catch, and mainly
+harvests sardine, chub mackerel, anchovy, horse mackerel, and blue jack mackerel.
+&lt;/p&gt;
+&lt;p&gt;
+The remaining vessels (2570) hold multiple licences for several gear types, including gillnets (80 mm mesh size), trammelnets
+(100 mm mesh size), hand- and longlines, pots and dredges, and small purse-seines. This multi-gear fleet operates generally
+within 30 miles of the Portuguese coast, catching, among others, hake, anglerfish, octopus, pout, horse mackerel and clams.
+&lt;/p&gt;
+&lt;p&gt;
+These are mostly small vessels under 12 metres in overall length. More than 200 vessels (232) in this fleet exceed 12 metres.
+This includes bottom and drifting longliners operating in continental waters and offshore, in waters of the NE Atlantic. A
+deep-water longline fleet, composed of 15 vessels with an average of 20 m length, operates at depths ranging from 800 to
+1450 m, targeting black scabbard fish.
+&lt;/p&gt;
+&lt;h4&gt;Spain&lt;/h4&gt;
+&lt;p&gt;
+There are around 4750 vessels in this fleet, operating mainly in northern Spanish waters. The fleet comprises artisanal vessels,
+trawlers, purse-seiners, demersal longliners, and gillnetters. Around 3600 vessels are operating in the artisanal fishery (of 7 m
+average length) using artisanal gears including dredges, trammelnets, gillnets, pots, bottom longline, handline, purse-seine and
+beam trawl; they target mackerel, clams and octopus.
+&lt;/p&gt;
+&lt;p&gt;
+The trawlers (71 vessels of 28 m average length) use bottom- and pair trawl to target horse mackerel, mackerel, blue whiting,
+and hake. The purse-seiners (236 vessels of 22 m average length) target mackerel, anchovy, horse mackerel, and sardine. The
+demersal longliners (57 vessels of 16 m average length) target hake as main species, as well as European conger. The gillnetters
+(59 vessels of 18 m average length) catch mainly hake and anglerfish.
+&lt;/p&gt;
+&lt;p&gt;
+Around 660 vessels operate mainly in the Gulf of Cadiz Spanish waters. The fleet comprises artisanal vessels, trawlers, and
+purse-seiners. Around 480 vessels are operating in the artisanal fishery (of 9 m average length) using dredges, trammelnets,
+gillnets, bottom longline, and handline; they target blackspot sea bream, stripped venus, octopus and cuttlefish. The trawlers
+(120 vessels of 19 m average length) target shellfish and cephalopods. The purse-seiners are composed of 70 vessels of 17 m
+average length.
+&lt;/p&gt;
+&lt;p&gt;
+Other fleets operating in Iberian waters mainly on the north coast and Galician waters comprise around 400 vessels –
+300–350 trolling and 60 with live bait (of 17 m average length). These fleets target albacore.
+&lt;/p&gt;
+&lt;p&gt;
+Around 66 vessels operate mainly in the Bay of Biscay. The fleet comprises trawlers and passive gears (bottom longline and
+gillnet). Thirteen vessels are operating in the trawler fleet targeting hake, anglerfish, and megrim. Fifty-three vessels use passive
+gears (mainly bottom longlines and some gillnets) which target hake.
+&lt;/p&gt;
+&lt;h4&gt;UK&lt;/h4&gt;
+&lt;p&gt;
+The UK fleet operating in the ecoregion mainly operates in divisions 8.a and 8.b, and further offshore in Division 8.d. The fleet
+is comprised of pelagic trawlers, gillnetters, and longliners; the fleet size varies, from seven to 13 vessels over the last four
+years. The pelagic trawlers are the larger vessels (50–114 m), mainly targeting mackerel and horse mackerel. Longliners
+(20–35 m) target hake. Gillnetters target hake, anglerfish, and pollack, and operate in divisions 8.a, 8.b and further offshore in
+Division 8.d.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+There are currently 12 nations with fisheries targeting the stocks in this ecoregion. The country with the highest landings is
+Norway, followed by Russia. Lower quantities are landed by Denmark, Estonia, Faroe Islands, France, Germany, Greenland,
+Iceland, Poland, Portugal, Spain, Belarus, and UK (Figure 2).
+&lt;/p&gt;
+&lt;p&gt;
+Prior to the establishment of exclusive economic zones (EEZ) in the ecoregion in the late 1970s, several nations were fishing
+in the area. The major fishing fleets were from Norway and Russia. Historically, landings by all nations were dominated by
+demersal species such as cod and haddock; however, redfish (beaked and golden) and Greenland halibut (ghl.27.1-2) were
+also important up to about 1990.
+&lt;/p&gt;
+&lt;p&gt;
+Landings of capelin, the only major pelagic fish species in the area, peaked at three million tonnes in 1977. The capelin stock
+“collapsed” to very low levels in the mid-1980s. Before the establishment of a minimum landing size for Norwegian spring-
+spawning herring, for which the Barents Sea serves as a nursery area, large catches of immature herring were also taken in
+the ecoregion, mainly by Norwegian and Russian fishers. In recent years, Norway has fished some legal sized herring in a
+restricted coastal purse-seine fishery inside four nautical miles off the Finnmark coast. In the southwestern part of the
+ecoregion, an international herring fishery has operated in some seasons.
+&lt;/p&gt;
+&lt;p&gt;
+Catches from the northern shrimp (pra.27.1-2) fishery increased considerably from 2018, with much of the increase coming
+from fleets fishing in the international waters between the Norwegian EEZ, the Fisheries Protection Zone around Svalbard,
+and the Russian EEZ. Red king crab are fished by Russia in near-coastal Russian waters and fished by Norway in the coastal
+waters of Finnmark and Tromsø, the northernmost counties of Norway. A fishery has developed for the snow crab in recent
+years; this is a species first encountered in the ecoregion in 1996.
+&lt;/p&gt;
+&lt;p&gt;
+Commercial hunting of Barents Sea harp seal started with vessels from northern Norway in 1867. In general, there has been
+a lack of capacity to take recommended TACs since 2000. Norwegian whaling, targeting minke whales, started in the late
+1920s. A total quota was introduced in 1976. The effect of this was to move the catch effort from coastal areas with relatively
+low catch rates to the Barents Sea and off the west coast of Spitsbergen. Following the moratorium on all whaling declared
+by the International Whaling Commission (IWC), Norway stopped all commercial minke whale hunt temporarily after the
+1987 season. The hunt was started again in 1993 and has continued in all subsequent years.
+&lt;/p&gt;
+&lt;h4&gt;Norway&lt;/h4&gt;
+&lt;p&gt;
+The Norwegian fleet fishing in the ecoregion consists of about 3 000 active vessels. These vessels fish gadoids (cod, haddock,
+and saithe), other demersal fish, pelagic fish, and shellfish. Small coastal vessels (the majority &amp;lt; 11 m in length) fishing with
+gillnets, handline, and pots make up around 95% of the fleet, while the remaining 5% are predominantly ocean-going
+trawlers &amp;gt; 28 m in length. About 1000 Norwegian coastal vessels (6–22 m in length) participate in the quota-regulated red
+king crab fishery east of 26°E. West of this line, fishing for red king crab is unregulated and the number of vessels unknown.
+The snow crab fishery in the Norwegian EEZ part of the ecoregion is still developing because of the relatively recent westward
+spread of snow crab. There are currently 20–30 Norwegian vessels in this fishery. The harp seal hunt in the ecoregion has
+traditionally been conducted with large ice-going sealers, of which only two to five vessels remain today. Approximately
+10–15 vessels participate in the minke whale hunt.
+&lt;/p&gt;
+&lt;h4&gt;Russia&lt;/h4&gt;
+&lt;p&gt;
+The Russian fleet operating in the Barents Sea and Norwegian Sea ecoregions is composed of about 200 vessels. Ninety
+percent of the vessels catch demersal species, including fish and crustaceans, and 15% catch pelagic species. Approximately
+25% of the fleet targeting demersal species consists of boats below 34 m in length and operates near the Russian coast using
+trawls and traps, catching several fish species and crabs. Vessels of size 34–65 m average around 60% of the fleet and mainly
+target cod, haddock, saithe (pok.27.1-2), redfish, Greenland halibut, wolffish, long rough dab, and plaice using trawls and
+longlines, traps (for crab), and trawls (for shrimp). The industrial factory ships (ten vessels of 65–100 m; 20 vessels &amp;gt; 100 m)
+are predominantly trawlers that use bottom and midwater trawls. They account for most of the landings of capelin but also
+catch cod, haddock, and saithe. The Russian harp seal hunt is performed using two to three helicopters, where the seals
+(generally pups) are hunted on the ice.
+&lt;/p&gt;
+&lt;h4&gt;Denmark&lt;/h4&gt;
+&lt;p&gt;
+The Danish fleet targets small amounts of demersal fish in ICES Subdivision 2.a.2. The vessels are all pelagic trawlers or
+combined trawl/purse-seiners, ranging in length between 60 m and 90 m.
+&lt;/p&gt;
+&lt;h4&gt;Estonia&lt;/h4&gt;
+&lt;p&gt;
+The Estonian fleet fishing in the area consists of less than ten vessels with an average length of 64 m, operating in the
+Northwest Atlantic, Northeast Atlantic, and Svalbard. The fleet targets mainly northern shrimp and Greenland halibut with
+bottom trawls, with cod and long rough dab as bycatch.
+&lt;/p&gt;
+&lt;h4&gt;Faroe Islands&lt;/h4&gt;
+&lt;p&gt;
+The Faroese fleet in the ecoregion currently consists of less than five vessels targeting cod, haddock, Greenland halibut,
+shrimp, redfish, and flatfish. These vessels are between 50 m and 80 m in length.
+&lt;/p&gt;
+&lt;h4&gt;France&lt;/h4&gt;
+&lt;p&gt;
+French vessels target cod, haddock, saithe, redfish, and Greenland halibut in the area. The fleet usually consists of one freezer
+trawler of 80 m in length, targeting cod and associated species (haddock and saithe) with otter bottom trawls.
+&lt;/p&gt;
+&lt;h4&gt;Germany&lt;/h4&gt;
+&lt;p&gt;
+The German fleet operating in the ecoregion consists of about four vessels (&amp;gt; 40 m in length). The pelagic freezer trawlers
+target mainly herring, blue whiting, and redfish, while the demersal trawlers target mainly cod, saithe, and haddock.
+&lt;/p&gt;
+&lt;h4&gt;Greenland&lt;/h4&gt;
+&lt;p&gt;
+The Greenlandic fishing fleet consists of eight vessels. Two of these are stern trawlers 82–88 m in length that mainly target
+cod, saithe, and haddock, with minor bycatches of plaice and wolffish. The remaining six vessels are pelagic trawlers and
+purse seiners, 66–88 m in length, that mainly fish for mackerel. One vessel targets northern shrimp.
+&lt;/p&gt;
+&lt;h4&gt;Iceland&lt;/h4&gt;
+&lt;p&gt;
+The Icelandic fleet consists of less than ten vessels, all demersal trawlers larger than 60 m in length. These vessels target cod
+in accordance with bilateral agreements between Iceland and Norway and between Iceland and Russia.
+&lt;/p&gt;
+&lt;h4&gt;Lithuania&lt;/h4&gt;
+&lt;p&gt;
+The Lithuanian fleet in the North Atlantic consists of two demersal trawlers &amp;gt; 40 m in length, targeting shrimp in the
+ecoregion.
+&lt;/p&gt;
+&lt;h4&gt;Poland&lt;/h4&gt;
+&lt;p&gt;
+One Polish vessel (&amp;gt; 40 m in length) is active in the region, targeting cod, haddock, saithe, redfish, and Greenland halibut.
+&lt;/p&gt;
+&lt;h4&gt;Portugal&lt;/h4&gt;
+&lt;p&gt;
+Less than five Portuguese stern trawlers (&amp;gt; 60 m in length) operate in the area; they mainly target cod, since quotas for
+redfish, haddock, and pollock are small.
+&lt;/p&gt;
+&lt;h4&gt;Spain&lt;/h4&gt;
+&lt;p&gt;
+The Spanish fleet consists of seven vessels. Four of these are 48–87 m in length, targeting cod with otter bottom trawls.
+&lt;/p&gt;
+&lt;h4&gt;UK&lt;/h4&gt;
+&lt;p&gt;
+Less than five demersal vessels operate throughout the year in the ecoregion, mainly targeting species such as cod, haddock,
+saithe, and Greenland halibut. The average size of these vessels is around 4 830 kW horsepower and &amp;gt; 80 m in total length.
+Between one and three vessels fish for herring in Division 2.a.
+&lt;/p&gt;
+&lt;h4&gt;Others&lt;/h4&gt;
+&lt;p&gt;
+Smaller amounts of saithe, redfish, and Greenland halibut have been landed by Ireland, the Netherlands, and Latvia in some
+years. Belarussian vessels also catch a small amount of cod annually.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Currently, fishing vessels from nine nations operate in the Baltic Sea, with the largest number of larger vessels (&amp;gt; 12 m)
+coming from Sweden, Denmark, and Poland. Total finfish landings from the Baltic Sea peaked in the mid-1970s and again
+in the mid-1990s, corresponding to peaks in the abundance of cod and sprat stocks, respectively. The proportion of the total
+annual landings caught by each country has varied little over time, except for the redistribution of catches by former USSR
+countries (Figure 2). The following paragraphs highlight features of the fleets and fisheries of each country, but are not
+exhaustive descriptions.
+&lt;/p&gt;
+&lt;h4&gt;Denmark&lt;/h4&gt;
+&lt;p&gt;
+The Danish fleet comprises close to 350 vessels, divided into offshore fisheries (approximately 100 vessels 8–12 m and
+80 vessels &amp;gt; 12 m) and coastal fisheries (approximately 150 vessels). The large vessel offshore fisheries target (a) sprat and
+herring in the northern Baltic Sea using small‐meshed pelagic trawls and (b) flatfish, mainly plaice but also flounder, dab,
+turbot, and brill, in the southwestern Baltic fisheries using demersal trawls. The coastal fisheries occur along all coasts of the
+Belt Sea area and target several flatfish species using mainly gillnets, trapnets, or rarely poundnets. Recreational fisheries
+target different species depending on the season, with plaice, salmon, and sea trout being among the most important
+species. The main recreational fishing area for salmon is off Bornholm in subdivisions 24 and 25.
+&lt;/p&gt;
+&lt;h4&gt;Estonia&lt;/h4&gt;
+&lt;p&gt;
+The active offshore fleet comprises around 25–30 fishing vessels of 18–42 m, while the coastal fishery consists of several
+hundred small boats of &amp;lt; 12 m. The pelagic fleet consists mostly of stern trawlers, targeting herring and sprat in subdivisions
+28.1, 28.2, 29, and 32. About 25–30% of the herring catch is taken by coastal fisheries. Main areas of coastal herring fishery
+are the Gulf of Riga (Subdivision 28.1) and the Gulf of Finland (Subdivision 32), where trapnets and poundnets are used.
+Flounder is also taken using Danish seines and gillnets in the coastal fisheries in the Gulf of Riga and subdivisions 29 and 32.
+Recreational fisheries primarily target perch, pikeperch, flounder, and European whitefish, mainly in the Gulf of Riga.
+&lt;/p&gt;
+&lt;h4&gt;Finland&lt;/h4&gt;
+&lt;p&gt;
+The fleet comprises 3352 vessels, of which about 1300 vessels are actively used in the fishery. The vast majority of the
+vessels are &amp;lt; 10 m and operate in coastal fisheries. The offshore fleet is composed of 47 vessels &amp;gt; 10 m in the Baltic main
+basin, the Archipelago Sea, the Gulf of Bothnia, and the Gulf of Finland; it mainly targets Baltic herring stocks (with sprat
+taken mainly as bycatch) with pelagic trawls. The coastal fisheries occur on all parts of the coast using trapnets, fykenets, and
+gillnets; they catch salmon, European whitefish, pikeperch, perch, pike, vendace, burbot, smelt, and occasionally flounder.
+Recreational fisheries target mainly perch, pike, pikeperch, European whitefish, bream, and herring using gillnets, rods, fish
+traps, and fykenets along the coast of the Gulf of Finland as well as in the Archipelago Sea and Gulf of Bothnia.
+&lt;/p&gt;
+&lt;h4&gt;Germany&lt;/h4&gt;
+&lt;p&gt;
+The German commercial fleet in the Baltic Sea consists of about 58 trawlers and larger (&amp;gt; 10 m total length) polyvalent
+vessels (those which use multiple gears), and about 596 vessels using exclusively passive gear (&amp;lt; 12 m total length). The
+German herring fleet in the Baltic Sea, where all catches are taken in a directed fishery, consists of a coastal fleet with mostly
+undecked boats (rowing/motor boats ≤ 12 m) and a cutter fleet with decked vessels (total length 12–40 m). The German
+herring fishery in the Baltic Sea is conducted with gillnets, trapnets, and trawls. Historically passive and active gear shared
+the landings about 70:30; however, in recent years all landings were from passive gears. Herring are fished mostly in the
+spring spawning season and in Subdivision 24. In the central Baltic Sea almost all landings are taken by the trawl fishery.
+All catches of sprat are taken in a directed trawl fishery by cutters &amp;gt; 18 m in length. Most sprat is caught in subdivisions
+25–29 in the first quarter. Demersal and benthic species are caught with bottom trawls and passive gears, particularly with
+gillnets but also trammelnets. The number of vessels in the active gear fishery has substantially decreased and now mainly
+targets flatfish in subdivisions 22 and 24. The passive gear fisheries operate all year-round targeting different species,
+including in coastal lagoons and river mouths, in different seasons. Recreational fisheries were carried out by an estimated
+165 000 fishers from all German shores and from boats (charter and private boats) mostly within 5 nautical miles off the
+coast; the main target species being herring, sea trout, salmon, flatfish species, and whiting.
+&lt;/p&gt;
+&lt;h4&gt;Latvia&lt;/h4&gt;
+&lt;p&gt;
+The fleet comprises around 55 registered offshore vessels (12–40 m) and 610 coastal vessels (&amp;lt; 12 m). The offshore vessels
+target sprat in the Baltic main basin and herring in the Gulf of Riga using pelagic trawls. Flounder is targeted in subdivisions
+25, 26, and 28 using demersal trawls. Since 2000, sprat and herring have accounted for 92% of the total annual landings.
+Most vessels in the coastal fleet are &amp;lt; 5 m and target herring, round goby, flounder, smelt, salmon, sea trout, vimba bream,
+turbot, and eelpout using fykenets, trapnets, and gillnets. Recreational fisheries occur on all coasts and target flounder, perch,
+and round goby.
+&lt;/p&gt;
+&lt;h4&gt;Lithuania&lt;/h4&gt;
+&lt;p&gt;
+The Lithuanian fishing fleet in 2020 comprised 21 offshore vessels (&amp;gt; 18 m) and 58 coastal vessels (&amp;lt; 12 m). The offshore
+fishing fleet uses pelagic and bottom trawls, with vessels switching between gears depending on target species, fishing
+conditions, and quota availability. The main target species are sprat, herring, and flounder caught mainly in subdivisions 25,
+26, and 28 as well as to a lesser extent in subdivisions 27 and 29. The coastal fisheries target herring, smelt, round goby,
+flounder, and turbot using gillnets and trapnets within the Lithuanian coastal area of Subdivision 26. Recreational fisheries
+also occur in these waters and focus on herring, salmon, and sea trout using rod and lines.
+&lt;/p&gt;
+&lt;h4&gt;Poland&lt;/h4&gt;
+&lt;p&gt;
+The fishing fleet consists of around 150 active offshore vessels (12–35 m) and approximately 650 coastal vessels (&amp;lt; 12 m).
+The larger offshore vessels (&amp;gt; 18.5 m) target sprat and herring using pelagic trawls, while smaller offshore vessels (12–18.5 m)
+target flounder and sandeel using bottom trawls. Fishing occurs mainly in subdivisions 24, 25, and 26, and these species form
+about 98% of the total annual landings. The coastal fisheries harvest mainly sea trout, flounder, turbot, plaice, roach, perch,
+bream, and pikeperch. Recreational fisheries mostly target salmon and sea trout, primarily along the central Polish coast and
+off the Hel Peninsula.
+&lt;/p&gt;
+&lt;h4&gt;Russian Federation&lt;/h4&gt;
+&lt;p&gt;
+Note that this text has not been updated since 2022.
+&lt;/p&gt;
+&lt;p&gt;
+The fishing fleet is composed of about 45 vessels divided into offshore fisheries (41 vessels by 25–31 m size class) and coastal
+fisheries (four vessels by 15–25 m size class). In Subdivision 26, the vessels of the fleet MRTK target sprat and herring while
+the demersal trawl fleet (about 27 m) targets cod and flounder. The gillnet fleet targets cod with flounder as bycatch. A
+poundnet fishery targeting herring occurs in the Vistula Lagoon. In the eastern part of the Gulf of Finland (Subdivision 32),
+the MRTK fleet operates mainly in the first, second, and fourth quarters and is oriented to herring. Recreational fisheries
+targeting cod, flounder, turbot, salmon, goby, and other non‐commercial species occur on all Russian coasts.
+&lt;/p&gt;
+&lt;h4&gt;Sweden&lt;/h4&gt;
+&lt;p&gt;
+The fleet is comprised of around 400 active vessels, whereof the majority (about 370 vessels) are &amp;lt; 12 m. Around 10 vessels
+&amp;gt; 40 m operate in the Baltic Sea, as well as 30 vessels of 12–39 m. Around 65 vessels fish with active gears, of which about
+two thirds target pelagic species with trawls, and the rest mostly target vendace in Bothnian Bay. The demersal trawl fishery
+for cod and flatfish has completely stopped since 2019, when the targeted cod fishery was prohibited. Coastal fisheries use a
+mixture of gillnets, longlines, and fish traps to catch flatfish as well as a variety of freshwater species (in the archipelagic
+areas) and herring, European whitefish, and salmon in Bothnian Bay. A coastal fishery using fykenets targets European eel
+and other species along the southeast coast. Recreational fisheries take place along the entire Baltic Sea coast and target
+marine and freshwater species including salmon, pike, perch, and sea trout.
+&lt;/p&gt;
+&lt;h4&gt;Others&lt;/h4&gt;
+&lt;p&gt;
+Historically, countries other than those bordering the Baltic Sea have made some landings. However, in recent decades
+landings are exclusively from the nine bordering countries.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Fourteen nations currently have fisheries targeting the many marine stocks in the ecoregion. These include (by decreasing
+order of contribution to total landings in the ecoregion): Scotland, Ireland, Denmark, the Netherlands, France, England,
+Germany, Poland, Northern Ireland, Lithuania, Spain, Belgium, Wales, and Sweden.
+&lt;/p&gt;
+&lt;h4&gt;France&lt;/h4&gt;
+&lt;p&gt;
+There were 309 French vessels with landings in the ecoregion. The number of vessels has decreased from 362 in 2021 to
+309 in 2024. The number of French vessels with 80% of their landings in the Celtic Seas ecoregion in 2024 was 94. Of these,
+11 were &amp;lt;12 m, 28 were 12–24 m, 49 were 24–40 m and 6 were &amp;gt; 40 m. The main species landed by volume are hake,
+anglerfish, blue whiting, saithe, and mackerel. In terms of landings value, the main species are anglerfish, hake, saithe, john
+dory, and albacore.
+&lt;/p&gt;
+&lt;h4&gt;Ireland&lt;/h4&gt;
+&lt;p&gt;
+There were 1 287 Irish vessels with landings in the ecoregion. The number of vessels has decreased from 1 313 in 2021 to
+1 287 in 2024. The number of Irish vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 1 274. Of these,
+1 078 were &amp;lt;12 m, 118 were 12–24 m, 58 were 24–40 m and 20 were &amp;gt; 40 m. The main species landed by volume are
+mackerel, blue whiting, horse mackerel, sprat, and nephrops. In terms of landings value, the main species are nephrops,
+mackerel, blue whiting, brown crab, and horse mackerel.
+&lt;/p&gt;
+&lt;h4&gt;United Kingdom – Scotland&lt;/h4&gt;
+&lt;p&gt;
+There were 1 026 Scottish vessels with landings in the ecoregion. The number of vessels has decreased from 1 173 in 2021
+to 1 026 in 2024. The number of Scottish vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 589. Of
+these, 472 were &amp;lt;12 m, 90 were 12–24 m, 23 were 24–40 m and 4 were &amp;gt; 40 m. The main species landed by volume are
+mackerel, blue whiting, herring, haddock, and Nephrops. In terms of value, the main species are mackerel, Nephrops,
+anglerfish, herring, and haddock.
+&lt;/p&gt;
+&lt;h4&gt;United Kingdom – Northern Ireland&lt;/h4&gt;
+&lt;p&gt;
+There were 180 Northern Ireland vessels with landings in the ecoregion. The number of vessels has decreased from 236 in
+2021 to 180 in 2024. The number of Northern Ireland vessels with 80% of their catch in the Celtic Seas ecoregion in 2024
+was 120. Of these, 63 were &amp;lt;12 m, 52 were 12–24 m, 4 were 24–40 m and 1 was &amp;gt; 40 m. The main species landed by volume
+are mackerel, herring, Nephrops, brown crab, and horse mackerel. In terms of value, the main species are Nephrops,
+mackerel, herring, brown crab, and scallops.
+&lt;/p&gt;
+&lt;h4&gt;United Kingdom – England and Wales&lt;/h4&gt;
+&lt;p&gt;
+There were 860 English vessels with landings in the ecoregion. The number of vessels has decreased from 924 in 2021 to
+860 in 2024. The number of English vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 506. Of these,
+384 were &amp;lt;12 m, 88 were 12–24 m, 33 were 24–40 m and 1 was &amp;gt;40 m. The main species landed by volume are mackerel,
+blue whiting, pilchard, anglerfish, and brown crab. In terms of value, the main species are anglerfish, sole, brown crab,
+lobster, and hake.
+&lt;/p&gt;
+&lt;p&gt;
+There were 227 Welsh vessels with landings in the ecoregion. The number of vessels has decreased from 250 in 2021 to 227
+in 2024. The number of Welsh vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 165. Of these, 155
+were &amp;lt;12 m, 8 were 12–24 m, 2 were 24–40 m and 0 were &amp;gt; 40 m. The main species landed by volume are whelk, anglerfish,
+scallop, megrim, and brown crab. In terms of value, the main species are whelk, lobster, anglerfish, seabass, and brown crab.
+&lt;/p&gt;
+&lt;h4&gt;Spain&lt;/h4&gt;
+&lt;p&gt;
+There were 146 Spanish vessels with landings in the ecoregion. The number of vessels has increased from 79 in 2021 to 146
+in 2024. The number of Spanish vessels with 80% of their catch in the Celtic Seas ecoregion in 2024 was 32. Of these, 0
+were &amp;lt;12 m, 0 were 12–24 m, 32 were 24–40 m and 0 were &amp;gt; 40 m. The main species landed by volume are hake, megrim,
+ling, blue shark, and witch. In terms of value, the main species are hake, megrim, Nephrops, ling, and greater forkbeard.
+&lt;/p&gt;
+&lt;h4&gt;Other countries&lt;/h4&gt;
+&lt;p&gt;
+About 60 Norwegian vessels operate in this ecoregion. Pelagic trawlers mainly target blue whiting but also target other
+pelagic species. There is also a demersal longline fishery that mainly targets ling and blue ling.
+&lt;/p&gt;
+&lt;p&gt;
+The Belgian fleet consists of about 65 active vessels, of which about 21 operate in the Irish Sea. The majority (89%) of the
+vessels operating in the Irish Sea are between 24 and 40 m, while the remainder are between 18 and 24 m. The Belgian fleet
+uses beam trawls and otter trawls for rays, plaice, sole, and anglerfish.
+&lt;/p&gt;
+&lt;p&gt;
+Seven German vessels operate in the Celtic Seas, one of which takes 80% of their catch in the ecoregion. This includes vessels
+that mainly target anglerfish and hake with gillnets and longline, as well as freezer trawlers that target blue whiting, horse
+mackerel, and mackerel.
+&lt;/p&gt;
+&lt;p&gt;
+One large (&amp;gt; 40 m) Lithuanian freezer trawler targets pelagic species in the ecoregion.
+&lt;/p&gt;
+&lt;p&gt;
+There are 16 large Dutch pelagic freezer trawlers operating in the ecoregion, mainly targeting blue whiting, horse mackerel,
+and mackerel.
+&lt;/p&gt;
+&lt;p&gt;
+The Danish fleet consists of sixteen vessels, one of which has more than 80% of their landings in the Celtic Seas. Blue whiting
+is the main species for the fleet by weight and mackerel is the main species by value.
+&lt;/p&gt;
+&lt;p&gt;
+Vessels from the Faroe Islands also operate in this ecoregion, targeting blue whiting with pelagic trawls.
+&lt;/p&gt;
+&lt;h4&gt;Recreational fisheries&lt;/h4&gt;
+&lt;p&gt;
+Recreational fishing is an important activity in the Celtic Sea that harvests a diverse range of species from a variety of
+platforms (e.g. shore, boat, charters) using many gears (e.g. rod and line, speargun, nets, pots, traps). The main countries with
+recreational fisheries are UK and Ireland, where no licence is required. Angling from shore and boat is the most popular
+method, with a number of charter boats offering trips. Catches can be significant, representing around 46% and 67% of total
+removals of sea bass and pollack, respectively, according to the latest ICES advice. The main target species include mackerel,
+pollack, sea bass, saithe, cod, spurdog (Squalus acanthias), flatfish (plaice, dab, flounder, sole), sea bream, wrasse, and whiting.
+Recreational fisheries data is included in the pollack and seabass stock assessments in the ecoregion. Sharks, skates, rays,
+shellfish, crustaceans, and cephalopods are also caught by recreational fishers.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The majority of fishing in the Faroes ecoregion is performed by Faroese vessels (Figure 2). Vessels from Norway, Iceland, EU,
+UK, Greenland, and the Russian Federation are also allowed to fish within the Faroese EEZ through NEAFC as well as coastal
+state and bilateral agreements. Since 1977, when the 200 nautical mile EEZ was established, foreign vessels not subject to
+those agreements have been excluded. The following paragraphs highlight features of the fleets and fisheries of the countries
+that operate within the Faroese EEZ in the period 2015–2020.
+&lt;/p&gt;
+&lt;h4&gt;Faroes&lt;/h4&gt;
+&lt;p&gt;
+In the demersal fishery, there are up to 500 small longliners and jiggers (&amp;lt; 15 grt) fishing for cod and haddock in a mixed
+fishery. The medium or large vessels consist of around 13 large single/pair trawlers (&amp;gt; 1000 hp), around six smaller ones
+(&amp;lt; 799 hp), around 13 large longliners (&amp;gt; 110 GRT), and around ten smaller longliners (40–110 GRT).
+&lt;/p&gt;
+&lt;p&gt;
+In the pelagic fishery, there are around ten large vessels operating with trawl or purse seine mainly fishing for blue whiting
+but to some extent also mackerel and NSS herring. In addition, there are landings of a local herring stock.
+&lt;/p&gt;
+&lt;h4&gt;Iceland&lt;/h4&gt;
+&lt;p&gt;
+Between 16 and 20 Icelandic pelagic vessels fished for blue whiting 2017–2020.
+&lt;/p&gt;
+&lt;h4&gt;Norway&lt;/h4&gt;
+&lt;p&gt;
+There are between three and five Norwegian longliners fishing for ling and tusk on the Faroe Plateau and the Faroe Bank.
+Norwegian vessels annually fish some blue whiting in the ecoregion, which might in some years be quite substantial (e.g.
+in 2015).
+&lt;/p&gt;
+&lt;h4&gt;Russia&lt;/h4&gt;
+&lt;p&gt;
+Russian pelagic trawlers fish for blue whiting, NSS herring, and mackerel.
+&lt;/p&gt;
+&lt;h4&gt;UK&lt;/h4&gt;
+&lt;p&gt;
+A few UK demersal trawlers fish for cod, haddock, and saithe.
+&lt;/p&gt;
+&lt;h4&gt;Greenland&lt;/h4&gt;
+&lt;p&gt;
+Greenlandic pelagic trawlers fish for blue whiting and NSS herring.
+&lt;/p&gt;
+&lt;h4&gt;Germany&lt;/h4&gt;
+&lt;p&gt;
+German pelagic vessels fish for blue whiting and NSS herring and mackerel.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Beyond the Greenlandic fleet, marine resources in the ecoregion have been subject to exploitation by multiple countries,
+including the EU Member States, Iceland, the Faroe Islands, Norway, and Russia.
+&lt;/p&gt;
+&lt;p&gt;
+Apart from an insignificant inshore fishery with small boats, the fishing is mostly conducted by large industrial factory vessels
+of 50–100 m length that employ various types of fishing gears and target multiple species. About 40–60 vessels fished in the
+ecoregion in recent years. The number of vessels has fluctuated depending on resource availability, with notable increases in
+fisheries for pelagic stocks after 2011.
+&lt;/p&gt;
+&lt;p&gt;
+Greenland accounts for most of the active vessels in both the demersal and the pelagic fisheries. From 2012 to 2015, the
+number of Greenlandic vessels increased notably and has since remained high. Since 2020, the number of Greenlandic vessels
+has declined markedly, as most of the pelagic fleet moved to fishing areas outside this ecoregion, following the target species
+mackerel. The largest number of foreign vessels are from the EU, the Faroe Islands, and Norway.
+&lt;/p&gt;
+&lt;p&gt;
+Greenlandic, EU, and Norwegian vessels have accounted for most of the bottom-trawl fishery over time, measured as the
+number of vessels registered with that gear. Longline fishing is mostly conducted by Greenland, Norway, and the Faroe
+Islands. Pelagic fisheries have been operated by Greenland, Russia, Iceland, the Faroe Islands, and the EU.
+&lt;/p&gt;
+&lt;p&gt;
+Total landings by the different countries have varied through time. Nowadays, Greenland takes most of the landings.
+Mackerel catches in the ecoregion, which began with significant amounts in 2012, were initially made by both Greenlandic
+vessels and chartered foreign vessels. However, currently only Greenlandic vessels are involved in the fishery.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The majority of fishing in the Icelandic Waters ecoregion is performed by vessels from Iceland. Vessels from Norway,
+Greenland and the Faroe Islands are also allowed to fish within the 200 nautical mile Icelandic EEZ through coastal state
+and bilateral agreements. Since its establishment in 1978, the EEZ has excluded foreign vessels not subject to those
+agreements (Figure 7). Around 1750 vessels operate in Icelandic Waters. The following paragraphs highlight features of the
+fleets and fisheries of the different countries that operate within the Icelandic EEZ.
+&lt;/p&gt;
+&lt;h4&gt;Iceland&lt;/h4&gt;
+&lt;p&gt;
+Currently, the Icelandic fleet consists of around 1535 vessels of various sizes and types and has decreased by approximately
+480 vessels since the turn of the century (Figure 16). The official statistics separate the fleet into three main categories:
+Bottom trawlers, decked vessels, and undecked vessels.
+&lt;/p&gt;
+&lt;p&gt;
+About 40 bottom trawlers (30–90 m in overall length [LOA] and with a volume of between 200 and 2000 gross tonnes [GT])
+operate in Icelandic Waters. These vessels are almost exclusively engaged in demersal fisheries, mainly fishing for cod,
+haddock, saithe, redfish and Greenland halibut. The number of bottom trawlers has decreased by more than half since 1999
+(Figure 16).
+&lt;/p&gt;
+&lt;p&gt;
+Decked vessels include several different types and size ranges, from those with 10 GT to over 4500 GT. This is by far the
+most diverse category, as it ranges from small boats to large vessels and includes specialized demersal seiners, small bottom
+trawlers, dredgers, longliners, and purse-seiners. About 20 pelagic vessels (60–90 m LOA) fish for capelin, herring, mackerel,
+and blue whiting using pelagic trawls and purse-seines. Roughly 40 demersal seiners (10–45 m LOA) operate in Icelandic
+Waters, fishing for cod, haddock, Atlantic wolffish, plaice, and other flatfish species. The number of intermediate-sized
+vessels (mostly 10–50 m LOA) using static gear – i.e. longline and gillnet, or small otter trawls – fishing for Norway lobster,
+northern shrimp, cod, and haddock is around 650.
+&lt;/p&gt;
+&lt;p&gt;
+Approximately 820 undecked vessels, fishing mainly for cod and lumpfish, participated in the fishery 2018–2023; this number
+has decreased by more than 300 since 1999. Undecked vessels cover numerous vessels &lt;10 m in LOA and up to 10 GT in
+volume, although most in this category are less than 6 GT (Figure 3). Many of these small vessels are technologically advanced
+and driven by powerful engines. These vessels mainly operate in inshore areas or close to shore.
+&lt;/p&gt;
+&lt;p&gt;
+Two large vessels (50 m LOA) participate in the fin whale hunt, whereas three–five small vessels (undecked, &lt;10 m LOA)
+participate in the minke whale hunt.
+&lt;/p&gt;
+&lt;h4&gt;Faroe Islands&lt;/h4&gt;
+&lt;p&gt;
+Through a coastal state agreement, the Faroe Islands have a quota of the Iceland–Greenland–Jan Mayen capelin stock, which
+they are allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between four and six pelagic vessels
+using pelagic trawls were directed to capelin. No capelin fishery was conducted in Icelandic Waters in 2019 or 2020. There is
+a bilateral agreement (revised annually) between Iceland and the Faroe Islands that allows Faroese longliners to fish for
+demersal species in the Icelandic EEZ and pelagic vessels to fish for NSS herring (since 2018). Since 2014, between 7 and
+11 Faroese longliners have operated annually in Icelandic Waters, fishing mainly cod, haddock, ling, and tusk. From 2019 to
+2023, between 11 and 19 Faroese pelagic vessels using pelagic trawls fished for NSS herring in the Icelandic Waters
+ecoregion.
+&lt;/p&gt;
+&lt;h4&gt;Greenland&lt;/h4&gt;
+&lt;p&gt;
+Through a coastal state agreement, Greenland has a quota of the Iceland–Greenland–Jan Mayen capelin stock, which it is
+allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between one and three pelagic vessels,
+using pelagic trawls and purse-seines, operated in Icelandic Waters. No capelin fishery was conducted in Icelandic Waters in
+2019 or 2020.
+&lt;/p&gt;
+&lt;h4&gt;Norway&lt;/h4&gt;
+&lt;p&gt;
+Through a coastal state agreement, Norway has a quota of the Iceland–Greenland–Jan Mayen capelin stock, which it is
+allowed to fish within the Icelandic EEZ. From 2015 to 2018 and in 2021–2023, between 46 and 67 pelagic vessels, using
+pelagic trawls and purse-seines, operated in Icelandic Waters. No capelin fishery was conducted in Icelandic Waters in 2019
+or 2020. There is a bilateral agreement between Iceland and Norway for two Norwegian longliners to catch demersal fish,
+mainly ling and tusk.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The main fishery operating in the area has been a multinational pelagic fishery targeting two beaked redfish stocks
+(shallow pelagic [reb.2127.sp] and deep pelagic [reb.2127.dp]) in the northwestern part of the ecoregion and blue whiting
+(whb.27.1-91214) in the Rockall–Hatton and west of the Porcupine area.
+&lt;/p&gt;
+&lt;p&gt;
+This redfish fishery commenced in the early 1980s. The number of vessels participating in the fishery decreased
+substantially as the stocks were depleted. The combined catch of both stocks peaked in 1996 when 180 000 tonnes were
+caught; this has since declined to an annual catch of about 30 000 tonnes. Catches of blue whiting have been high since the
+early 2000s, peaking at very high levels (over 200 000 tonnes) recently.
+&lt;/p&gt;
+&lt;p&gt;
+Fisheries for deep-sea species developed in the early 1970s and peaked at 30 000 tonnes in 1975. Since then, effort has
+declined, and landings now amount to less than 4 000 tonnes per year. The current relatively small fisheries are mainly
+conducted by a few trawlers and longliners that are primarily from the EU and Faroe Islands.
+&lt;/p&gt;
+&lt;p&gt;
+There are demersal fisheries for haddock (had.27.6b) at Rockall, but these account for only a small proportion of the total
+catches of this stock taken in this ecoregion.
+&lt;/p&gt;
+&lt;p&gt;
+The fishery within this extensive ecoregion is a multinational one that targets many marine stocks. Currently, about 20
+countries have fisheries within the ecoregion. The greatest amounts of landings are taken by Norway, Russian Federation,
+and Iceland, who mainly target pelagic beaked redfish and blue whiting. Lesser amounts are landed by Spain, Germany,
+Portugal, Netherlands, Ireland, the Faroe Islands, Latvia, and Lithuania.
+&lt;/p&gt;
+&lt;h4&gt;Norway&lt;/h4&gt;
+&lt;p&gt;
+The Norwegian fleet fishing this ecoregion consists of about 50–60 pelagic trawlers and five to six demersal longline
+vessels. The highest fishing activity is in the northeastern area, close to the continental shelf edge bordering the Celtic Seas
+ecoregion and the shallower banks in the same area. The pelagic fleet mainly targets blue whiting but also other pelagic
+species. Catches of beaked redfish are taken in the northwestern corner of this ecoregion. The demersal longliners mainly
+target ling (lin.27.3a4a6-91214) and tusk (usk.27.3a45b6a7-912b, usk.27.12ac, and usk.27.6b).
+&lt;/p&gt;
+&lt;h4&gt;Iceland&lt;/h4&gt;
+&lt;p&gt;
+Industrial factory vessels target pelagic beaked redfish in the northwestern part of the ecoregion. The number of vessels
+participating in this fishery has decreased substantially over time, from around 25 at the peak of the fishery in 1996–2002
+to only four in 2019. Iceland has not participated in the fishery since 2020.
+&lt;/p&gt;
+&lt;p&gt;
+In some years the Icelandic pelagic fleet (10–16 vessels &gt; 65 m) catches part of its blue whiting quota (16–23% in 2017–2023)
+in the ecoregion, using pelagic trawls. The fishery occurs mainly in the northeastern part of the ecoregion, close to the
+continental shelf edge bordering the Celtic Seas ecoregion and the shallower banks in the same area.
+&lt;/p&gt;
+&lt;h4&gt;Ireland&lt;/h4&gt;
+&lt;p&gt;
+The very minor pelagic trawl fishing activity by Ireland in this ecoregion is an extension of the fisheries occurring in the
+Celtic Seas ecoregion. The albacore tuna fishery, in some years, extends beyond the Irish EEZ southwest of the country.
+Similarly, the blue whiting fishery occasionally extends west of the Porcupine Bank. There is some Irish demersal trawling
+activity on the western side of the Rockall bank mainly targeting anglerfish and megrim.
+&lt;/p&gt;
+&lt;h4&gt;Spain&lt;/h4&gt;
+&lt;p&gt;
+The Spanish bottom-trawling fleet operated mainly on the western slope of the Hatton Bank and until 2018 consisted of
+three to six vessels larger than 50 m length, although in recent years the effort was drastically reduced until it reached zero
+vessels in 2021. The Spanish fishing fleet has been virtually absent ever since, although this could change in future.
+&lt;/p&gt;
+&lt;p&gt;
+The most important species targeted have traditionally been Baird's slickhead, blue ling (bli.27.nea), roundnose grenadier
+(rng.27.1245a8914ab, rng.27.5a10b12ac14b, and rng.27.5b6712b), black scabbardfish (bsf.27.nea), and Greenland halibut.
+There has also been a pelagic beaked redfish fishery in the northwestern part of the ecoregion (Subdivision 14.b.1), although
+the size of the Spanish fleet operating in the ecoregion has decreased during recent years, and the fishery has remained
+closed since 2021, as a result of the low stock biomass and recruitment levels.
+&lt;/p&gt;
+&lt;p&gt;
+The Spanish pelagic longline fleet (about 33 vessels) operates in the area part of the year in the southern area of the
+ecoregion (Subarea 10), fishing mainly for swordfish and blue shark.
+&lt;/p&gt;
+&lt;h4&gt;Faroes&lt;/h4&gt;
+&lt;p&gt;
+At the peak of the pelagic beaked redfish fishery in the mid-1990s (Subdivision 14.b.1), up to seven Faroese vessels
+participated in the fishery. Since 2020, Faroese vessels have not fished on this stock.
+&lt;/p&gt;
+&lt;h4&gt;France&lt;/h4&gt;
+&lt;p&gt;
+Only one French vessel (targeting blue whiting) operates in the eastern part of the ecoregion.
+&lt;/p&gt;
+&lt;h4&gt;Russia&lt;/h4&gt;
+&lt;p&gt;
+Information on the Russian fishing activities has not been available since 2022. The Russian fleet is the largest one
+participating in the pelagic beaked redfish fishery in the northwestern part of the ecoregion (Subdivision 14.b.1 and Subarea
+12). The fleet consists of industrial factory ships. In recent years about 15 vessels have participated in the fishery; during the
+peak of the fishery (second half of the 1990s and early 2000s), 35–40 vessels participated.
+&lt;/p&gt;
+&lt;h4&gt;Portugal&lt;/h4&gt;
+&lt;p&gt;
+Portugal took part in the pelagic beaked redfish fishery during 1994–2012 (subareas 5, 12, and 14). In 2011 and 2012 only
+four vessels participated in this fishery. The Portuguese pelagic longlining fleet operates in the southern part of the
+ecoregion (Subarea 10), targeting swordfish and blue shark.
+&lt;/p&gt;
+&lt;h4&gt;Netherlands&lt;/h4&gt;
+&lt;p&gt;
+The Dutch fleet has minimal activity in the ecoregion. The pelagic fleet, consisting of seven vessels that target blue whiting,
+mackerel (mac.27.nea), horse mackerel (hom.27.2a4a5b6a7a-ce-k8), and herring, operates on the eastern border of the
+ecoregion and in adjacent waters, with occasional landings originating from the Oceanic Northeast Atlantic ecoregion.
+&lt;/p&gt;
+&lt;h4&gt;Others&lt;/h4&gt;
+&lt;p&gt;
+Until 2020, Germany (one industrial factory vessel), Lithuania (one industrial factory vessel), and Latvia (one industrial
+factory vessel) participated in the pelagic beaked redfish fishery in the western part of the ecoregion (Subdivision 14.b.1 and
+Subarea 12). Other countries, such as Japan, China, and the Republic of Korea, fish for bluefin tuna in this ecoregion.
+&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -3567,7 +4416,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3880,7 +4729,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3900,26 +4749,26 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -3946,3214 +4795,3214 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="C12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="C15" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="C16" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="C17" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="C18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="C19" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="C20" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>277</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>292</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="C97" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="C98" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="C99" s="10" t="s">
         <v>304</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="C100" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="C101" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="C102" s="10" t="s">
         <v>313</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="C103" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="C104" s="10" t="s">
         <v>319</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="C105" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="C106" s="10" t="s">
         <v>325</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="C107" s="10" t="s">
         <v>328</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="C108" s="10" t="s">
         <v>331</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>334</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="C110" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="C112" s="10" t="s">
         <v>343</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="C113" s="10" t="s">
         <v>346</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="C114" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="C115" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="C116" s="10" t="s">
         <v>355</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="C117" s="10" t="s">
         <v>358</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="C118" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="C119" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="C120" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="C121" s="10" t="s">
         <v>370</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="C122" s="10" t="s">
         <v>373</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="C123" s="10" t="s">
         <v>376</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B124" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="C124" s="10" t="s">
         <v>379</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="C125" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="C126" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="C127" s="10" t="s">
         <v>388</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B128" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="C128" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="C129" s="10" t="s">
         <v>394</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="C130" s="10" t="s">
         <v>397</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>400</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="C132" s="10" t="s">
         <v>403</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B133" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="C133" s="10" t="s">
         <v>406</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B134" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>409</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>412</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="C136" s="10" t="s">
         <v>415</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B137" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="C137" s="10" t="s">
         <v>418</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B138" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="C138" s="10" t="s">
         <v>421</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B139" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="C139" s="10" t="s">
         <v>424</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B140" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="C140" s="10" t="s">
         <v>427</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B141" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="C141" s="10" t="s">
         <v>430</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B142" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="C142" s="10" t="s">
         <v>433</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B143" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="C143" s="10" t="s">
         <v>436</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B144" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="C144" s="10" t="s">
         <v>439</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B145" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="C145" s="10" t="s">
         <v>442</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B146" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="C146" s="10" t="s">
         <v>445</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B147" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="C147" s="10" t="s">
         <v>448</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B148" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="C148" s="10" t="s">
         <v>451</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B149" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="C149" s="10" t="s">
         <v>454</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B150" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="C150" s="10" t="s">
         <v>457</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B151" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="C151" s="10" t="s">
         <v>460</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B152" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="C152" s="10" t="s">
         <v>463</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B153" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="C153" s="10" t="s">
         <v>466</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B154" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="C154" s="10" t="s">
         <v>469</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B155" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="C155" s="10" t="s">
         <v>472</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="C156" s="10" t="s">
         <v>475</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B157" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="C157" s="10" t="s">
         <v>478</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B158" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="C158" s="10" t="s">
         <v>481</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="B159" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="C159" s="10" t="s">
         <v>484</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B160" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="C160" s="10" t="s">
         <v>487</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B161" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="C161" s="10" t="s">
         <v>490</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B162" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="C162" s="10" t="s">
         <v>493</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B163" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="C163" s="10" t="s">
         <v>496</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B164" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="C164" s="10" t="s">
         <v>499</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B165" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="C165" s="10" t="s">
         <v>502</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B166" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="C166" s="10" t="s">
         <v>505</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B167" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="C167" s="10" t="s">
         <v>508</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B168" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="C168" s="10" t="s">
         <v>511</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B169" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="C169" s="10" t="s">
         <v>514</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B170" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="C170" s="10" t="s">
         <v>517</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B171" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="C171" s="10" t="s">
         <v>520</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B172" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="C172" s="10" t="s">
         <v>523</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B173" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="C173" s="10" t="s">
         <v>526</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B174" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="C174" s="10" t="s">
         <v>529</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B175" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="C175" s="10" t="s">
         <v>532</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B176" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="C176" s="10" t="s">
         <v>535</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="B177" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="C177" s="10" t="s">
         <v>538</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B178" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="C178" s="10" t="s">
         <v>541</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B179" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="C179" s="10" t="s">
         <v>544</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B180" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="C180" s="10" t="s">
         <v>547</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B181" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="C181" s="10" t="s">
         <v>550</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="B182" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="C182" s="10" t="s">
         <v>553</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B183" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="C183" s="10" t="s">
         <v>556</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B184" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="C184" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B185" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="C185" s="10" t="s">
         <v>562</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B186" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="C186" s="10" t="s">
         <v>565</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B187" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="C187" s="10" t="s">
         <v>568</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="B188" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="C188" s="10" t="s">
         <v>571</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B189" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="C189" s="10" t="s">
         <v>574</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="B190" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="C190" s="10" t="s">
         <v>577</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B191" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="C191" s="10" t="s">
         <v>580</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B192" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="C192" s="10" t="s">
         <v>583</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B193" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="C193" s="10" t="s">
         <v>586</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="B194" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="C194" s="10" t="s">
         <v>589</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B195" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="C195" s="10" t="s">
         <v>592</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="B196" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="C196" s="10" t="s">
         <v>595</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B197" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="C197" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="B198" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="C198" s="10" t="s">
         <v>601</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="B199" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="C199" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="B200" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="C200" s="10" t="s">
         <v>607</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="B201" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="C201" s="10" t="s">
         <v>610</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="B202" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="C202" s="10" t="s">
         <v>613</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="B203" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="C203" s="10" t="s">
         <v>616</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="B204" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="C204" s="10" t="s">
         <v>619</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B205" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="C205" s="10" t="s">
         <v>622</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B206" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="C206" s="10" t="s">
         <v>625</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B207" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="C207" s="10" t="s">
         <v>628</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B208" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="C208" s="10" t="s">
         <v>631</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B209" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="C209" s="10" t="s">
         <v>634</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B210" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="C210" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="B211" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="C211" s="10" t="s">
         <v>640</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="B212" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="C212" s="10" t="s">
         <v>643</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B213" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="C213" s="10" t="s">
         <v>646</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="B214" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="C214" s="10" t="s">
         <v>649</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B215" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="C215" s="10" t="s">
         <v>652</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B216" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="C216" s="10" t="s">
         <v>655</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="B217" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="C217" s="10" t="s">
         <v>658</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B218" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="B218" s="10" t="s">
+      <c r="C218" s="10" t="s">
         <v>661</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="B219" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="B219" s="10" t="s">
+      <c r="C219" s="10" t="s">
         <v>664</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B220" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="C220" s="10" t="s">
         <v>667</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B221" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="C221" s="10" t="s">
         <v>670</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="B222" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="C222" s="10" t="s">
         <v>673</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B223" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="C223" s="10" t="s">
         <v>676</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="B224" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="C224" s="10" t="s">
         <v>679</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="B225" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="C225" s="10" t="s">
         <v>682</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="B226" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="C226" s="10" t="s">
         <v>685</v>
-      </c>
-      <c r="C226" s="10" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="B227" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="B227" s="10" t="s">
+      <c r="C227" s="10" t="s">
         <v>688</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B228" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="C228" s="10" t="s">
         <v>691</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B229" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="C229" s="10" t="s">
         <v>694</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="B230" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="C230" s="10" t="s">
         <v>697</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="B231" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="C231" s="10" t="s">
         <v>700</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="B232" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="C232" s="10" t="s">
         <v>703</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B233" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="B233" s="10" t="s">
+      <c r="C233" s="10" t="s">
         <v>706</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B234" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="C234" s="10" t="s">
         <v>709</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="B235" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="C235" s="10" t="s">
         <v>712</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B236" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="C236" s="10" t="s">
         <v>715</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="B237" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="C237" s="10" t="s">
         <v>718</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="B238" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="C238" s="10" t="s">
         <v>721</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="B239" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="C239" s="10" t="s">
         <v>724</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B240" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B240" s="10" t="s">
+      <c r="C240" s="10" t="s">
         <v>727</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="B241" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="C241" s="10" t="s">
         <v>730</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B242" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="C242" s="10" t="s">
         <v>733</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="B243" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="C243" s="10" t="s">
         <v>736</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="B244" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="C244" s="10" t="s">
         <v>739</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="B245" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="B245" s="10" t="s">
+      <c r="C245" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="B246" s="10" t="s">
         <v>744</v>
       </c>
-      <c r="B246" s="10" t="s">
+      <c r="C246" s="10" t="s">
         <v>745</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="B247" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="B247" s="10" t="s">
+      <c r="C247" s="10" t="s">
         <v>748</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="B248" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="B248" s="10" t="s">
+      <c r="C248" s="10" t="s">
         <v>751</v>
-      </c>
-      <c r="C248" s="10" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="B249" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="B249" s="10" t="s">
+      <c r="C249" s="10" t="s">
         <v>754</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="B250" s="10" t="s">
         <v>756</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="C250" s="10" t="s">
         <v>757</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="B251" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="C251" s="10" t="s">
         <v>760</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="B252" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="C252" s="10" t="s">
         <v>763</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="B253" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="B253" s="10" t="s">
+      <c r="C253" s="10" t="s">
         <v>766</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="B254" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="B254" s="10" t="s">
+      <c r="C254" s="10" t="s">
         <v>769</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="B255" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="B255" s="10" t="s">
+      <c r="C255" s="10" t="s">
         <v>772</v>
-      </c>
-      <c r="C255" s="10" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B256" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="C256" s="10" t="s">
         <v>775</v>
-      </c>
-      <c r="C256" s="10" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="B257" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="B257" s="10" t="s">
+      <c r="C257" s="10" t="s">
         <v>778</v>
-      </c>
-      <c r="C257" s="10" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="B258" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="C258" s="10" t="s">
         <v>781</v>
-      </c>
-      <c r="C258" s="10" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="B259" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="B259" s="10" t="s">
+      <c r="C259" s="10" t="s">
         <v>784</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="B260" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="B260" s="10" t="s">
+      <c r="C260" s="10" t="s">
         <v>787</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="B261" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="B261" s="10" t="s">
+      <c r="C261" s="10" t="s">
         <v>790</v>
-      </c>
-      <c r="C261" s="10" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="B262" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="B262" s="10" t="s">
+      <c r="C262" s="10" t="s">
         <v>793</v>
-      </c>
-      <c r="C262" s="10" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="B263" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="B263" s="10" t="s">
+      <c r="C263" s="10" t="s">
         <v>796</v>
-      </c>
-      <c r="C263" s="10" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="B264" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="B264" s="10" t="s">
+      <c r="C264" s="10" t="s">
         <v>799</v>
-      </c>
-      <c r="C264" s="10" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="B265" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="C265" s="10" t="s">
         <v>802</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="B266" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="B266" s="10" t="s">
+      <c r="C266" s="10" t="s">
         <v>805</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="B267" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="B267" s="10" t="s">
+      <c r="C267" s="10" t="s">
         <v>808</v>
-      </c>
-      <c r="C267" s="10" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="B268" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="B268" s="10" t="s">
+      <c r="C268" s="10" t="s">
         <v>811</v>
-      </c>
-      <c r="C268" s="10" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="B269" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="B269" s="10" t="s">
+      <c r="C269" s="10" t="s">
         <v>814</v>
-      </c>
-      <c r="C269" s="10" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="B270" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="B270" s="10" t="s">
+      <c r="C270" s="10" t="s">
         <v>817</v>
-      </c>
-      <c r="C270" s="10" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="B271" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="B271" s="10" t="s">
+      <c r="C271" s="10" t="s">
         <v>820</v>
-      </c>
-      <c r="C271" s="10" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="B272" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="C272" s="10" t="s">
         <v>823</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="B273" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="B273" s="10" t="s">
+      <c r="C273" s="10" t="s">
         <v>826</v>
-      </c>
-      <c r="C273" s="10" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="B274" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="B274" s="10" t="s">
+      <c r="C274" s="10" t="s">
         <v>829</v>
-      </c>
-      <c r="C274" s="10" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="B275" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="B275" s="10" t="s">
+      <c r="C275" s="10" t="s">
         <v>832</v>
-      </c>
-      <c r="C275" s="10" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="B276" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="B276" s="10" t="s">
+      <c r="C276" s="10" t="s">
         <v>835</v>
-      </c>
-      <c r="C276" s="10" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="B277" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="B277" s="10" t="s">
+      <c r="C277" s="10" t="s">
         <v>838</v>
-      </c>
-      <c r="C277" s="10" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="B278" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="B278" s="10" t="s">
+      <c r="C278" s="10" t="s">
         <v>841</v>
-      </c>
-      <c r="C278" s="10" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="B279" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="B279" s="10" t="s">
+      <c r="C279" s="10" t="s">
         <v>844</v>
-      </c>
-      <c r="C279" s="10" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="B280" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="B280" s="10" t="s">
+      <c r="C280" s="10" t="s">
         <v>847</v>
-      </c>
-      <c r="C280" s="10" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="B281" s="10" t="s">
         <v>849</v>
       </c>
-      <c r="B281" s="10" t="s">
+      <c r="C281" s="10" t="s">
         <v>850</v>
-      </c>
-      <c r="C281" s="10" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="B282" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="B282" s="10" t="s">
+      <c r="C282" s="10" t="s">
         <v>853</v>
-      </c>
-      <c r="C282" s="10" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="B283" s="10" t="s">
         <v>855</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="C283" s="10" t="s">
         <v>856</v>
-      </c>
-      <c r="C283" s="10" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="B284" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="B284" s="10" t="s">
+      <c r="C284" s="10" t="s">
         <v>859</v>
-      </c>
-      <c r="C284" s="10" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="B285" s="10" t="s">
         <v>861</v>
       </c>
-      <c r="B285" s="10" t="s">
+      <c r="C285" s="10" t="s">
         <v>862</v>
-      </c>
-      <c r="C285" s="10" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="B286" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="B286" s="10" t="s">
+      <c r="C286" s="10" t="s">
         <v>865</v>
-      </c>
-      <c r="C286" s="10" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="B287" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="B287" s="10" t="s">
+      <c r="C287" s="10" t="s">
         <v>868</v>
-      </c>
-      <c r="C287" s="10" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="B288" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="B288" s="10" t="s">
+      <c r="C288" s="10" t="s">
         <v>871</v>
-      </c>
-      <c r="C288" s="10" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="B289" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="C289" s="10" t="s">
         <v>874</v>
-      </c>
-      <c r="C289" s="10" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="B290" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="C290" s="10" t="s">
         <v>877</v>
-      </c>
-      <c r="C290" s="10" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="B291" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="C291" s="10" t="s">
         <v>880</v>
-      </c>
-      <c r="C291" s="10" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="B292" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="C292" s="10" t="s">
         <v>883</v>
-      </c>
-      <c r="C292" s="10" t="s">
-        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -7191,26 +8040,26 @@
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="406" x14ac:dyDescent="0.35">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
   </sheetData>
@@ -7222,7 +8071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744F2D0C-79DF-4FE3-924E-E680015F9291}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7240,25 +8089,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="232" x14ac:dyDescent="0.35">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>921</v>
@@ -7294,18 +8143,18 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7336,18 +8185,18 @@
     </row>
     <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -7382,10 +8231,10 @@
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -7417,10 +8266,10 @@
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -7452,10 +8301,10 @@
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -7488,10 +8337,10 @@
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -7506,7 +8355,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7526,26 +8375,26 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -7557,7 +8406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C69BDA-CBD4-4A20-96F1-D4184C7A4A9F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7577,26 +8426,26 @@
     </row>
     <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -7608,8 +8457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BB4192-B3A0-40C4-9076-17E7860549D0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7628,26 +8477,26 @@
     </row>
     <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -7659,7 +8508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D16401-415E-4611-9BEF-C11909718B5A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7679,26 +8528,26 @@
     </row>
     <row r="2" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="319" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -7710,7 +8559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59C6F2-69D0-4598-BA12-1B489ABE98B2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7730,26 +8579,26 @@
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="232" x14ac:dyDescent="0.35">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -7761,8 +8610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB1D8E1-BE83-467E-ABE2-EB20A46DABB5}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7781,26 +8630,26 @@
     </row>
     <row r="2" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>886</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -7812,7 +8661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385D6F23-1F00-43DA-8201-777B854F56F6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7832,26 +8681,26 @@
     </row>
     <row r="2" spans="1:2" ht="400" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -7892,26 +8741,26 @@
     </row>
     <row r="2" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="290" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_2023\fisheriesXplorer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CB06F5-35E3-44C8-82B0-6B96838D534E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1398A1-A3BE-40FB-AC97-E8B4C2780D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_NrS" sheetId="1" r:id="rId1"/>
@@ -70,16 +70,7 @@
     <t>landings</t>
   </si>
   <si>
-    <t>&lt;b&gt;Landings&lt;/b&gt;&lt;br&gt;&lt;br&gt;Fisheries in the Greater North Sea catch a large diversity of species. These have been categorized into species that are pelagic, demersal, benthic (e.g. flatfish), crustaceans, and elasmobranchs. &lt;br&gt;&lt;br&gt;Total landings from the Greater North Sea varied between 2 and 3 million tonnes during the 1950s, then rose to between 3 and 4 million tonnes from the late 1960s to the mid-1990s (Figure 2). High catches of both pelagic species (mackerel and herring) and demersal species (cod and haddock) accounted for the increase in total landings in the late 1960s (figures 3 and 4). 
-The landings shown in Figure 4 only include those species for which ICES gives advice. There are a number of stocks for which ICES does not give advice where landings may be substantial (e.g. Scallop, edible crab, brown shrimp, European lobster, blue mussel). Total landings declined after 1995 to a low of 1.4 million tonnes in 2012. This decline is attributed to overfishing and decreased productivity of important stocks such as cod and herring, but also to the successful reduction of fishing mortality to more sustainable levels after 2000. &lt;br&gt;&lt;br&gt;
-Since 2003, the pelagic fisheries using pelagic trawl and purse seines have accounted for the largest proportion of the total landings, followed by the demersal and benthic fisheries (Figure 3). Overall landings increased slightly from 2011 after a rise in herring landings and again, most recently (in 2015), from increased catches of anchovy, sardine, and hake.&lt;br&gt;&lt;br&gt;
-Recreational fisheries in the North Sea target a wide range of species, but few of these fisheries are monitored or evaluated. Recreational catches of seabass and salmon (including freshwater for the latter) are significant and are included in ICES assessment of these species. In contrast, the recreational fisheries of elasmobranchs is not widely monitored; however, the recreational harvest of these species (mainly dogfish and several species of skates and rays) appears to be negligible.&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
     <t>discards</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Discards&lt;/b&gt;&lt;br&gt;&lt;br&gt;Discard data have been collected for some North Sea fisheries since the mid-1970s. Since 2000, discard data from North Sea commercial fisheries have been collected from various observer programmes implemented under the EU Data Collection Framework (DCF), and UK continued that commitment in retained law from 2020 after leaving the EU. However, complete discard data are only available from 2012 onwards. In 2015–2019, discard rates remained relatively stable. Discard rates of pelagic species were close to zero (Figure 6). Discard estimates for several species of elasmobranch are highly uncertain due to low encounter probabilities and so are not shown.</t>
   </si>
   <si>
     <t>sidebar</t>
@@ -2755,164 +2746,7 @@
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>Main patterns and Trends: &lt;br&gt;&lt;br&gt;
-Pelagic fisheries dominate landings (by volume) in the ecoregion. Blue whiting constitutes the highest proportion of pelagic landings, followed by mackerel. &lt;br&gt;&lt;br&gt;
-Pelagic landings peaked in 1998 and in 2018 and ranged from [534] to [835] thousand tonnes in 2019-2023. &lt;br&gt;&lt;br&gt; 
-Annual mackerel landings have been below 200 thousand tonnes since 2018. Landings of herring and horse mackerel have been declining since the mid/late 1990s. &lt;br&gt;&lt;br&gt;
-Demersal fisheries landings peaked in 1989 and have been generally decreasing since. &lt;br&gt;&lt;br&gt;
-Hake accounts for most demersal landings since 2011, followed by haddock and whiting. The relative importance of cod, saithe and ling to demersal landings has been declining since the late 1980s. &lt;br&gt;&lt;br&gt;
-Shellfish landings are dominated by Nephrops and have remained relatively stable in the last few decades, although generally lower since 2018. &lt;br&gt;&lt;br&gt;
-Benthic landings have been generally stable since the late 1980s and higher since 2016. Anglerfish and megrim account for most benthic landings in the ecoregion &lt;br&gt;&lt;br&gt;
-Landings of elasmobranchs have been variable over time although relatively stable at lower values since 2009. Since 2010, the cuckoo ray, small-spotted catshark, thornback ray and blonde ray account for most landings of elasmobranchs in the ecoregion.&lt;br&gt;&lt;br&gt;
-The UK generally accounts for most fisheries landings in the ecoregion, followed by Ireland. Norwegian landings were highest in 2018-2020. &lt;br&gt;&lt;br&gt;
-&lt;br&gt;
-Otter trawling and seining is the dominant fishing effort, though has decline significantly over the time-series. Fishing effort by most other gears have also declined over the period, though more recently there has been a small increase in beam trawling (Figure 4). There are fluctuations in pelagic landings (Figure 5). Landings by demersal otter trawls, beam trawlers, pots, and static gears (mostly gillnet) have been relatively stable.</t>
-  </si>
-  <si>
-    <t>The average discard rate among pelagic stocks is estimated to be very low. &lt;br&gt;&lt;br&gt;
-The estimated average discard rate for elasmobranchs stocks is high and ranges 30% to 75%. &lt;br&gt;&lt;br&gt;
-The average discard rate among demersal stocks ranges from 9% to 22% and is generally around 15%. &lt;br&gt;&lt;br&gt;
-Crustacean and benthic stocks have an estimated average discard rate of around 10%. &lt;br&gt;&lt;br&gt;
-&lt;br&gt;
-Discard rates for some species are very high in the ecoregion, for example plaice (around 60% of tonnage) and whiting (50–99% of tonnage).</t>
-  </si>
-  <si>
-    <t>ICES currently provides advice for [112] stocks in the Celtic Seas ecoregion. Of these, 9 (8 %) benthic, 7 (6.2 %) pelagic, 10 (8.9 %) shellfish (Nephrops), 1 (0.8 %) elasmobranch, and 17 (15.2 %) demersal stocks have an ICES category 1 quantitative stock assessments. Demersal stocks include the 3 sub-stocks of cod.27.46a7d20 (Northwestern, Viking and Southern). Stock status is evaluated in terms of fishing mortality (F) and spawning stock biomass (SSB) levels relative to the maximum sustainable yield (MSY) target (F &lt; Fmsy and SSB &gt; MSY Btrigger) and precautionary approach (PA) reference points (F &lt; Fpa and SSB &gt; Bpa). &lt;br&gt;&lt;br&gt;
-&lt;br&gt;
-In 2024, 39 (34.8%) of the assessed stocks are fished at or below FMSY target levels, and 41 (36.6%) have a stock size equal to or above MSY Btrigger. These stocks account for 66.5% of total landings over the assessment area, which extends beyond the ecoregion. 24 (21.4%) of the assessed stocks are currently fished above FMSY and account for 90% of total landings over the assessment area. &lt;br&gt;&lt;br&gt;
-&lt;br&gt;
-Assessed stocks with unknown status relative to MSY and Bpa represent 43% and 68%, respectively, of the stocks in the ecoregion. Stocks with unknown status relative to MSY account for 1.5% of total landings (although the assessment area for some stocks extends beyond the ecoregion). &lt;br&gt;&lt;br&gt;
-On average, the spawning stock size in all guilds is currently above the target (SSB/MSY Btrigger &gt; 1), although it ranges from 3.2 to 1.3 among stocks. Fishing pressure for the elasmobranch, benthic, shellfish and pelagic guilds on average is currently below target (F/Fmsy &lt; 1) (range from 0.5 to 0.89 among stocks), while demersal species are fished above target (F/Fmsy &gt; 1) (1.3). &lt;br&gt;&lt;br&gt;
-&lt;br&gt;
-For the elasmobranch guild, the mean F/Fmsy ratio has declined since the 1990s and is currently below one. The mean SSB/MSY Btrigger ratio has increased since the 1980s and is currently above one. &lt;br&gt;&lt;br&gt;
-&lt;br&gt;
-For the benthic guild, the mean F/Fmsy ratio has declined since the mid-1990s and is currently below one. The mean SSB/MSY Btrigger ratio has gradually increased since 2000 and is currently above one. &lt;br&gt;&lt;br&gt;
-&lt;br&gt;
-For the shellfish guild, the mean F/Fmsy ratio shows strong fluctuations about a gradual decline from the mid-2000s and is currently below one. The mean SSB/MSY Btrigger ratio has remained above one and fairly stable throughout the time series, and is currently above one. &lt;br&gt;&lt;br&gt;
-&lt;br&gt;
-For the demersal guild, the mean F/Fmsy ratio has declined since the 1990s and is currently above one. The mean SSB/MSY Btrigger ratio shows a small, gradual increase since 2000 and is currently above one. &lt;br&gt;&lt;br&gt;
-&lt;br&gt;
-For the pelagic guild, the mean F/Fmsy ratio has fluctuated (mostly above one) since the 1990s and is currently below one. The mean SSB/MSY Btrigger ratio has remained fairly stable above one since the mid-1990s and is currently above one. &lt;br&gt;&lt;br&gt;
-&lt;br&gt;
-Of the ten stocks that currently contribute most of the catch and landings in the ecoregion, haddock (had.27.46a20), boarfish (boc.27.6-8), hake (hke.27.3a46-abd), and anglerfish (mon.27.78abd) have a stock status above MSY Btrigger level and fishing pressure below the FMSY target, while mackerel (mac.27.nea), herring (her.27.nirs), cod (cod.27.7e-k), cod (cod.27.46a7d20 (all 3 sub-stocks)) and whiting (whg.27.7a) and (whg.27.7b-ce-k) are below the biomass target and are currently fished above FMSY. &lt;br&gt;&lt;br&gt;
-&lt;br&gt;
-Not all species with catch advice are assessed against any PA or MSY reference points because these points are undefined, this includes European eel, salmon and category 3 and 4 stocks.</t>
-  </si>
-  <si>
     <t>summary</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-Around 6600 vessels from nine nations operate in the Greater North Sea, with the largest numbers coming from UK,
-Norway, Denmark, the Netherlands, and France. Total landings peaked in the early 1970s and have since declined. The
-proportion caught by each country of the total annual landings has varied over time (Figure 2). The following country
-paragraphs highlight features of the fleets and fisheries of each country but are not exhaustive descriptions.
-&lt;/p&gt;
-&lt;p&gt;
-In the European Commission’s Scientific Technical and Economic Committee for Fisheries (STECF) Fisheries Dependence
-Information (FDI) data call, “confidentiality” in the landings and effort tables by country was introduced. The data call
-suggests that data related to fewer than three vessels could be considered confidential. Given the disaggregation of this
-data call (e.g. vessel length, gear, mesh size, quarter) many entries were submitted as confidential. It is therefore not
-possible to assess the extent to which the effort data are impacted by confidentiality and whether this is consistent over
-time. As a consequence, and in a change from previous years, no effort by country was presented in this fisheries overview.
-&lt;/p&gt;
-&lt;h4&gt;Belgium&lt;/h4&gt;
-&lt;p&gt;
-The Belgian fishing fleet is composed of 65 active vessels, primarily beam trawlers both above and below 24 m in length.
-Few vessels are smaller than 12 m. Most of the catch is demersal species; sole is the dominant species in value, and plaice
-the dominant species in volume. Other important species include Norway lobster, anglerfish, turbot, shrimp, lemon sole,
-common cuttlefish, squid, rays, and cod.
-&lt;/p&gt;
-&lt;h4&gt;Denmark&lt;/h4&gt;
-&lt;p&gt;
-The Danish fleet in 2019 had 717 vessels operating in the Greater North Sea, representing around half of the entire Danish
-fleet (1560 vessels). The size of the fleet has been generally decreasing over the last decade and in 2010 there were 968
-vessels operating. A fishing operation is defined as a combination of vessel and gear, so vessels using multiple gear types
-count multiple times.
-&lt;/p&gt;
-&lt;ul&gt;
-  &lt;li&gt;There were around 600 operations by smaller vessels (&amp;lt; 12 m) in 2019 compared to around 800 in 2010, mainly gillnetting supplemented by pot and trap operations for small vessels and demersal operations for larger ones.&lt;/li&gt;
-  &lt;li&gt;Medium-sized vessels (12–40 m) accounted for around 281 operations in 2019, mainly demersal trawling, down from 439 in 2010.&lt;/li&gt;
-  &lt;li&gt;Large vessels (&amp;gt; 40 m) had 54 operations in 2019, split between demersal and pelagic trawlers, down from 75 in 2010.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;
-The total value of the Danish fishery from the Greater North Sea has been relatively constant from 2010 to 2019. Demersal
-trawlers dominate value (around six times gillnetters). The main demersal targets are cod, plaice, saithe, northern shrimp,
-and Nephrops. Pelagic fisheries target herring, mackerel, sandeel, sprat, and Norway pout.
-&lt;/p&gt;
-&lt;h4&gt;France&lt;/h4&gt;
-&lt;p&gt;
-The French fleet in the North Sea is composed of more than 600 vessels. Demersal fisheries operate mainly in the eastern
-English Channel and southern North Sea. Until 2016, the largest segments were gill- and trammelnetters (10–18 m),
-followed by demersal trawlers (12–24 m) and dredgers catching scallops.
-&lt;/p&gt;
-&lt;p&gt;
-Since 2016, activity of gill- and trammelnetters has decreased substantially, with many vessels converting to pot fisheries
-(targeting whelks and crustaceans) or ceasing operations due to difficulties catching sole in Division 7.d and Division 4.c.
-Smaller boats switch gears seasonally. A fleet of six large demersal trawlers (&amp;gt; 40 m) target saithe. Three pelagic vessels
-catch herring, mackerel, and horse-mackerel.
-&lt;/p&gt;
-&lt;h4&gt;Germany&lt;/h4&gt;
-&lt;p&gt;
-The German North Sea fleet comprises more than 200 vessels. Small beam trawlers (12–24 m) dominate (around 175 in
-2019), targeting brown shrimp. Medium- and large-sized beam trawlers target sole and plaice; otter trawlers (about nine)
-target Norway lobster and plaice; medium demersal trawlers target saithe, plaice, cod, hake, and haddock. Large pelagic
-trawlers (&amp;gt; 40 m; five vessels) target herring and other pelagic species.
-&lt;/p&gt;
-&lt;p&gt;
-Overall, vessel numbers declined over the last decade, especially small beam trawlers (−25%) and otter trawlers (−50%).
-Pelagic trawlers remained stable.
-&lt;/p&gt;
-&lt;h4&gt;Netherlands&lt;/h4&gt;
-&lt;p&gt;
-The Dutch fleet includes about 500 vessels. The beam trawl fleet (275 vessels) dominates, targeting sole and plaice. Until
-the EU-wide ban, large beam trawlers used pulse trawls. Smaller beam trawlers (“Eurocutters”) seasonally target shrimp or
-flatfish. Pelagic freezer trawlers (seven vessels, &amp;gt; 60 m) target herring, mackerel, and horse mackerel.
-&lt;/p&gt;
-&lt;h4&gt;Norway&lt;/h4&gt;
-&lt;p&gt;
-The Norwegian North Sea fleet includes about 1500 vessels. Approximately 94% catch demersal species; 33% catch pelagic
-species; 27% catch both. This change from 2009 is driven by a sharp increase in small vessels (&amp;lt; 11 m) targeting demersal
-species only.
-&lt;/p&gt;
-&lt;p&gt;
-Sandeel makes up a significant share of total landings. Over 75% of the fleet are small vessels located near the coast using
-traps, pots, shrimp trawls, and gillnets. Medium vessels (11–24 m) mainly target Norway lobster, crabs, shrimp, and pelagic
-species. Larger vessels (15% of the fleet) target pelagic fish, saithe, and others. The largest vessels (&amp;gt; 40 m) account for more
-than 80% of total landings.
-&lt;/p&gt;
-&lt;h4&gt;Sweden&lt;/h4&gt;
-&lt;p&gt;
-The Swedish fleet includes more than 400 vessels, mostly operating in the Skagerrak and Kattegat, and about 25 also fish in
-the North Sea. Around 130 vessels operate demersal trawls, targeting Norway lobster, northern shrimp, cod, witch,
-flounder, and saithe. Around 270 vessels use passive gears (pots, gillnets, lines). The pelagic fleet consists of just over ten
-vessels targeting herring and sprat.
-&lt;/p&gt;
-&lt;p&gt;
-The fleet has decreased by around 20% since 2009 due to reduced fishing opportunities, poor profitability, scrapping
-campaigns, and transferable fishing rights introduced in 2017.
-&lt;/p&gt;
-&lt;h4&gt;UK (England)&lt;/h4&gt;
-&lt;p&gt;
-The English fleet operating in the Greater North Sea in 2019 comprised 1133 vessels, continuing a long-term decline
-(especially in the under 10 m fleet).
-&lt;/p&gt;
-&lt;ul&gt;
-  &lt;li&gt;The &amp;lt; 10 m sector (~882 vessels) targets diverse fish and shellfish, mostly non-quota shellfish.&lt;/li&gt;
-  &lt;li&gt;The 10–15 m sector is stable at ~190 vessels and mainly targets non-quota shellfish; few target finfish.&lt;/li&gt;
-  &lt;li&gt;The 15–40 m sector has declined from 113 vessels in 2009 to 70, targeting cockle and edible crab.&lt;/li&gt;
-  &lt;li&gt;There were 12 vessels &amp;gt; 40 m in 2019, targeting demersal and some pelagic finfish.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h4&gt;UK (Scotland)&lt;/h4&gt;
-&lt;p&gt;
-The Scottish North Sea fleet comprises around 1000 vessels. Over 120 demersal trawlers (&amp;gt; 10 m) target mixed gadoids and
-groundfish. A fleet of 139 trawlers target Norway lobster (48 &amp;lt; 10 m, 91 &amp;gt; 10 m). Pot/creel fisheries are prosecuted by over
-650 vessels (&amp;lt; 10 m). Around 80 dredgers target scallops. Pelagic species are harvested by 18 large vessels using pelagic
-trawls.
-&lt;/p&gt;
-&lt;p&gt;
-The Faroe Islands also fish in the Greater North Sea, but ICES does not have information on this fleet.
-&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;
@@ -3046,50 +2880,6 @@
   <si>
     <t>&lt;ul&gt;
   &lt;li&gt;
-    Around 6600 fishing vessels are active in the Greater North Sea. Total landings
-    peaked in the 1970s at 4 million tonnes and have since declined to about 2 million
-    tonnes. Total fishing effort has declined substantially since 2003. Pelagic fish
-    landings are greater than demersal fish landings. Herring and mackerel, caught
-    using pelagic trawls and seines, account for the largest portion of the pelagic
-    landings, while sandeel and haddock, caught using otter trawls/seines, account for
-    the largest fraction of the demersal landings. Catches are taken from more than
-    100 stocks. Discards are highest in the demersal and benthic fisheries. The spatial
-    distribution of fishing gear varies across the Greater North Sea. Static gear is used
-    most frequently in the English Channel, the eastern part of the Southern Bight,
-    the Danish banks, and in the waters east of Shetland. Bottom trawls are used
-    throughout the North Sea, with lower use in the shallower southern North Sea,
-    where beam trawls are most commonly used. Pelagic gears are used throughout the
-    North Sea.
-  &lt;/li&gt;
-  &lt;li&gt;
-    In terms of weight of catch, fish stocks harvested from the North Sea are being
-    fished at levels consistent with achieving good environmental status (GES) under
-    the EU’s Marine Strategy Framework Directive; however, the reproductive capacity
-    of the stocks has not generally reached this level. Almost all the fisheries in the
-    North Sea catch more than one species; controlling fishing on one species therefore
-    affects other species as well. ICES has developed a number of scenarios for fishing
-    opportunities that take account of these technical interactions. Each of these scenarios
-    results in different outcomes for the fish stocks. Managers may need to take these
-    scenarios into account when deciding upon fishing opportunities. Furthermore,
-    biological interactions occur between species (e.g. predation), and fishing on one
-    stock may affect the population dynamics of another. Scenarios that take account of
-    these various interactions can be used to evaluate the possible consequences of
-    policy decisions. The greatest physical disturbances of the seabed caused by fishing
-    activity in the North Sea is caused by mobile bottom-contacting gear in the eastern
-    English Channel, in nearshore areas in the southeastern North Sea and in the central
-    Skagerrak. Incidental bycatches of protected, endangered, and threatened species
-    occur in several North Sea fisheries, and the bycatch of common dolphin in the
-    western English Channel may be unsustainable in terms of population.
-  &lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;
-  Supporting data used in the Greater North Sea fisheries overview is accessible at
-  &lt;a href="https://doi.org/10.17895/ices.advice.21641360"&gt;ICES Library&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;
-  &lt;li&gt;
     The commercial fisheries in the Oceanic Northeast Atlantic ecoregion target few
     stocks. The main fisheries in the area are a multinational fishery on two pelagic
     beaked redfish stocks in the northwestern part of the ecoregion and a fishery on
@@ -3124,49 +2914,6 @@
   </si>
   <si>
     <t>&lt;p&gt;
-The Greater North Sea ecoregion includes the North Sea, English Channel, Skagerrak, and Kattegat. The Greater North Sea
-is a relatively shallow sea area on the European continental shelf, with the exception of the Norwegian Trench that extends
-parallel to the Norwegian shoreline. Pelagic species (primarily herring and mackerel) account for a significant portion of
-the total commercial fish landings in the region. Landings of benthic and demersal finfish species (primarily haddock,
-sandeel, flatfish, and cod) are also significant.
-&lt;/p&gt;
-&lt;p&gt;
-All of the Greater North Sea ecoregion lies within FAO Major Fishing Area 27; the prefix “27” in the ICES statistical area
-codes is therefore omitted in the following. This overview covers ICES Division 3.a, most of divisions 4.a, 4.b, 4.c, 7.d, and
-part of Division 7.e, as well as Subdivision 3.b.23. This overview does not include the fisheries in the western English
-Channel (Division 7.e) and in the Sound (Division 3.b.23).
-&lt;/p&gt;
-&lt;p&gt;
-Note that updates to the figures using data from the stock assessment graphs (SAG) include only advice published before
-10 October 2022. Therefore anf.27.3a46, meg.27.7b-k8abd, rjn.27.678abd, and the Norway lobster stocks refer to the
-advice current at this time (the advice applicable for 2022).
-&lt;/p&gt;
-&lt;p&gt;
-This overview provides:
-&lt;/p&gt;
-&lt;ol&gt;
-  &lt;li&gt;
-    a short description of each of the national commercial fishing fleets in the ecoregion, including their fishing gears,
-    and spatial and temporal patterns of activity;
-  &lt;/li&gt;
-  &lt;li&gt;
-    a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
-    reference points;
-  &lt;/li&gt;
-  &lt;li&gt;
-    mixed-fisheries considerations of relevance to the management of the fisheries; and
-  &lt;/li&gt;
-  &lt;li&gt;
-    an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
-    protected, endangered, and threatened species.
-  &lt;/li&gt;
-&lt;/ol&gt;
-&lt;p&gt;
-The scientific names of all species described in this overview are listed in Stock Status Table tab.
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
 The Norwegian Sea connects with the Faroes ecoregion to the southwest, the Icelandic Waters ecoregion and Greenland Sea to the west along the edge to the shallower Iceland Sea between the Faroe Islands, and northwards to Jan Mayen. To the south it borders to the shallower North Sea along the 62°N parallel between Norway and the Faroe Islands, and to the northeast the shallower Barents Sea (Figure 1). The Norwegian Sea covers more than 1.1 million km², consisting of two deep basins (between 3000 m and 4000 m deep) – the Norwegian Basin and the Lofoten Basin – separated by the Vøring Plateau (between 1000 m and 3000 m deep). The Norwegian Sea is separated from the Greenland Sea to the north by the Mohn Ridge. To the west, the basin slope forms the transition to the somewhat shallower Iceland Sea. The warm North Atlantic Current ensures relatively stable and high water temperatures, so that unlike the Arctic seas, the Norwegian Sea is ice-free throughout the year.
 &lt;/p&gt;
 &lt;p&gt;
@@ -4291,6 +4038,368 @@
 factory vessel) participated in the pelagic beaked redfish fishery in the western part of the ecoregion (Subdivision 14.b.1 and
 Subarea 12). Other countries, such as Japan, China, and the Republic of Korea, fish for bluefin tuna in this ecoregion.
 &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;
+Vessel numbers have declined across the majority of the countries fishing in the ecoregion in the past decade.
+&lt;/li&gt;
+&lt;li&gt;
+Total landings fluctuated around about 2 million tonnes from 2005 to 2019. Since 2020 there has been a further decline in landings to around 1.6 million tonnes.
+&lt;/li&gt;
+&lt;li&gt;
+Discard rates of benthic and crustacean stocks have declined in recent years, while discards of demersal stocks have increased.
+&lt;/li&gt;
+&lt;li&gt;
+Fishing mortalities have generally declined since 2000 and are below the FMSY level for three-quarters of the assessed stocks. However, some stocks continue to be fished above F MSY, particularly in the demersal group.
+&lt;/li&gt;
+&lt;li&gt;
+Spawning-stock biomass (SSB) has generally been stable or increasing since 2000, although some stocks remain below MSY Btrigger, particularly in the demersal group.
+&lt;/li&gt;
+&lt;li&gt;
+In relation to mixed fisheries:
+  &lt;ul&gt;
+    &lt;li&gt;
+    In general, only one or two métiers dominate the share of landings for individual stocks, however, smaller proportions of stock landings are often taken by a large number of other métiers.
+    &lt;/li&gt;
+    &lt;li&gt;
+    Fleet landings compositions have remained relatively stable since 2015, however, gradual trends in the dominance of target stocks are seen for some fleets.
+    &lt;/li&gt;
+    &lt;li&gt;
+    Annual mixed fisheries forecasts most often indicate that the majority of fleets will be choked by North Sea/Northern Shelf cod.
+    &lt;/li&gt;
+  &lt;/ul&gt;
+&lt;li&gt;
+Fisheries impacts on benthic habitats have been declining on average since 2019. However, this decrease is not universal across all habitats, with offshore mud and coarse sediments showing a less consistent decline.
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+  The fisheries overview document (pdf) is accessible at
+  &lt;a href="https://doi.org/10.17895/ices.advice.27879879"&gt;ICES Library&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The Greater North Sea ecoregion includes the North Sea, English Channel, Skagerrak, and Kattegat. The Greater North Sea
+is a relatively shallow sea area on the European continental shelf, with the exception of the Norwegian Trench, which
+extends parallel with the Norwegian shoreline. A wide diversity of species are caught in the area, with over 150 stocks
+assessed by ICES including pelagic fish (e.g. herring and mackerel), demersal fish (e.g. haddock and whiting), benthic fish
+(e.g. plaice and sole), and invertebrates (e.g. Norway lobster and Northern shrimp) as well as a wide range of species not
+assessed by ICES (e.g. brown crab and scallop).&lt;/p&gt;
+&lt;p&gt;
+The ecoregion lies within FAO Major Fishing Area 27 (the prefix “27” in the ICES statistical area codes is therefore omitted
+herein). The area of ecoregion covers all of ICES divisions 3.a, 4.b, 4.c, and 7.d, most of Division 4.a, part of Division 7.e,
+and part of Subdivision 3.b.23.&lt;/p&gt;
+&lt;p&gt;
+This overview does not include the fisheries in the western English Channel (Division 7.e) or in the Sound
+(Subdivision 3.b.23). However, in reviewing the status of the stocks, all those which overlap with the ecoregion are
+included&lt;/p&gt;
+&lt;p&gt;
+This overview provides:
+&lt;/p&gt;
+&lt;ol&gt;
+  &lt;li&gt;
+a short description of each of the fishing gears, catch statistics, and the national commercial fishing fleets in the
+ecoregion and their spatial and temporal patterns of activity;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
+reference points;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a description of mixed-fisheries interactions in the ecosystem; and
+  &lt;/li&gt;
+  &lt;li&gt;
+   an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
+endangered, threatened, and protected (ETP) species.
+  &lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;
+The scientific names of all species described in this overview are listed in Stock Status -&gt; Stock list tab.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Around 7 000 vessels from nine nations operate in the Greater North Sea ecoregion, with the largest numbers coming from
+the UK, France, Norway, Denmark, and the Netherlands. Total landings peaked in the early 1970s and have since declined
+while the proportion caught by each country of the total annual landings has varied over time. This section
+highlights the features of the fleets and fisheries of each country.
+&lt;/p&gt;
+&lt;h4&gt;Belgium&lt;/h4&gt;
+&lt;p&gt;
+The Belgian commercial fishing fleet consisted of 59 active vessels in 2023, of which 58 were active in the North Sea
+ecoregion. The number of vessels has been gradually decreasing since 2014 (76 active vessels in the North Sea) although
+new vessels were built in the last years, replacing older ones. The fleet consists primarily of beam trawlers (43 vessels),
+most of which are large (&gt; 24 m 27 vessels), followed by medium-sized (12–24 m, 16 vessels). The remainder of the fleet
+consists of demersal trawlers and seines (&gt; 24 m, 7 vessels; 18–24 m, seven vessels) and one vessel using fixed nets. In terms of weight, the most important target species in 2023 are plaice, cuttlefish, sole, cod, tub gurnard, squid, Norway
+lobster, scallops, haddock, and lesser-spotted dogfish; in terms of value, the most important species are sole, plaice,
+cuttlefish, squid, Norway lobster, brown shrimp, turbot, cod, lemon sole, and brill.
+&lt;/p&gt;
+&lt;p&gt;
+The beam-trawl fleet has experienced notable changes over the past decade, with a steep decline in the quantity of plaice
+and sole landed. In 2023, cuttlefish became the most important species in terms of weight for this fleet. The change in the
+species composition of landings by the trawlers is also characterized by a decrease in the quantity of plaice landed,
+although it remains the most important species in terms of weight, and a small increase in the amount of squid landed,
+especially in the most recent years.
+&lt;/p&gt;
+&lt;p&gt;
+Total landings of the Belgian fleet in the North Sea ecoregion have decreased by more than 50% since 2016, concurrent
+with a 37% decrease in income and a 34% decrease in fishing effort. Larger vessels have been reallocating their fishing
+operations to the Celtic Seas ecoregion.
+&lt;/p&gt;
+&lt;h4&gt;Denmark&lt;/h4&gt;
+&lt;p&gt;
+The Danish fleet had about 800 active vessels primarily operating in the Greater North Sea in 2023. Over the last decade,
+the size of the fleet has decreased substantially in number but has had a rather constant total capacity in GT and kW. Most
+vessels are small (&lt; 12 m, 529 vessels), followed by medium-sized (12–24 m, 225 vessels), and large v (&gt; 24 m, 51 vessels).
+The largest vessels exclusively use active gears, while passive gears are dominantly used by smaller vessels.
+&lt;/p&gt;
+&lt;p&gt;
+Over the period 2019–2023, eight species (herring, Norway lobster, sprat, mackerel, sandeel, plaice, cod, and northern
+shrimp) constituted 75% of the total landings value. Landings value from vessels &gt; 24 m constituted 64% of the total
+landings value, while the 12–24 m vessels contributed 32% and the remaining landings value (4%) was taken by the smaller
+vessels. Most of the total landings value is from the North Sea (72%), followed by the Skagerrak (23%) and the Kattegat
+(6%). Three-quarters of the total landings comprised sandeel, sprat, herring, and Norway pout.
+&lt;/p&gt;
+&lt;p&gt;The following are the main fisheries:&lt;/p&gt;
+&lt;p&gt;Fisheries for species for production of fishmeal and oils. Sandeel, sprat and Norway pout are caught with predominantly small-meshed trawl. All three species are taken mainly by the larger vessels.&lt;/p&gt;
+&lt;p&gt;Fisheries for small pelagic. Herring and mackerel are almost entirely taken by the largest vessels with pelagic gears.&lt;/p&gt;
+&lt;p&gt;Demersal fisheries with mobile gears target species like cod, plaice, saithe, and anglerfish using predominantly bottom trawls with some seine activity. Some demersal fisheries, especially in the Skagerrak and Kattegat, also target Norway lobster.&lt;/p&gt;
+&lt;p&gt;Demersal fisheries with static gears, mainly set-nets with mesh size determined by the target species. The most economically important species include plaice, cod, turbot, sole, and hake. About 20% of Danish landings value of all demersal fish species for human consumption are fished by passive gears.&lt;/p&gt;
+&lt;p&gt;Fisheries for northern shrimp with &gt; 32 mm meshed bottom trawl.&lt;/p&gt;
+&lt;h4&gt;France&lt;/h4&gt;
+&lt;p&gt;
+In 2023, the French commercial fishing fleet operating in the ecoregion consisted of 1 357 active vessels, of which more
+than 1 123 took at least 80% of their landings from the area. The number of vessels has been gradually decreasing: in 2010,
+1 796 vessels were active, of which 1 299 took at least 80% of their landings.
+&lt;/p&gt;
+&lt;p&gt;
+Fisheries vary across the different size categories of vessels:
+&lt;/p&gt;
+&lt;p&gt;The small vessel (&lt; 12 m) sector is the largest part of the French North Sea fleet, with 963 active vessels in 2023.
+The fleet uses a wide range of gears such as pots, which are used to target whelks, crabs, and lobsters. Dredge
+fisheries for king scallops are also important for this sector. Gill and trammelnets are also used to catch sole,
+plaice, lesser spotted dogfish, and starry smooth-hound.&lt;/p&gt;
+&lt;p&gt;Catches by the 12–24 m sector (332 vessels) are made by some bigger netters mostly targeting sole and vessel
+using demersal trawls and seines to fish for demersal species such as lesser-spotted dogfish, thornback ray, plaice,
+sole, squids, and horse mackerel.&lt;/p&gt;
+&lt;p&gt;Vessels 24–40 m in length (52) mostly use demersal trawls and seines to fish for demersal species such as squids,
+whiting, and plaice but also mackerel and herring.&lt;/p&gt;
+&lt;p&gt;The &gt; 40 m sector comprised 10 vessels in 2023. These were demersal trawlers mainly fishing for saithe and
+pelagic trawlers fishing for herring or mackerel.&lt;/p&gt;
+&lt;p&gt;
+The most important species in terms of value are king scallop, whelk, squids, cuttlefish, saithe, mackerel, sole, herring, and
+anglerfish. Scallop and whelk are becoming increasingly important while cod no longer plays a large role, particularly in the
+southern North Sea and the channel. Sole importance is also decreasing, following the decrease in abundance in these
+areas, and striped red mullet had greater economic importance before 2010. In terms of weight, whiting was also
+important, but its importance has decreased in the last years. The respective importance of these species will depend on
+the gear used and the fishing areas (and therefore also on the size of the vessels).
+&lt;/p&gt;
+&lt;h4&gt;Germany&lt;/h4&gt;
+&lt;p&gt;
+The German North Sea fishing fleet comprises around 190 vessels. Small beam trawlers of 12–24 m length constitute the
+largest fleet component (146 vessels in 2023) and almost exclusively target brown shrimp in the southern North Sea. In
+addition, some medium- and large-sized beam trawlers (three vessels, 24–40 m length; three vessels &gt; 40 m length) target
+sole and plaice and farm and harvest mussel. Few otter trawlers (18–24 m length) target Norway lobster and plaice in the
+North Sea. Medium-sized otter trawlers (nine vessels, 24–40 m length) mainly target saithe in the northern North Sea but
+also catch plaice, cod, hake, and haddock. Large pelagic trawlers (five vessels &gt; 40 m in length in 2023) operate in the North
+Sea pelagic and industrial fisheries that primarily target herring but also catch mackerel, sprat, and sandeel.
+&lt;/p&gt;
+&lt;p&gt;
+The main German fisheries in the Greater North Sea are:
+&lt;/p&gt;
+&lt;p&gt;The Brown shrimp (Crangon crangon) fishery in the southern North Sea (e.g. Wadden Sea area), consisting of
+mainly small beam trawlers 12–24 m in length. The number of vessels has decreased over the last 10 years. In
+most recent years, catches have also drastically decreased. However, in terms of value, this fleet is still the most
+important in the German fishery.&lt;/p&gt;
+&lt;p&gt;A pelagic fleet consisting of five large trawlers over 40 m in length. This number has been almost stable over the
+last 10 years. In terms of biomass, it primarily catches herring, followed by mackerel, sandeel and sprat.&lt;/p&gt;
+&lt;p&gt;Demersal otter trawlers (24–40 m length), of which three vessels target mainly saithe, while the others focus more
+on cod, plaice, haddock, and Norway lobster.&lt;/p&gt;
+&lt;p&gt;
+With the exception of the large pelagic trawlers, the number of vessels has declined in all fleets in the German North Sea
+fishery over the last decade. The greatest declines have been in the number of smaller beam trawlers (12–18 m length)
+and demersal otter trawlers (18–24 m length).
+&lt;/p&gt;
+&lt;h4&gt;Netherlands&lt;/h4&gt;
+&lt;p&gt;
+The Dutch fleet comprises around 600 vessels that actively fish in the ecoregion. The main landed species by quantity are
+blue whiting, herring, mackerel, plaice, sole, and brown shrimp.
+&lt;/p&gt;
+&lt;p&gt;
+The main fleet components are:
+&lt;/p&gt;
+&lt;p&gt;Large beam trawlers (&gt; 24 m, 35 vessels) mainly targeting sole and plaice and with bycatch of, among others,
+turbot, brill, rays, and gurnards. Fishing effort is concentrated in the southern and central North Sea. Effort and
+landings have both declined in recent years. From 2009 a large part of the fleet switched to electric pulse gear,
+which was banned in 2021, and subsequently, the fleet was subject to a large decommissioning programme in
+2022–2023.&lt;/p&gt;
+&lt;p&gt;Small beam trawlers (&lt; 24 m, known as “eurocutters”; 180 vessels) operate mainly in the southern and central
+North Sea targeting brown shrimp and seasonally switch to sole and plaice. The brown shrimp fishery takes
+place particularly close to the coast, with decreased landings in recent years.&lt;/p&gt;
+&lt;p&gt;Pelagic (freezer) trawlers (&gt; 40 m, eight vessels) targeting herring, mackerel, and horse mackerel. Fishing in the
+ecoregion occurs mainly in the eastern English Channel and northern North Sea, with herring being the main
+target species. For this sector, most fishing takes place outside the ecoregion.&lt;/p&gt;
+&lt;p&gt;Demersal mobile gears (24–40 m, 40 vessels, of which around 20 use flyshoot gear [also known as Scottish
+seine]). The number of flyshooting vessels has increased since 2010. These vessels operate in the central and
+southern North Sea in summer and often move to the English Channel in autumn and winter. They mainly
+target demersal fish such as gurnards and striped red mullet as well as mackerel, squid and cuttlefish. Around
+20 vessels use bottom otter boards and target flatfish such as plaice and seasonally target Norway lobster in the
+southern and central North Sea. In recent years there has been a substantial increase in squid landings by this
+fleet in winter.&lt;/p&gt;
+&lt;p&gt;Small-scale and coastal fleet vessels (&lt; 12 m; 223 vessels). This fleet mainly targets sea bass and sole using
+gillnets. Many are semi-commercial operations fishing only seasonally and represent a very small share of
+landings.&lt;/p&gt;
+&lt;h4&gt;Norway&lt;/h4&gt;
+&lt;p&gt;
+In 2023, 1 190 active vessels were administered from ports along the Norwegian coast of the ecoregion. Of these, 931 were
+&lt; 11 m, 130 were 11–15 m, 34 were 15–28 m and 95 were &gt; 28 m. The number of vessels with licences has been fairly
+stable over the last decade. Pelagic (herring and mackerel), industrial (Norway pout, blue whiting, greater Argentine, and
+sandeel), and saithe are the dominant fisheries in terms of volume. In terms of value, fisheries for northern shrimp and
+wrasses are also important. The number of vessels has been relatively stable in the past decade.
+&lt;/p&gt;
+&lt;p&gt;
+The main fisheries are:
+&lt;/p&gt;
+&lt;p&gt;The pelagic fishery for mackerel and herring with purse-seine and trawl, consisting of vessels &gt; 15 m. Most vessels
+are allowed to use both gears. 35 vessels with purse-seine licenses in 2023.&lt;/p&gt;
+&lt;p&gt;The industrial fishery by small-mesh trawl: Norway pout, blue whiting and greater Argentine are fished in a mixed
+fishery, while the sandeel fishery is conducted separately.&lt;/p&gt;
+&lt;p&gt;The northern shrimp fishery; This is a trawl fishery taking place in Skagerrak only. The landings have shown a
+declining trend in recent years. Vessels of all sizes take part here. About 15 large vessels have licenses.&lt;/p&gt;
+&lt;p&gt;The small-scale fishery is mainly &lt; 11 m, with coastal vessels, using mainly gillnet and pots. These vessels fish on
+crabs, lobster, Norway lobster and various fish. Also, many fish cleaner-fish for aquaculture using pots, mainly for
+wrasses (mainly Symphodus melops and Ctenolabrus rupestris).&lt;/p&gt;
+&lt;p&gt;The demersal trawl fishery, mainly for saithe and cod, with large vessels.&lt;/p&gt;
+&lt;p&gt;The gillnet fishery for saithe and cod, with vessels of all sizes.&lt;/p&gt;
+&lt;h4&gt;Sweden&lt;/h4&gt;
+&lt;p&gt;
+The Swedish fleet in the ecoregion in 2023 comprised more than 400 vessels. Most of these only operate in the Skagerrak
+and Kattegat, but a few also fish in the North Sea. Three hundred twenty-four vessels are small (&lt; 12 m); 84 are between
+12–40 m length, and only six are longer than 40m. The main target species in terms of value are herring, Norway lobster,
+sandeel, northern shrimp, and sprat, while the main target species in terms of volume are sandeel, herring, sprat, mackerel,
+and Norway lobster.
+&lt;/p&gt;
+&lt;p&gt;
+The Swedish fisheries in the Greater North Sea are:
+&lt;/p&gt;
+&lt;p&gt;The pelagic fishery with active gear in Skagerrak, Kattegat and North Sea. This fishery comprises mostly large
+vessels (&gt; 40 m) operating pelagic and sandeel trawls and is almost exclusively within the North Sea (99% in 2023).
+In the last 10 years, the number of vessels has decreased from 25 to 12. The main landed species in terms of
+quantity are sandeel, herring, sprat, and mackerel.&lt;/p&gt;
+&lt;p&gt;The fishery for Northern shrimp in Skagerrak, Kattegat, and North Sea. This fishery comprises mostly medium-
+sized vessels (12–40 m) operating shrimp trawls with a grid, and with or without a fish tunnel. In the last 10 years
+the number of vessels has decreased from 62 to 52. The majority (80%) of the landings of this fleet in 2023 come
+from Skagerrak.&lt;/p&gt;
+&lt;p&gt;The bottom-trawl fishery targeting Norway lobster and fish in Skagerrak and Kattegat. This fishery comprises
+mostly medium-sized vessels (12–40 m) operating bottom trawls with Norway lobster grid (23% of landings in
+2023), bottom trawls with mesh sizes of larger than 120 mm (42% of the landings in 2023), and bottom trawls
+with mesh sizes of between 90 and 119 mm and a SELTRA panel. Around 115 vessels fish in this sector, and the
+number of vessels has been relatively stable in the last 10 years. Around 77% of the landings of this fleet in 2023
+came from the Skagerrak. The main landed species in terms of quantities are Norway lobster, cod, haddock, and
+saithe.&lt;/p&gt;
+&lt;p&gt;The bottom-trawl fishery targeting fish in the North Sea. This fishery comprises only medium-sized vessels (12–
+40 m) operating mostly fish trawls with mesh sizes larger than 120 mm. In the last 10 years, the number of vessels
+has decreased from nine to five. The main landed species in terms of quantity are saithe, cod, anglerfish, and
+haddock.&lt;/p&gt;
+&lt;p&gt;The fleet using mainly passive gears consists of around 300 vessels (mostly small-size vessels &lt; 12 m). Most of
+these use pots to target Norway lobster, lobster, and edible crab, while others use gillnets and lines to target both
+demersal and pelagic species. The Swedish passive gear fisheries are almost exclusively located in the Skagerrak
+and Kattegat.&lt;/p&gt;
+&lt;h4&gt;UK (England)&lt;/h4&gt;
+&lt;p&gt;
+There were 1 352 fishing vessels administered from ports along the English coast of the ecoregion in 2022. These vessels
+target a wide range of different species, with around 39% of landings over the last five years being shellfish, 35% pelagic
+species, and the remaining 26% demersal or benthic species.
+&lt;/p&gt;
+&lt;p&gt;Fisheries vary across the different size categories of vessels:&lt;/p&gt;
+&lt;p&gt;The small vessel (&lt; 10 m) sector is the largest part of the English North Sea fleet, with 1 110 registered vessels in
+2022, down from 1 271 in 2018. The fleet uses a wide range of gears, but the most important is pots, which are
+used to target whelks, crabs, and lobsters. Dredge fisheries for cockles are also important for this sector. Some
+demersal species are also caught, with the top five being Norway lobster, sole, thornback ray, sea bass, and plaice.&lt;/p&gt;
+&lt;p&gt;Catches by the 10–15 m sector are almost exclusively shellfish with the major fisheries being pot fisheries for
+whelk, crabs, and lobsters, dredge fisheries for cockles and scallops, and trawl fisheries for Norway lobster. The
+number of vessels in this sector has remained relatively stable in recent years, with 183 in 2022.&lt;/p&gt;
+&lt;p&gt;Vessels between 15 and 40 m in length mostly use demersal trawls and seines to fish for demersal species,
+primarily gadoids and plaice. A few vessels also participate in the pot and dredge fisheries, primarily targeting
+crabs and scallops. The number of vessels in this sector has shown a gradual decline over recent years, with 50
+registered in 2022.&lt;/p&gt;
+&lt;p&gt;The &gt; 40 m sector comprised nine vessels in 2022: three pelagic trawlers fishing for herring, mackerel, and horse
+mackerel, four beam trawlers targeting plaice, and two demersal trawlers, one of which mainly fished for saithe.&lt;/p&gt;
+&lt;h4&gt;UK (Scotland)&lt;/h4&gt;
+&lt;p&gt;
+The Scottish North Sea fleet comprised 1 109 vessels in 2022, of which approximately 70% were &lt; 10 m. In terms of
+tonnage, pelagic, demersal and shellfish species made up 70%, 20%, and 10% respectively of all North Sea landings. Main
+target species include mixed gadoids (cod, haddock, whiting, saithe, and hake), anglerfish, megrim, herring, mackerel,
+Norway lobster, scallops, and various crab species. The vast majority of pelagic species were caught using pelagic trawls
+(96%). Of the demersal landings, 80% were taken using demersal trawls, 15% with seine nets, and a small amount (4%)
+taken with hooks and gillnets. Of the shellfish landings, 25% were taken using creels/pots, 41% using Norway lobster otter
+trawls, and 31% using dredges.
+&lt;/p&gt;
+&lt;p&gt;The main fisheries are:&lt;/p&gt;
+&lt;p&gt;
+&lt;p&gt;Offshore demersal otter trawlers. In 2022, 76 demersal trawlers (&gt; 10 m and using codend mesh sizes of
+&gt; 120 mm) fished for mixed gadoids (cod, haddock, whiting, saithe, and hake) and benthic species such as
+anglerfish and megrim. Since 2012, there has been a reduction in vessel numbers of 30%. Fishing grounds are
+focused mostly on the northern North Sea.&lt;/p&gt;
+&lt;p&gt;Norway lobster trawlers. In 2022, a fleet of 156 trawlers fished mainly for Norway lobster in the North Sea using
+otter trawls with codend mesh sizes of &lt; 120 mm and the number of vessels has fluctuated by up to 23% since
+2012 but without a clear trend. In 2022, 37 of these vessels (&lt; 10 m) operated on the inshore grounds, while 119
+( &gt; 10 m) operated over various offshore grounds.&lt;/p&gt;
+&lt;p&gt;Inshore pot (also termed creel). Pot or creel fishing was conducted by 577 vessels in 2022 (mostly &lt; 10 m)
+targeting lobsters and various crab species on harder inshore grounds. Vessel numbers have decreased by 12%
+since 2019.&lt;/p&gt;
+&lt;p&gt;Scallop dredgers. Scallop fishing was carried out by around 60 dredgers (mostly &gt; 10 m) focused mostly on the
+east coast of Scotland and northern England but also in the Channel. The number of vessels in this fleet has
+decreased by 21% since 2017.&lt;/p&gt;
+&lt;p&gt;Longlining and gillnetting. Limited longlining and gillnetting activities were conducted by 176 Scottish vessels in
+2022. The number of vessels in this fleet has increased by 45% since 2012. Of the vessels fishing in 2022, 41
+operated along the shelf edge targeting benthic/demersal species such as anglerfish, hake, and ling. Meanwhile,
+135 vessels (&lt; 10 m) targeted pelagic species (mostly mackerel) in inshore areas.&lt;/p&gt;
+&lt;p&gt;Pelagic trawlers. Substantial catches of pelagic species (mackerel and herring) were taken by 22 large vessels (21
+of which are ≥ 40 m), primarily using pelagic trawls. Vessel numbers have been relatively stable since 2012.&lt;/p&gt;
+&lt;h4&gt;Other&lt;/h4&gt;
+&lt;p&gt;
+The Faroe Islands also fish in the Greater North Sea, but ICES does not have information on this fleet.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Main patterns and Trends: &lt;/p&gt;
+&lt;p&gt;Pelagic fisheries dominate landings (by volume) in the ecoregion. Blue whiting constitutes the highest proportion of pelagic landings, followed by mackerel. &lt;/p&gt;
+&lt;p&gt;Pelagic landings peaked in 1998 and in 2018 and ranged from [534] to [835] thousand tonnes in 2019-2023. &lt;/p&gt;
+&lt;p&gt;Annual mackerel landings have been below 200 thousand tonnes since 2018. Landings of herring and horse mackerel have been declining since the mid/late 1990s. &lt;/p&gt;
+&lt;p&gt;Demersal fisheries landings peaked in 1989 and have been generally decreasing since. &lt;/p&gt;
+&lt;p&gt;Hake accounts for most demersal landings since 2011, followed by haddock and whiting. The relative importance of cod, saithe and ling to demersal landings has been declining since the late 1980s. &lt;/p&gt;
+&lt;p&gt;Shellfish landings are dominated by Nephrops and have remained relatively stable in the last few decades, although generally lower since 2018. &lt;/p&gt;
+&lt;p&gt;Benthic landings have been generally stable since the late 1980s and higher since 2016. Anglerfish and megrim account for most benthic landings in the ecoregion &lt;/p&gt;
+&lt;p&gt;Landings of elasmobranchs have been variable over time although relatively stable at lower values since 2009. Since 2010, the cuckoo ray, small-spotted catshark, thornback ray and blonde ray account for most landings of elasmobranchs in the ecoregion.&lt;/p&gt;
+&lt;p&gt;The UK generally accounts for most fisheries landings in the ecoregion, followed by Ireland. Norwegian landings were highest in 2018-2020. &lt;/p&gt;
+&lt;p&gt;Otter trawling and seining is the dominant fishing effort, though has decline significantly over the time-series. Fishing effort by most other gears have also declined over the period, though more recently there has been a small increase in beam trawling (Figure 4). There are fluctuations in pelagic landings (Figure 5). Landings by demersal otter trawls, beam trawlers, pots, and static gears (mostly gillnet) have been relatively stable.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The average discard rate among pelagic stocks is estimated to be very low. &lt;/p&gt;
+&lt;p&gt;The estimated average discard rate for elasmobranchs stocks is high and ranges 30% to 75%. &lt;/p&gt;
+&lt;p&gt;The average discard rate among demersal stocks ranges from 9% to 22% and is generally around 15%. &lt;/p&gt;
+&lt;p&gt;Crustacean and benthic stocks have an estimated average discard rate of around 10%. &lt;/p&gt;
+&lt;p&gt;Discard rates for some species are very high in the ecoregion, for example plaice (around 60% of tonnage) and whiting (50–99% of tonnage).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;ICES currently provides advice for 112 stocks in the ecoregion. Of these, 9 (8%) benthic, 7 (6.2 %) pelagic, 10 (8.9 %) shellfish (Nephrops), 1 (0.8%) elasmobranch, and 17 (15.2%) demersal stocks have an ICES category 1 quantitative stock assessments. Demersal stocks include the three substocks of cod.27.46a7d20 (Northwestern, Viking, and Southern). Stock status is evaluated in terms of fishing mortality (F) and spawning-stock biomass (SSB) levels relative to the maximum sustainable yield (MSY) (F &lt; FMSY and SSB &gt; MSY Btrigger) and precautionary approach (PA) reference points (F &lt; FPA and SSB &gt; BPA).&lt;/p&gt;
+&lt;p&gt;In 2024, 39 (34.8%) of the assessed stocks are fished at or below FMSY levels, and 41 (36.6%) have a stock size equal to or above MSY Btrigger. These stocks account for 66.5% of total landings over the assessment area, which extends beyond the ecoregion. 24 (21.4%) of the assessed stocks are currently fished above FMSY and account for 90% of total landings over the assessment area.&lt;/p&gt;
+&lt;p&gt;Assessed stocks with unknown status relative to MSY and BPA represent 43% and 68%, respectively, of the stocks in the ecoregion. Stocks with unknown status relative to MSY account for 1.5% of total landings (although the assessment area for some stocks extends beyond the ecoregion)&lt;/p&gt;
+&lt;p&gt;Of the ten stocks that currently contribute most of the catch and landings in the ecoregion, haddock (had.27.46a20), boarfish (boc.27.6-8), hake (hke.27.3a46-abd), and anglerfish (mon.27.78abd) have a stock status above MSY Btrigger and fishing pressure below the FMSY, while mackerel (mac.27.nea), herring (her.27.nirs), cod (cod.27.7e-k), cod (cod.27.46a7d20 (all 3 sub-stocks)) and whiting (whg.27.7a) and (whg.27.7b-ce-k) are below MSY Btrigger and are currently fished above FMSY.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;On average, the spawning-stock size in all guilds (mean SSB/MSYBtrigger ratio) is currently above one, although it ranges from 3.2 to 1.3 among stocks. Fishing pressure for the elasmobranch, benthic, shellfish and pelagic guilds on average is currently below FMSY (range from 0.5 to 0.89 among stocks), while demersal species are fished above FMSY (mean F/FMSY ratio of 1.3).&lt;/p&gt;
+&lt;p&gt;For the elasmobranch guild, the mean F/FMSY ratio has declined since the 1990s and is currently below one. The mean SSB/MSY Btrigger ratio has increased since the 1980s and is currently above one.&lt;/p&gt;
+&lt;p&gt;For the benthic guild, the mean F/FMSY ratio has declined since the mid-1990s and is currently below one. The mean SSB/MSY Btrigger ratio has gradually increased since 2000 and is currently above one.&lt;/p&gt;
+&lt;p&gt;For the shellfish guild, the mean F/FMSY ratio shows strong fluctuations about a gradual decline from the mid-2000s and is currently below one. The mean SSB/MSY Btrigger ratio has remained above one and fairly stable throughout the time-series and is currently above one.&lt;/p&gt;
+&lt;p&gt;For the demersal guild, the mean F/FMSY ratio has declined since the 1990s and is currently above one. The mean SSB/MSY Btrigger ratio shows a small, gradual increase since 2000 and is currently above one.&lt;/p&gt;
+&lt;p&gt;For the pelagic guild, the mean F/FMSY ratio has fluctuated (mostly above one) since the 1990s and is currently below one. The mean SSB/MSY Btrigger ratio has remained fairly stable above one since the mid-1990s and is currently above one.&lt;/p&gt;
+&lt;p&gt;Not all species with catch advice are assessed against any PA or MSY reference points because these points are undefined; this includes European eel, salmon, and category 3 and 4 stocks.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -4729,17 +4838,17 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="255.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4747,28 +4856,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.35">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>892</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -4784,3225 +4893,3225 @@
       <selection activeCell="A2" sqref="A2:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="168.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.81640625" customWidth="1"/>
-    <col min="17" max="17" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="168.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.77734375" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="C10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C15" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="9" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="10" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="10" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="10" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="10" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="10" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="10" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="10" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="10" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="10" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="10" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="10" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="10" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="10" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="10" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="10" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="10" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="B37" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
+      <c r="C37" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="10" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="10" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="B39" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="10" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="10" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="B41" s="10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="10" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="10" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="B43" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="10" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="10" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="B45" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="10" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="B46" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="10" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="B47" s="10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="10" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="B48" s="10" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="10" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="B49" s="10" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="10" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B50" s="10" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="B51" s="10" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="10" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="B52" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="10" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="B53" s="10" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="10" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B54" s="10" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="B55" s="10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="10" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B56" s="10" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B57" s="10" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="B58" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="10" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="B59" s="10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B59" s="10" t="s">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B60" s="10" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="B61" s="10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B61" s="10" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B62" s="10" t="s">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="B63" s="10" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B63" s="10" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="B64" s="10" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B64" s="10" t="s">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="B65" s="10" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B65" s="10" t="s">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="B66" s="10" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B66" s="10" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="B67" s="10" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B67" s="10" t="s">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="B68" s="10" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B68" s="10" t="s">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="B69" s="10" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B69" s="10" t="s">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="B70" s="10" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B70" s="10" t="s">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="B71" s="10" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B71" s="10" t="s">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="B72" s="10" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B72" s="10" t="s">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="B73" s="10" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B73" s="10" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="B74" s="10" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B74" s="10" t="s">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="B75" s="10" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B75" s="10" t="s">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="B76" s="10" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B76" s="10" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="B77" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B77" s="10" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="B78" s="10" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B78" s="10" t="s">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="B79" s="10" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B79" s="10" t="s">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="B80" s="10" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B80" s="10" t="s">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="B81" s="10" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B81" s="10" t="s">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="B82" s="10" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B82" s="10" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="B83" s="10" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B83" s="10" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="B84" s="10" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B84" s="10" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="B85" s="10" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B85" s="10" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="B86" s="10" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B86" s="10" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="B87" s="10" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B87" s="10" t="s">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="B88" s="10" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B88" s="10" t="s">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="B89" s="10" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B89" s="10" t="s">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="B90" s="10" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B90" s="10" t="s">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="B91" s="10" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B91" s="10" t="s">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="B92" s="10" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="B92" s="10" t="s">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="B93" s="10" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B93" s="10" t="s">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="B94" s="10" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B94" s="10" t="s">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="B95" s="10" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B95" s="10" t="s">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="B96" s="10" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B96" s="10" t="s">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="B97" s="10" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="10" t="s">
+      <c r="C97" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B97" s="10" t="s">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="B98" s="10" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="10" t="s">
+      <c r="C98" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B98" s="10" t="s">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="B99" s="10" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="10" t="s">
+      <c r="C99" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B99" s="10" t="s">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="B100" s="10" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="10" t="s">
+      <c r="C100" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B100" s="10" t="s">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="B101" s="10" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="10" t="s">
+      <c r="C101" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B101" s="10" t="s">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="B102" s="10" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="10" t="s">
+      <c r="C102" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B102" s="10" t="s">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="B103" s="10" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="10" t="s">
+      <c r="C103" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B103" s="10" t="s">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="B104" s="10" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="10" t="s">
+      <c r="C104" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B104" s="10" t="s">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="B105" s="10" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="10" t="s">
+      <c r="C105" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B105" s="10" t="s">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="B106" s="10" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="10" t="s">
+      <c r="C106" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B106" s="10" t="s">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="B107" s="10" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="10" t="s">
+      <c r="C107" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B107" s="10" t="s">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="B108" s="10" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="10" t="s">
+      <c r="C108" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B108" s="10" t="s">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="B109" s="10" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B109" s="10" t="s">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="B110" s="10" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="10" t="s">
+      <c r="C110" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B110" s="10" t="s">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="B111" s="10" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B111" s="10" t="s">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="B112" s="10" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="10" t="s">
+      <c r="C112" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B112" s="10" t="s">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="B113" s="10" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="10" t="s">
+      <c r="C113" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B113" s="10" t="s">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="B114" s="10" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="10" t="s">
+      <c r="C114" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B114" s="10" t="s">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="B115" s="10" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="10" t="s">
+      <c r="C115" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B115" s="10" t="s">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="B116" s="10" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="10" t="s">
+      <c r="C116" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B116" s="10" t="s">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="B117" s="10" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="10" t="s">
+      <c r="C117" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B117" s="10" t="s">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="B118" s="10" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="10" t="s">
+      <c r="C118" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="B118" s="10" t="s">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="B119" s="10" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="10" t="s">
+      <c r="C119" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B119" s="10" t="s">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="B120" s="10" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="10" t="s">
+      <c r="C120" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B120" s="10" t="s">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="B121" s="10" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="10" t="s">
+      <c r="C121" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B121" s="10" t="s">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="B122" s="10" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="10" t="s">
+      <c r="C122" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B122" s="10" t="s">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="B123" s="10" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="10" t="s">
+      <c r="C123" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B123" s="10" t="s">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="B124" s="10" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="10" t="s">
+      <c r="C124" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="B124" s="10" t="s">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="B125" s="10" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="10" t="s">
+      <c r="C125" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="B125" s="10" t="s">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="B126" s="10" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="10" t="s">
+      <c r="C126" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="B126" s="10" t="s">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="B127" s="10" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="10" t="s">
+      <c r="C127" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="B127" s="10" t="s">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="B128" s="10" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="10" t="s">
+      <c r="C128" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="B128" s="10" t="s">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="B129" s="10" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="10" t="s">
+      <c r="C129" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B129" s="10" t="s">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="B130" s="10" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="10" t="s">
+      <c r="C130" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B130" s="10" t="s">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="B131" s="10" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B131" s="10" t="s">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="B132" s="10" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="10" t="s">
+      <c r="C132" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B132" s="10" t="s">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="B133" s="10" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" s="10" t="s">
+      <c r="C133" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B133" s="10" t="s">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="B134" s="10" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B134" s="10" t="s">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="B135" s="10" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="B135" s="10" t="s">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="B136" s="10" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="10" t="s">
+      <c r="C136" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B136" s="10" t="s">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="B137" s="10" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="10" t="s">
+      <c r="C137" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B137" s="10" t="s">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="B138" s="10" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="10" t="s">
+      <c r="C138" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="B138" s="10" t="s">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="B139" s="10" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="10" t="s">
+      <c r="C139" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B139" s="10" t="s">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="B140" s="10" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="10" t="s">
+      <c r="C140" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B140" s="10" t="s">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="B141" s="10" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="10" t="s">
+      <c r="C141" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B141" s="10" t="s">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="B142" s="10" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="10" t="s">
+      <c r="C142" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="B142" s="10" t="s">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="B143" s="10" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="10" t="s">
+      <c r="C143" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B143" s="10" t="s">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="B144" s="10" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="10" t="s">
+      <c r="C144" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B144" s="10" t="s">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="B145" s="10" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" s="10" t="s">
+      <c r="C145" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B145" s="10" t="s">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="B146" s="10" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" s="10" t="s">
+      <c r="C146" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B146" s="10" t="s">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="B147" s="10" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="10" t="s">
+      <c r="C147" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="B147" s="10" t="s">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="B148" s="10" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" s="10" t="s">
+      <c r="C148" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B148" s="10" t="s">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="B149" s="10" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" s="10" t="s">
+      <c r="C149" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B149" s="10" t="s">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="B150" s="10" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" s="10" t="s">
+      <c r="C150" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B150" s="10" t="s">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="B151" s="10" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" s="10" t="s">
+      <c r="C151" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B151" s="10" t="s">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="B152" s="10" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="10" t="s">
+      <c r="C152" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B152" s="10" t="s">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="B153" s="10" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" s="10" t="s">
+      <c r="C153" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="B153" s="10" t="s">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="B154" s="10" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" s="10" t="s">
+      <c r="C154" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B154" s="10" t="s">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="B155" s="10" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" s="10" t="s">
+      <c r="C155" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B155" s="10" t="s">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="B156" s="10" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" s="10" t="s">
+      <c r="C156" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B156" s="10" t="s">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="B157" s="10" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" s="10" t="s">
+      <c r="C157" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B157" s="10" t="s">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="B158" s="10" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" s="10" t="s">
+      <c r="C158" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="B158" s="10" t="s">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="B159" s="10" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="10" t="s">
+      <c r="C159" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="B159" s="10" t="s">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="B160" s="10" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="10" t="s">
+      <c r="C160" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B160" s="10" t="s">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="B161" s="10" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="10" t="s">
+      <c r="C161" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B161" s="10" t="s">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="B162" s="10" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="10" t="s">
+      <c r="C162" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="B162" s="10" t="s">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="B163" s="10" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="10" t="s">
+      <c r="C163" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="B163" s="10" t="s">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="B164" s="10" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="10" t="s">
+      <c r="C164" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B164" s="10" t="s">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="B165" s="10" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" s="10" t="s">
+      <c r="C165" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="B165" s="10" t="s">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="B166" s="10" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="10" t="s">
+      <c r="C166" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="B166" s="10" t="s">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="B167" s="10" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="10" t="s">
+      <c r="C167" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B167" s="10" t="s">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="B168" s="10" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="10" t="s">
+      <c r="C168" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B168" s="10" t="s">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="B169" s="10" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" s="10" t="s">
+      <c r="C169" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B169" s="10" t="s">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="B170" s="10" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="10" t="s">
+      <c r="C170" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="B170" s="10" t="s">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="B171" s="10" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="10" t="s">
+      <c r="C171" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="B171" s="10" t="s">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="B172" s="10" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="10" t="s">
+      <c r="C172" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B172" s="10" t="s">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="B173" s="10" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="10" t="s">
+      <c r="C173" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="B173" s="10" t="s">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="B174" s="10" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="10" t="s">
+      <c r="C174" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="B174" s="10" t="s">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="B175" s="10" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="10" t="s">
+      <c r="C175" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="B175" s="10" t="s">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="B176" s="10" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="10" t="s">
+      <c r="C176" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="B176" s="10" t="s">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="B177" s="10" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="10" t="s">
+      <c r="C177" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="B177" s="10" t="s">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="B178" s="10" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="10" t="s">
+      <c r="C178" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="B178" s="10" t="s">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="C178" s="10" t="s">
+      <c r="B179" s="10" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="10" t="s">
+      <c r="C179" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="B179" s="10" t="s">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="B180" s="10" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="10" t="s">
+      <c r="C180" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="B180" s="10" t="s">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="B181" s="10" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="10" t="s">
+      <c r="C181" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="B181" s="10" t="s">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="B182" s="10" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="10" t="s">
+      <c r="C182" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="B182" s="10" t="s">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="C182" s="10" t="s">
+      <c r="B183" s="10" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="10" t="s">
+      <c r="C183" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="B183" s="10" t="s">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="C183" s="10" t="s">
+      <c r="B184" s="10" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="10" t="s">
+      <c r="C184" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="B184" s="10" t="s">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="B185" s="10" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" s="10" t="s">
+      <c r="C185" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="B185" s="10" t="s">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C185" s="10" t="s">
+      <c r="B186" s="10" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" s="10" t="s">
+      <c r="C186" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="B186" s="10" t="s">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="B187" s="10" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="10" t="s">
+      <c r="C187" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="B187" s="10" t="s">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="B188" s="10" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" s="10" t="s">
+      <c r="C188" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="B188" s="10" t="s">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="B189" s="10" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" s="10" t="s">
+      <c r="C189" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="B189" s="10" t="s">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="C189" s="10" t="s">
+      <c r="B190" s="10" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" s="10" t="s">
+      <c r="C190" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="B190" s="10" t="s">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="C190" s="10" t="s">
+      <c r="B191" s="10" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="10" t="s">
+      <c r="C191" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="B191" s="10" t="s">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="B192" s="10" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="10" t="s">
+      <c r="C192" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="B192" s="10" t="s">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="B193" s="10" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="10" t="s">
+      <c r="C193" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="B193" s="10" t="s">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="B194" s="10" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="10" t="s">
+      <c r="C194" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="B194" s="10" t="s">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="C194" s="10" t="s">
+      <c r="B195" s="10" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="10" t="s">
+      <c r="C195" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="B195" s="10" t="s">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="C195" s="10" t="s">
+      <c r="B196" s="10" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="10" t="s">
+      <c r="C196" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="B196" s="10" t="s">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="C196" s="10" t="s">
+      <c r="B197" s="10" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="10" t="s">
+      <c r="C197" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="B197" s="10" t="s">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="C197" s="10" t="s">
+      <c r="B198" s="10" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="10" t="s">
+      <c r="C198" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="B198" s="10" t="s">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="C198" s="10" t="s">
+      <c r="B199" s="10" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="10" t="s">
+      <c r="C199" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="B199" s="10" t="s">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="C199" s="10" t="s">
+      <c r="B200" s="10" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" s="10" t="s">
+      <c r="C200" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="B200" s="10" t="s">
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="B201" s="10" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" s="10" t="s">
+      <c r="C201" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="B201" s="10" t="s">
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="B202" s="10" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" s="10" t="s">
+      <c r="C202" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B202" s="10" t="s">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="C202" s="10" t="s">
+      <c r="B203" s="10" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" s="10" t="s">
+      <c r="C203" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="B203" s="10" t="s">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="B204" s="10" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204" s="10" t="s">
+      <c r="C204" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="B204" s="10" t="s">
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="C204" s="10" t="s">
+      <c r="B205" s="10" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" s="10" t="s">
+      <c r="C205" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="B205" s="10" t="s">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="C205" s="10" t="s">
+      <c r="B206" s="10" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" s="10" t="s">
+      <c r="C206" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="B206" s="10" t="s">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="B207" s="10" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" s="10" t="s">
+      <c r="C207" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="B207" s="10" t="s">
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="B208" s="10" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" s="10" t="s">
+      <c r="C208" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="B208" s="10" t="s">
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="B209" s="10" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" s="10" t="s">
+      <c r="C209" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="B209" s="10" t="s">
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="C209" s="10" t="s">
+      <c r="B210" s="10" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" s="10" t="s">
+      <c r="C210" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="B210" s="10" t="s">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="C210" s="10" t="s">
+      <c r="B211" s="10" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="10" t="s">
+      <c r="C211" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="B211" s="10" t="s">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="B212" s="10" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" s="10" t="s">
+      <c r="C212" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="B212" s="10" t="s">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="C212" s="10" t="s">
+      <c r="B213" s="10" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" s="10" t="s">
+      <c r="C213" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="B213" s="10" t="s">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="C213" s="10" t="s">
+      <c r="B214" s="10" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" s="10" t="s">
+      <c r="C214" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="B214" s="10" t="s">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="C214" s="10" t="s">
+      <c r="B215" s="10" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" s="10" t="s">
+      <c r="C215" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="B215" s="10" t="s">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="C215" s="10" t="s">
+      <c r="B216" s="10" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" s="10" t="s">
+      <c r="C216" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="B216" s="10" t="s">
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="C216" s="10" t="s">
+      <c r="B217" s="10" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" s="10" t="s">
+      <c r="C217" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="B217" s="10" t="s">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="B218" s="10" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="10" t="s">
+      <c r="C218" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="B218" s="10" t="s">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="C218" s="10" t="s">
+      <c r="B219" s="10" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" s="10" t="s">
+      <c r="C219" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="B219" s="10" t="s">
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="B220" s="10" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" s="10" t="s">
+      <c r="C220" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="B220" s="10" t="s">
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="C220" s="10" t="s">
+      <c r="B221" s="10" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" s="10" t="s">
+      <c r="C221" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="B221" s="10" t="s">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="C221" s="10" t="s">
+      <c r="B222" s="10" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" s="10" t="s">
+      <c r="C222" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="B222" s="10" t="s">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="C222" s="10" t="s">
+      <c r="B223" s="10" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" s="10" t="s">
+      <c r="C223" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="B223" s="10" t="s">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="C223" s="10" t="s">
+      <c r="B224" s="10" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" s="10" t="s">
+      <c r="C224" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="B224" s="10" t="s">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="C224" s="10" t="s">
+      <c r="B225" s="10" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A225" s="10" t="s">
+      <c r="C225" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="B225" s="10" t="s">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="C225" s="10" t="s">
+      <c r="B226" s="10" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A226" s="10" t="s">
+      <c r="C226" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="B226" s="10" t="s">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="C226" s="10" t="s">
+      <c r="B227" s="10" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A227" s="10" t="s">
+      <c r="C227" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="B227" s="10" t="s">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="C227" s="10" t="s">
+      <c r="B228" s="10" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" s="10" t="s">
+      <c r="C228" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="B228" s="10" t="s">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="C228" s="10" t="s">
+      <c r="B229" s="10" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A229" s="10" t="s">
+      <c r="C229" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="B229" s="10" t="s">
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="C229" s="10" t="s">
+      <c r="B230" s="10" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A230" s="10" t="s">
+      <c r="C230" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="B230" s="10" t="s">
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="C230" s="10" t="s">
+      <c r="B231" s="10" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A231" s="10" t="s">
+      <c r="C231" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="B231" s="10" t="s">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="C231" s="10" t="s">
+      <c r="B232" s="10" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A232" s="10" t="s">
+      <c r="C232" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="B232" s="10" t="s">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="C232" s="10" t="s">
+      <c r="B233" s="10" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A233" s="10" t="s">
+      <c r="C233" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="B233" s="10" t="s">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="C233" s="10" t="s">
+      <c r="B234" s="10" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A234" s="10" t="s">
+      <c r="C234" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="B234" s="10" t="s">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="C234" s="10" t="s">
+      <c r="B235" s="10" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A235" s="10" t="s">
+      <c r="C235" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="B235" s="10" t="s">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="C235" s="10" t="s">
+      <c r="B236" s="10" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A236" s="10" t="s">
+      <c r="C236" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="B236" s="10" t="s">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="C236" s="10" t="s">
+      <c r="B237" s="10" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A237" s="10" t="s">
+      <c r="C237" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="B237" s="10" t="s">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="C237" s="10" t="s">
+      <c r="B238" s="10" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A238" s="10" t="s">
+      <c r="C238" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="B238" s="10" t="s">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="C238" s="10" t="s">
+      <c r="B239" s="10" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" s="10" t="s">
+      <c r="C239" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="B239" s="10" t="s">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="C239" s="10" t="s">
+      <c r="B240" s="10" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A240" s="10" t="s">
+      <c r="C240" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="B240" s="10" t="s">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="C240" s="10" t="s">
+      <c r="B241" s="10" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A241" s="10" t="s">
+      <c r="C241" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="B241" s="10" t="s">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="B242" s="10" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A242" s="10" t="s">
+      <c r="C242" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="B242" s="10" t="s">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="C242" s="10" t="s">
+      <c r="B243" s="10" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A243" s="10" t="s">
+      <c r="C243" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="B243" s="10" t="s">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="C243" s="10" t="s">
+      <c r="B244" s="10" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A244" s="10" t="s">
+      <c r="C244" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="B244" s="10" t="s">
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="C244" s="10" t="s">
+      <c r="B245" s="10" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A245" s="10" t="s">
+      <c r="C245" s="10" t="s">
         <v>740</v>
       </c>
-      <c r="B245" s="10" t="s">
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="C245" s="10" t="s">
+      <c r="B246" s="10" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A246" s="10" t="s">
+      <c r="C246" s="10" t="s">
         <v>743</v>
       </c>
-      <c r="B246" s="10" t="s">
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="10" t="s">
         <v>744</v>
       </c>
-      <c r="C246" s="10" t="s">
+      <c r="B247" s="10" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A247" s="10" t="s">
+      <c r="C247" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="B247" s="10" t="s">
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="C247" s="10" t="s">
+      <c r="B248" s="10" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A248" s="10" t="s">
+      <c r="C248" s="10" t="s">
         <v>749</v>
       </c>
-      <c r="B248" s="10" t="s">
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="C248" s="10" t="s">
+      <c r="B249" s="10" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A249" s="10" t="s">
+      <c r="C249" s="10" t="s">
         <v>752</v>
       </c>
-      <c r="B249" s="10" t="s">
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="C249" s="10" t="s">
+      <c r="B250" s="10" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A250" s="10" t="s">
+      <c r="C250" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="B250" s="10" t="s">
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="10" t="s">
         <v>756</v>
       </c>
-      <c r="C250" s="10" t="s">
+      <c r="B251" s="10" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A251" s="10" t="s">
+      <c r="C251" s="10" t="s">
         <v>758</v>
       </c>
-      <c r="B251" s="10" t="s">
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="C251" s="10" t="s">
+      <c r="B252" s="10" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A252" s="10" t="s">
+      <c r="C252" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="B252" s="10" t="s">
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="C252" s="10" t="s">
+      <c r="B253" s="10" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A253" s="10" t="s">
+      <c r="C253" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="B253" s="10" t="s">
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="C253" s="10" t="s">
+      <c r="B254" s="10" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A254" s="10" t="s">
+      <c r="C254" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="B254" s="10" t="s">
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="C254" s="10" t="s">
+      <c r="B255" s="10" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A255" s="10" t="s">
+      <c r="C255" s="10" t="s">
         <v>770</v>
       </c>
-      <c r="B255" s="10" t="s">
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="C255" s="10" t="s">
+      <c r="B256" s="10" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A256" s="10" t="s">
+      <c r="C256" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="B256" s="10" t="s">
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="C256" s="10" t="s">
+      <c r="B257" s="10" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A257" s="10" t="s">
+      <c r="C257" s="10" t="s">
         <v>776</v>
       </c>
-      <c r="B257" s="10" t="s">
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="C257" s="10" t="s">
+      <c r="B258" s="10" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A258" s="10" t="s">
+      <c r="C258" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="B258" s="10" t="s">
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="C258" s="10" t="s">
+      <c r="B259" s="10" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A259" s="10" t="s">
+      <c r="C259" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="B259" s="10" t="s">
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="C259" s="10" t="s">
+      <c r="B260" s="10" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A260" s="10" t="s">
+      <c r="C260" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="B260" s="10" t="s">
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="C260" s="10" t="s">
+      <c r="B261" s="10" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A261" s="10" t="s">
+      <c r="C261" s="10" t="s">
         <v>788</v>
       </c>
-      <c r="B261" s="10" t="s">
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="C261" s="10" t="s">
+      <c r="B262" s="10" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A262" s="10" t="s">
+      <c r="C262" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="B262" s="10" t="s">
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="C262" s="10" t="s">
+      <c r="B263" s="10" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A263" s="10" t="s">
+      <c r="C263" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="B263" s="10" t="s">
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="C263" s="10" t="s">
+      <c r="B264" s="10" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A264" s="10" t="s">
+      <c r="C264" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="B264" s="10" t="s">
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="C264" s="10" t="s">
+      <c r="B265" s="10" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A265" s="10" t="s">
+      <c r="C265" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="B265" s="10" t="s">
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="C265" s="10" t="s">
+      <c r="B266" s="10" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A266" s="10" t="s">
+      <c r="C266" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="B266" s="10" t="s">
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="C266" s="10" t="s">
+      <c r="B267" s="10" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A267" s="10" t="s">
+      <c r="C267" s="10" t="s">
         <v>806</v>
       </c>
-      <c r="B267" s="10" t="s">
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="C267" s="10" t="s">
+      <c r="B268" s="10" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A268" s="10" t="s">
+      <c r="C268" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="B268" s="10" t="s">
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="C268" s="10" t="s">
+      <c r="B269" s="10" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A269" s="10" t="s">
+      <c r="C269" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="B269" s="10" t="s">
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="C269" s="10" t="s">
+      <c r="B270" s="10" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A270" s="10" t="s">
+      <c r="C270" s="10" t="s">
         <v>815</v>
       </c>
-      <c r="B270" s="10" t="s">
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="C270" s="10" t="s">
+      <c r="B271" s="10" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A271" s="10" t="s">
+      <c r="C271" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="B271" s="10" t="s">
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="C271" s="10" t="s">
+      <c r="B272" s="10" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A272" s="10" t="s">
+      <c r="C272" s="10" t="s">
         <v>821</v>
       </c>
-      <c r="B272" s="10" t="s">
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="C272" s="10" t="s">
+      <c r="B273" s="10" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A273" s="10" t="s">
+      <c r="C273" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="B273" s="10" t="s">
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="C273" s="10" t="s">
+      <c r="B274" s="10" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A274" s="10" t="s">
+      <c r="C274" s="10" t="s">
         <v>827</v>
       </c>
-      <c r="B274" s="10" t="s">
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="C274" s="10" t="s">
+      <c r="B275" s="10" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A275" s="10" t="s">
+      <c r="C275" s="10" t="s">
         <v>830</v>
       </c>
-      <c r="B275" s="10" t="s">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="C275" s="10" t="s">
+      <c r="B276" s="10" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A276" s="10" t="s">
+      <c r="C276" s="10" t="s">
         <v>833</v>
       </c>
-      <c r="B276" s="10" t="s">
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="C276" s="10" t="s">
+      <c r="B277" s="10" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A277" s="10" t="s">
+      <c r="C277" s="10" t="s">
         <v>836</v>
       </c>
-      <c r="B277" s="10" t="s">
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="C277" s="10" t="s">
+      <c r="B278" s="10" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A278" s="10" t="s">
+      <c r="C278" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="B278" s="10" t="s">
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="C278" s="10" t="s">
+      <c r="B279" s="10" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A279" s="10" t="s">
+      <c r="C279" s="10" t="s">
         <v>842</v>
       </c>
-      <c r="B279" s="10" t="s">
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="C279" s="10" t="s">
+      <c r="B280" s="10" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A280" s="10" t="s">
+      <c r="C280" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="B280" s="10" t="s">
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="C280" s="10" t="s">
+      <c r="B281" s="10" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A281" s="10" t="s">
+      <c r="C281" s="10" t="s">
         <v>848</v>
       </c>
-      <c r="B281" s="10" t="s">
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="10" t="s">
         <v>849</v>
       </c>
-      <c r="C281" s="10" t="s">
+      <c r="B282" s="10" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A282" s="10" t="s">
+      <c r="C282" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="B282" s="10" t="s">
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="C282" s="10" t="s">
+      <c r="B283" s="10" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A283" s="10" t="s">
+      <c r="C283" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B283" s="10" t="s">
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="10" t="s">
         <v>855</v>
       </c>
-      <c r="C283" s="10" t="s">
+      <c r="B284" s="10" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A284" s="10" t="s">
+      <c r="C284" s="10" t="s">
         <v>857</v>
       </c>
-      <c r="B284" s="10" t="s">
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="C284" s="10" t="s">
+      <c r="B285" s="10" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A285" s="10" t="s">
+      <c r="C285" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="B285" s="10" t="s">
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="10" t="s">
         <v>861</v>
       </c>
-      <c r="C285" s="10" t="s">
+      <c r="B286" s="10" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A286" s="10" t="s">
+      <c r="C286" s="10" t="s">
         <v>863</v>
       </c>
-      <c r="B286" s="10" t="s">
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="C286" s="10" t="s">
+      <c r="B287" s="10" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A287" s="10" t="s">
+      <c r="C287" s="10" t="s">
         <v>866</v>
       </c>
-      <c r="B287" s="10" t="s">
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="C287" s="10" t="s">
+      <c r="B288" s="10" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A288" s="10" t="s">
+      <c r="C288" s="10" t="s">
         <v>869</v>
       </c>
-      <c r="B288" s="10" t="s">
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="C288" s="10" t="s">
+      <c r="B289" s="10" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A289" s="10" t="s">
+      <c r="C289" s="10" t="s">
         <v>872</v>
       </c>
-      <c r="B289" s="10" t="s">
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="C289" s="10" t="s">
+      <c r="B290" s="10" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A290" s="10" t="s">
+      <c r="C290" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="B290" s="10" t="s">
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="C290" s="10" t="s">
+      <c r="B291" s="10" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A291" s="10" t="s">
+      <c r="C291" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="B291" s="10" t="s">
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="C291" s="10" t="s">
+      <c r="B292" s="10" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A292" s="10" t="s">
+      <c r="C292" s="10" t="s">
         <v>881</v>
-      </c>
-      <c r="B292" s="10" t="s">
-        <v>882</v>
-      </c>
-      <c r="C292" s="10" t="s">
-        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -8024,13 +8133,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="135.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="135.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8038,28 +8147,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -8071,17 +8180,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744F2D0C-79DF-4FE3-924E-E680015F9291}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="229.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="229.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8089,28 +8198,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -8125,15 +8234,17 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8141,21 +8252,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8167,15 +8274,15 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="125.54296875" customWidth="1"/>
+    <col min="2" max="2" width="125.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8183,20 +8290,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>889</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -8209,19 +8316,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="199.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="199.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8229,12 +8336,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>890</v>
+        <v>919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>920</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -8251,12 +8366,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8264,12 +8379,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -8286,12 +8401,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8299,12 +8414,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -8321,13 +8436,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="159.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="159.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8335,12 +8450,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -8359,13 +8474,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="198.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="198.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8373,28 +8488,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -8410,13 +8525,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="152.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="152.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8424,28 +8539,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -8461,13 +8576,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="253.90625" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="253.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8475,28 +8590,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -8512,13 +8627,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="223.90625" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="223.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8526,28 +8641,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="319" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>
@@ -8563,13 +8678,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="181.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="181.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8577,28 +8692,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
     </row>
   </sheetData>
@@ -8614,13 +8729,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="222.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="222.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8628,28 +8743,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -8665,13 +8780,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="137.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="137.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8679,37 +8794,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="400" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="390" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.4">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.4">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
     </row>
   </sheetData>
@@ -8725,13 +8840,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="114.90625" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="114.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8739,28 +8854,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -8,29 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_2023\fisheriesXplorer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1398A1-A3BE-40FB-AC97-E8B4C2780D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701AB6A6-9436-44E1-9E26-3214948285F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28932" yWindow="768" windowWidth="59172" windowHeight="12072" tabRatio="826" firstSheet="10" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="overview_NrS" sheetId="1" r:id="rId1"/>
-    <sheet name="overview_NwS" sheetId="2" r:id="rId2"/>
-    <sheet name="overview_AZ" sheetId="8" r:id="rId3"/>
-    <sheet name="overview_BI" sheetId="9" r:id="rId4"/>
-    <sheet name="overview_BrS" sheetId="10" r:id="rId5"/>
-    <sheet name="overview_BtS" sheetId="11" r:id="rId6"/>
-    <sheet name="overview_CS" sheetId="12" r:id="rId7"/>
-    <sheet name="overview_FO" sheetId="13" r:id="rId8"/>
+    <sheet name="glossary" sheetId="17" r:id="rId1"/>
+    <sheet name="overview_AZ" sheetId="8" r:id="rId2"/>
+    <sheet name="overview_BI" sheetId="9" r:id="rId3"/>
+    <sheet name="overview_BrS" sheetId="10" r:id="rId4"/>
+    <sheet name="overview_BtS" sheetId="11" r:id="rId5"/>
+    <sheet name="overview_CS" sheetId="12" r:id="rId6"/>
+    <sheet name="overview_FO" sheetId="13" r:id="rId7"/>
+    <sheet name="overview_IS" sheetId="15" r:id="rId8"/>
     <sheet name="overview_GS" sheetId="14" r:id="rId9"/>
-    <sheet name="glossary" sheetId="17" r:id="rId10"/>
-    <sheet name="overview_IS" sheetId="15" r:id="rId11"/>
+    <sheet name="overview_NrS" sheetId="1" r:id="rId10"/>
+    <sheet name="overview_NwS" sheetId="2" r:id="rId11"/>
     <sheet name="overview_ONA" sheetId="16" r:id="rId12"/>
-    <sheet name="landings_discards_NrS" sheetId="3" r:id="rId13"/>
-    <sheet name="landings_discards_CS" sheetId="18" r:id="rId14"/>
-    <sheet name="status_CS" sheetId="4" r:id="rId15"/>
-    <sheet name="mixfish" sheetId="5" r:id="rId16"/>
-    <sheet name="vms" sheetId="6" r:id="rId17"/>
-    <sheet name="bycatch" sheetId="7" r:id="rId18"/>
+    <sheet name="landings_discards_AZ" sheetId="20" r:id="rId13"/>
+    <sheet name="landings_discards_BI" sheetId="21" r:id="rId14"/>
+    <sheet name="landings_discards_BrS" sheetId="22" r:id="rId15"/>
+    <sheet name="landings_discards_BtS" sheetId="23" r:id="rId16"/>
+    <sheet name="landings_discards_CS" sheetId="18" r:id="rId17"/>
+    <sheet name="landings_discards_FO" sheetId="24" r:id="rId18"/>
+    <sheet name="landings_discards_IS" sheetId="25" r:id="rId19"/>
+    <sheet name="landings_discards_GS" sheetId="26" r:id="rId20"/>
+    <sheet name="landings_discards_NrS" sheetId="3" r:id="rId21"/>
+    <sheet name="landings_discards_NwS" sheetId="19" r:id="rId22"/>
+    <sheet name="landings_discards_ONA" sheetId="27" r:id="rId23"/>
+    <sheet name="status_AZ" sheetId="28" r:id="rId24"/>
+    <sheet name="status_BI" sheetId="29" r:id="rId25"/>
+    <sheet name="status_BrS" sheetId="30" r:id="rId26"/>
+    <sheet name="status_BtS" sheetId="31" r:id="rId27"/>
+    <sheet name="status_CS" sheetId="4" r:id="rId28"/>
+    <sheet name="status_FO" sheetId="32" r:id="rId29"/>
+    <sheet name="status_IS" sheetId="33" r:id="rId30"/>
+    <sheet name="status_GS" sheetId="34" r:id="rId31"/>
+    <sheet name="status_NrS" sheetId="35" r:id="rId32"/>
+    <sheet name="status_NwS" sheetId="36" r:id="rId33"/>
+    <sheet name="status_ONA" sheetId="37" r:id="rId34"/>
+    <sheet name="mixfish" sheetId="5" r:id="rId35"/>
+    <sheet name="vms" sheetId="6" r:id="rId36"/>
+    <sheet name="bycatch" sheetId="7" r:id="rId37"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -53,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="927">
   <si>
     <t>section</t>
   </si>
@@ -4384,22 +4403,94 @@
 &lt;p&gt;Discard rates for some species are very high in the ecoregion, for example plaice (around 60% of tonnage) and whiting (50–99% of tonnage).&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;ICES currently provides advice for 112 stocks in the ecoregion. Of these, 9 (8%) benthic, 7 (6.2 %) pelagic, 10 (8.9 %) shellfish (Nephrops), 1 (0.8%) elasmobranch, and 17 (15.2%) demersal stocks have an ICES category 1 quantitative stock assessments. Demersal stocks include the three substocks of cod.27.46a7d20 (Northwestern, Viking, and Southern). Stock status is evaluated in terms of fishing mortality (F) and spawning-stock biomass (SSB) levels relative to the maximum sustainable yield (MSY) (F &lt; FMSY and SSB &gt; MSY Btrigger) and precautionary approach (PA) reference points (F &lt; FPA and SSB &gt; BPA).&lt;/p&gt;
+    <t>trends</t>
+  </si>
+  <si>
+    <t>cld</t>
+  </si>
+  <si>
+    <t>annex</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;MSY &amp; Precautionary Approach&lt;/h4&gt;
+&lt;p&gt;
+Summary of fishing mortality and stock size status relative to ICES maximum sustainable yield (MSY) approach and 
+precautionary approach (PA).
+&lt;/p&gt;
+&lt;p&gt;For the MSY: green represents stocks that are fished at or below F&lt;sub&gt;MSY&lt;/sub&gt; and whose sizes are equal to or greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;; 
+red represents stocks that are fished above F MSY or whose sizes are lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;.&lt;/p&gt;
+&lt;p&gt;For the PA: green represents stocks that are fished ator below F&lt;sub&gt;pa&lt;/sub&gt; and whose sizes are equal to or greater than B&lt;sub&gt;pa&lt;/sub&gt;; 
+orange represents stocks that are fished between F&lt;sub&gt;pa&lt;/sub&gt; and F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are between B&lt;sub&gt;lim&lt;/sub&gt; and B&lt;sub&gt;pa&lt;/sub&gt;; 
+red represents stocks that are fished above F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are lower than B&lt;sub&gt;lim&lt;/sub&gt;.&lt;/p&gt;
+&lt;p&gt;
+Grey represents stocks with unknown reference points.
+&lt;/p&gt;
+&lt;h4&gt;Catches in relation to MSY status&lt;/h4&gt;
+&lt;p&gt;
+Status summary of catches from stocks in the ecoregion relative to their latest stock assessment; the total
+catch of the stocks including catches taken outside the ecoregion.&lt;/p&gt;
+&lt;p&gt;Green represents the proportion of catch fished below F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Red represents the proportion of catch fished above F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Grey represents the proportion of catch lacking MSY reference points.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;MSY &amp; Precautionary Approach&lt;/h4&gt;
+&lt;p&gt;
+Summary of fishing mortality and stock size status relative to ICES maximum sustainable yield (MSY) approach and 
+precautionary approach (PA).
+&lt;/p&gt;
+&lt;p&gt;For the MSY: green represents stocks that are fished at or below F&lt;sub&gt;MSY&lt;/sub&gt; and whose sizes are equal to or greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;; 
+red represents stocks that are fished above F MSY or whose sizes are lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;.&lt;/p&gt;
+&lt;p&gt;For the PA: green represents stocks that are fished ator below F&lt;sub&gt;pa&lt;/sub&gt; and whose sizes are equal to or greater than B&lt;sub&gt;pa&lt;/sub&gt;; 
+orange represents stocks that are fished between F&lt;sub&gt;pa&lt;/sub&gt; and F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are between B&lt;sub&gt;lim&lt;/sub&gt; and B&lt;sub&gt;pa&lt;/sub&gt;; 
+red represents stocks that are fished above F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are lower than B&lt;sub&gt;lim&lt;/sub&gt;.&lt;/p&gt;
+&lt;p&gt;
+Grey represents stocks with unknown reference points.
+&lt;/p&gt;
+&lt;h4&gt;Catches in relation to MSY status&lt;/h4&gt;
+&lt;p&gt;
+Status summary of catches from stocks in the ecoregion relative to their latest stock assessment; the total
+catch of the stocks including catches taken outside the ecoregion.&lt;/p&gt;
+&lt;p&gt;Green represents the proportion of catch fished below F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Red represents the proportion of catch fished above F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Grey represents the proportion of catch lacking MSY reference points.&lt;/p&gt;
+&lt;h4&gt;Results description&lt;/h4&gt;
+&lt;p&gt;ICES currently provides advice for 112 stocks in the ecoregion. Of these, 9 (8%) benthic, 7 (6.2 %) pelagic, 10 (8.9 %) shellfish (Nephrops), 1 (0.8%) elasmobranch, and 17 (15.2%) demersal stocks have an ICES category 1 quantitative stock assessments. Demersal stocks include the three substocks of cod.27.46a7d20 (Northwestern, Viking, and Southern). Stock status is evaluated in terms of fishing mortality (F) and spawning-stock biomass (SSB) levels relative to the maximum sustainable yield (MSY) (F &lt; FMSY and SSB &gt; MSY Btrigger) and precautionary approach (PA) reference points (F &lt; FPA and SSB &gt; BPA).&lt;/p&gt;
 &lt;p&gt;In 2024, 39 (34.8%) of the assessed stocks are fished at or below FMSY levels, and 41 (36.6%) have a stock size equal to or above MSY Btrigger. These stocks account for 66.5% of total landings over the assessment area, which extends beyond the ecoregion. 24 (21.4%) of the assessed stocks are currently fished above FMSY and account for 90% of total landings over the assessment area.&lt;/p&gt;
 &lt;p&gt;Assessed stocks with unknown status relative to MSY and BPA represent 43% and 68%, respectively, of the stocks in the ecoregion. Stocks with unknown status relative to MSY account for 1.5% of total landings (although the assessment area for some stocks extends beyond the ecoregion)&lt;/p&gt;
 &lt;p&gt;Of the ten stocks that currently contribute most of the catch and landings in the ecoregion, haddock (had.27.46a20), boarfish (boc.27.6-8), hake (hke.27.3a46-abd), and anglerfish (mon.27.78abd) have a stock status above MSY Btrigger and fishing pressure below the FMSY, while mackerel (mac.27.nea), herring (her.27.nirs), cod (cod.27.7e-k), cod (cod.27.46a7d20 (all 3 sub-stocks)) and whiting (whg.27.7a) and (whg.27.7b-ce-k) are below MSY Btrigger and are currently fished above FMSY.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;On average, the spawning-stock size in all guilds (mean SSB/MSYBtrigger ratio) is currently above one, although it ranges from 3.2 to 1.3 among stocks. Fishing pressure for the elasmobranch, benthic, shellfish and pelagic guilds on average is currently below FMSY (range from 0.5 to 0.89 among stocks), while demersal species are fished above FMSY (mean F/FMSY ratio of 1.3).&lt;/p&gt;
+    <t>&lt;h4&gt;Status trends plots&lt;/h4&gt;
+&lt;p&gt;
+Temporal trends in F/F&lt;sub&gt;MSY&lt;/sub&gt; and SSB/MSY B&lt;sub&gt;trigger&lt;/sub&gt; for all available stocks. Stocks with proxy reference points are indicated with dotted lines.
+&lt;/p&gt;
+&lt;h4&gt;Results description&lt;/h4&gt;
+&lt;p&gt;On average, the spawning-stock size in all guilds (mean SSB/MSYBtrigger ratio) is currently above one, although it ranges from 3.2 to 1.3 among stocks. Fishing pressure for the elasmobranch, benthic, shellfish and pelagic guilds on average is currently below FMSY (range from 0.5 to 0.89 among stocks), while demersal species are fished above FMSY (mean F/FMSY ratio of 1.3).&lt;/p&gt;
 &lt;p&gt;For the elasmobranch guild, the mean F/FMSY ratio has declined since the 1990s and is currently below one. The mean SSB/MSY Btrigger ratio has increased since the 1980s and is currently above one.&lt;/p&gt;
 &lt;p&gt;For the benthic guild, the mean F/FMSY ratio has declined since the mid-1990s and is currently below one. The mean SSB/MSY Btrigger ratio has gradually increased since 2000 and is currently above one.&lt;/p&gt;
 &lt;p&gt;For the shellfish guild, the mean F/FMSY ratio shows strong fluctuations about a gradual decline from the mid-2000s and is currently below one. The mean SSB/MSY Btrigger ratio has remained above one and fairly stable throughout the time-series and is currently above one.&lt;/p&gt;
 &lt;p&gt;For the demersal guild, the mean F/FMSY ratio has declined since the 1990s and is currently above one. The mean SSB/MSY Btrigger ratio shows a small, gradual increase since 2000 and is currently above one.&lt;/p&gt;
 &lt;p&gt;For the pelagic guild, the mean F/FMSY ratio has fluctuated (mostly above one) since the 1990s and is currently below one. The mean SSB/MSY Btrigger ratio has remained fairly stable above one since the mid-1990s and is currently above one.&lt;/p&gt;
 &lt;p&gt;Not all species with catch advice are assessed against any PA or MSY reference points because these points are undefined; this includes European eel, salmon, and category 3 and 4 stocks.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Catches &amp; Kobe plots&lt;/h4&gt;
+&lt;p&gt;
+Status of stocks relative to the joint distribution of F/F&lt;sub&gt;MSY&lt;/sub&gt; and SSB/ MSY B&lt;sub&gt;trigger&lt;/sub&gt; (Kobe plot on the right/bottom) and 
+catches (triangles)/landings (circles) from the stocks latest advice (left/top plot). 
+Stocks in green are exploited at or below F&lt;sub&gt;MSY&lt;/sub&gt; while their sizes are also at or above MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Stocks in red are either exploited above F&lt;sub&gt;MSY&lt;/sub&gt; or have sizes below MSY B&lt;sub&gt;trigger&lt;/sub&gt;, or both. 
+Stocks in grey have unknown/undefined statuses in relation to at least one reference point.
+Stocks with proxy reference points are indicated with empty symbols (circles or triangles).
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4&gt;Status trends plots&lt;/h4&gt;
+&lt;p&gt;
+Temporal trends in F/F&lt;sub&gt;MSY&lt;/sub&gt; and SSB/MSY B&lt;sub&gt;trigger&lt;/sub&gt; for all available stocks. Stocks with proxy reference points are indicated with dotted lines.
+&lt;/p&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -4832,6 +4923,3246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5EC4FE-E411-4E36-B8C3-47DB4028DB0F}">
+  <dimension ref="A1:C292"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="168.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.77734375" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="B268" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C268" s="10" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="B273" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="C278" s="10" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="C284" s="10" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="C286" s="10" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="B288" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="C288" s="10" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="B290" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="B292" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="C292" s="10" t="s">
+        <v>881</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
+    <sortCondition ref="A2:A20"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C37" r:id="rId1" xr:uid="{22C4024E-F5EE-4C14-B35D-9A99EB6AF0F4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -4885,3290 +8216,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5EC4FE-E411-4E36-B8C3-47DB4028DB0F}">
-  <dimension ref="A1:C292"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="168.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.77734375" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="B176" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="B180" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="B181" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="B183" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="B185" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="B189" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="B190" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="B193" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="B194" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="B195" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="B196" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="B197" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="B198" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="B199" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="B200" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="B201" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="B202" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="B203" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="B204" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="B205" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="B206" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="B207" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="B208" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="B211" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="B212" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="10" t="s">
-        <v>642</v>
-      </c>
-      <c r="B213" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="10" t="s">
-        <v>645</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="10" t="s">
-        <v>648</v>
-      </c>
-      <c r="B215" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="B216" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="B217" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="B218" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="B219" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="10" t="s">
-        <v>663</v>
-      </c>
-      <c r="B220" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="B221" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B222" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="10" t="s">
-        <v>672</v>
-      </c>
-      <c r="B223" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="B224" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="B225" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="B226" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="C226" s="10" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="B227" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="B228" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="B229" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="B230" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="B231" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="B232" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="B233" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="B234" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="B235" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="B236" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="B237" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="B238" s="10" t="s">
-        <v>718</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="B239" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="B240" s="10" t="s">
-        <v>724</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="10" t="s">
-        <v>726</v>
-      </c>
-      <c r="B241" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="10" t="s">
-        <v>729</v>
-      </c>
-      <c r="B242" s="10" t="s">
-        <v>730</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="10" t="s">
-        <v>732</v>
-      </c>
-      <c r="B243" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="B244" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="B246" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="B247" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="B248" s="10" t="s">
-        <v>748</v>
-      </c>
-      <c r="C248" s="10" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="B249" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="B250" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="B251" s="10" t="s">
-        <v>757</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="10" t="s">
-        <v>759</v>
-      </c>
-      <c r="B252" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="10" t="s">
-        <v>762</v>
-      </c>
-      <c r="B253" s="10" t="s">
-        <v>763</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="10" t="s">
-        <v>765</v>
-      </c>
-      <c r="B254" s="10" t="s">
-        <v>766</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="10" t="s">
-        <v>768</v>
-      </c>
-      <c r="B255" s="10" t="s">
-        <v>769</v>
-      </c>
-      <c r="C255" s="10" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="B256" s="10" t="s">
-        <v>772</v>
-      </c>
-      <c r="C256" s="10" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="10" t="s">
-        <v>774</v>
-      </c>
-      <c r="B257" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="C257" s="10" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="10" t="s">
-        <v>777</v>
-      </c>
-      <c r="B258" s="10" t="s">
-        <v>778</v>
-      </c>
-      <c r="C258" s="10" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="10" t="s">
-        <v>780</v>
-      </c>
-      <c r="B259" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="10" t="s">
-        <v>783</v>
-      </c>
-      <c r="B260" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="B261" s="10" t="s">
-        <v>787</v>
-      </c>
-      <c r="C261" s="10" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="10" t="s">
-        <v>789</v>
-      </c>
-      <c r="B262" s="10" t="s">
-        <v>790</v>
-      </c>
-      <c r="C262" s="10" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="10" t="s">
-        <v>792</v>
-      </c>
-      <c r="B263" s="10" t="s">
-        <v>793</v>
-      </c>
-      <c r="C263" s="10" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="B264" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="C264" s="10" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="B265" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="10" t="s">
-        <v>804</v>
-      </c>
-      <c r="B267" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="C267" s="10" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="B268" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="C268" s="10" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="10" t="s">
-        <v>810</v>
-      </c>
-      <c r="B269" s="10" t="s">
-        <v>811</v>
-      </c>
-      <c r="C269" s="10" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="B270" s="10" t="s">
-        <v>814</v>
-      </c>
-      <c r="C270" s="10" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="B271" s="10" t="s">
-        <v>817</v>
-      </c>
-      <c r="C271" s="10" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="10" t="s">
-        <v>819</v>
-      </c>
-      <c r="B272" s="10" t="s">
-        <v>820</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="10" t="s">
-        <v>822</v>
-      </c>
-      <c r="B273" s="10" t="s">
-        <v>823</v>
-      </c>
-      <c r="C273" s="10" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="10" t="s">
-        <v>825</v>
-      </c>
-      <c r="B274" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="C274" s="10" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="B275" s="10" t="s">
-        <v>829</v>
-      </c>
-      <c r="C275" s="10" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="B276" s="10" t="s">
-        <v>832</v>
-      </c>
-      <c r="C276" s="10" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="B277" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="C277" s="10" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="10" t="s">
-        <v>837</v>
-      </c>
-      <c r="B278" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="C278" s="10" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="B279" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="C279" s="10" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="B280" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="C280" s="10" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="B281" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="C281" s="10" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="B282" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="C282" s="10" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="B283" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="C283" s="10" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="B284" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="C284" s="10" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="B285" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="C285" s="10" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="B286" s="10" t="s">
-        <v>862</v>
-      </c>
-      <c r="C286" s="10" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="10" t="s">
-        <v>864</v>
-      </c>
-      <c r="B287" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="C287" s="10" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="10" t="s">
-        <v>867</v>
-      </c>
-      <c r="B288" s="10" t="s">
-        <v>868</v>
-      </c>
-      <c r="C288" s="10" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="B289" s="10" t="s">
-        <v>871</v>
-      </c>
-      <c r="C289" s="10" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="10" t="s">
-        <v>873</v>
-      </c>
-      <c r="B290" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="C290" s="10" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="10" t="s">
-        <v>876</v>
-      </c>
-      <c r="B291" s="10" t="s">
-        <v>877</v>
-      </c>
-      <c r="C291" s="10" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="B292" s="10" t="s">
-        <v>880</v>
-      </c>
-      <c r="C292" s="10" t="s">
-        <v>881</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
-    <sortCondition ref="A2:A20"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="C37" r:id="rId1" xr:uid="{22C4024E-F5EE-4C14-B35D-9A99EB6AF0F4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A026B00C-E4B3-4E36-BEA1-AD93DF3D486F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="135.5546875" customWidth="1"/>
+    <col min="2" max="2" width="198.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>912</v>
+      <c r="B4" s="3" t="s">
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -8228,14 +8322,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C24DB-5CFD-48C4-BB67-81838BA61C50}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8270,6 +8361,123 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176BBE4C-C868-422D-A432-89141BF78270}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537C8D36-44B6-40AB-B2F5-C278C8F38BBE}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1208CFA8-0BD4-4A00-92D8-FF2B69E34213}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D76C43-B7D3-42D3-B057-81CA4865142E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -8311,15 +8519,300 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C668CA08-39B4-442C-BE86-54D5793A9F15}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82938685-CEEB-4659-B68E-B225C7C9053C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C69BDA-CBD4-4A20-96F1-D4184C7A4A9F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="152.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2B002E-5D4B-4A97-8E05-ADA2BC7262BC}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B3:B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35913B4E-3457-4352-AB64-7123F047E008}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FEA048-930A-43AC-A2F7-E864F3A29AEA}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDA5AB7-BD7F-4972-B610-8565F27586E1}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8336,19 +8829,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>886</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3A9AAE-7632-44EA-B097-966294B825CF}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>920</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>921</v>
       </c>
     </row>
@@ -8357,7 +8920,565 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6950BB04-C139-4D8C-A7DF-A5C6DE881B95}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0EDBDB-CFB0-452E-9EB1-4612E534D157}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFB3DE4-9A8D-444C-8A7F-95843C784F87}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BB4192-B3A0-40C4-9076-17E7860549D0}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="253.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C70DEC-BE18-4032-87AC-08A2E40C3A39}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C59D7F3-BDC1-449F-9172-26F24432D1B6}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF4D87F-C244-46B9-BEBE-7BAD5D19F1F9}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFC30CA-8C29-4D4C-B219-684CAC50F683}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051B8018-23E1-4D0A-B47D-B5B875F199B2}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8392,7 +9513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8427,7 +9548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8463,163 +9584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="198.33203125" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>905</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C69BDA-CBD4-4A20-96F1-D4184C7A4A9F}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="152.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BB4192-B3A0-40C4-9076-17E7860549D0}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="253.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D16401-415E-4611-9BEF-C11909718B5A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -8670,7 +9635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59C6F2-69D0-4598-BA12-1B489ABE98B2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -8721,7 +9686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB1D8E1-BE83-467E-ABE2-EB20A46DABB5}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -8772,7 +9737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385D6F23-1F00-43DA-8201-777B854F56F6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -8826,6 +9791,57 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A026B00C-E4B3-4E36-BEA1-AD93DF3D486F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="135.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>912</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_2023\fisheriesXplorer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701AB6A6-9436-44E1-9E26-3214948285F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEAFFCB-83A8-4DBE-AC33-4A364A541CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28932" yWindow="768" windowWidth="59172" windowHeight="12072" tabRatio="826" firstSheet="10" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="826" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glossary" sheetId="17" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="929">
   <si>
     <t>section</t>
   </si>
@@ -4383,7 +4383,104 @@
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Main patterns and Trends: &lt;/p&gt;
+    <t>trends</t>
+  </si>
+  <si>
+    <t>cld</t>
+  </si>
+  <si>
+    <t>annex</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;MSY &amp; Precautionary Approach&lt;/h4&gt;
+&lt;p&gt;
+Summary of fishing mortality and stock size status relative to ICES maximum sustainable yield (MSY) approach and 
+precautionary approach (PA).
+&lt;/p&gt;
+&lt;p&gt;For the MSY: green represents stocks that are fished at or below F&lt;sub&gt;MSY&lt;/sub&gt; and whose sizes are equal to or greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;; 
+red represents stocks that are fished above F MSY or whose sizes are lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;.&lt;/p&gt;
+&lt;p&gt;For the PA: green represents stocks that are fished ator below F&lt;sub&gt;pa&lt;/sub&gt; and whose sizes are equal to or greater than B&lt;sub&gt;pa&lt;/sub&gt;; 
+orange represents stocks that are fished between F&lt;sub&gt;pa&lt;/sub&gt; and F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are between B&lt;sub&gt;lim&lt;/sub&gt; and B&lt;sub&gt;pa&lt;/sub&gt;; 
+red represents stocks that are fished above F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are lower than B&lt;sub&gt;lim&lt;/sub&gt;.&lt;/p&gt;
+&lt;p&gt;
+Grey represents stocks with unknown reference points.
+&lt;/p&gt;
+&lt;h4&gt;Catches in relation to MSY status&lt;/h4&gt;
+&lt;p&gt;
+Status summary of catches from stocks in the ecoregion relative to their latest stock assessment; the total
+catch of the stocks including catches taken outside the ecoregion.&lt;/p&gt;
+&lt;p&gt;Green represents the proportion of catch fished below F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Red represents the proportion of catch fished above F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Grey represents the proportion of catch lacking MSY reference points.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;MSY &amp; Precautionary Approach&lt;/h4&gt;
+&lt;p&gt;
+Summary of fishing mortality and stock size status relative to ICES maximum sustainable yield (MSY) approach and 
+precautionary approach (PA).
+&lt;/p&gt;
+&lt;p&gt;For the MSY: green represents stocks that are fished at or below F&lt;sub&gt;MSY&lt;/sub&gt; and whose sizes are equal to or greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;; 
+red represents stocks that are fished above F MSY or whose sizes are lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;.&lt;/p&gt;
+&lt;p&gt;For the PA: green represents stocks that are fished ator below F&lt;sub&gt;pa&lt;/sub&gt; and whose sizes are equal to or greater than B&lt;sub&gt;pa&lt;/sub&gt;; 
+orange represents stocks that are fished between F&lt;sub&gt;pa&lt;/sub&gt; and F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are between B&lt;sub&gt;lim&lt;/sub&gt; and B&lt;sub&gt;pa&lt;/sub&gt;; 
+red represents stocks that are fished above F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are lower than B&lt;sub&gt;lim&lt;/sub&gt;.&lt;/p&gt;
+&lt;p&gt;
+Grey represents stocks with unknown reference points.
+&lt;/p&gt;
+&lt;h4&gt;Catches in relation to MSY status&lt;/h4&gt;
+&lt;p&gt;
+Status summary of catches from stocks in the ecoregion relative to their latest stock assessment; the total
+catch of the stocks including catches taken outside the ecoregion.&lt;/p&gt;
+&lt;p&gt;Green represents the proportion of catch fished below F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Red represents the proportion of catch fished above F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Grey represents the proportion of catch lacking MSY reference points.&lt;/p&gt;
+&lt;h4&gt;Results description&lt;/h4&gt;
+&lt;p&gt;ICES currently provides advice for 112 stocks in the ecoregion. Of these, 9 (8%) benthic, 7 (6.2 %) pelagic, 10 (8.9 %) shellfish (Nephrops), 1 (0.8%) elasmobranch, and 17 (15.2%) demersal stocks have an ICES category 1 quantitative stock assessments. Demersal stocks include the three substocks of cod.27.46a7d20 (Northwestern, Viking, and Southern). Stock status is evaluated in terms of fishing mortality (F) and spawning-stock biomass (SSB) levels relative to the maximum sustainable yield (MSY) (F &lt; FMSY and SSB &gt; MSY Btrigger) and precautionary approach (PA) reference points (F &lt; FPA and SSB &gt; BPA).&lt;/p&gt;
+&lt;p&gt;In 2024, 39 (34.8%) of the assessed stocks are fished at or below FMSY levels, and 41 (36.6%) have a stock size equal to or above MSY Btrigger. These stocks account for 66.5% of total landings over the assessment area, which extends beyond the ecoregion. 24 (21.4%) of the assessed stocks are currently fished above FMSY and account for 90% of total landings over the assessment area.&lt;/p&gt;
+&lt;p&gt;Assessed stocks with unknown status relative to MSY and BPA represent 43% and 68%, respectively, of the stocks in the ecoregion. Stocks with unknown status relative to MSY account for 1.5% of total landings (although the assessment area for some stocks extends beyond the ecoregion)&lt;/p&gt;
+&lt;p&gt;Of the ten stocks that currently contribute most of the catch and landings in the ecoregion, haddock (had.27.46a20), boarfish (boc.27.6-8), hake (hke.27.3a46-abd), and anglerfish (mon.27.78abd) have a stock status above MSY Btrigger and fishing pressure below the FMSY, while mackerel (mac.27.nea), herring (her.27.nirs), cod (cod.27.7e-k), cod (cod.27.46a7d20 (all 3 sub-stocks)) and whiting (whg.27.7a) and (whg.27.7b-ce-k) are below MSY Btrigger and are currently fished above FMSY.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Status trends plots&lt;/h4&gt;
+&lt;p&gt;
+Temporal trends in F/F&lt;sub&gt;MSY&lt;/sub&gt; and SSB/MSY B&lt;sub&gt;trigger&lt;/sub&gt; for all available stocks. Stocks with proxy reference points are indicated with dotted lines.
+&lt;/p&gt;
+&lt;h4&gt;Results description&lt;/h4&gt;
+&lt;p&gt;On average, the spawning-stock size in all guilds (mean SSB/MSYBtrigger ratio) is currently above one, although it ranges from 3.2 to 1.3 among stocks. Fishing pressure for the elasmobranch, benthic, shellfish and pelagic guilds on average is currently below FMSY (range from 0.5 to 0.89 among stocks), while demersal species are fished above FMSY (mean F/FMSY ratio of 1.3).&lt;/p&gt;
+&lt;p&gt;For the elasmobranch guild, the mean F/FMSY ratio has declined since the 1990s and is currently below one. The mean SSB/MSY Btrigger ratio has increased since the 1980s and is currently above one.&lt;/p&gt;
+&lt;p&gt;For the benthic guild, the mean F/FMSY ratio has declined since the mid-1990s and is currently below one. The mean SSB/MSY Btrigger ratio has gradually increased since 2000 and is currently above one.&lt;/p&gt;
+&lt;p&gt;For the shellfish guild, the mean F/FMSY ratio shows strong fluctuations about a gradual decline from the mid-2000s and is currently below one. The mean SSB/MSY Btrigger ratio has remained above one and fairly stable throughout the time-series and is currently above one.&lt;/p&gt;
+&lt;p&gt;For the demersal guild, the mean F/FMSY ratio has declined since the 1990s and is currently above one. The mean SSB/MSY Btrigger ratio shows a small, gradual increase since 2000 and is currently above one.&lt;/p&gt;
+&lt;p&gt;For the pelagic guild, the mean F/FMSY ratio has fluctuated (mostly above one) since the 1990s and is currently below one. The mean SSB/MSY Btrigger ratio has remained fairly stable above one since the mid-1990s and is currently above one.&lt;/p&gt;
+&lt;p&gt;Not all species with catch advice are assessed against any PA or MSY reference points because these points are undefined; this includes European eel, salmon, and category 3 and 4 stocks.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Catches &amp; Kobe plots&lt;/h4&gt;
+&lt;p&gt;
+Status of stocks relative to the joint distribution of F/F&lt;sub&gt;MSY&lt;/sub&gt; and SSB/ MSY B&lt;sub&gt;trigger&lt;/sub&gt; (Kobe plot on the right/bottom) and 
+catches (triangles)/landings (circles) from the stocks latest advice (left/top plot). 
+Stocks in green are exploited at or below F&lt;sub&gt;MSY&lt;/sub&gt; while their sizes are also at or above MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Stocks in red are either exploited above F&lt;sub&gt;MSY&lt;/sub&gt; or have sizes below MSY B&lt;sub&gt;trigger&lt;/sub&gt;, or both. 
+Stocks in grey have unknown/undefined statuses in relation to at least one reference point.
+Stocks with proxy reference points are indicated with empty symbols (circles or triangles).
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4&gt;Status trends plots&lt;/h4&gt;
+&lt;p&gt;
+Temporal trends in F/F&lt;sub&gt;MSY&lt;/sub&gt; and SSB/MSY B&lt;sub&gt;trigger&lt;/sub&gt; for all available stocks. Stocks with proxy reference points are indicated with dotted lines.
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Landings trends&lt;/h4&gt;
+&lt;p&gt;
+Landings (thousand tonnes) grouped by species common name &amp; fisheries guild, by fisheries guild and by country. 
+Group Undefined groups species that have not been assigned to a specific fisheries guild.
+When grouped by fisheries guild, total ladings are displayed with a dashed line.
+&lt;/p&gt; 
+&lt;h4&gt;Results description&lt;/h4&gt;
+&lt;p&gt;Main patterns and Trends: &lt;/p&gt;
 &lt;p&gt;Pelagic fisheries dominate landings (by volume) in the ecoregion. Blue whiting constitutes the highest proportion of pelagic landings, followed by mackerel. &lt;/p&gt;
 &lt;p&gt;Pelagic landings peaked in 1998 and in 2018 and ranged from [534] to [835] thousand tonnes in 2019-2023. &lt;/p&gt;
 &lt;p&gt;Annual mackerel landings have been below 200 thousand tonnes since 2018. Landings of herring and horse mackerel have been declining since the mid/late 1990s. &lt;/p&gt;
@@ -4396,101 +4493,52 @@
 &lt;p&gt;Otter trawling and seining is the dominant fishing effort, though has decline significantly over the time-series. Fishing effort by most other gears have also declined over the period, though more recently there has been a small increase in beam trawling (Figure 4). There are fluctuations in pelagic landings (Figure 5). Landings by demersal otter trawls, beam trawlers, pots, and static gears (mostly gillnet) have been relatively stable.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;The average discard rate among pelagic stocks is estimated to be very low. &lt;/p&gt;
+    <t>&lt;h4&gt;Landings trends&lt;/h4&gt;
+&lt;p&gt;
+Landings (thousand tonnes) grouped by species common name &amp; fisheries guild, by fisheries guild and by country. 
+Group Undefined groups species that have not been assigned to a specific fisheries guild.
+When grouped by fisheries guild, total ladings are displayed with a dashed line.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Discard trends&lt;/h4&gt;
+&lt;p&gt;
+Discard trends by fish fisheries guild shown as percentages (%) of the total annual catch in that
+category. 
+Some catches may occur outside the ecoregion and not all stock catches are disaggregated between landings
+and discards.
+&lt;/p&gt;
+&lt;h4&gt;Current discards&lt;/h4&gt;
+&lt;p&gt;
+Left/top panel: landings (green) and discards (orange) by fisheries guild
+(in thousand tonnes) only of the stocks with recorded discards. 
+Right/bottom panel: landings (green) and discards (orange) by fisheries guild (in thousand tonnes) of all
+stocks that have some catches in the ecoregion.
+&lt;/p&gt;
+&lt;p&gt;Elasmobranch discard data might highly uncertain, precaution is advised when interpreting the results.&lt;/p&gt;
+&lt;h4&gt;Results description&lt;/h4&gt;
+&lt;p&gt;The average discard rate among pelagic stocks is estimated to be very low. &lt;/p&gt;
 &lt;p&gt;The estimated average discard rate for elasmobranchs stocks is high and ranges 30% to 75%. &lt;/p&gt;
 &lt;p&gt;The average discard rate among demersal stocks ranges from 9% to 22% and is generally around 15%. &lt;/p&gt;
 &lt;p&gt;Crustacean and benthic stocks have an estimated average discard rate of around 10%. &lt;/p&gt;
 &lt;p&gt;Discard rates for some species are very high in the ecoregion, for example plaice (around 60% of tonnage) and whiting (50–99% of tonnage).&lt;/p&gt;</t>
   </si>
   <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>cld</t>
-  </si>
-  <si>
-    <t>annex</t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;MSY &amp; Precautionary Approach&lt;/h4&gt;
-&lt;p&gt;
-Summary of fishing mortality and stock size status relative to ICES maximum sustainable yield (MSY) approach and 
-precautionary approach (PA).
-&lt;/p&gt;
-&lt;p&gt;For the MSY: green represents stocks that are fished at or below F&lt;sub&gt;MSY&lt;/sub&gt; and whose sizes are equal to or greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;; 
-red represents stocks that are fished above F MSY or whose sizes are lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;.&lt;/p&gt;
-&lt;p&gt;For the PA: green represents stocks that are fished ator below F&lt;sub&gt;pa&lt;/sub&gt; and whose sizes are equal to or greater than B&lt;sub&gt;pa&lt;/sub&gt;; 
-orange represents stocks that are fished between F&lt;sub&gt;pa&lt;/sub&gt; and F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are between B&lt;sub&gt;lim&lt;/sub&gt; and B&lt;sub&gt;pa&lt;/sub&gt;; 
-red represents stocks that are fished above F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are lower than B&lt;sub&gt;lim&lt;/sub&gt;.&lt;/p&gt;
-&lt;p&gt;
-Grey represents stocks with unknown reference points.
-&lt;/p&gt;
-&lt;h4&gt;Catches in relation to MSY status&lt;/h4&gt;
-&lt;p&gt;
-Status summary of catches from stocks in the ecoregion relative to their latest stock assessment; the total
-catch of the stocks including catches taken outside the ecoregion.&lt;/p&gt;
-&lt;p&gt;Green represents the proportion of catch fished below F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
-Red represents the proportion of catch fished above F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
-Grey represents the proportion of catch lacking MSY reference points.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;MSY &amp; Precautionary Approach&lt;/h4&gt;
-&lt;p&gt;
-Summary of fishing mortality and stock size status relative to ICES maximum sustainable yield (MSY) approach and 
-precautionary approach (PA).
-&lt;/p&gt;
-&lt;p&gt;For the MSY: green represents stocks that are fished at or below F&lt;sub&gt;MSY&lt;/sub&gt; and whose sizes are equal to or greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;; 
-red represents stocks that are fished above F MSY or whose sizes are lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;.&lt;/p&gt;
-&lt;p&gt;For the PA: green represents stocks that are fished ator below F&lt;sub&gt;pa&lt;/sub&gt; and whose sizes are equal to or greater than B&lt;sub&gt;pa&lt;/sub&gt;; 
-orange represents stocks that are fished between F&lt;sub&gt;pa&lt;/sub&gt; and F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are between B&lt;sub&gt;lim&lt;/sub&gt; and B&lt;sub&gt;pa&lt;/sub&gt;; 
-red represents stocks that are fished above F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are lower than B&lt;sub&gt;lim&lt;/sub&gt;.&lt;/p&gt;
-&lt;p&gt;
-Grey represents stocks with unknown reference points.
-&lt;/p&gt;
-&lt;h4&gt;Catches in relation to MSY status&lt;/h4&gt;
-&lt;p&gt;
-Status summary of catches from stocks in the ecoregion relative to their latest stock assessment; the total
-catch of the stocks including catches taken outside the ecoregion.&lt;/p&gt;
-&lt;p&gt;Green represents the proportion of catch fished below F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
-Red represents the proportion of catch fished above F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
-Grey represents the proportion of catch lacking MSY reference points.&lt;/p&gt;
-&lt;h4&gt;Results description&lt;/h4&gt;
-&lt;p&gt;ICES currently provides advice for 112 stocks in the ecoregion. Of these, 9 (8%) benthic, 7 (6.2 %) pelagic, 10 (8.9 %) shellfish (Nephrops), 1 (0.8%) elasmobranch, and 17 (15.2%) demersal stocks have an ICES category 1 quantitative stock assessments. Demersal stocks include the three substocks of cod.27.46a7d20 (Northwestern, Viking, and Southern). Stock status is evaluated in terms of fishing mortality (F) and spawning-stock biomass (SSB) levels relative to the maximum sustainable yield (MSY) (F &lt; FMSY and SSB &gt; MSY Btrigger) and precautionary approach (PA) reference points (F &lt; FPA and SSB &gt; BPA).&lt;/p&gt;
-&lt;p&gt;In 2024, 39 (34.8%) of the assessed stocks are fished at or below FMSY levels, and 41 (36.6%) have a stock size equal to or above MSY Btrigger. These stocks account for 66.5% of total landings over the assessment area, which extends beyond the ecoregion. 24 (21.4%) of the assessed stocks are currently fished above FMSY and account for 90% of total landings over the assessment area.&lt;/p&gt;
-&lt;p&gt;Assessed stocks with unknown status relative to MSY and BPA represent 43% and 68%, respectively, of the stocks in the ecoregion. Stocks with unknown status relative to MSY account for 1.5% of total landings (although the assessment area for some stocks extends beyond the ecoregion)&lt;/p&gt;
-&lt;p&gt;Of the ten stocks that currently contribute most of the catch and landings in the ecoregion, haddock (had.27.46a20), boarfish (boc.27.6-8), hake (hke.27.3a46-abd), and anglerfish (mon.27.78abd) have a stock status above MSY Btrigger and fishing pressure below the FMSY, while mackerel (mac.27.nea), herring (her.27.nirs), cod (cod.27.7e-k), cod (cod.27.46a7d20 (all 3 sub-stocks)) and whiting (whg.27.7a) and (whg.27.7b-ce-k) are below MSY Btrigger and are currently fished above FMSY.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;Status trends plots&lt;/h4&gt;
-&lt;p&gt;
-Temporal trends in F/F&lt;sub&gt;MSY&lt;/sub&gt; and SSB/MSY B&lt;sub&gt;trigger&lt;/sub&gt; for all available stocks. Stocks with proxy reference points are indicated with dotted lines.
-&lt;/p&gt;
-&lt;h4&gt;Results description&lt;/h4&gt;
-&lt;p&gt;On average, the spawning-stock size in all guilds (mean SSB/MSYBtrigger ratio) is currently above one, although it ranges from 3.2 to 1.3 among stocks. Fishing pressure for the elasmobranch, benthic, shellfish and pelagic guilds on average is currently below FMSY (range from 0.5 to 0.89 among stocks), while demersal species are fished above FMSY (mean F/FMSY ratio of 1.3).&lt;/p&gt;
-&lt;p&gt;For the elasmobranch guild, the mean F/FMSY ratio has declined since the 1990s and is currently below one. The mean SSB/MSY Btrigger ratio has increased since the 1980s and is currently above one.&lt;/p&gt;
-&lt;p&gt;For the benthic guild, the mean F/FMSY ratio has declined since the mid-1990s and is currently below one. The mean SSB/MSY Btrigger ratio has gradually increased since 2000 and is currently above one.&lt;/p&gt;
-&lt;p&gt;For the shellfish guild, the mean F/FMSY ratio shows strong fluctuations about a gradual decline from the mid-2000s and is currently below one. The mean SSB/MSY Btrigger ratio has remained above one and fairly stable throughout the time-series and is currently above one.&lt;/p&gt;
-&lt;p&gt;For the demersal guild, the mean F/FMSY ratio has declined since the 1990s and is currently above one. The mean SSB/MSY Btrigger ratio shows a small, gradual increase since 2000 and is currently above one.&lt;/p&gt;
-&lt;p&gt;For the pelagic guild, the mean F/FMSY ratio has fluctuated (mostly above one) since the 1990s and is currently below one. The mean SSB/MSY Btrigger ratio has remained fairly stable above one since the mid-1990s and is currently above one.&lt;/p&gt;
-&lt;p&gt;Not all species with catch advice are assessed against any PA or MSY reference points because these points are undefined; this includes European eel, salmon, and category 3 and 4 stocks.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;Catches &amp; Kobe plots&lt;/h4&gt;
-&lt;p&gt;
-Status of stocks relative to the joint distribution of F/F&lt;sub&gt;MSY&lt;/sub&gt; and SSB/ MSY B&lt;sub&gt;trigger&lt;/sub&gt; (Kobe plot on the right/bottom) and 
-catches (triangles)/landings (circles) from the stocks latest advice (left/top plot). 
-Stocks in green are exploited at or below F&lt;sub&gt;MSY&lt;/sub&gt; while their sizes are also at or above MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
-Stocks in red are either exploited above F&lt;sub&gt;MSY&lt;/sub&gt; or have sizes below MSY B&lt;sub&gt;trigger&lt;/sub&gt;, or both. 
-Stocks in grey have unknown/undefined statuses in relation to at least one reference point.
-Stocks with proxy reference points are indicated with empty symbols (circles or triangles).
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h4&gt;Status trends plots&lt;/h4&gt;
-&lt;p&gt;
-Temporal trends in F/F&lt;sub&gt;MSY&lt;/sub&gt; and SSB/MSY B&lt;sub&gt;trigger&lt;/sub&gt; for all available stocks. Stocks with proxy reference points are indicated with dotted lines.
-&lt;/p&gt;
-</t>
+    <t>&lt;h4&gt;Discard trends&lt;/h4&gt;
+&lt;p&gt;
+Discard trends by fish fisheries guild shown as percentages (%) of the total annual catch in that
+category. 
+Some catches may occur outside the ecoregion and not all stock catches are disaggregated between landings
+and discards.
+&lt;/p&gt;
+&lt;h4&gt;Current discards&lt;/h4&gt;
+&lt;p&gt;
+Left/top panel: landings (green) and discards (orange) by fisheries guild
+(in thousand tonnes) only of the stocks with recorded discards. 
+Right/bottom panel: landings (green) and discards (orange) by fisheries guild (in thousand tonnes) of all
+stocks that have some catches in the ecoregion.
+&lt;/p&gt;
+&lt;p&gt;Elasmobranch discard data might highly uncertain, precaution is advised when interpreting the results.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -4930,16 +4978,16 @@
       <selection activeCell="A2" sqref="A2:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="168.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.77734375" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="168.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.81640625" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -4950,7 +4998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
@@ -4961,7 +5009,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
@@ -4972,7 +5020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -4983,7 +5031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -4994,7 +5042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
@@ -5005,7 +5053,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -5016,7 +5064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -5027,7 +5075,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
@@ -5038,7 +5086,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>49</v>
       </c>
@@ -5049,7 +5097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -5060,7 +5108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>41</v>
       </c>
@@ -5071,7 +5119,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -5082,7 +5130,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
@@ -5093,7 +5141,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
@@ -5104,7 +5152,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -5115,7 +5163,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
@@ -5126,7 +5174,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>33</v>
       </c>
@@ -5137,7 +5185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
@@ -5148,7 +5196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>47</v>
       </c>
@@ -5159,7 +5207,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>66</v>
       </c>
@@ -5170,7 +5218,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>69</v>
       </c>
@@ -5181,7 +5229,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>72</v>
       </c>
@@ -5192,7 +5240,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>75</v>
       </c>
@@ -5203,7 +5251,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>78</v>
       </c>
@@ -5214,7 +5262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>81</v>
       </c>
@@ -5225,7 +5273,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>84</v>
       </c>
@@ -5236,7 +5284,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>87</v>
       </c>
@@ -5247,7 +5295,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>90</v>
       </c>
@@ -5258,7 +5306,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>93</v>
       </c>
@@ -5269,7 +5317,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>96</v>
       </c>
@@ -5280,7 +5328,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>99</v>
       </c>
@@ -5291,7 +5339,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>102</v>
       </c>
@@ -5302,7 +5350,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>105</v>
       </c>
@@ -5313,7 +5361,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>108</v>
       </c>
@@ -5324,7 +5372,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>111</v>
       </c>
@@ -5335,7 +5383,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>114</v>
       </c>
@@ -5346,7 +5394,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>117</v>
       </c>
@@ -5357,7 +5405,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>120</v>
       </c>
@@ -5368,7 +5416,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>123</v>
       </c>
@@ -5379,7 +5427,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>126</v>
       </c>
@@ -5390,7 +5438,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>129</v>
       </c>
@@ -5401,7 +5449,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>132</v>
       </c>
@@ -5412,7 +5460,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>135</v>
       </c>
@@ -5423,7 +5471,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>138</v>
       </c>
@@ -5434,7 +5482,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>141</v>
       </c>
@@ -5445,7 +5493,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>144</v>
       </c>
@@ -5456,7 +5504,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>147</v>
       </c>
@@ -5467,7 +5515,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>150</v>
       </c>
@@ -5478,7 +5526,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>153</v>
       </c>
@@ -5489,7 +5537,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>156</v>
       </c>
@@ -5500,7 +5548,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>159</v>
       </c>
@@ -5511,7 +5559,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>162</v>
       </c>
@@ -5522,7 +5570,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>165</v>
       </c>
@@ -5533,7 +5581,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>168</v>
       </c>
@@ -5544,7 +5592,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>171</v>
       </c>
@@ -5555,7 +5603,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>174</v>
       </c>
@@ -5566,7 +5614,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>177</v>
       </c>
@@ -5577,7 +5625,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>180</v>
       </c>
@@ -5588,7 +5636,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>183</v>
       </c>
@@ -5599,7 +5647,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>186</v>
       </c>
@@ -5610,7 +5658,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>189</v>
       </c>
@@ -5621,7 +5669,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>192</v>
       </c>
@@ -5632,7 +5680,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>195</v>
       </c>
@@ -5643,7 +5691,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>198</v>
       </c>
@@ -5654,7 +5702,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>201</v>
       </c>
@@ -5665,7 +5713,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
         <v>204</v>
       </c>
@@ -5676,7 +5724,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>207</v>
       </c>
@@ -5687,7 +5735,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>210</v>
       </c>
@@ -5698,7 +5746,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
         <v>213</v>
       </c>
@@ -5709,7 +5757,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>216</v>
       </c>
@@ -5720,7 +5768,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>219</v>
       </c>
@@ -5731,7 +5779,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>222</v>
       </c>
@@ -5742,7 +5790,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
         <v>225</v>
       </c>
@@ -5753,7 +5801,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>228</v>
       </c>
@@ -5764,7 +5812,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>231</v>
       </c>
@@ -5775,7 +5823,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>234</v>
       </c>
@@ -5786,7 +5834,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>237</v>
       </c>
@@ -5797,7 +5845,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>240</v>
       </c>
@@ -5808,7 +5856,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
         <v>243</v>
       </c>
@@ -5819,7 +5867,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>246</v>
       </c>
@@ -5830,7 +5878,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>249</v>
       </c>
@@ -5841,7 +5889,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>252</v>
       </c>
@@ -5852,7 +5900,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>255</v>
       </c>
@@ -5863,7 +5911,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>258</v>
       </c>
@@ -5874,7 +5922,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
         <v>261</v>
       </c>
@@ -5885,7 +5933,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>264</v>
       </c>
@@ -5896,7 +5944,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
         <v>267</v>
       </c>
@@ -5907,7 +5955,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>270</v>
       </c>
@@ -5918,7 +5966,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>273</v>
       </c>
@@ -5929,7 +5977,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
         <v>276</v>
       </c>
@@ -5940,7 +5988,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>279</v>
       </c>
@@ -5951,7 +5999,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>282</v>
       </c>
@@ -5962,7 +6010,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
         <v>285</v>
       </c>
@@ -5973,7 +6021,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>288</v>
       </c>
@@ -5984,7 +6032,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>291</v>
       </c>
@@ -5995,7 +6043,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>294</v>
       </c>
@@ -6006,7 +6054,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>297</v>
       </c>
@@ -6017,7 +6065,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>300</v>
       </c>
@@ -6028,7 +6076,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
         <v>303</v>
       </c>
@@ -6039,7 +6087,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>306</v>
       </c>
@@ -6050,7 +6098,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>309</v>
       </c>
@@ -6061,7 +6109,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>312</v>
       </c>
@@ -6072,7 +6120,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
         <v>315</v>
       </c>
@@ -6083,7 +6131,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>318</v>
       </c>
@@ -6094,7 +6142,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
         <v>321</v>
       </c>
@@ -6105,7 +6153,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
         <v>324</v>
       </c>
@@ -6116,7 +6164,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
         <v>327</v>
       </c>
@@ -6127,7 +6175,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>330</v>
       </c>
@@ -6138,7 +6186,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>333</v>
       </c>
@@ -6149,7 +6197,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
         <v>336</v>
       </c>
@@ -6160,7 +6208,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
         <v>339</v>
       </c>
@@ -6171,7 +6219,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
         <v>342</v>
       </c>
@@ -6182,7 +6230,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
         <v>345</v>
       </c>
@@ -6193,7 +6241,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>348</v>
       </c>
@@ -6204,7 +6252,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
         <v>351</v>
       </c>
@@ -6215,7 +6263,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
         <v>354</v>
       </c>
@@ -6226,7 +6274,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
         <v>357</v>
       </c>
@@ -6237,7 +6285,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
         <v>360</v>
       </c>
@@ -6248,7 +6296,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
         <v>363</v>
       </c>
@@ -6259,7 +6307,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
         <v>366</v>
       </c>
@@ -6270,7 +6318,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
         <v>369</v>
       </c>
@@ -6281,7 +6329,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
         <v>372</v>
       </c>
@@ -6292,7 +6340,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
         <v>375</v>
       </c>
@@ -6303,7 +6351,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
         <v>378</v>
       </c>
@@ -6314,7 +6362,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
         <v>381</v>
       </c>
@@ -6325,7 +6373,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
         <v>384</v>
       </c>
@@ -6336,7 +6384,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="10" t="s">
         <v>387</v>
       </c>
@@ -6347,7 +6395,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
         <v>390</v>
       </c>
@@ -6358,7 +6406,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
         <v>393</v>
       </c>
@@ -6369,7 +6417,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
         <v>396</v>
       </c>
@@ -6380,7 +6428,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
         <v>399</v>
       </c>
@@ -6391,7 +6439,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
         <v>402</v>
       </c>
@@ -6402,7 +6450,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="10" t="s">
         <v>405</v>
       </c>
@@ -6413,7 +6461,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="10" t="s">
         <v>408</v>
       </c>
@@ -6424,7 +6472,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="10" t="s">
         <v>411</v>
       </c>
@@ -6435,7 +6483,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="10" t="s">
         <v>414</v>
       </c>
@@ -6446,7 +6494,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="10" t="s">
         <v>417</v>
       </c>
@@ -6457,7 +6505,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
         <v>420</v>
       </c>
@@ -6468,7 +6516,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="10" t="s">
         <v>423</v>
       </c>
@@ -6479,7 +6527,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
         <v>426</v>
       </c>
@@ -6490,7 +6538,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="10" t="s">
         <v>429</v>
       </c>
@@ -6501,7 +6549,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
         <v>432</v>
       </c>
@@ -6512,7 +6560,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="10" t="s">
         <v>435</v>
       </c>
@@ -6523,7 +6571,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
         <v>438</v>
       </c>
@@ -6534,7 +6582,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
         <v>441</v>
       </c>
@@ -6545,7 +6593,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="10" t="s">
         <v>444</v>
       </c>
@@ -6556,7 +6604,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="10" t="s">
         <v>447</v>
       </c>
@@ -6567,7 +6615,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="10" t="s">
         <v>450</v>
       </c>
@@ -6578,7 +6626,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="10" t="s">
         <v>453</v>
       </c>
@@ -6589,7 +6637,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="10" t="s">
         <v>456</v>
       </c>
@@ -6600,7 +6648,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="10" t="s">
         <v>459</v>
       </c>
@@ -6611,7 +6659,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="10" t="s">
         <v>462</v>
       </c>
@@ -6622,7 +6670,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="10" t="s">
         <v>465</v>
       </c>
@@ -6633,7 +6681,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="10" t="s">
         <v>468</v>
       </c>
@@ -6644,7 +6692,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="10" t="s">
         <v>471</v>
       </c>
@@ -6655,7 +6703,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="10" t="s">
         <v>474</v>
       </c>
@@ -6666,7 +6714,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="10" t="s">
         <v>477</v>
       </c>
@@ -6677,7 +6725,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="10" t="s">
         <v>480</v>
       </c>
@@ -6688,7 +6736,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="10" t="s">
         <v>483</v>
       </c>
@@ -6699,7 +6747,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="10" t="s">
         <v>486</v>
       </c>
@@ -6710,7 +6758,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="10" t="s">
         <v>489</v>
       </c>
@@ -6721,7 +6769,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="10" t="s">
         <v>492</v>
       </c>
@@ -6732,7 +6780,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="10" t="s">
         <v>495</v>
       </c>
@@ -6743,7 +6791,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="10" t="s">
         <v>498</v>
       </c>
@@ -6754,7 +6802,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="10" t="s">
         <v>501</v>
       </c>
@@ -6765,7 +6813,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="10" t="s">
         <v>504</v>
       </c>
@@ -6776,7 +6824,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="10" t="s">
         <v>507</v>
       </c>
@@ -6787,7 +6835,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="10" t="s">
         <v>510</v>
       </c>
@@ -6798,7 +6846,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="10" t="s">
         <v>513</v>
       </c>
@@ -6809,7 +6857,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="10" t="s">
         <v>516</v>
       </c>
@@ -6820,7 +6868,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="10" t="s">
         <v>519</v>
       </c>
@@ -6831,7 +6879,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="10" t="s">
         <v>522</v>
       </c>
@@ -6842,7 +6890,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="10" t="s">
         <v>525</v>
       </c>
@@ -6853,7 +6901,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="10" t="s">
         <v>528</v>
       </c>
@@ -6864,7 +6912,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="10" t="s">
         <v>531</v>
       </c>
@@ -6875,7 +6923,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="10" t="s">
         <v>534</v>
       </c>
@@ -6886,7 +6934,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="10" t="s">
         <v>537</v>
       </c>
@@ -6897,7 +6945,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="10" t="s">
         <v>540</v>
       </c>
@@ -6908,7 +6956,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="10" t="s">
         <v>543</v>
       </c>
@@ -6919,7 +6967,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="10" t="s">
         <v>546</v>
       </c>
@@ -6930,7 +6978,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="10" t="s">
         <v>549</v>
       </c>
@@ -6941,7 +6989,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="10" t="s">
         <v>552</v>
       </c>
@@ -6952,7 +7000,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="10" t="s">
         <v>555</v>
       </c>
@@ -6963,7 +7011,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="10" t="s">
         <v>558</v>
       </c>
@@ -6974,7 +7022,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="10" t="s">
         <v>561</v>
       </c>
@@ -6985,7 +7033,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="10" t="s">
         <v>564</v>
       </c>
@@ -6996,7 +7044,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="10" t="s">
         <v>567</v>
       </c>
@@ -7007,7 +7055,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="10" t="s">
         <v>570</v>
       </c>
@@ -7018,7 +7066,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="10" t="s">
         <v>573</v>
       </c>
@@ -7029,7 +7077,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="10" t="s">
         <v>576</v>
       </c>
@@ -7040,7 +7088,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="10" t="s">
         <v>579</v>
       </c>
@@ -7051,7 +7099,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="10" t="s">
         <v>582</v>
       </c>
@@ -7062,7 +7110,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="10" t="s">
         <v>585</v>
       </c>
@@ -7073,7 +7121,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="10" t="s">
         <v>588</v>
       </c>
@@ -7084,7 +7132,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="10" t="s">
         <v>591</v>
       </c>
@@ -7095,7 +7143,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="10" t="s">
         <v>594</v>
       </c>
@@ -7106,7 +7154,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="10" t="s">
         <v>597</v>
       </c>
@@ -7117,7 +7165,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="10" t="s">
         <v>600</v>
       </c>
@@ -7128,7 +7176,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="10" t="s">
         <v>603</v>
       </c>
@@ -7139,7 +7187,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="10" t="s">
         <v>606</v>
       </c>
@@ -7150,7 +7198,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="10" t="s">
         <v>609</v>
       </c>
@@ -7161,7 +7209,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="10" t="s">
         <v>612</v>
       </c>
@@ -7172,7 +7220,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="10" t="s">
         <v>615</v>
       </c>
@@ -7183,7 +7231,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="10" t="s">
         <v>618</v>
       </c>
@@ -7194,7 +7242,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="10" t="s">
         <v>621</v>
       </c>
@@ -7205,7 +7253,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="10" t="s">
         <v>624</v>
       </c>
@@ -7216,7 +7264,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="10" t="s">
         <v>627</v>
       </c>
@@ -7227,7 +7275,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="10" t="s">
         <v>630</v>
       </c>
@@ -7238,7 +7286,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="10" t="s">
         <v>633</v>
       </c>
@@ -7249,7 +7297,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="10" t="s">
         <v>636</v>
       </c>
@@ -7260,7 +7308,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="10" t="s">
         <v>639</v>
       </c>
@@ -7271,7 +7319,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="10" t="s">
         <v>642</v>
       </c>
@@ -7282,7 +7330,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="10" t="s">
         <v>645</v>
       </c>
@@ -7293,7 +7341,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="10" t="s">
         <v>648</v>
       </c>
@@ -7304,7 +7352,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="10" t="s">
         <v>651</v>
       </c>
@@ -7315,7 +7363,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="10" t="s">
         <v>654</v>
       </c>
@@ -7326,7 +7374,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="10" t="s">
         <v>657</v>
       </c>
@@ -7337,7 +7385,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="10" t="s">
         <v>660</v>
       </c>
@@ -7348,7 +7396,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="10" t="s">
         <v>663</v>
       </c>
@@ -7359,7 +7407,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="10" t="s">
         <v>666</v>
       </c>
@@ -7370,7 +7418,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="10" t="s">
         <v>669</v>
       </c>
@@ -7381,7 +7429,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="10" t="s">
         <v>672</v>
       </c>
@@ -7392,7 +7440,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="10" t="s">
         <v>675</v>
       </c>
@@ -7403,7 +7451,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="10" t="s">
         <v>678</v>
       </c>
@@ -7414,7 +7462,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="10" t="s">
         <v>681</v>
       </c>
@@ -7425,7 +7473,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="10" t="s">
         <v>684</v>
       </c>
@@ -7436,7 +7484,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="10" t="s">
         <v>687</v>
       </c>
@@ -7447,7 +7495,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="10" t="s">
         <v>690</v>
       </c>
@@ -7458,7 +7506,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="10" t="s">
         <v>693</v>
       </c>
@@ -7469,7 +7517,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="10" t="s">
         <v>696</v>
       </c>
@@ -7480,7 +7528,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="10" t="s">
         <v>699</v>
       </c>
@@ -7491,7 +7539,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="10" t="s">
         <v>702</v>
       </c>
@@ -7502,7 +7550,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="10" t="s">
         <v>705</v>
       </c>
@@ -7513,7 +7561,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="10" t="s">
         <v>708</v>
       </c>
@@ -7524,7 +7572,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="10" t="s">
         <v>711</v>
       </c>
@@ -7535,7 +7583,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="10" t="s">
         <v>714</v>
       </c>
@@ -7546,7 +7594,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="10" t="s">
         <v>717</v>
       </c>
@@ -7557,7 +7605,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="10" t="s">
         <v>720</v>
       </c>
@@ -7568,7 +7616,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="10" t="s">
         <v>723</v>
       </c>
@@ -7579,7 +7627,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="10" t="s">
         <v>726</v>
       </c>
@@ -7590,7 +7638,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="10" t="s">
         <v>729</v>
       </c>
@@ -7601,7 +7649,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="10" t="s">
         <v>732</v>
       </c>
@@ -7612,7 +7660,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="10" t="s">
         <v>735</v>
       </c>
@@ -7623,7 +7671,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="10" t="s">
         <v>738</v>
       </c>
@@ -7634,7 +7682,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="10" t="s">
         <v>741</v>
       </c>
@@ -7645,7 +7693,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="10" t="s">
         <v>744</v>
       </c>
@@ -7656,7 +7704,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="10" t="s">
         <v>747</v>
       </c>
@@ -7667,7 +7715,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="10" t="s">
         <v>750</v>
       </c>
@@ -7678,7 +7726,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="10" t="s">
         <v>753</v>
       </c>
@@ -7689,7 +7737,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="10" t="s">
         <v>756</v>
       </c>
@@ -7700,7 +7748,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="10" t="s">
         <v>759</v>
       </c>
@@ -7711,7 +7759,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="10" t="s">
         <v>762</v>
       </c>
@@ -7722,7 +7770,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="10" t="s">
         <v>765</v>
       </c>
@@ -7733,7 +7781,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="10" t="s">
         <v>768</v>
       </c>
@@ -7744,7 +7792,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="10" t="s">
         <v>771</v>
       </c>
@@ -7755,7 +7803,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="10" t="s">
         <v>774</v>
       </c>
@@ -7766,7 +7814,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="10" t="s">
         <v>777</v>
       </c>
@@ -7777,7 +7825,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="10" t="s">
         <v>780</v>
       </c>
@@ -7788,7 +7836,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="10" t="s">
         <v>783</v>
       </c>
@@ -7799,7 +7847,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="10" t="s">
         <v>786</v>
       </c>
@@ -7810,7 +7858,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="10" t="s">
         <v>789</v>
       </c>
@@ -7821,7 +7869,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="10" t="s">
         <v>792</v>
       </c>
@@ -7832,7 +7880,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="10" t="s">
         <v>795</v>
       </c>
@@ -7843,7 +7891,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="10" t="s">
         <v>798</v>
       </c>
@@ -7854,7 +7902,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="10" t="s">
         <v>801</v>
       </c>
@@ -7865,7 +7913,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="10" t="s">
         <v>804</v>
       </c>
@@ -7876,7 +7924,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="10" t="s">
         <v>807</v>
       </c>
@@ -7887,7 +7935,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="10" t="s">
         <v>810</v>
       </c>
@@ -7898,7 +7946,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="10" t="s">
         <v>813</v>
       </c>
@@ -7909,7 +7957,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="10" t="s">
         <v>816</v>
       </c>
@@ -7920,7 +7968,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="10" t="s">
         <v>819</v>
       </c>
@@ -7931,7 +7979,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="10" t="s">
         <v>822</v>
       </c>
@@ -7942,7 +7990,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="10" t="s">
         <v>825</v>
       </c>
@@ -7953,7 +8001,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="10" t="s">
         <v>828</v>
       </c>
@@ -7964,7 +8012,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="10" t="s">
         <v>831</v>
       </c>
@@ -7975,7 +8023,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="10" t="s">
         <v>834</v>
       </c>
@@ -7986,7 +8034,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="10" t="s">
         <v>837</v>
       </c>
@@ -7997,7 +8045,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="10" t="s">
         <v>840</v>
       </c>
@@ -8008,7 +8056,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="10" t="s">
         <v>843</v>
       </c>
@@ -8019,7 +8067,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="10" t="s">
         <v>846</v>
       </c>
@@ -8030,7 +8078,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="10" t="s">
         <v>849</v>
       </c>
@@ -8041,7 +8089,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="10" t="s">
         <v>852</v>
       </c>
@@ -8052,7 +8100,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="10" t="s">
         <v>855</v>
       </c>
@@ -8063,7 +8111,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="10" t="s">
         <v>858</v>
       </c>
@@ -8074,7 +8122,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="10" t="s">
         <v>861</v>
       </c>
@@ -8085,7 +8133,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="10" t="s">
         <v>864</v>
       </c>
@@ -8096,7 +8144,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="10" t="s">
         <v>867</v>
       </c>
@@ -8107,7 +8155,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="10" t="s">
         <v>870</v>
       </c>
@@ -8118,7 +8166,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="10" t="s">
         <v>873</v>
       </c>
@@ -8129,7 +8177,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="10" t="s">
         <v>876</v>
       </c>
@@ -8140,7 +8188,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="10" t="s">
         <v>879</v>
       </c>
@@ -8173,13 +8221,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8187,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>882</v>
       </c>
@@ -8195,7 +8243,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8203,7 +8251,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -8227,13 +8275,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="198.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="198.36328125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8241,7 +8289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="343.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>882</v>
       </c>
@@ -8249,7 +8297,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8257,7 +8305,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -8278,13 +8326,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="229.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="229.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8292,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>882</v>
       </c>
@@ -8300,7 +8348,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8308,7 +8356,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -8325,17 +8373,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C24DB-5CFD-48C4-BB67-81838BA61C50}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8343,17 +8391,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>928</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8364,17 +8416,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176BBE4C-C868-422D-A432-89141BF78270}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8382,17 +8434,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>928</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8403,17 +8459,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537C8D36-44B6-40AB-B2F5-C278C8F38BBE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8421,17 +8477,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>928</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8442,17 +8502,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1208CFA8-0BD4-4A00-92D8-FF2B69E34213}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8460,17 +8520,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>928</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8481,16 +8545,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D76C43-B7D3-42D3-B057-81CA4865142E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="125.5546875" customWidth="1"/>
+    <col min="2" max="2" width="125.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8498,20 +8562,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>
@@ -8523,17 +8587,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C668CA08-39B4-442C-BE86-54D5793A9F15}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8541,17 +8605,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>928</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8562,17 +8630,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82938685-CEEB-4659-B68E-B225C7C9053C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8580,17 +8648,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>928</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8605,13 +8677,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="152.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="152.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8619,7 +8691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>882</v>
       </c>
@@ -8627,7 +8699,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8635,7 +8707,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -8652,17 +8724,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2B002E-5D4B-4A97-8E05-ADA2BC7262BC}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8670,17 +8742,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>928</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8694,17 +8770,17 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8712,17 +8788,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>928</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8733,17 +8813,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35913B4E-3457-4352-AB64-7123F047E008}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8751,17 +8831,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>928</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8772,17 +8856,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FEA048-930A-43AC-A2F7-E864F3A29AEA}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8790,20 +8874,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>928</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8811,17 +8900,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDA5AB7-BD7F-4972-B610-8565F27586E1}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="199.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8829,33 +8918,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>886</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>919</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -8872,13 +8961,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="199.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8886,33 +8975,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>886</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>919</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -8928,13 +9017,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="199.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8942,33 +9031,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>886</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>919</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -8984,13 +9073,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="199.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8998,33 +9087,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>886</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>919</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -9043,13 +9132,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="199.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9057,33 +9146,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>886</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>919</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -9099,13 +9188,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="199.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9113,33 +9202,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>886</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>919</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -9155,13 +9244,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="253.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="253.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9169,7 +9258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>882</v>
       </c>
@@ -9177,7 +9266,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9185,7 +9274,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -9206,13 +9295,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="199.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9220,33 +9309,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>886</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>919</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -9262,13 +9351,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="199.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9276,33 +9365,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>886</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>919</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -9318,13 +9407,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="199.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9332,33 +9421,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>886</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>919</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -9374,13 +9463,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="199.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9388,33 +9477,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>886</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>919</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -9430,13 +9519,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="199.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="199.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9444,33 +9533,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>886</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>919</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -9487,12 +9576,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9500,7 +9589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -9522,12 +9611,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9535,7 +9624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -9557,13 +9646,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="159.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="159.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9571,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -9592,13 +9681,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="223.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="223.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9606,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>882</v>
       </c>
@@ -9614,7 +9703,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9622,7 +9711,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -9643,13 +9732,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="181.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="181.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9657,7 +9746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>882</v>
       </c>
@@ -9665,7 +9754,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9673,7 +9762,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -9694,13 +9783,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="222.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="222.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9708,7 +9797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>882</v>
       </c>
@@ -9716,7 +9805,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9724,7 +9813,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -9745,13 +9834,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="137.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="137.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9759,7 +9848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="390" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="400" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>882</v>
       </c>
@@ -9767,7 +9856,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9775,7 +9864,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -9783,13 +9872,13 @@
         <v>910</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="6"/>
     </row>
   </sheetData>
@@ -9805,13 +9894,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="135.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="135.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9819,7 +9908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>882</v>
       </c>
@@ -9827,7 +9916,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9835,7 +9924,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -9856,13 +9945,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="114.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="114.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9870,7 +9959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>882</v>
       </c>
@@ -9878,7 +9967,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9886,7 +9975,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>

--- a/data-raw/texts.xlsx
+++ b/data-raw/texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_2023\fisheriesXplorer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEAFFCB-83A8-4DBE-AC33-4A364A541CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF4C849-F593-4B1C-8AF3-FA9B6EBE9C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="826" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27588" yWindow="0" windowWidth="53700" windowHeight="16656" tabRatio="826" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glossary" sheetId="17" r:id="rId1"/>
@@ -4059,6 +4059,449 @@
 &lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;
+The Greater North Sea ecoregion includes the North Sea, English Channel, Skagerrak, and Kattegat. The Greater North Sea
+is a relatively shallow sea area on the European continental shelf, with the exception of the Norwegian Trench, which
+extends parallel with the Norwegian shoreline. A wide diversity of species are caught in the area, with over 150 stocks
+assessed by ICES including pelagic fish (e.g. herring and mackerel), demersal fish (e.g. haddock and whiting), benthic fish
+(e.g. plaice and sole), and invertebrates (e.g. Norway lobster and Northern shrimp) as well as a wide range of species not
+assessed by ICES (e.g. brown crab and scallop).&lt;/p&gt;
+&lt;p&gt;
+The ecoregion lies within FAO Major Fishing Area 27 (the prefix “27” in the ICES statistical area codes is therefore omitted
+herein). The area of ecoregion covers all of ICES divisions 3.a, 4.b, 4.c, and 7.d, most of Division 4.a, part of Division 7.e,
+and part of Subdivision 3.b.23.&lt;/p&gt;
+&lt;p&gt;
+This overview does not include the fisheries in the western English Channel (Division 7.e) or in the Sound
+(Subdivision 3.b.23). However, in reviewing the status of the stocks, all those which overlap with the ecoregion are
+included&lt;/p&gt;
+&lt;p&gt;
+This overview provides:
+&lt;/p&gt;
+&lt;ol&gt;
+  &lt;li&gt;
+a short description of each of the fishing gears, catch statistics, and the national commercial fishing fleets in the
+ecoregion and their spatial and temporal patterns of activity;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
+reference points;
+  &lt;/li&gt;
+  &lt;li&gt;
+    a description of mixed-fisheries interactions in the ecosystem; and
+  &lt;/li&gt;
+  &lt;li&gt;
+   an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
+endangered, threatened, and protected (ETP) species.
+  &lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;
+The scientific names of all species described in this overview are listed in Stock Status -&gt; Stock list tab.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Around 7 000 vessels from nine nations operate in the Greater North Sea ecoregion, with the largest numbers coming from
+the UK, France, Norway, Denmark, and the Netherlands. Total landings peaked in the early 1970s and have since declined
+while the proportion caught by each country of the total annual landings has varied over time. This section
+highlights the features of the fleets and fisheries of each country.
+&lt;/p&gt;
+&lt;h4&gt;Belgium&lt;/h4&gt;
+&lt;p&gt;
+The Belgian commercial fishing fleet consisted of 59 active vessels in 2023, of which 58 were active in the North Sea
+ecoregion. The number of vessels has been gradually decreasing since 2014 (76 active vessels in the North Sea) although
+new vessels were built in the last years, replacing older ones. The fleet consists primarily of beam trawlers (43 vessels),
+most of which are large (&gt; 24 m 27 vessels), followed by medium-sized (12–24 m, 16 vessels). The remainder of the fleet
+consists of demersal trawlers and seines (&gt; 24 m, 7 vessels; 18–24 m, seven vessels) and one vessel using fixed nets. In terms of weight, the most important target species in 2023 are plaice, cuttlefish, sole, cod, tub gurnard, squid, Norway
+lobster, scallops, haddock, and lesser-spotted dogfish; in terms of value, the most important species are sole, plaice,
+cuttlefish, squid, Norway lobster, brown shrimp, turbot, cod, lemon sole, and brill.
+&lt;/p&gt;
+&lt;p&gt;
+The beam-trawl fleet has experienced notable changes over the past decade, with a steep decline in the quantity of plaice
+and sole landed. In 2023, cuttlefish became the most important species in terms of weight for this fleet. The change in the
+species composition of landings by the trawlers is also characterized by a decrease in the quantity of plaice landed,
+although it remains the most important species in terms of weight, and a small increase in the amount of squid landed,
+especially in the most recent years.
+&lt;/p&gt;
+&lt;p&gt;
+Total landings of the Belgian fleet in the North Sea ecoregion have decreased by more than 50% since 2016, concurrent
+with a 37% decrease in income and a 34% decrease in fishing effort. Larger vessels have been reallocating their fishing
+operations to the Celtic Seas ecoregion.
+&lt;/p&gt;
+&lt;h4&gt;Denmark&lt;/h4&gt;
+&lt;p&gt;
+The Danish fleet had about 800 active vessels primarily operating in the Greater North Sea in 2023. Over the last decade,
+the size of the fleet has decreased substantially in number but has had a rather constant total capacity in GT and kW. Most
+vessels are small (&lt; 12 m, 529 vessels), followed by medium-sized (12–24 m, 225 vessels), and large v (&gt; 24 m, 51 vessels).
+The largest vessels exclusively use active gears, while passive gears are dominantly used by smaller vessels.
+&lt;/p&gt;
+&lt;p&gt;
+Over the period 2019–2023, eight species (herring, Norway lobster, sprat, mackerel, sandeel, plaice, cod, and northern
+shrimp) constituted 75% of the total landings value. Landings value from vessels &gt; 24 m constituted 64% of the total
+landings value, while the 12–24 m vessels contributed 32% and the remaining landings value (4%) was taken by the smaller
+vessels. Most of the total landings value is from the North Sea (72%), followed by the Skagerrak (23%) and the Kattegat
+(6%). Three-quarters of the total landings comprised sandeel, sprat, herring, and Norway pout.
+&lt;/p&gt;
+&lt;p&gt;The following are the main fisheries:&lt;/p&gt;
+&lt;p&gt;Fisheries for species for production of fishmeal and oils. Sandeel, sprat and Norway pout are caught with predominantly small-meshed trawl. All three species are taken mainly by the larger vessels.&lt;/p&gt;
+&lt;p&gt;Fisheries for small pelagic. Herring and mackerel are almost entirely taken by the largest vessels with pelagic gears.&lt;/p&gt;
+&lt;p&gt;Demersal fisheries with mobile gears target species like cod, plaice, saithe, and anglerfish using predominantly bottom trawls with some seine activity. Some demersal fisheries, especially in the Skagerrak and Kattegat, also target Norway lobster.&lt;/p&gt;
+&lt;p&gt;Demersal fisheries with static gears, mainly set-nets with mesh size determined by the target species. The most economically important species include plaice, cod, turbot, sole, and hake. About 20% of Danish landings value of all demersal fish species for human consumption are fished by passive gears.&lt;/p&gt;
+&lt;p&gt;Fisheries for northern shrimp with &gt; 32 mm meshed bottom trawl.&lt;/p&gt;
+&lt;h4&gt;France&lt;/h4&gt;
+&lt;p&gt;
+In 2023, the French commercial fishing fleet operating in the ecoregion consisted of 1 357 active vessels, of which more
+than 1 123 took at least 80% of their landings from the area. The number of vessels has been gradually decreasing: in 2010,
+1 796 vessels were active, of which 1 299 took at least 80% of their landings.
+&lt;/p&gt;
+&lt;p&gt;
+Fisheries vary across the different size categories of vessels:
+&lt;/p&gt;
+&lt;p&gt;The small vessel (&lt; 12 m) sector is the largest part of the French North Sea fleet, with 963 active vessels in 2023.
+The fleet uses a wide range of gears such as pots, which are used to target whelks, crabs, and lobsters. Dredge
+fisheries for king scallops are also important for this sector. Gill and trammelnets are also used to catch sole,
+plaice, lesser spotted dogfish, and starry smooth-hound.&lt;/p&gt;
+&lt;p&gt;Catches by the 12–24 m sector (332 vessels) are made by some bigger netters mostly targeting sole and vessel
+using demersal trawls and seines to fish for demersal species such as lesser-spotted dogfish, thornback ray, plaice,
+sole, squids, and horse mackerel.&lt;/p&gt;
+&lt;p&gt;Vessels 24–40 m in length (52) mostly use demersal trawls and seines to fish for demersal species such as squids,
+whiting, and plaice but also mackerel and herring.&lt;/p&gt;
+&lt;p&gt;The &gt; 40 m sector comprised 10 vessels in 2023. These were demersal trawlers mainly fishing for saithe and
+pelagic trawlers fishing for herring or mackerel.&lt;/p&gt;
+&lt;p&gt;
+The most important species in terms of value are king scallop, whelk, squids, cuttlefish, saithe, mackerel, sole, herring, and
+anglerfish. Scallop and whelk are becoming increasingly important while cod no longer plays a large role, particularly in the
+southern North Sea and the channel. Sole importance is also decreasing, following the decrease in abundance in these
+areas, and striped red mullet had greater economic importance before 2010. In terms of weight, whiting was also
+important, but its importance has decreased in the last years. The respective importance of these species will depend on
+the gear used and the fishing areas (and therefore also on the size of the vessels).
+&lt;/p&gt;
+&lt;h4&gt;Germany&lt;/h4&gt;
+&lt;p&gt;
+The German North Sea fishing fleet comprises around 190 vessels. Small beam trawlers of 12–24 m length constitute the
+largest fleet component (146 vessels in 2023) and almost exclusively target brown shrimp in the southern North Sea. In
+addition, some medium- and large-sized beam trawlers (three vessels, 24–40 m length; three vessels &gt; 40 m length) target
+sole and plaice and farm and harvest mussel. Few otter trawlers (18–24 m length) target Norway lobster and plaice in the
+North Sea. Medium-sized otter trawlers (nine vessels, 24–40 m length) mainly target saithe in the northern North Sea but
+also catch plaice, cod, hake, and haddock. Large pelagic trawlers (five vessels &gt; 40 m in length in 2023) operate in the North
+Sea pelagic and industrial fisheries that primarily target herring but also catch mackerel, sprat, and sandeel.
+&lt;/p&gt;
+&lt;p&gt;
+The main German fisheries in the Greater North Sea are:
+&lt;/p&gt;
+&lt;p&gt;The Brown shrimp (Crangon crangon) fishery in the southern North Sea (e.g. Wadden Sea area), consisting of
+mainly small beam trawlers 12–24 m in length. The number of vessels has decreased over the last 10 years. In
+most recent years, catches have also drastically decreased. However, in terms of value, this fleet is still the most
+important in the German fishery.&lt;/p&gt;
+&lt;p&gt;A pelagic fleet consisting of five large trawlers over 40 m in length. This number has been almost stable over the
+last 10 years. In terms of biomass, it primarily catches herring, followed by mackerel, sandeel and sprat.&lt;/p&gt;
+&lt;p&gt;Demersal otter trawlers (24–40 m length), of which three vessels target mainly saithe, while the others focus more
+on cod, plaice, haddock, and Norway lobster.&lt;/p&gt;
+&lt;p&gt;
+With the exception of the large pelagic trawlers, the number of vessels has declined in all fleets in the German North Sea
+fishery over the last decade. The greatest declines have been in the number of smaller beam trawlers (12–18 m length)
+and demersal otter trawlers (18–24 m length).
+&lt;/p&gt;
+&lt;h4&gt;Netherlands&lt;/h4&gt;
+&lt;p&gt;
+The Dutch fleet comprises around 600 vessels that actively fish in the ecoregion. The main landed species by quantity are
+blue whiting, herring, mackerel, plaice, sole, and brown shrimp.
+&lt;/p&gt;
+&lt;p&gt;
+The main fleet components are:
+&lt;/p&gt;
+&lt;p&gt;Large beam trawlers (&gt; 24 m, 35 vessels) mainly targeting sole and plaice and with bycatch of, among others,
+turbot, brill, rays, and gurnards. Fishing effort is concentrated in the southern and central North Sea. Effort and
+landings have both declined in recent years. From 2009 a large part of the fleet switched to electric pulse gear,
+which was banned in 2021, and subsequently, the fleet was subject to a large decommissioning programme in
+2022–2023.&lt;/p&gt;
+&lt;p&gt;Small beam trawlers (&lt; 24 m, known as “eurocutters”; 180 vessels) operate mainly in the southern and central
+North Sea targeting brown shrimp and seasonally switch to sole and plaice. The brown shrimp fishery takes
+place particularly close to the coast, with decreased landings in recent years.&lt;/p&gt;
+&lt;p&gt;Pelagic (freezer) trawlers (&gt; 40 m, eight vessels) targeting herring, mackerel, and horse mackerel. Fishing in the
+ecoregion occurs mainly in the eastern English Channel and northern North Sea, with herring being the main
+target species. For this sector, most fishing takes place outside the ecoregion.&lt;/p&gt;
+&lt;p&gt;Demersal mobile gears (24–40 m, 40 vessels, of which around 20 use flyshoot gear [also known as Scottish
+seine]). The number of flyshooting vessels has increased since 2010. These vessels operate in the central and
+southern North Sea in summer and often move to the English Channel in autumn and winter. They mainly
+target demersal fish such as gurnards and striped red mullet as well as mackerel, squid and cuttlefish. Around
+20 vessels use bottom otter boards and target flatfish such as plaice and seasonally target Norway lobster in the
+southern and central North Sea. In recent years there has been a substantial increase in squid landings by this
+fleet in winter.&lt;/p&gt;
+&lt;p&gt;Small-scale and coastal fleet vessels (&lt; 12 m; 223 vessels). This fleet mainly targets sea bass and sole using
+gillnets. Many are semi-commercial operations fishing only seasonally and represent a very small share of
+landings.&lt;/p&gt;
+&lt;h4&gt;Norway&lt;/h4&gt;
+&lt;p&gt;
+In 2023, 1 190 active vessels were administered from ports along the Norwegian coast of the ecoregion. Of these, 931 were
+&lt; 11 m, 130 were 11–15 m, 34 were 15–28 m and 95 were &gt; 28 m. The number of vessels with licences has been fairly
+stable over the last decade. Pelagic (herring and mackerel), industrial (Norway pout, blue whiting, greater Argentine, and
+sandeel), and saithe are the dominant fisheries in terms of volume. In terms of value, fisheries for northern shrimp and
+wrasses are also important. The number of vessels has been relatively stable in the past decade.
+&lt;/p&gt;
+&lt;p&gt;
+The main fisheries are:
+&lt;/p&gt;
+&lt;p&gt;The pelagic fishery for mackerel and herring with purse-seine and trawl, consisting of vessels &gt; 15 m. Most vessels
+are allowed to use both gears. 35 vessels with purse-seine licenses in 2023.&lt;/p&gt;
+&lt;p&gt;The industrial fishery by small-mesh trawl: Norway pout, blue whiting and greater Argentine are fished in a mixed
+fishery, while the sandeel fishery is conducted separately.&lt;/p&gt;
+&lt;p&gt;The northern shrimp fishery; This is a trawl fishery taking place in Skagerrak only. The landings have shown a
+declining trend in recent years. Vessels of all sizes take part here. About 15 large vessels have licenses.&lt;/p&gt;
+&lt;p&gt;The small-scale fishery is mainly &lt; 11 m, with coastal vessels, using mainly gillnet and pots. These vessels fish on
+crabs, lobster, Norway lobster and various fish. Also, many fish cleaner-fish for aquaculture using pots, mainly for
+wrasses (mainly Symphodus melops and Ctenolabrus rupestris).&lt;/p&gt;
+&lt;p&gt;The demersal trawl fishery, mainly for saithe and cod, with large vessels.&lt;/p&gt;
+&lt;p&gt;The gillnet fishery for saithe and cod, with vessels of all sizes.&lt;/p&gt;
+&lt;h4&gt;Sweden&lt;/h4&gt;
+&lt;p&gt;
+The Swedish fleet in the ecoregion in 2023 comprised more than 400 vessels. Most of these only operate in the Skagerrak
+and Kattegat, but a few also fish in the North Sea. Three hundred twenty-four vessels are small (&lt; 12 m); 84 are between
+12–40 m length, and only six are longer than 40m. The main target species in terms of value are herring, Norway lobster,
+sandeel, northern shrimp, and sprat, while the main target species in terms of volume are sandeel, herring, sprat, mackerel,
+and Norway lobster.
+&lt;/p&gt;
+&lt;p&gt;
+The Swedish fisheries in the Greater North Sea are:
+&lt;/p&gt;
+&lt;p&gt;The pelagic fishery with active gear in Skagerrak, Kattegat and North Sea. This fishery comprises mostly large
+vessels (&gt; 40 m) operating pelagic and sandeel trawls and is almost exclusively within the North Sea (99% in 2023).
+In the last 10 years, the number of vessels has decreased from 25 to 12. The main landed species in terms of
+quantity are sandeel, herring, sprat, and mackerel.&lt;/p&gt;
+&lt;p&gt;The fishery for Northern shrimp in Skagerrak, Kattegat, and North Sea. This fishery comprises mostly medium-
+sized vessels (12–40 m) operating shrimp trawls with a grid, and with or without a fish tunnel. In the last 10 years
+the number of vessels has decreased from 62 to 52. The majority (80%) of the landings of this fleet in 2023 come
+from Skagerrak.&lt;/p&gt;
+&lt;p&gt;The bottom-trawl fishery targeting Norway lobster and fish in Skagerrak and Kattegat. This fishery comprises
+mostly medium-sized vessels (12–40 m) operating bottom trawls with Norway lobster grid (23% of landings in
+2023), bottom trawls with mesh sizes of larger than 120 mm (42% of the landings in 2023), and bottom trawls
+with mesh sizes of between 90 and 119 mm and a SELTRA panel. Around 115 vessels fish in this sector, and the
+number of vessels has been relatively stable in the last 10 years. Around 77% of the landings of this fleet in 2023
+came from the Skagerrak. The main landed species in terms of quantities are Norway lobster, cod, haddock, and
+saithe.&lt;/p&gt;
+&lt;p&gt;The bottom-trawl fishery targeting fish in the North Sea. This fishery comprises only medium-sized vessels (12–
+40 m) operating mostly fish trawls with mesh sizes larger than 120 mm. In the last 10 years, the number of vessels
+has decreased from nine to five. The main landed species in terms of quantity are saithe, cod, anglerfish, and
+haddock.&lt;/p&gt;
+&lt;p&gt;The fleet using mainly passive gears consists of around 300 vessels (mostly small-size vessels &lt; 12 m). Most of
+these use pots to target Norway lobster, lobster, and edible crab, while others use gillnets and lines to target both
+demersal and pelagic species. The Swedish passive gear fisheries are almost exclusively located in the Skagerrak
+and Kattegat.&lt;/p&gt;
+&lt;h4&gt;UK (England)&lt;/h4&gt;
+&lt;p&gt;
+There were 1 352 fishing vessels administered from ports along the English coast of the ecoregion in 2022. These vessels
+target a wide range of different species, with around 39% of landings over the last five years being shellfish, 35% pelagic
+species, and the remaining 26% demersal or benthic species.
+&lt;/p&gt;
+&lt;p&gt;Fisheries vary across the different size categories of vessels:&lt;/p&gt;
+&lt;p&gt;The small vessel (&lt; 10 m) sector is the largest part of the English North Sea fleet, with 1 110 registered vessels in
+2022, down from 1 271 in 2018. The fleet uses a wide range of gears, but the most important is pots, which are
+used to target whelks, crabs, and lobsters. Dredge fisheries for cockles are also important for this sector. Some
+demersal species are also caught, with the top five being Norway lobster, sole, thornback ray, sea bass, and plaice.&lt;/p&gt;
+&lt;p&gt;Catches by the 10–15 m sector are almost exclusively shellfish with the major fisheries being pot fisheries for
+whelk, crabs, and lobsters, dredge fisheries for cockles and scallops, and trawl fisheries for Norway lobster. The
+number of vessels in this sector has remained relatively stable in recent years, with 183 in 2022.&lt;/p&gt;
+&lt;p&gt;Vessels between 15 and 40 m in length mostly use demersal trawls and seines to fish for demersal species,
+primarily gadoids and plaice. A few vessels also participate in the pot and dredge fisheries, primarily targeting
+crabs and scallops. The number of vessels in this sector has shown a gradual decline over recent years, with 50
+registered in 2022.&lt;/p&gt;
+&lt;p&gt;The &gt; 40 m sector comprised nine vessels in 2022: three pelagic trawlers fishing for herring, mackerel, and horse
+mackerel, four beam trawlers targeting plaice, and two demersal trawlers, one of which mainly fished for saithe.&lt;/p&gt;
+&lt;h4&gt;UK (Scotland)&lt;/h4&gt;
+&lt;p&gt;
+The Scottish North Sea fleet comprised 1 109 vessels in 2022, of which approximately 70% were &lt; 10 m. In terms of
+tonnage, pelagic, demersal and shellfish species made up 70%, 20%, and 10% respectively of all North Sea landings. Main
+target species include mixed gadoids (cod, haddock, whiting, saithe, and hake), anglerfish, megrim, herring, mackerel,
+Norway lobster, scallops, and various crab species. The vast majority of pelagic species were caught using pelagic trawls
+(96%). Of the demersal landings, 80% were taken using demersal trawls, 15% with seine nets, and a small amount (4%)
+taken with hooks and gillnets. Of the shellfish landings, 25% were taken using creels/pots, 41% using Norway lobster otter
+trawls, and 31% using dredges.
+&lt;/p&gt;
+&lt;p&gt;The main fisheries are:&lt;/p&gt;
+&lt;p&gt;
+&lt;p&gt;Offshore demersal otter trawlers. In 2022, 76 demersal trawlers (&gt; 10 m and using codend mesh sizes of
+&gt; 120 mm) fished for mixed gadoids (cod, haddock, whiting, saithe, and hake) and benthic species such as
+anglerfish and megrim. Since 2012, there has been a reduction in vessel numbers of 30%. Fishing grounds are
+focused mostly on the northern North Sea.&lt;/p&gt;
+&lt;p&gt;Norway lobster trawlers. In 2022, a fleet of 156 trawlers fished mainly for Norway lobster in the North Sea using
+otter trawls with codend mesh sizes of &lt; 120 mm and the number of vessels has fluctuated by up to 23% since
+2012 but without a clear trend. In 2022, 37 of these vessels (&lt; 10 m) operated on the inshore grounds, while 119
+( &gt; 10 m) operated over various offshore grounds.&lt;/p&gt;
+&lt;p&gt;Inshore pot (also termed creel). Pot or creel fishing was conducted by 577 vessels in 2022 (mostly &lt; 10 m)
+targeting lobsters and various crab species on harder inshore grounds. Vessel numbers have decreased by 12%
+since 2019.&lt;/p&gt;
+&lt;p&gt;Scallop dredgers. Scallop fishing was carried out by around 60 dredgers (mostly &gt; 10 m) focused mostly on the
+east coast of Scotland and northern England but also in the Channel. The number of vessels in this fleet has
+decreased by 21% since 2017.&lt;/p&gt;
+&lt;p&gt;Longlining and gillnetting. Limited longlining and gillnetting activities were conducted by 176 Scottish vessels in
+2022. The number of vessels in this fleet has increased by 45% since 2012. Of the vessels fishing in 2022, 41
+operated along the shelf edge targeting benthic/demersal species such as anglerfish, hake, and ling. Meanwhile,
+135 vessels (&lt; 10 m) targeted pelagic species (mostly mackerel) in inshore areas.&lt;/p&gt;
+&lt;p&gt;Pelagic trawlers. Substantial catches of pelagic species (mackerel and herring) were taken by 22 large vessels (21
+of which are ≥ 40 m), primarily using pelagic trawls. Vessel numbers have been relatively stable since 2012.&lt;/p&gt;
+&lt;h4&gt;Other&lt;/h4&gt;
+&lt;p&gt;
+The Faroe Islands also fish in the Greater North Sea, but ICES does not have information on this fleet.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>cld</t>
+  </si>
+  <si>
+    <t>annex</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;MSY &amp; Precautionary Approach&lt;/h4&gt;
+&lt;p&gt;
+Summary of fishing mortality and stock size status relative to ICES maximum sustainable yield (MSY) approach and 
+precautionary approach (PA).
+&lt;/p&gt;
+&lt;p&gt;For the MSY: green represents stocks that are fished at or below F&lt;sub&gt;MSY&lt;/sub&gt; and whose sizes are equal to or greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;; 
+red represents stocks that are fished above F MSY or whose sizes are lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;.&lt;/p&gt;
+&lt;p&gt;For the PA: green represents stocks that are fished ator below F&lt;sub&gt;pa&lt;/sub&gt; and whose sizes are equal to or greater than B&lt;sub&gt;pa&lt;/sub&gt;; 
+orange represents stocks that are fished between F&lt;sub&gt;pa&lt;/sub&gt; and F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are between B&lt;sub&gt;lim&lt;/sub&gt; and B&lt;sub&gt;pa&lt;/sub&gt;; 
+red represents stocks that are fished above F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are lower than B&lt;sub&gt;lim&lt;/sub&gt;.&lt;/p&gt;
+&lt;p&gt;
+Grey represents stocks with unknown reference points.
+&lt;/p&gt;
+&lt;h4&gt;Catches in relation to MSY status&lt;/h4&gt;
+&lt;p&gt;
+Status summary of catches from stocks in the ecoregion relative to their latest stock assessment; the total
+catch of the stocks including catches taken outside the ecoregion.&lt;/p&gt;
+&lt;p&gt;Green represents the proportion of catch fished below F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Red represents the proportion of catch fished above F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Grey represents the proportion of catch lacking MSY reference points.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;MSY &amp; Precautionary Approach&lt;/h4&gt;
+&lt;p&gt;
+Summary of fishing mortality and stock size status relative to ICES maximum sustainable yield (MSY) approach and 
+precautionary approach (PA).
+&lt;/p&gt;
+&lt;p&gt;For the MSY: green represents stocks that are fished at or below F&lt;sub&gt;MSY&lt;/sub&gt; and whose sizes are equal to or greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;; 
+red represents stocks that are fished above F MSY or whose sizes are lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;.&lt;/p&gt;
+&lt;p&gt;For the PA: green represents stocks that are fished ator below F&lt;sub&gt;pa&lt;/sub&gt; and whose sizes are equal to or greater than B&lt;sub&gt;pa&lt;/sub&gt;; 
+orange represents stocks that are fished between F&lt;sub&gt;pa&lt;/sub&gt; and F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are between B&lt;sub&gt;lim&lt;/sub&gt; and B&lt;sub&gt;pa&lt;/sub&gt;; 
+red represents stocks that are fished above F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are lower than B&lt;sub&gt;lim&lt;/sub&gt;.&lt;/p&gt;
+&lt;p&gt;
+Grey represents stocks with unknown reference points.
+&lt;/p&gt;
+&lt;h4&gt;Catches in relation to MSY status&lt;/h4&gt;
+&lt;p&gt;
+Status summary of catches from stocks in the ecoregion relative to their latest stock assessment; the total
+catch of the stocks including catches taken outside the ecoregion.&lt;/p&gt;
+&lt;p&gt;Green represents the proportion of catch fished below F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Red represents the proportion of catch fished above F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Grey represents the proportion of catch lacking MSY reference points.&lt;/p&gt;
+&lt;h4&gt;Results description&lt;/h4&gt;
+&lt;p&gt;ICES currently provides advice for 112 stocks in the ecoregion. Of these, 9 (8%) benthic, 7 (6.2 %) pelagic, 10 (8.9 %) shellfish (Nephrops), 1 (0.8%) elasmobranch, and 17 (15.2%) demersal stocks have an ICES category 1 quantitative stock assessments. Demersal stocks include the three substocks of cod.27.46a7d20 (Northwestern, Viking, and Southern). Stock status is evaluated in terms of fishing mortality (F) and spawning-stock biomass (SSB) levels relative to the maximum sustainable yield (MSY) (F &lt; FMSY and SSB &gt; MSY Btrigger) and precautionary approach (PA) reference points (F &lt; FPA and SSB &gt; BPA).&lt;/p&gt;
+&lt;p&gt;In 2024, 39 (34.8%) of the assessed stocks are fished at or below FMSY levels, and 41 (36.6%) have a stock size equal to or above MSY Btrigger. These stocks account for 66.5% of total landings over the assessment area, which extends beyond the ecoregion. 24 (21.4%) of the assessed stocks are currently fished above FMSY and account for 90% of total landings over the assessment area.&lt;/p&gt;
+&lt;p&gt;Assessed stocks with unknown status relative to MSY and BPA represent 43% and 68%, respectively, of the stocks in the ecoregion. Stocks with unknown status relative to MSY account for 1.5% of total landings (although the assessment area for some stocks extends beyond the ecoregion)&lt;/p&gt;
+&lt;p&gt;Of the ten stocks that currently contribute most of the catch and landings in the ecoregion, haddock (had.27.46a20), boarfish (boc.27.6-8), hake (hke.27.3a46-abd), and anglerfish (mon.27.78abd) have a stock status above MSY Btrigger and fishing pressure below the FMSY, while mackerel (mac.27.nea), herring (her.27.nirs), cod (cod.27.7e-k), cod (cod.27.46a7d20 (all 3 sub-stocks)) and whiting (whg.27.7a) and (whg.27.7b-ce-k) are below MSY Btrigger and are currently fished above FMSY.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Status trends plots&lt;/h4&gt;
+&lt;p&gt;
+Temporal trends in F/F&lt;sub&gt;MSY&lt;/sub&gt; and SSB/MSY B&lt;sub&gt;trigger&lt;/sub&gt; for all available stocks. Stocks with proxy reference points are indicated with dotted lines.
+&lt;/p&gt;
+&lt;h4&gt;Results description&lt;/h4&gt;
+&lt;p&gt;On average, the spawning-stock size in all guilds (mean SSB/MSYBtrigger ratio) is currently above one, although it ranges from 3.2 to 1.3 among stocks. Fishing pressure for the elasmobranch, benthic, shellfish and pelagic guilds on average is currently below FMSY (range from 0.5 to 0.89 among stocks), while demersal species are fished above FMSY (mean F/FMSY ratio of 1.3).&lt;/p&gt;
+&lt;p&gt;For the elasmobranch guild, the mean F/FMSY ratio has declined since the 1990s and is currently below one. The mean SSB/MSY Btrigger ratio has increased since the 1980s and is currently above one.&lt;/p&gt;
+&lt;p&gt;For the benthic guild, the mean F/FMSY ratio has declined since the mid-1990s and is currently below one. The mean SSB/MSY Btrigger ratio has gradually increased since 2000 and is currently above one.&lt;/p&gt;
+&lt;p&gt;For the shellfish guild, the mean F/FMSY ratio shows strong fluctuations about a gradual decline from the mid-2000s and is currently below one. The mean SSB/MSY Btrigger ratio has remained above one and fairly stable throughout the time-series and is currently above one.&lt;/p&gt;
+&lt;p&gt;For the demersal guild, the mean F/FMSY ratio has declined since the 1990s and is currently above one. The mean SSB/MSY Btrigger ratio shows a small, gradual increase since 2000 and is currently above one.&lt;/p&gt;
+&lt;p&gt;For the pelagic guild, the mean F/FMSY ratio has fluctuated (mostly above one) since the 1990s and is currently below one. The mean SSB/MSY Btrigger ratio has remained fairly stable above one since the mid-1990s and is currently above one.&lt;/p&gt;
+&lt;p&gt;Not all species with catch advice are assessed against any PA or MSY reference points because these points are undefined; this includes European eel, salmon, and category 3 and 4 stocks.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Catches &amp; Kobe plots&lt;/h4&gt;
+&lt;p&gt;
+Status of stocks relative to the joint distribution of F/F&lt;sub&gt;MSY&lt;/sub&gt; and SSB/ MSY B&lt;sub&gt;trigger&lt;/sub&gt; (Kobe plot on the right/bottom) and 
+catches (triangles)/landings (circles) from the stocks latest advice (left/top plot). 
+Stocks in green are exploited at or below F&lt;sub&gt;MSY&lt;/sub&gt; while their sizes are also at or above MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
+Stocks in red are either exploited above F&lt;sub&gt;MSY&lt;/sub&gt; or have sizes below MSY B&lt;sub&gt;trigger&lt;/sub&gt;, or both. 
+Stocks in grey have unknown/undefined statuses in relation to at least one reference point.
+Stocks with proxy reference points are indicated with empty symbols (circles or triangles).
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4&gt;Status trends plots&lt;/h4&gt;
+&lt;p&gt;
+Temporal trends in F/F&lt;sub&gt;MSY&lt;/sub&gt; and SSB/MSY B&lt;sub&gt;trigger&lt;/sub&gt; for all available stocks. Stocks with proxy reference points are indicated with dotted lines.
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Landings trends&lt;/h4&gt;
+&lt;p&gt;
+Landings (thousand tonnes) grouped by species common name &amp; fisheries guild, by fisheries guild and by country. 
+Group Undefined groups species that have not been assigned to a specific fisheries guild.
+When grouped by fisheries guild, total ladings are displayed with a dashed line.
+&lt;/p&gt; 
+&lt;h4&gt;Results description&lt;/h4&gt;
+&lt;p&gt;Main patterns and Trends: &lt;/p&gt;
+&lt;p&gt;Pelagic fisheries dominate landings (by volume) in the ecoregion. Blue whiting constitutes the highest proportion of pelagic landings, followed by mackerel. &lt;/p&gt;
+&lt;p&gt;Pelagic landings peaked in 1998 and in 2018 and ranged from [534] to [835] thousand tonnes in 2019-2023. &lt;/p&gt;
+&lt;p&gt;Annual mackerel landings have been below 200 thousand tonnes since 2018. Landings of herring and horse mackerel have been declining since the mid/late 1990s. &lt;/p&gt;
+&lt;p&gt;Demersal fisheries landings peaked in 1989 and have been generally decreasing since. &lt;/p&gt;
+&lt;p&gt;Hake accounts for most demersal landings since 2011, followed by haddock and whiting. The relative importance of cod, saithe and ling to demersal landings has been declining since the late 1980s. &lt;/p&gt;
+&lt;p&gt;Shellfish landings are dominated by Nephrops and have remained relatively stable in the last few decades, although generally lower since 2018. &lt;/p&gt;
+&lt;p&gt;Benthic landings have been generally stable since the late 1980s and higher since 2016. Anglerfish and megrim account for most benthic landings in the ecoregion &lt;/p&gt;
+&lt;p&gt;Landings of elasmobranchs have been variable over time although relatively stable at lower values since 2009. Since 2010, the cuckoo ray, small-spotted catshark, thornback ray and blonde ray account for most landings of elasmobranchs in the ecoregion.&lt;/p&gt;
+&lt;p&gt;The UK generally accounts for most fisheries landings in the ecoregion, followed by Ireland. Norwegian landings were highest in 2018-2020. &lt;/p&gt;
+&lt;p&gt;Otter trawling and seining is the dominant fishing effort, though has decline significantly over the time-series. Fishing effort by most other gears have also declined over the period, though more recently there has been a small increase in beam trawling (Figure 4). There are fluctuations in pelagic landings (Figure 5). Landings by demersal otter trawls, beam trawlers, pots, and static gears (mostly gillnet) have been relatively stable.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Landings trends&lt;/h4&gt;
+&lt;p&gt;
+Landings (thousand tonnes) grouped by species common name &amp; fisheries guild, by fisheries guild and by country. 
+Group Undefined groups species that have not been assigned to a specific fisheries guild.
+When grouped by fisheries guild, total ladings are displayed with a dashed line.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Discard trends&lt;/h4&gt;
+&lt;p&gt;
+Discard trends by fish fisheries guild shown as percentages (%) of the total annual catch in that
+category. 
+Some catches may occur outside the ecoregion and not all stock catches are disaggregated between landings
+and discards.
+&lt;/p&gt;
+&lt;h4&gt;Current discards&lt;/h4&gt;
+&lt;p&gt;
+Left/top panel: landings (green) and discards (orange) by fisheries guild
+(in thousand tonnes) only of the stocks with recorded discards. 
+Right/bottom panel: landings (green) and discards (orange) by fisheries guild (in thousand tonnes) of all
+stocks that have some catches in the ecoregion.
+&lt;/p&gt;
+&lt;p&gt;Elasmobranch discard data might highly uncertain, precaution is advised when interpreting the results.&lt;/p&gt;
+&lt;h4&gt;Results description&lt;/h4&gt;
+&lt;p&gt;The average discard rate among pelagic stocks is estimated to be very low. &lt;/p&gt;
+&lt;p&gt;The estimated average discard rate for elasmobranchs stocks is high and ranges 30% to 75%. &lt;/p&gt;
+&lt;p&gt;The average discard rate among demersal stocks ranges from 9% to 22% and is generally around 15%. &lt;/p&gt;
+&lt;p&gt;Crustacean and benthic stocks have an estimated average discard rate of around 10%. &lt;/p&gt;
+&lt;p&gt;Discard rates for some species are very high in the ecoregion, for example plaice (around 60% of tonnage) and whiting (50–99% of tonnage).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Discard trends&lt;/h4&gt;
+&lt;p&gt;
+Discard trends by fish fisheries guild shown as percentages (%) of the total annual catch in that
+category. 
+Some catches may occur outside the ecoregion and not all stock catches are disaggregated between landings
+and discards.
+&lt;/p&gt;
+&lt;h4&gt;Current discards&lt;/h4&gt;
+&lt;p&gt;
+Left/top panel: landings (green) and discards (orange) by fisheries guild
+(in thousand tonnes) only of the stocks with recorded discards. 
+Right/bottom panel: landings (green) and discards (orange) by fisheries guild (in thousand tonnes) of all
+stocks that have some catches in the ecoregion.
+&lt;/p&gt;
+&lt;p&gt;Elasmobranch discard data might highly uncertain, precaution is advised when interpreting the results.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;ul&gt;
 &lt;li&gt;
 Vessel numbers have declined across the majority of the countries fishing in the ecoregion in the past decade.
@@ -4093,452 +4536,8 @@
 &lt;/li&gt;
 &lt;/ul&gt;
 &lt;p&gt;
-  The fisheries overview document (pdf) is accessible at
-  &lt;a href="https://doi.org/10.17895/ices.advice.27879879"&gt;ICES Library&lt;/a&gt;
+  The fisheries overview document (pdf) is accessible at   &lt;a href="https://doi.org/10.17895/ices.advice.27879879"&gt;ICES Library&lt;/a&gt;
 &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-The Greater North Sea ecoregion includes the North Sea, English Channel, Skagerrak, and Kattegat. The Greater North Sea
-is a relatively shallow sea area on the European continental shelf, with the exception of the Norwegian Trench, which
-extends parallel with the Norwegian shoreline. A wide diversity of species are caught in the area, with over 150 stocks
-assessed by ICES including pelagic fish (e.g. herring and mackerel), demersal fish (e.g. haddock and whiting), benthic fish
-(e.g. plaice and sole), and invertebrates (e.g. Norway lobster and Northern shrimp) as well as a wide range of species not
-assessed by ICES (e.g. brown crab and scallop).&lt;/p&gt;
-&lt;p&gt;
-The ecoregion lies within FAO Major Fishing Area 27 (the prefix “27” in the ICES statistical area codes is therefore omitted
-herein). The area of ecoregion covers all of ICES divisions 3.a, 4.b, 4.c, and 7.d, most of Division 4.a, part of Division 7.e,
-and part of Subdivision 3.b.23.&lt;/p&gt;
-&lt;p&gt;
-This overview does not include the fisheries in the western English Channel (Division 7.e) or in the Sound
-(Subdivision 3.b.23). However, in reviewing the status of the stocks, all those which overlap with the ecoregion are
-included&lt;/p&gt;
-&lt;p&gt;
-This overview provides:
-&lt;/p&gt;
-&lt;ol&gt;
-  &lt;li&gt;
-a short description of each of the fishing gears, catch statistics, and the national commercial fishing fleets in the
-ecoregion and their spatial and temporal patterns of activity;
-  &lt;/li&gt;
-  &lt;li&gt;
-    a summary of the status of the fisheries resources and the level of exploitation relative to agreed objectives and
-reference points;
-  &lt;/li&gt;
-  &lt;li&gt;
-    a description of mixed-fisheries interactions in the ecosystem; and
-  &lt;/li&gt;
-  &lt;li&gt;
-   an evaluation of the effects of fishing gear on the ecosystem in terms of the seabed and on the bycatch of
-endangered, threatened, and protected (ETP) species.
-  &lt;/li&gt;
-&lt;/ol&gt;
-&lt;p&gt;
-The scientific names of all species described in this overview are listed in Stock Status -&gt; Stock list tab.
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-Around 7 000 vessels from nine nations operate in the Greater North Sea ecoregion, with the largest numbers coming from
-the UK, France, Norway, Denmark, and the Netherlands. Total landings peaked in the early 1970s and have since declined
-while the proportion caught by each country of the total annual landings has varied over time. This section
-highlights the features of the fleets and fisheries of each country.
-&lt;/p&gt;
-&lt;h4&gt;Belgium&lt;/h4&gt;
-&lt;p&gt;
-The Belgian commercial fishing fleet consisted of 59 active vessels in 2023, of which 58 were active in the North Sea
-ecoregion. The number of vessels has been gradually decreasing since 2014 (76 active vessels in the North Sea) although
-new vessels were built in the last years, replacing older ones. The fleet consists primarily of beam trawlers (43 vessels),
-most of which are large (&gt; 24 m 27 vessels), followed by medium-sized (12–24 m, 16 vessels). The remainder of the fleet
-consists of demersal trawlers and seines (&gt; 24 m, 7 vessels; 18–24 m, seven vessels) and one vessel using fixed nets. In terms of weight, the most important target species in 2023 are plaice, cuttlefish, sole, cod, tub gurnard, squid, Norway
-lobster, scallops, haddock, and lesser-spotted dogfish; in terms of value, the most important species are sole, plaice,
-cuttlefish, squid, Norway lobster, brown shrimp, turbot, cod, lemon sole, and brill.
-&lt;/p&gt;
-&lt;p&gt;
-The beam-trawl fleet has experienced notable changes over the past decade, with a steep decline in the quantity of plaice
-and sole landed. In 2023, cuttlefish became the most important species in terms of weight for this fleet. The change in the
-species composition of landings by the trawlers is also characterized by a decrease in the quantity of plaice landed,
-although it remains the most important species in terms of weight, and a small increase in the amount of squid landed,
-especially in the most recent years.
-&lt;/p&gt;
-&lt;p&gt;
-Total landings of the Belgian fleet in the North Sea ecoregion have decreased by more than 50% since 2016, concurrent
-with a 37% decrease in income and a 34% decrease in fishing effort. Larger vessels have been reallocating their fishing
-operations to the Celtic Seas ecoregion.
-&lt;/p&gt;
-&lt;h4&gt;Denmark&lt;/h4&gt;
-&lt;p&gt;
-The Danish fleet had about 800 active vessels primarily operating in the Greater North Sea in 2023. Over the last decade,
-the size of the fleet has decreased substantially in number but has had a rather constant total capacity in GT and kW. Most
-vessels are small (&lt; 12 m, 529 vessels), followed by medium-sized (12–24 m, 225 vessels), and large v (&gt; 24 m, 51 vessels).
-The largest vessels exclusively use active gears, while passive gears are dominantly used by smaller vessels.
-&lt;/p&gt;
-&lt;p&gt;
-Over the period 2019–2023, eight species (herring, Norway lobster, sprat, mackerel, sandeel, plaice, cod, and northern
-shrimp) constituted 75% of the total landings value. Landings value from vessels &gt; 24 m constituted 64% of the total
-landings value, while the 12–24 m vessels contributed 32% and the remaining landings value (4%) was taken by the smaller
-vessels. Most of the total landings value is from the North Sea (72%), followed by the Skagerrak (23%) and the Kattegat
-(6%). Three-quarters of the total landings comprised sandeel, sprat, herring, and Norway pout.
-&lt;/p&gt;
-&lt;p&gt;The following are the main fisheries:&lt;/p&gt;
-&lt;p&gt;Fisheries for species for production of fishmeal and oils. Sandeel, sprat and Norway pout are caught with predominantly small-meshed trawl. All three species are taken mainly by the larger vessels.&lt;/p&gt;
-&lt;p&gt;Fisheries for small pelagic. Herring and mackerel are almost entirely taken by the largest vessels with pelagic gears.&lt;/p&gt;
-&lt;p&gt;Demersal fisheries with mobile gears target species like cod, plaice, saithe, and anglerfish using predominantly bottom trawls with some seine activity. Some demersal fisheries, especially in the Skagerrak and Kattegat, also target Norway lobster.&lt;/p&gt;
-&lt;p&gt;Demersal fisheries with static gears, mainly set-nets with mesh size determined by the target species. The most economically important species include plaice, cod, turbot, sole, and hake. About 20% of Danish landings value of all demersal fish species for human consumption are fished by passive gears.&lt;/p&gt;
-&lt;p&gt;Fisheries for northern shrimp with &gt; 32 mm meshed bottom trawl.&lt;/p&gt;
-&lt;h4&gt;France&lt;/h4&gt;
-&lt;p&gt;
-In 2023, the French commercial fishing fleet operating in the ecoregion consisted of 1 357 active vessels, of which more
-than 1 123 took at least 80% of their landings from the area. The number of vessels has been gradually decreasing: in 2010,
-1 796 vessels were active, of which 1 299 took at least 80% of their landings.
-&lt;/p&gt;
-&lt;p&gt;
-Fisheries vary across the different size categories of vessels:
-&lt;/p&gt;
-&lt;p&gt;The small vessel (&lt; 12 m) sector is the largest part of the French North Sea fleet, with 963 active vessels in 2023.
-The fleet uses a wide range of gears such as pots, which are used to target whelks, crabs, and lobsters. Dredge
-fisheries for king scallops are also important for this sector. Gill and trammelnets are also used to catch sole,
-plaice, lesser spotted dogfish, and starry smooth-hound.&lt;/p&gt;
-&lt;p&gt;Catches by the 12–24 m sector (332 vessels) are made by some bigger netters mostly targeting sole and vessel
-using demersal trawls and seines to fish for demersal species such as lesser-spotted dogfish, thornback ray, plaice,
-sole, squids, and horse mackerel.&lt;/p&gt;
-&lt;p&gt;Vessels 24–40 m in length (52) mostly use demersal trawls and seines to fish for demersal species such as squids,
-whiting, and plaice but also mackerel and herring.&lt;/p&gt;
-&lt;p&gt;The &gt; 40 m sector comprised 10 vessels in 2023. These were demersal trawlers mainly fishing for saithe and
-pelagic trawlers fishing for herring or mackerel.&lt;/p&gt;
-&lt;p&gt;
-The most important species in terms of value are king scallop, whelk, squids, cuttlefish, saithe, mackerel, sole, herring, and
-anglerfish. Scallop and whelk are becoming increasingly important while cod no longer plays a large role, particularly in the
-southern North Sea and the channel. Sole importance is also decreasing, following the decrease in abundance in these
-areas, and striped red mullet had greater economic importance before 2010. In terms of weight, whiting was also
-important, but its importance has decreased in the last years. The respective importance of these species will depend on
-the gear used and the fishing areas (and therefore also on the size of the vessels).
-&lt;/p&gt;
-&lt;h4&gt;Germany&lt;/h4&gt;
-&lt;p&gt;
-The German North Sea fishing fleet comprises around 190 vessels. Small beam trawlers of 12–24 m length constitute the
-largest fleet component (146 vessels in 2023) and almost exclusively target brown shrimp in the southern North Sea. In
-addition, some medium- and large-sized beam trawlers (three vessels, 24–40 m length; three vessels &gt; 40 m length) target
-sole and plaice and farm and harvest mussel. Few otter trawlers (18–24 m length) target Norway lobster and plaice in the
-North Sea. Medium-sized otter trawlers (nine vessels, 24–40 m length) mainly target saithe in the northern North Sea but
-also catch plaice, cod, hake, and haddock. Large pelagic trawlers (five vessels &gt; 40 m in length in 2023) operate in the North
-Sea pelagic and industrial fisheries that primarily target herring but also catch mackerel, sprat, and sandeel.
-&lt;/p&gt;
-&lt;p&gt;
-The main German fisheries in the Greater North Sea are:
-&lt;/p&gt;
-&lt;p&gt;The Brown shrimp (Crangon crangon) fishery in the southern North Sea (e.g. Wadden Sea area), consisting of
-mainly small beam trawlers 12–24 m in length. The number of vessels has decreased over the last 10 years. In
-most recent years, catches have also drastically decreased. However, in terms of value, this fleet is still the most
-important in the German fishery.&lt;/p&gt;
-&lt;p&gt;A pelagic fleet consisting of five large trawlers over 40 m in length. This number has been almost stable over the
-last 10 years. In terms of biomass, it primarily catches herring, followed by mackerel, sandeel and sprat.&lt;/p&gt;
-&lt;p&gt;Demersal otter trawlers (24–40 m length), of which three vessels target mainly saithe, while the others focus more
-on cod, plaice, haddock, and Norway lobster.&lt;/p&gt;
-&lt;p&gt;
-With the exception of the large pelagic trawlers, the number of vessels has declined in all fleets in the German North Sea
-fishery over the last decade. The greatest declines have been in the number of smaller beam trawlers (12–18 m length)
-and demersal otter trawlers (18–24 m length).
-&lt;/p&gt;
-&lt;h4&gt;Netherlands&lt;/h4&gt;
-&lt;p&gt;
-The Dutch fleet comprises around 600 vessels that actively fish in the ecoregion. The main landed species by quantity are
-blue whiting, herring, mackerel, plaice, sole, and brown shrimp.
-&lt;/p&gt;
-&lt;p&gt;
-The main fleet components are:
-&lt;/p&gt;
-&lt;p&gt;Large beam trawlers (&gt; 24 m, 35 vessels) mainly targeting sole and plaice and with bycatch of, among others,
-turbot, brill, rays, and gurnards. Fishing effort is concentrated in the southern and central North Sea. Effort and
-landings have both declined in recent years. From 2009 a large part of the fleet switched to electric pulse gear,
-which was banned in 2021, and subsequently, the fleet was subject to a large decommissioning programme in
-2022–2023.&lt;/p&gt;
-&lt;p&gt;Small beam trawlers (&lt; 24 m, known as “eurocutters”; 180 vessels) operate mainly in the southern and central
-North Sea targeting brown shrimp and seasonally switch to sole and plaice. The brown shrimp fishery takes
-place particularly close to the coast, with decreased landings in recent years.&lt;/p&gt;
-&lt;p&gt;Pelagic (freezer) trawlers (&gt; 40 m, eight vessels) targeting herring, mackerel, and horse mackerel. Fishing in the
-ecoregion occurs mainly in the eastern English Channel and northern North Sea, with herring being the main
-target species. For this sector, most fishing takes place outside the ecoregion.&lt;/p&gt;
-&lt;p&gt;Demersal mobile gears (24–40 m, 40 vessels, of which around 20 use flyshoot gear [also known as Scottish
-seine]). The number of flyshooting vessels has increased since 2010. These vessels operate in the central and
-southern North Sea in summer and often move to the English Channel in autumn and winter. They mainly
-target demersal fish such as gurnards and striped red mullet as well as mackerel, squid and cuttlefish. Around
-20 vessels use bottom otter boards and target flatfish such as plaice and seasonally target Norway lobster in the
-southern and central North Sea. In recent years there has been a substantial increase in squid landings by this
-fleet in winter.&lt;/p&gt;
-&lt;p&gt;Small-scale and coastal fleet vessels (&lt; 12 m; 223 vessels). This fleet mainly targets sea bass and sole using
-gillnets. Many are semi-commercial operations fishing only seasonally and represent a very small share of
-landings.&lt;/p&gt;
-&lt;h4&gt;Norway&lt;/h4&gt;
-&lt;p&gt;
-In 2023, 1 190 active vessels were administered from ports along the Norwegian coast of the ecoregion. Of these, 931 were
-&lt; 11 m, 130 were 11–15 m, 34 were 15–28 m and 95 were &gt; 28 m. The number of vessels with licences has been fairly
-stable over the last decade. Pelagic (herring and mackerel), industrial (Norway pout, blue whiting, greater Argentine, and
-sandeel), and saithe are the dominant fisheries in terms of volume. In terms of value, fisheries for northern shrimp and
-wrasses are also important. The number of vessels has been relatively stable in the past decade.
-&lt;/p&gt;
-&lt;p&gt;
-The main fisheries are:
-&lt;/p&gt;
-&lt;p&gt;The pelagic fishery for mackerel and herring with purse-seine and trawl, consisting of vessels &gt; 15 m. Most vessels
-are allowed to use both gears. 35 vessels with purse-seine licenses in 2023.&lt;/p&gt;
-&lt;p&gt;The industrial fishery by small-mesh trawl: Norway pout, blue whiting and greater Argentine are fished in a mixed
-fishery, while the sandeel fishery is conducted separately.&lt;/p&gt;
-&lt;p&gt;The northern shrimp fishery; This is a trawl fishery taking place in Skagerrak only. The landings have shown a
-declining trend in recent years. Vessels of all sizes take part here. About 15 large vessels have licenses.&lt;/p&gt;
-&lt;p&gt;The small-scale fishery is mainly &lt; 11 m, with coastal vessels, using mainly gillnet and pots. These vessels fish on
-crabs, lobster, Norway lobster and various fish. Also, many fish cleaner-fish for aquaculture using pots, mainly for
-wrasses (mainly Symphodus melops and Ctenolabrus rupestris).&lt;/p&gt;
-&lt;p&gt;The demersal trawl fishery, mainly for saithe and cod, with large vessels.&lt;/p&gt;
-&lt;p&gt;The gillnet fishery for saithe and cod, with vessels of all sizes.&lt;/p&gt;
-&lt;h4&gt;Sweden&lt;/h4&gt;
-&lt;p&gt;
-The Swedish fleet in the ecoregion in 2023 comprised more than 400 vessels. Most of these only operate in the Skagerrak
-and Kattegat, but a few also fish in the North Sea. Three hundred twenty-four vessels are small (&lt; 12 m); 84 are between
-12–40 m length, and only six are longer than 40m. The main target species in terms of value are herring, Norway lobster,
-sandeel, northern shrimp, and sprat, while the main target species in terms of volume are sandeel, herring, sprat, mackerel,
-and Norway lobster.
-&lt;/p&gt;
-&lt;p&gt;
-The Swedish fisheries in the Greater North Sea are:
-&lt;/p&gt;
-&lt;p&gt;The pelagic fishery with active gear in Skagerrak, Kattegat and North Sea. This fishery comprises mostly large
-vessels (&gt; 40 m) operating pelagic and sandeel trawls and is almost exclusively within the North Sea (99% in 2023).
-In the last 10 years, the number of vessels has decreased from 25 to 12. The main landed species in terms of
-quantity are sandeel, herring, sprat, and mackerel.&lt;/p&gt;
-&lt;p&gt;The fishery for Northern shrimp in Skagerrak, Kattegat, and North Sea. This fishery comprises mostly medium-
-sized vessels (12–40 m) operating shrimp trawls with a grid, and with or without a fish tunnel. In the last 10 years
-the number of vessels has decreased from 62 to 52. The majority (80%) of the landings of this fleet in 2023 come
-from Skagerrak.&lt;/p&gt;
-&lt;p&gt;The bottom-trawl fishery targeting Norway lobster and fish in Skagerrak and Kattegat. This fishery comprises
-mostly medium-sized vessels (12–40 m) operating bottom trawls with Norway lobster grid (23% of landings in
-2023), bottom trawls with mesh sizes of larger than 120 mm (42% of the landings in 2023), and bottom trawls
-with mesh sizes of between 90 and 119 mm and a SELTRA panel. Around 115 vessels fish in this sector, and the
-number of vessels has been relatively stable in the last 10 years. Around 77% of the landings of this fleet in 2023
-came from the Skagerrak. The main landed species in terms of quantities are Norway lobster, cod, haddock, and
-saithe.&lt;/p&gt;
-&lt;p&gt;The bottom-trawl fishery targeting fish in the North Sea. This fishery comprises only medium-sized vessels (12–
-40 m) operating mostly fish trawls with mesh sizes larger than 120 mm. In the last 10 years, the number of vessels
-has decreased from nine to five. The main landed species in terms of quantity are saithe, cod, anglerfish, and
-haddock.&lt;/p&gt;
-&lt;p&gt;The fleet using mainly passive gears consists of around 300 vessels (mostly small-size vessels &lt; 12 m). Most of
-these use pots to target Norway lobster, lobster, and edible crab, while others use gillnets and lines to target both
-demersal and pelagic species. The Swedish passive gear fisheries are almost exclusively located in the Skagerrak
-and Kattegat.&lt;/p&gt;
-&lt;h4&gt;UK (England)&lt;/h4&gt;
-&lt;p&gt;
-There were 1 352 fishing vessels administered from ports along the English coast of the ecoregion in 2022. These vessels
-target a wide range of different species, with around 39% of landings over the last five years being shellfish, 35% pelagic
-species, and the remaining 26% demersal or benthic species.
-&lt;/p&gt;
-&lt;p&gt;Fisheries vary across the different size categories of vessels:&lt;/p&gt;
-&lt;p&gt;The small vessel (&lt; 10 m) sector is the largest part of the English North Sea fleet, with 1 110 registered vessels in
-2022, down from 1 271 in 2018. The fleet uses a wide range of gears, but the most important is pots, which are
-used to target whelks, crabs, and lobsters. Dredge fisheries for cockles are also important for this sector. Some
-demersal species are also caught, with the top five being Norway lobster, sole, thornback ray, sea bass, and plaice.&lt;/p&gt;
-&lt;p&gt;Catches by the 10–15 m sector are almost exclusively shellfish with the major fisheries being pot fisheries for
-whelk, crabs, and lobsters, dredge fisheries for cockles and scallops, and trawl fisheries for Norway lobster. The
-number of vessels in this sector has remained relatively stable in recent years, with 183 in 2022.&lt;/p&gt;
-&lt;p&gt;Vessels between 15 and 40 m in length mostly use demersal trawls and seines to fish for demersal species,
-primarily gadoids and plaice. A few vessels also participate in the pot and dredge fisheries, primarily targeting
-crabs and scallops. The number of vessels in this sector has shown a gradual decline over recent years, with 50
-registered in 2022.&lt;/p&gt;
-&lt;p&gt;The &gt; 40 m sector comprised nine vessels in 2022: three pelagic trawlers fishing for herring, mackerel, and horse
-mackerel, four beam trawlers targeting plaice, and two demersal trawlers, one of which mainly fished for saithe.&lt;/p&gt;
-&lt;h4&gt;UK (Scotland)&lt;/h4&gt;
-&lt;p&gt;
-The Scottish North Sea fleet comprised 1 109 vessels in 2022, of which approximately 70% were &lt; 10 m. In terms of
-tonnage, pelagic, demersal and shellfish species made up 70%, 20%, and 10% respectively of all North Sea landings. Main
-target species include mixed gadoids (cod, haddock, whiting, saithe, and hake), anglerfish, megrim, herring, mackerel,
-Norway lobster, scallops, and various crab species. The vast majority of pelagic species were caught using pelagic trawls
-(96%). Of the demersal landings, 80% were taken using demersal trawls, 15% with seine nets, and a small amount (4%)
-taken with hooks and gillnets. Of the shellfish landings, 25% were taken using creels/pots, 41% using Norway lobster otter
-trawls, and 31% using dredges.
-&lt;/p&gt;
-&lt;p&gt;The main fisheries are:&lt;/p&gt;
-&lt;p&gt;
-&lt;p&gt;Offshore demersal otter trawlers. In 2022, 76 demersal trawlers (&gt; 10 m and using codend mesh sizes of
-&gt; 120 mm) fished for mixed gadoids (cod, haddock, whiting, saithe, and hake) and benthic species such as
-anglerfish and megrim. Since 2012, there has been a reduction in vessel numbers of 30%. Fishing grounds are
-focused mostly on the northern North Sea.&lt;/p&gt;
-&lt;p&gt;Norway lobster trawlers. In 2022, a fleet of 156 trawlers fished mainly for Norway lobster in the North Sea using
-otter trawls with codend mesh sizes of &lt; 120 mm and the number of vessels has fluctuated by up to 23% since
-2012 but without a clear trend. In 2022, 37 of these vessels (&lt; 10 m) operated on the inshore grounds, while 119
-( &gt; 10 m) operated over various offshore grounds.&lt;/p&gt;
-&lt;p&gt;Inshore pot (also termed creel). Pot or creel fishing was conducted by 577 vessels in 2022 (mostly &lt; 10 m)
-targeting lobsters and various crab species on harder inshore grounds. Vessel numbers have decreased by 12%
-since 2019.&lt;/p&gt;
-&lt;p&gt;Scallop dredgers. Scallop fishing was carried out by around 60 dredgers (mostly &gt; 10 m) focused mostly on the
-east coast of Scotland and northern England but also in the Channel. The number of vessels in this fleet has
-decreased by 21% since 2017.&lt;/p&gt;
-&lt;p&gt;Longlining and gillnetting. Limited longlining and gillnetting activities were conducted by 176 Scottish vessels in
-2022. The number of vessels in this fleet has increased by 45% since 2012. Of the vessels fishing in 2022, 41
-operated along the shelf edge targeting benthic/demersal species such as anglerfish, hake, and ling. Meanwhile,
-135 vessels (&lt; 10 m) targeted pelagic species (mostly mackerel) in inshore areas.&lt;/p&gt;
-&lt;p&gt;Pelagic trawlers. Substantial catches of pelagic species (mackerel and herring) were taken by 22 large vessels (21
-of which are ≥ 40 m), primarily using pelagic trawls. Vessel numbers have been relatively stable since 2012.&lt;/p&gt;
-&lt;h4&gt;Other&lt;/h4&gt;
-&lt;p&gt;
-The Faroe Islands also fish in the Greater North Sea, but ICES does not have information on this fleet.
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>cld</t>
-  </si>
-  <si>
-    <t>annex</t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;MSY &amp; Precautionary Approach&lt;/h4&gt;
-&lt;p&gt;
-Summary of fishing mortality and stock size status relative to ICES maximum sustainable yield (MSY) approach and 
-precautionary approach (PA).
-&lt;/p&gt;
-&lt;p&gt;For the MSY: green represents stocks that are fished at or below F&lt;sub&gt;MSY&lt;/sub&gt; and whose sizes are equal to or greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;; 
-red represents stocks that are fished above F MSY or whose sizes are lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;.&lt;/p&gt;
-&lt;p&gt;For the PA: green represents stocks that are fished ator below F&lt;sub&gt;pa&lt;/sub&gt; and whose sizes are equal to or greater than B&lt;sub&gt;pa&lt;/sub&gt;; 
-orange represents stocks that are fished between F&lt;sub&gt;pa&lt;/sub&gt; and F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are between B&lt;sub&gt;lim&lt;/sub&gt; and B&lt;sub&gt;pa&lt;/sub&gt;; 
-red represents stocks that are fished above F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are lower than B&lt;sub&gt;lim&lt;/sub&gt;.&lt;/p&gt;
-&lt;p&gt;
-Grey represents stocks with unknown reference points.
-&lt;/p&gt;
-&lt;h4&gt;Catches in relation to MSY status&lt;/h4&gt;
-&lt;p&gt;
-Status summary of catches from stocks in the ecoregion relative to their latest stock assessment; the total
-catch of the stocks including catches taken outside the ecoregion.&lt;/p&gt;
-&lt;p&gt;Green represents the proportion of catch fished below F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
-Red represents the proportion of catch fished above F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
-Grey represents the proportion of catch lacking MSY reference points.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;MSY &amp; Precautionary Approach&lt;/h4&gt;
-&lt;p&gt;
-Summary of fishing mortality and stock size status relative to ICES maximum sustainable yield (MSY) approach and 
-precautionary approach (PA).
-&lt;/p&gt;
-&lt;p&gt;For the MSY: green represents stocks that are fished at or below F&lt;sub&gt;MSY&lt;/sub&gt; and whose sizes are equal to or greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;; 
-red represents stocks that are fished above F MSY or whose sizes are lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;.&lt;/p&gt;
-&lt;p&gt;For the PA: green represents stocks that are fished ator below F&lt;sub&gt;pa&lt;/sub&gt; and whose sizes are equal to or greater than B&lt;sub&gt;pa&lt;/sub&gt;; 
-orange represents stocks that are fished between F&lt;sub&gt;pa&lt;/sub&gt; and F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are between B&lt;sub&gt;lim&lt;/sub&gt; and B&lt;sub&gt;pa&lt;/sub&gt;; 
-red represents stocks that are fished above F&lt;sub&gt;lim&lt;/sub&gt; or whose sizes are lower than B&lt;sub&gt;lim&lt;/sub&gt;.&lt;/p&gt;
-&lt;p&gt;
-Grey represents stocks with unknown reference points.
-&lt;/p&gt;
-&lt;h4&gt;Catches in relation to MSY status&lt;/h4&gt;
-&lt;p&gt;
-Status summary of catches from stocks in the ecoregion relative to their latest stock assessment; the total
-catch of the stocks including catches taken outside the ecoregion.&lt;/p&gt;
-&lt;p&gt;Green represents the proportion of catch fished below F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is greater than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
-Red represents the proportion of catch fished above F&lt;sub&gt;MSY&lt;/sub&gt; or whose stock size is lower than MSY B&lt;sub&gt;trigger&lt;/sub&gt;. 
-Grey represents the proportion of catch lacking MSY reference points.&lt;/p&gt;
-&lt;h4&gt;Results description&lt;/h4&gt;
-&lt;p&gt;ICES currently provides advice for 112 stocks in the ecoregion. Of these, 9 (8%) benthic, 7 (6.2 %) pelagic, 10 (8.9 %) shellfish (Nephrops), 1 (0.8%) elasmobranch, and 17 (15.2%) demersal stocks have an ICES category 1 quantitative stock assessments. Demersal stocks include the three substocks of cod.27.46a7d20 (Northwestern, Viking, and Southern). Stock status is evaluated in terms of fishing mortality (F) and spawning-stock biomass (SSB) levels relative to the maximum sustainable yield (MSY) (F &lt; FMSY and SSB &gt; MSY Btrigger) and precautionary approach (PA) reference points (F &lt; FPA and SSB &gt; BPA).&lt;/p&gt;
-&lt;p&gt;In 2024, 39 (34.8%) of the assessed stocks are fished at or below FMSY levels, and 41 (36.6%) have a stock size equal to or above MSY Btrigger. These stocks account for 66.5% of total landings over the assessment area, which extends beyond the ecoregion. 24 (21.4%) of the assessed stocks are currently fished above FMSY and account for 90% of total landings over the assessment area.&lt;/p&gt;
-&lt;p&gt;Assessed stocks with unknown status relative to MSY and BPA represent 43% and 68%, respectively, of the stocks in the ecoregion. Stocks with unknown status relative to MSY account for 1.5% of total landings (although the assessment area for some stocks extends beyond the ecoregion)&lt;/p&gt;
-&lt;p&gt;Of the ten stocks that currently contribute most of the catch and landings in the ecoregion, haddock (had.27.46a20), boarfish (boc.27.6-8), hake (hke.27.3a46-abd), and anglerfish (mon.27.78abd) have a stock status above MSY Btrigger and fishing pressure below the FMSY, while mackerel (mac.27.nea), herring (her.27.nirs), cod